--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.194612</v>
+                  <v>0.261399</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.191638</v>
+                  <v>0.256866</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.185948</v>
+                  <v>0.246091</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.181213</v>
+                  <v>0.238799</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.176405</v>
+                  <v>0.239431</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.168787</v>
+                  <v>0.224649</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.161006</v>
+                  <v>0.219223</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.150825</v>
+                  <v>0.206036</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.228826</v>
+                  <v>0.292673</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.226788</v>
+                  <v>0.284187</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.224044</v>
+                  <v>0.277952</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.220862</v>
+                  <v>0.274145</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.216427</v>
+                  <v>0.275292</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.212846</v>
+                  <v>0.262485</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.208735</v>
+                  <v>0.256164</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.203903</v>
+                  <v>0.25263</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.199642</v>
+                  <v>0.244474</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.194027</v>
+                  <v>0.242317</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.188103</v>
+                  <v>0.231773</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.180311</v>
+                  <v>0.224657</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.17321</v>
+                  <v>0.221013</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.164054</v>
+                  <v>0.215837</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.239603</v>
+                  <v>0.290867</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.236062</v>
+                  <v>0.289233</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.233229</v>
+                  <v>0.28255</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.229128</v>
+                  <v>0.279968</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.22522</v>
+                  <v>0.271043</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.21992</v>
+                  <v>0.267077</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.215386</v>
+                  <v>0.259434</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.211557</v>
+                  <v>0.253029</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.206831</v>
+                  <v>0.248723</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.200459</v>
+                  <v>0.243492</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.194838</v>
+                  <v>0.237995</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.1876</v>
+                  <v>0.229485</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.180276</v>
+                  <v>0.222138</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.171747</v>
+                  <v>0.214958</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.243193</v>
+                  <v>0.29029</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.241149</v>
+                  <v>0.284164</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.237429</v>
+                  <v>0.278011</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.23329</v>
+                  <v>0.27743</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.230414</v>
+                  <v>0.272535</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.22565</v>
+                  <v>0.267892</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.220718</v>
+                  <v>0.262829</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.216313</v>
+                  <v>0.254848</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.210133</v>
+                  <v>0.250872</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.204258</v>
+                  <v>0.249968</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.198303</v>
+                  <v>0.238393</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.192364</v>
+                  <v>0.235627</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.185475</v>
+                  <v>0.224785</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.177313</v>
+                  <v>0.219888</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.165935</v>
+                  <v>0.210881</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.244443</v>
+                  <v>0.288789</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.24075</v>
+                  <v>0.285474</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.237198</v>
+                  <v>0.284684</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.232552</v>
+                  <v>0.274609</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.227956</v>
+                  <v>0.270266</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.223337</v>
+                  <v>0.270448</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.218764</v>
+                  <v>0.258096</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.21417</v>
+                  <v>0.255793</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.207987</v>
+                  <v>0.247838</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.201565</v>
+                  <v>0.240989</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.194506</v>
+                  <v>0.234169</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.187368</v>
+                  <v>0.228466</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.179344</v>
+                  <v>0.223031</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.169953</v>
+                  <v>0.214503</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.246575</v>
+                  <v>0.297038</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.243515</v>
+                  <v>0.292727</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.239984</v>
+                  <v>0.286095</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.235197</v>
+                  <v>0.278809</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.230719</v>
+                  <v>0.275974</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.225781</v>
+                  <v>0.274183</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.220304</v>
+                  <v>0.264649</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.214988</v>
+                  <v>0.259186</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.209112</v>
+                  <v>0.252627</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.203632</v>
+                  <v>0.245143</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.196996</v>
+                  <v>0.241459</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.1892</v>
+                  <v>0.229402</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.181456</v>
+                  <v>0.226811</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.17154</v>
+                  <v>0.217959</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.248397</v>
+                  <v>0.301204</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.244699</v>
+                  <v>0.300015</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.240805</v>
+                  <v>0.293272</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.236921</v>
+                  <v>0.293783</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.23242</v>
+                  <v>0.27937</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.227354</v>
+                  <v>0.282814</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.222391</v>
+                  <v>0.268407</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.217037</v>
+                  <v>0.265279</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.211349</v>
+                  <v>0.259415</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.205524</v>
+                  <v>0.250675</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.198702</v>
+                  <v>0.24631</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.191964</v>
+                  <v>0.243943</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.183929</v>
+                  <v>0.230979</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.17547</v>
+                  <v>0.225879</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.248616</v>
+                  <v>0.310195</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.245787</v>
+                  <v>0.301098</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.242009</v>
+                  <v>0.299434</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.238089</v>
+                  <v>0.292053</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.23324</v>
+                  <v>0.287426</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.228697</v>
+                  <v>0.277974</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.223516</v>
+                  <v>0.27554</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.21841</v>
+                  <v>0.270584</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.213314</v>
+                  <v>0.2614</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.207162</v>
+                  <v>0.255063</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.200421</v>
+                  <v>0.246489</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.193599</v>
+                  <v>0.243253</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.185725</v>
+                  <v>0.233512</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.176764</v>
+                  <v>0.224872</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.166714</v>
+                  <v>0.217314</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.245794</v>
+                  <v>0.306831</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.242525</v>
+                  <v>0.304058</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.238424</v>
+                  <v>0.288169</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.234103</v>
+                  <v>0.282139</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.229231</v>
+                  <v>0.286838</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.224664</v>
+                  <v>0.273506</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.219304</v>
+                  <v>0.271648</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.214252</v>
+                  <v>0.25775</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.208518</v>
+                  <v>0.256259</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.202065</v>
+                  <v>0.252429</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.195244</v>
+                  <v>0.247771</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.187756</v>
+                  <v>0.236365</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.179133</v>
+                  <v>0.224553</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.169207</v>
+                  <v>0.218326</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.246917</v>
+                  <v>0.308212</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.246332</v>
+                  <v>0.295983</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.242585</v>
+                  <v>0.294718</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.238219</v>
+                  <v>0.294565</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.232265</v>
+                  <v>0.280669</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.228123</v>
+                  <v>0.273717</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.222635</v>
+                  <v>0.272025</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.216763</v>
+                  <v>0.263699</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.210668</v>
+                  <v>0.257983</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.204186</v>
+                  <v>0.252649</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.196987</v>
+                  <v>0.243367</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.189119</v>
+                  <v>0.237392</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.180213</v>
+                  <v>0.225555</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.169992</v>
+                  <v>0.218985</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.247592</v>
+                  <v>0.297897</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.244288</v>
+                  <v>0.302747</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.240723</v>
+                  <v>0.291025</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.236424</v>
+                  <v>0.297349</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.231662</v>
+                  <v>0.278245</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.226876</v>
+                  <v>0.280699</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.201291</v>
+                  <v>0.249509</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.201516</v>
+                  <v>0.253134</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.200249</v>
+                  <v>0.248219</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.200249</v>
+                  <v>0.250584</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.200505</v>
+                  <v>0.244479</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.199087</v>
+                  <v>0.241052</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.198418</v>
+                  <v>0.240606</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.198247</v>
+                  <v>0.23474</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.221437</v>
+                  <v>0.2522</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.219922</v>
+                  <v>0.25336</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.218528</v>
+                  <v>0.255066</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.2171</v>
+                  <v>0.248663</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.215463</v>
+                  <v>0.25427</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.214955</v>
+                  <v>0.248684</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.213377</v>
+                  <v>0.247827</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212913</v>
+                  <v>0.241917</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.211602</v>
+                  <v>0.24205</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.210815</v>
+                  <v>0.250113</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.207504</v>
+                  <v>0.248171</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.207086</v>
+                  <v>0.243683</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.205552</v>
+                  <v>0.239365</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.204648</v>
+                  <v>0.244471</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.224703</v>
+                  <v>0.249687</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.223023</v>
+                  <v>0.250841</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.220848</v>
+                  <v>0.248948</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218965</v>
+                  <v>0.251022</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.217972</v>
+                  <v>0.249989</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.215821</v>
+                  <v>0.247616</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.214615</v>
+                  <v>0.246473</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213219</v>
+                  <v>0.247132</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.211578</v>
+                  <v>0.245909</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.210634</v>
+                  <v>0.244046</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.210872</v>
+                  <v>0.244261</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.208499</v>
+                  <v>0.247812</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.206422</v>
+                  <v>0.245984</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.206007</v>
+                  <v>0.242096</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.2255</v>
+                  <v>0.256503</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.223422</v>
+                  <v>0.252545</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.221975</v>
+                  <v>0.256757</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.220213</v>
+                  <v>0.249912</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.218556</v>
+                  <v>0.249735</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.217427</v>
+                  <v>0.24823</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.216138</v>
+                  <v>0.249824</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.214962</v>
+                  <v>0.245516</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.2136</v>
+                  <v>0.247296</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.213041</v>
+                  <v>0.248193</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.211832</v>
+                  <v>0.241797</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.209509</v>
+                  <v>0.240273</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.208684</v>
+                  <v>0.248728</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.207132</v>
+                  <v>0.243184</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.205146</v>
+                  <v>0.239835</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.225152</v>
+                  <v>0.261785</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.222728</v>
+                  <v>0.2545</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.221529</v>
+                  <v>0.25438</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.219913</v>
+                  <v>0.258108</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.218323</v>
+                  <v>0.250334</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.217431</v>
+                  <v>0.252954</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.215819</v>
+                  <v>0.250238</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.215038</v>
+                  <v>0.245775</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.213131</v>
+                  <v>0.24922</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.212027</v>
+                  <v>0.248338</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.210712</v>
+                  <v>0.244766</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.208761</v>
+                  <v>0.240859</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.207429</v>
+                  <v>0.247186</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.20611</v>
+                  <v>0.245628</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.226496</v>
+                  <v>0.261907</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.224306</v>
+                  <v>0.263449</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.22236</v>
+                  <v>0.257664</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220723</v>
+                  <v>0.255028</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.219672</v>
+                  <v>0.25521</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.217845</v>
+                  <v>0.25653</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.216338</v>
+                  <v>0.250733</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.215434</v>
+                  <v>0.251459</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.21392</v>
+                  <v>0.253638</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.212572</v>
+                  <v>0.247592</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.211105</v>
+                  <v>0.245995</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.209406</v>
+                  <v>0.244514</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.207868</v>
+                  <v>0.245114</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.20659</v>
+                  <v>0.246908</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.226701</v>
+                  <v>0.265429</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.225122</v>
+                  <v>0.266261</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.223251</v>
+                  <v>0.264133</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.221644</v>
+                  <v>0.25992</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.220299</v>
+                  <v>0.259465</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.218858</v>
+                  <v>0.256202</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.217246</v>
+                  <v>0.256705</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.215881</v>
+                  <v>0.257227</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.214362</v>
+                  <v>0.252984</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.212958</v>
+                  <v>0.257134</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.211369</v>
+                  <v>0.250775</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.209912</v>
+                  <v>0.248642</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.20825</v>
+                  <v>0.252641</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.206617</v>
+                  <v>0.252175</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.228183</v>
+                  <v>0.264836</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.227169</v>
+                  <v>0.263437</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.22497</v>
+                  <v>0.268535</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.222703</v>
+                  <v>0.263072</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.221276</v>
+                  <v>0.26362</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.219577</v>
+                  <v>0.259074</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.218228</v>
+                  <v>0.261077</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.21622</v>
+                  <v>0.254887</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.214969</v>
+                  <v>0.258018</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.213557</v>
+                  <v>0.257011</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.212248</v>
+                  <v>0.253011</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.210401</v>
+                  <v>0.252172</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208988</v>
+                  <v>0.250366</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.207346</v>
+                  <v>0.250182</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.205767</v>
+                  <v>0.247718</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.225906</v>
+                  <v>0.268192</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.224097</v>
+                  <v>0.268797</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.222728</v>
+                  <v>0.263757</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.221308</v>
+                  <v>0.261955</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.220196</v>
+                  <v>0.259194</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.21862</v>
+                  <v>0.259304</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.21655</v>
+                  <v>0.257434</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.215537</v>
+                  <v>0.255043</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.214238</v>
+                  <v>0.252145</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.212117</v>
+                  <v>0.254297</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.210881</v>
+                  <v>0.251318</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.209702</v>
+                  <v>0.248411</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.208043</v>
+                  <v>0.24878</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.206454</v>
+                  <v>0.244983</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.226329</v>
+                  <v>0.27187</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.224658</v>
+                  <v>0.263157</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.222948</v>
+                  <v>0.267348</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.221866</v>
+                  <v>0.260395</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.220554</v>
+                  <v>0.259809</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.218875</v>
+                  <v>0.26167</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.216964</v>
+                  <v>0.26264</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.216028</v>
+                  <v>0.257853</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.214504</v>
+                  <v>0.256828</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.212833</v>
+                  <v>0.25482</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.211468</v>
+                  <v>0.25068</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.209966</v>
+                  <v>0.250971</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.208345</v>
+                  <v>0.247854</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.206874</v>
+                  <v>0.247021</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.226779</v>
+                  <v>0.266232</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.224795</v>
+                  <v>0.27517</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.223089</v>
+                  <v>0.266241</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.222063</v>
+                  <v>0.258707</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.220921</v>
+                  <v>0.265127</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.219072</v>
+                  <v>0.257763</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.208606</v>
+                  <v>0.248528</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.209511</v>
+                  <v>0.241161</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208379</v>
+                  <v>0.246414</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.207471</v>
+                  <v>0.244231</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.208052</v>
+                  <v>0.239269</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.207445</v>
+                  <v>0.242133</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.206031</v>
+                  <v>0.234763</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.227022</v>
+                  <v>0.245193</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.225902</v>
+                  <v>0.250403</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.225349</v>
+                  <v>0.251692</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.224759</v>
+                  <v>0.246194</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.222172</v>
+                  <v>0.245441</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.220768</v>
+                  <v>0.241049</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.220222</v>
+                  <v>0.242618</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.219154</v>
+                  <v>0.243095</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.218249</v>
+                  <v>0.239652</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.217496</v>
+                  <v>0.240425</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.21592</v>
+                  <v>0.239435</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215069</v>
+                  <v>0.239156</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.214014</v>
+                  <v>0.237689</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.213713</v>
+                  <v>0.236139</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.231544</v>
+                  <v>0.252815</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.229919</v>
+                  <v>0.247793</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.228007</v>
+                  <v>0.251782</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.225997</v>
+                  <v>0.254461</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.224769</v>
+                  <v>0.251826</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.222897</v>
+                  <v>0.250669</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.221417</v>
+                  <v>0.242942</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.220399</v>
+                  <v>0.242735</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.219409</v>
+                  <v>0.246201</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.218654</v>
+                  <v>0.241918</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.2176</v>
+                  <v>0.244996</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.216706</v>
+                  <v>0.240734</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.215503</v>
+                  <v>0.237227</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.21437</v>
+                  <v>0.237345</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.232848</v>
+                  <v>0.25178</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.230791</v>
+                  <v>0.250844</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.228567</v>
+                  <v>0.249292</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.227428</v>
+                  <v>0.252836</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.225946</v>
+                  <v>0.248678</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224501</v>
+                  <v>0.246356</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.223499</v>
+                  <v>0.248282</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.221763</v>
+                  <v>0.243989</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.220712</v>
+                  <v>0.242953</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.219726</v>
+                  <v>0.242141</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.218625</v>
+                  <v>0.246454</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.217414</v>
+                  <v>0.237663</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.216309</v>
+                  <v>0.240926</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.215473</v>
+                  <v>0.241896</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.234185</v>
+                  <v>0.257118</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.231995</v>
+                  <v>0.253497</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.230333</v>
+                  <v>0.257818</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.228753</v>
+                  <v>0.250629</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.227289</v>
+                  <v>0.249194</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.225584</v>
+                  <v>0.246779</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.224278</v>
+                  <v>0.247967</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.223081</v>
+                  <v>0.249786</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.221831</v>
+                  <v>0.245</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.221009</v>
+                  <v>0.245426</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.219558</v>
+                  <v>0.241905</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.218221</v>
+                  <v>0.242766</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.216985</v>
+                  <v>0.24255</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.215766</v>
+                  <v>0.239089</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.215022</v>
+                  <v>0.238327</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.232794</v>
+                  <v>0.260128</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.231625</v>
+                  <v>0.259337</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.229878</v>
+                  <v>0.255923</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.227973</v>
+                  <v>0.255293</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.226546</v>
+                  <v>0.252754</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.224849</v>
+                  <v>0.252914</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.223557</v>
+                  <v>0.252024</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.222089</v>
+                  <v>0.249615</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.220911</v>
+                  <v>0.246912</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.219549</v>
+                  <v>0.251191</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.218464</v>
+                  <v>0.242615</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.217405</v>
+                  <v>0.244564</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.216331</v>
+                  <v>0.242649</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.215458</v>
+                  <v>0.247979</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.233837</v>
+                  <v>0.262937</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.232005</v>
+                  <v>0.264417</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.230439</v>
+                  <v>0.25851</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.228893</v>
+                  <v>0.260138</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.227426</v>
+                  <v>0.258611</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.225865</v>
+                  <v>0.254748</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.224498</v>
+                  <v>0.254317</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.223047</v>
+                  <v>0.252636</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.221774</v>
+                  <v>0.251599</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.22041</v>
+                  <v>0.248919</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.219137</v>
+                  <v>0.248394</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.217886</v>
+                  <v>0.24607</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.216679</v>
+                  <v>0.245052</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.215674</v>
+                  <v>0.244393</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.234727</v>
+                  <v>0.266599</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.232964</v>
+                  <v>0.263655</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.231308</v>
+                  <v>0.262932</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.229417</v>
+                  <v>0.261082</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.227967</v>
+                  <v>0.264965</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.226301</v>
+                  <v>0.257925</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.224841</v>
+                  <v>0.252469</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.223213</v>
+                  <v>0.253028</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.222211</v>
+                  <v>0.249738</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.220851</v>
+                  <v>0.254934</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.219426</v>
+                  <v>0.253083</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.218379</v>
+                  <v>0.249139</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.217286</v>
+                  <v>0.248628</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.216168</v>
+                  <v>0.24567</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.235399</v>
+                  <v>0.268704</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.233298</v>
+                  <v>0.262929</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.231768</v>
+                  <v>0.263837</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.22999</v>
+                  <v>0.266238</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.228418</v>
+                  <v>0.259148</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.22708</v>
+                  <v>0.255583</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.225417</v>
+                  <v>0.257807</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.22423</v>
+                  <v>0.253293</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.223036</v>
+                  <v>0.257958</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.221508</v>
+                  <v>0.254607</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.22016</v>
+                  <v>0.247355</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.219138</v>
+                  <v>0.252275</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.217869</v>
+                  <v>0.245957</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.216605</v>
+                  <v>0.245928</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.215346</v>
+                  <v>0.245708</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.233921</v>
+                  <v>0.264026</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.23228</v>
+                  <v>0.264647</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.229977</v>
+                  <v>0.269045</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.229139</v>
+                  <v>0.258691</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.227523</v>
+                  <v>0.26042</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.226097</v>
+                  <v>0.258834</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.224516</v>
+                  <v>0.253576</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.223005</v>
+                  <v>0.259869</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.221893</v>
+                  <v>0.255368</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.220026</v>
+                  <v>0.251552</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.219126</v>
+                  <v>0.250506</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.217574</v>
+                  <v>0.248071</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.216965</v>
+                  <v>0.246364</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.215759</v>
+                  <v>0.245107</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.233797</v>
+                  <v>0.26657</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.23263</v>
+                  <v>0.263007</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.231029</v>
+                  <v>0.263054</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.229376</v>
+                  <v>0.263115</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.22777</v>
+                  <v>0.260417</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.2262</v>
+                  <v>0.252729</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.224234</v>
+                  <v>0.259028</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2825,7 +2825,7 @@
         <axId val="163989376"/>
         <scaling>
           <orientation val="minMax"/>
-          <max val="0.4"/>
+          <max val="0.5"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -3223,8 +3223,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="4" style="1" width="11.42578125"/>
+    <col customWidth="1" max="4" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="5" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.261399</v>
+        <v>0.272364</v>
       </c>
       <c r="C2" t="n">
-        <v>0.249509</v>
+        <v>0.231339</v>
       </c>
       <c r="D2" t="n">
-        <v>0.248528</v>
+        <v>0.248369</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.256866</v>
+        <v>0.26865</v>
       </c>
       <c r="C3" t="n">
-        <v>0.253134</v>
+        <v>0.22979</v>
       </c>
       <c r="D3" t="n">
-        <v>0.241161</v>
+        <v>0.24563</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.246091</v>
+        <v>0.253925</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248219</v>
+        <v>0.243353</v>
       </c>
       <c r="D4" t="n">
-        <v>0.246414</v>
+        <v>0.249572</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.238799</v>
+        <v>0.245852</v>
       </c>
       <c r="C5" t="n">
-        <v>0.250584</v>
+        <v>0.23385</v>
       </c>
       <c r="D5" t="n">
-        <v>0.244231</v>
+        <v>0.240525</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.239431</v>
+        <v>0.244242</v>
       </c>
       <c r="C6" t="n">
-        <v>0.244479</v>
+        <v>0.226534</v>
       </c>
       <c r="D6" t="n">
-        <v>0.239269</v>
+        <v>0.24305</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224649</v>
+        <v>0.230586</v>
       </c>
       <c r="C7" t="n">
-        <v>0.241052</v>
+        <v>0.231748</v>
       </c>
       <c r="D7" t="n">
-        <v>0.242133</v>
+        <v>0.249107</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.219223</v>
+        <v>0.223206</v>
       </c>
       <c r="C8" t="n">
-        <v>0.240606</v>
+        <v>0.225924</v>
       </c>
       <c r="D8" t="n">
-        <v>0.234763</v>
+        <v>0.238265</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.206036</v>
+        <v>0.209123</v>
       </c>
       <c r="C9" t="n">
-        <v>0.23474</v>
+        <v>0.227541</v>
       </c>
       <c r="D9" t="n">
-        <v>0.245193</v>
+        <v>0.252059</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.292673</v>
+        <v>0.300829</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2522</v>
+        <v>0.242257</v>
       </c>
       <c r="D10" t="n">
-        <v>0.250403</v>
+        <v>0.254123</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.284187</v>
+        <v>0.289443</v>
       </c>
       <c r="C11" t="n">
-        <v>0.25336</v>
+        <v>0.237146</v>
       </c>
       <c r="D11" t="n">
-        <v>0.251692</v>
+        <v>0.251962</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.277952</v>
+        <v>0.283446</v>
       </c>
       <c r="C12" t="n">
-        <v>0.255066</v>
+        <v>0.236139</v>
       </c>
       <c r="D12" t="n">
-        <v>0.246194</v>
+        <v>0.254375</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.274145</v>
+        <v>0.288331</v>
       </c>
       <c r="C13" t="n">
-        <v>0.248663</v>
+        <v>0.235288</v>
       </c>
       <c r="D13" t="n">
-        <v>0.245441</v>
+        <v>0.246507</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.275292</v>
+        <v>0.271605</v>
       </c>
       <c r="C14" t="n">
-        <v>0.25427</v>
+        <v>0.234121</v>
       </c>
       <c r="D14" t="n">
-        <v>0.241049</v>
+        <v>0.255253</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.262485</v>
+        <v>0.270935</v>
       </c>
       <c r="C15" t="n">
-        <v>0.248684</v>
+        <v>0.237664</v>
       </c>
       <c r="D15" t="n">
-        <v>0.242618</v>
+        <v>0.253811</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.256164</v>
+        <v>0.262208</v>
       </c>
       <c r="C16" t="n">
-        <v>0.247827</v>
+        <v>0.234384</v>
       </c>
       <c r="D16" t="n">
-        <v>0.243095</v>
+        <v>0.249415</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.25263</v>
+        <v>0.26138</v>
       </c>
       <c r="C17" t="n">
-        <v>0.241917</v>
+        <v>0.231926</v>
       </c>
       <c r="D17" t="n">
-        <v>0.239652</v>
+        <v>0.245706</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.244474</v>
+        <v>0.252936</v>
       </c>
       <c r="C18" t="n">
-        <v>0.24205</v>
+        <v>0.232853</v>
       </c>
       <c r="D18" t="n">
-        <v>0.240425</v>
+        <v>0.246518</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.242317</v>
+        <v>0.247671</v>
       </c>
       <c r="C19" t="n">
-        <v>0.250113</v>
+        <v>0.228437</v>
       </c>
       <c r="D19" t="n">
-        <v>0.239435</v>
+        <v>0.246923</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.231773</v>
+        <v>0.238536</v>
       </c>
       <c r="C20" t="n">
-        <v>0.248171</v>
+        <v>0.22782</v>
       </c>
       <c r="D20" t="n">
-        <v>0.239156</v>
+        <v>0.243123</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.224657</v>
+        <v>0.232856</v>
       </c>
       <c r="C21" t="n">
-        <v>0.243683</v>
+        <v>0.228369</v>
       </c>
       <c r="D21" t="n">
-        <v>0.237689</v>
+        <v>0.24553</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.221013</v>
+        <v>0.227607</v>
       </c>
       <c r="C22" t="n">
-        <v>0.239365</v>
+        <v>0.228368</v>
       </c>
       <c r="D22" t="n">
-        <v>0.236139</v>
+        <v>0.246503</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.215837</v>
+        <v>0.221007</v>
       </c>
       <c r="C23" t="n">
-        <v>0.244471</v>
+        <v>0.230424</v>
       </c>
       <c r="D23" t="n">
-        <v>0.252815</v>
+        <v>0.258385</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.290867</v>
+        <v>0.294041</v>
       </c>
       <c r="C24" t="n">
-        <v>0.249687</v>
+        <v>0.240284</v>
       </c>
       <c r="D24" t="n">
-        <v>0.247793</v>
+        <v>0.253426</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.289233</v>
+        <v>0.291753</v>
       </c>
       <c r="C25" t="n">
-        <v>0.250841</v>
+        <v>0.239022</v>
       </c>
       <c r="D25" t="n">
-        <v>0.251782</v>
+        <v>0.258695</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.28255</v>
+        <v>0.287003</v>
       </c>
       <c r="C26" t="n">
-        <v>0.248948</v>
+        <v>0.235873</v>
       </c>
       <c r="D26" t="n">
-        <v>0.254461</v>
+        <v>0.251952</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.279968</v>
+        <v>0.280302</v>
       </c>
       <c r="C27" t="n">
-        <v>0.251022</v>
+        <v>0.235186</v>
       </c>
       <c r="D27" t="n">
-        <v>0.251826</v>
+        <v>0.252594</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.271043</v>
+        <v>0.274981</v>
       </c>
       <c r="C28" t="n">
-        <v>0.249989</v>
+        <v>0.233157</v>
       </c>
       <c r="D28" t="n">
-        <v>0.250669</v>
+        <v>0.252205</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.267077</v>
+        <v>0.272301</v>
       </c>
       <c r="C29" t="n">
-        <v>0.247616</v>
+        <v>0.236584</v>
       </c>
       <c r="D29" t="n">
-        <v>0.242942</v>
+        <v>0.249567</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.259434</v>
+        <v>0.264319</v>
       </c>
       <c r="C30" t="n">
-        <v>0.246473</v>
+        <v>0.233309</v>
       </c>
       <c r="D30" t="n">
-        <v>0.242735</v>
+        <v>0.250086</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.253029</v>
+        <v>0.262874</v>
       </c>
       <c r="C31" t="n">
-        <v>0.247132</v>
+        <v>0.233209</v>
       </c>
       <c r="D31" t="n">
-        <v>0.246201</v>
+        <v>0.248414</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.248723</v>
+        <v>0.255196</v>
       </c>
       <c r="C32" t="n">
-        <v>0.245909</v>
+        <v>0.231766</v>
       </c>
       <c r="D32" t="n">
-        <v>0.241918</v>
+        <v>0.252247</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.243492</v>
+        <v>0.249772</v>
       </c>
       <c r="C33" t="n">
-        <v>0.244046</v>
+        <v>0.231231</v>
       </c>
       <c r="D33" t="n">
-        <v>0.244996</v>
+        <v>0.24776</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.237995</v>
+        <v>0.242211</v>
       </c>
       <c r="C34" t="n">
-        <v>0.244261</v>
+        <v>0.235955</v>
       </c>
       <c r="D34" t="n">
-        <v>0.240734</v>
+        <v>0.24704</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.229485</v>
+        <v>0.235109</v>
       </c>
       <c r="C35" t="n">
-        <v>0.247812</v>
+        <v>0.2336</v>
       </c>
       <c r="D35" t="n">
-        <v>0.237227</v>
+        <v>0.251262</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.222138</v>
+        <v>0.229268</v>
       </c>
       <c r="C36" t="n">
-        <v>0.245984</v>
+        <v>0.230903</v>
       </c>
       <c r="D36" t="n">
-        <v>0.237345</v>
+        <v>0.245318</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.214958</v>
+        <v>0.220365</v>
       </c>
       <c r="C37" t="n">
-        <v>0.242096</v>
+        <v>0.239202</v>
       </c>
       <c r="D37" t="n">
-        <v>0.25178</v>
+        <v>0.261672</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.29029</v>
+        <v>0.298024</v>
       </c>
       <c r="C38" t="n">
-        <v>0.256503</v>
+        <v>0.244716</v>
       </c>
       <c r="D38" t="n">
-        <v>0.250844</v>
+        <v>0.269644</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.284164</v>
+        <v>0.296545</v>
       </c>
       <c r="C39" t="n">
-        <v>0.252545</v>
+        <v>0.238787</v>
       </c>
       <c r="D39" t="n">
-        <v>0.249292</v>
+        <v>0.258076</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.278011</v>
+        <v>0.296213</v>
       </c>
       <c r="C40" t="n">
-        <v>0.256757</v>
+        <v>0.24044</v>
       </c>
       <c r="D40" t="n">
-        <v>0.252836</v>
+        <v>0.26042</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.27743</v>
+        <v>0.287117</v>
       </c>
       <c r="C41" t="n">
-        <v>0.249912</v>
+        <v>0.241353</v>
       </c>
       <c r="D41" t="n">
-        <v>0.248678</v>
+        <v>0.259925</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.272535</v>
+        <v>0.283448</v>
       </c>
       <c r="C42" t="n">
-        <v>0.249735</v>
+        <v>0.237027</v>
       </c>
       <c r="D42" t="n">
-        <v>0.246356</v>
+        <v>0.254286</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.267892</v>
+        <v>0.277434</v>
       </c>
       <c r="C43" t="n">
-        <v>0.24823</v>
+        <v>0.244986</v>
       </c>
       <c r="D43" t="n">
-        <v>0.248282</v>
+        <v>0.25357</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.262829</v>
+        <v>0.273671</v>
       </c>
       <c r="C44" t="n">
-        <v>0.249824</v>
+        <v>0.233903</v>
       </c>
       <c r="D44" t="n">
-        <v>0.243989</v>
+        <v>0.255437</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.254848</v>
+        <v>0.264162</v>
       </c>
       <c r="C45" t="n">
-        <v>0.245516</v>
+        <v>0.235329</v>
       </c>
       <c r="D45" t="n">
-        <v>0.242953</v>
+        <v>0.251102</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.250872</v>
+        <v>0.260598</v>
       </c>
       <c r="C46" t="n">
-        <v>0.247296</v>
+        <v>0.237086</v>
       </c>
       <c r="D46" t="n">
-        <v>0.242141</v>
+        <v>0.256095</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.249968</v>
+        <v>0.252157</v>
       </c>
       <c r="C47" t="n">
-        <v>0.248193</v>
+        <v>0.231664</v>
       </c>
       <c r="D47" t="n">
-        <v>0.246454</v>
+        <v>0.251308</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.238393</v>
+        <v>0.248482</v>
       </c>
       <c r="C48" t="n">
-        <v>0.241797</v>
+        <v>0.234802</v>
       </c>
       <c r="D48" t="n">
-        <v>0.237663</v>
+        <v>0.248449</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.235627</v>
+        <v>0.242244</v>
       </c>
       <c r="C49" t="n">
-        <v>0.240273</v>
+        <v>0.232473</v>
       </c>
       <c r="D49" t="n">
-        <v>0.240926</v>
+        <v>0.248519</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.224785</v>
+        <v>0.231043</v>
       </c>
       <c r="C50" t="n">
-        <v>0.248728</v>
+        <v>0.235117</v>
       </c>
       <c r="D50" t="n">
-        <v>0.241896</v>
+        <v>0.248072</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.219888</v>
+        <v>0.222599</v>
       </c>
       <c r="C51" t="n">
-        <v>0.243184</v>
+        <v>0.234494</v>
       </c>
       <c r="D51" t="n">
-        <v>0.257118</v>
+        <v>0.265816</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.210881</v>
+        <v>0.216621</v>
       </c>
       <c r="C52" t="n">
-        <v>0.239835</v>
+        <v>0.233289</v>
       </c>
       <c r="D52" t="n">
-        <v>0.253497</v>
+        <v>0.262041</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.288789</v>
+        <v>0.305654</v>
       </c>
       <c r="C53" t="n">
-        <v>0.261785</v>
+        <v>0.242177</v>
       </c>
       <c r="D53" t="n">
-        <v>0.257818</v>
+        <v>0.264534</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.285474</v>
+        <v>0.296059</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2545</v>
+        <v>0.247302</v>
       </c>
       <c r="D54" t="n">
-        <v>0.250629</v>
+        <v>0.261624</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.284684</v>
+        <v>0.288703</v>
       </c>
       <c r="C55" t="n">
-        <v>0.25438</v>
+        <v>0.243775</v>
       </c>
       <c r="D55" t="n">
-        <v>0.249194</v>
+        <v>0.262721</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.274609</v>
+        <v>0.28483</v>
       </c>
       <c r="C56" t="n">
-        <v>0.258108</v>
+        <v>0.246243</v>
       </c>
       <c r="D56" t="n">
-        <v>0.246779</v>
+        <v>0.266354</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.270266</v>
+        <v>0.279474</v>
       </c>
       <c r="C57" t="n">
-        <v>0.250334</v>
+        <v>0.240209</v>
       </c>
       <c r="D57" t="n">
-        <v>0.247967</v>
+        <v>0.259572</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.270448</v>
+        <v>0.272513</v>
       </c>
       <c r="C58" t="n">
-        <v>0.252954</v>
+        <v>0.239759</v>
       </c>
       <c r="D58" t="n">
-        <v>0.249786</v>
+        <v>0.258805</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.258096</v>
+        <v>0.271647</v>
       </c>
       <c r="C59" t="n">
-        <v>0.250238</v>
+        <v>0.236748</v>
       </c>
       <c r="D59" t="n">
-        <v>0.245</v>
+        <v>0.257111</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.255793</v>
+        <v>0.262481</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245775</v>
+        <v>0.238855</v>
       </c>
       <c r="D60" t="n">
-        <v>0.245426</v>
+        <v>0.256425</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.247838</v>
+        <v>0.259273</v>
       </c>
       <c r="C61" t="n">
-        <v>0.24922</v>
+        <v>0.234757</v>
       </c>
       <c r="D61" t="n">
-        <v>0.241905</v>
+        <v>0.26111</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.240989</v>
+        <v>0.248968</v>
       </c>
       <c r="C62" t="n">
-        <v>0.248338</v>
+        <v>0.234042</v>
       </c>
       <c r="D62" t="n">
-        <v>0.242766</v>
+        <v>0.255628</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.234169</v>
+        <v>0.241548</v>
       </c>
       <c r="C63" t="n">
-        <v>0.244766</v>
+        <v>0.239751</v>
       </c>
       <c r="D63" t="n">
-        <v>0.24255</v>
+        <v>0.251757</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.228466</v>
+        <v>0.237729</v>
       </c>
       <c r="C64" t="n">
-        <v>0.240859</v>
+        <v>0.234064</v>
       </c>
       <c r="D64" t="n">
-        <v>0.239089</v>
+        <v>0.249076</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.223031</v>
+        <v>0.22746</v>
       </c>
       <c r="C65" t="n">
-        <v>0.247186</v>
+        <v>0.233081</v>
       </c>
       <c r="D65" t="n">
-        <v>0.238327</v>
+        <v>0.249848</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.214503</v>
+        <v>0.21964</v>
       </c>
       <c r="C66" t="n">
-        <v>0.245628</v>
+        <v>0.241353</v>
       </c>
       <c r="D66" t="n">
-        <v>0.260128</v>
+        <v>0.267553</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.297038</v>
+        <v>0.307012</v>
       </c>
       <c r="C67" t="n">
-        <v>0.261907</v>
+        <v>0.252394</v>
       </c>
       <c r="D67" t="n">
-        <v>0.259337</v>
+        <v>0.274233</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.292727</v>
+        <v>0.300664</v>
       </c>
       <c r="C68" t="n">
-        <v>0.263449</v>
+        <v>0.247024</v>
       </c>
       <c r="D68" t="n">
-        <v>0.255923</v>
+        <v>0.269705</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.286095</v>
+        <v>0.299179</v>
       </c>
       <c r="C69" t="n">
-        <v>0.257664</v>
+        <v>0.246279</v>
       </c>
       <c r="D69" t="n">
-        <v>0.255293</v>
+        <v>0.264734</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.278809</v>
+        <v>0.29462</v>
       </c>
       <c r="C70" t="n">
-        <v>0.255028</v>
+        <v>0.244683</v>
       </c>
       <c r="D70" t="n">
-        <v>0.252754</v>
+        <v>0.263917</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.275974</v>
+        <v>0.284869</v>
       </c>
       <c r="C71" t="n">
-        <v>0.25521</v>
+        <v>0.246687</v>
       </c>
       <c r="D71" t="n">
-        <v>0.252914</v>
+        <v>0.263216</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.274183</v>
+        <v>0.278812</v>
       </c>
       <c r="C72" t="n">
-        <v>0.25653</v>
+        <v>0.243357</v>
       </c>
       <c r="D72" t="n">
-        <v>0.252024</v>
+        <v>0.261058</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.264649</v>
+        <v>0.270793</v>
       </c>
       <c r="C73" t="n">
-        <v>0.250733</v>
+        <v>0.243217</v>
       </c>
       <c r="D73" t="n">
-        <v>0.249615</v>
+        <v>0.257272</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.259186</v>
+        <v>0.266245</v>
       </c>
       <c r="C74" t="n">
-        <v>0.251459</v>
+        <v>0.246539</v>
       </c>
       <c r="D74" t="n">
-        <v>0.246912</v>
+        <v>0.257398</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.252627</v>
+        <v>0.257529</v>
       </c>
       <c r="C75" t="n">
-        <v>0.253638</v>
+        <v>0.240039</v>
       </c>
       <c r="D75" t="n">
-        <v>0.251191</v>
+        <v>0.259036</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.245143</v>
+        <v>0.251259</v>
       </c>
       <c r="C76" t="n">
-        <v>0.247592</v>
+        <v>0.237256</v>
       </c>
       <c r="D76" t="n">
-        <v>0.242615</v>
+        <v>0.254766</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.241459</v>
+        <v>0.249805</v>
       </c>
       <c r="C77" t="n">
-        <v>0.245995</v>
+        <v>0.239116</v>
       </c>
       <c r="D77" t="n">
-        <v>0.244564</v>
+        <v>0.256414</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.229402</v>
+        <v>0.236676</v>
       </c>
       <c r="C78" t="n">
-        <v>0.244514</v>
+        <v>0.238972</v>
       </c>
       <c r="D78" t="n">
-        <v>0.242649</v>
+        <v>0.252332</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.226811</v>
+        <v>0.2315</v>
       </c>
       <c r="C79" t="n">
-        <v>0.245114</v>
+        <v>0.235839</v>
       </c>
       <c r="D79" t="n">
-        <v>0.247979</v>
+        <v>0.25073</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.217959</v>
+        <v>0.221029</v>
       </c>
       <c r="C80" t="n">
-        <v>0.246908</v>
+        <v>0.241886</v>
       </c>
       <c r="D80" t="n">
-        <v>0.262937</v>
+        <v>0.275363</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.301204</v>
+        <v>0.310671</v>
       </c>
       <c r="C81" t="n">
-        <v>0.265429</v>
+        <v>0.256061</v>
       </c>
       <c r="D81" t="n">
-        <v>0.264417</v>
+        <v>0.272525</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.300015</v>
+        <v>0.302989</v>
       </c>
       <c r="C82" t="n">
-        <v>0.266261</v>
+        <v>0.247829</v>
       </c>
       <c r="D82" t="n">
-        <v>0.25851</v>
+        <v>0.272536</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.293272</v>
+        <v>0.298655</v>
       </c>
       <c r="C83" t="n">
-        <v>0.264133</v>
+        <v>0.247058</v>
       </c>
       <c r="D83" t="n">
-        <v>0.260138</v>
+        <v>0.26611</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.293783</v>
+        <v>0.300523</v>
       </c>
       <c r="C84" t="n">
-        <v>0.25992</v>
+        <v>0.251845</v>
       </c>
       <c r="D84" t="n">
-        <v>0.258611</v>
+        <v>0.270738</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.27937</v>
+        <v>0.285481</v>
       </c>
       <c r="C85" t="n">
-        <v>0.259465</v>
+        <v>0.245936</v>
       </c>
       <c r="D85" t="n">
-        <v>0.254748</v>
+        <v>0.267575</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.282814</v>
+        <v>0.28081</v>
       </c>
       <c r="C86" t="n">
-        <v>0.256202</v>
+        <v>0.243147</v>
       </c>
       <c r="D86" t="n">
-        <v>0.254317</v>
+        <v>0.261884</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.268407</v>
+        <v>0.274163</v>
       </c>
       <c r="C87" t="n">
-        <v>0.256705</v>
+        <v>0.242454</v>
       </c>
       <c r="D87" t="n">
-        <v>0.252636</v>
+        <v>0.262156</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.265279</v>
+        <v>0.268902</v>
       </c>
       <c r="C88" t="n">
-        <v>0.257227</v>
+        <v>0.244939</v>
       </c>
       <c r="D88" t="n">
-        <v>0.251599</v>
+        <v>0.260326</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.259415</v>
+        <v>0.261824</v>
       </c>
       <c r="C89" t="n">
-        <v>0.252984</v>
+        <v>0.239309</v>
       </c>
       <c r="D89" t="n">
-        <v>0.248919</v>
+        <v>0.258177</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.250675</v>
+        <v>0.256255</v>
       </c>
       <c r="C90" t="n">
-        <v>0.257134</v>
+        <v>0.238391</v>
       </c>
       <c r="D90" t="n">
-        <v>0.248394</v>
+        <v>0.265167</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.24631</v>
+        <v>0.257453</v>
       </c>
       <c r="C91" t="n">
-        <v>0.250775</v>
+        <v>0.238019</v>
       </c>
       <c r="D91" t="n">
-        <v>0.24607</v>
+        <v>0.256003</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.243943</v>
+        <v>0.24396</v>
       </c>
       <c r="C92" t="n">
-        <v>0.248642</v>
+        <v>0.240486</v>
       </c>
       <c r="D92" t="n">
-        <v>0.245052</v>
+        <v>0.255215</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.230979</v>
+        <v>0.233428</v>
       </c>
       <c r="C93" t="n">
-        <v>0.252641</v>
+        <v>0.237221</v>
       </c>
       <c r="D93" t="n">
-        <v>0.244393</v>
+        <v>0.256621</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.225879</v>
+        <v>0.226256</v>
       </c>
       <c r="C94" t="n">
-        <v>0.252175</v>
+        <v>0.236188</v>
       </c>
       <c r="D94" t="n">
-        <v>0.266599</v>
+        <v>0.278891</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.310195</v>
+        <v>0.312124</v>
       </c>
       <c r="C95" t="n">
-        <v>0.264836</v>
+        <v>0.254073</v>
       </c>
       <c r="D95" t="n">
-        <v>0.263655</v>
+        <v>0.278098</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.301098</v>
+        <v>0.315348</v>
       </c>
       <c r="C96" t="n">
-        <v>0.263437</v>
+        <v>0.254571</v>
       </c>
       <c r="D96" t="n">
-        <v>0.262932</v>
+        <v>0.272827</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.299434</v>
+        <v>0.305574</v>
       </c>
       <c r="C97" t="n">
-        <v>0.268535</v>
+        <v>0.249363</v>
       </c>
       <c r="D97" t="n">
-        <v>0.261082</v>
+        <v>0.272761</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.292053</v>
+        <v>0.297049</v>
       </c>
       <c r="C98" t="n">
-        <v>0.263072</v>
+        <v>0.250184</v>
       </c>
       <c r="D98" t="n">
-        <v>0.264965</v>
+        <v>0.269652</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.287426</v>
+        <v>0.292481</v>
       </c>
       <c r="C99" t="n">
-        <v>0.26362</v>
+        <v>0.248806</v>
       </c>
       <c r="D99" t="n">
-        <v>0.257925</v>
+        <v>0.264929</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.277974</v>
+        <v>0.283247</v>
       </c>
       <c r="C100" t="n">
-        <v>0.259074</v>
+        <v>0.253965</v>
       </c>
       <c r="D100" t="n">
-        <v>0.252469</v>
+        <v>0.265312</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.27554</v>
+        <v>0.284403</v>
       </c>
       <c r="C101" t="n">
-        <v>0.261077</v>
+        <v>0.243742</v>
       </c>
       <c r="D101" t="n">
-        <v>0.253028</v>
+        <v>0.264499</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.270584</v>
+        <v>0.273904</v>
       </c>
       <c r="C102" t="n">
-        <v>0.254887</v>
+        <v>0.243132</v>
       </c>
       <c r="D102" t="n">
-        <v>0.249738</v>
+        <v>0.260238</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.2614</v>
+        <v>0.264593</v>
       </c>
       <c r="C103" t="n">
-        <v>0.258018</v>
+        <v>0.251628</v>
       </c>
       <c r="D103" t="n">
-        <v>0.254934</v>
+        <v>0.261999</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.255063</v>
+        <v>0.26202</v>
       </c>
       <c r="C104" t="n">
-        <v>0.257011</v>
+        <v>0.240348</v>
       </c>
       <c r="D104" t="n">
-        <v>0.253083</v>
+        <v>0.260547</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.246489</v>
+        <v>0.254608</v>
       </c>
       <c r="C105" t="n">
-        <v>0.253011</v>
+        <v>0.241268</v>
       </c>
       <c r="D105" t="n">
-        <v>0.249139</v>
+        <v>0.262286</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.243253</v>
+        <v>0.247661</v>
       </c>
       <c r="C106" t="n">
-        <v>0.252172</v>
+        <v>0.241054</v>
       </c>
       <c r="D106" t="n">
-        <v>0.248628</v>
+        <v>0.25622</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.233512</v>
+        <v>0.242926</v>
       </c>
       <c r="C107" t="n">
-        <v>0.250366</v>
+        <v>0.239989</v>
       </c>
       <c r="D107" t="n">
-        <v>0.24567</v>
+        <v>0.254516</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.224872</v>
+        <v>0.22977</v>
       </c>
       <c r="C108" t="n">
-        <v>0.250182</v>
+        <v>0.242479</v>
       </c>
       <c r="D108" t="n">
-        <v>0.268704</v>
+        <v>0.277312</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.217314</v>
+        <v>0.217107</v>
       </c>
       <c r="C109" t="n">
-        <v>0.247718</v>
+        <v>0.241826</v>
       </c>
       <c r="D109" t="n">
-        <v>0.262929</v>
+        <v>0.272369</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.306831</v>
+        <v>0.311948</v>
       </c>
       <c r="C110" t="n">
-        <v>0.268192</v>
+        <v>0.25163</v>
       </c>
       <c r="D110" t="n">
-        <v>0.263837</v>
+        <v>0.272167</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.304058</v>
+        <v>0.302561</v>
       </c>
       <c r="C111" t="n">
-        <v>0.268797</v>
+        <v>0.251773</v>
       </c>
       <c r="D111" t="n">
-        <v>0.266238</v>
+        <v>0.274401</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.288169</v>
+        <v>0.306979</v>
       </c>
       <c r="C112" t="n">
-        <v>0.263757</v>
+        <v>0.254225</v>
       </c>
       <c r="D112" t="n">
-        <v>0.259148</v>
+        <v>0.268116</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.282139</v>
+        <v>0.292601</v>
       </c>
       <c r="C113" t="n">
-        <v>0.261955</v>
+        <v>0.247174</v>
       </c>
       <c r="D113" t="n">
-        <v>0.255583</v>
+        <v>0.266613</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.286838</v>
+        <v>0.293086</v>
       </c>
       <c r="C114" t="n">
-        <v>0.259194</v>
+        <v>0.251225</v>
       </c>
       <c r="D114" t="n">
-        <v>0.257807</v>
+        <v>0.267752</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.273506</v>
+        <v>0.27994</v>
       </c>
       <c r="C115" t="n">
-        <v>0.259304</v>
+        <v>0.245912</v>
       </c>
       <c r="D115" t="n">
-        <v>0.253293</v>
+        <v>0.262824</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.271648</v>
+        <v>0.272503</v>
       </c>
       <c r="C116" t="n">
-        <v>0.257434</v>
+        <v>0.249658</v>
       </c>
       <c r="D116" t="n">
-        <v>0.257958</v>
+        <v>0.261501</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.25775</v>
+        <v>0.276285</v>
       </c>
       <c r="C117" t="n">
-        <v>0.255043</v>
+        <v>0.241126</v>
       </c>
       <c r="D117" t="n">
-        <v>0.254607</v>
+        <v>0.263438</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.256259</v>
+        <v>0.258913</v>
       </c>
       <c r="C118" t="n">
-        <v>0.252145</v>
+        <v>0.246756</v>
       </c>
       <c r="D118" t="n">
-        <v>0.247355</v>
+        <v>0.261048</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.252429</v>
+        <v>0.260745</v>
       </c>
       <c r="C119" t="n">
-        <v>0.254297</v>
+        <v>0.242881</v>
       </c>
       <c r="D119" t="n">
-        <v>0.252275</v>
+        <v>0.257407</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.247771</v>
+        <v>0.248535</v>
       </c>
       <c r="C120" t="n">
-        <v>0.251318</v>
+        <v>0.243262</v>
       </c>
       <c r="D120" t="n">
-        <v>0.245957</v>
+        <v>0.25646</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.236365</v>
+        <v>0.245488</v>
       </c>
       <c r="C121" t="n">
-        <v>0.248411</v>
+        <v>0.240958</v>
       </c>
       <c r="D121" t="n">
-        <v>0.245928</v>
+        <v>0.254627</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.224553</v>
+        <v>0.229768</v>
       </c>
       <c r="C122" t="n">
-        <v>0.24878</v>
+        <v>0.241217</v>
       </c>
       <c r="D122" t="n">
-        <v>0.245708</v>
+        <v>0.260744</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.218326</v>
+        <v>0.225213</v>
       </c>
       <c r="C123" t="n">
-        <v>0.244983</v>
+        <v>0.243289</v>
       </c>
       <c r="D123" t="n">
-        <v>0.264026</v>
+        <v>0.276063</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.308212</v>
+        <v>0.309795</v>
       </c>
       <c r="C124" t="n">
-        <v>0.27187</v>
+        <v>0.252461</v>
       </c>
       <c r="D124" t="n">
-        <v>0.264647</v>
+        <v>0.274689</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.295983</v>
+        <v>0.306888</v>
       </c>
       <c r="C125" t="n">
-        <v>0.263157</v>
+        <v>0.252003</v>
       </c>
       <c r="D125" t="n">
-        <v>0.269045</v>
+        <v>0.273939</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.294718</v>
+        <v>0.305121</v>
       </c>
       <c r="C126" t="n">
-        <v>0.267348</v>
+        <v>0.253473</v>
       </c>
       <c r="D126" t="n">
-        <v>0.258691</v>
+        <v>0.268032</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.294565</v>
+        <v>0.303219</v>
       </c>
       <c r="C127" t="n">
-        <v>0.260395</v>
+        <v>0.247334</v>
       </c>
       <c r="D127" t="n">
-        <v>0.26042</v>
+        <v>0.270022</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.280669</v>
+        <v>0.292045</v>
       </c>
       <c r="C128" t="n">
-        <v>0.259809</v>
+        <v>0.250746</v>
       </c>
       <c r="D128" t="n">
-        <v>0.258834</v>
+        <v>0.266839</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.273717</v>
+        <v>0.281708</v>
       </c>
       <c r="C129" t="n">
-        <v>0.26167</v>
+        <v>0.246642</v>
       </c>
       <c r="D129" t="n">
-        <v>0.253576</v>
+        <v>0.264067</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.272025</v>
+        <v>0.275124</v>
       </c>
       <c r="C130" t="n">
-        <v>0.26264</v>
+        <v>0.248111</v>
       </c>
       <c r="D130" t="n">
-        <v>0.259869</v>
+        <v>0.260837</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.263699</v>
+        <v>0.271375</v>
       </c>
       <c r="C131" t="n">
-        <v>0.257853</v>
+        <v>0.246451</v>
       </c>
       <c r="D131" t="n">
-        <v>0.255368</v>
+        <v>0.2613</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.257983</v>
+        <v>0.264014</v>
       </c>
       <c r="C132" t="n">
-        <v>0.256828</v>
+        <v>0.23968</v>
       </c>
       <c r="D132" t="n">
-        <v>0.251552</v>
+        <v>0.267912</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.252649</v>
+        <v>0.2544</v>
       </c>
       <c r="C133" t="n">
-        <v>0.25482</v>
+        <v>0.239687</v>
       </c>
       <c r="D133" t="n">
-        <v>0.250506</v>
+        <v>0.265025</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.243367</v>
+        <v>0.249895</v>
       </c>
       <c r="C134" t="n">
-        <v>0.25068</v>
+        <v>0.244963</v>
       </c>
       <c r="D134" t="n">
-        <v>0.248071</v>
+        <v>0.265977</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.237392</v>
+        <v>0.242726</v>
       </c>
       <c r="C135" t="n">
-        <v>0.250971</v>
+        <v>0.247529</v>
       </c>
       <c r="D135" t="n">
-        <v>0.246364</v>
+        <v>0.25775</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.225555</v>
+        <v>0.234964</v>
       </c>
       <c r="C136" t="n">
-        <v>0.247854</v>
+        <v>0.242887</v>
       </c>
       <c r="D136" t="n">
-        <v>0.245107</v>
+        <v>0.260148</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.218985</v>
+        <v>0.222442</v>
       </c>
       <c r="C137" t="n">
-        <v>0.247021</v>
+        <v>0.243824</v>
       </c>
       <c r="D137" t="n">
-        <v>0.26657</v>
+        <v>0.279413</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.297897</v>
+        <v>0.311095</v>
       </c>
       <c r="C138" t="n">
-        <v>0.266232</v>
+        <v>0.25501</v>
       </c>
       <c r="D138" t="n">
-        <v>0.263007</v>
+        <v>0.277039</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.302747</v>
+        <v>0.307997</v>
       </c>
       <c r="C139" t="n">
-        <v>0.27517</v>
+        <v>0.25577</v>
       </c>
       <c r="D139" t="n">
-        <v>0.263054</v>
+        <v>0.273465</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.291025</v>
+        <v>0.305189</v>
       </c>
       <c r="C140" t="n">
-        <v>0.266241</v>
+        <v>0.254895</v>
       </c>
       <c r="D140" t="n">
-        <v>0.263115</v>
+        <v>0.273235</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.297349</v>
+        <v>0.294458</v>
       </c>
       <c r="C141" t="n">
-        <v>0.258707</v>
+        <v>0.248767</v>
       </c>
       <c r="D141" t="n">
-        <v>0.260417</v>
+        <v>0.277872</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.278245</v>
+        <v>0.289605</v>
       </c>
       <c r="C142" t="n">
-        <v>0.265127</v>
+        <v>0.251984</v>
       </c>
       <c r="D142" t="n">
-        <v>0.252729</v>
+        <v>0.2684</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.280699</v>
+        <v>0.280475</v>
       </c>
       <c r="C143" t="n">
-        <v>0.257763</v>
+        <v>0.252206</v>
       </c>
       <c r="D143" t="n">
-        <v>0.259028</v>
+        <v>0.271336</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.272364</v>
+        <v>0.2735</v>
       </c>
       <c r="C2" t="n">
-        <v>0.231339</v>
+        <v>0.234919</v>
       </c>
       <c r="D2" t="n">
-        <v>0.248369</v>
+        <v>0.248809</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.26865</v>
+        <v>0.273159</v>
       </c>
       <c r="C3" t="n">
-        <v>0.22979</v>
+        <v>0.246454</v>
       </c>
       <c r="D3" t="n">
-        <v>0.24563</v>
+        <v>0.258224</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.253925</v>
+        <v>0.260796</v>
       </c>
       <c r="C4" t="n">
-        <v>0.243353</v>
+        <v>0.23687</v>
       </c>
       <c r="D4" t="n">
-        <v>0.249572</v>
+        <v>0.253319</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.245852</v>
+        <v>0.257744</v>
       </c>
       <c r="C5" t="n">
-        <v>0.23385</v>
+        <v>0.239054</v>
       </c>
       <c r="D5" t="n">
-        <v>0.240525</v>
+        <v>0.25649</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.244242</v>
+        <v>0.249564</v>
       </c>
       <c r="C6" t="n">
-        <v>0.226534</v>
+        <v>0.241968</v>
       </c>
       <c r="D6" t="n">
-        <v>0.24305</v>
+        <v>0.255972</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.230586</v>
+        <v>0.240141</v>
       </c>
       <c r="C7" t="n">
-        <v>0.231748</v>
+        <v>0.238429</v>
       </c>
       <c r="D7" t="n">
-        <v>0.249107</v>
+        <v>0.250405</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.223206</v>
+        <v>0.231177</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225924</v>
+        <v>0.240465</v>
       </c>
       <c r="D8" t="n">
-        <v>0.238265</v>
+        <v>0.252161</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.209123</v>
+        <v>0.220859</v>
       </c>
       <c r="C9" t="n">
-        <v>0.227541</v>
+        <v>0.23929</v>
       </c>
       <c r="D9" t="n">
-        <v>0.252059</v>
+        <v>0.262149</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.300829</v>
+        <v>0.303303</v>
       </c>
       <c r="C10" t="n">
-        <v>0.242257</v>
+        <v>0.241521</v>
       </c>
       <c r="D10" t="n">
-        <v>0.254123</v>
+        <v>0.255924</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.289443</v>
+        <v>0.2978</v>
       </c>
       <c r="C11" t="n">
-        <v>0.237146</v>
+        <v>0.247334</v>
       </c>
       <c r="D11" t="n">
-        <v>0.251962</v>
+        <v>0.257025</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.283446</v>
+        <v>0.2921</v>
       </c>
       <c r="C12" t="n">
-        <v>0.236139</v>
+        <v>0.239674</v>
       </c>
       <c r="D12" t="n">
-        <v>0.254375</v>
+        <v>0.256044</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.288331</v>
+        <v>0.289335</v>
       </c>
       <c r="C13" t="n">
-        <v>0.235288</v>
+        <v>0.236759</v>
       </c>
       <c r="D13" t="n">
-        <v>0.246507</v>
+        <v>0.256799</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.271605</v>
+        <v>0.283295</v>
       </c>
       <c r="C14" t="n">
-        <v>0.234121</v>
+        <v>0.239452</v>
       </c>
       <c r="D14" t="n">
-        <v>0.255253</v>
+        <v>0.256885</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.270935</v>
+        <v>0.279187</v>
       </c>
       <c r="C15" t="n">
-        <v>0.237664</v>
+        <v>0.234943</v>
       </c>
       <c r="D15" t="n">
-        <v>0.253811</v>
+        <v>0.254259</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.262208</v>
+        <v>0.267992</v>
       </c>
       <c r="C16" t="n">
-        <v>0.234384</v>
+        <v>0.237783</v>
       </c>
       <c r="D16" t="n">
-        <v>0.249415</v>
+        <v>0.254776</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.26138</v>
+        <v>0.266699</v>
       </c>
       <c r="C17" t="n">
-        <v>0.231926</v>
+        <v>0.235133</v>
       </c>
       <c r="D17" t="n">
-        <v>0.245706</v>
+        <v>0.251902</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.252936</v>
+        <v>0.259382</v>
       </c>
       <c r="C18" t="n">
-        <v>0.232853</v>
+        <v>0.235501</v>
       </c>
       <c r="D18" t="n">
-        <v>0.246518</v>
+        <v>0.251817</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.247671</v>
+        <v>0.247551</v>
       </c>
       <c r="C19" t="n">
-        <v>0.228437</v>
+        <v>0.237048</v>
       </c>
       <c r="D19" t="n">
-        <v>0.246923</v>
+        <v>0.257968</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.238536</v>
+        <v>0.244741</v>
       </c>
       <c r="C20" t="n">
-        <v>0.22782</v>
+        <v>0.239252</v>
       </c>
       <c r="D20" t="n">
-        <v>0.243123</v>
+        <v>0.248366</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.232856</v>
+        <v>0.238243</v>
       </c>
       <c r="C21" t="n">
-        <v>0.228369</v>
+        <v>0.241036</v>
       </c>
       <c r="D21" t="n">
-        <v>0.24553</v>
+        <v>0.254157</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.227607</v>
+        <v>0.231505</v>
       </c>
       <c r="C22" t="n">
-        <v>0.228368</v>
+        <v>0.235136</v>
       </c>
       <c r="D22" t="n">
-        <v>0.246503</v>
+        <v>0.251298</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.221007</v>
+        <v>0.220124</v>
       </c>
       <c r="C23" t="n">
-        <v>0.230424</v>
+        <v>0.240688</v>
       </c>
       <c r="D23" t="n">
-        <v>0.258385</v>
+        <v>0.263572</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.294041</v>
+        <v>0.304613</v>
       </c>
       <c r="C24" t="n">
-        <v>0.240284</v>
+        <v>0.242277</v>
       </c>
       <c r="D24" t="n">
-        <v>0.253426</v>
+        <v>0.2621</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.291753</v>
+        <v>0.2996</v>
       </c>
       <c r="C25" t="n">
-        <v>0.239022</v>
+        <v>0.245263</v>
       </c>
       <c r="D25" t="n">
-        <v>0.258695</v>
+        <v>0.26441</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.287003</v>
+        <v>0.294764</v>
       </c>
       <c r="C26" t="n">
-        <v>0.235873</v>
+        <v>0.238147</v>
       </c>
       <c r="D26" t="n">
-        <v>0.251952</v>
+        <v>0.262854</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.280302</v>
+        <v>0.290071</v>
       </c>
       <c r="C27" t="n">
-        <v>0.235186</v>
+        <v>0.240228</v>
       </c>
       <c r="D27" t="n">
-        <v>0.252594</v>
+        <v>0.259071</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.274981</v>
+        <v>0.281987</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233157</v>
+        <v>0.240946</v>
       </c>
       <c r="D28" t="n">
-        <v>0.252205</v>
+        <v>0.254833</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.272301</v>
+        <v>0.276549</v>
       </c>
       <c r="C29" t="n">
-        <v>0.236584</v>
+        <v>0.236928</v>
       </c>
       <c r="D29" t="n">
-        <v>0.249567</v>
+        <v>0.254705</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.264319</v>
+        <v>0.271245</v>
       </c>
       <c r="C30" t="n">
-        <v>0.233309</v>
+        <v>0.236148</v>
       </c>
       <c r="D30" t="n">
-        <v>0.250086</v>
+        <v>0.257052</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.262874</v>
+        <v>0.265732</v>
       </c>
       <c r="C31" t="n">
-        <v>0.233209</v>
+        <v>0.236684</v>
       </c>
       <c r="D31" t="n">
-        <v>0.248414</v>
+        <v>0.25843</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.255196</v>
+        <v>0.260828</v>
       </c>
       <c r="C32" t="n">
-        <v>0.231766</v>
+        <v>0.23724</v>
       </c>
       <c r="D32" t="n">
-        <v>0.252247</v>
+        <v>0.261771</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.249772</v>
+        <v>0.255457</v>
       </c>
       <c r="C33" t="n">
-        <v>0.231231</v>
+        <v>0.239003</v>
       </c>
       <c r="D33" t="n">
-        <v>0.24776</v>
+        <v>0.251659</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.242211</v>
+        <v>0.248685</v>
       </c>
       <c r="C34" t="n">
-        <v>0.235955</v>
+        <v>0.238913</v>
       </c>
       <c r="D34" t="n">
-        <v>0.24704</v>
+        <v>0.254568</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.235109</v>
+        <v>0.241973</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2336</v>
+        <v>0.237752</v>
       </c>
       <c r="D35" t="n">
-        <v>0.251262</v>
+        <v>0.256075</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.229268</v>
+        <v>0.233103</v>
       </c>
       <c r="C36" t="n">
-        <v>0.230903</v>
+        <v>0.235062</v>
       </c>
       <c r="D36" t="n">
-        <v>0.245318</v>
+        <v>0.254194</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.220365</v>
+        <v>0.22333</v>
       </c>
       <c r="C37" t="n">
-        <v>0.239202</v>
+        <v>0.236038</v>
       </c>
       <c r="D37" t="n">
-        <v>0.261672</v>
+        <v>0.268988</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.298024</v>
+        <v>0.305232</v>
       </c>
       <c r="C38" t="n">
-        <v>0.244716</v>
+        <v>0.248381</v>
       </c>
       <c r="D38" t="n">
-        <v>0.269644</v>
+        <v>0.267559</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.296545</v>
+        <v>0.302503</v>
       </c>
       <c r="C39" t="n">
-        <v>0.238787</v>
+        <v>0.243273</v>
       </c>
       <c r="D39" t="n">
-        <v>0.258076</v>
+        <v>0.264692</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.296213</v>
+        <v>0.296642</v>
       </c>
       <c r="C40" t="n">
-        <v>0.24044</v>
+        <v>0.24332</v>
       </c>
       <c r="D40" t="n">
-        <v>0.26042</v>
+        <v>0.262207</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.287117</v>
+        <v>0.288485</v>
       </c>
       <c r="C41" t="n">
-        <v>0.241353</v>
+        <v>0.243178</v>
       </c>
       <c r="D41" t="n">
-        <v>0.259925</v>
+        <v>0.266901</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.283448</v>
+        <v>0.286237</v>
       </c>
       <c r="C42" t="n">
-        <v>0.237027</v>
+        <v>0.23886</v>
       </c>
       <c r="D42" t="n">
-        <v>0.254286</v>
+        <v>0.263903</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.277434</v>
+        <v>0.282332</v>
       </c>
       <c r="C43" t="n">
-        <v>0.244986</v>
+        <v>0.237998</v>
       </c>
       <c r="D43" t="n">
-        <v>0.25357</v>
+        <v>0.259002</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.273671</v>
+        <v>0.271597</v>
       </c>
       <c r="C44" t="n">
-        <v>0.233903</v>
+        <v>0.239671</v>
       </c>
       <c r="D44" t="n">
-        <v>0.255437</v>
+        <v>0.256513</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.264162</v>
+        <v>0.272395</v>
       </c>
       <c r="C45" t="n">
-        <v>0.235329</v>
+        <v>0.235702</v>
       </c>
       <c r="D45" t="n">
-        <v>0.251102</v>
+        <v>0.257028</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.260598</v>
+        <v>0.26254</v>
       </c>
       <c r="C46" t="n">
-        <v>0.237086</v>
+        <v>0.236975</v>
       </c>
       <c r="D46" t="n">
-        <v>0.256095</v>
+        <v>0.259453</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.252157</v>
+        <v>0.25603</v>
       </c>
       <c r="C47" t="n">
-        <v>0.231664</v>
+        <v>0.240263</v>
       </c>
       <c r="D47" t="n">
-        <v>0.251308</v>
+        <v>0.257313</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.248482</v>
+        <v>0.25317</v>
       </c>
       <c r="C48" t="n">
-        <v>0.234802</v>
+        <v>0.238729</v>
       </c>
       <c r="D48" t="n">
-        <v>0.248449</v>
+        <v>0.254657</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.242244</v>
+        <v>0.243941</v>
       </c>
       <c r="C49" t="n">
-        <v>0.232473</v>
+        <v>0.242233</v>
       </c>
       <c r="D49" t="n">
-        <v>0.248519</v>
+        <v>0.252899</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.231043</v>
+        <v>0.234912</v>
       </c>
       <c r="C50" t="n">
-        <v>0.235117</v>
+        <v>0.239242</v>
       </c>
       <c r="D50" t="n">
-        <v>0.248072</v>
+        <v>0.251564</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.222599</v>
+        <v>0.227253</v>
       </c>
       <c r="C51" t="n">
-        <v>0.234494</v>
+        <v>0.237639</v>
       </c>
       <c r="D51" t="n">
-        <v>0.265816</v>
+        <v>0.270068</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.216621</v>
+        <v>0.21767</v>
       </c>
       <c r="C52" t="n">
-        <v>0.233289</v>
+        <v>0.236194</v>
       </c>
       <c r="D52" t="n">
-        <v>0.262041</v>
+        <v>0.268496</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.305654</v>
+        <v>0.301971</v>
       </c>
       <c r="C53" t="n">
-        <v>0.242177</v>
+        <v>0.244634</v>
       </c>
       <c r="D53" t="n">
-        <v>0.264534</v>
+        <v>0.26501</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.296059</v>
+        <v>0.301374</v>
       </c>
       <c r="C54" t="n">
-        <v>0.247302</v>
+        <v>0.24923</v>
       </c>
       <c r="D54" t="n">
-        <v>0.261624</v>
+        <v>0.274838</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.288703</v>
+        <v>0.293129</v>
       </c>
       <c r="C55" t="n">
-        <v>0.243775</v>
+        <v>0.246596</v>
       </c>
       <c r="D55" t="n">
-        <v>0.262721</v>
+        <v>0.26233</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.28483</v>
+        <v>0.288175</v>
       </c>
       <c r="C56" t="n">
-        <v>0.246243</v>
+        <v>0.244361</v>
       </c>
       <c r="D56" t="n">
-        <v>0.266354</v>
+        <v>0.261511</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.279474</v>
+        <v>0.285363</v>
       </c>
       <c r="C57" t="n">
-        <v>0.240209</v>
+        <v>0.241234</v>
       </c>
       <c r="D57" t="n">
-        <v>0.259572</v>
+        <v>0.263308</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.272513</v>
+        <v>0.275246</v>
       </c>
       <c r="C58" t="n">
-        <v>0.239759</v>
+        <v>0.239579</v>
       </c>
       <c r="D58" t="n">
-        <v>0.258805</v>
+        <v>0.261206</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.271647</v>
+        <v>0.273169</v>
       </c>
       <c r="C59" t="n">
-        <v>0.236748</v>
+        <v>0.240269</v>
       </c>
       <c r="D59" t="n">
-        <v>0.257111</v>
+        <v>0.262038</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.262481</v>
+        <v>0.263862</v>
       </c>
       <c r="C60" t="n">
-        <v>0.238855</v>
+        <v>0.242033</v>
       </c>
       <c r="D60" t="n">
-        <v>0.256425</v>
+        <v>0.262408</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.259273</v>
+        <v>0.261656</v>
       </c>
       <c r="C61" t="n">
-        <v>0.234757</v>
+        <v>0.239923</v>
       </c>
       <c r="D61" t="n">
-        <v>0.26111</v>
+        <v>0.258965</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.248968</v>
+        <v>0.251337</v>
       </c>
       <c r="C62" t="n">
-        <v>0.234042</v>
+        <v>0.240029</v>
       </c>
       <c r="D62" t="n">
-        <v>0.255628</v>
+        <v>0.257757</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.241548</v>
+        <v>0.247663</v>
       </c>
       <c r="C63" t="n">
-        <v>0.239751</v>
+        <v>0.238156</v>
       </c>
       <c r="D63" t="n">
-        <v>0.251757</v>
+        <v>0.256922</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.237729</v>
+        <v>0.238062</v>
       </c>
       <c r="C64" t="n">
-        <v>0.234064</v>
+        <v>0.245064</v>
       </c>
       <c r="D64" t="n">
-        <v>0.249076</v>
+        <v>0.257549</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.22746</v>
+        <v>0.229439</v>
       </c>
       <c r="C65" t="n">
-        <v>0.233081</v>
+        <v>0.242781</v>
       </c>
       <c r="D65" t="n">
-        <v>0.249848</v>
+        <v>0.255168</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.21964</v>
+        <v>0.220912</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241353</v>
+        <v>0.236923</v>
       </c>
       <c r="D66" t="n">
-        <v>0.267553</v>
+        <v>0.272195</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.307012</v>
+        <v>0.307956</v>
       </c>
       <c r="C67" t="n">
-        <v>0.252394</v>
+        <v>0.256104</v>
       </c>
       <c r="D67" t="n">
-        <v>0.274233</v>
+        <v>0.27098</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.300664</v>
+        <v>0.30863</v>
       </c>
       <c r="C68" t="n">
-        <v>0.247024</v>
+        <v>0.251073</v>
       </c>
       <c r="D68" t="n">
-        <v>0.269705</v>
+        <v>0.268867</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.299179</v>
+        <v>0.301547</v>
       </c>
       <c r="C69" t="n">
-        <v>0.246279</v>
+        <v>0.251339</v>
       </c>
       <c r="D69" t="n">
-        <v>0.264734</v>
+        <v>0.274167</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.29462</v>
+        <v>0.292828</v>
       </c>
       <c r="C70" t="n">
-        <v>0.244683</v>
+        <v>0.246603</v>
       </c>
       <c r="D70" t="n">
-        <v>0.263917</v>
+        <v>0.266722</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.284869</v>
+        <v>0.288392</v>
       </c>
       <c r="C71" t="n">
-        <v>0.246687</v>
+        <v>0.250675</v>
       </c>
       <c r="D71" t="n">
-        <v>0.263216</v>
+        <v>0.267411</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.278812</v>
+        <v>0.283572</v>
       </c>
       <c r="C72" t="n">
-        <v>0.243357</v>
+        <v>0.243727</v>
       </c>
       <c r="D72" t="n">
-        <v>0.261058</v>
+        <v>0.262276</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.270793</v>
+        <v>0.276014</v>
       </c>
       <c r="C73" t="n">
-        <v>0.243217</v>
+        <v>0.246856</v>
       </c>
       <c r="D73" t="n">
-        <v>0.257272</v>
+        <v>0.266307</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.266245</v>
+        <v>0.270242</v>
       </c>
       <c r="C74" t="n">
-        <v>0.246539</v>
+        <v>0.246005</v>
       </c>
       <c r="D74" t="n">
-        <v>0.257398</v>
+        <v>0.260036</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.257529</v>
+        <v>0.26759</v>
       </c>
       <c r="C75" t="n">
-        <v>0.240039</v>
+        <v>0.2436</v>
       </c>
       <c r="D75" t="n">
-        <v>0.259036</v>
+        <v>0.263019</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.251259</v>
+        <v>0.258964</v>
       </c>
       <c r="C76" t="n">
-        <v>0.237256</v>
+        <v>0.240168</v>
       </c>
       <c r="D76" t="n">
-        <v>0.254766</v>
+        <v>0.26084</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.249805</v>
+        <v>0.254838</v>
       </c>
       <c r="C77" t="n">
-        <v>0.239116</v>
+        <v>0.239169</v>
       </c>
       <c r="D77" t="n">
-        <v>0.256414</v>
+        <v>0.259116</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.236676</v>
+        <v>0.24597</v>
       </c>
       <c r="C78" t="n">
-        <v>0.238972</v>
+        <v>0.244468</v>
       </c>
       <c r="D78" t="n">
-        <v>0.252332</v>
+        <v>0.261689</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.2315</v>
+        <v>0.237705</v>
       </c>
       <c r="C79" t="n">
-        <v>0.235839</v>
+        <v>0.239521</v>
       </c>
       <c r="D79" t="n">
-        <v>0.25073</v>
+        <v>0.256899</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.221029</v>
+        <v>0.228033</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241886</v>
+        <v>0.240442</v>
       </c>
       <c r="D80" t="n">
-        <v>0.275363</v>
+        <v>0.284439</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.310671</v>
+        <v>0.321058</v>
       </c>
       <c r="C81" t="n">
-        <v>0.256061</v>
+        <v>0.257834</v>
       </c>
       <c r="D81" t="n">
-        <v>0.272525</v>
+        <v>0.280672</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.302989</v>
+        <v>0.311913</v>
       </c>
       <c r="C82" t="n">
-        <v>0.247829</v>
+        <v>0.257259</v>
       </c>
       <c r="D82" t="n">
-        <v>0.272536</v>
+        <v>0.276698</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.298655</v>
+        <v>0.309778</v>
       </c>
       <c r="C83" t="n">
-        <v>0.247058</v>
+        <v>0.253935</v>
       </c>
       <c r="D83" t="n">
-        <v>0.26611</v>
+        <v>0.275605</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.300523</v>
+        <v>0.299473</v>
       </c>
       <c r="C84" t="n">
-        <v>0.251845</v>
+        <v>0.249922</v>
       </c>
       <c r="D84" t="n">
-        <v>0.270738</v>
+        <v>0.273741</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.285481</v>
+        <v>0.298551</v>
       </c>
       <c r="C85" t="n">
-        <v>0.245936</v>
+        <v>0.254251</v>
       </c>
       <c r="D85" t="n">
-        <v>0.267575</v>
+        <v>0.27043</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.28081</v>
+        <v>0.292011</v>
       </c>
       <c r="C86" t="n">
-        <v>0.243147</v>
+        <v>0.252342</v>
       </c>
       <c r="D86" t="n">
-        <v>0.261884</v>
+        <v>0.272586</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.274163</v>
+        <v>0.291773</v>
       </c>
       <c r="C87" t="n">
-        <v>0.242454</v>
+        <v>0.245905</v>
       </c>
       <c r="D87" t="n">
-        <v>0.262156</v>
+        <v>0.267456</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.268902</v>
+        <v>0.27825</v>
       </c>
       <c r="C88" t="n">
-        <v>0.244939</v>
+        <v>0.247651</v>
       </c>
       <c r="D88" t="n">
-        <v>0.260326</v>
+        <v>0.27092</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.261824</v>
+        <v>0.269882</v>
       </c>
       <c r="C89" t="n">
-        <v>0.239309</v>
+        <v>0.245491</v>
       </c>
       <c r="D89" t="n">
-        <v>0.258177</v>
+        <v>0.268178</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.256255</v>
+        <v>0.264963</v>
       </c>
       <c r="C90" t="n">
-        <v>0.238391</v>
+        <v>0.246269</v>
       </c>
       <c r="D90" t="n">
-        <v>0.265167</v>
+        <v>0.264479</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.257453</v>
+        <v>0.256773</v>
       </c>
       <c r="C91" t="n">
-        <v>0.238019</v>
+        <v>0.245034</v>
       </c>
       <c r="D91" t="n">
-        <v>0.256003</v>
+        <v>0.262016</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.24396</v>
+        <v>0.245614</v>
       </c>
       <c r="C92" t="n">
-        <v>0.240486</v>
+        <v>0.244061</v>
       </c>
       <c r="D92" t="n">
-        <v>0.255215</v>
+        <v>0.263887</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.233428</v>
+        <v>0.23797</v>
       </c>
       <c r="C93" t="n">
-        <v>0.237221</v>
+        <v>0.243838</v>
       </c>
       <c r="D93" t="n">
-        <v>0.256621</v>
+        <v>0.261003</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.226256</v>
+        <v>0.23662</v>
       </c>
       <c r="C94" t="n">
-        <v>0.236188</v>
+        <v>0.245276</v>
       </c>
       <c r="D94" t="n">
-        <v>0.278891</v>
+        <v>0.286932</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.312124</v>
+        <v>0.323678</v>
       </c>
       <c r="C95" t="n">
-        <v>0.254073</v>
+        <v>0.255836</v>
       </c>
       <c r="D95" t="n">
-        <v>0.278098</v>
+        <v>0.278876</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.315348</v>
+        <v>0.317151</v>
       </c>
       <c r="C96" t="n">
-        <v>0.254571</v>
+        <v>0.257045</v>
       </c>
       <c r="D96" t="n">
-        <v>0.272827</v>
+        <v>0.278963</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.305574</v>
+        <v>0.307597</v>
       </c>
       <c r="C97" t="n">
-        <v>0.249363</v>
+        <v>0.260859</v>
       </c>
       <c r="D97" t="n">
-        <v>0.272761</v>
+        <v>0.274567</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.297049</v>
+        <v>0.305123</v>
       </c>
       <c r="C98" t="n">
-        <v>0.250184</v>
+        <v>0.255696</v>
       </c>
       <c r="D98" t="n">
-        <v>0.269652</v>
+        <v>0.274026</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.292481</v>
+        <v>0.302668</v>
       </c>
       <c r="C99" t="n">
-        <v>0.248806</v>
+        <v>0.253332</v>
       </c>
       <c r="D99" t="n">
-        <v>0.264929</v>
+        <v>0.275383</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.283247</v>
+        <v>0.289815</v>
       </c>
       <c r="C100" t="n">
-        <v>0.253965</v>
+        <v>0.249077</v>
       </c>
       <c r="D100" t="n">
-        <v>0.265312</v>
+        <v>0.274135</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.284403</v>
+        <v>0.284293</v>
       </c>
       <c r="C101" t="n">
-        <v>0.243742</v>
+        <v>0.249586</v>
       </c>
       <c r="D101" t="n">
-        <v>0.264499</v>
+        <v>0.270495</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.273904</v>
+        <v>0.27455</v>
       </c>
       <c r="C102" t="n">
-        <v>0.243132</v>
+        <v>0.247024</v>
       </c>
       <c r="D102" t="n">
-        <v>0.260238</v>
+        <v>0.270725</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.264593</v>
+        <v>0.275486</v>
       </c>
       <c r="C103" t="n">
-        <v>0.251628</v>
+        <v>0.249833</v>
       </c>
       <c r="D103" t="n">
-        <v>0.261999</v>
+        <v>0.266314</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.26202</v>
+        <v>0.270305</v>
       </c>
       <c r="C104" t="n">
-        <v>0.240348</v>
+        <v>0.246929</v>
       </c>
       <c r="D104" t="n">
-        <v>0.260547</v>
+        <v>0.263326</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.254608</v>
+        <v>0.255111</v>
       </c>
       <c r="C105" t="n">
-        <v>0.241268</v>
+        <v>0.244338</v>
       </c>
       <c r="D105" t="n">
-        <v>0.262286</v>
+        <v>0.261667</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.247661</v>
+        <v>0.24833</v>
       </c>
       <c r="C106" t="n">
-        <v>0.241054</v>
+        <v>0.244116</v>
       </c>
       <c r="D106" t="n">
-        <v>0.25622</v>
+        <v>0.259517</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.242926</v>
+        <v>0.245327</v>
       </c>
       <c r="C107" t="n">
-        <v>0.239989</v>
+        <v>0.246607</v>
       </c>
       <c r="D107" t="n">
-        <v>0.254516</v>
+        <v>0.262059</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.22977</v>
+        <v>0.233458</v>
       </c>
       <c r="C108" t="n">
-        <v>0.242479</v>
+        <v>0.244144</v>
       </c>
       <c r="D108" t="n">
-        <v>0.277312</v>
+        <v>0.28377</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.217107</v>
+        <v>0.225733</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241826</v>
+        <v>0.243883</v>
       </c>
       <c r="D109" t="n">
-        <v>0.272369</v>
+        <v>0.277788</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.311948</v>
+        <v>0.318695</v>
       </c>
       <c r="C110" t="n">
-        <v>0.25163</v>
+        <v>0.259644</v>
       </c>
       <c r="D110" t="n">
-        <v>0.272167</v>
+        <v>0.278678</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.302561</v>
+        <v>0.309227</v>
       </c>
       <c r="C111" t="n">
-        <v>0.251773</v>
+        <v>0.253945</v>
       </c>
       <c r="D111" t="n">
-        <v>0.274401</v>
+        <v>0.274591</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.306979</v>
+        <v>0.303495</v>
       </c>
       <c r="C112" t="n">
-        <v>0.254225</v>
+        <v>0.254856</v>
       </c>
       <c r="D112" t="n">
-        <v>0.268116</v>
+        <v>0.274225</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.292601</v>
+        <v>0.299002</v>
       </c>
       <c r="C113" t="n">
-        <v>0.247174</v>
+        <v>0.25174</v>
       </c>
       <c r="D113" t="n">
-        <v>0.266613</v>
+        <v>0.275363</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.293086</v>
+        <v>0.294468</v>
       </c>
       <c r="C114" t="n">
-        <v>0.251225</v>
+        <v>0.250524</v>
       </c>
       <c r="D114" t="n">
-        <v>0.267752</v>
+        <v>0.269541</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.27994</v>
+        <v>0.29062</v>
       </c>
       <c r="C115" t="n">
-        <v>0.245912</v>
+        <v>0.252703</v>
       </c>
       <c r="D115" t="n">
-        <v>0.262824</v>
+        <v>0.270736</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.272503</v>
+        <v>0.279667</v>
       </c>
       <c r="C116" t="n">
-        <v>0.249658</v>
+        <v>0.251966</v>
       </c>
       <c r="D116" t="n">
-        <v>0.261501</v>
+        <v>0.270509</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.276285</v>
+        <v>0.272049</v>
       </c>
       <c r="C117" t="n">
-        <v>0.241126</v>
+        <v>0.244516</v>
       </c>
       <c r="D117" t="n">
-        <v>0.263438</v>
+        <v>0.265419</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.258913</v>
+        <v>0.26608</v>
       </c>
       <c r="C118" t="n">
-        <v>0.246756</v>
+        <v>0.245564</v>
       </c>
       <c r="D118" t="n">
-        <v>0.261048</v>
+        <v>0.269431</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.260745</v>
+        <v>0.261352</v>
       </c>
       <c r="C119" t="n">
-        <v>0.242881</v>
+        <v>0.243766</v>
       </c>
       <c r="D119" t="n">
-        <v>0.257407</v>
+        <v>0.263375</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.248535</v>
+        <v>0.255354</v>
       </c>
       <c r="C120" t="n">
-        <v>0.243262</v>
+        <v>0.243724</v>
       </c>
       <c r="D120" t="n">
-        <v>0.25646</v>
+        <v>0.266538</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.245488</v>
+        <v>0.244464</v>
       </c>
       <c r="C121" t="n">
-        <v>0.240958</v>
+        <v>0.244561</v>
       </c>
       <c r="D121" t="n">
-        <v>0.254627</v>
+        <v>0.261059</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229768</v>
+        <v>0.239501</v>
       </c>
       <c r="C122" t="n">
-        <v>0.241217</v>
+        <v>0.24201</v>
       </c>
       <c r="D122" t="n">
-        <v>0.260744</v>
+        <v>0.26167</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.225213</v>
+        <v>0.229331</v>
       </c>
       <c r="C123" t="n">
-        <v>0.243289</v>
+        <v>0.24801</v>
       </c>
       <c r="D123" t="n">
-        <v>0.276063</v>
+        <v>0.279077</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.309795</v>
+        <v>0.318679</v>
       </c>
       <c r="C124" t="n">
-        <v>0.252461</v>
+        <v>0.266363</v>
       </c>
       <c r="D124" t="n">
-        <v>0.274689</v>
+        <v>0.282707</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.306888</v>
+        <v>0.310944</v>
       </c>
       <c r="C125" t="n">
-        <v>0.252003</v>
+        <v>0.256812</v>
       </c>
       <c r="D125" t="n">
-        <v>0.273939</v>
+        <v>0.281625</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.305121</v>
+        <v>0.308105</v>
       </c>
       <c r="C126" t="n">
-        <v>0.253473</v>
+        <v>0.254898</v>
       </c>
       <c r="D126" t="n">
-        <v>0.268032</v>
+        <v>0.2774</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.303219</v>
+        <v>0.305334</v>
       </c>
       <c r="C127" t="n">
-        <v>0.247334</v>
+        <v>0.251221</v>
       </c>
       <c r="D127" t="n">
-        <v>0.270022</v>
+        <v>0.275853</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.292045</v>
+        <v>0.303575</v>
       </c>
       <c r="C128" t="n">
-        <v>0.250746</v>
+        <v>0.253954</v>
       </c>
       <c r="D128" t="n">
-        <v>0.266839</v>
+        <v>0.270782</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.281708</v>
+        <v>0.287329</v>
       </c>
       <c r="C129" t="n">
-        <v>0.246642</v>
+        <v>0.251662</v>
       </c>
       <c r="D129" t="n">
-        <v>0.264067</v>
+        <v>0.266707</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.275124</v>
+        <v>0.291648</v>
       </c>
       <c r="C130" t="n">
-        <v>0.248111</v>
+        <v>0.247356</v>
       </c>
       <c r="D130" t="n">
-        <v>0.260837</v>
+        <v>0.269793</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.271375</v>
+        <v>0.273386</v>
       </c>
       <c r="C131" t="n">
-        <v>0.246451</v>
+        <v>0.249793</v>
       </c>
       <c r="D131" t="n">
-        <v>0.2613</v>
+        <v>0.264648</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.264014</v>
+        <v>0.268541</v>
       </c>
       <c r="C132" t="n">
-        <v>0.23968</v>
+        <v>0.244759</v>
       </c>
       <c r="D132" t="n">
-        <v>0.267912</v>
+        <v>0.266476</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.2544</v>
+        <v>0.26777</v>
       </c>
       <c r="C133" t="n">
-        <v>0.239687</v>
+        <v>0.257677</v>
       </c>
       <c r="D133" t="n">
-        <v>0.265025</v>
+        <v>0.270749</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.249895</v>
+        <v>0.253465</v>
       </c>
       <c r="C134" t="n">
-        <v>0.244963</v>
+        <v>0.241474</v>
       </c>
       <c r="D134" t="n">
-        <v>0.265977</v>
+        <v>0.263535</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.242726</v>
+        <v>0.247372</v>
       </c>
       <c r="C135" t="n">
-        <v>0.247529</v>
+        <v>0.243904</v>
       </c>
       <c r="D135" t="n">
-        <v>0.25775</v>
+        <v>0.263984</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.234964</v>
+        <v>0.239077</v>
       </c>
       <c r="C136" t="n">
-        <v>0.242887</v>
+        <v>0.242869</v>
       </c>
       <c r="D136" t="n">
-        <v>0.260148</v>
+        <v>0.260741</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.222442</v>
+        <v>0.231065</v>
       </c>
       <c r="C137" t="n">
-        <v>0.243824</v>
+        <v>0.24264</v>
       </c>
       <c r="D137" t="n">
-        <v>0.279413</v>
+        <v>0.288117</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.311095</v>
+        <v>0.320991</v>
       </c>
       <c r="C138" t="n">
-        <v>0.25501</v>
+        <v>0.257524</v>
       </c>
       <c r="D138" t="n">
-        <v>0.277039</v>
+        <v>0.281312</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.307997</v>
+        <v>0.308187</v>
       </c>
       <c r="C139" t="n">
-        <v>0.25577</v>
+        <v>0.2608</v>
       </c>
       <c r="D139" t="n">
-        <v>0.273465</v>
+        <v>0.282301</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.305189</v>
+        <v>0.310513</v>
       </c>
       <c r="C140" t="n">
-        <v>0.254895</v>
+        <v>0.260003</v>
       </c>
       <c r="D140" t="n">
-        <v>0.273235</v>
+        <v>0.276302</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.294458</v>
+        <v>0.297652</v>
       </c>
       <c r="C141" t="n">
-        <v>0.248767</v>
+        <v>0.25015</v>
       </c>
       <c r="D141" t="n">
-        <v>0.277872</v>
+        <v>0.278422</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.289605</v>
+        <v>0.296595</v>
       </c>
       <c r="C142" t="n">
-        <v>0.251984</v>
+        <v>0.256576</v>
       </c>
       <c r="D142" t="n">
-        <v>0.2684</v>
+        <v>0.277873</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.280475</v>
+        <v>0.287308</v>
       </c>
       <c r="C143" t="n">
-        <v>0.252206</v>
+        <v>0.251833</v>
       </c>
       <c r="D143" t="n">
-        <v>0.271336</v>
+        <v>0.277274</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2735</v>
+        <v>0.280163</v>
       </c>
       <c r="C2" t="n">
-        <v>0.234919</v>
+        <v>0.238689</v>
       </c>
       <c r="D2" t="n">
-        <v>0.248809</v>
+        <v>0.252638</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.273159</v>
+        <v>0.266725</v>
       </c>
       <c r="C3" t="n">
-        <v>0.246454</v>
+        <v>0.239166</v>
       </c>
       <c r="D3" t="n">
-        <v>0.258224</v>
+        <v>0.250064</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.260796</v>
+        <v>0.268142</v>
       </c>
       <c r="C4" t="n">
-        <v>0.23687</v>
+        <v>0.236445</v>
       </c>
       <c r="D4" t="n">
-        <v>0.253319</v>
+        <v>0.250807</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.257744</v>
+        <v>0.260104</v>
       </c>
       <c r="C5" t="n">
-        <v>0.239054</v>
+        <v>0.234323</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25649</v>
+        <v>0.250718</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.249564</v>
+        <v>0.239488</v>
       </c>
       <c r="C6" t="n">
-        <v>0.241968</v>
+        <v>0.234357</v>
       </c>
       <c r="D6" t="n">
-        <v>0.255972</v>
+        <v>0.246957</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.240141</v>
+        <v>0.232386</v>
       </c>
       <c r="C7" t="n">
-        <v>0.238429</v>
+        <v>0.236853</v>
       </c>
       <c r="D7" t="n">
-        <v>0.250405</v>
+        <v>0.248561</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.231177</v>
+        <v>0.223187</v>
       </c>
       <c r="C8" t="n">
-        <v>0.240465</v>
+        <v>0.235596</v>
       </c>
       <c r="D8" t="n">
-        <v>0.252161</v>
+        <v>0.249323</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.220859</v>
+        <v>0.21899</v>
       </c>
       <c r="C9" t="n">
-        <v>0.23929</v>
+        <v>0.236447</v>
       </c>
       <c r="D9" t="n">
-        <v>0.262149</v>
+        <v>0.258159</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.303303</v>
+        <v>0.303117</v>
       </c>
       <c r="C10" t="n">
-        <v>0.241521</v>
+        <v>0.24436</v>
       </c>
       <c r="D10" t="n">
-        <v>0.255924</v>
+        <v>0.260045</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2978</v>
+        <v>0.307372</v>
       </c>
       <c r="C11" t="n">
-        <v>0.247334</v>
+        <v>0.243615</v>
       </c>
       <c r="D11" t="n">
-        <v>0.257025</v>
+        <v>0.260021</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2921</v>
+        <v>0.304114</v>
       </c>
       <c r="C12" t="n">
-        <v>0.239674</v>
+        <v>0.240899</v>
       </c>
       <c r="D12" t="n">
-        <v>0.256044</v>
+        <v>0.26227</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.289335</v>
+        <v>0.288321</v>
       </c>
       <c r="C13" t="n">
-        <v>0.236759</v>
+        <v>0.238375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.256799</v>
+        <v>0.252418</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.283295</v>
+        <v>0.281365</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239452</v>
+        <v>0.240875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.256885</v>
+        <v>0.254335</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.279187</v>
+        <v>0.277436</v>
       </c>
       <c r="C15" t="n">
-        <v>0.234943</v>
+        <v>0.236785</v>
       </c>
       <c r="D15" t="n">
-        <v>0.254259</v>
+        <v>0.25425</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.267992</v>
+        <v>0.274636</v>
       </c>
       <c r="C16" t="n">
-        <v>0.237783</v>
+        <v>0.238661</v>
       </c>
       <c r="D16" t="n">
-        <v>0.254776</v>
+        <v>0.256277</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.266699</v>
+        <v>0.268527</v>
       </c>
       <c r="C17" t="n">
-        <v>0.235133</v>
+        <v>0.23763</v>
       </c>
       <c r="D17" t="n">
-        <v>0.251902</v>
+        <v>0.25104</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.259382</v>
+        <v>0.258842</v>
       </c>
       <c r="C18" t="n">
-        <v>0.235501</v>
+        <v>0.236305</v>
       </c>
       <c r="D18" t="n">
-        <v>0.251817</v>
+        <v>0.251421</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.247551</v>
+        <v>0.255</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237048</v>
+        <v>0.235917</v>
       </c>
       <c r="D19" t="n">
-        <v>0.257968</v>
+        <v>0.250065</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244741</v>
+        <v>0.246699</v>
       </c>
       <c r="C20" t="n">
-        <v>0.239252</v>
+        <v>0.238225</v>
       </c>
       <c r="D20" t="n">
-        <v>0.248366</v>
+        <v>0.255308</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.238243</v>
+        <v>0.239326</v>
       </c>
       <c r="C21" t="n">
-        <v>0.241036</v>
+        <v>0.235174</v>
       </c>
       <c r="D21" t="n">
-        <v>0.254157</v>
+        <v>0.250043</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.231505</v>
+        <v>0.229865</v>
       </c>
       <c r="C22" t="n">
-        <v>0.235136</v>
+        <v>0.239839</v>
       </c>
       <c r="D22" t="n">
-        <v>0.251298</v>
+        <v>0.249152</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.220124</v>
+        <v>0.224421</v>
       </c>
       <c r="C23" t="n">
-        <v>0.240688</v>
+        <v>0.238184</v>
       </c>
       <c r="D23" t="n">
-        <v>0.263572</v>
+        <v>0.265617</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.304613</v>
+        <v>0.305318</v>
       </c>
       <c r="C24" t="n">
-        <v>0.242277</v>
+        <v>0.244262</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2621</v>
+        <v>0.262781</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2996</v>
+        <v>0.301524</v>
       </c>
       <c r="C25" t="n">
-        <v>0.245263</v>
+        <v>0.246118</v>
       </c>
       <c r="D25" t="n">
-        <v>0.26441</v>
+        <v>0.25966</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.294764</v>
+        <v>0.295997</v>
       </c>
       <c r="C26" t="n">
-        <v>0.238147</v>
+        <v>0.242767</v>
       </c>
       <c r="D26" t="n">
-        <v>0.262854</v>
+        <v>0.271737</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.290071</v>
+        <v>0.290189</v>
       </c>
       <c r="C27" t="n">
-        <v>0.240228</v>
+        <v>0.240966</v>
       </c>
       <c r="D27" t="n">
-        <v>0.259071</v>
+        <v>0.261606</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.281987</v>
+        <v>0.29052</v>
       </c>
       <c r="C28" t="n">
-        <v>0.240946</v>
+        <v>0.244194</v>
       </c>
       <c r="D28" t="n">
-        <v>0.254833</v>
+        <v>0.262314</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.276549</v>
+        <v>0.281484</v>
       </c>
       <c r="C29" t="n">
-        <v>0.236928</v>
+        <v>0.240851</v>
       </c>
       <c r="D29" t="n">
-        <v>0.254705</v>
+        <v>0.257526</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.271245</v>
+        <v>0.274213</v>
       </c>
       <c r="C30" t="n">
-        <v>0.236148</v>
+        <v>0.239007</v>
       </c>
       <c r="D30" t="n">
-        <v>0.257052</v>
+        <v>0.25518</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.265732</v>
+        <v>0.267903</v>
       </c>
       <c r="C31" t="n">
-        <v>0.236684</v>
+        <v>0.238714</v>
       </c>
       <c r="D31" t="n">
-        <v>0.25843</v>
+        <v>0.259364</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.260828</v>
+        <v>0.261423</v>
       </c>
       <c r="C32" t="n">
-        <v>0.23724</v>
+        <v>0.240134</v>
       </c>
       <c r="D32" t="n">
-        <v>0.261771</v>
+        <v>0.256733</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.255457</v>
+        <v>0.255023</v>
       </c>
       <c r="C33" t="n">
-        <v>0.239003</v>
+        <v>0.238912</v>
       </c>
       <c r="D33" t="n">
-        <v>0.251659</v>
+        <v>0.254844</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.248685</v>
+        <v>0.248581</v>
       </c>
       <c r="C34" t="n">
-        <v>0.238913</v>
+        <v>0.238392</v>
       </c>
       <c r="D34" t="n">
-        <v>0.254568</v>
+        <v>0.253872</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.241973</v>
+        <v>0.242792</v>
       </c>
       <c r="C35" t="n">
-        <v>0.237752</v>
+        <v>0.238312</v>
       </c>
       <c r="D35" t="n">
-        <v>0.256075</v>
+        <v>0.253191</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.233103</v>
+        <v>0.232859</v>
       </c>
       <c r="C36" t="n">
-        <v>0.235062</v>
+        <v>0.238738</v>
       </c>
       <c r="D36" t="n">
-        <v>0.254194</v>
+        <v>0.25302</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.22333</v>
+        <v>0.226403</v>
       </c>
       <c r="C37" t="n">
-        <v>0.236038</v>
+        <v>0.24313</v>
       </c>
       <c r="D37" t="n">
-        <v>0.268988</v>
+        <v>0.279063</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.305232</v>
+        <v>0.316399</v>
       </c>
       <c r="C38" t="n">
-        <v>0.248381</v>
+        <v>0.246493</v>
       </c>
       <c r="D38" t="n">
-        <v>0.267559</v>
+        <v>0.27355</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.302503</v>
+        <v>0.307646</v>
       </c>
       <c r="C39" t="n">
-        <v>0.243273</v>
+        <v>0.248108</v>
       </c>
       <c r="D39" t="n">
-        <v>0.264692</v>
+        <v>0.275703</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.296642</v>
+        <v>0.297368</v>
       </c>
       <c r="C40" t="n">
-        <v>0.24332</v>
+        <v>0.246406</v>
       </c>
       <c r="D40" t="n">
-        <v>0.262207</v>
+        <v>0.266479</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.288485</v>
+        <v>0.294128</v>
       </c>
       <c r="C41" t="n">
-        <v>0.243178</v>
+        <v>0.245685</v>
       </c>
       <c r="D41" t="n">
-        <v>0.266901</v>
+        <v>0.264953</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.286237</v>
+        <v>0.289673</v>
       </c>
       <c r="C42" t="n">
-        <v>0.23886</v>
+        <v>0.245985</v>
       </c>
       <c r="D42" t="n">
-        <v>0.263903</v>
+        <v>0.262723</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.282332</v>
+        <v>0.282818</v>
       </c>
       <c r="C43" t="n">
-        <v>0.237998</v>
+        <v>0.24266</v>
       </c>
       <c r="D43" t="n">
-        <v>0.259002</v>
+        <v>0.263882</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.271597</v>
+        <v>0.276</v>
       </c>
       <c r="C44" t="n">
-        <v>0.239671</v>
+        <v>0.243636</v>
       </c>
       <c r="D44" t="n">
-        <v>0.256513</v>
+        <v>0.261131</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.272395</v>
+        <v>0.269981</v>
       </c>
       <c r="C45" t="n">
-        <v>0.235702</v>
+        <v>0.247203</v>
       </c>
       <c r="D45" t="n">
-        <v>0.257028</v>
+        <v>0.269854</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.26254</v>
+        <v>0.265043</v>
       </c>
       <c r="C46" t="n">
-        <v>0.236975</v>
+        <v>0.23957</v>
       </c>
       <c r="D46" t="n">
-        <v>0.259453</v>
+        <v>0.259208</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.25603</v>
+        <v>0.259561</v>
       </c>
       <c r="C47" t="n">
-        <v>0.240263</v>
+        <v>0.239014</v>
       </c>
       <c r="D47" t="n">
-        <v>0.257313</v>
+        <v>0.258218</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.25317</v>
+        <v>0.250948</v>
       </c>
       <c r="C48" t="n">
-        <v>0.238729</v>
+        <v>0.238082</v>
       </c>
       <c r="D48" t="n">
-        <v>0.254657</v>
+        <v>0.25695</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.243941</v>
+        <v>0.246644</v>
       </c>
       <c r="C49" t="n">
-        <v>0.242233</v>
+        <v>0.240145</v>
       </c>
       <c r="D49" t="n">
-        <v>0.252899</v>
+        <v>0.256912</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.234912</v>
+        <v>0.238662</v>
       </c>
       <c r="C50" t="n">
-        <v>0.239242</v>
+        <v>0.242482</v>
       </c>
       <c r="D50" t="n">
-        <v>0.251564</v>
+        <v>0.255944</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.227253</v>
+        <v>0.230815</v>
       </c>
       <c r="C51" t="n">
-        <v>0.237639</v>
+        <v>0.242063</v>
       </c>
       <c r="D51" t="n">
-        <v>0.270068</v>
+        <v>0.274223</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.21767</v>
+        <v>0.219792</v>
       </c>
       <c r="C52" t="n">
-        <v>0.236194</v>
+        <v>0.238547</v>
       </c>
       <c r="D52" t="n">
-        <v>0.268496</v>
+        <v>0.275132</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.301971</v>
+        <v>0.310873</v>
       </c>
       <c r="C53" t="n">
-        <v>0.244634</v>
+        <v>0.251007</v>
       </c>
       <c r="D53" t="n">
-        <v>0.26501</v>
+        <v>0.27125</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.301374</v>
+        <v>0.305789</v>
       </c>
       <c r="C54" t="n">
-        <v>0.24923</v>
+        <v>0.251218</v>
       </c>
       <c r="D54" t="n">
-        <v>0.274838</v>
+        <v>0.272338</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.293129</v>
+        <v>0.298523</v>
       </c>
       <c r="C55" t="n">
-        <v>0.246596</v>
+        <v>0.248286</v>
       </c>
       <c r="D55" t="n">
-        <v>0.26233</v>
+        <v>0.274829</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.288175</v>
+        <v>0.298899</v>
       </c>
       <c r="C56" t="n">
-        <v>0.244361</v>
+        <v>0.248121</v>
       </c>
       <c r="D56" t="n">
-        <v>0.261511</v>
+        <v>0.267199</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.285363</v>
+        <v>0.292826</v>
       </c>
       <c r="C57" t="n">
-        <v>0.241234</v>
+        <v>0.24583</v>
       </c>
       <c r="D57" t="n">
-        <v>0.263308</v>
+        <v>0.266902</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.275246</v>
+        <v>0.284579</v>
       </c>
       <c r="C58" t="n">
-        <v>0.239579</v>
+        <v>0.243796</v>
       </c>
       <c r="D58" t="n">
-        <v>0.261206</v>
+        <v>0.269331</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.273169</v>
+        <v>0.275737</v>
       </c>
       <c r="C59" t="n">
-        <v>0.240269</v>
+        <v>0.247573</v>
       </c>
       <c r="D59" t="n">
-        <v>0.262038</v>
+        <v>0.263918</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.263862</v>
+        <v>0.276783</v>
       </c>
       <c r="C60" t="n">
-        <v>0.242033</v>
+        <v>0.243621</v>
       </c>
       <c r="D60" t="n">
-        <v>0.262408</v>
+        <v>0.261555</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.261656</v>
+        <v>0.263288</v>
       </c>
       <c r="C61" t="n">
-        <v>0.239923</v>
+        <v>0.239627</v>
       </c>
       <c r="D61" t="n">
-        <v>0.258965</v>
+        <v>0.260274</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.251337</v>
+        <v>0.254384</v>
       </c>
       <c r="C62" t="n">
-        <v>0.240029</v>
+        <v>0.242312</v>
       </c>
       <c r="D62" t="n">
-        <v>0.257757</v>
+        <v>0.258459</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.247663</v>
+        <v>0.253178</v>
       </c>
       <c r="C63" t="n">
-        <v>0.238156</v>
+        <v>0.242944</v>
       </c>
       <c r="D63" t="n">
-        <v>0.256922</v>
+        <v>0.257666</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.238062</v>
+        <v>0.241731</v>
       </c>
       <c r="C64" t="n">
-        <v>0.245064</v>
+        <v>0.239645</v>
       </c>
       <c r="D64" t="n">
-        <v>0.257549</v>
+        <v>0.256316</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.229439</v>
+        <v>0.231209</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242781</v>
+        <v>0.239817</v>
       </c>
       <c r="D65" t="n">
-        <v>0.255168</v>
+        <v>0.25487</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.220912</v>
+        <v>0.22185</v>
       </c>
       <c r="C66" t="n">
-        <v>0.236923</v>
+        <v>0.239547</v>
       </c>
       <c r="D66" t="n">
-        <v>0.272195</v>
+        <v>0.274841</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.307956</v>
+        <v>0.313186</v>
       </c>
       <c r="C67" t="n">
-        <v>0.256104</v>
+        <v>0.255324</v>
       </c>
       <c r="D67" t="n">
-        <v>0.27098</v>
+        <v>0.27765</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.30863</v>
+        <v>0.308229</v>
       </c>
       <c r="C68" t="n">
-        <v>0.251073</v>
+        <v>0.253285</v>
       </c>
       <c r="D68" t="n">
-        <v>0.268867</v>
+        <v>0.275056</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.301547</v>
+        <v>0.306844</v>
       </c>
       <c r="C69" t="n">
-        <v>0.251339</v>
+        <v>0.252157</v>
       </c>
       <c r="D69" t="n">
-        <v>0.274167</v>
+        <v>0.271568</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.292828</v>
+        <v>0.296923</v>
       </c>
       <c r="C70" t="n">
-        <v>0.246603</v>
+        <v>0.250312</v>
       </c>
       <c r="D70" t="n">
-        <v>0.266722</v>
+        <v>0.270532</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.288392</v>
+        <v>0.290002</v>
       </c>
       <c r="C71" t="n">
-        <v>0.250675</v>
+        <v>0.249099</v>
       </c>
       <c r="D71" t="n">
-        <v>0.267411</v>
+        <v>0.271118</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.283572</v>
+        <v>0.287041</v>
       </c>
       <c r="C72" t="n">
-        <v>0.243727</v>
+        <v>0.247705</v>
       </c>
       <c r="D72" t="n">
-        <v>0.262276</v>
+        <v>0.270594</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.276014</v>
+        <v>0.278646</v>
       </c>
       <c r="C73" t="n">
-        <v>0.246856</v>
+        <v>0.246641</v>
       </c>
       <c r="D73" t="n">
-        <v>0.266307</v>
+        <v>0.265418</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.270242</v>
+        <v>0.270503</v>
       </c>
       <c r="C74" t="n">
-        <v>0.246005</v>
+        <v>0.24536</v>
       </c>
       <c r="D74" t="n">
-        <v>0.260036</v>
+        <v>0.268051</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.26759</v>
+        <v>0.271314</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2436</v>
+        <v>0.24463</v>
       </c>
       <c r="D75" t="n">
-        <v>0.263019</v>
+        <v>0.263624</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.258964</v>
+        <v>0.261213</v>
       </c>
       <c r="C76" t="n">
-        <v>0.240168</v>
+        <v>0.247937</v>
       </c>
       <c r="D76" t="n">
-        <v>0.26084</v>
+        <v>0.265664</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.254838</v>
+        <v>0.251204</v>
       </c>
       <c r="C77" t="n">
-        <v>0.239169</v>
+        <v>0.243675</v>
       </c>
       <c r="D77" t="n">
-        <v>0.259116</v>
+        <v>0.261978</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.24597</v>
+        <v>0.244324</v>
       </c>
       <c r="C78" t="n">
-        <v>0.244468</v>
+        <v>0.245821</v>
       </c>
       <c r="D78" t="n">
-        <v>0.261689</v>
+        <v>0.259702</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.237705</v>
+        <v>0.235954</v>
       </c>
       <c r="C79" t="n">
-        <v>0.239521</v>
+        <v>0.243261</v>
       </c>
       <c r="D79" t="n">
-        <v>0.256899</v>
+        <v>0.26389</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.228033</v>
+        <v>0.22844</v>
       </c>
       <c r="C80" t="n">
-        <v>0.240442</v>
+        <v>0.24386</v>
       </c>
       <c r="D80" t="n">
-        <v>0.284439</v>
+        <v>0.283796</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.321058</v>
+        <v>0.320608</v>
       </c>
       <c r="C81" t="n">
-        <v>0.257834</v>
+        <v>0.26319</v>
       </c>
       <c r="D81" t="n">
-        <v>0.280672</v>
+        <v>0.284631</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.311913</v>
+        <v>0.342304</v>
       </c>
       <c r="C82" t="n">
-        <v>0.257259</v>
+        <v>0.267835</v>
       </c>
       <c r="D82" t="n">
-        <v>0.276698</v>
+        <v>0.278067</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.309778</v>
+        <v>0.30906</v>
       </c>
       <c r="C83" t="n">
-        <v>0.253935</v>
+        <v>0.256006</v>
       </c>
       <c r="D83" t="n">
-        <v>0.275605</v>
+        <v>0.278433</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.299473</v>
+        <v>0.30263</v>
       </c>
       <c r="C84" t="n">
-        <v>0.249922</v>
+        <v>0.25573</v>
       </c>
       <c r="D84" t="n">
-        <v>0.273741</v>
+        <v>0.276065</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.298551</v>
+        <v>0.297239</v>
       </c>
       <c r="C85" t="n">
-        <v>0.254251</v>
+        <v>0.254295</v>
       </c>
       <c r="D85" t="n">
-        <v>0.27043</v>
+        <v>0.273622</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.292011</v>
+        <v>0.290589</v>
       </c>
       <c r="C86" t="n">
-        <v>0.252342</v>
+        <v>0.251809</v>
       </c>
       <c r="D86" t="n">
-        <v>0.272586</v>
+        <v>0.272046</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.291773</v>
+        <v>0.294108</v>
       </c>
       <c r="C87" t="n">
-        <v>0.245905</v>
+        <v>0.260905</v>
       </c>
       <c r="D87" t="n">
-        <v>0.267456</v>
+        <v>0.27295</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.27825</v>
+        <v>0.279531</v>
       </c>
       <c r="C88" t="n">
-        <v>0.247651</v>
+        <v>0.24918</v>
       </c>
       <c r="D88" t="n">
-        <v>0.27092</v>
+        <v>0.273956</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.269882</v>
+        <v>0.274709</v>
       </c>
       <c r="C89" t="n">
-        <v>0.245491</v>
+        <v>0.248626</v>
       </c>
       <c r="D89" t="n">
-        <v>0.268178</v>
+        <v>0.267983</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.264963</v>
+        <v>0.267211</v>
       </c>
       <c r="C90" t="n">
-        <v>0.246269</v>
+        <v>0.250806</v>
       </c>
       <c r="D90" t="n">
-        <v>0.264479</v>
+        <v>0.265656</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.256773</v>
+        <v>0.255967</v>
       </c>
       <c r="C91" t="n">
-        <v>0.245034</v>
+        <v>0.247869</v>
       </c>
       <c r="D91" t="n">
-        <v>0.262016</v>
+        <v>0.26492</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.245614</v>
+        <v>0.249134</v>
       </c>
       <c r="C92" t="n">
-        <v>0.244061</v>
+        <v>0.246797</v>
       </c>
       <c r="D92" t="n">
-        <v>0.263887</v>
+        <v>0.262593</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.23797</v>
+        <v>0.2587</v>
       </c>
       <c r="C93" t="n">
-        <v>0.243838</v>
+        <v>0.246259</v>
       </c>
       <c r="D93" t="n">
-        <v>0.261003</v>
+        <v>0.260877</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.23662</v>
+        <v>0.232225</v>
       </c>
       <c r="C94" t="n">
-        <v>0.245276</v>
+        <v>0.243294</v>
       </c>
       <c r="D94" t="n">
-        <v>0.286932</v>
+        <v>0.282014</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.323678</v>
+        <v>0.319297</v>
       </c>
       <c r="C95" t="n">
-        <v>0.255836</v>
+        <v>0.262901</v>
       </c>
       <c r="D95" t="n">
-        <v>0.278876</v>
+        <v>0.292918</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.317151</v>
+        <v>0.320417</v>
       </c>
       <c r="C96" t="n">
-        <v>0.257045</v>
+        <v>0.260343</v>
       </c>
       <c r="D96" t="n">
-        <v>0.278963</v>
+        <v>0.282721</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.307597</v>
+        <v>0.314215</v>
       </c>
       <c r="C97" t="n">
-        <v>0.260859</v>
+        <v>0.259519</v>
       </c>
       <c r="D97" t="n">
-        <v>0.274567</v>
+        <v>0.276831</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.305123</v>
+        <v>0.306137</v>
       </c>
       <c r="C98" t="n">
-        <v>0.255696</v>
+        <v>0.25895</v>
       </c>
       <c r="D98" t="n">
-        <v>0.274026</v>
+        <v>0.274633</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.302668</v>
+        <v>0.29827</v>
       </c>
       <c r="C99" t="n">
-        <v>0.253332</v>
+        <v>0.259112</v>
       </c>
       <c r="D99" t="n">
-        <v>0.275383</v>
+        <v>0.274808</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.289815</v>
+        <v>0.295884</v>
       </c>
       <c r="C100" t="n">
-        <v>0.249077</v>
+        <v>0.253739</v>
       </c>
       <c r="D100" t="n">
-        <v>0.274135</v>
+        <v>0.28412</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.284293</v>
+        <v>0.286038</v>
       </c>
       <c r="C101" t="n">
-        <v>0.249586</v>
+        <v>0.254565</v>
       </c>
       <c r="D101" t="n">
-        <v>0.270495</v>
+        <v>0.269816</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.27455</v>
+        <v>0.28376</v>
       </c>
       <c r="C102" t="n">
-        <v>0.247024</v>
+        <v>0.250438</v>
       </c>
       <c r="D102" t="n">
-        <v>0.270725</v>
+        <v>0.28816</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.275486</v>
+        <v>0.272289</v>
       </c>
       <c r="C103" t="n">
-        <v>0.249833</v>
+        <v>0.25126</v>
       </c>
       <c r="D103" t="n">
-        <v>0.266314</v>
+        <v>0.26832</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.270305</v>
+        <v>0.270687</v>
       </c>
       <c r="C104" t="n">
-        <v>0.246929</v>
+        <v>0.248084</v>
       </c>
       <c r="D104" t="n">
-        <v>0.263326</v>
+        <v>0.267872</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.255111</v>
+        <v>0.258575</v>
       </c>
       <c r="C105" t="n">
-        <v>0.244338</v>
+        <v>0.246506</v>
       </c>
       <c r="D105" t="n">
-        <v>0.261667</v>
+        <v>0.264983</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.24833</v>
+        <v>0.250286</v>
       </c>
       <c r="C106" t="n">
-        <v>0.244116</v>
+        <v>0.24479</v>
       </c>
       <c r="D106" t="n">
-        <v>0.259517</v>
+        <v>0.263107</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.245327</v>
+        <v>0.244014</v>
       </c>
       <c r="C107" t="n">
-        <v>0.246607</v>
+        <v>0.244371</v>
       </c>
       <c r="D107" t="n">
-        <v>0.262059</v>
+        <v>0.269196</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233458</v>
+        <v>0.23486</v>
       </c>
       <c r="C108" t="n">
-        <v>0.244144</v>
+        <v>0.246887</v>
       </c>
       <c r="D108" t="n">
-        <v>0.28377</v>
+        <v>0.284455</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.225733</v>
+        <v>0.22374</v>
       </c>
       <c r="C109" t="n">
-        <v>0.243883</v>
+        <v>0.245164</v>
       </c>
       <c r="D109" t="n">
-        <v>0.277788</v>
+        <v>0.281509</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.318695</v>
+        <v>0.314182</v>
       </c>
       <c r="C110" t="n">
-        <v>0.259644</v>
+        <v>0.258326</v>
       </c>
       <c r="D110" t="n">
-        <v>0.278678</v>
+        <v>0.278897</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.309227</v>
+        <v>0.316915</v>
       </c>
       <c r="C111" t="n">
-        <v>0.253945</v>
+        <v>0.25971</v>
       </c>
       <c r="D111" t="n">
-        <v>0.274591</v>
+        <v>0.281107</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.303495</v>
+        <v>0.306682</v>
       </c>
       <c r="C112" t="n">
-        <v>0.254856</v>
+        <v>0.256211</v>
       </c>
       <c r="D112" t="n">
-        <v>0.274225</v>
+        <v>0.279449</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.299002</v>
+        <v>0.30042</v>
       </c>
       <c r="C113" t="n">
-        <v>0.25174</v>
+        <v>0.254278</v>
       </c>
       <c r="D113" t="n">
-        <v>0.275363</v>
+        <v>0.27581</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.294468</v>
+        <v>0.292191</v>
       </c>
       <c r="C114" t="n">
-        <v>0.250524</v>
+        <v>0.252433</v>
       </c>
       <c r="D114" t="n">
-        <v>0.269541</v>
+        <v>0.279598</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.29062</v>
+        <v>0.289287</v>
       </c>
       <c r="C115" t="n">
-        <v>0.252703</v>
+        <v>0.251291</v>
       </c>
       <c r="D115" t="n">
-        <v>0.270736</v>
+        <v>0.269285</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.279667</v>
+        <v>0.280009</v>
       </c>
       <c r="C116" t="n">
-        <v>0.251966</v>
+        <v>0.248124</v>
       </c>
       <c r="D116" t="n">
-        <v>0.270509</v>
+        <v>0.269977</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.272049</v>
+        <v>0.273296</v>
       </c>
       <c r="C117" t="n">
-        <v>0.244516</v>
+        <v>0.250835</v>
       </c>
       <c r="D117" t="n">
-        <v>0.265419</v>
+        <v>0.269613</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.26608</v>
+        <v>0.267751</v>
       </c>
       <c r="C118" t="n">
-        <v>0.245564</v>
+        <v>0.246781</v>
       </c>
       <c r="D118" t="n">
-        <v>0.269431</v>
+        <v>0.264726</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.261352</v>
+        <v>0.260248</v>
       </c>
       <c r="C119" t="n">
-        <v>0.243766</v>
+        <v>0.247939</v>
       </c>
       <c r="D119" t="n">
-        <v>0.263375</v>
+        <v>0.265414</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.255354</v>
+        <v>0.25583</v>
       </c>
       <c r="C120" t="n">
-        <v>0.243724</v>
+        <v>0.245611</v>
       </c>
       <c r="D120" t="n">
-        <v>0.266538</v>
+        <v>0.263363</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244464</v>
+        <v>0.245518</v>
       </c>
       <c r="C121" t="n">
-        <v>0.244561</v>
+        <v>0.247188</v>
       </c>
       <c r="D121" t="n">
-        <v>0.261059</v>
+        <v>0.268145</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.239501</v>
+        <v>0.237336</v>
       </c>
       <c r="C122" t="n">
-        <v>0.24201</v>
+        <v>0.244739</v>
       </c>
       <c r="D122" t="n">
-        <v>0.26167</v>
+        <v>0.263376</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.229331</v>
+        <v>0.226341</v>
       </c>
       <c r="C123" t="n">
-        <v>0.24801</v>
+        <v>0.244283</v>
       </c>
       <c r="D123" t="n">
-        <v>0.279077</v>
+        <v>0.283851</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.318679</v>
+        <v>0.317483</v>
       </c>
       <c r="C124" t="n">
-        <v>0.266363</v>
+        <v>0.260024</v>
       </c>
       <c r="D124" t="n">
-        <v>0.282707</v>
+        <v>0.282391</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.310944</v>
+        <v>0.321176</v>
       </c>
       <c r="C125" t="n">
-        <v>0.256812</v>
+        <v>0.257151</v>
       </c>
       <c r="D125" t="n">
-        <v>0.281625</v>
+        <v>0.278793</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.308105</v>
+        <v>0.308012</v>
       </c>
       <c r="C126" t="n">
-        <v>0.254898</v>
+        <v>0.25754</v>
       </c>
       <c r="D126" t="n">
-        <v>0.2774</v>
+        <v>0.277406</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.305334</v>
+        <v>0.299192</v>
       </c>
       <c r="C127" t="n">
-        <v>0.251221</v>
+        <v>0.253021</v>
       </c>
       <c r="D127" t="n">
-        <v>0.275853</v>
+        <v>0.276782</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.303575</v>
+        <v>0.295684</v>
       </c>
       <c r="C128" t="n">
-        <v>0.253954</v>
+        <v>0.251095</v>
       </c>
       <c r="D128" t="n">
-        <v>0.270782</v>
+        <v>0.275304</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.287329</v>
+        <v>0.288605</v>
       </c>
       <c r="C129" t="n">
-        <v>0.251662</v>
+        <v>0.253419</v>
       </c>
       <c r="D129" t="n">
-        <v>0.266707</v>
+        <v>0.269938</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.291648</v>
+        <v>0.282291</v>
       </c>
       <c r="C130" t="n">
-        <v>0.247356</v>
+        <v>0.251215</v>
       </c>
       <c r="D130" t="n">
-        <v>0.269793</v>
+        <v>0.272849</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.273386</v>
+        <v>0.274966</v>
       </c>
       <c r="C131" t="n">
-        <v>0.249793</v>
+        <v>0.250681</v>
       </c>
       <c r="D131" t="n">
-        <v>0.264648</v>
+        <v>0.269952</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.268541</v>
+        <v>0.267987</v>
       </c>
       <c r="C132" t="n">
-        <v>0.244759</v>
+        <v>0.245877</v>
       </c>
       <c r="D132" t="n">
-        <v>0.266476</v>
+        <v>0.270026</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.26777</v>
+        <v>0.259691</v>
       </c>
       <c r="C133" t="n">
-        <v>0.257677</v>
+        <v>0.248656</v>
       </c>
       <c r="D133" t="n">
-        <v>0.270749</v>
+        <v>0.264145</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.253465</v>
+        <v>0.253501</v>
       </c>
       <c r="C134" t="n">
-        <v>0.241474</v>
+        <v>0.244913</v>
       </c>
       <c r="D134" t="n">
-        <v>0.263535</v>
+        <v>0.261564</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.247372</v>
+        <v>0.249362</v>
       </c>
       <c r="C135" t="n">
-        <v>0.243904</v>
+        <v>0.246395</v>
       </c>
       <c r="D135" t="n">
-        <v>0.263984</v>
+        <v>0.26353</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.239077</v>
+        <v>0.23838</v>
       </c>
       <c r="C136" t="n">
-        <v>0.242869</v>
+        <v>0.245262</v>
       </c>
       <c r="D136" t="n">
-        <v>0.260741</v>
+        <v>0.260808</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.231065</v>
+        <v>0.227822</v>
       </c>
       <c r="C137" t="n">
-        <v>0.24264</v>
+        <v>0.245543</v>
       </c>
       <c r="D137" t="n">
-        <v>0.288117</v>
+        <v>0.282603</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.320991</v>
+        <v>0.316744</v>
       </c>
       <c r="C138" t="n">
-        <v>0.257524</v>
+        <v>0.258947</v>
       </c>
       <c r="D138" t="n">
-        <v>0.281312</v>
+        <v>0.293135</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.308187</v>
+        <v>0.317061</v>
       </c>
       <c r="C139" t="n">
-        <v>0.2608</v>
+        <v>0.257511</v>
       </c>
       <c r="D139" t="n">
-        <v>0.282301</v>
+        <v>0.278266</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.310513</v>
+        <v>0.309245</v>
       </c>
       <c r="C140" t="n">
-        <v>0.260003</v>
+        <v>0.255962</v>
       </c>
       <c r="D140" t="n">
-        <v>0.276302</v>
+        <v>0.275342</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.297652</v>
+        <v>0.302243</v>
       </c>
       <c r="C141" t="n">
-        <v>0.25015</v>
+        <v>0.252683</v>
       </c>
       <c r="D141" t="n">
-        <v>0.278422</v>
+        <v>0.273288</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.296595</v>
+        <v>0.294498</v>
       </c>
       <c r="C142" t="n">
-        <v>0.256576</v>
+        <v>0.251788</v>
       </c>
       <c r="D142" t="n">
-        <v>0.277873</v>
+        <v>0.278382</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.287308</v>
+        <v>0.300304</v>
       </c>
       <c r="C143" t="n">
-        <v>0.251833</v>
+        <v>0.250331</v>
       </c>
       <c r="D143" t="n">
-        <v>0.277274</v>
+        <v>0.274692</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.280163</v>
+        <v>0.278443</v>
       </c>
       <c r="C2" t="n">
-        <v>0.238689</v>
+        <v>0.239574</v>
       </c>
       <c r="D2" t="n">
-        <v>0.252638</v>
+        <v>0.255534</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.266725</v>
+        <v>0.267521</v>
       </c>
       <c r="C3" t="n">
-        <v>0.239166</v>
+        <v>0.237413</v>
       </c>
       <c r="D3" t="n">
-        <v>0.250064</v>
+        <v>0.255011</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.268142</v>
+        <v>0.263323</v>
       </c>
       <c r="C4" t="n">
-        <v>0.236445</v>
+        <v>0.237653</v>
       </c>
       <c r="D4" t="n">
-        <v>0.250807</v>
+        <v>0.248003</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.260104</v>
+        <v>0.247596</v>
       </c>
       <c r="C5" t="n">
-        <v>0.234323</v>
+        <v>0.232259</v>
       </c>
       <c r="D5" t="n">
-        <v>0.250718</v>
+        <v>0.248924</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.239488</v>
+        <v>0.238549</v>
       </c>
       <c r="C6" t="n">
-        <v>0.234357</v>
+        <v>0.231876</v>
       </c>
       <c r="D6" t="n">
-        <v>0.246957</v>
+        <v>0.252983</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.232386</v>
+        <v>0.240114</v>
       </c>
       <c r="C7" t="n">
-        <v>0.236853</v>
+        <v>0.23155</v>
       </c>
       <c r="D7" t="n">
-        <v>0.248561</v>
+        <v>0.249633</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.223187</v>
+        <v>0.231183</v>
       </c>
       <c r="C8" t="n">
-        <v>0.235596</v>
+        <v>0.238485</v>
       </c>
       <c r="D8" t="n">
-        <v>0.249323</v>
+        <v>0.249007</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.21899</v>
+        <v>0.223016</v>
       </c>
       <c r="C9" t="n">
-        <v>0.236447</v>
+        <v>0.237709</v>
       </c>
       <c r="D9" t="n">
-        <v>0.258159</v>
+        <v>0.25888</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.303117</v>
+        <v>0.30994</v>
       </c>
       <c r="C10" t="n">
-        <v>0.24436</v>
+        <v>0.246167</v>
       </c>
       <c r="D10" t="n">
-        <v>0.260045</v>
+        <v>0.25686</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.307372</v>
+        <v>0.301246</v>
       </c>
       <c r="C11" t="n">
-        <v>0.243615</v>
+        <v>0.240895</v>
       </c>
       <c r="D11" t="n">
-        <v>0.260021</v>
+        <v>0.257531</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.304114</v>
+        <v>0.296637</v>
       </c>
       <c r="C12" t="n">
-        <v>0.240899</v>
+        <v>0.238497</v>
       </c>
       <c r="D12" t="n">
-        <v>0.26227</v>
+        <v>0.25727</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.288321</v>
+        <v>0.288465</v>
       </c>
       <c r="C13" t="n">
-        <v>0.238375</v>
+        <v>0.238512</v>
       </c>
       <c r="D13" t="n">
-        <v>0.252418</v>
+        <v>0.258446</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.281365</v>
+        <v>0.281282</v>
       </c>
       <c r="C14" t="n">
-        <v>0.240875</v>
+        <v>0.235848</v>
       </c>
       <c r="D14" t="n">
-        <v>0.254335</v>
+        <v>0.250996</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.277436</v>
+        <v>0.275514</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236785</v>
+        <v>0.23811</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25425</v>
+        <v>0.253047</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.274636</v>
+        <v>0.273426</v>
       </c>
       <c r="C16" t="n">
-        <v>0.238661</v>
+        <v>0.235479</v>
       </c>
       <c r="D16" t="n">
-        <v>0.256277</v>
+        <v>0.257812</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.268527</v>
+        <v>0.269088</v>
       </c>
       <c r="C17" t="n">
-        <v>0.23763</v>
+        <v>0.235241</v>
       </c>
       <c r="D17" t="n">
-        <v>0.25104</v>
+        <v>0.258291</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.258842</v>
+        <v>0.258623</v>
       </c>
       <c r="C18" t="n">
-        <v>0.236305</v>
+        <v>0.234036</v>
       </c>
       <c r="D18" t="n">
-        <v>0.251421</v>
+        <v>0.254969</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.255</v>
+        <v>0.259711</v>
       </c>
       <c r="C19" t="n">
-        <v>0.235917</v>
+        <v>0.236322</v>
       </c>
       <c r="D19" t="n">
-        <v>0.250065</v>
+        <v>0.250456</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.246699</v>
+        <v>0.246369</v>
       </c>
       <c r="C20" t="n">
-        <v>0.238225</v>
+        <v>0.235917</v>
       </c>
       <c r="D20" t="n">
-        <v>0.255308</v>
+        <v>0.248784</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.239326</v>
+        <v>0.238683</v>
       </c>
       <c r="C21" t="n">
-        <v>0.235174</v>
+        <v>0.237507</v>
       </c>
       <c r="D21" t="n">
-        <v>0.250043</v>
+        <v>0.249235</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.229865</v>
+        <v>0.233097</v>
       </c>
       <c r="C22" t="n">
-        <v>0.239839</v>
+        <v>0.232053</v>
       </c>
       <c r="D22" t="n">
-        <v>0.249152</v>
+        <v>0.250765</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224421</v>
+        <v>0.221591</v>
       </c>
       <c r="C23" t="n">
-        <v>0.238184</v>
+        <v>0.234078</v>
       </c>
       <c r="D23" t="n">
-        <v>0.265617</v>
+        <v>0.265609</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.305318</v>
+        <v>0.305618</v>
       </c>
       <c r="C24" t="n">
-        <v>0.244262</v>
+        <v>0.241715</v>
       </c>
       <c r="D24" t="n">
-        <v>0.262781</v>
+        <v>0.263604</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.301524</v>
+        <v>0.297499</v>
       </c>
       <c r="C25" t="n">
-        <v>0.246118</v>
+        <v>0.242559</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25966</v>
+        <v>0.256041</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.295997</v>
+        <v>0.292858</v>
       </c>
       <c r="C26" t="n">
-        <v>0.242767</v>
+        <v>0.2408</v>
       </c>
       <c r="D26" t="n">
-        <v>0.271737</v>
+        <v>0.26048</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.290189</v>
+        <v>0.286856</v>
       </c>
       <c r="C27" t="n">
-        <v>0.240966</v>
+        <v>0.236499</v>
       </c>
       <c r="D27" t="n">
-        <v>0.261606</v>
+        <v>0.259654</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.29052</v>
+        <v>0.283395</v>
       </c>
       <c r="C28" t="n">
-        <v>0.244194</v>
+        <v>0.2369</v>
       </c>
       <c r="D28" t="n">
-        <v>0.262314</v>
+        <v>0.258961</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.281484</v>
+        <v>0.2788</v>
       </c>
       <c r="C29" t="n">
-        <v>0.240851</v>
+        <v>0.24011</v>
       </c>
       <c r="D29" t="n">
-        <v>0.257526</v>
+        <v>0.259277</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.274213</v>
+        <v>0.271576</v>
       </c>
       <c r="C30" t="n">
-        <v>0.239007</v>
+        <v>0.238279</v>
       </c>
       <c r="D30" t="n">
-        <v>0.25518</v>
+        <v>0.256668</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.267903</v>
+        <v>0.267721</v>
       </c>
       <c r="C31" t="n">
-        <v>0.238714</v>
+        <v>0.237257</v>
       </c>
       <c r="D31" t="n">
-        <v>0.259364</v>
+        <v>0.254207</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.261423</v>
+        <v>0.259595</v>
       </c>
       <c r="C32" t="n">
-        <v>0.240134</v>
+        <v>0.23644</v>
       </c>
       <c r="D32" t="n">
-        <v>0.256733</v>
+        <v>0.252636</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.255023</v>
+        <v>0.256071</v>
       </c>
       <c r="C33" t="n">
-        <v>0.238912</v>
+        <v>0.234674</v>
       </c>
       <c r="D33" t="n">
-        <v>0.254844</v>
+        <v>0.251712</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.248581</v>
+        <v>0.247092</v>
       </c>
       <c r="C34" t="n">
-        <v>0.238392</v>
+        <v>0.23903</v>
       </c>
       <c r="D34" t="n">
-        <v>0.253872</v>
+        <v>0.253075</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.242792</v>
+        <v>0.241297</v>
       </c>
       <c r="C35" t="n">
-        <v>0.238312</v>
+        <v>0.235991</v>
       </c>
       <c r="D35" t="n">
-        <v>0.253191</v>
+        <v>0.253128</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.232859</v>
+        <v>0.2364</v>
       </c>
       <c r="C36" t="n">
-        <v>0.238738</v>
+        <v>0.239303</v>
       </c>
       <c r="D36" t="n">
-        <v>0.25302</v>
+        <v>0.25462</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.226403</v>
+        <v>0.222322</v>
       </c>
       <c r="C37" t="n">
-        <v>0.24313</v>
+        <v>0.234344</v>
       </c>
       <c r="D37" t="n">
-        <v>0.279063</v>
+        <v>0.269459</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.316399</v>
+        <v>0.306944</v>
       </c>
       <c r="C38" t="n">
-        <v>0.246493</v>
+        <v>0.245142</v>
       </c>
       <c r="D38" t="n">
-        <v>0.27355</v>
+        <v>0.264149</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.307646</v>
+        <v>0.299229</v>
       </c>
       <c r="C39" t="n">
-        <v>0.248108</v>
+        <v>0.24352</v>
       </c>
       <c r="D39" t="n">
-        <v>0.275703</v>
+        <v>0.265577</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.297368</v>
+        <v>0.297854</v>
       </c>
       <c r="C40" t="n">
-        <v>0.246406</v>
+        <v>0.247914</v>
       </c>
       <c r="D40" t="n">
-        <v>0.266479</v>
+        <v>0.260872</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.294128</v>
+        <v>0.291053</v>
       </c>
       <c r="C41" t="n">
-        <v>0.245685</v>
+        <v>0.244181</v>
       </c>
       <c r="D41" t="n">
-        <v>0.264953</v>
+        <v>0.260181</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.289673</v>
+        <v>0.281182</v>
       </c>
       <c r="C42" t="n">
-        <v>0.245985</v>
+        <v>0.238429</v>
       </c>
       <c r="D42" t="n">
-        <v>0.262723</v>
+        <v>0.256988</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.282818</v>
+        <v>0.281087</v>
       </c>
       <c r="C43" t="n">
-        <v>0.24266</v>
+        <v>0.239508</v>
       </c>
       <c r="D43" t="n">
-        <v>0.263882</v>
+        <v>0.257899</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.276</v>
+        <v>0.278306</v>
       </c>
       <c r="C44" t="n">
-        <v>0.243636</v>
+        <v>0.239316</v>
       </c>
       <c r="D44" t="n">
-        <v>0.261131</v>
+        <v>0.260942</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.269981</v>
+        <v>0.266579</v>
       </c>
       <c r="C45" t="n">
-        <v>0.247203</v>
+        <v>0.237049</v>
       </c>
       <c r="D45" t="n">
-        <v>0.269854</v>
+        <v>0.256275</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.265043</v>
+        <v>0.262562</v>
       </c>
       <c r="C46" t="n">
-        <v>0.23957</v>
+        <v>0.234055</v>
       </c>
       <c r="D46" t="n">
-        <v>0.259208</v>
+        <v>0.262024</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.259561</v>
+        <v>0.256457</v>
       </c>
       <c r="C47" t="n">
-        <v>0.239014</v>
+        <v>0.237718</v>
       </c>
       <c r="D47" t="n">
-        <v>0.258218</v>
+        <v>0.254343</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.250948</v>
+        <v>0.250843</v>
       </c>
       <c r="C48" t="n">
-        <v>0.238082</v>
+        <v>0.24049</v>
       </c>
       <c r="D48" t="n">
-        <v>0.25695</v>
+        <v>0.257156</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.246644</v>
+        <v>0.242225</v>
       </c>
       <c r="C49" t="n">
-        <v>0.240145</v>
+        <v>0.23544</v>
       </c>
       <c r="D49" t="n">
-        <v>0.256912</v>
+        <v>0.251765</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.238662</v>
+        <v>0.234166</v>
       </c>
       <c r="C50" t="n">
-        <v>0.242482</v>
+        <v>0.23633</v>
       </c>
       <c r="D50" t="n">
-        <v>0.255944</v>
+        <v>0.253325</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.230815</v>
+        <v>0.230884</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242063</v>
+        <v>0.235669</v>
       </c>
       <c r="D51" t="n">
-        <v>0.274223</v>
+        <v>0.270212</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.219792</v>
+        <v>0.215099</v>
       </c>
       <c r="C52" t="n">
-        <v>0.238547</v>
+        <v>0.2379</v>
       </c>
       <c r="D52" t="n">
-        <v>0.275132</v>
+        <v>0.267331</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.310873</v>
+        <v>0.302538</v>
       </c>
       <c r="C53" t="n">
-        <v>0.251007</v>
+        <v>0.250664</v>
       </c>
       <c r="D53" t="n">
-        <v>0.27125</v>
+        <v>0.272954</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.305789</v>
+        <v>0.297778</v>
       </c>
       <c r="C54" t="n">
-        <v>0.251218</v>
+        <v>0.246401</v>
       </c>
       <c r="D54" t="n">
-        <v>0.272338</v>
+        <v>0.264195</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.298523</v>
+        <v>0.297536</v>
       </c>
       <c r="C55" t="n">
-        <v>0.248286</v>
+        <v>0.248266</v>
       </c>
       <c r="D55" t="n">
-        <v>0.274829</v>
+        <v>0.264705</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.298899</v>
+        <v>0.287448</v>
       </c>
       <c r="C56" t="n">
-        <v>0.248121</v>
+        <v>0.243567</v>
       </c>
       <c r="D56" t="n">
-        <v>0.267199</v>
+        <v>0.261438</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.292826</v>
+        <v>0.283559</v>
       </c>
       <c r="C57" t="n">
-        <v>0.24583</v>
+        <v>0.24411</v>
       </c>
       <c r="D57" t="n">
-        <v>0.266902</v>
+        <v>0.262958</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.284579</v>
+        <v>0.280832</v>
       </c>
       <c r="C58" t="n">
-        <v>0.243796</v>
+        <v>0.244102</v>
       </c>
       <c r="D58" t="n">
-        <v>0.269331</v>
+        <v>0.260973</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.275737</v>
+        <v>0.270309</v>
       </c>
       <c r="C59" t="n">
-        <v>0.247573</v>
+        <v>0.238702</v>
       </c>
       <c r="D59" t="n">
-        <v>0.263918</v>
+        <v>0.259001</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.276783</v>
+        <v>0.26372</v>
       </c>
       <c r="C60" t="n">
-        <v>0.243621</v>
+        <v>0.241618</v>
       </c>
       <c r="D60" t="n">
-        <v>0.261555</v>
+        <v>0.262953</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.263288</v>
+        <v>0.259378</v>
       </c>
       <c r="C61" t="n">
-        <v>0.239627</v>
+        <v>0.241484</v>
       </c>
       <c r="D61" t="n">
-        <v>0.260274</v>
+        <v>0.258799</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.254384</v>
+        <v>0.25312</v>
       </c>
       <c r="C62" t="n">
-        <v>0.242312</v>
+        <v>0.237551</v>
       </c>
       <c r="D62" t="n">
-        <v>0.258459</v>
+        <v>0.254953</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.253178</v>
+        <v>0.244283</v>
       </c>
       <c r="C63" t="n">
-        <v>0.242944</v>
+        <v>0.24166</v>
       </c>
       <c r="D63" t="n">
-        <v>0.257666</v>
+        <v>0.256246</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.241731</v>
+        <v>0.24326</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239645</v>
+        <v>0.239144</v>
       </c>
       <c r="D64" t="n">
-        <v>0.256316</v>
+        <v>0.255334</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.231209</v>
+        <v>0.228111</v>
       </c>
       <c r="C65" t="n">
-        <v>0.239817</v>
+        <v>0.235679</v>
       </c>
       <c r="D65" t="n">
-        <v>0.25487</v>
+        <v>0.253306</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.22185</v>
+        <v>0.220692</v>
       </c>
       <c r="C66" t="n">
-        <v>0.239547</v>
+        <v>0.239029</v>
       </c>
       <c r="D66" t="n">
-        <v>0.274841</v>
+        <v>0.273126</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.313186</v>
+        <v>0.312218</v>
       </c>
       <c r="C67" t="n">
-        <v>0.255324</v>
+        <v>0.25104</v>
       </c>
       <c r="D67" t="n">
-        <v>0.27765</v>
+        <v>0.272816</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.308229</v>
+        <v>0.304094</v>
       </c>
       <c r="C68" t="n">
-        <v>0.253285</v>
+        <v>0.24876</v>
       </c>
       <c r="D68" t="n">
-        <v>0.275056</v>
+        <v>0.26832</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.306844</v>
+        <v>0.303135</v>
       </c>
       <c r="C69" t="n">
-        <v>0.252157</v>
+        <v>0.250245</v>
       </c>
       <c r="D69" t="n">
-        <v>0.271568</v>
+        <v>0.26834</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.296923</v>
+        <v>0.290475</v>
       </c>
       <c r="C70" t="n">
-        <v>0.250312</v>
+        <v>0.252451</v>
       </c>
       <c r="D70" t="n">
-        <v>0.270532</v>
+        <v>0.267624</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.290002</v>
+        <v>0.288696</v>
       </c>
       <c r="C71" t="n">
-        <v>0.249099</v>
+        <v>0.248011</v>
       </c>
       <c r="D71" t="n">
-        <v>0.271118</v>
+        <v>0.266294</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.287041</v>
+        <v>0.279698</v>
       </c>
       <c r="C72" t="n">
-        <v>0.247705</v>
+        <v>0.246136</v>
       </c>
       <c r="D72" t="n">
-        <v>0.270594</v>
+        <v>0.264988</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.278646</v>
+        <v>0.276827</v>
       </c>
       <c r="C73" t="n">
-        <v>0.246641</v>
+        <v>0.245089</v>
       </c>
       <c r="D73" t="n">
-        <v>0.265418</v>
+        <v>0.261283</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.270503</v>
+        <v>0.2723</v>
       </c>
       <c r="C74" t="n">
-        <v>0.24536</v>
+        <v>0.245227</v>
       </c>
       <c r="D74" t="n">
-        <v>0.268051</v>
+        <v>0.265119</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.271314</v>
+        <v>0.26534</v>
       </c>
       <c r="C75" t="n">
-        <v>0.24463</v>
+        <v>0.242836</v>
       </c>
       <c r="D75" t="n">
-        <v>0.263624</v>
+        <v>0.266792</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.261213</v>
+        <v>0.25833</v>
       </c>
       <c r="C76" t="n">
-        <v>0.247937</v>
+        <v>0.243004</v>
       </c>
       <c r="D76" t="n">
-        <v>0.265664</v>
+        <v>0.261825</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.251204</v>
+        <v>0.248546</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243675</v>
+        <v>0.238508</v>
       </c>
       <c r="D77" t="n">
-        <v>0.261978</v>
+        <v>0.258593</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.244324</v>
+        <v>0.241554</v>
       </c>
       <c r="C78" t="n">
-        <v>0.245821</v>
+        <v>0.242461</v>
       </c>
       <c r="D78" t="n">
-        <v>0.259702</v>
+        <v>0.25501</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.235954</v>
+        <v>0.238843</v>
       </c>
       <c r="C79" t="n">
-        <v>0.243261</v>
+        <v>0.240768</v>
       </c>
       <c r="D79" t="n">
-        <v>0.26389</v>
+        <v>0.256099</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.22844</v>
+        <v>0.224987</v>
       </c>
       <c r="C80" t="n">
-        <v>0.24386</v>
+        <v>0.239384</v>
       </c>
       <c r="D80" t="n">
-        <v>0.283796</v>
+        <v>0.276475</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.320608</v>
+        <v>0.316956</v>
       </c>
       <c r="C81" t="n">
-        <v>0.26319</v>
+        <v>0.258479</v>
       </c>
       <c r="D81" t="n">
-        <v>0.284631</v>
+        <v>0.274398</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.342304</v>
+        <v>0.310051</v>
       </c>
       <c r="C82" t="n">
-        <v>0.267835</v>
+        <v>0.252961</v>
       </c>
       <c r="D82" t="n">
-        <v>0.278067</v>
+        <v>0.274909</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.30906</v>
+        <v>0.305628</v>
       </c>
       <c r="C83" t="n">
-        <v>0.256006</v>
+        <v>0.25054</v>
       </c>
       <c r="D83" t="n">
-        <v>0.278433</v>
+        <v>0.276022</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.30263</v>
+        <v>0.298057</v>
       </c>
       <c r="C84" t="n">
-        <v>0.25573</v>
+        <v>0.249378</v>
       </c>
       <c r="D84" t="n">
-        <v>0.276065</v>
+        <v>0.271627</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.297239</v>
+        <v>0.293223</v>
       </c>
       <c r="C85" t="n">
-        <v>0.254295</v>
+        <v>0.248626</v>
       </c>
       <c r="D85" t="n">
-        <v>0.273622</v>
+        <v>0.272547</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.290589</v>
+        <v>0.288638</v>
       </c>
       <c r="C86" t="n">
-        <v>0.251809</v>
+        <v>0.247026</v>
       </c>
       <c r="D86" t="n">
-        <v>0.272046</v>
+        <v>0.266267</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.294108</v>
+        <v>0.283497</v>
       </c>
       <c r="C87" t="n">
-        <v>0.260905</v>
+        <v>0.247859</v>
       </c>
       <c r="D87" t="n">
-        <v>0.27295</v>
+        <v>0.266354</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.279531</v>
+        <v>0.277245</v>
       </c>
       <c r="C88" t="n">
-        <v>0.24918</v>
+        <v>0.247698</v>
       </c>
       <c r="D88" t="n">
-        <v>0.273956</v>
+        <v>0.262965</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.274709</v>
+        <v>0.270156</v>
       </c>
       <c r="C89" t="n">
-        <v>0.248626</v>
+        <v>0.255433</v>
       </c>
       <c r="D89" t="n">
-        <v>0.267983</v>
+        <v>0.265909</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.267211</v>
+        <v>0.263702</v>
       </c>
       <c r="C90" t="n">
-        <v>0.250806</v>
+        <v>0.245559</v>
       </c>
       <c r="D90" t="n">
-        <v>0.265656</v>
+        <v>0.263552</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.255967</v>
+        <v>0.254991</v>
       </c>
       <c r="C91" t="n">
-        <v>0.247869</v>
+        <v>0.245638</v>
       </c>
       <c r="D91" t="n">
-        <v>0.26492</v>
+        <v>0.263462</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.249134</v>
+        <v>0.245281</v>
       </c>
       <c r="C92" t="n">
-        <v>0.246797</v>
+        <v>0.240727</v>
       </c>
       <c r="D92" t="n">
-        <v>0.262593</v>
+        <v>0.26019</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.2587</v>
+        <v>0.240664</v>
       </c>
       <c r="C93" t="n">
-        <v>0.246259</v>
+        <v>0.240901</v>
       </c>
       <c r="D93" t="n">
-        <v>0.260877</v>
+        <v>0.25733</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.232225</v>
+        <v>0.227423</v>
       </c>
       <c r="C94" t="n">
-        <v>0.243294</v>
+        <v>0.241128</v>
       </c>
       <c r="D94" t="n">
-        <v>0.282014</v>
+        <v>0.279752</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.319297</v>
+        <v>0.321401</v>
       </c>
       <c r="C95" t="n">
-        <v>0.262901</v>
+        <v>0.259189</v>
       </c>
       <c r="D95" t="n">
-        <v>0.292918</v>
+        <v>0.283812</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.320417</v>
+        <v>0.316184</v>
       </c>
       <c r="C96" t="n">
-        <v>0.260343</v>
+        <v>0.262198</v>
       </c>
       <c r="D96" t="n">
-        <v>0.282721</v>
+        <v>0.276773</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.314215</v>
+        <v>0.308619</v>
       </c>
       <c r="C97" t="n">
-        <v>0.259519</v>
+        <v>0.257697</v>
       </c>
       <c r="D97" t="n">
-        <v>0.276831</v>
+        <v>0.275247</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.306137</v>
+        <v>0.308532</v>
       </c>
       <c r="C98" t="n">
-        <v>0.25895</v>
+        <v>0.255208</v>
       </c>
       <c r="D98" t="n">
-        <v>0.274633</v>
+        <v>0.274678</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.29827</v>
+        <v>0.302733</v>
       </c>
       <c r="C99" t="n">
-        <v>0.259112</v>
+        <v>0.253449</v>
       </c>
       <c r="D99" t="n">
-        <v>0.274808</v>
+        <v>0.274159</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.295884</v>
+        <v>0.291548</v>
       </c>
       <c r="C100" t="n">
-        <v>0.253739</v>
+        <v>0.251363</v>
       </c>
       <c r="D100" t="n">
-        <v>0.28412</v>
+        <v>0.272242</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.286038</v>
+        <v>0.283391</v>
       </c>
       <c r="C101" t="n">
-        <v>0.254565</v>
+        <v>0.247291</v>
       </c>
       <c r="D101" t="n">
-        <v>0.269816</v>
+        <v>0.270422</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.28376</v>
+        <v>0.277859</v>
       </c>
       <c r="C102" t="n">
-        <v>0.250438</v>
+        <v>0.247128</v>
       </c>
       <c r="D102" t="n">
-        <v>0.28816</v>
+        <v>0.266258</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.272289</v>
+        <v>0.271151</v>
       </c>
       <c r="C103" t="n">
-        <v>0.25126</v>
+        <v>0.24778</v>
       </c>
       <c r="D103" t="n">
-        <v>0.26832</v>
+        <v>0.264554</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.270687</v>
+        <v>0.26456</v>
       </c>
       <c r="C104" t="n">
-        <v>0.248084</v>
+        <v>0.244218</v>
       </c>
       <c r="D104" t="n">
-        <v>0.267872</v>
+        <v>0.268375</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.258575</v>
+        <v>0.252981</v>
       </c>
       <c r="C105" t="n">
-        <v>0.246506</v>
+        <v>0.243777</v>
       </c>
       <c r="D105" t="n">
-        <v>0.264983</v>
+        <v>0.263349</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.250286</v>
+        <v>0.248405</v>
       </c>
       <c r="C106" t="n">
-        <v>0.24479</v>
+        <v>0.244766</v>
       </c>
       <c r="D106" t="n">
-        <v>0.263107</v>
+        <v>0.264291</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.244014</v>
+        <v>0.242907</v>
       </c>
       <c r="C107" t="n">
-        <v>0.244371</v>
+        <v>0.241572</v>
       </c>
       <c r="D107" t="n">
-        <v>0.269196</v>
+        <v>0.26161</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.23486</v>
+        <v>0.231868</v>
       </c>
       <c r="C108" t="n">
-        <v>0.246887</v>
+        <v>0.242566</v>
       </c>
       <c r="D108" t="n">
-        <v>0.284455</v>
+        <v>0.278773</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.22374</v>
+        <v>0.224712</v>
       </c>
       <c r="C109" t="n">
-        <v>0.245164</v>
+        <v>0.248938</v>
       </c>
       <c r="D109" t="n">
-        <v>0.281509</v>
+        <v>0.290624</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.314182</v>
+        <v>0.319356</v>
       </c>
       <c r="C110" t="n">
-        <v>0.258326</v>
+        <v>0.255758</v>
       </c>
       <c r="D110" t="n">
-        <v>0.278897</v>
+        <v>0.278719</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.316915</v>
+        <v>0.315447</v>
       </c>
       <c r="C111" t="n">
-        <v>0.25971</v>
+        <v>0.258561</v>
       </c>
       <c r="D111" t="n">
-        <v>0.281107</v>
+        <v>0.27679</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.306682</v>
+        <v>0.307915</v>
       </c>
       <c r="C112" t="n">
-        <v>0.256211</v>
+        <v>0.252641</v>
       </c>
       <c r="D112" t="n">
-        <v>0.279449</v>
+        <v>0.272986</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.30042</v>
+        <v>0.303594</v>
       </c>
       <c r="C113" t="n">
-        <v>0.254278</v>
+        <v>0.251163</v>
       </c>
       <c r="D113" t="n">
-        <v>0.27581</v>
+        <v>0.271379</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.292191</v>
+        <v>0.296148</v>
       </c>
       <c r="C114" t="n">
-        <v>0.252433</v>
+        <v>0.251441</v>
       </c>
       <c r="D114" t="n">
-        <v>0.279598</v>
+        <v>0.268014</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.289287</v>
+        <v>0.284675</v>
       </c>
       <c r="C115" t="n">
-        <v>0.251291</v>
+        <v>0.245877</v>
       </c>
       <c r="D115" t="n">
-        <v>0.269285</v>
+        <v>0.267376</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.280009</v>
+        <v>0.281894</v>
       </c>
       <c r="C116" t="n">
-        <v>0.248124</v>
+        <v>0.250091</v>
       </c>
       <c r="D116" t="n">
-        <v>0.269977</v>
+        <v>0.269386</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.273296</v>
+        <v>0.276207</v>
       </c>
       <c r="C117" t="n">
-        <v>0.250835</v>
+        <v>0.249629</v>
       </c>
       <c r="D117" t="n">
-        <v>0.269613</v>
+        <v>0.267328</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.267751</v>
+        <v>0.270423</v>
       </c>
       <c r="C118" t="n">
-        <v>0.246781</v>
+        <v>0.251591</v>
       </c>
       <c r="D118" t="n">
-        <v>0.264726</v>
+        <v>0.266478</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.260248</v>
+        <v>0.257762</v>
       </c>
       <c r="C119" t="n">
-        <v>0.247939</v>
+        <v>0.247507</v>
       </c>
       <c r="D119" t="n">
-        <v>0.265414</v>
+        <v>0.268464</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.25583</v>
+        <v>0.251759</v>
       </c>
       <c r="C120" t="n">
-        <v>0.245611</v>
+        <v>0.247336</v>
       </c>
       <c r="D120" t="n">
-        <v>0.263363</v>
+        <v>0.271992</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.245518</v>
+        <v>0.243377</v>
       </c>
       <c r="C121" t="n">
-        <v>0.247188</v>
+        <v>0.24989</v>
       </c>
       <c r="D121" t="n">
-        <v>0.268145</v>
+        <v>0.263172</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237336</v>
+        <v>0.239946</v>
       </c>
       <c r="C122" t="n">
-        <v>0.244739</v>
+        <v>0.243418</v>
       </c>
       <c r="D122" t="n">
-        <v>0.263376</v>
+        <v>0.265687</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.226341</v>
+        <v>0.223769</v>
       </c>
       <c r="C123" t="n">
-        <v>0.244283</v>
+        <v>0.244153</v>
       </c>
       <c r="D123" t="n">
-        <v>0.283851</v>
+        <v>0.278683</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.317483</v>
+        <v>0.315886</v>
       </c>
       <c r="C124" t="n">
-        <v>0.260024</v>
+        <v>0.256745</v>
       </c>
       <c r="D124" t="n">
-        <v>0.282391</v>
+        <v>0.278751</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.321176</v>
+        <v>0.310998</v>
       </c>
       <c r="C125" t="n">
-        <v>0.257151</v>
+        <v>0.257736</v>
       </c>
       <c r="D125" t="n">
-        <v>0.278793</v>
+        <v>0.279486</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.308012</v>
+        <v>0.314225</v>
       </c>
       <c r="C126" t="n">
-        <v>0.25754</v>
+        <v>0.254471</v>
       </c>
       <c r="D126" t="n">
-        <v>0.277406</v>
+        <v>0.275302</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.299192</v>
+        <v>0.302953</v>
       </c>
       <c r="C127" t="n">
-        <v>0.253021</v>
+        <v>0.253534</v>
       </c>
       <c r="D127" t="n">
-        <v>0.276782</v>
+        <v>0.27359</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.295684</v>
+        <v>0.297466</v>
       </c>
       <c r="C128" t="n">
-        <v>0.251095</v>
+        <v>0.252473</v>
       </c>
       <c r="D128" t="n">
-        <v>0.275304</v>
+        <v>0.273595</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.288605</v>
+        <v>0.293425</v>
       </c>
       <c r="C129" t="n">
-        <v>0.253419</v>
+        <v>0.255973</v>
       </c>
       <c r="D129" t="n">
-        <v>0.269938</v>
+        <v>0.269678</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.282291</v>
+        <v>0.283661</v>
       </c>
       <c r="C130" t="n">
-        <v>0.251215</v>
+        <v>0.249467</v>
       </c>
       <c r="D130" t="n">
-        <v>0.272849</v>
+        <v>0.274329</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.274966</v>
+        <v>0.275883</v>
       </c>
       <c r="C131" t="n">
-        <v>0.250681</v>
+        <v>0.247538</v>
       </c>
       <c r="D131" t="n">
-        <v>0.269952</v>
+        <v>0.267617</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.267987</v>
+        <v>0.272919</v>
       </c>
       <c r="C132" t="n">
-        <v>0.245877</v>
+        <v>0.243744</v>
       </c>
       <c r="D132" t="n">
-        <v>0.270026</v>
+        <v>0.264831</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.259691</v>
+        <v>0.261241</v>
       </c>
       <c r="C133" t="n">
-        <v>0.248656</v>
+        <v>0.245489</v>
       </c>
       <c r="D133" t="n">
-        <v>0.264145</v>
+        <v>0.261772</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.253501</v>
+        <v>0.253763</v>
       </c>
       <c r="C134" t="n">
-        <v>0.244913</v>
+        <v>0.240218</v>
       </c>
       <c r="D134" t="n">
-        <v>0.261564</v>
+        <v>0.261458</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.249362</v>
+        <v>0.244998</v>
       </c>
       <c r="C135" t="n">
-        <v>0.246395</v>
+        <v>0.242746</v>
       </c>
       <c r="D135" t="n">
-        <v>0.26353</v>
+        <v>0.272892</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.23838</v>
+        <v>0.240757</v>
       </c>
       <c r="C136" t="n">
-        <v>0.245262</v>
+        <v>0.24307</v>
       </c>
       <c r="D136" t="n">
-        <v>0.260808</v>
+        <v>0.260926</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.227822</v>
+        <v>0.229819</v>
       </c>
       <c r="C137" t="n">
-        <v>0.245543</v>
+        <v>0.24556</v>
       </c>
       <c r="D137" t="n">
-        <v>0.282603</v>
+        <v>0.284381</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.316744</v>
+        <v>0.316823</v>
       </c>
       <c r="C138" t="n">
-        <v>0.258947</v>
+        <v>0.259198</v>
       </c>
       <c r="D138" t="n">
-        <v>0.293135</v>
+        <v>0.273302</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.317061</v>
+        <v>0.310727</v>
       </c>
       <c r="C139" t="n">
-        <v>0.257511</v>
+        <v>0.262789</v>
       </c>
       <c r="D139" t="n">
-        <v>0.278266</v>
+        <v>0.275289</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.309245</v>
+        <v>0.311833</v>
       </c>
       <c r="C140" t="n">
-        <v>0.255962</v>
+        <v>0.252881</v>
       </c>
       <c r="D140" t="n">
-        <v>0.275342</v>
+        <v>0.274809</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.302243</v>
+        <v>0.306199</v>
       </c>
       <c r="C141" t="n">
-        <v>0.252683</v>
+        <v>0.254093</v>
       </c>
       <c r="D141" t="n">
-        <v>0.273288</v>
+        <v>0.278444</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.294498</v>
+        <v>0.294596</v>
       </c>
       <c r="C142" t="n">
-        <v>0.251788</v>
+        <v>0.25011</v>
       </c>
       <c r="D142" t="n">
-        <v>0.278382</v>
+        <v>0.274441</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.300304</v>
+        <v>0.28654</v>
       </c>
       <c r="C143" t="n">
-        <v>0.250331</v>
+        <v>0.247964</v>
       </c>
       <c r="D143" t="n">
-        <v>0.274692</v>
+        <v>0.275833</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.278443</v>
+        <v>0.278911</v>
       </c>
       <c r="C2" t="n">
-        <v>0.239574</v>
+        <v>0.240127</v>
       </c>
       <c r="D2" t="n">
-        <v>0.255534</v>
+        <v>0.255174</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.267521</v>
+        <v>0.269535</v>
       </c>
       <c r="C3" t="n">
-        <v>0.237413</v>
+        <v>0.240426</v>
       </c>
       <c r="D3" t="n">
-        <v>0.255011</v>
+        <v>0.254602</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.263323</v>
+        <v>0.264944</v>
       </c>
       <c r="C4" t="n">
-        <v>0.237653</v>
+        <v>0.233488</v>
       </c>
       <c r="D4" t="n">
-        <v>0.248003</v>
+        <v>0.251755</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.247596</v>
+        <v>0.261709</v>
       </c>
       <c r="C5" t="n">
-        <v>0.232259</v>
+        <v>0.242207</v>
       </c>
       <c r="D5" t="n">
-        <v>0.248924</v>
+        <v>0.249813</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.238549</v>
+        <v>0.247281</v>
       </c>
       <c r="C6" t="n">
-        <v>0.231876</v>
+        <v>0.235819</v>
       </c>
       <c r="D6" t="n">
-        <v>0.252983</v>
+        <v>0.250191</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.240114</v>
+        <v>0.236707</v>
       </c>
       <c r="C7" t="n">
-        <v>0.23155</v>
+        <v>0.232626</v>
       </c>
       <c r="D7" t="n">
-        <v>0.249633</v>
+        <v>0.247824</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.231183</v>
+        <v>0.225529</v>
       </c>
       <c r="C8" t="n">
-        <v>0.238485</v>
+        <v>0.23639</v>
       </c>
       <c r="D8" t="n">
-        <v>0.249007</v>
+        <v>0.248943</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.223016</v>
+        <v>0.220249</v>
       </c>
       <c r="C9" t="n">
-        <v>0.237709</v>
+        <v>0.231143</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25888</v>
+        <v>0.256179</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.30994</v>
+        <v>0.300782</v>
       </c>
       <c r="C10" t="n">
-        <v>0.246167</v>
+        <v>0.244067</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25686</v>
+        <v>0.259508</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.301246</v>
+        <v>0.298463</v>
       </c>
       <c r="C11" t="n">
-        <v>0.240895</v>
+        <v>0.240849</v>
       </c>
       <c r="D11" t="n">
-        <v>0.257531</v>
+        <v>0.25582</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.296637</v>
+        <v>0.294292</v>
       </c>
       <c r="C12" t="n">
-        <v>0.238497</v>
+        <v>0.237806</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25727</v>
+        <v>0.252587</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.288465</v>
+        <v>0.293366</v>
       </c>
       <c r="C13" t="n">
-        <v>0.238512</v>
+        <v>0.236383</v>
       </c>
       <c r="D13" t="n">
-        <v>0.258446</v>
+        <v>0.255992</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.281282</v>
+        <v>0.283054</v>
       </c>
       <c r="C14" t="n">
-        <v>0.235848</v>
+        <v>0.236671</v>
       </c>
       <c r="D14" t="n">
-        <v>0.250996</v>
+        <v>0.253069</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.275514</v>
+        <v>0.27513</v>
       </c>
       <c r="C15" t="n">
-        <v>0.23811</v>
+        <v>0.235879</v>
       </c>
       <c r="D15" t="n">
-        <v>0.253047</v>
+        <v>0.254792</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.273426</v>
+        <v>0.274156</v>
       </c>
       <c r="C16" t="n">
-        <v>0.235479</v>
+        <v>0.239818</v>
       </c>
       <c r="D16" t="n">
-        <v>0.257812</v>
+        <v>0.259595</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.269088</v>
+        <v>0.262585</v>
       </c>
       <c r="C17" t="n">
-        <v>0.235241</v>
+        <v>0.239153</v>
       </c>
       <c r="D17" t="n">
-        <v>0.258291</v>
+        <v>0.247601</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.258623</v>
+        <v>0.255889</v>
       </c>
       <c r="C18" t="n">
-        <v>0.234036</v>
+        <v>0.238914</v>
       </c>
       <c r="D18" t="n">
-        <v>0.254969</v>
+        <v>0.250041</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.259711</v>
+        <v>0.250331</v>
       </c>
       <c r="C19" t="n">
-        <v>0.236322</v>
+        <v>0.233561</v>
       </c>
       <c r="D19" t="n">
-        <v>0.250456</v>
+        <v>0.249742</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.246369</v>
+        <v>0.245674</v>
       </c>
       <c r="C20" t="n">
-        <v>0.235917</v>
+        <v>0.235808</v>
       </c>
       <c r="D20" t="n">
-        <v>0.248784</v>
+        <v>0.252626</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.238683</v>
+        <v>0.239015</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237507</v>
+        <v>0.233172</v>
       </c>
       <c r="D21" t="n">
-        <v>0.249235</v>
+        <v>0.254102</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.233097</v>
+        <v>0.231515</v>
       </c>
       <c r="C22" t="n">
-        <v>0.232053</v>
+        <v>0.236158</v>
       </c>
       <c r="D22" t="n">
-        <v>0.250765</v>
+        <v>0.252431</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.221591</v>
+        <v>0.225254</v>
       </c>
       <c r="C23" t="n">
-        <v>0.234078</v>
+        <v>0.23344</v>
       </c>
       <c r="D23" t="n">
-        <v>0.265609</v>
+        <v>0.265386</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.305618</v>
+        <v>0.308084</v>
       </c>
       <c r="C24" t="n">
-        <v>0.241715</v>
+        <v>0.24543</v>
       </c>
       <c r="D24" t="n">
-        <v>0.263604</v>
+        <v>0.265612</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.297499</v>
+        <v>0.302946</v>
       </c>
       <c r="C25" t="n">
-        <v>0.242559</v>
+        <v>0.246196</v>
       </c>
       <c r="D25" t="n">
-        <v>0.256041</v>
+        <v>0.260124</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.292858</v>
+        <v>0.29531</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2408</v>
+        <v>0.245629</v>
       </c>
       <c r="D26" t="n">
-        <v>0.26048</v>
+        <v>0.26038</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.286856</v>
+        <v>0.291104</v>
       </c>
       <c r="C27" t="n">
-        <v>0.236499</v>
+        <v>0.241736</v>
       </c>
       <c r="D27" t="n">
-        <v>0.259654</v>
+        <v>0.262082</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.283395</v>
+        <v>0.285583</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2369</v>
+        <v>0.240905</v>
       </c>
       <c r="D28" t="n">
-        <v>0.258961</v>
+        <v>0.259097</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2788</v>
+        <v>0.276537</v>
       </c>
       <c r="C29" t="n">
-        <v>0.24011</v>
+        <v>0.237491</v>
       </c>
       <c r="D29" t="n">
-        <v>0.259277</v>
+        <v>0.253779</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.271576</v>
+        <v>0.275461</v>
       </c>
       <c r="C30" t="n">
-        <v>0.238279</v>
+        <v>0.236805</v>
       </c>
       <c r="D30" t="n">
-        <v>0.256668</v>
+        <v>0.25716</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.267721</v>
+        <v>0.266949</v>
       </c>
       <c r="C31" t="n">
-        <v>0.237257</v>
+        <v>0.238924</v>
       </c>
       <c r="D31" t="n">
-        <v>0.254207</v>
+        <v>0.254286</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.259595</v>
+        <v>0.263144</v>
       </c>
       <c r="C32" t="n">
-        <v>0.23644</v>
+        <v>0.238738</v>
       </c>
       <c r="D32" t="n">
-        <v>0.252636</v>
+        <v>0.257561</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256071</v>
+        <v>0.257561</v>
       </c>
       <c r="C33" t="n">
-        <v>0.234674</v>
+        <v>0.241181</v>
       </c>
       <c r="D33" t="n">
-        <v>0.251712</v>
+        <v>0.25449</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.247092</v>
+        <v>0.248652</v>
       </c>
       <c r="C34" t="n">
-        <v>0.23903</v>
+        <v>0.238071</v>
       </c>
       <c r="D34" t="n">
-        <v>0.253075</v>
+        <v>0.255635</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.241297</v>
+        <v>0.240473</v>
       </c>
       <c r="C35" t="n">
-        <v>0.235991</v>
+        <v>0.235584</v>
       </c>
       <c r="D35" t="n">
-        <v>0.253128</v>
+        <v>0.253998</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2364</v>
+        <v>0.230761</v>
       </c>
       <c r="C36" t="n">
-        <v>0.239303</v>
+        <v>0.237938</v>
       </c>
       <c r="D36" t="n">
-        <v>0.25462</v>
+        <v>0.249925</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.222322</v>
+        <v>0.222259</v>
       </c>
       <c r="C37" t="n">
-        <v>0.234344</v>
+        <v>0.237762</v>
       </c>
       <c r="D37" t="n">
-        <v>0.269459</v>
+        <v>0.269076</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.306944</v>
+        <v>0.305897</v>
       </c>
       <c r="C38" t="n">
-        <v>0.245142</v>
+        <v>0.248324</v>
       </c>
       <c r="D38" t="n">
-        <v>0.264149</v>
+        <v>0.268324</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.299229</v>
+        <v>0.301243</v>
       </c>
       <c r="C39" t="n">
-        <v>0.24352</v>
+        <v>0.245046</v>
       </c>
       <c r="D39" t="n">
-        <v>0.265577</v>
+        <v>0.265622</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.297854</v>
+        <v>0.29726</v>
       </c>
       <c r="C40" t="n">
-        <v>0.247914</v>
+        <v>0.246989</v>
       </c>
       <c r="D40" t="n">
-        <v>0.260872</v>
+        <v>0.268305</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.291053</v>
+        <v>0.290653</v>
       </c>
       <c r="C41" t="n">
-        <v>0.244181</v>
+        <v>0.244952</v>
       </c>
       <c r="D41" t="n">
-        <v>0.260181</v>
+        <v>0.265762</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.281182</v>
+        <v>0.287314</v>
       </c>
       <c r="C42" t="n">
-        <v>0.238429</v>
+        <v>0.243613</v>
       </c>
       <c r="D42" t="n">
-        <v>0.256988</v>
+        <v>0.261989</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.281087</v>
+        <v>0.278868</v>
       </c>
       <c r="C43" t="n">
-        <v>0.239508</v>
+        <v>0.241644</v>
       </c>
       <c r="D43" t="n">
-        <v>0.257899</v>
+        <v>0.261066</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.278306</v>
+        <v>0.276892</v>
       </c>
       <c r="C44" t="n">
-        <v>0.239316</v>
+        <v>0.242466</v>
       </c>
       <c r="D44" t="n">
-        <v>0.260942</v>
+        <v>0.260532</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.266579</v>
+        <v>0.270639</v>
       </c>
       <c r="C45" t="n">
-        <v>0.237049</v>
+        <v>0.241766</v>
       </c>
       <c r="D45" t="n">
-        <v>0.256275</v>
+        <v>0.259949</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.262562</v>
+        <v>0.261981</v>
       </c>
       <c r="C46" t="n">
-        <v>0.234055</v>
+        <v>0.24084</v>
       </c>
       <c r="D46" t="n">
-        <v>0.262024</v>
+        <v>0.259088</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.256457</v>
+        <v>0.256729</v>
       </c>
       <c r="C47" t="n">
-        <v>0.237718</v>
+        <v>0.241496</v>
       </c>
       <c r="D47" t="n">
-        <v>0.254343</v>
+        <v>0.260434</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.250843</v>
+        <v>0.250719</v>
       </c>
       <c r="C48" t="n">
-        <v>0.24049</v>
+        <v>0.238077</v>
       </c>
       <c r="D48" t="n">
-        <v>0.257156</v>
+        <v>0.258508</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.242225</v>
+        <v>0.244398</v>
       </c>
       <c r="C49" t="n">
-        <v>0.23544</v>
+        <v>0.236466</v>
       </c>
       <c r="D49" t="n">
-        <v>0.251765</v>
+        <v>0.255735</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.234166</v>
+        <v>0.238104</v>
       </c>
       <c r="C50" t="n">
-        <v>0.23633</v>
+        <v>0.239324</v>
       </c>
       <c r="D50" t="n">
-        <v>0.253325</v>
+        <v>0.255256</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.230884</v>
+        <v>0.228006</v>
       </c>
       <c r="C51" t="n">
-        <v>0.235669</v>
+        <v>0.238795</v>
       </c>
       <c r="D51" t="n">
-        <v>0.270212</v>
+        <v>0.27417</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.215099</v>
+        <v>0.217263</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2379</v>
+        <v>0.23883</v>
       </c>
       <c r="D52" t="n">
-        <v>0.267331</v>
+        <v>0.268769</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.302538</v>
+        <v>0.307455</v>
       </c>
       <c r="C53" t="n">
-        <v>0.250664</v>
+        <v>0.248674</v>
       </c>
       <c r="D53" t="n">
-        <v>0.272954</v>
+        <v>0.26873</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.297778</v>
+        <v>0.301448</v>
       </c>
       <c r="C54" t="n">
-        <v>0.246401</v>
+        <v>0.247853</v>
       </c>
       <c r="D54" t="n">
-        <v>0.264195</v>
+        <v>0.269327</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.297536</v>
+        <v>0.298924</v>
       </c>
       <c r="C55" t="n">
-        <v>0.248266</v>
+        <v>0.250541</v>
       </c>
       <c r="D55" t="n">
-        <v>0.264705</v>
+        <v>0.269167</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.287448</v>
+        <v>0.285429</v>
       </c>
       <c r="C56" t="n">
-        <v>0.243567</v>
+        <v>0.244624</v>
       </c>
       <c r="D56" t="n">
-        <v>0.261438</v>
+        <v>0.263314</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.283559</v>
+        <v>0.281866</v>
       </c>
       <c r="C57" t="n">
-        <v>0.24411</v>
+        <v>0.247199</v>
       </c>
       <c r="D57" t="n">
-        <v>0.262958</v>
+        <v>0.263814</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.280832</v>
+        <v>0.280509</v>
       </c>
       <c r="C58" t="n">
-        <v>0.244102</v>
+        <v>0.243475</v>
       </c>
       <c r="D58" t="n">
-        <v>0.260973</v>
+        <v>0.263529</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.270309</v>
+        <v>0.27933</v>
       </c>
       <c r="C59" t="n">
-        <v>0.238702</v>
+        <v>0.245918</v>
       </c>
       <c r="D59" t="n">
-        <v>0.259001</v>
+        <v>0.261753</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.26372</v>
+        <v>0.26968</v>
       </c>
       <c r="C60" t="n">
-        <v>0.241618</v>
+        <v>0.245143</v>
       </c>
       <c r="D60" t="n">
-        <v>0.262953</v>
+        <v>0.262756</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.259378</v>
+        <v>0.258397</v>
       </c>
       <c r="C61" t="n">
-        <v>0.241484</v>
+        <v>0.237818</v>
       </c>
       <c r="D61" t="n">
-        <v>0.258799</v>
+        <v>0.258726</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.25312</v>
+        <v>0.257089</v>
       </c>
       <c r="C62" t="n">
-        <v>0.237551</v>
+        <v>0.237804</v>
       </c>
       <c r="D62" t="n">
-        <v>0.254953</v>
+        <v>0.258407</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.244283</v>
+        <v>0.245483</v>
       </c>
       <c r="C63" t="n">
-        <v>0.24166</v>
+        <v>0.239559</v>
       </c>
       <c r="D63" t="n">
-        <v>0.256246</v>
+        <v>0.261788</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.24326</v>
+        <v>0.238523</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239144</v>
+        <v>0.239723</v>
       </c>
       <c r="D64" t="n">
-        <v>0.255334</v>
+        <v>0.258793</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.228111</v>
+        <v>0.231624</v>
       </c>
       <c r="C65" t="n">
-        <v>0.235679</v>
+        <v>0.24087</v>
       </c>
       <c r="D65" t="n">
-        <v>0.253306</v>
+        <v>0.253694</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.220692</v>
+        <v>0.21903</v>
       </c>
       <c r="C66" t="n">
-        <v>0.239029</v>
+        <v>0.238931</v>
       </c>
       <c r="D66" t="n">
-        <v>0.273126</v>
+        <v>0.275968</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.312218</v>
+        <v>0.311648</v>
       </c>
       <c r="C67" t="n">
-        <v>0.25104</v>
+        <v>0.256826</v>
       </c>
       <c r="D67" t="n">
-        <v>0.272816</v>
+        <v>0.275089</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.304094</v>
+        <v>0.306306</v>
       </c>
       <c r="C68" t="n">
-        <v>0.24876</v>
+        <v>0.256134</v>
       </c>
       <c r="D68" t="n">
-        <v>0.26832</v>
+        <v>0.270081</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.303135</v>
+        <v>0.300061</v>
       </c>
       <c r="C69" t="n">
-        <v>0.250245</v>
+        <v>0.249435</v>
       </c>
       <c r="D69" t="n">
-        <v>0.26834</v>
+        <v>0.269876</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.290475</v>
+        <v>0.296528</v>
       </c>
       <c r="C70" t="n">
-        <v>0.252451</v>
+        <v>0.247968</v>
       </c>
       <c r="D70" t="n">
-        <v>0.267624</v>
+        <v>0.26798</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.288696</v>
+        <v>0.287292</v>
       </c>
       <c r="C71" t="n">
-        <v>0.248011</v>
+        <v>0.246168</v>
       </c>
       <c r="D71" t="n">
-        <v>0.266294</v>
+        <v>0.269623</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.279698</v>
+        <v>0.283643</v>
       </c>
       <c r="C72" t="n">
-        <v>0.246136</v>
+        <v>0.247079</v>
       </c>
       <c r="D72" t="n">
-        <v>0.264988</v>
+        <v>0.267984</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.276827</v>
+        <v>0.273694</v>
       </c>
       <c r="C73" t="n">
-        <v>0.245089</v>
+        <v>0.245259</v>
       </c>
       <c r="D73" t="n">
-        <v>0.261283</v>
+        <v>0.261306</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.2723</v>
+        <v>0.269989</v>
       </c>
       <c r="C74" t="n">
-        <v>0.245227</v>
+        <v>0.242017</v>
       </c>
       <c r="D74" t="n">
-        <v>0.265119</v>
+        <v>0.262822</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.26534</v>
+        <v>0.262541</v>
       </c>
       <c r="C75" t="n">
-        <v>0.242836</v>
+        <v>0.243684</v>
       </c>
       <c r="D75" t="n">
-        <v>0.266792</v>
+        <v>0.263003</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.25833</v>
+        <v>0.259153</v>
       </c>
       <c r="C76" t="n">
-        <v>0.243004</v>
+        <v>0.243799</v>
       </c>
       <c r="D76" t="n">
-        <v>0.261825</v>
+        <v>0.26295</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.248546</v>
+        <v>0.249481</v>
       </c>
       <c r="C77" t="n">
-        <v>0.238508</v>
+        <v>0.242785</v>
       </c>
       <c r="D77" t="n">
-        <v>0.258593</v>
+        <v>0.257264</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.241554</v>
+        <v>0.241917</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242461</v>
+        <v>0.238362</v>
       </c>
       <c r="D78" t="n">
-        <v>0.25501</v>
+        <v>0.25998</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.238843</v>
+        <v>0.234313</v>
       </c>
       <c r="C79" t="n">
-        <v>0.240768</v>
+        <v>0.239708</v>
       </c>
       <c r="D79" t="n">
-        <v>0.256099</v>
+        <v>0.258995</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.224987</v>
+        <v>0.227171</v>
       </c>
       <c r="C80" t="n">
-        <v>0.239384</v>
+        <v>0.239591</v>
       </c>
       <c r="D80" t="n">
-        <v>0.276475</v>
+        <v>0.279104</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.316956</v>
+        <v>0.317704</v>
       </c>
       <c r="C81" t="n">
-        <v>0.258479</v>
+        <v>0.258396</v>
       </c>
       <c r="D81" t="n">
-        <v>0.274398</v>
+        <v>0.273949</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.310051</v>
+        <v>0.3113</v>
       </c>
       <c r="C82" t="n">
-        <v>0.252961</v>
+        <v>0.257628</v>
       </c>
       <c r="D82" t="n">
-        <v>0.274909</v>
+        <v>0.275669</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.305628</v>
+        <v>0.304798</v>
       </c>
       <c r="C83" t="n">
-        <v>0.25054</v>
+        <v>0.249199</v>
       </c>
       <c r="D83" t="n">
-        <v>0.276022</v>
+        <v>0.270425</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.298057</v>
+        <v>0.297193</v>
       </c>
       <c r="C84" t="n">
-        <v>0.249378</v>
+        <v>0.25146</v>
       </c>
       <c r="D84" t="n">
-        <v>0.271627</v>
+        <v>0.273716</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.293223</v>
+        <v>0.299446</v>
       </c>
       <c r="C85" t="n">
-        <v>0.248626</v>
+        <v>0.248587</v>
       </c>
       <c r="D85" t="n">
-        <v>0.272547</v>
+        <v>0.26828</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.288638</v>
+        <v>0.285313</v>
       </c>
       <c r="C86" t="n">
-        <v>0.247026</v>
+        <v>0.247753</v>
       </c>
       <c r="D86" t="n">
-        <v>0.266267</v>
+        <v>0.26849</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.283497</v>
+        <v>0.285047</v>
       </c>
       <c r="C87" t="n">
-        <v>0.247859</v>
+        <v>0.244707</v>
       </c>
       <c r="D87" t="n">
-        <v>0.266354</v>
+        <v>0.265818</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.277245</v>
+        <v>0.272464</v>
       </c>
       <c r="C88" t="n">
-        <v>0.247698</v>
+        <v>0.24581</v>
       </c>
       <c r="D88" t="n">
-        <v>0.262965</v>
+        <v>0.265904</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.270156</v>
+        <v>0.2672</v>
       </c>
       <c r="C89" t="n">
-        <v>0.255433</v>
+        <v>0.248845</v>
       </c>
       <c r="D89" t="n">
-        <v>0.265909</v>
+        <v>0.270265</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.263702</v>
+        <v>0.266963</v>
       </c>
       <c r="C90" t="n">
-        <v>0.245559</v>
+        <v>0.249619</v>
       </c>
       <c r="D90" t="n">
-        <v>0.263552</v>
+        <v>0.265785</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.254991</v>
+        <v>0.252455</v>
       </c>
       <c r="C91" t="n">
-        <v>0.245638</v>
+        <v>0.243084</v>
       </c>
       <c r="D91" t="n">
-        <v>0.263462</v>
+        <v>0.260893</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.245281</v>
+        <v>0.249076</v>
       </c>
       <c r="C92" t="n">
-        <v>0.240727</v>
+        <v>0.242128</v>
       </c>
       <c r="D92" t="n">
-        <v>0.26019</v>
+        <v>0.259381</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.240664</v>
+        <v>0.23876</v>
       </c>
       <c r="C93" t="n">
-        <v>0.240901</v>
+        <v>0.245154</v>
       </c>
       <c r="D93" t="n">
-        <v>0.25733</v>
+        <v>0.262516</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.227423</v>
+        <v>0.229968</v>
       </c>
       <c r="C94" t="n">
-        <v>0.241128</v>
+        <v>0.241894</v>
       </c>
       <c r="D94" t="n">
-        <v>0.279752</v>
+        <v>0.283382</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.321401</v>
+        <v>0.317601</v>
       </c>
       <c r="C95" t="n">
-        <v>0.259189</v>
+        <v>0.259431</v>
       </c>
       <c r="D95" t="n">
-        <v>0.283812</v>
+        <v>0.278914</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.316184</v>
+        <v>0.318982</v>
       </c>
       <c r="C96" t="n">
-        <v>0.262198</v>
+        <v>0.255099</v>
       </c>
       <c r="D96" t="n">
-        <v>0.276773</v>
+        <v>0.275663</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.308619</v>
+        <v>0.306016</v>
       </c>
       <c r="C97" t="n">
-        <v>0.257697</v>
+        <v>0.254367</v>
       </c>
       <c r="D97" t="n">
-        <v>0.275247</v>
+        <v>0.279557</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.308532</v>
+        <v>0.302524</v>
       </c>
       <c r="C98" t="n">
-        <v>0.255208</v>
+        <v>0.252095</v>
       </c>
       <c r="D98" t="n">
-        <v>0.274678</v>
+        <v>0.273465</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.302733</v>
+        <v>0.302938</v>
       </c>
       <c r="C99" t="n">
-        <v>0.253449</v>
+        <v>0.250661</v>
       </c>
       <c r="D99" t="n">
-        <v>0.274159</v>
+        <v>0.269776</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.291548</v>
+        <v>0.291912</v>
       </c>
       <c r="C100" t="n">
-        <v>0.251363</v>
+        <v>0.251154</v>
       </c>
       <c r="D100" t="n">
-        <v>0.272242</v>
+        <v>0.267254</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.283391</v>
+        <v>0.286936</v>
       </c>
       <c r="C101" t="n">
-        <v>0.247291</v>
+        <v>0.250432</v>
       </c>
       <c r="D101" t="n">
-        <v>0.270422</v>
+        <v>0.268983</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.277859</v>
+        <v>0.279597</v>
       </c>
       <c r="C102" t="n">
-        <v>0.247128</v>
+        <v>0.247328</v>
       </c>
       <c r="D102" t="n">
-        <v>0.266258</v>
+        <v>0.267011</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.271151</v>
+        <v>0.269753</v>
       </c>
       <c r="C103" t="n">
-        <v>0.24778</v>
+        <v>0.245594</v>
       </c>
       <c r="D103" t="n">
-        <v>0.264554</v>
+        <v>0.26612</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.26456</v>
+        <v>0.265113</v>
       </c>
       <c r="C104" t="n">
-        <v>0.244218</v>
+        <v>0.249788</v>
       </c>
       <c r="D104" t="n">
-        <v>0.268375</v>
+        <v>0.268275</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.252981</v>
+        <v>0.255889</v>
       </c>
       <c r="C105" t="n">
-        <v>0.243777</v>
+        <v>0.247107</v>
       </c>
       <c r="D105" t="n">
-        <v>0.263349</v>
+        <v>0.26403</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.248405</v>
+        <v>0.246335</v>
       </c>
       <c r="C106" t="n">
-        <v>0.244766</v>
+        <v>0.24192</v>
       </c>
       <c r="D106" t="n">
-        <v>0.264291</v>
+        <v>0.263006</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.242907</v>
+        <v>0.245596</v>
       </c>
       <c r="C107" t="n">
-        <v>0.241572</v>
+        <v>0.242577</v>
       </c>
       <c r="D107" t="n">
-        <v>0.26161</v>
+        <v>0.261733</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.231868</v>
+        <v>0.234209</v>
       </c>
       <c r="C108" t="n">
-        <v>0.242566</v>
+        <v>0.24327</v>
       </c>
       <c r="D108" t="n">
-        <v>0.278773</v>
+        <v>0.28211</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.224712</v>
+        <v>0.223383</v>
       </c>
       <c r="C109" t="n">
-        <v>0.248938</v>
+        <v>0.24292</v>
       </c>
       <c r="D109" t="n">
-        <v>0.290624</v>
+        <v>0.281316</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.319356</v>
+        <v>0.314335</v>
       </c>
       <c r="C110" t="n">
-        <v>0.255758</v>
+        <v>0.260723</v>
       </c>
       <c r="D110" t="n">
-        <v>0.278719</v>
+        <v>0.279074</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.315447</v>
+        <v>0.310494</v>
       </c>
       <c r="C111" t="n">
-        <v>0.258561</v>
+        <v>0.252315</v>
       </c>
       <c r="D111" t="n">
-        <v>0.27679</v>
+        <v>0.274136</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.307915</v>
+        <v>0.304648</v>
       </c>
       <c r="C112" t="n">
-        <v>0.252641</v>
+        <v>0.252787</v>
       </c>
       <c r="D112" t="n">
-        <v>0.272986</v>
+        <v>0.276177</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.303594</v>
+        <v>0.296331</v>
       </c>
       <c r="C113" t="n">
-        <v>0.251163</v>
+        <v>0.251896</v>
       </c>
       <c r="D113" t="n">
-        <v>0.271379</v>
+        <v>0.270863</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.296148</v>
+        <v>0.292426</v>
       </c>
       <c r="C114" t="n">
-        <v>0.251441</v>
+        <v>0.252337</v>
       </c>
       <c r="D114" t="n">
-        <v>0.268014</v>
+        <v>0.27031</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.284675</v>
+        <v>0.286041</v>
       </c>
       <c r="C115" t="n">
-        <v>0.245877</v>
+        <v>0.250341</v>
       </c>
       <c r="D115" t="n">
-        <v>0.267376</v>
+        <v>0.267398</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.281894</v>
+        <v>0.278989</v>
       </c>
       <c r="C116" t="n">
-        <v>0.250091</v>
+        <v>0.246294</v>
       </c>
       <c r="D116" t="n">
-        <v>0.269386</v>
+        <v>0.266489</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.276207</v>
+        <v>0.270758</v>
       </c>
       <c r="C117" t="n">
-        <v>0.249629</v>
+        <v>0.24912</v>
       </c>
       <c r="D117" t="n">
-        <v>0.267328</v>
+        <v>0.267639</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.270423</v>
+        <v>0.270771</v>
       </c>
       <c r="C118" t="n">
-        <v>0.251591</v>
+        <v>0.246621</v>
       </c>
       <c r="D118" t="n">
-        <v>0.266478</v>
+        <v>0.264889</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.257762</v>
+        <v>0.261856</v>
       </c>
       <c r="C119" t="n">
-        <v>0.247507</v>
+        <v>0.249667</v>
       </c>
       <c r="D119" t="n">
-        <v>0.268464</v>
+        <v>0.26576</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.251759</v>
+        <v>0.252949</v>
       </c>
       <c r="C120" t="n">
-        <v>0.247336</v>
+        <v>0.250963</v>
       </c>
       <c r="D120" t="n">
-        <v>0.271992</v>
+        <v>0.261998</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.243377</v>
+        <v>0.247539</v>
       </c>
       <c r="C121" t="n">
-        <v>0.24989</v>
+        <v>0.241556</v>
       </c>
       <c r="D121" t="n">
-        <v>0.263172</v>
+        <v>0.260709</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.239946</v>
+        <v>0.233411</v>
       </c>
       <c r="C122" t="n">
-        <v>0.243418</v>
+        <v>0.247772</v>
       </c>
       <c r="D122" t="n">
-        <v>0.265687</v>
+        <v>0.263991</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.223769</v>
+        <v>0.224498</v>
       </c>
       <c r="C123" t="n">
-        <v>0.244153</v>
+        <v>0.248268</v>
       </c>
       <c r="D123" t="n">
-        <v>0.278683</v>
+        <v>0.279511</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.315886</v>
+        <v>0.312294</v>
       </c>
       <c r="C124" t="n">
-        <v>0.256745</v>
+        <v>0.257072</v>
       </c>
       <c r="D124" t="n">
-        <v>0.278751</v>
+        <v>0.275826</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.310998</v>
+        <v>0.309993</v>
       </c>
       <c r="C125" t="n">
-        <v>0.257736</v>
+        <v>0.255912</v>
       </c>
       <c r="D125" t="n">
-        <v>0.279486</v>
+        <v>0.276804</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.314225</v>
+        <v>0.306444</v>
       </c>
       <c r="C126" t="n">
-        <v>0.254471</v>
+        <v>0.253864</v>
       </c>
       <c r="D126" t="n">
-        <v>0.275302</v>
+        <v>0.274922</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.302953</v>
+        <v>0.307452</v>
       </c>
       <c r="C127" t="n">
-        <v>0.253534</v>
+        <v>0.250337</v>
       </c>
       <c r="D127" t="n">
-        <v>0.27359</v>
+        <v>0.273369</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.297466</v>
+        <v>0.299171</v>
       </c>
       <c r="C128" t="n">
-        <v>0.252473</v>
+        <v>0.250964</v>
       </c>
       <c r="D128" t="n">
-        <v>0.273595</v>
+        <v>0.2737</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.293425</v>
+        <v>0.285805</v>
       </c>
       <c r="C129" t="n">
-        <v>0.255973</v>
+        <v>0.2487</v>
       </c>
       <c r="D129" t="n">
-        <v>0.269678</v>
+        <v>0.272141</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.283661</v>
+        <v>0.284059</v>
       </c>
       <c r="C130" t="n">
-        <v>0.249467</v>
+        <v>0.244853</v>
       </c>
       <c r="D130" t="n">
-        <v>0.274329</v>
+        <v>0.266102</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.275883</v>
+        <v>0.272511</v>
       </c>
       <c r="C131" t="n">
-        <v>0.247538</v>
+        <v>0.246169</v>
       </c>
       <c r="D131" t="n">
-        <v>0.267617</v>
+        <v>0.267727</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.272919</v>
+        <v>0.26758</v>
       </c>
       <c r="C132" t="n">
-        <v>0.243744</v>
+        <v>0.244632</v>
       </c>
       <c r="D132" t="n">
-        <v>0.264831</v>
+        <v>0.265799</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.261241</v>
+        <v>0.261306</v>
       </c>
       <c r="C133" t="n">
-        <v>0.245489</v>
+        <v>0.250446</v>
       </c>
       <c r="D133" t="n">
-        <v>0.261772</v>
+        <v>0.2644</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.253763</v>
+        <v>0.253404</v>
       </c>
       <c r="C134" t="n">
-        <v>0.240218</v>
+        <v>0.249474</v>
       </c>
       <c r="D134" t="n">
-        <v>0.261458</v>
+        <v>0.263114</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.244998</v>
+        <v>0.247705</v>
       </c>
       <c r="C135" t="n">
-        <v>0.242746</v>
+        <v>0.241082</v>
       </c>
       <c r="D135" t="n">
-        <v>0.272892</v>
+        <v>0.262059</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240757</v>
+        <v>0.23198</v>
       </c>
       <c r="C136" t="n">
-        <v>0.24307</v>
+        <v>0.239611</v>
       </c>
       <c r="D136" t="n">
-        <v>0.260926</v>
+        <v>0.270735</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.229819</v>
+        <v>0.228043</v>
       </c>
       <c r="C137" t="n">
-        <v>0.24556</v>
+        <v>0.246531</v>
       </c>
       <c r="D137" t="n">
-        <v>0.284381</v>
+        <v>0.286394</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.316823</v>
+        <v>0.316738</v>
       </c>
       <c r="C138" t="n">
-        <v>0.259198</v>
+        <v>0.257906</v>
       </c>
       <c r="D138" t="n">
-        <v>0.273302</v>
+        <v>0.280014</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.310727</v>
+        <v>0.317728</v>
       </c>
       <c r="C139" t="n">
-        <v>0.262789</v>
+        <v>0.259741</v>
       </c>
       <c r="D139" t="n">
-        <v>0.275289</v>
+        <v>0.280363</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.311833</v>
+        <v>0.301087</v>
       </c>
       <c r="C140" t="n">
-        <v>0.252881</v>
+        <v>0.252942</v>
       </c>
       <c r="D140" t="n">
-        <v>0.274809</v>
+        <v>0.278385</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.306199</v>
+        <v>0.301407</v>
       </c>
       <c r="C141" t="n">
-        <v>0.254093</v>
+        <v>0.253228</v>
       </c>
       <c r="D141" t="n">
-        <v>0.278444</v>
+        <v>0.278121</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.294596</v>
+        <v>0.295345</v>
       </c>
       <c r="C142" t="n">
-        <v>0.25011</v>
+        <v>0.25438</v>
       </c>
       <c r="D142" t="n">
-        <v>0.274441</v>
+        <v>0.276913</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.28654</v>
+        <v>0.286055</v>
       </c>
       <c r="C143" t="n">
-        <v>0.247964</v>
+        <v>0.24895</v>
       </c>
       <c r="D143" t="n">
-        <v>0.275833</v>
+        <v>0.269607</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.278911</v>
+        <v>0.275242</v>
       </c>
       <c r="C2" t="n">
-        <v>0.240127</v>
+        <v>0.238975</v>
       </c>
       <c r="D2" t="n">
-        <v>0.255174</v>
+        <v>0.251198</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.269535</v>
+        <v>0.267076</v>
       </c>
       <c r="C3" t="n">
-        <v>0.240426</v>
+        <v>0.234623</v>
       </c>
       <c r="D3" t="n">
-        <v>0.254602</v>
+        <v>0.25468</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.264944</v>
+        <v>0.258963</v>
       </c>
       <c r="C4" t="n">
-        <v>0.233488</v>
+        <v>0.239084</v>
       </c>
       <c r="D4" t="n">
-        <v>0.251755</v>
+        <v>0.257302</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.261709</v>
+        <v>0.251282</v>
       </c>
       <c r="C5" t="n">
-        <v>0.242207</v>
+        <v>0.235483</v>
       </c>
       <c r="D5" t="n">
-        <v>0.249813</v>
+        <v>0.248234</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.247281</v>
+        <v>0.240695</v>
       </c>
       <c r="C6" t="n">
-        <v>0.235819</v>
+        <v>0.236602</v>
       </c>
       <c r="D6" t="n">
-        <v>0.250191</v>
+        <v>0.255373</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.236707</v>
+        <v>0.233746</v>
       </c>
       <c r="C7" t="n">
-        <v>0.232626</v>
+        <v>0.234039</v>
       </c>
       <c r="D7" t="n">
-        <v>0.247824</v>
+        <v>0.250201</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.225529</v>
+        <v>0.2259</v>
       </c>
       <c r="C8" t="n">
-        <v>0.23639</v>
+        <v>0.239464</v>
       </c>
       <c r="D8" t="n">
-        <v>0.248943</v>
+        <v>0.254813</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.220249</v>
+        <v>0.217579</v>
       </c>
       <c r="C9" t="n">
-        <v>0.231143</v>
+        <v>0.239232</v>
       </c>
       <c r="D9" t="n">
-        <v>0.256179</v>
+        <v>0.258037</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.300782</v>
+        <v>0.306663</v>
       </c>
       <c r="C10" t="n">
-        <v>0.244067</v>
+        <v>0.235568</v>
       </c>
       <c r="D10" t="n">
-        <v>0.259508</v>
+        <v>0.254779</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.298463</v>
+        <v>0.297046</v>
       </c>
       <c r="C11" t="n">
-        <v>0.240849</v>
+        <v>0.239216</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25582</v>
+        <v>0.255895</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.294292</v>
+        <v>0.291623</v>
       </c>
       <c r="C12" t="n">
-        <v>0.237806</v>
+        <v>0.238752</v>
       </c>
       <c r="D12" t="n">
-        <v>0.252587</v>
+        <v>0.256585</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.293366</v>
+        <v>0.285212</v>
       </c>
       <c r="C13" t="n">
-        <v>0.236383</v>
+        <v>0.234906</v>
       </c>
       <c r="D13" t="n">
-        <v>0.255992</v>
+        <v>0.256282</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.283054</v>
+        <v>0.279517</v>
       </c>
       <c r="C14" t="n">
-        <v>0.236671</v>
+        <v>0.237985</v>
       </c>
       <c r="D14" t="n">
-        <v>0.253069</v>
+        <v>0.254241</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.27513</v>
+        <v>0.273639</v>
       </c>
       <c r="C15" t="n">
-        <v>0.235879</v>
+        <v>0.233986</v>
       </c>
       <c r="D15" t="n">
-        <v>0.254792</v>
+        <v>0.254575</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.274156</v>
+        <v>0.27173</v>
       </c>
       <c r="C16" t="n">
-        <v>0.239818</v>
+        <v>0.235696</v>
       </c>
       <c r="D16" t="n">
-        <v>0.259595</v>
+        <v>0.254994</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.262585</v>
+        <v>0.2635</v>
       </c>
       <c r="C17" t="n">
-        <v>0.239153</v>
+        <v>0.236461</v>
       </c>
       <c r="D17" t="n">
-        <v>0.247601</v>
+        <v>0.256939</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.255889</v>
+        <v>0.256905</v>
       </c>
       <c r="C18" t="n">
-        <v>0.238914</v>
+        <v>0.236153</v>
       </c>
       <c r="D18" t="n">
-        <v>0.250041</v>
+        <v>0.249641</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.250331</v>
+        <v>0.256417</v>
       </c>
       <c r="C19" t="n">
-        <v>0.233561</v>
+        <v>0.238</v>
       </c>
       <c r="D19" t="n">
-        <v>0.249742</v>
+        <v>0.249745</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.245674</v>
+        <v>0.243608</v>
       </c>
       <c r="C20" t="n">
-        <v>0.235808</v>
+        <v>0.237345</v>
       </c>
       <c r="D20" t="n">
-        <v>0.252626</v>
+        <v>0.252523</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.239015</v>
+        <v>0.23274</v>
       </c>
       <c r="C21" t="n">
-        <v>0.233172</v>
+        <v>0.233459</v>
       </c>
       <c r="D21" t="n">
-        <v>0.254102</v>
+        <v>0.252888</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.231515</v>
+        <v>0.228312</v>
       </c>
       <c r="C22" t="n">
-        <v>0.236158</v>
+        <v>0.235188</v>
       </c>
       <c r="D22" t="n">
-        <v>0.252431</v>
+        <v>0.254132</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.225254</v>
+        <v>0.219788</v>
       </c>
       <c r="C23" t="n">
-        <v>0.23344</v>
+        <v>0.237009</v>
       </c>
       <c r="D23" t="n">
-        <v>0.265386</v>
+        <v>0.262056</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.308084</v>
+        <v>0.302727</v>
       </c>
       <c r="C24" t="n">
-        <v>0.24543</v>
+        <v>0.245277</v>
       </c>
       <c r="D24" t="n">
-        <v>0.265612</v>
+        <v>0.262146</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.302946</v>
+        <v>0.299528</v>
       </c>
       <c r="C25" t="n">
-        <v>0.246196</v>
+        <v>0.245892</v>
       </c>
       <c r="D25" t="n">
-        <v>0.260124</v>
+        <v>0.263842</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.29531</v>
+        <v>0.294064</v>
       </c>
       <c r="C26" t="n">
-        <v>0.245629</v>
+        <v>0.242996</v>
       </c>
       <c r="D26" t="n">
-        <v>0.26038</v>
+        <v>0.256114</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.291104</v>
+        <v>0.286233</v>
       </c>
       <c r="C27" t="n">
-        <v>0.241736</v>
+        <v>0.243339</v>
       </c>
       <c r="D27" t="n">
-        <v>0.262082</v>
+        <v>0.261946</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.285583</v>
+        <v>0.286256</v>
       </c>
       <c r="C28" t="n">
-        <v>0.240905</v>
+        <v>0.23766</v>
       </c>
       <c r="D28" t="n">
-        <v>0.259097</v>
+        <v>0.263591</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.276537</v>
+        <v>0.275606</v>
       </c>
       <c r="C29" t="n">
-        <v>0.237491</v>
+        <v>0.236836</v>
       </c>
       <c r="D29" t="n">
-        <v>0.253779</v>
+        <v>0.255982</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.275461</v>
+        <v>0.271819</v>
       </c>
       <c r="C30" t="n">
-        <v>0.236805</v>
+        <v>0.23725</v>
       </c>
       <c r="D30" t="n">
-        <v>0.25716</v>
+        <v>0.261149</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.266949</v>
+        <v>0.267161</v>
       </c>
       <c r="C31" t="n">
-        <v>0.238924</v>
+        <v>0.239933</v>
       </c>
       <c r="D31" t="n">
-        <v>0.254286</v>
+        <v>0.258961</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.263144</v>
+        <v>0.26932</v>
       </c>
       <c r="C32" t="n">
-        <v>0.238738</v>
+        <v>0.235743</v>
       </c>
       <c r="D32" t="n">
-        <v>0.257561</v>
+        <v>0.253174</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.257561</v>
+        <v>0.255731</v>
       </c>
       <c r="C33" t="n">
-        <v>0.241181</v>
+        <v>0.239033</v>
       </c>
       <c r="D33" t="n">
-        <v>0.25449</v>
+        <v>0.253546</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.248652</v>
+        <v>0.247699</v>
       </c>
       <c r="C34" t="n">
-        <v>0.238071</v>
+        <v>0.237331</v>
       </c>
       <c r="D34" t="n">
-        <v>0.255635</v>
+        <v>0.256276</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.240473</v>
+        <v>0.240318</v>
       </c>
       <c r="C35" t="n">
-        <v>0.235584</v>
+        <v>0.239408</v>
       </c>
       <c r="D35" t="n">
-        <v>0.253998</v>
+        <v>0.255579</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.230761</v>
+        <v>0.230918</v>
       </c>
       <c r="C36" t="n">
-        <v>0.237938</v>
+        <v>0.235543</v>
       </c>
       <c r="D36" t="n">
-        <v>0.249925</v>
+        <v>0.25161</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.222259</v>
+        <v>0.226194</v>
       </c>
       <c r="C37" t="n">
-        <v>0.237762</v>
+        <v>0.23434</v>
       </c>
       <c r="D37" t="n">
-        <v>0.269076</v>
+        <v>0.266955</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.305897</v>
+        <v>0.30266</v>
       </c>
       <c r="C38" t="n">
-        <v>0.248324</v>
+        <v>0.244692</v>
       </c>
       <c r="D38" t="n">
-        <v>0.268324</v>
+        <v>0.264928</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.301243</v>
+        <v>0.298158</v>
       </c>
       <c r="C39" t="n">
-        <v>0.245046</v>
+        <v>0.243152</v>
       </c>
       <c r="D39" t="n">
-        <v>0.265622</v>
+        <v>0.267153</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.29726</v>
+        <v>0.295747</v>
       </c>
       <c r="C40" t="n">
-        <v>0.246989</v>
+        <v>0.242668</v>
       </c>
       <c r="D40" t="n">
-        <v>0.268305</v>
+        <v>0.265395</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.290653</v>
+        <v>0.288365</v>
       </c>
       <c r="C41" t="n">
-        <v>0.244952</v>
+        <v>0.242107</v>
       </c>
       <c r="D41" t="n">
-        <v>0.265762</v>
+        <v>0.260407</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.287314</v>
+        <v>0.29067</v>
       </c>
       <c r="C42" t="n">
-        <v>0.243613</v>
+        <v>0.241616</v>
       </c>
       <c r="D42" t="n">
-        <v>0.261989</v>
+        <v>0.259624</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.278868</v>
+        <v>0.280148</v>
       </c>
       <c r="C43" t="n">
-        <v>0.241644</v>
+        <v>0.242349</v>
       </c>
       <c r="D43" t="n">
-        <v>0.261066</v>
+        <v>0.257993</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.276892</v>
+        <v>0.275388</v>
       </c>
       <c r="C44" t="n">
-        <v>0.242466</v>
+        <v>0.237677</v>
       </c>
       <c r="D44" t="n">
-        <v>0.260532</v>
+        <v>0.258452</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.270639</v>
+        <v>0.274227</v>
       </c>
       <c r="C45" t="n">
-        <v>0.241766</v>
+        <v>0.237105</v>
       </c>
       <c r="D45" t="n">
-        <v>0.259949</v>
+        <v>0.260986</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.261981</v>
+        <v>0.263243</v>
       </c>
       <c r="C46" t="n">
-        <v>0.24084</v>
+        <v>0.245121</v>
       </c>
       <c r="D46" t="n">
-        <v>0.259088</v>
+        <v>0.257457</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.256729</v>
+        <v>0.254871</v>
       </c>
       <c r="C47" t="n">
-        <v>0.241496</v>
+        <v>0.242713</v>
       </c>
       <c r="D47" t="n">
-        <v>0.260434</v>
+        <v>0.25772</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.250719</v>
+        <v>0.25259</v>
       </c>
       <c r="C48" t="n">
-        <v>0.238077</v>
+        <v>0.241311</v>
       </c>
       <c r="D48" t="n">
-        <v>0.258508</v>
+        <v>0.253276</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.244398</v>
+        <v>0.241829</v>
       </c>
       <c r="C49" t="n">
-        <v>0.236466</v>
+        <v>0.233882</v>
       </c>
       <c r="D49" t="n">
-        <v>0.255735</v>
+        <v>0.251795</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.238104</v>
+        <v>0.23259</v>
       </c>
       <c r="C50" t="n">
-        <v>0.239324</v>
+        <v>0.236475</v>
       </c>
       <c r="D50" t="n">
-        <v>0.255256</v>
+        <v>0.256955</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.228006</v>
+        <v>0.228809</v>
       </c>
       <c r="C51" t="n">
-        <v>0.238795</v>
+        <v>0.237819</v>
       </c>
       <c r="D51" t="n">
-        <v>0.27417</v>
+        <v>0.271292</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.217263</v>
+        <v>0.218602</v>
       </c>
       <c r="C52" t="n">
-        <v>0.23883</v>
+        <v>0.23452</v>
       </c>
       <c r="D52" t="n">
-        <v>0.268769</v>
+        <v>0.267114</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.307455</v>
+        <v>0.299476</v>
       </c>
       <c r="C53" t="n">
-        <v>0.248674</v>
+        <v>0.246258</v>
       </c>
       <c r="D53" t="n">
-        <v>0.26873</v>
+        <v>0.267708</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.301448</v>
+        <v>0.304477</v>
       </c>
       <c r="C54" t="n">
-        <v>0.247853</v>
+        <v>0.245192</v>
       </c>
       <c r="D54" t="n">
-        <v>0.269327</v>
+        <v>0.269397</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.298924</v>
+        <v>0.294629</v>
       </c>
       <c r="C55" t="n">
-        <v>0.250541</v>
+        <v>0.244038</v>
       </c>
       <c r="D55" t="n">
-        <v>0.269167</v>
+        <v>0.262907</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.285429</v>
+        <v>0.288885</v>
       </c>
       <c r="C56" t="n">
-        <v>0.244624</v>
+        <v>0.241563</v>
       </c>
       <c r="D56" t="n">
-        <v>0.263314</v>
+        <v>0.264051</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.281866</v>
+        <v>0.281601</v>
       </c>
       <c r="C57" t="n">
-        <v>0.247199</v>
+        <v>0.242598</v>
       </c>
       <c r="D57" t="n">
-        <v>0.263814</v>
+        <v>0.260034</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.280509</v>
+        <v>0.278454</v>
       </c>
       <c r="C58" t="n">
-        <v>0.243475</v>
+        <v>0.242012</v>
       </c>
       <c r="D58" t="n">
-        <v>0.263529</v>
+        <v>0.257825</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.27933</v>
+        <v>0.271391</v>
       </c>
       <c r="C59" t="n">
-        <v>0.245918</v>
+        <v>0.242862</v>
       </c>
       <c r="D59" t="n">
-        <v>0.261753</v>
+        <v>0.259249</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.26968</v>
+        <v>0.264814</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245143</v>
+        <v>0.238781</v>
       </c>
       <c r="D60" t="n">
-        <v>0.262756</v>
+        <v>0.260164</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.258397</v>
+        <v>0.259201</v>
       </c>
       <c r="C61" t="n">
-        <v>0.237818</v>
+        <v>0.238674</v>
       </c>
       <c r="D61" t="n">
-        <v>0.258726</v>
+        <v>0.261394</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.257089</v>
+        <v>0.251716</v>
       </c>
       <c r="C62" t="n">
-        <v>0.237804</v>
+        <v>0.238128</v>
       </c>
       <c r="D62" t="n">
-        <v>0.258407</v>
+        <v>0.258437</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.245483</v>
+        <v>0.245638</v>
       </c>
       <c r="C63" t="n">
-        <v>0.239559</v>
+        <v>0.241162</v>
       </c>
       <c r="D63" t="n">
-        <v>0.261788</v>
+        <v>0.256805</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.238523</v>
+        <v>0.24096</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239723</v>
+        <v>0.240683</v>
       </c>
       <c r="D64" t="n">
-        <v>0.258793</v>
+        <v>0.254296</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.231624</v>
+        <v>0.229477</v>
       </c>
       <c r="C65" t="n">
-        <v>0.24087</v>
+        <v>0.237475</v>
       </c>
       <c r="D65" t="n">
-        <v>0.253694</v>
+        <v>0.253278</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.21903</v>
+        <v>0.217831</v>
       </c>
       <c r="C66" t="n">
-        <v>0.238931</v>
+        <v>0.239579</v>
       </c>
       <c r="D66" t="n">
-        <v>0.275968</v>
+        <v>0.274407</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.311648</v>
+        <v>0.310392</v>
       </c>
       <c r="C67" t="n">
-        <v>0.256826</v>
+        <v>0.251835</v>
       </c>
       <c r="D67" t="n">
-        <v>0.275089</v>
+        <v>0.271163</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.306306</v>
+        <v>0.308147</v>
       </c>
       <c r="C68" t="n">
-        <v>0.256134</v>
+        <v>0.25102</v>
       </c>
       <c r="D68" t="n">
-        <v>0.270081</v>
+        <v>0.268886</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.300061</v>
+        <v>0.300424</v>
       </c>
       <c r="C69" t="n">
-        <v>0.249435</v>
+        <v>0.24841</v>
       </c>
       <c r="D69" t="n">
-        <v>0.269876</v>
+        <v>0.268353</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.296528</v>
+        <v>0.291401</v>
       </c>
       <c r="C70" t="n">
-        <v>0.247968</v>
+        <v>0.248679</v>
       </c>
       <c r="D70" t="n">
-        <v>0.26798</v>
+        <v>0.269288</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.287292</v>
+        <v>0.289389</v>
       </c>
       <c r="C71" t="n">
-        <v>0.246168</v>
+        <v>0.247834</v>
       </c>
       <c r="D71" t="n">
-        <v>0.269623</v>
+        <v>0.267875</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.283643</v>
+        <v>0.283103</v>
       </c>
       <c r="C72" t="n">
-        <v>0.247079</v>
+        <v>0.243931</v>
       </c>
       <c r="D72" t="n">
-        <v>0.267984</v>
+        <v>0.266458</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.273694</v>
+        <v>0.274916</v>
       </c>
       <c r="C73" t="n">
-        <v>0.245259</v>
+        <v>0.245929</v>
       </c>
       <c r="D73" t="n">
-        <v>0.261306</v>
+        <v>0.264467</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.269989</v>
+        <v>0.27316</v>
       </c>
       <c r="C74" t="n">
-        <v>0.242017</v>
+        <v>0.243197</v>
       </c>
       <c r="D74" t="n">
-        <v>0.262822</v>
+        <v>0.267335</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.262541</v>
+        <v>0.262136</v>
       </c>
       <c r="C75" t="n">
-        <v>0.243684</v>
+        <v>0.242519</v>
       </c>
       <c r="D75" t="n">
-        <v>0.263003</v>
+        <v>0.263181</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.259153</v>
+        <v>0.257896</v>
       </c>
       <c r="C76" t="n">
-        <v>0.243799</v>
+        <v>0.244265</v>
       </c>
       <c r="D76" t="n">
-        <v>0.26295</v>
+        <v>0.260906</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.249481</v>
+        <v>0.252139</v>
       </c>
       <c r="C77" t="n">
-        <v>0.242785</v>
+        <v>0.242986</v>
       </c>
       <c r="D77" t="n">
-        <v>0.257264</v>
+        <v>0.262193</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.241917</v>
+        <v>0.243927</v>
       </c>
       <c r="C78" t="n">
-        <v>0.238362</v>
+        <v>0.247206</v>
       </c>
       <c r="D78" t="n">
-        <v>0.25998</v>
+        <v>0.263329</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234313</v>
+        <v>0.234415</v>
       </c>
       <c r="C79" t="n">
-        <v>0.239708</v>
+        <v>0.239961</v>
       </c>
       <c r="D79" t="n">
-        <v>0.258995</v>
+        <v>0.256717</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227171</v>
+        <v>0.226876</v>
       </c>
       <c r="C80" t="n">
-        <v>0.239591</v>
+        <v>0.241059</v>
       </c>
       <c r="D80" t="n">
-        <v>0.279104</v>
+        <v>0.283587</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.317704</v>
+        <v>0.321804</v>
       </c>
       <c r="C81" t="n">
-        <v>0.258396</v>
+        <v>0.257553</v>
       </c>
       <c r="D81" t="n">
-        <v>0.273949</v>
+        <v>0.279899</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3113</v>
+        <v>0.313204</v>
       </c>
       <c r="C82" t="n">
-        <v>0.257628</v>
+        <v>0.253942</v>
       </c>
       <c r="D82" t="n">
-        <v>0.275669</v>
+        <v>0.274778</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.304798</v>
+        <v>0.306206</v>
       </c>
       <c r="C83" t="n">
-        <v>0.249199</v>
+        <v>0.251489</v>
       </c>
       <c r="D83" t="n">
-        <v>0.270425</v>
+        <v>0.274793</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.297193</v>
+        <v>0.303713</v>
       </c>
       <c r="C84" t="n">
-        <v>0.25146</v>
+        <v>0.257729</v>
       </c>
       <c r="D84" t="n">
-        <v>0.273716</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.299446</v>
+        <v>0.29609</v>
       </c>
       <c r="C85" t="n">
-        <v>0.248587</v>
+        <v>0.257188</v>
       </c>
       <c r="D85" t="n">
-        <v>0.26828</v>
+        <v>0.270013</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.285313</v>
+        <v>0.295852</v>
       </c>
       <c r="C86" t="n">
-        <v>0.247753</v>
+        <v>0.252942</v>
       </c>
       <c r="D86" t="n">
-        <v>0.26849</v>
+        <v>0.272828</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.285047</v>
+        <v>0.285865</v>
       </c>
       <c r="C87" t="n">
-        <v>0.244707</v>
+        <v>0.246746</v>
       </c>
       <c r="D87" t="n">
-        <v>0.265818</v>
+        <v>0.266768</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.272464</v>
+        <v>0.276123</v>
       </c>
       <c r="C88" t="n">
-        <v>0.24581</v>
+        <v>0.244609</v>
       </c>
       <c r="D88" t="n">
-        <v>0.265904</v>
+        <v>0.265643</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.2672</v>
+        <v>0.269792</v>
       </c>
       <c r="C89" t="n">
-        <v>0.248845</v>
+        <v>0.246804</v>
       </c>
       <c r="D89" t="n">
-        <v>0.270265</v>
+        <v>0.264237</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.266963</v>
+        <v>0.263222</v>
       </c>
       <c r="C90" t="n">
-        <v>0.249619</v>
+        <v>0.244533</v>
       </c>
       <c r="D90" t="n">
-        <v>0.265785</v>
+        <v>0.270907</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.252455</v>
+        <v>0.259935</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243084</v>
+        <v>0.241887</v>
       </c>
       <c r="D91" t="n">
-        <v>0.260893</v>
+        <v>0.262813</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.249076</v>
+        <v>0.251356</v>
       </c>
       <c r="C92" t="n">
-        <v>0.242128</v>
+        <v>0.243933</v>
       </c>
       <c r="D92" t="n">
-        <v>0.259381</v>
+        <v>0.263355</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.23876</v>
+        <v>0.241035</v>
       </c>
       <c r="C93" t="n">
-        <v>0.245154</v>
+        <v>0.242961</v>
       </c>
       <c r="D93" t="n">
-        <v>0.262516</v>
+        <v>0.260753</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.229968</v>
+        <v>0.23195</v>
       </c>
       <c r="C94" t="n">
-        <v>0.241894</v>
+        <v>0.243451</v>
       </c>
       <c r="D94" t="n">
-        <v>0.283382</v>
+        <v>0.280532</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.317601</v>
+        <v>0.319075</v>
       </c>
       <c r="C95" t="n">
-        <v>0.259431</v>
+        <v>0.257399</v>
       </c>
       <c r="D95" t="n">
-        <v>0.278914</v>
+        <v>0.278507</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.318982</v>
+        <v>0.318366</v>
       </c>
       <c r="C96" t="n">
-        <v>0.255099</v>
+        <v>0.253911</v>
       </c>
       <c r="D96" t="n">
-        <v>0.275663</v>
+        <v>0.282236</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.306016</v>
+        <v>0.312728</v>
       </c>
       <c r="C97" t="n">
-        <v>0.254367</v>
+        <v>0.254942</v>
       </c>
       <c r="D97" t="n">
-        <v>0.279557</v>
+        <v>0.27818</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.302524</v>
+        <v>0.302616</v>
       </c>
       <c r="C98" t="n">
-        <v>0.252095</v>
+        <v>0.254149</v>
       </c>
       <c r="D98" t="n">
-        <v>0.273465</v>
+        <v>0.276429</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.302938</v>
+        <v>0.298867</v>
       </c>
       <c r="C99" t="n">
-        <v>0.250661</v>
+        <v>0.25008</v>
       </c>
       <c r="D99" t="n">
-        <v>0.269776</v>
+        <v>0.270328</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.291912</v>
+        <v>0.288368</v>
       </c>
       <c r="C100" t="n">
-        <v>0.251154</v>
+        <v>0.249868</v>
       </c>
       <c r="D100" t="n">
-        <v>0.267254</v>
+        <v>0.272379</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.286936</v>
+        <v>0.289897</v>
       </c>
       <c r="C101" t="n">
-        <v>0.250432</v>
+        <v>0.252706</v>
       </c>
       <c r="D101" t="n">
-        <v>0.268983</v>
+        <v>0.270377</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.279597</v>
+        <v>0.279585</v>
       </c>
       <c r="C102" t="n">
-        <v>0.247328</v>
+        <v>0.247689</v>
       </c>
       <c r="D102" t="n">
-        <v>0.267011</v>
+        <v>0.268578</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.269753</v>
+        <v>0.273961</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245594</v>
+        <v>0.250389</v>
       </c>
       <c r="D103" t="n">
-        <v>0.26612</v>
+        <v>0.264312</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.265113</v>
+        <v>0.26307</v>
       </c>
       <c r="C104" t="n">
-        <v>0.249788</v>
+        <v>0.242174</v>
       </c>
       <c r="D104" t="n">
-        <v>0.268275</v>
+        <v>0.267873</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.255889</v>
+        <v>0.258042</v>
       </c>
       <c r="C105" t="n">
-        <v>0.247107</v>
+        <v>0.248636</v>
       </c>
       <c r="D105" t="n">
-        <v>0.26403</v>
+        <v>0.262344</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.246335</v>
+        <v>0.251133</v>
       </c>
       <c r="C106" t="n">
-        <v>0.24192</v>
+        <v>0.245534</v>
       </c>
       <c r="D106" t="n">
-        <v>0.263006</v>
+        <v>0.265198</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.245596</v>
+        <v>0.242171</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242577</v>
+        <v>0.242968</v>
       </c>
       <c r="D107" t="n">
-        <v>0.261733</v>
+        <v>0.263391</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.234209</v>
+        <v>0.237332</v>
       </c>
       <c r="C108" t="n">
-        <v>0.24327</v>
+        <v>0.245809</v>
       </c>
       <c r="D108" t="n">
-        <v>0.28211</v>
+        <v>0.284071</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.223383</v>
+        <v>0.225635</v>
       </c>
       <c r="C109" t="n">
-        <v>0.24292</v>
+        <v>0.245193</v>
       </c>
       <c r="D109" t="n">
-        <v>0.281316</v>
+        <v>0.281311</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.314335</v>
+        <v>0.313398</v>
       </c>
       <c r="C110" t="n">
-        <v>0.260723</v>
+        <v>0.259343</v>
       </c>
       <c r="D110" t="n">
-        <v>0.279074</v>
+        <v>0.27743</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.310494</v>
+        <v>0.31141</v>
       </c>
       <c r="C111" t="n">
-        <v>0.252315</v>
+        <v>0.254738</v>
       </c>
       <c r="D111" t="n">
-        <v>0.274136</v>
+        <v>0.277159</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.304648</v>
+        <v>0.308377</v>
       </c>
       <c r="C112" t="n">
-        <v>0.252787</v>
+        <v>0.254069</v>
       </c>
       <c r="D112" t="n">
-        <v>0.276177</v>
+        <v>0.279236</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.296331</v>
+        <v>0.296966</v>
       </c>
       <c r="C113" t="n">
-        <v>0.251896</v>
+        <v>0.25368</v>
       </c>
       <c r="D113" t="n">
-        <v>0.270863</v>
+        <v>0.270563</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.292426</v>
+        <v>0.289568</v>
       </c>
       <c r="C114" t="n">
-        <v>0.252337</v>
+        <v>0.249253</v>
       </c>
       <c r="D114" t="n">
-        <v>0.27031</v>
+        <v>0.27946</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.286041</v>
+        <v>0.283614</v>
       </c>
       <c r="C115" t="n">
-        <v>0.250341</v>
+        <v>0.252154</v>
       </c>
       <c r="D115" t="n">
-        <v>0.267398</v>
+        <v>0.273243</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.278989</v>
+        <v>0.281415</v>
       </c>
       <c r="C116" t="n">
-        <v>0.246294</v>
+        <v>0.249691</v>
       </c>
       <c r="D116" t="n">
-        <v>0.266489</v>
+        <v>0.267864</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.270758</v>
+        <v>0.27704</v>
       </c>
       <c r="C117" t="n">
-        <v>0.24912</v>
+        <v>0.246941</v>
       </c>
       <c r="D117" t="n">
-        <v>0.267639</v>
+        <v>0.268788</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.270771</v>
+        <v>0.272071</v>
       </c>
       <c r="C118" t="n">
-        <v>0.246621</v>
+        <v>0.249574</v>
       </c>
       <c r="D118" t="n">
-        <v>0.264889</v>
+        <v>0.268491</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.261856</v>
+        <v>0.264049</v>
       </c>
       <c r="C119" t="n">
-        <v>0.249667</v>
+        <v>0.245101</v>
       </c>
       <c r="D119" t="n">
-        <v>0.26576</v>
+        <v>0.263612</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.252949</v>
+        <v>0.257363</v>
       </c>
       <c r="C120" t="n">
-        <v>0.250963</v>
+        <v>0.247268</v>
       </c>
       <c r="D120" t="n">
-        <v>0.261998</v>
+        <v>0.26472</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.247539</v>
+        <v>0.243552</v>
       </c>
       <c r="C121" t="n">
-        <v>0.241556</v>
+        <v>0.242083</v>
       </c>
       <c r="D121" t="n">
-        <v>0.260709</v>
+        <v>0.260951</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.233411</v>
+        <v>0.236335</v>
       </c>
       <c r="C122" t="n">
-        <v>0.247772</v>
+        <v>0.243589</v>
       </c>
       <c r="D122" t="n">
-        <v>0.263991</v>
+        <v>0.260887</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.224498</v>
+        <v>0.225521</v>
       </c>
       <c r="C123" t="n">
-        <v>0.248268</v>
+        <v>0.242676</v>
       </c>
       <c r="D123" t="n">
-        <v>0.279511</v>
+        <v>0.27984</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.312294</v>
+        <v>0.316819</v>
       </c>
       <c r="C124" t="n">
-        <v>0.257072</v>
+        <v>0.259087</v>
       </c>
       <c r="D124" t="n">
-        <v>0.275826</v>
+        <v>0.286121</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.309993</v>
+        <v>0.313844</v>
       </c>
       <c r="C125" t="n">
-        <v>0.255912</v>
+        <v>0.259002</v>
       </c>
       <c r="D125" t="n">
-        <v>0.276804</v>
+        <v>0.277129</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.306444</v>
+        <v>0.308664</v>
       </c>
       <c r="C126" t="n">
-        <v>0.253864</v>
+        <v>0.260454</v>
       </c>
       <c r="D126" t="n">
-        <v>0.274922</v>
+        <v>0.274483</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.307452</v>
+        <v>0.300426</v>
       </c>
       <c r="C127" t="n">
-        <v>0.250337</v>
+        <v>0.250766</v>
       </c>
       <c r="D127" t="n">
-        <v>0.273369</v>
+        <v>0.273392</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.299171</v>
+        <v>0.297669</v>
       </c>
       <c r="C128" t="n">
-        <v>0.250964</v>
+        <v>0.256557</v>
       </c>
       <c r="D128" t="n">
-        <v>0.2737</v>
+        <v>0.270928</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.285805</v>
+        <v>0.292741</v>
       </c>
       <c r="C129" t="n">
-        <v>0.2487</v>
+        <v>0.249119</v>
       </c>
       <c r="D129" t="n">
-        <v>0.272141</v>
+        <v>0.27008</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.284059</v>
+        <v>0.281896</v>
       </c>
       <c r="C130" t="n">
-        <v>0.244853</v>
+        <v>0.24697</v>
       </c>
       <c r="D130" t="n">
-        <v>0.266102</v>
+        <v>0.266607</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.272511</v>
+        <v>0.274323</v>
       </c>
       <c r="C131" t="n">
-        <v>0.246169</v>
+        <v>0.247587</v>
       </c>
       <c r="D131" t="n">
-        <v>0.267727</v>
+        <v>0.266337</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.26758</v>
+        <v>0.27079</v>
       </c>
       <c r="C132" t="n">
-        <v>0.244632</v>
+        <v>0.246426</v>
       </c>
       <c r="D132" t="n">
-        <v>0.265799</v>
+        <v>0.265446</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.261306</v>
+        <v>0.25852</v>
       </c>
       <c r="C133" t="n">
-        <v>0.250446</v>
+        <v>0.246459</v>
       </c>
       <c r="D133" t="n">
-        <v>0.2644</v>
+        <v>0.26987</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.253404</v>
+        <v>0.253431</v>
       </c>
       <c r="C134" t="n">
-        <v>0.249474</v>
+        <v>0.242541</v>
       </c>
       <c r="D134" t="n">
-        <v>0.263114</v>
+        <v>0.264172</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.247705</v>
+        <v>0.244356</v>
       </c>
       <c r="C135" t="n">
-        <v>0.241082</v>
+        <v>0.247017</v>
       </c>
       <c r="D135" t="n">
-        <v>0.262059</v>
+        <v>0.266364</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.23198</v>
+        <v>0.234998</v>
       </c>
       <c r="C136" t="n">
-        <v>0.239611</v>
+        <v>0.251837</v>
       </c>
       <c r="D136" t="n">
-        <v>0.270735</v>
+        <v>0.267516</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.228043</v>
+        <v>0.22861</v>
       </c>
       <c r="C137" t="n">
-        <v>0.246531</v>
+        <v>0.242077</v>
       </c>
       <c r="D137" t="n">
-        <v>0.286394</v>
+        <v>0.281481</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.316738</v>
+        <v>0.313843</v>
       </c>
       <c r="C138" t="n">
-        <v>0.257906</v>
+        <v>0.259005</v>
       </c>
       <c r="D138" t="n">
-        <v>0.280014</v>
+        <v>0.276939</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.317728</v>
+        <v>0.318371</v>
       </c>
       <c r="C139" t="n">
-        <v>0.259741</v>
+        <v>0.26094</v>
       </c>
       <c r="D139" t="n">
-        <v>0.280363</v>
+        <v>0.279694</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.301087</v>
+        <v>0.307698</v>
       </c>
       <c r="C140" t="n">
-        <v>0.252942</v>
+        <v>0.261203</v>
       </c>
       <c r="D140" t="n">
-        <v>0.278385</v>
+        <v>0.283072</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.301407</v>
+        <v>0.2984</v>
       </c>
       <c r="C141" t="n">
-        <v>0.253228</v>
+        <v>0.255305</v>
       </c>
       <c r="D141" t="n">
-        <v>0.278121</v>
+        <v>0.272814</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.295345</v>
+        <v>0.295677</v>
       </c>
       <c r="C142" t="n">
-        <v>0.25438</v>
+        <v>0.252612</v>
       </c>
       <c r="D142" t="n">
-        <v>0.276913</v>
+        <v>0.270491</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.286055</v>
+        <v>0.28667</v>
       </c>
       <c r="C143" t="n">
-        <v>0.24895</v>
+        <v>0.248491</v>
       </c>
       <c r="D143" t="n">
-        <v>0.269607</v>
+        <v>0.270921</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.275242</v>
+        <v>0.259858</v>
       </c>
       <c r="C2" t="n">
-        <v>0.238975</v>
+        <v>0.241393</v>
       </c>
       <c r="D2" t="n">
-        <v>0.251198</v>
+        <v>0.251528</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.267076</v>
+        <v>0.251828</v>
       </c>
       <c r="C3" t="n">
-        <v>0.234623</v>
+        <v>0.241804</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25468</v>
+        <v>0.249971</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.258963</v>
+        <v>0.242649</v>
       </c>
       <c r="C4" t="n">
-        <v>0.239084</v>
+        <v>0.24373</v>
       </c>
       <c r="D4" t="n">
-        <v>0.257302</v>
+        <v>0.250844</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.251282</v>
+        <v>0.243271</v>
       </c>
       <c r="C5" t="n">
-        <v>0.235483</v>
+        <v>0.239465</v>
       </c>
       <c r="D5" t="n">
-        <v>0.248234</v>
+        <v>0.246028</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.240695</v>
+        <v>0.234978</v>
       </c>
       <c r="C6" t="n">
-        <v>0.236602</v>
+        <v>0.236605</v>
       </c>
       <c r="D6" t="n">
-        <v>0.255373</v>
+        <v>0.244654</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.233746</v>
+        <v>0.224268</v>
       </c>
       <c r="C7" t="n">
-        <v>0.234039</v>
+        <v>0.236312</v>
       </c>
       <c r="D7" t="n">
-        <v>0.250201</v>
+        <v>0.243175</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2259</v>
+        <v>0.21944</v>
       </c>
       <c r="C8" t="n">
-        <v>0.239464</v>
+        <v>0.231698</v>
       </c>
       <c r="D8" t="n">
-        <v>0.254813</v>
+        <v>0.236728</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.217579</v>
+        <v>0.202805</v>
       </c>
       <c r="C9" t="n">
-        <v>0.239232</v>
+        <v>0.236334</v>
       </c>
       <c r="D9" t="n">
-        <v>0.258037</v>
+        <v>0.252167</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.306663</v>
+        <v>0.2906</v>
       </c>
       <c r="C10" t="n">
-        <v>0.235568</v>
+        <v>0.242608</v>
       </c>
       <c r="D10" t="n">
-        <v>0.254779</v>
+        <v>0.25667</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.297046</v>
+        <v>0.287385</v>
       </c>
       <c r="C11" t="n">
-        <v>0.239216</v>
+        <v>0.241708</v>
       </c>
       <c r="D11" t="n">
-        <v>0.255895</v>
+        <v>0.253267</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.291623</v>
+        <v>0.285326</v>
       </c>
       <c r="C12" t="n">
-        <v>0.238752</v>
+        <v>0.244339</v>
       </c>
       <c r="D12" t="n">
-        <v>0.256585</v>
+        <v>0.250798</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.285212</v>
+        <v>0.273114</v>
       </c>
       <c r="C13" t="n">
-        <v>0.234906</v>
+        <v>0.2377</v>
       </c>
       <c r="D13" t="n">
-        <v>0.256282</v>
+        <v>0.244846</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.279517</v>
+        <v>0.274107</v>
       </c>
       <c r="C14" t="n">
-        <v>0.237985</v>
+        <v>0.243388</v>
       </c>
       <c r="D14" t="n">
-        <v>0.254241</v>
+        <v>0.244372</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.273639</v>
+        <v>0.259456</v>
       </c>
       <c r="C15" t="n">
-        <v>0.233986</v>
+        <v>0.238105</v>
       </c>
       <c r="D15" t="n">
-        <v>0.254575</v>
+        <v>0.249611</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.27173</v>
+        <v>0.254517</v>
       </c>
       <c r="C16" t="n">
-        <v>0.235696</v>
+        <v>0.237363</v>
       </c>
       <c r="D16" t="n">
-        <v>0.254994</v>
+        <v>0.245932</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2635</v>
+        <v>0.246728</v>
       </c>
       <c r="C17" t="n">
-        <v>0.236461</v>
+        <v>0.236072</v>
       </c>
       <c r="D17" t="n">
-        <v>0.256939</v>
+        <v>0.242276</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.256905</v>
+        <v>0.24277</v>
       </c>
       <c r="C18" t="n">
-        <v>0.236153</v>
+        <v>0.2361</v>
       </c>
       <c r="D18" t="n">
-        <v>0.249641</v>
+        <v>0.247111</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.256417</v>
+        <v>0.236886</v>
       </c>
       <c r="C19" t="n">
-        <v>0.238</v>
+        <v>0.237599</v>
       </c>
       <c r="D19" t="n">
-        <v>0.249745</v>
+        <v>0.243591</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.243608</v>
+        <v>0.231202</v>
       </c>
       <c r="C20" t="n">
-        <v>0.237345</v>
+        <v>0.237551</v>
       </c>
       <c r="D20" t="n">
-        <v>0.252523</v>
+        <v>0.246628</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.23274</v>
+        <v>0.227969</v>
       </c>
       <c r="C21" t="n">
-        <v>0.233459</v>
+        <v>0.236192</v>
       </c>
       <c r="D21" t="n">
-        <v>0.252888</v>
+        <v>0.239687</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.228312</v>
+        <v>0.221</v>
       </c>
       <c r="C22" t="n">
-        <v>0.235188</v>
+        <v>0.2342</v>
       </c>
       <c r="D22" t="n">
-        <v>0.254132</v>
+        <v>0.24359</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.219788</v>
+        <v>0.20966</v>
       </c>
       <c r="C23" t="n">
-        <v>0.237009</v>
+        <v>0.24008</v>
       </c>
       <c r="D23" t="n">
-        <v>0.262056</v>
+        <v>0.258065</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.302727</v>
+        <v>0.290945</v>
       </c>
       <c r="C24" t="n">
-        <v>0.245277</v>
+        <v>0.245533</v>
       </c>
       <c r="D24" t="n">
-        <v>0.262146</v>
+        <v>0.253323</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.299528</v>
+        <v>0.28433</v>
       </c>
       <c r="C25" t="n">
-        <v>0.245892</v>
+        <v>0.24509</v>
       </c>
       <c r="D25" t="n">
-        <v>0.263842</v>
+        <v>0.25762</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.294064</v>
+        <v>0.277011</v>
       </c>
       <c r="C26" t="n">
-        <v>0.242996</v>
+        <v>0.241497</v>
       </c>
       <c r="D26" t="n">
-        <v>0.256114</v>
+        <v>0.255495</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.286233</v>
+        <v>0.275721</v>
       </c>
       <c r="C27" t="n">
-        <v>0.243339</v>
+        <v>0.253116</v>
       </c>
       <c r="D27" t="n">
-        <v>0.261946</v>
+        <v>0.25076</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.286256</v>
+        <v>0.264569</v>
       </c>
       <c r="C28" t="n">
-        <v>0.23766</v>
+        <v>0.239714</v>
       </c>
       <c r="D28" t="n">
-        <v>0.263591</v>
+        <v>0.254122</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.275606</v>
+        <v>0.263431</v>
       </c>
       <c r="C29" t="n">
-        <v>0.236836</v>
+        <v>0.238604</v>
       </c>
       <c r="D29" t="n">
-        <v>0.255982</v>
+        <v>0.256182</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.271819</v>
+        <v>0.254845</v>
       </c>
       <c r="C30" t="n">
-        <v>0.23725</v>
+        <v>0.237921</v>
       </c>
       <c r="D30" t="n">
-        <v>0.261149</v>
+        <v>0.252368</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.267161</v>
+        <v>0.251246</v>
       </c>
       <c r="C31" t="n">
-        <v>0.239933</v>
+        <v>0.241001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.258961</v>
+        <v>0.248226</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.26932</v>
+        <v>0.248774</v>
       </c>
       <c r="C32" t="n">
-        <v>0.235743</v>
+        <v>0.240825</v>
       </c>
       <c r="D32" t="n">
-        <v>0.253174</v>
+        <v>0.249721</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.255731</v>
+        <v>0.239547</v>
       </c>
       <c r="C33" t="n">
-        <v>0.239033</v>
+        <v>0.235464</v>
       </c>
       <c r="D33" t="n">
-        <v>0.253546</v>
+        <v>0.250264</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.247699</v>
+        <v>0.240359</v>
       </c>
       <c r="C34" t="n">
-        <v>0.237331</v>
+        <v>0.240028</v>
       </c>
       <c r="D34" t="n">
-        <v>0.256276</v>
+        <v>0.254489</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.240318</v>
+        <v>0.228645</v>
       </c>
       <c r="C35" t="n">
-        <v>0.239408</v>
+        <v>0.242755</v>
       </c>
       <c r="D35" t="n">
-        <v>0.255579</v>
+        <v>0.24805</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.230918</v>
+        <v>0.219839</v>
       </c>
       <c r="C36" t="n">
-        <v>0.235543</v>
+        <v>0.236449</v>
       </c>
       <c r="D36" t="n">
-        <v>0.25161</v>
+        <v>0.249957</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.226194</v>
+        <v>0.21343</v>
       </c>
       <c r="C37" t="n">
-        <v>0.23434</v>
+        <v>0.237947</v>
       </c>
       <c r="D37" t="n">
-        <v>0.266955</v>
+        <v>0.259606</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.30266</v>
+        <v>0.290499</v>
       </c>
       <c r="C38" t="n">
-        <v>0.244692</v>
+        <v>0.251486</v>
       </c>
       <c r="D38" t="n">
-        <v>0.264928</v>
+        <v>0.256374</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.298158</v>
+        <v>0.283065</v>
       </c>
       <c r="C39" t="n">
-        <v>0.243152</v>
+        <v>0.246166</v>
       </c>
       <c r="D39" t="n">
-        <v>0.267153</v>
+        <v>0.255396</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.295747</v>
+        <v>0.282274</v>
       </c>
       <c r="C40" t="n">
-        <v>0.242668</v>
+        <v>0.24941</v>
       </c>
       <c r="D40" t="n">
-        <v>0.265395</v>
+        <v>0.256584</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.288365</v>
+        <v>0.273009</v>
       </c>
       <c r="C41" t="n">
-        <v>0.242107</v>
+        <v>0.245904</v>
       </c>
       <c r="D41" t="n">
-        <v>0.260407</v>
+        <v>0.256685</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.29067</v>
+        <v>0.271282</v>
       </c>
       <c r="C42" t="n">
-        <v>0.241616</v>
+        <v>0.245163</v>
       </c>
       <c r="D42" t="n">
-        <v>0.259624</v>
+        <v>0.257016</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.280148</v>
+        <v>0.262799</v>
       </c>
       <c r="C43" t="n">
-        <v>0.242349</v>
+        <v>0.243415</v>
       </c>
       <c r="D43" t="n">
-        <v>0.257993</v>
+        <v>0.253235</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.275388</v>
+        <v>0.262493</v>
       </c>
       <c r="C44" t="n">
-        <v>0.237677</v>
+        <v>0.239825</v>
       </c>
       <c r="D44" t="n">
-        <v>0.258452</v>
+        <v>0.252385</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.274227</v>
+        <v>0.258427</v>
       </c>
       <c r="C45" t="n">
-        <v>0.237105</v>
+        <v>0.241303</v>
       </c>
       <c r="D45" t="n">
-        <v>0.260986</v>
+        <v>0.253488</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.263243</v>
+        <v>0.25188</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245121</v>
+        <v>0.238774</v>
       </c>
       <c r="D46" t="n">
-        <v>0.257457</v>
+        <v>0.248876</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.254871</v>
+        <v>0.242856</v>
       </c>
       <c r="C47" t="n">
-        <v>0.242713</v>
+        <v>0.239554</v>
       </c>
       <c r="D47" t="n">
-        <v>0.25772</v>
+        <v>0.248393</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.25259</v>
+        <v>0.23802</v>
       </c>
       <c r="C48" t="n">
-        <v>0.241311</v>
+        <v>0.2383</v>
       </c>
       <c r="D48" t="n">
-        <v>0.253276</v>
+        <v>0.249154</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.241829</v>
+        <v>0.229111</v>
       </c>
       <c r="C49" t="n">
-        <v>0.233882</v>
+        <v>0.241152</v>
       </c>
       <c r="D49" t="n">
-        <v>0.251795</v>
+        <v>0.249215</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.23259</v>
+        <v>0.226925</v>
       </c>
       <c r="C50" t="n">
-        <v>0.236475</v>
+        <v>0.238496</v>
       </c>
       <c r="D50" t="n">
-        <v>0.256955</v>
+        <v>0.24619</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.228809</v>
+        <v>0.220645</v>
       </c>
       <c r="C51" t="n">
-        <v>0.237819</v>
+        <v>0.238813</v>
       </c>
       <c r="D51" t="n">
-        <v>0.271292</v>
+        <v>0.264757</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.218602</v>
+        <v>0.205754</v>
       </c>
       <c r="C52" t="n">
-        <v>0.23452</v>
+        <v>0.244241</v>
       </c>
       <c r="D52" t="n">
-        <v>0.267114</v>
+        <v>0.262172</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.299476</v>
+        <v>0.288245</v>
       </c>
       <c r="C53" t="n">
-        <v>0.246258</v>
+        <v>0.25103</v>
       </c>
       <c r="D53" t="n">
-        <v>0.267708</v>
+        <v>0.26124</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.304477</v>
+        <v>0.288352</v>
       </c>
       <c r="C54" t="n">
-        <v>0.245192</v>
+        <v>0.249553</v>
       </c>
       <c r="D54" t="n">
-        <v>0.269397</v>
+        <v>0.259034</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.294629</v>
+        <v>0.27931</v>
       </c>
       <c r="C55" t="n">
-        <v>0.244038</v>
+        <v>0.248337</v>
       </c>
       <c r="D55" t="n">
-        <v>0.262907</v>
+        <v>0.257288</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.288885</v>
+        <v>0.272444</v>
       </c>
       <c r="C56" t="n">
-        <v>0.241563</v>
+        <v>0.248839</v>
       </c>
       <c r="D56" t="n">
-        <v>0.264051</v>
+        <v>0.25466</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.281601</v>
+        <v>0.267806</v>
       </c>
       <c r="C57" t="n">
-        <v>0.242598</v>
+        <v>0.242086</v>
       </c>
       <c r="D57" t="n">
-        <v>0.260034</v>
+        <v>0.25541</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.278454</v>
+        <v>0.263214</v>
       </c>
       <c r="C58" t="n">
-        <v>0.242012</v>
+        <v>0.244954</v>
       </c>
       <c r="D58" t="n">
-        <v>0.257825</v>
+        <v>0.254504</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.271391</v>
+        <v>0.259107</v>
       </c>
       <c r="C59" t="n">
-        <v>0.242862</v>
+        <v>0.242441</v>
       </c>
       <c r="D59" t="n">
-        <v>0.259249</v>
+        <v>0.253686</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.264814</v>
+        <v>0.250866</v>
       </c>
       <c r="C60" t="n">
-        <v>0.238781</v>
+        <v>0.240371</v>
       </c>
       <c r="D60" t="n">
-        <v>0.260164</v>
+        <v>0.252605</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.259201</v>
+        <v>0.245822</v>
       </c>
       <c r="C61" t="n">
-        <v>0.238674</v>
+        <v>0.242636</v>
       </c>
       <c r="D61" t="n">
-        <v>0.261394</v>
+        <v>0.25037</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.251716</v>
+        <v>0.238193</v>
       </c>
       <c r="C62" t="n">
-        <v>0.238128</v>
+        <v>0.237459</v>
       </c>
       <c r="D62" t="n">
-        <v>0.258437</v>
+        <v>0.248653</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.245638</v>
+        <v>0.233734</v>
       </c>
       <c r="C63" t="n">
-        <v>0.241162</v>
+        <v>0.241043</v>
       </c>
       <c r="D63" t="n">
-        <v>0.256805</v>
+        <v>0.251204</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.24096</v>
+        <v>0.224854</v>
       </c>
       <c r="C64" t="n">
-        <v>0.240683</v>
+        <v>0.24305</v>
       </c>
       <c r="D64" t="n">
-        <v>0.254296</v>
+        <v>0.246989</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.229477</v>
+        <v>0.219431</v>
       </c>
       <c r="C65" t="n">
-        <v>0.237475</v>
+        <v>0.240217</v>
       </c>
       <c r="D65" t="n">
-        <v>0.253278</v>
+        <v>0.249411</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.217831</v>
+        <v>0.21154</v>
       </c>
       <c r="C66" t="n">
-        <v>0.239579</v>
+        <v>0.241354</v>
       </c>
       <c r="D66" t="n">
-        <v>0.274407</v>
+        <v>0.265178</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.310392</v>
+        <v>0.296587</v>
       </c>
       <c r="C67" t="n">
-        <v>0.251835</v>
+        <v>0.253968</v>
       </c>
       <c r="D67" t="n">
-        <v>0.271163</v>
+        <v>0.264844</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.308147</v>
+        <v>0.293084</v>
       </c>
       <c r="C68" t="n">
-        <v>0.25102</v>
+        <v>0.251599</v>
       </c>
       <c r="D68" t="n">
-        <v>0.268886</v>
+        <v>0.268728</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.300424</v>
+        <v>0.293037</v>
       </c>
       <c r="C69" t="n">
-        <v>0.24841</v>
+        <v>0.251234</v>
       </c>
       <c r="D69" t="n">
-        <v>0.268353</v>
+        <v>0.260562</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.291401</v>
+        <v>0.281619</v>
       </c>
       <c r="C70" t="n">
-        <v>0.248679</v>
+        <v>0.250388</v>
       </c>
       <c r="D70" t="n">
-        <v>0.269288</v>
+        <v>0.261405</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.289389</v>
+        <v>0.275534</v>
       </c>
       <c r="C71" t="n">
-        <v>0.247834</v>
+        <v>0.252707</v>
       </c>
       <c r="D71" t="n">
-        <v>0.267875</v>
+        <v>0.262909</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.283103</v>
+        <v>0.267802</v>
       </c>
       <c r="C72" t="n">
-        <v>0.243931</v>
+        <v>0.250849</v>
       </c>
       <c r="D72" t="n">
-        <v>0.266458</v>
+        <v>0.258023</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.274916</v>
+        <v>0.259644</v>
       </c>
       <c r="C73" t="n">
-        <v>0.245929</v>
+        <v>0.249012</v>
       </c>
       <c r="D73" t="n">
-        <v>0.264467</v>
+        <v>0.257625</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.27316</v>
+        <v>0.257485</v>
       </c>
       <c r="C74" t="n">
-        <v>0.243197</v>
+        <v>0.248805</v>
       </c>
       <c r="D74" t="n">
-        <v>0.267335</v>
+        <v>0.255658</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.262136</v>
+        <v>0.250516</v>
       </c>
       <c r="C75" t="n">
-        <v>0.242519</v>
+        <v>0.247983</v>
       </c>
       <c r="D75" t="n">
-        <v>0.263181</v>
+        <v>0.257718</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.257896</v>
+        <v>0.245426</v>
       </c>
       <c r="C76" t="n">
-        <v>0.244265</v>
+        <v>0.248276</v>
       </c>
       <c r="D76" t="n">
-        <v>0.260906</v>
+        <v>0.252452</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.252139</v>
+        <v>0.237467</v>
       </c>
       <c r="C77" t="n">
-        <v>0.242986</v>
+        <v>0.24256</v>
       </c>
       <c r="D77" t="n">
-        <v>0.262193</v>
+        <v>0.252293</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.243927</v>
+        <v>0.233018</v>
       </c>
       <c r="C78" t="n">
-        <v>0.247206</v>
+        <v>0.243734</v>
       </c>
       <c r="D78" t="n">
-        <v>0.263329</v>
+        <v>0.251039</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234415</v>
+        <v>0.224213</v>
       </c>
       <c r="C79" t="n">
-        <v>0.239961</v>
+        <v>0.244703</v>
       </c>
       <c r="D79" t="n">
-        <v>0.256717</v>
+        <v>0.254752</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.226876</v>
+        <v>0.213834</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241059</v>
+        <v>0.244052</v>
       </c>
       <c r="D80" t="n">
-        <v>0.283587</v>
+        <v>0.272776</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.321804</v>
+        <v>0.301624</v>
       </c>
       <c r="C81" t="n">
-        <v>0.257553</v>
+        <v>0.264018</v>
       </c>
       <c r="D81" t="n">
-        <v>0.279899</v>
+        <v>0.272896</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.313204</v>
+        <v>0.29511</v>
       </c>
       <c r="C82" t="n">
-        <v>0.253942</v>
+        <v>0.264673</v>
       </c>
       <c r="D82" t="n">
-        <v>0.274778</v>
+        <v>0.269489</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.306206</v>
+        <v>0.286901</v>
       </c>
       <c r="C83" t="n">
-        <v>0.251489</v>
+        <v>0.253634</v>
       </c>
       <c r="D83" t="n">
-        <v>0.274793</v>
+        <v>0.269594</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.303713</v>
+        <v>0.287913</v>
       </c>
       <c r="C84" t="n">
-        <v>0.257729</v>
+        <v>0.258157</v>
       </c>
       <c r="D84" t="n">
-        <v>0.275</v>
+        <v>0.267232</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.29609</v>
+        <v>0.279861</v>
       </c>
       <c r="C85" t="n">
-        <v>0.257188</v>
+        <v>0.255134</v>
       </c>
       <c r="D85" t="n">
-        <v>0.270013</v>
+        <v>0.266985</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.295852</v>
+        <v>0.271896</v>
       </c>
       <c r="C86" t="n">
-        <v>0.252942</v>
+        <v>0.251053</v>
       </c>
       <c r="D86" t="n">
-        <v>0.272828</v>
+        <v>0.262837</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.285865</v>
+        <v>0.267869</v>
       </c>
       <c r="C87" t="n">
-        <v>0.246746</v>
+        <v>0.254243</v>
       </c>
       <c r="D87" t="n">
-        <v>0.266768</v>
+        <v>0.260628</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.276123</v>
+        <v>0.262503</v>
       </c>
       <c r="C88" t="n">
-        <v>0.244609</v>
+        <v>0.248969</v>
       </c>
       <c r="D88" t="n">
-        <v>0.265643</v>
+        <v>0.263464</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.269792</v>
+        <v>0.252589</v>
       </c>
       <c r="C89" t="n">
-        <v>0.246804</v>
+        <v>0.251269</v>
       </c>
       <c r="D89" t="n">
-        <v>0.264237</v>
+        <v>0.255852</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.263222</v>
+        <v>0.246282</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244533</v>
+        <v>0.248345</v>
       </c>
       <c r="D90" t="n">
-        <v>0.270907</v>
+        <v>0.258387</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.259935</v>
+        <v>0.241601</v>
       </c>
       <c r="C91" t="n">
-        <v>0.241887</v>
+        <v>0.249573</v>
       </c>
       <c r="D91" t="n">
-        <v>0.262813</v>
+        <v>0.253005</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.251356</v>
+        <v>0.237975</v>
       </c>
       <c r="C92" t="n">
-        <v>0.243933</v>
+        <v>0.248277</v>
       </c>
       <c r="D92" t="n">
-        <v>0.263355</v>
+        <v>0.257292</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.241035</v>
+        <v>0.225055</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242961</v>
+        <v>0.244009</v>
       </c>
       <c r="D93" t="n">
-        <v>0.260753</v>
+        <v>0.253702</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.23195</v>
+        <v>0.219884</v>
       </c>
       <c r="C94" t="n">
-        <v>0.243451</v>
+        <v>0.245135</v>
       </c>
       <c r="D94" t="n">
-        <v>0.280532</v>
+        <v>0.271629</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.319075</v>
+        <v>0.300169</v>
       </c>
       <c r="C95" t="n">
-        <v>0.257399</v>
+        <v>0.261586</v>
       </c>
       <c r="D95" t="n">
-        <v>0.278507</v>
+        <v>0.270765</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.318366</v>
+        <v>0.300025</v>
       </c>
       <c r="C96" t="n">
-        <v>0.253911</v>
+        <v>0.257636</v>
       </c>
       <c r="D96" t="n">
-        <v>0.282236</v>
+        <v>0.273588</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.312728</v>
+        <v>0.294924</v>
       </c>
       <c r="C97" t="n">
-        <v>0.254942</v>
+        <v>0.256829</v>
       </c>
       <c r="D97" t="n">
-        <v>0.27818</v>
+        <v>0.267682</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.302616</v>
+        <v>0.299624</v>
       </c>
       <c r="C98" t="n">
-        <v>0.254149</v>
+        <v>0.2564</v>
       </c>
       <c r="D98" t="n">
-        <v>0.276429</v>
+        <v>0.269359</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.298867</v>
+        <v>0.280895</v>
       </c>
       <c r="C99" t="n">
-        <v>0.25008</v>
+        <v>0.254546</v>
       </c>
       <c r="D99" t="n">
-        <v>0.270328</v>
+        <v>0.262316</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.288368</v>
+        <v>0.274996</v>
       </c>
       <c r="C100" t="n">
-        <v>0.249868</v>
+        <v>0.251335</v>
       </c>
       <c r="D100" t="n">
-        <v>0.272379</v>
+        <v>0.261633</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.289897</v>
+        <v>0.270461</v>
       </c>
       <c r="C101" t="n">
-        <v>0.252706</v>
+        <v>0.252311</v>
       </c>
       <c r="D101" t="n">
-        <v>0.270377</v>
+        <v>0.265246</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.279585</v>
+        <v>0.268957</v>
       </c>
       <c r="C102" t="n">
-        <v>0.247689</v>
+        <v>0.251231</v>
       </c>
       <c r="D102" t="n">
-        <v>0.268578</v>
+        <v>0.259465</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.273961</v>
+        <v>0.258406</v>
       </c>
       <c r="C103" t="n">
-        <v>0.250389</v>
+        <v>0.252197</v>
       </c>
       <c r="D103" t="n">
-        <v>0.264312</v>
+        <v>0.259532</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.26307</v>
+        <v>0.252716</v>
       </c>
       <c r="C104" t="n">
-        <v>0.242174</v>
+        <v>0.246255</v>
       </c>
       <c r="D104" t="n">
-        <v>0.267873</v>
+        <v>0.256175</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.258042</v>
+        <v>0.245585</v>
       </c>
       <c r="C105" t="n">
-        <v>0.248636</v>
+        <v>0.245664</v>
       </c>
       <c r="D105" t="n">
-        <v>0.262344</v>
+        <v>0.26506</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.251133</v>
+        <v>0.238729</v>
       </c>
       <c r="C106" t="n">
-        <v>0.245534</v>
+        <v>0.248124</v>
       </c>
       <c r="D106" t="n">
-        <v>0.265198</v>
+        <v>0.256282</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.242171</v>
+        <v>0.234025</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242968</v>
+        <v>0.24685</v>
       </c>
       <c r="D107" t="n">
-        <v>0.263391</v>
+        <v>0.25281</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.237332</v>
+        <v>0.220879</v>
       </c>
       <c r="C108" t="n">
-        <v>0.245809</v>
+        <v>0.245868</v>
       </c>
       <c r="D108" t="n">
-        <v>0.284071</v>
+        <v>0.275027</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.225635</v>
+        <v>0.215902</v>
       </c>
       <c r="C109" t="n">
-        <v>0.245193</v>
+        <v>0.245165</v>
       </c>
       <c r="D109" t="n">
-        <v>0.281311</v>
+        <v>0.270536</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.313398</v>
+        <v>0.298141</v>
       </c>
       <c r="C110" t="n">
-        <v>0.259343</v>
+        <v>0.26053</v>
       </c>
       <c r="D110" t="n">
-        <v>0.27743</v>
+        <v>0.274784</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.31141</v>
+        <v>0.296268</v>
       </c>
       <c r="C111" t="n">
-        <v>0.254738</v>
+        <v>0.260912</v>
       </c>
       <c r="D111" t="n">
-        <v>0.277159</v>
+        <v>0.269566</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.308377</v>
+        <v>0.286321</v>
       </c>
       <c r="C112" t="n">
-        <v>0.254069</v>
+        <v>0.256472</v>
       </c>
       <c r="D112" t="n">
-        <v>0.279236</v>
+        <v>0.266761</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.296966</v>
+        <v>0.287754</v>
       </c>
       <c r="C113" t="n">
-        <v>0.25368</v>
+        <v>0.258266</v>
       </c>
       <c r="D113" t="n">
-        <v>0.270563</v>
+        <v>0.267797</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.289568</v>
+        <v>0.28193</v>
       </c>
       <c r="C114" t="n">
-        <v>0.249253</v>
+        <v>0.254602</v>
       </c>
       <c r="D114" t="n">
-        <v>0.27946</v>
+        <v>0.264599</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.283614</v>
+        <v>0.276652</v>
       </c>
       <c r="C115" t="n">
-        <v>0.252154</v>
+        <v>0.252665</v>
       </c>
       <c r="D115" t="n">
-        <v>0.273243</v>
+        <v>0.264094</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.281415</v>
+        <v>0.262826</v>
       </c>
       <c r="C116" t="n">
-        <v>0.249691</v>
+        <v>0.249915</v>
       </c>
       <c r="D116" t="n">
-        <v>0.267864</v>
+        <v>0.260749</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.27704</v>
+        <v>0.259246</v>
       </c>
       <c r="C117" t="n">
-        <v>0.246941</v>
+        <v>0.247427</v>
       </c>
       <c r="D117" t="n">
-        <v>0.268788</v>
+        <v>0.25998</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.272071</v>
+        <v>0.257009</v>
       </c>
       <c r="C118" t="n">
-        <v>0.249574</v>
+        <v>0.252752</v>
       </c>
       <c r="D118" t="n">
-        <v>0.268491</v>
+        <v>0.259618</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.264049</v>
+        <v>0.246256</v>
       </c>
       <c r="C119" t="n">
-        <v>0.245101</v>
+        <v>0.250295</v>
       </c>
       <c r="D119" t="n">
-        <v>0.263612</v>
+        <v>0.2575</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.257363</v>
+        <v>0.238015</v>
       </c>
       <c r="C120" t="n">
-        <v>0.247268</v>
+        <v>0.245683</v>
       </c>
       <c r="D120" t="n">
-        <v>0.26472</v>
+        <v>0.255645</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.243552</v>
+        <v>0.232215</v>
       </c>
       <c r="C121" t="n">
-        <v>0.242083</v>
+        <v>0.243672</v>
       </c>
       <c r="D121" t="n">
-        <v>0.260951</v>
+        <v>0.253612</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.236335</v>
+        <v>0.224759</v>
       </c>
       <c r="C122" t="n">
-        <v>0.243589</v>
+        <v>0.250511</v>
       </c>
       <c r="D122" t="n">
-        <v>0.260887</v>
+        <v>0.254219</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.225521</v>
+        <v>0.218318</v>
       </c>
       <c r="C123" t="n">
-        <v>0.242676</v>
+        <v>0.24487</v>
       </c>
       <c r="D123" t="n">
-        <v>0.27984</v>
+        <v>0.273628</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.316819</v>
+        <v>0.307807</v>
       </c>
       <c r="C124" t="n">
-        <v>0.259087</v>
+        <v>0.261155</v>
       </c>
       <c r="D124" t="n">
-        <v>0.286121</v>
+        <v>0.269887</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.313844</v>
+        <v>0.294543</v>
       </c>
       <c r="C125" t="n">
-        <v>0.259002</v>
+        <v>0.259103</v>
       </c>
       <c r="D125" t="n">
-        <v>0.277129</v>
+        <v>0.268616</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.308664</v>
+        <v>0.288444</v>
       </c>
       <c r="C126" t="n">
-        <v>0.260454</v>
+        <v>0.256439</v>
       </c>
       <c r="D126" t="n">
-        <v>0.274483</v>
+        <v>0.272214</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.300426</v>
+        <v>0.285322</v>
       </c>
       <c r="C127" t="n">
-        <v>0.250766</v>
+        <v>0.254818</v>
       </c>
       <c r="D127" t="n">
-        <v>0.273392</v>
+        <v>0.269244</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.297669</v>
+        <v>0.280448</v>
       </c>
       <c r="C128" t="n">
-        <v>0.256557</v>
+        <v>0.25298</v>
       </c>
       <c r="D128" t="n">
-        <v>0.270928</v>
+        <v>0.265132</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.292741</v>
+        <v>0.274208</v>
       </c>
       <c r="C129" t="n">
-        <v>0.249119</v>
+        <v>0.25161</v>
       </c>
       <c r="D129" t="n">
-        <v>0.27008</v>
+        <v>0.263622</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.281896</v>
+        <v>0.270577</v>
       </c>
       <c r="C130" t="n">
-        <v>0.24697</v>
+        <v>0.248889</v>
       </c>
       <c r="D130" t="n">
-        <v>0.266607</v>
+        <v>0.266596</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.274323</v>
+        <v>0.260271</v>
       </c>
       <c r="C131" t="n">
-        <v>0.247587</v>
+        <v>0.250508</v>
       </c>
       <c r="D131" t="n">
-        <v>0.266337</v>
+        <v>0.263209</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.27079</v>
+        <v>0.256012</v>
       </c>
       <c r="C132" t="n">
-        <v>0.246426</v>
+        <v>0.253506</v>
       </c>
       <c r="D132" t="n">
-        <v>0.265446</v>
+        <v>0.255614</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.25852</v>
+        <v>0.246799</v>
       </c>
       <c r="C133" t="n">
-        <v>0.246459</v>
+        <v>0.249693</v>
       </c>
       <c r="D133" t="n">
-        <v>0.26987</v>
+        <v>0.263373</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.253431</v>
+        <v>0.241771</v>
       </c>
       <c r="C134" t="n">
-        <v>0.242541</v>
+        <v>0.246207</v>
       </c>
       <c r="D134" t="n">
-        <v>0.264172</v>
+        <v>0.255708</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.244356</v>
+        <v>0.233529</v>
       </c>
       <c r="C135" t="n">
-        <v>0.247017</v>
+        <v>0.244705</v>
       </c>
       <c r="D135" t="n">
-        <v>0.266364</v>
+        <v>0.259869</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.234998</v>
+        <v>0.22682</v>
       </c>
       <c r="C136" t="n">
-        <v>0.251837</v>
+        <v>0.249801</v>
       </c>
       <c r="D136" t="n">
-        <v>0.267516</v>
+        <v>0.252913</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.22861</v>
+        <v>0.218364</v>
       </c>
       <c r="C137" t="n">
-        <v>0.242077</v>
+        <v>0.247243</v>
       </c>
       <c r="D137" t="n">
-        <v>0.281481</v>
+        <v>0.276456</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.313843</v>
+        <v>0.306587</v>
       </c>
       <c r="C138" t="n">
-        <v>0.259005</v>
+        <v>0.262638</v>
       </c>
       <c r="D138" t="n">
-        <v>0.276939</v>
+        <v>0.271063</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.318371</v>
+        <v>0.29805</v>
       </c>
       <c r="C139" t="n">
-        <v>0.26094</v>
+        <v>0.256297</v>
       </c>
       <c r="D139" t="n">
-        <v>0.279694</v>
+        <v>0.267591</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.307698</v>
+        <v>0.289135</v>
       </c>
       <c r="C140" t="n">
-        <v>0.261203</v>
+        <v>0.264837</v>
       </c>
       <c r="D140" t="n">
-        <v>0.283072</v>
+        <v>0.271191</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.2984</v>
+        <v>0.283482</v>
       </c>
       <c r="C141" t="n">
-        <v>0.255305</v>
+        <v>0.251714</v>
       </c>
       <c r="D141" t="n">
-        <v>0.272814</v>
+        <v>0.264118</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.295677</v>
+        <v>0.276174</v>
       </c>
       <c r="C142" t="n">
-        <v>0.252612</v>
+        <v>0.25423</v>
       </c>
       <c r="D142" t="n">
-        <v>0.270491</v>
+        <v>0.269525</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.28667</v>
+        <v>0.274086</v>
       </c>
       <c r="C143" t="n">
-        <v>0.248491</v>
+        <v>0.251309</v>
       </c>
       <c r="D143" t="n">
-        <v>0.270921</v>
+        <v>0.261034</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.259858</v>
+        <v>0.279707</v>
       </c>
       <c r="C2" t="n">
-        <v>0.241393</v>
+        <v>0.244378</v>
       </c>
       <c r="D2" t="n">
-        <v>0.251528</v>
+        <v>0.255366</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.251828</v>
+        <v>0.268335</v>
       </c>
       <c r="C3" t="n">
-        <v>0.241804</v>
+        <v>0.237755</v>
       </c>
       <c r="D3" t="n">
-        <v>0.249971</v>
+        <v>0.253612</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.242649</v>
+        <v>0.25853</v>
       </c>
       <c r="C4" t="n">
-        <v>0.24373</v>
+        <v>0.236414</v>
       </c>
       <c r="D4" t="n">
-        <v>0.250844</v>
+        <v>0.249738</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.243271</v>
+        <v>0.250424</v>
       </c>
       <c r="C5" t="n">
-        <v>0.239465</v>
+        <v>0.237093</v>
       </c>
       <c r="D5" t="n">
-        <v>0.246028</v>
+        <v>0.248745</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.234978</v>
+        <v>0.238748</v>
       </c>
       <c r="C6" t="n">
-        <v>0.236605</v>
+        <v>0.23632</v>
       </c>
       <c r="D6" t="n">
-        <v>0.244654</v>
+        <v>0.247374</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224268</v>
+        <v>0.227063</v>
       </c>
       <c r="C7" t="n">
-        <v>0.236312</v>
+        <v>0.240482</v>
       </c>
       <c r="D7" t="n">
-        <v>0.243175</v>
+        <v>0.250111</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.21944</v>
+        <v>0.229543</v>
       </c>
       <c r="C8" t="n">
-        <v>0.231698</v>
+        <v>0.235783</v>
       </c>
       <c r="D8" t="n">
-        <v>0.236728</v>
+        <v>0.249723</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.202805</v>
+        <v>0.215381</v>
       </c>
       <c r="C9" t="n">
-        <v>0.236334</v>
+        <v>0.234624</v>
       </c>
       <c r="D9" t="n">
-        <v>0.252167</v>
+        <v>0.265503</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2906</v>
+        <v>0.303901</v>
       </c>
       <c r="C10" t="n">
-        <v>0.242608</v>
+        <v>0.241861</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25667</v>
+        <v>0.264998</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.287385</v>
+        <v>0.304292</v>
       </c>
       <c r="C11" t="n">
-        <v>0.241708</v>
+        <v>0.241407</v>
       </c>
       <c r="D11" t="n">
-        <v>0.253267</v>
+        <v>0.25915</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.285326</v>
+        <v>0.294151</v>
       </c>
       <c r="C12" t="n">
-        <v>0.244339</v>
+        <v>0.241947</v>
       </c>
       <c r="D12" t="n">
-        <v>0.250798</v>
+        <v>0.259684</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.273114</v>
+        <v>0.289569</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2377</v>
+        <v>0.237626</v>
       </c>
       <c r="D13" t="n">
-        <v>0.244846</v>
+        <v>0.254979</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.274107</v>
+        <v>0.277375</v>
       </c>
       <c r="C14" t="n">
-        <v>0.243388</v>
+        <v>0.236054</v>
       </c>
       <c r="D14" t="n">
-        <v>0.244372</v>
+        <v>0.254792</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.259456</v>
+        <v>0.276524</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238105</v>
+        <v>0.245408</v>
       </c>
       <c r="D15" t="n">
-        <v>0.249611</v>
+        <v>0.253529</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.254517</v>
+        <v>0.27319</v>
       </c>
       <c r="C16" t="n">
-        <v>0.237363</v>
+        <v>0.237566</v>
       </c>
       <c r="D16" t="n">
-        <v>0.245932</v>
+        <v>0.253825</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.246728</v>
+        <v>0.263272</v>
       </c>
       <c r="C17" t="n">
-        <v>0.236072</v>
+        <v>0.23452</v>
       </c>
       <c r="D17" t="n">
-        <v>0.242276</v>
+        <v>0.252673</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.24277</v>
+        <v>0.25511</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2361</v>
+        <v>0.236845</v>
       </c>
       <c r="D18" t="n">
-        <v>0.247111</v>
+        <v>0.256747</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.236886</v>
+        <v>0.260747</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237599</v>
+        <v>0.239555</v>
       </c>
       <c r="D19" t="n">
-        <v>0.243591</v>
+        <v>0.253613</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.231202</v>
+        <v>0.246797</v>
       </c>
       <c r="C20" t="n">
-        <v>0.237551</v>
+        <v>0.232991</v>
       </c>
       <c r="D20" t="n">
-        <v>0.246628</v>
+        <v>0.249775</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.227969</v>
+        <v>0.244342</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236192</v>
+        <v>0.234527</v>
       </c>
       <c r="D21" t="n">
-        <v>0.239687</v>
+        <v>0.248394</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.221</v>
+        <v>0.230118</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2342</v>
+        <v>0.233977</v>
       </c>
       <c r="D22" t="n">
-        <v>0.24359</v>
+        <v>0.252957</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.20966</v>
+        <v>0.223756</v>
       </c>
       <c r="C23" t="n">
-        <v>0.24008</v>
+        <v>0.239565</v>
       </c>
       <c r="D23" t="n">
-        <v>0.258065</v>
+        <v>0.260191</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.290945</v>
+        <v>0.306889</v>
       </c>
       <c r="C24" t="n">
-        <v>0.245533</v>
+        <v>0.247173</v>
       </c>
       <c r="D24" t="n">
-        <v>0.253323</v>
+        <v>0.262174</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.28433</v>
+        <v>0.301085</v>
       </c>
       <c r="C25" t="n">
-        <v>0.24509</v>
+        <v>0.243055</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25762</v>
+        <v>0.260712</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.277011</v>
+        <v>0.293127</v>
       </c>
       <c r="C26" t="n">
-        <v>0.241497</v>
+        <v>0.241867</v>
       </c>
       <c r="D26" t="n">
-        <v>0.255495</v>
+        <v>0.256311</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.275721</v>
+        <v>0.285864</v>
       </c>
       <c r="C27" t="n">
-        <v>0.253116</v>
+        <v>0.242264</v>
       </c>
       <c r="D27" t="n">
-        <v>0.25076</v>
+        <v>0.257566</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.264569</v>
+        <v>0.285766</v>
       </c>
       <c r="C28" t="n">
-        <v>0.239714</v>
+        <v>0.241039</v>
       </c>
       <c r="D28" t="n">
-        <v>0.254122</v>
+        <v>0.257086</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.263431</v>
+        <v>0.280952</v>
       </c>
       <c r="C29" t="n">
-        <v>0.238604</v>
+        <v>0.239238</v>
       </c>
       <c r="D29" t="n">
-        <v>0.256182</v>
+        <v>0.257451</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.254845</v>
+        <v>0.275379</v>
       </c>
       <c r="C30" t="n">
-        <v>0.237921</v>
+        <v>0.237511</v>
       </c>
       <c r="D30" t="n">
-        <v>0.252368</v>
+        <v>0.254503</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.251246</v>
+        <v>0.270528</v>
       </c>
       <c r="C31" t="n">
-        <v>0.241001</v>
+        <v>0.23709</v>
       </c>
       <c r="D31" t="n">
-        <v>0.248226</v>
+        <v>0.253285</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.248774</v>
+        <v>0.258415</v>
       </c>
       <c r="C32" t="n">
-        <v>0.240825</v>
+        <v>0.233697</v>
       </c>
       <c r="D32" t="n">
-        <v>0.249721</v>
+        <v>0.252964</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.239547</v>
+        <v>0.252001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.235464</v>
+        <v>0.23455</v>
       </c>
       <c r="D33" t="n">
-        <v>0.250264</v>
+        <v>0.258742</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.240359</v>
+        <v>0.249502</v>
       </c>
       <c r="C34" t="n">
-        <v>0.240028</v>
+        <v>0.238743</v>
       </c>
       <c r="D34" t="n">
-        <v>0.254489</v>
+        <v>0.25268</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.228645</v>
+        <v>0.239828</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242755</v>
+        <v>0.240473</v>
       </c>
       <c r="D35" t="n">
-        <v>0.24805</v>
+        <v>0.253895</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.219839</v>
+        <v>0.231027</v>
       </c>
       <c r="C36" t="n">
-        <v>0.236449</v>
+        <v>0.234652</v>
       </c>
       <c r="D36" t="n">
-        <v>0.249957</v>
+        <v>0.25603</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.21343</v>
+        <v>0.223337</v>
       </c>
       <c r="C37" t="n">
-        <v>0.237947</v>
+        <v>0.235578</v>
       </c>
       <c r="D37" t="n">
-        <v>0.259606</v>
+        <v>0.267438</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.290499</v>
+        <v>0.300513</v>
       </c>
       <c r="C38" t="n">
-        <v>0.251486</v>
+        <v>0.245195</v>
       </c>
       <c r="D38" t="n">
-        <v>0.256374</v>
+        <v>0.263578</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.283065</v>
+        <v>0.294126</v>
       </c>
       <c r="C39" t="n">
-        <v>0.246166</v>
+        <v>0.243748</v>
       </c>
       <c r="D39" t="n">
-        <v>0.255396</v>
+        <v>0.262248</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.282274</v>
+        <v>0.293397</v>
       </c>
       <c r="C40" t="n">
-        <v>0.24941</v>
+        <v>0.242051</v>
       </c>
       <c r="D40" t="n">
-        <v>0.256584</v>
+        <v>0.258798</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.273009</v>
+        <v>0.289954</v>
       </c>
       <c r="C41" t="n">
-        <v>0.245904</v>
+        <v>0.24203</v>
       </c>
       <c r="D41" t="n">
-        <v>0.256685</v>
+        <v>0.262441</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.271282</v>
+        <v>0.288221</v>
       </c>
       <c r="C42" t="n">
-        <v>0.245163</v>
+        <v>0.241899</v>
       </c>
       <c r="D42" t="n">
-        <v>0.257016</v>
+        <v>0.261583</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.262799</v>
+        <v>0.277857</v>
       </c>
       <c r="C43" t="n">
-        <v>0.243415</v>
+        <v>0.241347</v>
       </c>
       <c r="D43" t="n">
-        <v>0.253235</v>
+        <v>0.257493</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.262493</v>
+        <v>0.270482</v>
       </c>
       <c r="C44" t="n">
-        <v>0.239825</v>
+        <v>0.237756</v>
       </c>
       <c r="D44" t="n">
-        <v>0.252385</v>
+        <v>0.257975</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.258427</v>
+        <v>0.266399</v>
       </c>
       <c r="C45" t="n">
-        <v>0.241303</v>
+        <v>0.237628</v>
       </c>
       <c r="D45" t="n">
-        <v>0.253488</v>
+        <v>0.257184</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.25188</v>
+        <v>0.261047</v>
       </c>
       <c r="C46" t="n">
-        <v>0.238774</v>
+        <v>0.235303</v>
       </c>
       <c r="D46" t="n">
-        <v>0.248876</v>
+        <v>0.259492</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.242856</v>
+        <v>0.256456</v>
       </c>
       <c r="C47" t="n">
-        <v>0.239554</v>
+        <v>0.23715</v>
       </c>
       <c r="D47" t="n">
-        <v>0.248393</v>
+        <v>0.252016</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.23802</v>
+        <v>0.246149</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2383</v>
+        <v>0.235465</v>
       </c>
       <c r="D48" t="n">
-        <v>0.249154</v>
+        <v>0.251575</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.229111</v>
+        <v>0.240591</v>
       </c>
       <c r="C49" t="n">
-        <v>0.241152</v>
+        <v>0.234738</v>
       </c>
       <c r="D49" t="n">
-        <v>0.249215</v>
+        <v>0.256087</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.226925</v>
+        <v>0.237309</v>
       </c>
       <c r="C50" t="n">
-        <v>0.238496</v>
+        <v>0.234585</v>
       </c>
       <c r="D50" t="n">
-        <v>0.24619</v>
+        <v>0.253601</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.220645</v>
+        <v>0.223338</v>
       </c>
       <c r="C51" t="n">
-        <v>0.238813</v>
+        <v>0.238782</v>
       </c>
       <c r="D51" t="n">
-        <v>0.264757</v>
+        <v>0.269576</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.205754</v>
+        <v>0.217249</v>
       </c>
       <c r="C52" t="n">
-        <v>0.244241</v>
+        <v>0.236495</v>
       </c>
       <c r="D52" t="n">
-        <v>0.262172</v>
+        <v>0.26962</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.288245</v>
+        <v>0.306127</v>
       </c>
       <c r="C53" t="n">
-        <v>0.25103</v>
+        <v>0.247557</v>
       </c>
       <c r="D53" t="n">
-        <v>0.26124</v>
+        <v>0.263095</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.288352</v>
+        <v>0.296728</v>
       </c>
       <c r="C54" t="n">
-        <v>0.249553</v>
+        <v>0.243296</v>
       </c>
       <c r="D54" t="n">
-        <v>0.259034</v>
+        <v>0.26749</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.27931</v>
+        <v>0.292427</v>
       </c>
       <c r="C55" t="n">
-        <v>0.248337</v>
+        <v>0.245603</v>
       </c>
       <c r="D55" t="n">
-        <v>0.257288</v>
+        <v>0.263484</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.272444</v>
+        <v>0.287568</v>
       </c>
       <c r="C56" t="n">
-        <v>0.248839</v>
+        <v>0.240075</v>
       </c>
       <c r="D56" t="n">
-        <v>0.25466</v>
+        <v>0.261544</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.267806</v>
+        <v>0.285206</v>
       </c>
       <c r="C57" t="n">
-        <v>0.242086</v>
+        <v>0.241652</v>
       </c>
       <c r="D57" t="n">
-        <v>0.25541</v>
+        <v>0.262322</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.263214</v>
+        <v>0.27726</v>
       </c>
       <c r="C58" t="n">
-        <v>0.244954</v>
+        <v>0.238569</v>
       </c>
       <c r="D58" t="n">
-        <v>0.254504</v>
+        <v>0.256563</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.259107</v>
+        <v>0.273017</v>
       </c>
       <c r="C59" t="n">
-        <v>0.242441</v>
+        <v>0.243658</v>
       </c>
       <c r="D59" t="n">
-        <v>0.253686</v>
+        <v>0.25957</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.250866</v>
+        <v>0.268499</v>
       </c>
       <c r="C60" t="n">
-        <v>0.240371</v>
+        <v>0.241294</v>
       </c>
       <c r="D60" t="n">
-        <v>0.252605</v>
+        <v>0.258012</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.245822</v>
+        <v>0.259411</v>
       </c>
       <c r="C61" t="n">
-        <v>0.242636</v>
+        <v>0.238257</v>
       </c>
       <c r="D61" t="n">
-        <v>0.25037</v>
+        <v>0.259895</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.238193</v>
+        <v>0.254831</v>
       </c>
       <c r="C62" t="n">
-        <v>0.237459</v>
+        <v>0.239323</v>
       </c>
       <c r="D62" t="n">
-        <v>0.248653</v>
+        <v>0.258991</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.233734</v>
+        <v>0.243987</v>
       </c>
       <c r="C63" t="n">
-        <v>0.241043</v>
+        <v>0.24156</v>
       </c>
       <c r="D63" t="n">
-        <v>0.251204</v>
+        <v>0.257072</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.224854</v>
+        <v>0.239426</v>
       </c>
       <c r="C64" t="n">
-        <v>0.24305</v>
+        <v>0.239536</v>
       </c>
       <c r="D64" t="n">
-        <v>0.246989</v>
+        <v>0.256766</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.219431</v>
+        <v>0.230613</v>
       </c>
       <c r="C65" t="n">
-        <v>0.240217</v>
+        <v>0.237362</v>
       </c>
       <c r="D65" t="n">
-        <v>0.249411</v>
+        <v>0.259739</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.21154</v>
+        <v>0.219276</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241354</v>
+        <v>0.235804</v>
       </c>
       <c r="D66" t="n">
-        <v>0.265178</v>
+        <v>0.275367</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.296587</v>
+        <v>0.309424</v>
       </c>
       <c r="C67" t="n">
-        <v>0.253968</v>
+        <v>0.251174</v>
       </c>
       <c r="D67" t="n">
-        <v>0.264844</v>
+        <v>0.270077</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.293084</v>
+        <v>0.310432</v>
       </c>
       <c r="C68" t="n">
-        <v>0.251599</v>
+        <v>0.250091</v>
       </c>
       <c r="D68" t="n">
-        <v>0.268728</v>
+        <v>0.267117</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.293037</v>
+        <v>0.300923</v>
       </c>
       <c r="C69" t="n">
-        <v>0.251234</v>
+        <v>0.249913</v>
       </c>
       <c r="D69" t="n">
-        <v>0.260562</v>
+        <v>0.270949</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.281619</v>
+        <v>0.296039</v>
       </c>
       <c r="C70" t="n">
-        <v>0.250388</v>
+        <v>0.247545</v>
       </c>
       <c r="D70" t="n">
-        <v>0.261405</v>
+        <v>0.267806</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.275534</v>
+        <v>0.29677</v>
       </c>
       <c r="C71" t="n">
-        <v>0.252707</v>
+        <v>0.24574</v>
       </c>
       <c r="D71" t="n">
-        <v>0.262909</v>
+        <v>0.267285</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.267802</v>
+        <v>0.286718</v>
       </c>
       <c r="C72" t="n">
-        <v>0.250849</v>
+        <v>0.248426</v>
       </c>
       <c r="D72" t="n">
-        <v>0.258023</v>
+        <v>0.264736</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.259644</v>
+        <v>0.279022</v>
       </c>
       <c r="C73" t="n">
-        <v>0.249012</v>
+        <v>0.247569</v>
       </c>
       <c r="D73" t="n">
-        <v>0.257625</v>
+        <v>0.268555</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.257485</v>
+        <v>0.272238</v>
       </c>
       <c r="C74" t="n">
-        <v>0.248805</v>
+        <v>0.241805</v>
       </c>
       <c r="D74" t="n">
-        <v>0.255658</v>
+        <v>0.262446</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.250516</v>
+        <v>0.26713</v>
       </c>
       <c r="C75" t="n">
-        <v>0.247983</v>
+        <v>0.247206</v>
       </c>
       <c r="D75" t="n">
-        <v>0.257718</v>
+        <v>0.261604</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.245426</v>
+        <v>0.257134</v>
       </c>
       <c r="C76" t="n">
-        <v>0.248276</v>
+        <v>0.242248</v>
       </c>
       <c r="D76" t="n">
-        <v>0.252452</v>
+        <v>0.258401</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.237467</v>
+        <v>0.252214</v>
       </c>
       <c r="C77" t="n">
-        <v>0.24256</v>
+        <v>0.240936</v>
       </c>
       <c r="D77" t="n">
-        <v>0.252293</v>
+        <v>0.264659</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.233018</v>
+        <v>0.243914</v>
       </c>
       <c r="C78" t="n">
-        <v>0.243734</v>
+        <v>0.241875</v>
       </c>
       <c r="D78" t="n">
-        <v>0.251039</v>
+        <v>0.254777</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.224213</v>
+        <v>0.239698</v>
       </c>
       <c r="C79" t="n">
-        <v>0.244703</v>
+        <v>0.240975</v>
       </c>
       <c r="D79" t="n">
-        <v>0.254752</v>
+        <v>0.255518</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.213834</v>
+        <v>0.224436</v>
       </c>
       <c r="C80" t="n">
-        <v>0.244052</v>
+        <v>0.241571</v>
       </c>
       <c r="D80" t="n">
-        <v>0.272776</v>
+        <v>0.278745</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.301624</v>
+        <v>0.316429</v>
       </c>
       <c r="C81" t="n">
-        <v>0.264018</v>
+        <v>0.255259</v>
       </c>
       <c r="D81" t="n">
-        <v>0.272896</v>
+        <v>0.274412</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.29511</v>
+        <v>0.316059</v>
       </c>
       <c r="C82" t="n">
-        <v>0.264673</v>
+        <v>0.25515</v>
       </c>
       <c r="D82" t="n">
-        <v>0.269489</v>
+        <v>0.276807</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.286901</v>
+        <v>0.307287</v>
       </c>
       <c r="C83" t="n">
-        <v>0.253634</v>
+        <v>0.251029</v>
       </c>
       <c r="D83" t="n">
-        <v>0.269594</v>
+        <v>0.271737</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.287913</v>
+        <v>0.303853</v>
       </c>
       <c r="C84" t="n">
-        <v>0.258157</v>
+        <v>0.249515</v>
       </c>
       <c r="D84" t="n">
-        <v>0.267232</v>
+        <v>0.269592</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.279861</v>
+        <v>0.300129</v>
       </c>
       <c r="C85" t="n">
-        <v>0.255134</v>
+        <v>0.25129</v>
       </c>
       <c r="D85" t="n">
-        <v>0.266985</v>
+        <v>0.270291</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.271896</v>
+        <v>0.289565</v>
       </c>
       <c r="C86" t="n">
-        <v>0.251053</v>
+        <v>0.24725</v>
       </c>
       <c r="D86" t="n">
-        <v>0.262837</v>
+        <v>0.270074</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.267869</v>
+        <v>0.281764</v>
       </c>
       <c r="C87" t="n">
-        <v>0.254243</v>
+        <v>0.245968</v>
       </c>
       <c r="D87" t="n">
-        <v>0.260628</v>
+        <v>0.27456</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.262503</v>
+        <v>0.278339</v>
       </c>
       <c r="C88" t="n">
-        <v>0.248969</v>
+        <v>0.24612</v>
       </c>
       <c r="D88" t="n">
-        <v>0.263464</v>
+        <v>0.270944</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.252589</v>
+        <v>0.269273</v>
       </c>
       <c r="C89" t="n">
-        <v>0.251269</v>
+        <v>0.245002</v>
       </c>
       <c r="D89" t="n">
-        <v>0.255852</v>
+        <v>0.26686</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.246282</v>
+        <v>0.262278</v>
       </c>
       <c r="C90" t="n">
-        <v>0.248345</v>
+        <v>0.244654</v>
       </c>
       <c r="D90" t="n">
-        <v>0.258387</v>
+        <v>0.263607</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.241601</v>
+        <v>0.254767</v>
       </c>
       <c r="C91" t="n">
-        <v>0.249573</v>
+        <v>0.243972</v>
       </c>
       <c r="D91" t="n">
-        <v>0.253005</v>
+        <v>0.260479</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.237975</v>
+        <v>0.251305</v>
       </c>
       <c r="C92" t="n">
-        <v>0.248277</v>
+        <v>0.243574</v>
       </c>
       <c r="D92" t="n">
-        <v>0.257292</v>
+        <v>0.264155</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.225055</v>
+        <v>0.238205</v>
       </c>
       <c r="C93" t="n">
-        <v>0.244009</v>
+        <v>0.241575</v>
       </c>
       <c r="D93" t="n">
-        <v>0.253702</v>
+        <v>0.259525</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.219884</v>
+        <v>0.230336</v>
       </c>
       <c r="C94" t="n">
-        <v>0.245135</v>
+        <v>0.244962</v>
       </c>
       <c r="D94" t="n">
-        <v>0.271629</v>
+        <v>0.283943</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.300169</v>
+        <v>0.322755</v>
       </c>
       <c r="C95" t="n">
-        <v>0.261586</v>
+        <v>0.25943</v>
       </c>
       <c r="D95" t="n">
-        <v>0.270765</v>
+        <v>0.276448</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.300025</v>
+        <v>0.309005</v>
       </c>
       <c r="C96" t="n">
-        <v>0.257636</v>
+        <v>0.25351</v>
       </c>
       <c r="D96" t="n">
-        <v>0.273588</v>
+        <v>0.270087</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.294924</v>
+        <v>0.304924</v>
       </c>
       <c r="C97" t="n">
-        <v>0.256829</v>
+        <v>0.250437</v>
       </c>
       <c r="D97" t="n">
-        <v>0.267682</v>
+        <v>0.269727</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.299624</v>
+        <v>0.297873</v>
       </c>
       <c r="C98" t="n">
-        <v>0.2564</v>
+        <v>0.252816</v>
       </c>
       <c r="D98" t="n">
-        <v>0.269359</v>
+        <v>0.267176</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.280895</v>
+        <v>0.291206</v>
       </c>
       <c r="C99" t="n">
-        <v>0.254546</v>
+        <v>0.25199</v>
       </c>
       <c r="D99" t="n">
-        <v>0.262316</v>
+        <v>0.266886</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.274996</v>
+        <v>0.282349</v>
       </c>
       <c r="C100" t="n">
-        <v>0.251335</v>
+        <v>0.246357</v>
       </c>
       <c r="D100" t="n">
-        <v>0.261633</v>
+        <v>0.265993</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.270461</v>
+        <v>0.276347</v>
       </c>
       <c r="C101" t="n">
-        <v>0.252311</v>
+        <v>0.243724</v>
       </c>
       <c r="D101" t="n">
-        <v>0.265246</v>
+        <v>0.264501</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.268957</v>
+        <v>0.27172</v>
       </c>
       <c r="C102" t="n">
-        <v>0.251231</v>
+        <v>0.245661</v>
       </c>
       <c r="D102" t="n">
-        <v>0.259465</v>
+        <v>0.268887</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.258406</v>
+        <v>0.275906</v>
       </c>
       <c r="C103" t="n">
-        <v>0.252197</v>
+        <v>0.245349</v>
       </c>
       <c r="D103" t="n">
-        <v>0.259532</v>
+        <v>0.264522</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.252716</v>
+        <v>0.263281</v>
       </c>
       <c r="C104" t="n">
-        <v>0.246255</v>
+        <v>0.243394</v>
       </c>
       <c r="D104" t="n">
-        <v>0.256175</v>
+        <v>0.268568</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.245585</v>
+        <v>0.258069</v>
       </c>
       <c r="C105" t="n">
-        <v>0.245664</v>
+        <v>0.245768</v>
       </c>
       <c r="D105" t="n">
-        <v>0.26506</v>
+        <v>0.262507</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.238729</v>
+        <v>0.247698</v>
       </c>
       <c r="C106" t="n">
-        <v>0.248124</v>
+        <v>0.244518</v>
       </c>
       <c r="D106" t="n">
-        <v>0.256282</v>
+        <v>0.261566</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.234025</v>
+        <v>0.241683</v>
       </c>
       <c r="C107" t="n">
-        <v>0.24685</v>
+        <v>0.243336</v>
       </c>
       <c r="D107" t="n">
-        <v>0.25281</v>
+        <v>0.261006</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.220879</v>
+        <v>0.231303</v>
       </c>
       <c r="C108" t="n">
-        <v>0.245868</v>
+        <v>0.240274</v>
       </c>
       <c r="D108" t="n">
-        <v>0.275027</v>
+        <v>0.277719</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.215902</v>
+        <v>0.223799</v>
       </c>
       <c r="C109" t="n">
-        <v>0.245165</v>
+        <v>0.245222</v>
       </c>
       <c r="D109" t="n">
-        <v>0.270536</v>
+        <v>0.277576</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.298141</v>
+        <v>0.312065</v>
       </c>
       <c r="C110" t="n">
-        <v>0.26053</v>
+        <v>0.257048</v>
       </c>
       <c r="D110" t="n">
-        <v>0.274784</v>
+        <v>0.281265</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.296268</v>
+        <v>0.310522</v>
       </c>
       <c r="C111" t="n">
-        <v>0.260912</v>
+        <v>0.255585</v>
       </c>
       <c r="D111" t="n">
-        <v>0.269566</v>
+        <v>0.276335</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.286321</v>
+        <v>0.313126</v>
       </c>
       <c r="C112" t="n">
-        <v>0.256472</v>
+        <v>0.254229</v>
       </c>
       <c r="D112" t="n">
-        <v>0.266761</v>
+        <v>0.275442</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.287754</v>
+        <v>0.299243</v>
       </c>
       <c r="C113" t="n">
-        <v>0.258266</v>
+        <v>0.253989</v>
       </c>
       <c r="D113" t="n">
-        <v>0.267797</v>
+        <v>0.273305</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.28193</v>
+        <v>0.295283</v>
       </c>
       <c r="C114" t="n">
-        <v>0.254602</v>
+        <v>0.251747</v>
       </c>
       <c r="D114" t="n">
-        <v>0.264599</v>
+        <v>0.270367</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.276652</v>
+        <v>0.287818</v>
       </c>
       <c r="C115" t="n">
-        <v>0.252665</v>
+        <v>0.251085</v>
       </c>
       <c r="D115" t="n">
-        <v>0.264094</v>
+        <v>0.271615</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.262826</v>
+        <v>0.279754</v>
       </c>
       <c r="C116" t="n">
-        <v>0.249915</v>
+        <v>0.250995</v>
       </c>
       <c r="D116" t="n">
-        <v>0.260749</v>
+        <v>0.265224</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.259246</v>
+        <v>0.272992</v>
       </c>
       <c r="C117" t="n">
-        <v>0.247427</v>
+        <v>0.247019</v>
       </c>
       <c r="D117" t="n">
-        <v>0.25998</v>
+        <v>0.269044</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.257009</v>
+        <v>0.265532</v>
       </c>
       <c r="C118" t="n">
-        <v>0.252752</v>
+        <v>0.243978</v>
       </c>
       <c r="D118" t="n">
-        <v>0.259618</v>
+        <v>0.261008</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.246256</v>
+        <v>0.260566</v>
       </c>
       <c r="C119" t="n">
-        <v>0.250295</v>
+        <v>0.243503</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2575</v>
+        <v>0.26673</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.238015</v>
+        <v>0.25459</v>
       </c>
       <c r="C120" t="n">
-        <v>0.245683</v>
+        <v>0.248099</v>
       </c>
       <c r="D120" t="n">
-        <v>0.255645</v>
+        <v>0.261075</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232215</v>
+        <v>0.250468</v>
       </c>
       <c r="C121" t="n">
-        <v>0.243672</v>
+        <v>0.248623</v>
       </c>
       <c r="D121" t="n">
-        <v>0.253612</v>
+        <v>0.260014</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.224759</v>
+        <v>0.233275</v>
       </c>
       <c r="C122" t="n">
-        <v>0.250511</v>
+        <v>0.242651</v>
       </c>
       <c r="D122" t="n">
-        <v>0.254219</v>
+        <v>0.25919</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.218318</v>
+        <v>0.225398</v>
       </c>
       <c r="C123" t="n">
-        <v>0.24487</v>
+        <v>0.246796</v>
       </c>
       <c r="D123" t="n">
-        <v>0.273628</v>
+        <v>0.279186</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.307807</v>
+        <v>0.319892</v>
       </c>
       <c r="C124" t="n">
-        <v>0.261155</v>
+        <v>0.254476</v>
       </c>
       <c r="D124" t="n">
-        <v>0.269887</v>
+        <v>0.277497</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.294543</v>
+        <v>0.313092</v>
       </c>
       <c r="C125" t="n">
-        <v>0.259103</v>
+        <v>0.257386</v>
       </c>
       <c r="D125" t="n">
-        <v>0.268616</v>
+        <v>0.274349</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.288444</v>
+        <v>0.303182</v>
       </c>
       <c r="C126" t="n">
-        <v>0.256439</v>
+        <v>0.261341</v>
       </c>
       <c r="D126" t="n">
-        <v>0.272214</v>
+        <v>0.273752</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.285322</v>
+        <v>0.300837</v>
       </c>
       <c r="C127" t="n">
-        <v>0.254818</v>
+        <v>0.25374</v>
       </c>
       <c r="D127" t="n">
-        <v>0.269244</v>
+        <v>0.275162</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.280448</v>
+        <v>0.291148</v>
       </c>
       <c r="C128" t="n">
-        <v>0.25298</v>
+        <v>0.251832</v>
       </c>
       <c r="D128" t="n">
-        <v>0.265132</v>
+        <v>0.273052</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.274208</v>
+        <v>0.284709</v>
       </c>
       <c r="C129" t="n">
-        <v>0.25161</v>
+        <v>0.246111</v>
       </c>
       <c r="D129" t="n">
-        <v>0.263622</v>
+        <v>0.268806</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.270577</v>
+        <v>0.275393</v>
       </c>
       <c r="C130" t="n">
-        <v>0.248889</v>
+        <v>0.249811</v>
       </c>
       <c r="D130" t="n">
-        <v>0.266596</v>
+        <v>0.265275</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.260271</v>
+        <v>0.270857</v>
       </c>
       <c r="C131" t="n">
-        <v>0.250508</v>
+        <v>0.2471</v>
       </c>
       <c r="D131" t="n">
-        <v>0.263209</v>
+        <v>0.267191</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.256012</v>
+        <v>0.266817</v>
       </c>
       <c r="C132" t="n">
-        <v>0.253506</v>
+        <v>0.245141</v>
       </c>
       <c r="D132" t="n">
-        <v>0.255614</v>
+        <v>0.263064</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.246799</v>
+        <v>0.262029</v>
       </c>
       <c r="C133" t="n">
-        <v>0.249693</v>
+        <v>0.244927</v>
       </c>
       <c r="D133" t="n">
-        <v>0.263373</v>
+        <v>0.26356</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.241771</v>
+        <v>0.255688</v>
       </c>
       <c r="C134" t="n">
-        <v>0.246207</v>
+        <v>0.242311</v>
       </c>
       <c r="D134" t="n">
-        <v>0.255708</v>
+        <v>0.269203</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.233529</v>
+        <v>0.244485</v>
       </c>
       <c r="C135" t="n">
-        <v>0.244705</v>
+        <v>0.244138</v>
       </c>
       <c r="D135" t="n">
-        <v>0.259869</v>
+        <v>0.261181</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.22682</v>
+        <v>0.243339</v>
       </c>
       <c r="C136" t="n">
-        <v>0.249801</v>
+        <v>0.242157</v>
       </c>
       <c r="D136" t="n">
-        <v>0.252913</v>
+        <v>0.259148</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.218364</v>
+        <v>0.229094</v>
       </c>
       <c r="C137" t="n">
-        <v>0.247243</v>
+        <v>0.25214</v>
       </c>
       <c r="D137" t="n">
-        <v>0.276456</v>
+        <v>0.286408</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.306587</v>
+        <v>0.320354</v>
       </c>
       <c r="C138" t="n">
-        <v>0.262638</v>
+        <v>0.259847</v>
       </c>
       <c r="D138" t="n">
-        <v>0.271063</v>
+        <v>0.280003</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.29805</v>
+        <v>0.316713</v>
       </c>
       <c r="C139" t="n">
-        <v>0.256297</v>
+        <v>0.267398</v>
       </c>
       <c r="D139" t="n">
-        <v>0.267591</v>
+        <v>0.283365</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.289135</v>
+        <v>0.308367</v>
       </c>
       <c r="C140" t="n">
-        <v>0.264837</v>
+        <v>0.25586</v>
       </c>
       <c r="D140" t="n">
-        <v>0.271191</v>
+        <v>0.272699</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.283482</v>
+        <v>0.304276</v>
       </c>
       <c r="C141" t="n">
-        <v>0.251714</v>
+        <v>0.255686</v>
       </c>
       <c r="D141" t="n">
-        <v>0.264118</v>
+        <v>0.276719</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.276174</v>
+        <v>0.299363</v>
       </c>
       <c r="C142" t="n">
-        <v>0.25423</v>
+        <v>0.256719</v>
       </c>
       <c r="D142" t="n">
-        <v>0.269525</v>
+        <v>0.271154</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.274086</v>
+        <v>0.28704</v>
       </c>
       <c r="C143" t="n">
-        <v>0.251309</v>
+        <v>0.251052</v>
       </c>
       <c r="D143" t="n">
-        <v>0.261034</v>
+        <v>0.267586</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.279707</v>
+        <v>0.277504</v>
       </c>
       <c r="C2" t="n">
-        <v>0.244378</v>
+        <v>0.234848</v>
       </c>
       <c r="D2" t="n">
-        <v>0.255366</v>
+        <v>0.247313</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.268335</v>
+        <v>0.268174</v>
       </c>
       <c r="C3" t="n">
-        <v>0.237755</v>
+        <v>0.233806</v>
       </c>
       <c r="D3" t="n">
-        <v>0.253612</v>
+        <v>0.249514</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.25853</v>
+        <v>0.260299</v>
       </c>
       <c r="C4" t="n">
-        <v>0.236414</v>
+        <v>0.234476</v>
       </c>
       <c r="D4" t="n">
-        <v>0.249738</v>
+        <v>0.246127</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.250424</v>
+        <v>0.246001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.237093</v>
+        <v>0.232861</v>
       </c>
       <c r="D5" t="n">
-        <v>0.248745</v>
+        <v>0.24906</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.238748</v>
+        <v>0.246724</v>
       </c>
       <c r="C6" t="n">
-        <v>0.23632</v>
+        <v>0.236536</v>
       </c>
       <c r="D6" t="n">
-        <v>0.247374</v>
+        <v>0.247152</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.227063</v>
+        <v>0.23159</v>
       </c>
       <c r="C7" t="n">
-        <v>0.240482</v>
+        <v>0.231052</v>
       </c>
       <c r="D7" t="n">
-        <v>0.250111</v>
+        <v>0.246936</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.229543</v>
+        <v>0.223512</v>
       </c>
       <c r="C8" t="n">
-        <v>0.235783</v>
+        <v>0.232755</v>
       </c>
       <c r="D8" t="n">
-        <v>0.249723</v>
+        <v>0.247109</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.215381</v>
+        <v>0.221726</v>
       </c>
       <c r="C9" t="n">
-        <v>0.234624</v>
+        <v>0.230893</v>
       </c>
       <c r="D9" t="n">
-        <v>0.265503</v>
+        <v>0.257334</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.303901</v>
+        <v>0.306197</v>
       </c>
       <c r="C10" t="n">
-        <v>0.241861</v>
+        <v>0.245529</v>
       </c>
       <c r="D10" t="n">
-        <v>0.264998</v>
+        <v>0.25706</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.304292</v>
+        <v>0.302031</v>
       </c>
       <c r="C11" t="n">
-        <v>0.241407</v>
+        <v>0.250782</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25915</v>
+        <v>0.257018</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.294151</v>
+        <v>0.299466</v>
       </c>
       <c r="C12" t="n">
-        <v>0.241947</v>
+        <v>0.240987</v>
       </c>
       <c r="D12" t="n">
-        <v>0.259684</v>
+        <v>0.253247</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.289569</v>
+        <v>0.293211</v>
       </c>
       <c r="C13" t="n">
-        <v>0.237626</v>
+        <v>0.248748</v>
       </c>
       <c r="D13" t="n">
-        <v>0.254979</v>
+        <v>0.251356</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.277375</v>
+        <v>0.282241</v>
       </c>
       <c r="C14" t="n">
-        <v>0.236054</v>
+        <v>0.241912</v>
       </c>
       <c r="D14" t="n">
-        <v>0.254792</v>
+        <v>0.258983</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.276524</v>
+        <v>0.277547</v>
       </c>
       <c r="C15" t="n">
-        <v>0.245408</v>
+        <v>0.242979</v>
       </c>
       <c r="D15" t="n">
-        <v>0.253529</v>
+        <v>0.253015</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.27319</v>
+        <v>0.273308</v>
       </c>
       <c r="C16" t="n">
-        <v>0.237566</v>
+        <v>0.248729</v>
       </c>
       <c r="D16" t="n">
-        <v>0.253825</v>
+        <v>0.249594</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.263272</v>
+        <v>0.266668</v>
       </c>
       <c r="C17" t="n">
-        <v>0.23452</v>
+        <v>0.245027</v>
       </c>
       <c r="D17" t="n">
-        <v>0.252673</v>
+        <v>0.259701</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.25511</v>
+        <v>0.261376</v>
       </c>
       <c r="C18" t="n">
-        <v>0.236845</v>
+        <v>0.240184</v>
       </c>
       <c r="D18" t="n">
-        <v>0.256747</v>
+        <v>0.250853</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.260747</v>
+        <v>0.254936</v>
       </c>
       <c r="C19" t="n">
-        <v>0.239555</v>
+        <v>0.248607</v>
       </c>
       <c r="D19" t="n">
-        <v>0.253613</v>
+        <v>0.257294</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.246797</v>
+        <v>0.252535</v>
       </c>
       <c r="C20" t="n">
-        <v>0.232991</v>
+        <v>0.236432</v>
       </c>
       <c r="D20" t="n">
-        <v>0.249775</v>
+        <v>0.257712</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.244342</v>
+        <v>0.247563</v>
       </c>
       <c r="C21" t="n">
-        <v>0.234527</v>
+        <v>0.235985</v>
       </c>
       <c r="D21" t="n">
-        <v>0.248394</v>
+        <v>0.25026</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.230118</v>
+        <v>0.233219</v>
       </c>
       <c r="C22" t="n">
-        <v>0.233977</v>
+        <v>0.236965</v>
       </c>
       <c r="D22" t="n">
-        <v>0.252957</v>
+        <v>0.251503</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.223756</v>
+        <v>0.219494</v>
       </c>
       <c r="C23" t="n">
-        <v>0.239565</v>
+        <v>0.240824</v>
       </c>
       <c r="D23" t="n">
-        <v>0.260191</v>
+        <v>0.259096</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.306889</v>
+        <v>0.309461</v>
       </c>
       <c r="C24" t="n">
-        <v>0.247173</v>
+        <v>0.246156</v>
       </c>
       <c r="D24" t="n">
-        <v>0.262174</v>
+        <v>0.259821</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.301085</v>
+        <v>0.30203</v>
       </c>
       <c r="C25" t="n">
-        <v>0.243055</v>
+        <v>0.248549</v>
       </c>
       <c r="D25" t="n">
-        <v>0.260712</v>
+        <v>0.264842</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.293127</v>
+        <v>0.30648</v>
       </c>
       <c r="C26" t="n">
-        <v>0.241867</v>
+        <v>0.246974</v>
       </c>
       <c r="D26" t="n">
-        <v>0.256311</v>
+        <v>0.253851</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.285864</v>
+        <v>0.296251</v>
       </c>
       <c r="C27" t="n">
-        <v>0.242264</v>
+        <v>0.248624</v>
       </c>
       <c r="D27" t="n">
-        <v>0.257566</v>
+        <v>0.255059</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.285766</v>
+        <v>0.292241</v>
       </c>
       <c r="C28" t="n">
-        <v>0.241039</v>
+        <v>0.247267</v>
       </c>
       <c r="D28" t="n">
-        <v>0.257086</v>
+        <v>0.257921</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.280952</v>
+        <v>0.284466</v>
       </c>
       <c r="C29" t="n">
-        <v>0.239238</v>
+        <v>0.244141</v>
       </c>
       <c r="D29" t="n">
-        <v>0.257451</v>
+        <v>0.255522</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.275379</v>
+        <v>0.283212</v>
       </c>
       <c r="C30" t="n">
-        <v>0.237511</v>
+        <v>0.241484</v>
       </c>
       <c r="D30" t="n">
-        <v>0.254503</v>
+        <v>0.253101</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.270528</v>
+        <v>0.273225</v>
       </c>
       <c r="C31" t="n">
-        <v>0.23709</v>
+        <v>0.239458</v>
       </c>
       <c r="D31" t="n">
-        <v>0.253285</v>
+        <v>0.250989</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.258415</v>
+        <v>0.268165</v>
       </c>
       <c r="C32" t="n">
-        <v>0.233697</v>
+        <v>0.243082</v>
       </c>
       <c r="D32" t="n">
-        <v>0.252964</v>
+        <v>0.255822</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.252001</v>
+        <v>0.256252</v>
       </c>
       <c r="C33" t="n">
-        <v>0.23455</v>
+        <v>0.242211</v>
       </c>
       <c r="D33" t="n">
-        <v>0.258742</v>
+        <v>0.252609</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.249502</v>
+        <v>0.250775</v>
       </c>
       <c r="C34" t="n">
-        <v>0.238743</v>
+        <v>0.244533</v>
       </c>
       <c r="D34" t="n">
-        <v>0.25268</v>
+        <v>0.251889</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.239828</v>
+        <v>0.245456</v>
       </c>
       <c r="C35" t="n">
-        <v>0.240473</v>
+        <v>0.236686</v>
       </c>
       <c r="D35" t="n">
-        <v>0.253895</v>
+        <v>0.252464</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.231027</v>
+        <v>0.239119</v>
       </c>
       <c r="C36" t="n">
-        <v>0.234652</v>
+        <v>0.239854</v>
       </c>
       <c r="D36" t="n">
-        <v>0.25603</v>
+        <v>0.249192</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.223337</v>
+        <v>0.22372</v>
       </c>
       <c r="C37" t="n">
-        <v>0.235578</v>
+        <v>0.235185</v>
       </c>
       <c r="D37" t="n">
-        <v>0.267438</v>
+        <v>0.26221</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.300513</v>
+        <v>0.308161</v>
       </c>
       <c r="C38" t="n">
-        <v>0.245195</v>
+        <v>0.252676</v>
       </c>
       <c r="D38" t="n">
-        <v>0.263578</v>
+        <v>0.257846</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.294126</v>
+        <v>0.304034</v>
       </c>
       <c r="C39" t="n">
-        <v>0.243748</v>
+        <v>0.246218</v>
       </c>
       <c r="D39" t="n">
-        <v>0.262248</v>
+        <v>0.262675</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.293397</v>
+        <v>0.301045</v>
       </c>
       <c r="C40" t="n">
-        <v>0.242051</v>
+        <v>0.246921</v>
       </c>
       <c r="D40" t="n">
-        <v>0.258798</v>
+        <v>0.255887</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.289954</v>
+        <v>0.29639</v>
       </c>
       <c r="C41" t="n">
-        <v>0.24203</v>
+        <v>0.245237</v>
       </c>
       <c r="D41" t="n">
-        <v>0.262441</v>
+        <v>0.256685</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.288221</v>
+        <v>0.288744</v>
       </c>
       <c r="C42" t="n">
-        <v>0.241899</v>
+        <v>0.243755</v>
       </c>
       <c r="D42" t="n">
-        <v>0.261583</v>
+        <v>0.259914</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.277857</v>
+        <v>0.287404</v>
       </c>
       <c r="C43" t="n">
-        <v>0.241347</v>
+        <v>0.244577</v>
       </c>
       <c r="D43" t="n">
-        <v>0.257493</v>
+        <v>0.256667</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.270482</v>
+        <v>0.281976</v>
       </c>
       <c r="C44" t="n">
-        <v>0.237756</v>
+        <v>0.244301</v>
       </c>
       <c r="D44" t="n">
-        <v>0.257975</v>
+        <v>0.251636</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.266399</v>
+        <v>0.276349</v>
       </c>
       <c r="C45" t="n">
-        <v>0.237628</v>
+        <v>0.243096</v>
       </c>
       <c r="D45" t="n">
-        <v>0.257184</v>
+        <v>0.255729</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.261047</v>
+        <v>0.265319</v>
       </c>
       <c r="C46" t="n">
-        <v>0.235303</v>
+        <v>0.238905</v>
       </c>
       <c r="D46" t="n">
-        <v>0.259492</v>
+        <v>0.25082</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.256456</v>
+        <v>0.260299</v>
       </c>
       <c r="C47" t="n">
-        <v>0.23715</v>
+        <v>0.239655</v>
       </c>
       <c r="D47" t="n">
-        <v>0.252016</v>
+        <v>0.253743</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.246149</v>
+        <v>0.256552</v>
       </c>
       <c r="C48" t="n">
-        <v>0.235465</v>
+        <v>0.237506</v>
       </c>
       <c r="D48" t="n">
-        <v>0.251575</v>
+        <v>0.25542</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.240591</v>
+        <v>0.244953</v>
       </c>
       <c r="C49" t="n">
-        <v>0.234738</v>
+        <v>0.237257</v>
       </c>
       <c r="D49" t="n">
-        <v>0.256087</v>
+        <v>0.251666</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.237309</v>
+        <v>0.240143</v>
       </c>
       <c r="C50" t="n">
-        <v>0.234585</v>
+        <v>0.236494</v>
       </c>
       <c r="D50" t="n">
-        <v>0.253601</v>
+        <v>0.247846</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.223338</v>
+        <v>0.228883</v>
       </c>
       <c r="C51" t="n">
-        <v>0.238782</v>
+        <v>0.237459</v>
       </c>
       <c r="D51" t="n">
-        <v>0.269576</v>
+        <v>0.265693</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.217249</v>
+        <v>0.219339</v>
       </c>
       <c r="C52" t="n">
-        <v>0.236495</v>
+        <v>0.241585</v>
       </c>
       <c r="D52" t="n">
-        <v>0.26962</v>
+        <v>0.266311</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.306127</v>
+        <v>0.315415</v>
       </c>
       <c r="C53" t="n">
-        <v>0.247557</v>
+        <v>0.253482</v>
       </c>
       <c r="D53" t="n">
-        <v>0.263095</v>
+        <v>0.262876</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.296728</v>
+        <v>0.307333</v>
       </c>
       <c r="C54" t="n">
-        <v>0.243296</v>
+        <v>0.24744</v>
       </c>
       <c r="D54" t="n">
-        <v>0.26749</v>
+        <v>0.26289</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.292427</v>
+        <v>0.30153</v>
       </c>
       <c r="C55" t="n">
-        <v>0.245603</v>
+        <v>0.249473</v>
       </c>
       <c r="D55" t="n">
-        <v>0.263484</v>
+        <v>0.259296</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.287568</v>
+        <v>0.299345</v>
       </c>
       <c r="C56" t="n">
-        <v>0.240075</v>
+        <v>0.25253</v>
       </c>
       <c r="D56" t="n">
-        <v>0.261544</v>
+        <v>0.260671</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.285206</v>
+        <v>0.289317</v>
       </c>
       <c r="C57" t="n">
-        <v>0.241652</v>
+        <v>0.24814</v>
       </c>
       <c r="D57" t="n">
-        <v>0.262322</v>
+        <v>0.261676</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.27726</v>
+        <v>0.281156</v>
       </c>
       <c r="C58" t="n">
-        <v>0.238569</v>
+        <v>0.246063</v>
       </c>
       <c r="D58" t="n">
-        <v>0.256563</v>
+        <v>0.254317</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.273017</v>
+        <v>0.276568</v>
       </c>
       <c r="C59" t="n">
-        <v>0.243658</v>
+        <v>0.24299</v>
       </c>
       <c r="D59" t="n">
-        <v>0.25957</v>
+        <v>0.260722</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.268499</v>
+        <v>0.273711</v>
       </c>
       <c r="C60" t="n">
-        <v>0.241294</v>
+        <v>0.245599</v>
       </c>
       <c r="D60" t="n">
-        <v>0.258012</v>
+        <v>0.257413</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.259411</v>
+        <v>0.262088</v>
       </c>
       <c r="C61" t="n">
-        <v>0.238257</v>
+        <v>0.244775</v>
       </c>
       <c r="D61" t="n">
-        <v>0.259895</v>
+        <v>0.257473</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.254831</v>
+        <v>0.258284</v>
       </c>
       <c r="C62" t="n">
-        <v>0.239323</v>
+        <v>0.244142</v>
       </c>
       <c r="D62" t="n">
-        <v>0.258991</v>
+        <v>0.252564</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.243987</v>
+        <v>0.248667</v>
       </c>
       <c r="C63" t="n">
-        <v>0.24156</v>
+        <v>0.241083</v>
       </c>
       <c r="D63" t="n">
-        <v>0.257072</v>
+        <v>0.253191</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.239426</v>
+        <v>0.244075</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239536</v>
+        <v>0.241067</v>
       </c>
       <c r="D64" t="n">
-        <v>0.256766</v>
+        <v>0.251548</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230613</v>
+        <v>0.235191</v>
       </c>
       <c r="C65" t="n">
-        <v>0.237362</v>
+        <v>0.238856</v>
       </c>
       <c r="D65" t="n">
-        <v>0.259739</v>
+        <v>0.256554</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.219276</v>
+        <v>0.223707</v>
       </c>
       <c r="C66" t="n">
-        <v>0.235804</v>
+        <v>0.237401</v>
       </c>
       <c r="D66" t="n">
-        <v>0.275367</v>
+        <v>0.268405</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.309424</v>
+        <v>0.315741</v>
       </c>
       <c r="C67" t="n">
-        <v>0.251174</v>
+        <v>0.255238</v>
       </c>
       <c r="D67" t="n">
-        <v>0.270077</v>
+        <v>0.26528</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.310432</v>
+        <v>0.310031</v>
       </c>
       <c r="C68" t="n">
-        <v>0.250091</v>
+        <v>0.253519</v>
       </c>
       <c r="D68" t="n">
-        <v>0.267117</v>
+        <v>0.264951</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.300923</v>
+        <v>0.306725</v>
       </c>
       <c r="C69" t="n">
-        <v>0.249913</v>
+        <v>0.254291</v>
       </c>
       <c r="D69" t="n">
-        <v>0.270949</v>
+        <v>0.262098</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.296039</v>
+        <v>0.302386</v>
       </c>
       <c r="C70" t="n">
-        <v>0.247545</v>
+        <v>0.250917</v>
       </c>
       <c r="D70" t="n">
-        <v>0.267806</v>
+        <v>0.260151</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.29677</v>
+        <v>0.296701</v>
       </c>
       <c r="C71" t="n">
-        <v>0.24574</v>
+        <v>0.250454</v>
       </c>
       <c r="D71" t="n">
-        <v>0.267285</v>
+        <v>0.262827</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.286718</v>
+        <v>0.290918</v>
       </c>
       <c r="C72" t="n">
-        <v>0.248426</v>
+        <v>0.246079</v>
       </c>
       <c r="D72" t="n">
-        <v>0.264736</v>
+        <v>0.257422</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.279022</v>
+        <v>0.281321</v>
       </c>
       <c r="C73" t="n">
-        <v>0.247569</v>
+        <v>0.245774</v>
       </c>
       <c r="D73" t="n">
-        <v>0.268555</v>
+        <v>0.259813</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.272238</v>
+        <v>0.280365</v>
       </c>
       <c r="C74" t="n">
-        <v>0.241805</v>
+        <v>0.247627</v>
       </c>
       <c r="D74" t="n">
-        <v>0.262446</v>
+        <v>0.255614</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.26713</v>
+        <v>0.272832</v>
       </c>
       <c r="C75" t="n">
-        <v>0.247206</v>
+        <v>0.245014</v>
       </c>
       <c r="D75" t="n">
-        <v>0.261604</v>
+        <v>0.258618</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.257134</v>
+        <v>0.264025</v>
       </c>
       <c r="C76" t="n">
-        <v>0.242248</v>
+        <v>0.247033</v>
       </c>
       <c r="D76" t="n">
-        <v>0.258401</v>
+        <v>0.256259</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.252214</v>
+        <v>0.255549</v>
       </c>
       <c r="C77" t="n">
-        <v>0.240936</v>
+        <v>0.243289</v>
       </c>
       <c r="D77" t="n">
-        <v>0.264659</v>
+        <v>0.257312</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.243914</v>
+        <v>0.250796</v>
       </c>
       <c r="C78" t="n">
-        <v>0.241875</v>
+        <v>0.244275</v>
       </c>
       <c r="D78" t="n">
-        <v>0.254777</v>
+        <v>0.256679</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.239698</v>
+        <v>0.237632</v>
       </c>
       <c r="C79" t="n">
-        <v>0.240975</v>
+        <v>0.244796</v>
       </c>
       <c r="D79" t="n">
-        <v>0.255518</v>
+        <v>0.255642</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.224436</v>
+        <v>0.230606</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241571</v>
+        <v>0.239421</v>
       </c>
       <c r="D80" t="n">
-        <v>0.278745</v>
+        <v>0.27205</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.316429</v>
+        <v>0.322958</v>
       </c>
       <c r="C81" t="n">
-        <v>0.255259</v>
+        <v>0.260624</v>
       </c>
       <c r="D81" t="n">
-        <v>0.274412</v>
+        <v>0.269592</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.316059</v>
+        <v>0.323219</v>
       </c>
       <c r="C82" t="n">
-        <v>0.25515</v>
+        <v>0.257997</v>
       </c>
       <c r="D82" t="n">
-        <v>0.276807</v>
+        <v>0.275498</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.307287</v>
+        <v>0.316348</v>
       </c>
       <c r="C83" t="n">
-        <v>0.251029</v>
+        <v>0.255967</v>
       </c>
       <c r="D83" t="n">
-        <v>0.271737</v>
+        <v>0.269159</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.303853</v>
+        <v>0.30501</v>
       </c>
       <c r="C84" t="n">
-        <v>0.249515</v>
+        <v>0.251639</v>
       </c>
       <c r="D84" t="n">
-        <v>0.269592</v>
+        <v>0.26571</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.300129</v>
+        <v>0.300749</v>
       </c>
       <c r="C85" t="n">
-        <v>0.25129</v>
+        <v>0.254515</v>
       </c>
       <c r="D85" t="n">
-        <v>0.270291</v>
+        <v>0.270995</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.289565</v>
+        <v>0.297724</v>
       </c>
       <c r="C86" t="n">
-        <v>0.24725</v>
+        <v>0.256131</v>
       </c>
       <c r="D86" t="n">
-        <v>0.270074</v>
+        <v>0.264474</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.281764</v>
+        <v>0.286721</v>
       </c>
       <c r="C87" t="n">
-        <v>0.245968</v>
+        <v>0.252114</v>
       </c>
       <c r="D87" t="n">
-        <v>0.27456</v>
+        <v>0.26246</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.278339</v>
+        <v>0.286363</v>
       </c>
       <c r="C88" t="n">
-        <v>0.24612</v>
+        <v>0.252029</v>
       </c>
       <c r="D88" t="n">
-        <v>0.270944</v>
+        <v>0.263065</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.269273</v>
+        <v>0.277271</v>
       </c>
       <c r="C89" t="n">
-        <v>0.245002</v>
+        <v>0.251464</v>
       </c>
       <c r="D89" t="n">
-        <v>0.26686</v>
+        <v>0.260418</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.262278</v>
+        <v>0.269533</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244654</v>
+        <v>0.246924</v>
       </c>
       <c r="D90" t="n">
-        <v>0.263607</v>
+        <v>0.259095</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.254767</v>
+        <v>0.266786</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243972</v>
+        <v>0.250209</v>
       </c>
       <c r="D91" t="n">
-        <v>0.260479</v>
+        <v>0.257025</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.251305</v>
+        <v>0.253524</v>
       </c>
       <c r="C92" t="n">
-        <v>0.243574</v>
+        <v>0.245651</v>
       </c>
       <c r="D92" t="n">
-        <v>0.264155</v>
+        <v>0.256979</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.238205</v>
+        <v>0.241427</v>
       </c>
       <c r="C93" t="n">
-        <v>0.241575</v>
+        <v>0.242568</v>
       </c>
       <c r="D93" t="n">
-        <v>0.259525</v>
+        <v>0.254566</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.230336</v>
+        <v>0.235219</v>
       </c>
       <c r="C94" t="n">
-        <v>0.244962</v>
+        <v>0.245423</v>
       </c>
       <c r="D94" t="n">
-        <v>0.283943</v>
+        <v>0.275849</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.322755</v>
+        <v>0.3313</v>
       </c>
       <c r="C95" t="n">
-        <v>0.25943</v>
+        <v>0.26415</v>
       </c>
       <c r="D95" t="n">
-        <v>0.276448</v>
+        <v>0.270147</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.309005</v>
+        <v>0.323188</v>
       </c>
       <c r="C96" t="n">
-        <v>0.25351</v>
+        <v>0.263476</v>
       </c>
       <c r="D96" t="n">
-        <v>0.270087</v>
+        <v>0.273619</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.304924</v>
+        <v>0.318743</v>
       </c>
       <c r="C97" t="n">
-        <v>0.250437</v>
+        <v>0.264935</v>
       </c>
       <c r="D97" t="n">
-        <v>0.269727</v>
+        <v>0.269613</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.297873</v>
+        <v>0.314922</v>
       </c>
       <c r="C98" t="n">
-        <v>0.252816</v>
+        <v>0.262187</v>
       </c>
       <c r="D98" t="n">
-        <v>0.267176</v>
+        <v>0.266833</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.291206</v>
+        <v>0.309333</v>
       </c>
       <c r="C99" t="n">
-        <v>0.25199</v>
+        <v>0.254467</v>
       </c>
       <c r="D99" t="n">
-        <v>0.266886</v>
+        <v>0.263816</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.282349</v>
+        <v>0.300229</v>
       </c>
       <c r="C100" t="n">
-        <v>0.246357</v>
+        <v>0.253731</v>
       </c>
       <c r="D100" t="n">
-        <v>0.265993</v>
+        <v>0.263772</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.276347</v>
+        <v>0.289037</v>
       </c>
       <c r="C101" t="n">
-        <v>0.243724</v>
+        <v>0.252726</v>
       </c>
       <c r="D101" t="n">
-        <v>0.264501</v>
+        <v>0.265145</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.27172</v>
+        <v>0.287247</v>
       </c>
       <c r="C102" t="n">
-        <v>0.245661</v>
+        <v>0.251268</v>
       </c>
       <c r="D102" t="n">
-        <v>0.268887</v>
+        <v>0.263956</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.275906</v>
+        <v>0.276329</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245349</v>
+        <v>0.247879</v>
       </c>
       <c r="D103" t="n">
-        <v>0.264522</v>
+        <v>0.260384</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.263281</v>
+        <v>0.270009</v>
       </c>
       <c r="C104" t="n">
-        <v>0.243394</v>
+        <v>0.248832</v>
       </c>
       <c r="D104" t="n">
-        <v>0.268568</v>
+        <v>0.261887</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.258069</v>
+        <v>0.263142</v>
       </c>
       <c r="C105" t="n">
-        <v>0.245768</v>
+        <v>0.251669</v>
       </c>
       <c r="D105" t="n">
-        <v>0.262507</v>
+        <v>0.258031</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.247698</v>
+        <v>0.254423</v>
       </c>
       <c r="C106" t="n">
-        <v>0.244518</v>
+        <v>0.249492</v>
       </c>
       <c r="D106" t="n">
-        <v>0.261566</v>
+        <v>0.258297</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.241683</v>
+        <v>0.250593</v>
       </c>
       <c r="C107" t="n">
-        <v>0.243336</v>
+        <v>0.24612</v>
       </c>
       <c r="D107" t="n">
-        <v>0.261006</v>
+        <v>0.259073</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.231303</v>
+        <v>0.237815</v>
       </c>
       <c r="C108" t="n">
-        <v>0.240274</v>
+        <v>0.245818</v>
       </c>
       <c r="D108" t="n">
-        <v>0.277719</v>
+        <v>0.27409</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.223799</v>
+        <v>0.227504</v>
       </c>
       <c r="C109" t="n">
-        <v>0.245222</v>
+        <v>0.247076</v>
       </c>
       <c r="D109" t="n">
-        <v>0.277576</v>
+        <v>0.274797</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.312065</v>
+        <v>0.3235</v>
       </c>
       <c r="C110" t="n">
-        <v>0.257048</v>
+        <v>0.263354</v>
       </c>
       <c r="D110" t="n">
-        <v>0.281265</v>
+        <v>0.274445</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.310522</v>
+        <v>0.323238</v>
       </c>
       <c r="C111" t="n">
-        <v>0.255585</v>
+        <v>0.26715</v>
       </c>
       <c r="D111" t="n">
-        <v>0.276335</v>
+        <v>0.271239</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.313126</v>
+        <v>0.313759</v>
       </c>
       <c r="C112" t="n">
-        <v>0.254229</v>
+        <v>0.257461</v>
       </c>
       <c r="D112" t="n">
-        <v>0.275442</v>
+        <v>0.270677</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.299243</v>
+        <v>0.30691</v>
       </c>
       <c r="C113" t="n">
-        <v>0.253989</v>
+        <v>0.255343</v>
       </c>
       <c r="D113" t="n">
-        <v>0.273305</v>
+        <v>0.266385</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.295283</v>
+        <v>0.301835</v>
       </c>
       <c r="C114" t="n">
-        <v>0.251747</v>
+        <v>0.253339</v>
       </c>
       <c r="D114" t="n">
-        <v>0.270367</v>
+        <v>0.263256</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.287818</v>
+        <v>0.291232</v>
       </c>
       <c r="C115" t="n">
-        <v>0.251085</v>
+        <v>0.252285</v>
       </c>
       <c r="D115" t="n">
-        <v>0.271615</v>
+        <v>0.261363</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.279754</v>
+        <v>0.293531</v>
       </c>
       <c r="C116" t="n">
-        <v>0.250995</v>
+        <v>0.249436</v>
       </c>
       <c r="D116" t="n">
-        <v>0.265224</v>
+        <v>0.263269</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.272992</v>
+        <v>0.278812</v>
       </c>
       <c r="C117" t="n">
-        <v>0.247019</v>
+        <v>0.249206</v>
       </c>
       <c r="D117" t="n">
-        <v>0.269044</v>
+        <v>0.262251</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.265532</v>
+        <v>0.278447</v>
       </c>
       <c r="C118" t="n">
-        <v>0.243978</v>
+        <v>0.253772</v>
       </c>
       <c r="D118" t="n">
-        <v>0.261008</v>
+        <v>0.26712</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.260566</v>
+        <v>0.267241</v>
       </c>
       <c r="C119" t="n">
-        <v>0.243503</v>
+        <v>0.247768</v>
       </c>
       <c r="D119" t="n">
-        <v>0.26673</v>
+        <v>0.259417</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.25459</v>
+        <v>0.258357</v>
       </c>
       <c r="C120" t="n">
-        <v>0.248099</v>
+        <v>0.246827</v>
       </c>
       <c r="D120" t="n">
-        <v>0.261075</v>
+        <v>0.260549</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.250468</v>
+        <v>0.250011</v>
       </c>
       <c r="C121" t="n">
-        <v>0.248623</v>
+        <v>0.243151</v>
       </c>
       <c r="D121" t="n">
-        <v>0.260014</v>
+        <v>0.260738</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.233275</v>
+        <v>0.239388</v>
       </c>
       <c r="C122" t="n">
-        <v>0.242651</v>
+        <v>0.24332</v>
       </c>
       <c r="D122" t="n">
-        <v>0.25919</v>
+        <v>0.260564</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.225398</v>
+        <v>0.230525</v>
       </c>
       <c r="C123" t="n">
-        <v>0.246796</v>
+        <v>0.243755</v>
       </c>
       <c r="D123" t="n">
-        <v>0.279186</v>
+        <v>0.27499</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.319892</v>
+        <v>0.329905</v>
       </c>
       <c r="C124" t="n">
-        <v>0.254476</v>
+        <v>0.262015</v>
       </c>
       <c r="D124" t="n">
-        <v>0.277497</v>
+        <v>0.272708</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.313092</v>
+        <v>0.325989</v>
       </c>
       <c r="C125" t="n">
-        <v>0.257386</v>
+        <v>0.260995</v>
       </c>
       <c r="D125" t="n">
-        <v>0.274349</v>
+        <v>0.27051</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.303182</v>
+        <v>0.324299</v>
       </c>
       <c r="C126" t="n">
-        <v>0.261341</v>
+        <v>0.259132</v>
       </c>
       <c r="D126" t="n">
-        <v>0.273752</v>
+        <v>0.270502</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.300837</v>
+        <v>0.313001</v>
       </c>
       <c r="C127" t="n">
-        <v>0.25374</v>
+        <v>0.263572</v>
       </c>
       <c r="D127" t="n">
-        <v>0.275162</v>
+        <v>0.26664</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.291148</v>
+        <v>0.302722</v>
       </c>
       <c r="C128" t="n">
-        <v>0.251832</v>
+        <v>0.253607</v>
       </c>
       <c r="D128" t="n">
-        <v>0.273052</v>
+        <v>0.268317</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.284709</v>
+        <v>0.297974</v>
       </c>
       <c r="C129" t="n">
-        <v>0.246111</v>
+        <v>0.258742</v>
       </c>
       <c r="D129" t="n">
-        <v>0.268806</v>
+        <v>0.266978</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.275393</v>
+        <v>0.288718</v>
       </c>
       <c r="C130" t="n">
-        <v>0.249811</v>
+        <v>0.249558</v>
       </c>
       <c r="D130" t="n">
-        <v>0.265275</v>
+        <v>0.260327</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.270857</v>
+        <v>0.280074</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2471</v>
+        <v>0.250951</v>
       </c>
       <c r="D131" t="n">
-        <v>0.267191</v>
+        <v>0.267989</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.266817</v>
+        <v>0.277172</v>
       </c>
       <c r="C132" t="n">
-        <v>0.245141</v>
+        <v>0.251887</v>
       </c>
       <c r="D132" t="n">
-        <v>0.263064</v>
+        <v>0.260092</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.262029</v>
+        <v>0.263439</v>
       </c>
       <c r="C133" t="n">
-        <v>0.244927</v>
+        <v>0.246412</v>
       </c>
       <c r="D133" t="n">
-        <v>0.26356</v>
+        <v>0.260796</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.255688</v>
+        <v>0.25754</v>
       </c>
       <c r="C134" t="n">
-        <v>0.242311</v>
+        <v>0.247603</v>
       </c>
       <c r="D134" t="n">
-        <v>0.269203</v>
+        <v>0.258177</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.244485</v>
+        <v>0.250029</v>
       </c>
       <c r="C135" t="n">
-        <v>0.244138</v>
+        <v>0.247805</v>
       </c>
       <c r="D135" t="n">
-        <v>0.261181</v>
+        <v>0.257214</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.243339</v>
+        <v>0.238624</v>
       </c>
       <c r="C136" t="n">
-        <v>0.242157</v>
+        <v>0.24714</v>
       </c>
       <c r="D136" t="n">
-        <v>0.259148</v>
+        <v>0.256737</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.229094</v>
+        <v>0.231642</v>
       </c>
       <c r="C137" t="n">
-        <v>0.25214</v>
+        <v>0.243174</v>
       </c>
       <c r="D137" t="n">
-        <v>0.286408</v>
+        <v>0.277991</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.320354</v>
+        <v>0.326458</v>
       </c>
       <c r="C138" t="n">
-        <v>0.259847</v>
+        <v>0.262485</v>
       </c>
       <c r="D138" t="n">
-        <v>0.280003</v>
+        <v>0.274255</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.316713</v>
+        <v>0.3282</v>
       </c>
       <c r="C139" t="n">
-        <v>0.267398</v>
+        <v>0.257127</v>
       </c>
       <c r="D139" t="n">
-        <v>0.283365</v>
+        <v>0.275949</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.308367</v>
+        <v>0.330698</v>
       </c>
       <c r="C140" t="n">
-        <v>0.25586</v>
+        <v>0.259812</v>
       </c>
       <c r="D140" t="n">
-        <v>0.272699</v>
+        <v>0.266313</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.304276</v>
+        <v>0.315393</v>
       </c>
       <c r="C141" t="n">
-        <v>0.255686</v>
+        <v>0.257145</v>
       </c>
       <c r="D141" t="n">
-        <v>0.276719</v>
+        <v>0.265936</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.299363</v>
+        <v>0.303808</v>
       </c>
       <c r="C142" t="n">
-        <v>0.256719</v>
+        <v>0.254865</v>
       </c>
       <c r="D142" t="n">
-        <v>0.271154</v>
+        <v>0.266228</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.28704</v>
+        <v>0.301034</v>
       </c>
       <c r="C143" t="n">
-        <v>0.251052</v>
+        <v>0.251571</v>
       </c>
       <c r="D143" t="n">
-        <v>0.267586</v>
+        <v>0.264664</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.277504</v>
+        <v>0.25552</v>
       </c>
       <c r="C2" t="n">
-        <v>0.234848</v>
+        <v>0.234141</v>
       </c>
       <c r="D2" t="n">
-        <v>0.247313</v>
+        <v>0.239882</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.268174</v>
+        <v>0.248517</v>
       </c>
       <c r="C3" t="n">
-        <v>0.233806</v>
+        <v>0.239687</v>
       </c>
       <c r="D3" t="n">
-        <v>0.249514</v>
+        <v>0.246165</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.260299</v>
+        <v>0.240466</v>
       </c>
       <c r="C4" t="n">
-        <v>0.234476</v>
+        <v>0.236954</v>
       </c>
       <c r="D4" t="n">
-        <v>0.246127</v>
+        <v>0.242015</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.246001</v>
+        <v>0.23778</v>
       </c>
       <c r="C5" t="n">
-        <v>0.232861</v>
+        <v>0.239165</v>
       </c>
       <c r="D5" t="n">
-        <v>0.24906</v>
+        <v>0.244082</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.246724</v>
+        <v>0.232864</v>
       </c>
       <c r="C6" t="n">
-        <v>0.236536</v>
+        <v>0.23542</v>
       </c>
       <c r="D6" t="n">
-        <v>0.247152</v>
+        <v>0.242012</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.23159</v>
+        <v>0.227168</v>
       </c>
       <c r="C7" t="n">
-        <v>0.231052</v>
+        <v>0.234306</v>
       </c>
       <c r="D7" t="n">
-        <v>0.246936</v>
+        <v>0.240845</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.223512</v>
+        <v>0.218053</v>
       </c>
       <c r="C8" t="n">
-        <v>0.232755</v>
+        <v>0.239496</v>
       </c>
       <c r="D8" t="n">
-        <v>0.247109</v>
+        <v>0.236247</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.221726</v>
+        <v>0.208116</v>
       </c>
       <c r="C9" t="n">
-        <v>0.230893</v>
+        <v>0.235059</v>
       </c>
       <c r="D9" t="n">
-        <v>0.257334</v>
+        <v>0.247247</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.306197</v>
+        <v>0.289894</v>
       </c>
       <c r="C10" t="n">
-        <v>0.245529</v>
+        <v>0.242778</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25706</v>
+        <v>0.245981</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.302031</v>
+        <v>0.286673</v>
       </c>
       <c r="C11" t="n">
-        <v>0.250782</v>
+        <v>0.245484</v>
       </c>
       <c r="D11" t="n">
-        <v>0.257018</v>
+        <v>0.250733</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.299466</v>
+        <v>0.279172</v>
       </c>
       <c r="C12" t="n">
-        <v>0.240987</v>
+        <v>0.243691</v>
       </c>
       <c r="D12" t="n">
-        <v>0.253247</v>
+        <v>0.245768</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.293211</v>
+        <v>0.275608</v>
       </c>
       <c r="C13" t="n">
-        <v>0.248748</v>
+        <v>0.240547</v>
       </c>
       <c r="D13" t="n">
-        <v>0.251356</v>
+        <v>0.245165</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.282241</v>
+        <v>0.275355</v>
       </c>
       <c r="C14" t="n">
-        <v>0.241912</v>
+        <v>0.240009</v>
       </c>
       <c r="D14" t="n">
-        <v>0.258983</v>
+        <v>0.241945</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.277547</v>
+        <v>0.258035</v>
       </c>
       <c r="C15" t="n">
-        <v>0.242979</v>
+        <v>0.237873</v>
       </c>
       <c r="D15" t="n">
-        <v>0.253015</v>
+        <v>0.247288</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.273308</v>
+        <v>0.257193</v>
       </c>
       <c r="C16" t="n">
-        <v>0.248729</v>
+        <v>0.239844</v>
       </c>
       <c r="D16" t="n">
-        <v>0.249594</v>
+        <v>0.239163</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.266668</v>
+        <v>0.252199</v>
       </c>
       <c r="C17" t="n">
-        <v>0.245027</v>
+        <v>0.236986</v>
       </c>
       <c r="D17" t="n">
-        <v>0.259701</v>
+        <v>0.238848</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.261376</v>
+        <v>0.245723</v>
       </c>
       <c r="C18" t="n">
-        <v>0.240184</v>
+        <v>0.244897</v>
       </c>
       <c r="D18" t="n">
-        <v>0.250853</v>
+        <v>0.23926</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.254936</v>
+        <v>0.233553</v>
       </c>
       <c r="C19" t="n">
-        <v>0.248607</v>
+        <v>0.239241</v>
       </c>
       <c r="D19" t="n">
-        <v>0.257294</v>
+        <v>0.245467</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.252535</v>
+        <v>0.232811</v>
       </c>
       <c r="C20" t="n">
-        <v>0.236432</v>
+        <v>0.234224</v>
       </c>
       <c r="D20" t="n">
-        <v>0.257712</v>
+        <v>0.247277</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.247563</v>
+        <v>0.227352</v>
       </c>
       <c r="C21" t="n">
-        <v>0.235985</v>
+        <v>0.237165</v>
       </c>
       <c r="D21" t="n">
-        <v>0.25026</v>
+        <v>0.237956</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.233219</v>
+        <v>0.214128</v>
       </c>
       <c r="C22" t="n">
-        <v>0.236965</v>
+        <v>0.232452</v>
       </c>
       <c r="D22" t="n">
-        <v>0.251503</v>
+        <v>0.240204</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.219494</v>
+        <v>0.207535</v>
       </c>
       <c r="C23" t="n">
-        <v>0.240824</v>
+        <v>0.235192</v>
       </c>
       <c r="D23" t="n">
-        <v>0.259096</v>
+        <v>0.256927</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.309461</v>
+        <v>0.290833</v>
       </c>
       <c r="C24" t="n">
-        <v>0.246156</v>
+        <v>0.250016</v>
       </c>
       <c r="D24" t="n">
-        <v>0.259821</v>
+        <v>0.254039</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.30203</v>
+        <v>0.2858</v>
       </c>
       <c r="C25" t="n">
-        <v>0.248549</v>
+        <v>0.25099</v>
       </c>
       <c r="D25" t="n">
-        <v>0.264842</v>
+        <v>0.249429</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.30648</v>
+        <v>0.281518</v>
       </c>
       <c r="C26" t="n">
-        <v>0.246974</v>
+        <v>0.243655</v>
       </c>
       <c r="D26" t="n">
-        <v>0.253851</v>
+        <v>0.25074</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.296251</v>
+        <v>0.269534</v>
       </c>
       <c r="C27" t="n">
-        <v>0.248624</v>
+        <v>0.241437</v>
       </c>
       <c r="D27" t="n">
-        <v>0.255059</v>
+        <v>0.249333</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.292241</v>
+        <v>0.270036</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247267</v>
+        <v>0.241505</v>
       </c>
       <c r="D28" t="n">
-        <v>0.257921</v>
+        <v>0.248904</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.284466</v>
+        <v>0.263949</v>
       </c>
       <c r="C29" t="n">
-        <v>0.244141</v>
+        <v>0.240535</v>
       </c>
       <c r="D29" t="n">
-        <v>0.255522</v>
+        <v>0.247951</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.283212</v>
+        <v>0.257451</v>
       </c>
       <c r="C30" t="n">
-        <v>0.241484</v>
+        <v>0.238791</v>
       </c>
       <c r="D30" t="n">
-        <v>0.253101</v>
+        <v>0.250516</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.273225</v>
+        <v>0.24991</v>
       </c>
       <c r="C31" t="n">
-        <v>0.239458</v>
+        <v>0.238098</v>
       </c>
       <c r="D31" t="n">
-        <v>0.250989</v>
+        <v>0.245498</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.268165</v>
+        <v>0.244643</v>
       </c>
       <c r="C32" t="n">
-        <v>0.243082</v>
+        <v>0.241931</v>
       </c>
       <c r="D32" t="n">
-        <v>0.255822</v>
+        <v>0.245309</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256252</v>
+        <v>0.238261</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242211</v>
+        <v>0.238444</v>
       </c>
       <c r="D33" t="n">
-        <v>0.252609</v>
+        <v>0.248352</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.250775</v>
+        <v>0.232967</v>
       </c>
       <c r="C34" t="n">
-        <v>0.244533</v>
+        <v>0.23789</v>
       </c>
       <c r="D34" t="n">
-        <v>0.251889</v>
+        <v>0.243456</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.245456</v>
+        <v>0.227382</v>
       </c>
       <c r="C35" t="n">
-        <v>0.236686</v>
+        <v>0.237079</v>
       </c>
       <c r="D35" t="n">
-        <v>0.252464</v>
+        <v>0.251859</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.239119</v>
+        <v>0.222154</v>
       </c>
       <c r="C36" t="n">
-        <v>0.239854</v>
+        <v>0.236122</v>
       </c>
       <c r="D36" t="n">
-        <v>0.249192</v>
+        <v>0.243912</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.22372</v>
+        <v>0.214147</v>
       </c>
       <c r="C37" t="n">
-        <v>0.235185</v>
+        <v>0.23653</v>
       </c>
       <c r="D37" t="n">
-        <v>0.26221</v>
+        <v>0.256358</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.308161</v>
+        <v>0.285202</v>
       </c>
       <c r="C38" t="n">
-        <v>0.252676</v>
+        <v>0.24599</v>
       </c>
       <c r="D38" t="n">
-        <v>0.257846</v>
+        <v>0.257841</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.304034</v>
+        <v>0.287621</v>
       </c>
       <c r="C39" t="n">
-        <v>0.246218</v>
+        <v>0.246535</v>
       </c>
       <c r="D39" t="n">
-        <v>0.262675</v>
+        <v>0.254333</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.301045</v>
+        <v>0.278778</v>
       </c>
       <c r="C40" t="n">
-        <v>0.246921</v>
+        <v>0.246341</v>
       </c>
       <c r="D40" t="n">
-        <v>0.255887</v>
+        <v>0.249441</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.29639</v>
+        <v>0.276067</v>
       </c>
       <c r="C41" t="n">
-        <v>0.245237</v>
+        <v>0.244666</v>
       </c>
       <c r="D41" t="n">
-        <v>0.256685</v>
+        <v>0.250967</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.288744</v>
+        <v>0.266671</v>
       </c>
       <c r="C42" t="n">
-        <v>0.243755</v>
+        <v>0.241997</v>
       </c>
       <c r="D42" t="n">
-        <v>0.259914</v>
+        <v>0.250792</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.287404</v>
+        <v>0.26469</v>
       </c>
       <c r="C43" t="n">
-        <v>0.244577</v>
+        <v>0.244461</v>
       </c>
       <c r="D43" t="n">
-        <v>0.256667</v>
+        <v>0.252819</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.281976</v>
+        <v>0.261585</v>
       </c>
       <c r="C44" t="n">
-        <v>0.244301</v>
+        <v>0.243287</v>
       </c>
       <c r="D44" t="n">
-        <v>0.251636</v>
+        <v>0.251387</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.276349</v>
+        <v>0.257523</v>
       </c>
       <c r="C45" t="n">
-        <v>0.243096</v>
+        <v>0.242277</v>
       </c>
       <c r="D45" t="n">
-        <v>0.255729</v>
+        <v>0.245961</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.265319</v>
+        <v>0.249271</v>
       </c>
       <c r="C46" t="n">
-        <v>0.238905</v>
+        <v>0.240007</v>
       </c>
       <c r="D46" t="n">
-        <v>0.25082</v>
+        <v>0.245928</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.260299</v>
+        <v>0.243036</v>
       </c>
       <c r="C47" t="n">
-        <v>0.239655</v>
+        <v>0.240862</v>
       </c>
       <c r="D47" t="n">
-        <v>0.253743</v>
+        <v>0.24556</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.256552</v>
+        <v>0.2338</v>
       </c>
       <c r="C48" t="n">
-        <v>0.237506</v>
+        <v>0.235681</v>
       </c>
       <c r="D48" t="n">
-        <v>0.25542</v>
+        <v>0.243182</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.244953</v>
+        <v>0.233423</v>
       </c>
       <c r="C49" t="n">
-        <v>0.237257</v>
+        <v>0.238458</v>
       </c>
       <c r="D49" t="n">
-        <v>0.251666</v>
+        <v>0.243873</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.240143</v>
+        <v>0.220761</v>
       </c>
       <c r="C50" t="n">
-        <v>0.236494</v>
+        <v>0.239298</v>
       </c>
       <c r="D50" t="n">
-        <v>0.247846</v>
+        <v>0.246979</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.228883</v>
+        <v>0.218424</v>
       </c>
       <c r="C51" t="n">
-        <v>0.237459</v>
+        <v>0.240295</v>
       </c>
       <c r="D51" t="n">
-        <v>0.265693</v>
+        <v>0.257869</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.219339</v>
+        <v>0.208079</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241585</v>
+        <v>0.240883</v>
       </c>
       <c r="D52" t="n">
-        <v>0.266311</v>
+        <v>0.259674</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.315415</v>
+        <v>0.288647</v>
       </c>
       <c r="C53" t="n">
-        <v>0.253482</v>
+        <v>0.253759</v>
       </c>
       <c r="D53" t="n">
-        <v>0.262876</v>
+        <v>0.254327</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.307333</v>
+        <v>0.28493</v>
       </c>
       <c r="C54" t="n">
-        <v>0.24744</v>
+        <v>0.24935</v>
       </c>
       <c r="D54" t="n">
-        <v>0.26289</v>
+        <v>0.259864</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.30153</v>
+        <v>0.276414</v>
       </c>
       <c r="C55" t="n">
-        <v>0.249473</v>
+        <v>0.251493</v>
       </c>
       <c r="D55" t="n">
-        <v>0.259296</v>
+        <v>0.255295</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.299345</v>
+        <v>0.274612</v>
       </c>
       <c r="C56" t="n">
-        <v>0.25253</v>
+        <v>0.245775</v>
       </c>
       <c r="D56" t="n">
-        <v>0.260671</v>
+        <v>0.250163</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.289317</v>
+        <v>0.268358</v>
       </c>
       <c r="C57" t="n">
-        <v>0.24814</v>
+        <v>0.242313</v>
       </c>
       <c r="D57" t="n">
-        <v>0.261676</v>
+        <v>0.249873</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.281156</v>
+        <v>0.264687</v>
       </c>
       <c r="C58" t="n">
-        <v>0.246063</v>
+        <v>0.246671</v>
       </c>
       <c r="D58" t="n">
-        <v>0.254317</v>
+        <v>0.253836</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.276568</v>
+        <v>0.262022</v>
       </c>
       <c r="C59" t="n">
-        <v>0.24299</v>
+        <v>0.241529</v>
       </c>
       <c r="D59" t="n">
-        <v>0.260722</v>
+        <v>0.251031</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.273711</v>
+        <v>0.251552</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245599</v>
+        <v>0.24481</v>
       </c>
       <c r="D60" t="n">
-        <v>0.257413</v>
+        <v>0.250388</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.262088</v>
+        <v>0.249089</v>
       </c>
       <c r="C61" t="n">
-        <v>0.244775</v>
+        <v>0.246946</v>
       </c>
       <c r="D61" t="n">
-        <v>0.257473</v>
+        <v>0.250873</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.258284</v>
+        <v>0.238</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244142</v>
+        <v>0.243417</v>
       </c>
       <c r="D62" t="n">
-        <v>0.252564</v>
+        <v>0.249641</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.248667</v>
+        <v>0.233275</v>
       </c>
       <c r="C63" t="n">
-        <v>0.241083</v>
+        <v>0.241113</v>
       </c>
       <c r="D63" t="n">
-        <v>0.253191</v>
+        <v>0.244072</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.244075</v>
+        <v>0.224606</v>
       </c>
       <c r="C64" t="n">
-        <v>0.241067</v>
+        <v>0.237735</v>
       </c>
       <c r="D64" t="n">
-        <v>0.251548</v>
+        <v>0.24468</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.235191</v>
+        <v>0.219388</v>
       </c>
       <c r="C65" t="n">
-        <v>0.238856</v>
+        <v>0.239648</v>
       </c>
       <c r="D65" t="n">
-        <v>0.256554</v>
+        <v>0.243531</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223707</v>
+        <v>0.210782</v>
       </c>
       <c r="C66" t="n">
-        <v>0.237401</v>
+        <v>0.237293</v>
       </c>
       <c r="D66" t="n">
-        <v>0.268405</v>
+        <v>0.257537</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.315741</v>
+        <v>0.29446</v>
       </c>
       <c r="C67" t="n">
-        <v>0.255238</v>
+        <v>0.256955</v>
       </c>
       <c r="D67" t="n">
-        <v>0.26528</v>
+        <v>0.264002</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.310031</v>
+        <v>0.287872</v>
       </c>
       <c r="C68" t="n">
-        <v>0.253519</v>
+        <v>0.254153</v>
       </c>
       <c r="D68" t="n">
-        <v>0.264951</v>
+        <v>0.258871</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.306725</v>
+        <v>0.284984</v>
       </c>
       <c r="C69" t="n">
-        <v>0.254291</v>
+        <v>0.25372</v>
       </c>
       <c r="D69" t="n">
-        <v>0.262098</v>
+        <v>0.256016</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.302386</v>
+        <v>0.283254</v>
       </c>
       <c r="C70" t="n">
-        <v>0.250917</v>
+        <v>0.249726</v>
       </c>
       <c r="D70" t="n">
-        <v>0.260151</v>
+        <v>0.256921</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.296701</v>
+        <v>0.271808</v>
       </c>
       <c r="C71" t="n">
-        <v>0.250454</v>
+        <v>0.249261</v>
       </c>
       <c r="D71" t="n">
-        <v>0.262827</v>
+        <v>0.253379</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.290918</v>
+        <v>0.264756</v>
       </c>
       <c r="C72" t="n">
-        <v>0.246079</v>
+        <v>0.245819</v>
       </c>
       <c r="D72" t="n">
-        <v>0.257422</v>
+        <v>0.252748</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.281321</v>
+        <v>0.260918</v>
       </c>
       <c r="C73" t="n">
-        <v>0.245774</v>
+        <v>0.245643</v>
       </c>
       <c r="D73" t="n">
-        <v>0.259813</v>
+        <v>0.254272</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.280365</v>
+        <v>0.255167</v>
       </c>
       <c r="C74" t="n">
-        <v>0.247627</v>
+        <v>0.24533</v>
       </c>
       <c r="D74" t="n">
-        <v>0.255614</v>
+        <v>0.25165</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.272832</v>
+        <v>0.251618</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245014</v>
+        <v>0.245181</v>
       </c>
       <c r="D75" t="n">
-        <v>0.258618</v>
+        <v>0.250133</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.264025</v>
+        <v>0.242874</v>
       </c>
       <c r="C76" t="n">
-        <v>0.247033</v>
+        <v>0.242546</v>
       </c>
       <c r="D76" t="n">
-        <v>0.256259</v>
+        <v>0.250048</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.255549</v>
+        <v>0.238899</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243289</v>
+        <v>0.245829</v>
       </c>
       <c r="D77" t="n">
-        <v>0.257312</v>
+        <v>0.249328</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.250796</v>
+        <v>0.233469</v>
       </c>
       <c r="C78" t="n">
-        <v>0.244275</v>
+        <v>0.243929</v>
       </c>
       <c r="D78" t="n">
-        <v>0.256679</v>
+        <v>0.247407</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.237632</v>
+        <v>0.222307</v>
       </c>
       <c r="C79" t="n">
-        <v>0.244796</v>
+        <v>0.239873</v>
       </c>
       <c r="D79" t="n">
-        <v>0.255642</v>
+        <v>0.243708</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.230606</v>
+        <v>0.21582</v>
       </c>
       <c r="C80" t="n">
-        <v>0.239421</v>
+        <v>0.241195</v>
       </c>
       <c r="D80" t="n">
-        <v>0.27205</v>
+        <v>0.269522</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.322958</v>
+        <v>0.298472</v>
       </c>
       <c r="C81" t="n">
-        <v>0.260624</v>
+        <v>0.256986</v>
       </c>
       <c r="D81" t="n">
-        <v>0.269592</v>
+        <v>0.267184</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.323219</v>
+        <v>0.299406</v>
       </c>
       <c r="C82" t="n">
-        <v>0.257997</v>
+        <v>0.25775</v>
       </c>
       <c r="D82" t="n">
-        <v>0.275498</v>
+        <v>0.264688</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.316348</v>
+        <v>0.291132</v>
       </c>
       <c r="C83" t="n">
-        <v>0.255967</v>
+        <v>0.261694</v>
       </c>
       <c r="D83" t="n">
-        <v>0.269159</v>
+        <v>0.263027</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.30501</v>
+        <v>0.285383</v>
       </c>
       <c r="C84" t="n">
-        <v>0.251639</v>
+        <v>0.253134</v>
       </c>
       <c r="D84" t="n">
-        <v>0.26571</v>
+        <v>0.260731</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.300749</v>
+        <v>0.278789</v>
       </c>
       <c r="C85" t="n">
-        <v>0.254515</v>
+        <v>0.258538</v>
       </c>
       <c r="D85" t="n">
-        <v>0.270995</v>
+        <v>0.26087</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.297724</v>
+        <v>0.271424</v>
       </c>
       <c r="C86" t="n">
-        <v>0.256131</v>
+        <v>0.258698</v>
       </c>
       <c r="D86" t="n">
-        <v>0.264474</v>
+        <v>0.256778</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.286721</v>
+        <v>0.264938</v>
       </c>
       <c r="C87" t="n">
-        <v>0.252114</v>
+        <v>0.251376</v>
       </c>
       <c r="D87" t="n">
-        <v>0.26246</v>
+        <v>0.258245</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.286363</v>
+        <v>0.260989</v>
       </c>
       <c r="C88" t="n">
-        <v>0.252029</v>
+        <v>0.251235</v>
       </c>
       <c r="D88" t="n">
-        <v>0.263065</v>
+        <v>0.254449</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.277271</v>
+        <v>0.2563</v>
       </c>
       <c r="C89" t="n">
-        <v>0.251464</v>
+        <v>0.246826</v>
       </c>
       <c r="D89" t="n">
-        <v>0.260418</v>
+        <v>0.258493</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.269533</v>
+        <v>0.250047</v>
       </c>
       <c r="C90" t="n">
-        <v>0.246924</v>
+        <v>0.248925</v>
       </c>
       <c r="D90" t="n">
-        <v>0.259095</v>
+        <v>0.252591</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.266786</v>
+        <v>0.242093</v>
       </c>
       <c r="C91" t="n">
-        <v>0.250209</v>
+        <v>0.248095</v>
       </c>
       <c r="D91" t="n">
-        <v>0.257025</v>
+        <v>0.249591</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.253524</v>
+        <v>0.237272</v>
       </c>
       <c r="C92" t="n">
-        <v>0.245651</v>
+        <v>0.248358</v>
       </c>
       <c r="D92" t="n">
-        <v>0.256979</v>
+        <v>0.249393</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.241427</v>
+        <v>0.227273</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242568</v>
+        <v>0.245963</v>
       </c>
       <c r="D93" t="n">
-        <v>0.254566</v>
+        <v>0.248923</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.235219</v>
+        <v>0.219828</v>
       </c>
       <c r="C94" t="n">
-        <v>0.245423</v>
+        <v>0.246467</v>
       </c>
       <c r="D94" t="n">
-        <v>0.275849</v>
+        <v>0.270205</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.3313</v>
+        <v>0.299826</v>
       </c>
       <c r="C95" t="n">
-        <v>0.26415</v>
+        <v>0.25969</v>
       </c>
       <c r="D95" t="n">
-        <v>0.270147</v>
+        <v>0.272375</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.323188</v>
+        <v>0.298511</v>
       </c>
       <c r="C96" t="n">
-        <v>0.263476</v>
+        <v>0.260186</v>
       </c>
       <c r="D96" t="n">
-        <v>0.273619</v>
+        <v>0.267179</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.318743</v>
+        <v>0.292787</v>
       </c>
       <c r="C97" t="n">
-        <v>0.264935</v>
+        <v>0.2596</v>
       </c>
       <c r="D97" t="n">
-        <v>0.269613</v>
+        <v>0.262459</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.314922</v>
+        <v>0.285791</v>
       </c>
       <c r="C98" t="n">
-        <v>0.262187</v>
+        <v>0.262508</v>
       </c>
       <c r="D98" t="n">
-        <v>0.266833</v>
+        <v>0.26344</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.309333</v>
+        <v>0.277616</v>
       </c>
       <c r="C99" t="n">
-        <v>0.254467</v>
+        <v>0.254311</v>
       </c>
       <c r="D99" t="n">
-        <v>0.263816</v>
+        <v>0.26124</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.300229</v>
+        <v>0.277711</v>
       </c>
       <c r="C100" t="n">
-        <v>0.253731</v>
+        <v>0.252041</v>
       </c>
       <c r="D100" t="n">
-        <v>0.263772</v>
+        <v>0.256786</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.289037</v>
+        <v>0.269961</v>
       </c>
       <c r="C101" t="n">
-        <v>0.252726</v>
+        <v>0.252653</v>
       </c>
       <c r="D101" t="n">
-        <v>0.265145</v>
+        <v>0.258439</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.287247</v>
+        <v>0.262941</v>
       </c>
       <c r="C102" t="n">
-        <v>0.251268</v>
+        <v>0.253359</v>
       </c>
       <c r="D102" t="n">
-        <v>0.263956</v>
+        <v>0.254571</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.276329</v>
+        <v>0.253274</v>
       </c>
       <c r="C103" t="n">
-        <v>0.247879</v>
+        <v>0.249529</v>
       </c>
       <c r="D103" t="n">
-        <v>0.260384</v>
+        <v>0.255471</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.270009</v>
+        <v>0.251684</v>
       </c>
       <c r="C104" t="n">
-        <v>0.248832</v>
+        <v>0.249208</v>
       </c>
       <c r="D104" t="n">
-        <v>0.261887</v>
+        <v>0.258698</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.263142</v>
+        <v>0.248359</v>
       </c>
       <c r="C105" t="n">
-        <v>0.251669</v>
+        <v>0.248758</v>
       </c>
       <c r="D105" t="n">
-        <v>0.258031</v>
+        <v>0.251133</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.254423</v>
+        <v>0.237205</v>
       </c>
       <c r="C106" t="n">
-        <v>0.249492</v>
+        <v>0.245679</v>
       </c>
       <c r="D106" t="n">
-        <v>0.258297</v>
+        <v>0.251491</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.250593</v>
+        <v>0.230764</v>
       </c>
       <c r="C107" t="n">
-        <v>0.24612</v>
+        <v>0.245925</v>
       </c>
       <c r="D107" t="n">
-        <v>0.259073</v>
+        <v>0.251479</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.237815</v>
+        <v>0.22649</v>
       </c>
       <c r="C108" t="n">
-        <v>0.245818</v>
+        <v>0.243822</v>
       </c>
       <c r="D108" t="n">
-        <v>0.27409</v>
+        <v>0.268058</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.227504</v>
+        <v>0.211857</v>
       </c>
       <c r="C109" t="n">
-        <v>0.247076</v>
+        <v>0.243484</v>
       </c>
       <c r="D109" t="n">
-        <v>0.274797</v>
+        <v>0.265828</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.3235</v>
+        <v>0.301252</v>
       </c>
       <c r="C110" t="n">
-        <v>0.263354</v>
+        <v>0.261219</v>
       </c>
       <c r="D110" t="n">
-        <v>0.274445</v>
+        <v>0.264629</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.323238</v>
+        <v>0.296449</v>
       </c>
       <c r="C111" t="n">
-        <v>0.26715</v>
+        <v>0.257607</v>
       </c>
       <c r="D111" t="n">
-        <v>0.271239</v>
+        <v>0.261985</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.313759</v>
+        <v>0.285679</v>
       </c>
       <c r="C112" t="n">
-        <v>0.257461</v>
+        <v>0.255863</v>
       </c>
       <c r="D112" t="n">
-        <v>0.270677</v>
+        <v>0.265269</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.30691</v>
+        <v>0.283207</v>
       </c>
       <c r="C113" t="n">
-        <v>0.255343</v>
+        <v>0.255364</v>
       </c>
       <c r="D113" t="n">
-        <v>0.266385</v>
+        <v>0.26096</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.301835</v>
+        <v>0.279615</v>
       </c>
       <c r="C114" t="n">
-        <v>0.253339</v>
+        <v>0.253591</v>
       </c>
       <c r="D114" t="n">
-        <v>0.263256</v>
+        <v>0.259354</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.291232</v>
+        <v>0.271578</v>
       </c>
       <c r="C115" t="n">
-        <v>0.252285</v>
+        <v>0.250914</v>
       </c>
       <c r="D115" t="n">
-        <v>0.261363</v>
+        <v>0.258732</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.293531</v>
+        <v>0.265711</v>
       </c>
       <c r="C116" t="n">
-        <v>0.249436</v>
+        <v>0.251876</v>
       </c>
       <c r="D116" t="n">
-        <v>0.263269</v>
+        <v>0.256399</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.278812</v>
+        <v>0.265406</v>
       </c>
       <c r="C117" t="n">
-        <v>0.249206</v>
+        <v>0.248006</v>
       </c>
       <c r="D117" t="n">
-        <v>0.262251</v>
+        <v>0.257519</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.278447</v>
+        <v>0.253531</v>
       </c>
       <c r="C118" t="n">
-        <v>0.253772</v>
+        <v>0.249727</v>
       </c>
       <c r="D118" t="n">
-        <v>0.26712</v>
+        <v>0.254401</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.267241</v>
+        <v>0.246134</v>
       </c>
       <c r="C119" t="n">
-        <v>0.247768</v>
+        <v>0.249214</v>
       </c>
       <c r="D119" t="n">
-        <v>0.259417</v>
+        <v>0.254214</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258357</v>
+        <v>0.235369</v>
       </c>
       <c r="C120" t="n">
-        <v>0.246827</v>
+        <v>0.244899</v>
       </c>
       <c r="D120" t="n">
-        <v>0.260549</v>
+        <v>0.253479</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.250011</v>
+        <v>0.234019</v>
       </c>
       <c r="C121" t="n">
-        <v>0.243151</v>
+        <v>0.248434</v>
       </c>
       <c r="D121" t="n">
-        <v>0.260738</v>
+        <v>0.248427</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.239388</v>
+        <v>0.222162</v>
       </c>
       <c r="C122" t="n">
-        <v>0.24332</v>
+        <v>0.250493</v>
       </c>
       <c r="D122" t="n">
-        <v>0.260564</v>
+        <v>0.251172</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.230525</v>
+        <v>0.215693</v>
       </c>
       <c r="C123" t="n">
-        <v>0.243755</v>
+        <v>0.242272</v>
       </c>
       <c r="D123" t="n">
-        <v>0.27499</v>
+        <v>0.266686</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.329905</v>
+        <v>0.298908</v>
       </c>
       <c r="C124" t="n">
-        <v>0.262015</v>
+        <v>0.262178</v>
       </c>
       <c r="D124" t="n">
-        <v>0.272708</v>
+        <v>0.265995</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.325989</v>
+        <v>0.295875</v>
       </c>
       <c r="C125" t="n">
-        <v>0.260995</v>
+        <v>0.264276</v>
       </c>
       <c r="D125" t="n">
-        <v>0.27051</v>
+        <v>0.26375</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.324299</v>
+        <v>0.296889</v>
       </c>
       <c r="C126" t="n">
-        <v>0.259132</v>
+        <v>0.25681</v>
       </c>
       <c r="D126" t="n">
-        <v>0.270502</v>
+        <v>0.260173</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.313001</v>
+        <v>0.28563</v>
       </c>
       <c r="C127" t="n">
-        <v>0.263572</v>
+        <v>0.256941</v>
       </c>
       <c r="D127" t="n">
-        <v>0.26664</v>
+        <v>0.267524</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.302722</v>
+        <v>0.277118</v>
       </c>
       <c r="C128" t="n">
-        <v>0.253607</v>
+        <v>0.251775</v>
       </c>
       <c r="D128" t="n">
-        <v>0.268317</v>
+        <v>0.260064</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.297974</v>
+        <v>0.273026</v>
       </c>
       <c r="C129" t="n">
-        <v>0.258742</v>
+        <v>0.249858</v>
       </c>
       <c r="D129" t="n">
-        <v>0.266978</v>
+        <v>0.25604</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.288718</v>
+        <v>0.268307</v>
       </c>
       <c r="C130" t="n">
-        <v>0.249558</v>
+        <v>0.251792</v>
       </c>
       <c r="D130" t="n">
-        <v>0.260327</v>
+        <v>0.254815</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.280074</v>
+        <v>0.261775</v>
       </c>
       <c r="C131" t="n">
-        <v>0.250951</v>
+        <v>0.250655</v>
       </c>
       <c r="D131" t="n">
-        <v>0.267989</v>
+        <v>0.253541</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.277172</v>
+        <v>0.248583</v>
       </c>
       <c r="C132" t="n">
-        <v>0.251887</v>
+        <v>0.246697</v>
       </c>
       <c r="D132" t="n">
-        <v>0.260092</v>
+        <v>0.254813</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.263439</v>
+        <v>0.243568</v>
       </c>
       <c r="C133" t="n">
-        <v>0.246412</v>
+        <v>0.249142</v>
       </c>
       <c r="D133" t="n">
-        <v>0.260796</v>
+        <v>0.253261</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.25754</v>
+        <v>0.236887</v>
       </c>
       <c r="C134" t="n">
-        <v>0.247603</v>
+        <v>0.246761</v>
       </c>
       <c r="D134" t="n">
-        <v>0.258177</v>
+        <v>0.253623</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.250029</v>
+        <v>0.23441</v>
       </c>
       <c r="C135" t="n">
-        <v>0.247805</v>
+        <v>0.245386</v>
       </c>
       <c r="D135" t="n">
-        <v>0.257214</v>
+        <v>0.255669</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.238624</v>
+        <v>0.234643</v>
       </c>
       <c r="C136" t="n">
-        <v>0.24714</v>
+        <v>0.243433</v>
       </c>
       <c r="D136" t="n">
-        <v>0.256737</v>
+        <v>0.250601</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.231642</v>
+        <v>0.221131</v>
       </c>
       <c r="C137" t="n">
-        <v>0.243174</v>
+        <v>0.24437</v>
       </c>
       <c r="D137" t="n">
-        <v>0.277991</v>
+        <v>0.269997</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.326458</v>
+        <v>0.298154</v>
       </c>
       <c r="C138" t="n">
-        <v>0.262485</v>
+        <v>0.261859</v>
       </c>
       <c r="D138" t="n">
-        <v>0.274255</v>
+        <v>0.263489</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3282</v>
+        <v>0.303053</v>
       </c>
       <c r="C139" t="n">
-        <v>0.257127</v>
+        <v>0.260883</v>
       </c>
       <c r="D139" t="n">
-        <v>0.275949</v>
+        <v>0.262167</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.330698</v>
+        <v>0.293215</v>
       </c>
       <c r="C140" t="n">
-        <v>0.259812</v>
+        <v>0.263421</v>
       </c>
       <c r="D140" t="n">
-        <v>0.266313</v>
+        <v>0.263687</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.315393</v>
+        <v>0.284737</v>
       </c>
       <c r="C141" t="n">
-        <v>0.257145</v>
+        <v>0.256773</v>
       </c>
       <c r="D141" t="n">
-        <v>0.265936</v>
+        <v>0.263489</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.303808</v>
+        <v>0.279646</v>
       </c>
       <c r="C142" t="n">
-        <v>0.254865</v>
+        <v>0.250805</v>
       </c>
       <c r="D142" t="n">
-        <v>0.266228</v>
+        <v>0.270165</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.301034</v>
+        <v>0.275297</v>
       </c>
       <c r="C143" t="n">
-        <v>0.251571</v>
+        <v>0.252465</v>
       </c>
       <c r="D143" t="n">
-        <v>0.264664</v>
+        <v>0.262832</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.25552</v>
+        <v>0.272711</v>
       </c>
       <c r="C2" t="n">
-        <v>0.234141</v>
+        <v>0.240262</v>
       </c>
       <c r="D2" t="n">
-        <v>0.239882</v>
+        <v>0.239825</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.248517</v>
+        <v>0.263891</v>
       </c>
       <c r="C3" t="n">
-        <v>0.239687</v>
+        <v>0.238505</v>
       </c>
       <c r="D3" t="n">
-        <v>0.246165</v>
+        <v>0.241786</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.240466</v>
+        <v>0.264688</v>
       </c>
       <c r="C4" t="n">
-        <v>0.236954</v>
+        <v>0.238764</v>
       </c>
       <c r="D4" t="n">
-        <v>0.242015</v>
+        <v>0.245542</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.23778</v>
+        <v>0.255046</v>
       </c>
       <c r="C5" t="n">
-        <v>0.239165</v>
+        <v>0.235931</v>
       </c>
       <c r="D5" t="n">
-        <v>0.244082</v>
+        <v>0.236704</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.232864</v>
+        <v>0.248747</v>
       </c>
       <c r="C6" t="n">
-        <v>0.23542</v>
+        <v>0.235763</v>
       </c>
       <c r="D6" t="n">
-        <v>0.242012</v>
+        <v>0.239007</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.227168</v>
+        <v>0.236394</v>
       </c>
       <c r="C7" t="n">
-        <v>0.234306</v>
+        <v>0.232609</v>
       </c>
       <c r="D7" t="n">
-        <v>0.240845</v>
+        <v>0.231365</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.218053</v>
+        <v>0.232117</v>
       </c>
       <c r="C8" t="n">
-        <v>0.239496</v>
+        <v>0.230552</v>
       </c>
       <c r="D8" t="n">
-        <v>0.236247</v>
+        <v>0.233099</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.208116</v>
+        <v>0.221776</v>
       </c>
       <c r="C9" t="n">
-        <v>0.235059</v>
+        <v>0.236281</v>
       </c>
       <c r="D9" t="n">
-        <v>0.247247</v>
+        <v>0.24724</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.289894</v>
+        <v>0.306854</v>
       </c>
       <c r="C10" t="n">
-        <v>0.242778</v>
+        <v>0.240017</v>
       </c>
       <c r="D10" t="n">
-        <v>0.245981</v>
+        <v>0.239648</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.286673</v>
+        <v>0.300083</v>
       </c>
       <c r="C11" t="n">
-        <v>0.245484</v>
+        <v>0.243474</v>
       </c>
       <c r="D11" t="n">
-        <v>0.250733</v>
+        <v>0.24484</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.279172</v>
+        <v>0.293365</v>
       </c>
       <c r="C12" t="n">
-        <v>0.243691</v>
+        <v>0.238494</v>
       </c>
       <c r="D12" t="n">
-        <v>0.245768</v>
+        <v>0.250795</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.275608</v>
+        <v>0.290905</v>
       </c>
       <c r="C13" t="n">
-        <v>0.240547</v>
+        <v>0.240117</v>
       </c>
       <c r="D13" t="n">
-        <v>0.245165</v>
+        <v>0.242535</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.275355</v>
+        <v>0.283638</v>
       </c>
       <c r="C14" t="n">
-        <v>0.240009</v>
+        <v>0.241237</v>
       </c>
       <c r="D14" t="n">
-        <v>0.241945</v>
+        <v>0.23863</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.258035</v>
+        <v>0.280212</v>
       </c>
       <c r="C15" t="n">
-        <v>0.237873</v>
+        <v>0.241574</v>
       </c>
       <c r="D15" t="n">
-        <v>0.247288</v>
+        <v>0.237603</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.257193</v>
+        <v>0.272695</v>
       </c>
       <c r="C16" t="n">
-        <v>0.239844</v>
+        <v>0.241219</v>
       </c>
       <c r="D16" t="n">
-        <v>0.239163</v>
+        <v>0.242948</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.252199</v>
+        <v>0.261151</v>
       </c>
       <c r="C17" t="n">
-        <v>0.236986</v>
+        <v>0.236722</v>
       </c>
       <c r="D17" t="n">
-        <v>0.238848</v>
+        <v>0.245019</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.245723</v>
+        <v>0.258788</v>
       </c>
       <c r="C18" t="n">
-        <v>0.244897</v>
+        <v>0.240097</v>
       </c>
       <c r="D18" t="n">
-        <v>0.23926</v>
+        <v>0.241241</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.233553</v>
+        <v>0.251263</v>
       </c>
       <c r="C19" t="n">
-        <v>0.239241</v>
+        <v>0.237552</v>
       </c>
       <c r="D19" t="n">
-        <v>0.245467</v>
+        <v>0.242122</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.232811</v>
+        <v>0.244858</v>
       </c>
       <c r="C20" t="n">
-        <v>0.234224</v>
+        <v>0.239587</v>
       </c>
       <c r="D20" t="n">
-        <v>0.247277</v>
+        <v>0.233738</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.227352</v>
+        <v>0.240384</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237165</v>
+        <v>0.232889</v>
       </c>
       <c r="D21" t="n">
-        <v>0.237956</v>
+        <v>0.238813</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.214128</v>
+        <v>0.231844</v>
       </c>
       <c r="C22" t="n">
-        <v>0.232452</v>
+        <v>0.233418</v>
       </c>
       <c r="D22" t="n">
-        <v>0.240204</v>
+        <v>0.240172</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.207535</v>
+        <v>0.219314</v>
       </c>
       <c r="C23" t="n">
-        <v>0.235192</v>
+        <v>0.235013</v>
       </c>
       <c r="D23" t="n">
-        <v>0.256927</v>
+        <v>0.246314</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.290833</v>
+        <v>0.304004</v>
       </c>
       <c r="C24" t="n">
-        <v>0.250016</v>
+        <v>0.244567</v>
       </c>
       <c r="D24" t="n">
-        <v>0.254039</v>
+        <v>0.247198</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2858</v>
+        <v>0.297709</v>
       </c>
       <c r="C25" t="n">
-        <v>0.25099</v>
+        <v>0.247804</v>
       </c>
       <c r="D25" t="n">
-        <v>0.249429</v>
+        <v>0.244755</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.281518</v>
+        <v>0.295734</v>
       </c>
       <c r="C26" t="n">
-        <v>0.243655</v>
+        <v>0.243822</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25074</v>
+        <v>0.249399</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.269534</v>
+        <v>0.285559</v>
       </c>
       <c r="C27" t="n">
-        <v>0.241437</v>
+        <v>0.241656</v>
       </c>
       <c r="D27" t="n">
-        <v>0.249333</v>
+        <v>0.246304</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.270036</v>
+        <v>0.283529</v>
       </c>
       <c r="C28" t="n">
-        <v>0.241505</v>
+        <v>0.241626</v>
       </c>
       <c r="D28" t="n">
-        <v>0.248904</v>
+        <v>0.246788</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.263949</v>
+        <v>0.275951</v>
       </c>
       <c r="C29" t="n">
-        <v>0.240535</v>
+        <v>0.236849</v>
       </c>
       <c r="D29" t="n">
-        <v>0.247951</v>
+        <v>0.240012</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.257451</v>
+        <v>0.272113</v>
       </c>
       <c r="C30" t="n">
-        <v>0.238791</v>
+        <v>0.239368</v>
       </c>
       <c r="D30" t="n">
-        <v>0.250516</v>
+        <v>0.238565</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.24991</v>
+        <v>0.264945</v>
       </c>
       <c r="C31" t="n">
-        <v>0.238098</v>
+        <v>0.23764</v>
       </c>
       <c r="D31" t="n">
-        <v>0.245498</v>
+        <v>0.246458</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.244643</v>
+        <v>0.261272</v>
       </c>
       <c r="C32" t="n">
-        <v>0.241931</v>
+        <v>0.236068</v>
       </c>
       <c r="D32" t="n">
-        <v>0.245309</v>
+        <v>0.240931</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.238261</v>
+        <v>0.254715</v>
       </c>
       <c r="C33" t="n">
-        <v>0.238444</v>
+        <v>0.236132</v>
       </c>
       <c r="D33" t="n">
-        <v>0.248352</v>
+        <v>0.242003</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.232967</v>
+        <v>0.245148</v>
       </c>
       <c r="C34" t="n">
-        <v>0.23789</v>
+        <v>0.235923</v>
       </c>
       <c r="D34" t="n">
-        <v>0.243456</v>
+        <v>0.243433</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.227382</v>
+        <v>0.237532</v>
       </c>
       <c r="C35" t="n">
-        <v>0.237079</v>
+        <v>0.23343</v>
       </c>
       <c r="D35" t="n">
-        <v>0.251859</v>
+        <v>0.23622</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.222154</v>
+        <v>0.233688</v>
       </c>
       <c r="C36" t="n">
-        <v>0.236122</v>
+        <v>0.233282</v>
       </c>
       <c r="D36" t="n">
-        <v>0.243912</v>
+        <v>0.236074</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.214147</v>
+        <v>0.224943</v>
       </c>
       <c r="C37" t="n">
-        <v>0.23653</v>
+        <v>0.236253</v>
       </c>
       <c r="D37" t="n">
-        <v>0.256358</v>
+        <v>0.251694</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.285202</v>
+        <v>0.303608</v>
       </c>
       <c r="C38" t="n">
-        <v>0.24599</v>
+        <v>0.243291</v>
       </c>
       <c r="D38" t="n">
-        <v>0.257841</v>
+        <v>0.250946</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.287621</v>
+        <v>0.299009</v>
       </c>
       <c r="C39" t="n">
-        <v>0.246535</v>
+        <v>0.245668</v>
       </c>
       <c r="D39" t="n">
-        <v>0.254333</v>
+        <v>0.249307</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.278778</v>
+        <v>0.295438</v>
       </c>
       <c r="C40" t="n">
-        <v>0.246341</v>
+        <v>0.247933</v>
       </c>
       <c r="D40" t="n">
-        <v>0.249441</v>
+        <v>0.248833</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.276067</v>
+        <v>0.287899</v>
       </c>
       <c r="C41" t="n">
-        <v>0.244666</v>
+        <v>0.241436</v>
       </c>
       <c r="D41" t="n">
-        <v>0.250967</v>
+        <v>0.249541</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.266671</v>
+        <v>0.283648</v>
       </c>
       <c r="C42" t="n">
-        <v>0.241997</v>
+        <v>0.241343</v>
       </c>
       <c r="D42" t="n">
-        <v>0.250792</v>
+        <v>0.243508</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.26469</v>
+        <v>0.279171</v>
       </c>
       <c r="C43" t="n">
-        <v>0.244461</v>
+        <v>0.239747</v>
       </c>
       <c r="D43" t="n">
-        <v>0.252819</v>
+        <v>0.242321</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.261585</v>
+        <v>0.272316</v>
       </c>
       <c r="C44" t="n">
-        <v>0.243287</v>
+        <v>0.239536</v>
       </c>
       <c r="D44" t="n">
-        <v>0.251387</v>
+        <v>0.242855</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.257523</v>
+        <v>0.275386</v>
       </c>
       <c r="C45" t="n">
-        <v>0.242277</v>
+        <v>0.236715</v>
       </c>
       <c r="D45" t="n">
-        <v>0.245961</v>
+        <v>0.240911</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.249271</v>
+        <v>0.264388</v>
       </c>
       <c r="C46" t="n">
-        <v>0.240007</v>
+        <v>0.24022</v>
       </c>
       <c r="D46" t="n">
-        <v>0.245928</v>
+        <v>0.241561</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.243036</v>
+        <v>0.257293</v>
       </c>
       <c r="C47" t="n">
-        <v>0.240862</v>
+        <v>0.236753</v>
       </c>
       <c r="D47" t="n">
-        <v>0.24556</v>
+        <v>0.239644</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2338</v>
+        <v>0.24891</v>
       </c>
       <c r="C48" t="n">
-        <v>0.235681</v>
+        <v>0.239184</v>
       </c>
       <c r="D48" t="n">
-        <v>0.243182</v>
+        <v>0.238132</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.233423</v>
+        <v>0.244368</v>
       </c>
       <c r="C49" t="n">
-        <v>0.238458</v>
+        <v>0.234457</v>
       </c>
       <c r="D49" t="n">
-        <v>0.243873</v>
+        <v>0.239815</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.220761</v>
+        <v>0.231489</v>
       </c>
       <c r="C50" t="n">
-        <v>0.239298</v>
+        <v>0.238173</v>
       </c>
       <c r="D50" t="n">
-        <v>0.246979</v>
+        <v>0.237594</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.218424</v>
+        <v>0.228603</v>
       </c>
       <c r="C51" t="n">
-        <v>0.240295</v>
+        <v>0.239534</v>
       </c>
       <c r="D51" t="n">
-        <v>0.257869</v>
+        <v>0.259196</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.208079</v>
+        <v>0.21904</v>
       </c>
       <c r="C52" t="n">
-        <v>0.240883</v>
+        <v>0.233817</v>
       </c>
       <c r="D52" t="n">
-        <v>0.259674</v>
+        <v>0.252459</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.288647</v>
+        <v>0.303238</v>
       </c>
       <c r="C53" t="n">
-        <v>0.253759</v>
+        <v>0.248663</v>
       </c>
       <c r="D53" t="n">
-        <v>0.254327</v>
+        <v>0.250815</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.28493</v>
+        <v>0.30016</v>
       </c>
       <c r="C54" t="n">
-        <v>0.24935</v>
+        <v>0.247324</v>
       </c>
       <c r="D54" t="n">
-        <v>0.259864</v>
+        <v>0.251077</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.276414</v>
+        <v>0.294886</v>
       </c>
       <c r="C55" t="n">
-        <v>0.251493</v>
+        <v>0.247157</v>
       </c>
       <c r="D55" t="n">
-        <v>0.255295</v>
+        <v>0.248985</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.274612</v>
+        <v>0.291425</v>
       </c>
       <c r="C56" t="n">
-        <v>0.245775</v>
+        <v>0.246479</v>
       </c>
       <c r="D56" t="n">
-        <v>0.250163</v>
+        <v>0.254674</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.268358</v>
+        <v>0.284584</v>
       </c>
       <c r="C57" t="n">
-        <v>0.242313</v>
+        <v>0.242747</v>
       </c>
       <c r="D57" t="n">
-        <v>0.249873</v>
+        <v>0.251026</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.264687</v>
+        <v>0.287026</v>
       </c>
       <c r="C58" t="n">
-        <v>0.246671</v>
+        <v>0.244118</v>
       </c>
       <c r="D58" t="n">
-        <v>0.253836</v>
+        <v>0.24927</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.262022</v>
+        <v>0.277083</v>
       </c>
       <c r="C59" t="n">
-        <v>0.241529</v>
+        <v>0.243467</v>
       </c>
       <c r="D59" t="n">
-        <v>0.251031</v>
+        <v>0.246235</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.251552</v>
+        <v>0.265481</v>
       </c>
       <c r="C60" t="n">
-        <v>0.24481</v>
+        <v>0.242536</v>
       </c>
       <c r="D60" t="n">
-        <v>0.250388</v>
+        <v>0.2488</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.249089</v>
+        <v>0.259041</v>
       </c>
       <c r="C61" t="n">
-        <v>0.246946</v>
+        <v>0.242464</v>
       </c>
       <c r="D61" t="n">
-        <v>0.250873</v>
+        <v>0.243106</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.238</v>
+        <v>0.250092</v>
       </c>
       <c r="C62" t="n">
-        <v>0.243417</v>
+        <v>0.237533</v>
       </c>
       <c r="D62" t="n">
-        <v>0.249641</v>
+        <v>0.243052</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.233275</v>
+        <v>0.246941</v>
       </c>
       <c r="C63" t="n">
-        <v>0.241113</v>
+        <v>0.241876</v>
       </c>
       <c r="D63" t="n">
-        <v>0.244072</v>
+        <v>0.244077</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.224606</v>
+        <v>0.242531</v>
       </c>
       <c r="C64" t="n">
-        <v>0.237735</v>
+        <v>0.238607</v>
       </c>
       <c r="D64" t="n">
-        <v>0.24468</v>
+        <v>0.242109</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.219388</v>
+        <v>0.231596</v>
       </c>
       <c r="C65" t="n">
-        <v>0.239648</v>
+        <v>0.238655</v>
       </c>
       <c r="D65" t="n">
-        <v>0.243531</v>
+        <v>0.243792</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.210782</v>
+        <v>0.222288</v>
       </c>
       <c r="C66" t="n">
-        <v>0.237293</v>
+        <v>0.239056</v>
       </c>
       <c r="D66" t="n">
-        <v>0.257537</v>
+        <v>0.256319</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.29446</v>
+        <v>0.313019</v>
       </c>
       <c r="C67" t="n">
-        <v>0.256955</v>
+        <v>0.252044</v>
       </c>
       <c r="D67" t="n">
-        <v>0.264002</v>
+        <v>0.258692</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.287872</v>
+        <v>0.309323</v>
       </c>
       <c r="C68" t="n">
-        <v>0.254153</v>
+        <v>0.254108</v>
       </c>
       <c r="D68" t="n">
-        <v>0.258871</v>
+        <v>0.255326</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.284984</v>
+        <v>0.300597</v>
       </c>
       <c r="C69" t="n">
-        <v>0.25372</v>
+        <v>0.249264</v>
       </c>
       <c r="D69" t="n">
-        <v>0.256016</v>
+        <v>0.255977</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.283254</v>
+        <v>0.293377</v>
       </c>
       <c r="C70" t="n">
-        <v>0.249726</v>
+        <v>0.249319</v>
       </c>
       <c r="D70" t="n">
-        <v>0.256921</v>
+        <v>0.258038</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.271808</v>
+        <v>0.290283</v>
       </c>
       <c r="C71" t="n">
-        <v>0.249261</v>
+        <v>0.247258</v>
       </c>
       <c r="D71" t="n">
-        <v>0.253379</v>
+        <v>0.250703</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.264756</v>
+        <v>0.283453</v>
       </c>
       <c r="C72" t="n">
-        <v>0.245819</v>
+        <v>0.246032</v>
       </c>
       <c r="D72" t="n">
-        <v>0.252748</v>
+        <v>0.249716</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.260918</v>
+        <v>0.274783</v>
       </c>
       <c r="C73" t="n">
-        <v>0.245643</v>
+        <v>0.243195</v>
       </c>
       <c r="D73" t="n">
-        <v>0.254272</v>
+        <v>0.248283</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.255167</v>
+        <v>0.272678</v>
       </c>
       <c r="C74" t="n">
-        <v>0.24533</v>
+        <v>0.244606</v>
       </c>
       <c r="D74" t="n">
-        <v>0.25165</v>
+        <v>0.247438</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.251618</v>
+        <v>0.261103</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245181</v>
+        <v>0.243641</v>
       </c>
       <c r="D75" t="n">
-        <v>0.250133</v>
+        <v>0.247888</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.242874</v>
+        <v>0.256557</v>
       </c>
       <c r="C76" t="n">
-        <v>0.242546</v>
+        <v>0.24308</v>
       </c>
       <c r="D76" t="n">
-        <v>0.250048</v>
+        <v>0.247253</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.238899</v>
+        <v>0.250141</v>
       </c>
       <c r="C77" t="n">
-        <v>0.245829</v>
+        <v>0.239126</v>
       </c>
       <c r="D77" t="n">
-        <v>0.249328</v>
+        <v>0.246979</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.233469</v>
+        <v>0.241666</v>
       </c>
       <c r="C78" t="n">
-        <v>0.243929</v>
+        <v>0.238094</v>
       </c>
       <c r="D78" t="n">
-        <v>0.247407</v>
+        <v>0.245135</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.222307</v>
+        <v>0.237219</v>
       </c>
       <c r="C79" t="n">
-        <v>0.239873</v>
+        <v>0.240169</v>
       </c>
       <c r="D79" t="n">
-        <v>0.243708</v>
+        <v>0.24509</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.21582</v>
+        <v>0.224741</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241195</v>
+        <v>0.241274</v>
       </c>
       <c r="D80" t="n">
-        <v>0.269522</v>
+        <v>0.263123</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.298472</v>
+        <v>0.318102</v>
       </c>
       <c r="C81" t="n">
-        <v>0.256986</v>
+        <v>0.25844</v>
       </c>
       <c r="D81" t="n">
-        <v>0.267184</v>
+        <v>0.264284</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.299406</v>
+        <v>0.313076</v>
       </c>
       <c r="C82" t="n">
-        <v>0.25775</v>
+        <v>0.257996</v>
       </c>
       <c r="D82" t="n">
-        <v>0.264688</v>
+        <v>0.257625</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.291132</v>
+        <v>0.302595</v>
       </c>
       <c r="C83" t="n">
-        <v>0.261694</v>
+        <v>0.255608</v>
       </c>
       <c r="D83" t="n">
-        <v>0.263027</v>
+        <v>0.257512</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.285383</v>
+        <v>0.299918</v>
       </c>
       <c r="C84" t="n">
-        <v>0.253134</v>
+        <v>0.252734</v>
       </c>
       <c r="D84" t="n">
-        <v>0.260731</v>
+        <v>0.254761</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.278789</v>
+        <v>0.302398</v>
       </c>
       <c r="C85" t="n">
-        <v>0.258538</v>
+        <v>0.250289</v>
       </c>
       <c r="D85" t="n">
-        <v>0.26087</v>
+        <v>0.257814</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.271424</v>
+        <v>0.287239</v>
       </c>
       <c r="C86" t="n">
-        <v>0.258698</v>
+        <v>0.254554</v>
       </c>
       <c r="D86" t="n">
-        <v>0.256778</v>
+        <v>0.258103</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.264938</v>
+        <v>0.283163</v>
       </c>
       <c r="C87" t="n">
-        <v>0.251376</v>
+        <v>0.249856</v>
       </c>
       <c r="D87" t="n">
-        <v>0.258245</v>
+        <v>0.251686</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.260989</v>
+        <v>0.278644</v>
       </c>
       <c r="C88" t="n">
-        <v>0.251235</v>
+        <v>0.249562</v>
       </c>
       <c r="D88" t="n">
-        <v>0.254449</v>
+        <v>0.2513</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.2563</v>
+        <v>0.270925</v>
       </c>
       <c r="C89" t="n">
-        <v>0.246826</v>
+        <v>0.249064</v>
       </c>
       <c r="D89" t="n">
-        <v>0.258493</v>
+        <v>0.252811</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.250047</v>
+        <v>0.266946</v>
       </c>
       <c r="C90" t="n">
-        <v>0.248925</v>
+        <v>0.242335</v>
       </c>
       <c r="D90" t="n">
-        <v>0.252591</v>
+        <v>0.248097</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.242093</v>
+        <v>0.253686</v>
       </c>
       <c r="C91" t="n">
-        <v>0.248095</v>
+        <v>0.245591</v>
       </c>
       <c r="D91" t="n">
-        <v>0.249591</v>
+        <v>0.247257</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.237272</v>
+        <v>0.247472</v>
       </c>
       <c r="C92" t="n">
-        <v>0.248358</v>
+        <v>0.241673</v>
       </c>
       <c r="D92" t="n">
-        <v>0.249393</v>
+        <v>0.248965</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.227273</v>
+        <v>0.240552</v>
       </c>
       <c r="C93" t="n">
-        <v>0.245963</v>
+        <v>0.241035</v>
       </c>
       <c r="D93" t="n">
-        <v>0.248923</v>
+        <v>0.242681</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.219828</v>
+        <v>0.236362</v>
       </c>
       <c r="C94" t="n">
-        <v>0.246467</v>
+        <v>0.23969</v>
       </c>
       <c r="D94" t="n">
-        <v>0.270205</v>
+        <v>0.26178</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.299826</v>
+        <v>0.3192</v>
       </c>
       <c r="C95" t="n">
-        <v>0.25969</v>
+        <v>0.260947</v>
       </c>
       <c r="D95" t="n">
-        <v>0.272375</v>
+        <v>0.264007</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.298511</v>
+        <v>0.318061</v>
       </c>
       <c r="C96" t="n">
-        <v>0.260186</v>
+        <v>0.258533</v>
       </c>
       <c r="D96" t="n">
-        <v>0.267179</v>
+        <v>0.261122</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.292787</v>
+        <v>0.308584</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2596</v>
+        <v>0.255835</v>
       </c>
       <c r="D97" t="n">
-        <v>0.262459</v>
+        <v>0.260296</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.285791</v>
+        <v>0.304284</v>
       </c>
       <c r="C98" t="n">
-        <v>0.262508</v>
+        <v>0.25419</v>
       </c>
       <c r="D98" t="n">
-        <v>0.26344</v>
+        <v>0.257671</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.277616</v>
+        <v>0.298237</v>
       </c>
       <c r="C99" t="n">
-        <v>0.254311</v>
+        <v>0.252904</v>
       </c>
       <c r="D99" t="n">
-        <v>0.26124</v>
+        <v>0.261936</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.277711</v>
+        <v>0.291321</v>
       </c>
       <c r="C100" t="n">
-        <v>0.252041</v>
+        <v>0.253253</v>
       </c>
       <c r="D100" t="n">
-        <v>0.256786</v>
+        <v>0.255567</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.269961</v>
+        <v>0.287008</v>
       </c>
       <c r="C101" t="n">
-        <v>0.252653</v>
+        <v>0.250259</v>
       </c>
       <c r="D101" t="n">
-        <v>0.258439</v>
+        <v>0.256704</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.262941</v>
+        <v>0.282251</v>
       </c>
       <c r="C102" t="n">
-        <v>0.253359</v>
+        <v>0.248523</v>
       </c>
       <c r="D102" t="n">
-        <v>0.254571</v>
+        <v>0.253141</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.253274</v>
+        <v>0.270462</v>
       </c>
       <c r="C103" t="n">
-        <v>0.249529</v>
+        <v>0.246899</v>
       </c>
       <c r="D103" t="n">
-        <v>0.255471</v>
+        <v>0.249516</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.251684</v>
+        <v>0.269573</v>
       </c>
       <c r="C104" t="n">
-        <v>0.249208</v>
+        <v>0.243794</v>
       </c>
       <c r="D104" t="n">
-        <v>0.258698</v>
+        <v>0.247046</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.248359</v>
+        <v>0.257074</v>
       </c>
       <c r="C105" t="n">
-        <v>0.248758</v>
+        <v>0.245655</v>
       </c>
       <c r="D105" t="n">
-        <v>0.251133</v>
+        <v>0.248495</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.237205</v>
+        <v>0.250696</v>
       </c>
       <c r="C106" t="n">
-        <v>0.245679</v>
+        <v>0.24319</v>
       </c>
       <c r="D106" t="n">
-        <v>0.251491</v>
+        <v>0.248608</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.230764</v>
+        <v>0.239538</v>
       </c>
       <c r="C107" t="n">
-        <v>0.245925</v>
+        <v>0.239973</v>
       </c>
       <c r="D107" t="n">
-        <v>0.251479</v>
+        <v>0.244292</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.22649</v>
+        <v>0.238921</v>
       </c>
       <c r="C108" t="n">
-        <v>0.243822</v>
+        <v>0.24344</v>
       </c>
       <c r="D108" t="n">
-        <v>0.268058</v>
+        <v>0.265947</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.211857</v>
+        <v>0.227953</v>
       </c>
       <c r="C109" t="n">
-        <v>0.243484</v>
+        <v>0.241093</v>
       </c>
       <c r="D109" t="n">
-        <v>0.265828</v>
+        <v>0.263678</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.301252</v>
+        <v>0.317564</v>
       </c>
       <c r="C110" t="n">
-        <v>0.261219</v>
+        <v>0.262086</v>
       </c>
       <c r="D110" t="n">
-        <v>0.264629</v>
+        <v>0.263019</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.296449</v>
+        <v>0.308423</v>
       </c>
       <c r="C111" t="n">
-        <v>0.257607</v>
+        <v>0.259017</v>
       </c>
       <c r="D111" t="n">
-        <v>0.261985</v>
+        <v>0.257595</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.285679</v>
+        <v>0.303613</v>
       </c>
       <c r="C112" t="n">
-        <v>0.255863</v>
+        <v>0.257256</v>
       </c>
       <c r="D112" t="n">
-        <v>0.265269</v>
+        <v>0.262547</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.283207</v>
+        <v>0.306895</v>
       </c>
       <c r="C113" t="n">
-        <v>0.255364</v>
+        <v>0.252858</v>
       </c>
       <c r="D113" t="n">
-        <v>0.26096</v>
+        <v>0.25738</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.279615</v>
+        <v>0.299087</v>
       </c>
       <c r="C114" t="n">
-        <v>0.253591</v>
+        <v>0.248741</v>
       </c>
       <c r="D114" t="n">
-        <v>0.259354</v>
+        <v>0.257997</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.271578</v>
+        <v>0.293032</v>
       </c>
       <c r="C115" t="n">
-        <v>0.250914</v>
+        <v>0.250388</v>
       </c>
       <c r="D115" t="n">
-        <v>0.258732</v>
+        <v>0.255775</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.265711</v>
+        <v>0.282269</v>
       </c>
       <c r="C116" t="n">
-        <v>0.251876</v>
+        <v>0.250505</v>
       </c>
       <c r="D116" t="n">
-        <v>0.256399</v>
+        <v>0.255212</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.265406</v>
+        <v>0.272378</v>
       </c>
       <c r="C117" t="n">
-        <v>0.248006</v>
+        <v>0.24734</v>
       </c>
       <c r="D117" t="n">
-        <v>0.257519</v>
+        <v>0.254613</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.253531</v>
+        <v>0.265822</v>
       </c>
       <c r="C118" t="n">
-        <v>0.249727</v>
+        <v>0.249841</v>
       </c>
       <c r="D118" t="n">
-        <v>0.254401</v>
+        <v>0.249866</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.246134</v>
+        <v>0.261208</v>
       </c>
       <c r="C119" t="n">
-        <v>0.249214</v>
+        <v>0.244461</v>
       </c>
       <c r="D119" t="n">
-        <v>0.254214</v>
+        <v>0.254624</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.235369</v>
+        <v>0.25462</v>
       </c>
       <c r="C120" t="n">
-        <v>0.244899</v>
+        <v>0.246968</v>
       </c>
       <c r="D120" t="n">
-        <v>0.253479</v>
+        <v>0.250832</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.234019</v>
+        <v>0.241114</v>
       </c>
       <c r="C121" t="n">
-        <v>0.248434</v>
+        <v>0.244504</v>
       </c>
       <c r="D121" t="n">
-        <v>0.248427</v>
+        <v>0.246523</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.222162</v>
+        <v>0.239409</v>
       </c>
       <c r="C122" t="n">
-        <v>0.250493</v>
+        <v>0.244202</v>
       </c>
       <c r="D122" t="n">
-        <v>0.251172</v>
+        <v>0.249878</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.215693</v>
+        <v>0.228407</v>
       </c>
       <c r="C123" t="n">
-        <v>0.242272</v>
+        <v>0.241419</v>
       </c>
       <c r="D123" t="n">
-        <v>0.266686</v>
+        <v>0.271107</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.298908</v>
+        <v>0.325405</v>
       </c>
       <c r="C124" t="n">
-        <v>0.262178</v>
+        <v>0.256825</v>
       </c>
       <c r="D124" t="n">
-        <v>0.265995</v>
+        <v>0.267587</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.295875</v>
+        <v>0.325258</v>
       </c>
       <c r="C125" t="n">
-        <v>0.264276</v>
+        <v>0.258871</v>
       </c>
       <c r="D125" t="n">
-        <v>0.26375</v>
+        <v>0.263519</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.296889</v>
+        <v>0.316999</v>
       </c>
       <c r="C126" t="n">
-        <v>0.25681</v>
+        <v>0.253626</v>
       </c>
       <c r="D126" t="n">
-        <v>0.260173</v>
+        <v>0.257787</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.28563</v>
+        <v>0.301429</v>
       </c>
       <c r="C127" t="n">
-        <v>0.256941</v>
+        <v>0.252279</v>
       </c>
       <c r="D127" t="n">
-        <v>0.267524</v>
+        <v>0.257306</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.277118</v>
+        <v>0.292822</v>
       </c>
       <c r="C128" t="n">
-        <v>0.251775</v>
+        <v>0.253661</v>
       </c>
       <c r="D128" t="n">
-        <v>0.260064</v>
+        <v>0.258421</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.273026</v>
+        <v>0.29298</v>
       </c>
       <c r="C129" t="n">
-        <v>0.249858</v>
+        <v>0.253527</v>
       </c>
       <c r="D129" t="n">
-        <v>0.25604</v>
+        <v>0.254785</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.268307</v>
+        <v>0.279402</v>
       </c>
       <c r="C130" t="n">
-        <v>0.251792</v>
+        <v>0.250352</v>
       </c>
       <c r="D130" t="n">
-        <v>0.254815</v>
+        <v>0.254571</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.261775</v>
+        <v>0.270706</v>
       </c>
       <c r="C131" t="n">
-        <v>0.250655</v>
+        <v>0.251605</v>
       </c>
       <c r="D131" t="n">
-        <v>0.253541</v>
+        <v>0.250067</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.248583</v>
+        <v>0.265642</v>
       </c>
       <c r="C132" t="n">
-        <v>0.246697</v>
+        <v>0.247701</v>
       </c>
       <c r="D132" t="n">
-        <v>0.254813</v>
+        <v>0.255312</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.243568</v>
+        <v>0.262038</v>
       </c>
       <c r="C133" t="n">
-        <v>0.249142</v>
+        <v>0.244085</v>
       </c>
       <c r="D133" t="n">
-        <v>0.253261</v>
+        <v>0.250498</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.236887</v>
+        <v>0.254755</v>
       </c>
       <c r="C134" t="n">
-        <v>0.246761</v>
+        <v>0.245953</v>
       </c>
       <c r="D134" t="n">
-        <v>0.253623</v>
+        <v>0.250946</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.23441</v>
+        <v>0.249112</v>
       </c>
       <c r="C135" t="n">
-        <v>0.245386</v>
+        <v>0.244094</v>
       </c>
       <c r="D135" t="n">
-        <v>0.255669</v>
+        <v>0.248698</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.234643</v>
+        <v>0.241753</v>
       </c>
       <c r="C136" t="n">
-        <v>0.243433</v>
+        <v>0.246882</v>
       </c>
       <c r="D136" t="n">
-        <v>0.250601</v>
+        <v>0.247977</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.221131</v>
+        <v>0.230314</v>
       </c>
       <c r="C137" t="n">
-        <v>0.24437</v>
+        <v>0.24759</v>
       </c>
       <c r="D137" t="n">
-        <v>0.269997</v>
+        <v>0.265492</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.298154</v>
+        <v>0.318254</v>
       </c>
       <c r="C138" t="n">
-        <v>0.261859</v>
+        <v>0.260803</v>
       </c>
       <c r="D138" t="n">
-        <v>0.263489</v>
+        <v>0.266297</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.303053</v>
+        <v>0.317589</v>
       </c>
       <c r="C139" t="n">
-        <v>0.260883</v>
+        <v>0.262708</v>
       </c>
       <c r="D139" t="n">
-        <v>0.262167</v>
+        <v>0.269456</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.293215</v>
+        <v>0.313181</v>
       </c>
       <c r="C140" t="n">
-        <v>0.263421</v>
+        <v>0.254665</v>
       </c>
       <c r="D140" t="n">
-        <v>0.263687</v>
+        <v>0.257605</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.284737</v>
+        <v>0.306994</v>
       </c>
       <c r="C141" t="n">
-        <v>0.256773</v>
+        <v>0.254098</v>
       </c>
       <c r="D141" t="n">
-        <v>0.263489</v>
+        <v>0.2641</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.279646</v>
+        <v>0.297512</v>
       </c>
       <c r="C142" t="n">
-        <v>0.250805</v>
+        <v>0.25317</v>
       </c>
       <c r="D142" t="n">
-        <v>0.270165</v>
+        <v>0.25553</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.275297</v>
+        <v>0.292508</v>
       </c>
       <c r="C143" t="n">
-        <v>0.252465</v>
+        <v>0.251886</v>
       </c>
       <c r="D143" t="n">
-        <v>0.262832</v>
+        <v>0.255167</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.272711</v>
+        <v>0.255031</v>
       </c>
       <c r="C2" t="n">
-        <v>0.240262</v>
+        <v>0.234488</v>
       </c>
       <c r="D2" t="n">
-        <v>0.239825</v>
+        <v>0.239066</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.263891</v>
+        <v>0.246174</v>
       </c>
       <c r="C3" t="n">
-        <v>0.238505</v>
+        <v>0.238885</v>
       </c>
       <c r="D3" t="n">
-        <v>0.241786</v>
+        <v>0.235462</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.264688</v>
+        <v>0.242266</v>
       </c>
       <c r="C4" t="n">
-        <v>0.238764</v>
+        <v>0.237553</v>
       </c>
       <c r="D4" t="n">
-        <v>0.245542</v>
+        <v>0.239567</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.255046</v>
+        <v>0.232129</v>
       </c>
       <c r="C5" t="n">
-        <v>0.235931</v>
+        <v>0.243577</v>
       </c>
       <c r="D5" t="n">
-        <v>0.236704</v>
+        <v>0.234825</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.248747</v>
+        <v>0.232958</v>
       </c>
       <c r="C6" t="n">
-        <v>0.235763</v>
+        <v>0.235648</v>
       </c>
       <c r="D6" t="n">
-        <v>0.239007</v>
+        <v>0.232511</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.236394</v>
+        <v>0.219576</v>
       </c>
       <c r="C7" t="n">
-        <v>0.232609</v>
+        <v>0.234432</v>
       </c>
       <c r="D7" t="n">
-        <v>0.231365</v>
+        <v>0.233346</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.232117</v>
+        <v>0.215709</v>
       </c>
       <c r="C8" t="n">
-        <v>0.230552</v>
+        <v>0.232013</v>
       </c>
       <c r="D8" t="n">
-        <v>0.233099</v>
+        <v>0.234973</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.221776</v>
+        <v>0.207714</v>
       </c>
       <c r="C9" t="n">
-        <v>0.236281</v>
+        <v>0.236043</v>
       </c>
       <c r="D9" t="n">
-        <v>0.24724</v>
+        <v>0.24538</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.306854</v>
+        <v>0.290255</v>
       </c>
       <c r="C10" t="n">
-        <v>0.240017</v>
+        <v>0.244124</v>
       </c>
       <c r="D10" t="n">
-        <v>0.239648</v>
+        <v>0.244966</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.300083</v>
+        <v>0.285139</v>
       </c>
       <c r="C11" t="n">
-        <v>0.243474</v>
+        <v>0.245556</v>
       </c>
       <c r="D11" t="n">
-        <v>0.24484</v>
+        <v>0.245414</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.293365</v>
+        <v>0.28052</v>
       </c>
       <c r="C12" t="n">
-        <v>0.238494</v>
+        <v>0.241007</v>
       </c>
       <c r="D12" t="n">
-        <v>0.250795</v>
+        <v>0.250493</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.290905</v>
+        <v>0.277676</v>
       </c>
       <c r="C13" t="n">
-        <v>0.240117</v>
+        <v>0.248134</v>
       </c>
       <c r="D13" t="n">
-        <v>0.242535</v>
+        <v>0.248584</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.283638</v>
+        <v>0.268416</v>
       </c>
       <c r="C14" t="n">
-        <v>0.241237</v>
+        <v>0.244473</v>
       </c>
       <c r="D14" t="n">
-        <v>0.23863</v>
+        <v>0.249027</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.280212</v>
+        <v>0.262163</v>
       </c>
       <c r="C15" t="n">
-        <v>0.241574</v>
+        <v>0.237029</v>
       </c>
       <c r="D15" t="n">
-        <v>0.237603</v>
+        <v>0.246963</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.272695</v>
+        <v>0.259272</v>
       </c>
       <c r="C16" t="n">
-        <v>0.241219</v>
+        <v>0.241074</v>
       </c>
       <c r="D16" t="n">
-        <v>0.242948</v>
+        <v>0.249999</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.261151</v>
+        <v>0.259148</v>
       </c>
       <c r="C17" t="n">
-        <v>0.236722</v>
+        <v>0.237153</v>
       </c>
       <c r="D17" t="n">
-        <v>0.245019</v>
+        <v>0.243014</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.258788</v>
+        <v>0.245854</v>
       </c>
       <c r="C18" t="n">
-        <v>0.240097</v>
+        <v>0.239417</v>
       </c>
       <c r="D18" t="n">
-        <v>0.241241</v>
+        <v>0.252111</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.251263</v>
+        <v>0.242511</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237552</v>
+        <v>0.249329</v>
       </c>
       <c r="D19" t="n">
-        <v>0.242122</v>
+        <v>0.242344</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244858</v>
+        <v>0.238534</v>
       </c>
       <c r="C20" t="n">
-        <v>0.239587</v>
+        <v>0.237613</v>
       </c>
       <c r="D20" t="n">
-        <v>0.233738</v>
+        <v>0.240278</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240384</v>
+        <v>0.226463</v>
       </c>
       <c r="C21" t="n">
-        <v>0.232889</v>
+        <v>0.240464</v>
       </c>
       <c r="D21" t="n">
-        <v>0.238813</v>
+        <v>0.248206</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.231844</v>
+        <v>0.22824</v>
       </c>
       <c r="C22" t="n">
-        <v>0.233418</v>
+        <v>0.239005</v>
       </c>
       <c r="D22" t="n">
-        <v>0.240172</v>
+        <v>0.246942</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.219314</v>
+        <v>0.214238</v>
       </c>
       <c r="C23" t="n">
-        <v>0.235013</v>
+        <v>0.235471</v>
       </c>
       <c r="D23" t="n">
-        <v>0.246314</v>
+        <v>0.258771</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.304004</v>
+        <v>0.28942</v>
       </c>
       <c r="C24" t="n">
-        <v>0.244567</v>
+        <v>0.246736</v>
       </c>
       <c r="D24" t="n">
-        <v>0.247198</v>
+        <v>0.252578</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.297709</v>
+        <v>0.287513</v>
       </c>
       <c r="C25" t="n">
-        <v>0.247804</v>
+        <v>0.245992</v>
       </c>
       <c r="D25" t="n">
-        <v>0.244755</v>
+        <v>0.252731</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.295734</v>
+        <v>0.282017</v>
       </c>
       <c r="C26" t="n">
-        <v>0.243822</v>
+        <v>0.246471</v>
       </c>
       <c r="D26" t="n">
-        <v>0.249399</v>
+        <v>0.248482</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.285559</v>
+        <v>0.284242</v>
       </c>
       <c r="C27" t="n">
-        <v>0.241656</v>
+        <v>0.244826</v>
       </c>
       <c r="D27" t="n">
-        <v>0.246304</v>
+        <v>0.254684</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.283529</v>
+        <v>0.273873</v>
       </c>
       <c r="C28" t="n">
-        <v>0.241626</v>
+        <v>0.24387</v>
       </c>
       <c r="D28" t="n">
-        <v>0.246788</v>
+        <v>0.255091</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.275951</v>
+        <v>0.266453</v>
       </c>
       <c r="C29" t="n">
-        <v>0.236849</v>
+        <v>0.243569</v>
       </c>
       <c r="D29" t="n">
-        <v>0.240012</v>
+        <v>0.248091</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.272113</v>
+        <v>0.2601</v>
       </c>
       <c r="C30" t="n">
-        <v>0.239368</v>
+        <v>0.241506</v>
       </c>
       <c r="D30" t="n">
-        <v>0.238565</v>
+        <v>0.255697</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.264945</v>
+        <v>0.258201</v>
       </c>
       <c r="C31" t="n">
-        <v>0.23764</v>
+        <v>0.240027</v>
       </c>
       <c r="D31" t="n">
-        <v>0.246458</v>
+        <v>0.244792</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.261272</v>
+        <v>0.248332</v>
       </c>
       <c r="C32" t="n">
-        <v>0.236068</v>
+        <v>0.239215</v>
       </c>
       <c r="D32" t="n">
-        <v>0.240931</v>
+        <v>0.249664</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.254715</v>
+        <v>0.2411</v>
       </c>
       <c r="C33" t="n">
-        <v>0.236132</v>
+        <v>0.24181</v>
       </c>
       <c r="D33" t="n">
-        <v>0.242003</v>
+        <v>0.2512</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.245148</v>
+        <v>0.235933</v>
       </c>
       <c r="C34" t="n">
-        <v>0.235923</v>
+        <v>0.238537</v>
       </c>
       <c r="D34" t="n">
-        <v>0.243433</v>
+        <v>0.247744</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.237532</v>
+        <v>0.229166</v>
       </c>
       <c r="C35" t="n">
-        <v>0.23343</v>
+        <v>0.23752</v>
       </c>
       <c r="D35" t="n">
-        <v>0.23622</v>
+        <v>0.243702</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.233688</v>
+        <v>0.221343</v>
       </c>
       <c r="C36" t="n">
-        <v>0.233282</v>
+        <v>0.239392</v>
       </c>
       <c r="D36" t="n">
-        <v>0.236074</v>
+        <v>0.246543</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.224943</v>
+        <v>0.21409</v>
       </c>
       <c r="C37" t="n">
-        <v>0.236253</v>
+        <v>0.237043</v>
       </c>
       <c r="D37" t="n">
-        <v>0.251694</v>
+        <v>0.255675</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.303608</v>
+        <v>0.293164</v>
       </c>
       <c r="C38" t="n">
-        <v>0.243291</v>
+        <v>0.248543</v>
       </c>
       <c r="D38" t="n">
-        <v>0.250946</v>
+        <v>0.251502</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.299009</v>
+        <v>0.292423</v>
       </c>
       <c r="C39" t="n">
-        <v>0.245668</v>
+        <v>0.248609</v>
       </c>
       <c r="D39" t="n">
-        <v>0.249307</v>
+        <v>0.249362</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.295438</v>
+        <v>0.282843</v>
       </c>
       <c r="C40" t="n">
-        <v>0.247933</v>
+        <v>0.246292</v>
       </c>
       <c r="D40" t="n">
-        <v>0.248833</v>
+        <v>0.249641</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.287899</v>
+        <v>0.27215</v>
       </c>
       <c r="C41" t="n">
-        <v>0.241436</v>
+        <v>0.244781</v>
       </c>
       <c r="D41" t="n">
-        <v>0.249541</v>
+        <v>0.251291</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.283648</v>
+        <v>0.27364</v>
       </c>
       <c r="C42" t="n">
-        <v>0.241343</v>
+        <v>0.24067</v>
       </c>
       <c r="D42" t="n">
-        <v>0.243508</v>
+        <v>0.249377</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.279171</v>
+        <v>0.261519</v>
       </c>
       <c r="C43" t="n">
-        <v>0.239747</v>
+        <v>0.241998</v>
       </c>
       <c r="D43" t="n">
-        <v>0.242321</v>
+        <v>0.246736</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.272316</v>
+        <v>0.260299</v>
       </c>
       <c r="C44" t="n">
-        <v>0.239536</v>
+        <v>0.243695</v>
       </c>
       <c r="D44" t="n">
-        <v>0.242855</v>
+        <v>0.250648</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.275386</v>
+        <v>0.257035</v>
       </c>
       <c r="C45" t="n">
-        <v>0.236715</v>
+        <v>0.245274</v>
       </c>
       <c r="D45" t="n">
-        <v>0.240911</v>
+        <v>0.248658</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.264388</v>
+        <v>0.248292</v>
       </c>
       <c r="C46" t="n">
-        <v>0.24022</v>
+        <v>0.240079</v>
       </c>
       <c r="D46" t="n">
-        <v>0.241561</v>
+        <v>0.248581</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.257293</v>
+        <v>0.242829</v>
       </c>
       <c r="C47" t="n">
-        <v>0.236753</v>
+        <v>0.238292</v>
       </c>
       <c r="D47" t="n">
-        <v>0.239644</v>
+        <v>0.244318</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.24891</v>
+        <v>0.234195</v>
       </c>
       <c r="C48" t="n">
-        <v>0.239184</v>
+        <v>0.239238</v>
       </c>
       <c r="D48" t="n">
-        <v>0.238132</v>
+        <v>0.2429</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.244368</v>
+        <v>0.232719</v>
       </c>
       <c r="C49" t="n">
-        <v>0.234457</v>
+        <v>0.239879</v>
       </c>
       <c r="D49" t="n">
-        <v>0.239815</v>
+        <v>0.243759</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.231489</v>
+        <v>0.225589</v>
       </c>
       <c r="C50" t="n">
-        <v>0.238173</v>
+        <v>0.237201</v>
       </c>
       <c r="D50" t="n">
-        <v>0.237594</v>
+        <v>0.246167</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.228603</v>
+        <v>0.217407</v>
       </c>
       <c r="C51" t="n">
-        <v>0.239534</v>
+        <v>0.237951</v>
       </c>
       <c r="D51" t="n">
-        <v>0.259196</v>
+        <v>0.257479</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.21904</v>
+        <v>0.211218</v>
       </c>
       <c r="C52" t="n">
-        <v>0.233817</v>
+        <v>0.238326</v>
       </c>
       <c r="D52" t="n">
-        <v>0.252459</v>
+        <v>0.256677</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.303238</v>
+        <v>0.289655</v>
       </c>
       <c r="C53" t="n">
-        <v>0.248663</v>
+        <v>0.253244</v>
       </c>
       <c r="D53" t="n">
-        <v>0.250815</v>
+        <v>0.259362</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.30016</v>
+        <v>0.285247</v>
       </c>
       <c r="C54" t="n">
-        <v>0.247324</v>
+        <v>0.247225</v>
       </c>
       <c r="D54" t="n">
-        <v>0.251077</v>
+        <v>0.253594</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.294886</v>
+        <v>0.279394</v>
       </c>
       <c r="C55" t="n">
-        <v>0.247157</v>
+        <v>0.245689</v>
       </c>
       <c r="D55" t="n">
-        <v>0.248985</v>
+        <v>0.251828</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.291425</v>
+        <v>0.275461</v>
       </c>
       <c r="C56" t="n">
-        <v>0.246479</v>
+        <v>0.24722</v>
       </c>
       <c r="D56" t="n">
-        <v>0.254674</v>
+        <v>0.248979</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.284584</v>
+        <v>0.275045</v>
       </c>
       <c r="C57" t="n">
-        <v>0.242747</v>
+        <v>0.2471</v>
       </c>
       <c r="D57" t="n">
-        <v>0.251026</v>
+        <v>0.251361</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.287026</v>
+        <v>0.267869</v>
       </c>
       <c r="C58" t="n">
-        <v>0.244118</v>
+        <v>0.240985</v>
       </c>
       <c r="D58" t="n">
-        <v>0.24927</v>
+        <v>0.251715</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.277083</v>
+        <v>0.25861</v>
       </c>
       <c r="C59" t="n">
-        <v>0.243467</v>
+        <v>0.243663</v>
       </c>
       <c r="D59" t="n">
-        <v>0.246235</v>
+        <v>0.250001</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.265481</v>
+        <v>0.252096</v>
       </c>
       <c r="C60" t="n">
-        <v>0.242536</v>
+        <v>0.239173</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2488</v>
+        <v>0.248022</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.259041</v>
+        <v>0.245634</v>
       </c>
       <c r="C61" t="n">
-        <v>0.242464</v>
+        <v>0.238214</v>
       </c>
       <c r="D61" t="n">
-        <v>0.243106</v>
+        <v>0.24467</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.250092</v>
+        <v>0.2443</v>
       </c>
       <c r="C62" t="n">
-        <v>0.237533</v>
+        <v>0.242315</v>
       </c>
       <c r="D62" t="n">
-        <v>0.243052</v>
+        <v>0.248807</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.246941</v>
+        <v>0.234859</v>
       </c>
       <c r="C63" t="n">
-        <v>0.241876</v>
+        <v>0.240542</v>
       </c>
       <c r="D63" t="n">
-        <v>0.244077</v>
+        <v>0.245502</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.242531</v>
+        <v>0.229185</v>
       </c>
       <c r="C64" t="n">
-        <v>0.238607</v>
+        <v>0.242459</v>
       </c>
       <c r="D64" t="n">
-        <v>0.242109</v>
+        <v>0.243237</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.231596</v>
+        <v>0.222268</v>
       </c>
       <c r="C65" t="n">
-        <v>0.238655</v>
+        <v>0.237712</v>
       </c>
       <c r="D65" t="n">
-        <v>0.243792</v>
+        <v>0.241009</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.222288</v>
+        <v>0.213</v>
       </c>
       <c r="C66" t="n">
-        <v>0.239056</v>
+        <v>0.240634</v>
       </c>
       <c r="D66" t="n">
-        <v>0.256319</v>
+        <v>0.261577</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.313019</v>
+        <v>0.29931</v>
       </c>
       <c r="C67" t="n">
-        <v>0.252044</v>
+        <v>0.254785</v>
       </c>
       <c r="D67" t="n">
-        <v>0.258692</v>
+        <v>0.261737</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.309323</v>
+        <v>0.294228</v>
       </c>
       <c r="C68" t="n">
-        <v>0.254108</v>
+        <v>0.251265</v>
       </c>
       <c r="D68" t="n">
-        <v>0.255326</v>
+        <v>0.25547</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.300597</v>
+        <v>0.289101</v>
       </c>
       <c r="C69" t="n">
-        <v>0.249264</v>
+        <v>0.249318</v>
       </c>
       <c r="D69" t="n">
-        <v>0.255977</v>
+        <v>0.256332</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.293377</v>
+        <v>0.283913</v>
       </c>
       <c r="C70" t="n">
-        <v>0.249319</v>
+        <v>0.251904</v>
       </c>
       <c r="D70" t="n">
-        <v>0.258038</v>
+        <v>0.258131</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.290283</v>
+        <v>0.275465</v>
       </c>
       <c r="C71" t="n">
-        <v>0.247258</v>
+        <v>0.248544</v>
       </c>
       <c r="D71" t="n">
-        <v>0.250703</v>
+        <v>0.251919</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.283453</v>
+        <v>0.269998</v>
       </c>
       <c r="C72" t="n">
-        <v>0.246032</v>
+        <v>0.251459</v>
       </c>
       <c r="D72" t="n">
-        <v>0.249716</v>
+        <v>0.253889</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.274783</v>
+        <v>0.265279</v>
       </c>
       <c r="C73" t="n">
-        <v>0.243195</v>
+        <v>0.246754</v>
       </c>
       <c r="D73" t="n">
-        <v>0.248283</v>
+        <v>0.247906</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.272678</v>
+        <v>0.260966</v>
       </c>
       <c r="C74" t="n">
-        <v>0.244606</v>
+        <v>0.246241</v>
       </c>
       <c r="D74" t="n">
-        <v>0.247438</v>
+        <v>0.252555</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.261103</v>
+        <v>0.252988</v>
       </c>
       <c r="C75" t="n">
-        <v>0.243641</v>
+        <v>0.244264</v>
       </c>
       <c r="D75" t="n">
-        <v>0.247888</v>
+        <v>0.252917</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.256557</v>
+        <v>0.247622</v>
       </c>
       <c r="C76" t="n">
-        <v>0.24308</v>
+        <v>0.246095</v>
       </c>
       <c r="D76" t="n">
-        <v>0.247253</v>
+        <v>0.248279</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.250141</v>
+        <v>0.242592</v>
       </c>
       <c r="C77" t="n">
-        <v>0.239126</v>
+        <v>0.243697</v>
       </c>
       <c r="D77" t="n">
-        <v>0.246979</v>
+        <v>0.250298</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.241666</v>
+        <v>0.232359</v>
       </c>
       <c r="C78" t="n">
-        <v>0.238094</v>
+        <v>0.244465</v>
       </c>
       <c r="D78" t="n">
-        <v>0.245135</v>
+        <v>0.245455</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.237219</v>
+        <v>0.226785</v>
       </c>
       <c r="C79" t="n">
-        <v>0.240169</v>
+        <v>0.244769</v>
       </c>
       <c r="D79" t="n">
-        <v>0.24509</v>
+        <v>0.247416</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.224741</v>
+        <v>0.220712</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241274</v>
+        <v>0.243677</v>
       </c>
       <c r="D80" t="n">
-        <v>0.263123</v>
+        <v>0.262855</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.318102</v>
+        <v>0.306044</v>
       </c>
       <c r="C81" t="n">
-        <v>0.25844</v>
+        <v>0.258782</v>
       </c>
       <c r="D81" t="n">
-        <v>0.264284</v>
+        <v>0.263356</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.313076</v>
+        <v>0.299361</v>
       </c>
       <c r="C82" t="n">
-        <v>0.257996</v>
+        <v>0.25927</v>
       </c>
       <c r="D82" t="n">
-        <v>0.257625</v>
+        <v>0.269821</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.302595</v>
+        <v>0.294147</v>
       </c>
       <c r="C83" t="n">
-        <v>0.255608</v>
+        <v>0.255893</v>
       </c>
       <c r="D83" t="n">
-        <v>0.257512</v>
+        <v>0.263129</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.299918</v>
+        <v>0.287013</v>
       </c>
       <c r="C84" t="n">
-        <v>0.252734</v>
+        <v>0.254578</v>
       </c>
       <c r="D84" t="n">
-        <v>0.254761</v>
+        <v>0.258296</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.302398</v>
+        <v>0.280777</v>
       </c>
       <c r="C85" t="n">
-        <v>0.250289</v>
+        <v>0.250115</v>
       </c>
       <c r="D85" t="n">
-        <v>0.257814</v>
+        <v>0.260096</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.287239</v>
+        <v>0.276603</v>
       </c>
       <c r="C86" t="n">
-        <v>0.254554</v>
+        <v>0.250288</v>
       </c>
       <c r="D86" t="n">
-        <v>0.258103</v>
+        <v>0.256054</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.283163</v>
+        <v>0.274135</v>
       </c>
       <c r="C87" t="n">
-        <v>0.249856</v>
+        <v>0.250657</v>
       </c>
       <c r="D87" t="n">
-        <v>0.251686</v>
+        <v>0.255169</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.278644</v>
+        <v>0.267061</v>
       </c>
       <c r="C88" t="n">
-        <v>0.249562</v>
+        <v>0.251358</v>
       </c>
       <c r="D88" t="n">
-        <v>0.2513</v>
+        <v>0.256169</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.270925</v>
+        <v>0.256293</v>
       </c>
       <c r="C89" t="n">
-        <v>0.249064</v>
+        <v>0.252268</v>
       </c>
       <c r="D89" t="n">
-        <v>0.252811</v>
+        <v>0.258016</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.266946</v>
+        <v>0.251881</v>
       </c>
       <c r="C90" t="n">
-        <v>0.242335</v>
+        <v>0.245299</v>
       </c>
       <c r="D90" t="n">
-        <v>0.248097</v>
+        <v>0.251963</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.253686</v>
+        <v>0.245563</v>
       </c>
       <c r="C91" t="n">
-        <v>0.245591</v>
+        <v>0.248627</v>
       </c>
       <c r="D91" t="n">
-        <v>0.247257</v>
+        <v>0.250654</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.247472</v>
+        <v>0.239191</v>
       </c>
       <c r="C92" t="n">
-        <v>0.241673</v>
+        <v>0.245506</v>
       </c>
       <c r="D92" t="n">
-        <v>0.248965</v>
+        <v>0.255897</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.240552</v>
+        <v>0.233563</v>
       </c>
       <c r="C93" t="n">
-        <v>0.241035</v>
+        <v>0.246165</v>
       </c>
       <c r="D93" t="n">
-        <v>0.242681</v>
+        <v>0.250895</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.236362</v>
+        <v>0.222372</v>
       </c>
       <c r="C94" t="n">
-        <v>0.23969</v>
+        <v>0.24539</v>
       </c>
       <c r="D94" t="n">
-        <v>0.26178</v>
+        <v>0.2666</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.3192</v>
+        <v>0.303556</v>
       </c>
       <c r="C95" t="n">
-        <v>0.260947</v>
+        <v>0.267761</v>
       </c>
       <c r="D95" t="n">
-        <v>0.264007</v>
+        <v>0.265459</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.318061</v>
+        <v>0.299321</v>
       </c>
       <c r="C96" t="n">
-        <v>0.258533</v>
+        <v>0.262226</v>
       </c>
       <c r="D96" t="n">
-        <v>0.261122</v>
+        <v>0.266971</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.308584</v>
+        <v>0.297777</v>
       </c>
       <c r="C97" t="n">
-        <v>0.255835</v>
+        <v>0.257501</v>
       </c>
       <c r="D97" t="n">
-        <v>0.260296</v>
+        <v>0.265233</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.304284</v>
+        <v>0.29086</v>
       </c>
       <c r="C98" t="n">
-        <v>0.25419</v>
+        <v>0.257584</v>
       </c>
       <c r="D98" t="n">
-        <v>0.257671</v>
+        <v>0.25831</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.298237</v>
+        <v>0.294031</v>
       </c>
       <c r="C99" t="n">
-        <v>0.252904</v>
+        <v>0.253084</v>
       </c>
       <c r="D99" t="n">
-        <v>0.261936</v>
+        <v>0.261689</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.291321</v>
+        <v>0.281976</v>
       </c>
       <c r="C100" t="n">
-        <v>0.253253</v>
+        <v>0.253446</v>
       </c>
       <c r="D100" t="n">
-        <v>0.255567</v>
+        <v>0.258788</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.287008</v>
+        <v>0.273356</v>
       </c>
       <c r="C101" t="n">
-        <v>0.250259</v>
+        <v>0.254045</v>
       </c>
       <c r="D101" t="n">
-        <v>0.256704</v>
+        <v>0.256726</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.282251</v>
+        <v>0.265303</v>
       </c>
       <c r="C102" t="n">
-        <v>0.248523</v>
+        <v>0.248314</v>
       </c>
       <c r="D102" t="n">
-        <v>0.253141</v>
+        <v>0.258036</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.270462</v>
+        <v>0.259651</v>
       </c>
       <c r="C103" t="n">
-        <v>0.246899</v>
+        <v>0.247237</v>
       </c>
       <c r="D103" t="n">
-        <v>0.249516</v>
+        <v>0.253767</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.269573</v>
+        <v>0.25485</v>
       </c>
       <c r="C104" t="n">
-        <v>0.243794</v>
+        <v>0.252266</v>
       </c>
       <c r="D104" t="n">
-        <v>0.247046</v>
+        <v>0.254052</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.257074</v>
+        <v>0.245165</v>
       </c>
       <c r="C105" t="n">
-        <v>0.245655</v>
+        <v>0.245295</v>
       </c>
       <c r="D105" t="n">
-        <v>0.248495</v>
+        <v>0.249204</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.250696</v>
+        <v>0.236688</v>
       </c>
       <c r="C106" t="n">
-        <v>0.24319</v>
+        <v>0.244814</v>
       </c>
       <c r="D106" t="n">
-        <v>0.248608</v>
+        <v>0.248904</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.239538</v>
+        <v>0.23412</v>
       </c>
       <c r="C107" t="n">
-        <v>0.239973</v>
+        <v>0.244869</v>
       </c>
       <c r="D107" t="n">
-        <v>0.244292</v>
+        <v>0.252638</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.238921</v>
+        <v>0.228657</v>
       </c>
       <c r="C108" t="n">
-        <v>0.24344</v>
+        <v>0.245378</v>
       </c>
       <c r="D108" t="n">
-        <v>0.265947</v>
+        <v>0.268151</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.227953</v>
+        <v>0.217493</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241093</v>
+        <v>0.254532</v>
       </c>
       <c r="D109" t="n">
-        <v>0.263678</v>
+        <v>0.269343</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.317564</v>
+        <v>0.303052</v>
       </c>
       <c r="C110" t="n">
-        <v>0.262086</v>
+        <v>0.260505</v>
       </c>
       <c r="D110" t="n">
-        <v>0.263019</v>
+        <v>0.266276</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.308423</v>
+        <v>0.29424</v>
       </c>
       <c r="C111" t="n">
-        <v>0.259017</v>
+        <v>0.256158</v>
       </c>
       <c r="D111" t="n">
-        <v>0.257595</v>
+        <v>0.266162</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.303613</v>
+        <v>0.295482</v>
       </c>
       <c r="C112" t="n">
-        <v>0.257256</v>
+        <v>0.25545</v>
       </c>
       <c r="D112" t="n">
-        <v>0.262547</v>
+        <v>0.260361</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.306895</v>
+        <v>0.287589</v>
       </c>
       <c r="C113" t="n">
-        <v>0.252858</v>
+        <v>0.260805</v>
       </c>
       <c r="D113" t="n">
-        <v>0.25738</v>
+        <v>0.261162</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.299087</v>
+        <v>0.285612</v>
       </c>
       <c r="C114" t="n">
-        <v>0.248741</v>
+        <v>0.254839</v>
       </c>
       <c r="D114" t="n">
-        <v>0.257997</v>
+        <v>0.258626</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.293032</v>
+        <v>0.273129</v>
       </c>
       <c r="C115" t="n">
-        <v>0.250388</v>
+        <v>0.251105</v>
       </c>
       <c r="D115" t="n">
-        <v>0.255775</v>
+        <v>0.259621</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.282269</v>
+        <v>0.272164</v>
       </c>
       <c r="C116" t="n">
-        <v>0.250505</v>
+        <v>0.251094</v>
       </c>
       <c r="D116" t="n">
-        <v>0.255212</v>
+        <v>0.25605</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.272378</v>
+        <v>0.261081</v>
       </c>
       <c r="C117" t="n">
-        <v>0.24734</v>
+        <v>0.251477</v>
       </c>
       <c r="D117" t="n">
-        <v>0.254613</v>
+        <v>0.253983</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.265822</v>
+        <v>0.25889</v>
       </c>
       <c r="C118" t="n">
-        <v>0.249841</v>
+        <v>0.245898</v>
       </c>
       <c r="D118" t="n">
-        <v>0.249866</v>
+        <v>0.25134</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.261208</v>
+        <v>0.246216</v>
       </c>
       <c r="C119" t="n">
-        <v>0.244461</v>
+        <v>0.245674</v>
       </c>
       <c r="D119" t="n">
-        <v>0.254624</v>
+        <v>0.250425</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.25462</v>
+        <v>0.243926</v>
       </c>
       <c r="C120" t="n">
-        <v>0.246968</v>
+        <v>0.250449</v>
       </c>
       <c r="D120" t="n">
-        <v>0.250832</v>
+        <v>0.259934</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.241114</v>
+        <v>0.233934</v>
       </c>
       <c r="C121" t="n">
-        <v>0.244504</v>
+        <v>0.247835</v>
       </c>
       <c r="D121" t="n">
-        <v>0.246523</v>
+        <v>0.250209</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.239409</v>
+        <v>0.22743</v>
       </c>
       <c r="C122" t="n">
-        <v>0.244202</v>
+        <v>0.243066</v>
       </c>
       <c r="D122" t="n">
-        <v>0.249878</v>
+        <v>0.249303</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.228407</v>
+        <v>0.219728</v>
       </c>
       <c r="C123" t="n">
-        <v>0.241419</v>
+        <v>0.243942</v>
       </c>
       <c r="D123" t="n">
-        <v>0.271107</v>
+        <v>0.267895</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.325405</v>
+        <v>0.306113</v>
       </c>
       <c r="C124" t="n">
-        <v>0.256825</v>
+        <v>0.2664</v>
       </c>
       <c r="D124" t="n">
-        <v>0.267587</v>
+        <v>0.266472</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.325258</v>
+        <v>0.304897</v>
       </c>
       <c r="C125" t="n">
-        <v>0.258871</v>
+        <v>0.257935</v>
       </c>
       <c r="D125" t="n">
-        <v>0.263519</v>
+        <v>0.268288</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.316999</v>
+        <v>0.293201</v>
       </c>
       <c r="C126" t="n">
-        <v>0.253626</v>
+        <v>0.255454</v>
       </c>
       <c r="D126" t="n">
-        <v>0.257787</v>
+        <v>0.259555</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.301429</v>
+        <v>0.285485</v>
       </c>
       <c r="C127" t="n">
-        <v>0.252279</v>
+        <v>0.258147</v>
       </c>
       <c r="D127" t="n">
-        <v>0.257306</v>
+        <v>0.264224</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.292822</v>
+        <v>0.283161</v>
       </c>
       <c r="C128" t="n">
-        <v>0.253661</v>
+        <v>0.255233</v>
       </c>
       <c r="D128" t="n">
-        <v>0.258421</v>
+        <v>0.263755</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.29298</v>
+        <v>0.280778</v>
       </c>
       <c r="C129" t="n">
-        <v>0.253527</v>
+        <v>0.254111</v>
       </c>
       <c r="D129" t="n">
-        <v>0.254785</v>
+        <v>0.258205</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.279402</v>
+        <v>0.268636</v>
       </c>
       <c r="C130" t="n">
-        <v>0.250352</v>
+        <v>0.251058</v>
       </c>
       <c r="D130" t="n">
-        <v>0.254571</v>
+        <v>0.258492</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.270706</v>
+        <v>0.259306</v>
       </c>
       <c r="C131" t="n">
-        <v>0.251605</v>
+        <v>0.251074</v>
       </c>
       <c r="D131" t="n">
-        <v>0.250067</v>
+        <v>0.255819</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.265642</v>
+        <v>0.261713</v>
       </c>
       <c r="C132" t="n">
-        <v>0.247701</v>
+        <v>0.251739</v>
       </c>
       <c r="D132" t="n">
-        <v>0.255312</v>
+        <v>0.257544</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.262038</v>
+        <v>0.249644</v>
       </c>
       <c r="C133" t="n">
-        <v>0.244085</v>
+        <v>0.255147</v>
       </c>
       <c r="D133" t="n">
-        <v>0.250498</v>
+        <v>0.25576</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.254755</v>
+        <v>0.247684</v>
       </c>
       <c r="C134" t="n">
-        <v>0.245953</v>
+        <v>0.245306</v>
       </c>
       <c r="D134" t="n">
-        <v>0.250946</v>
+        <v>0.253815</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.249112</v>
+        <v>0.235349</v>
       </c>
       <c r="C135" t="n">
-        <v>0.244094</v>
+        <v>0.250472</v>
       </c>
       <c r="D135" t="n">
-        <v>0.248698</v>
+        <v>0.24719</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.241753</v>
+        <v>0.226852</v>
       </c>
       <c r="C136" t="n">
-        <v>0.246882</v>
+        <v>0.247224</v>
       </c>
       <c r="D136" t="n">
-        <v>0.247977</v>
+        <v>0.248527</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.230314</v>
+        <v>0.21776</v>
       </c>
       <c r="C137" t="n">
-        <v>0.24759</v>
+        <v>0.247509</v>
       </c>
       <c r="D137" t="n">
-        <v>0.265492</v>
+        <v>0.269454</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.318254</v>
+        <v>0.305161</v>
       </c>
       <c r="C138" t="n">
-        <v>0.260803</v>
+        <v>0.264022</v>
       </c>
       <c r="D138" t="n">
-        <v>0.266297</v>
+        <v>0.27372</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.317589</v>
+        <v>0.301024</v>
       </c>
       <c r="C139" t="n">
-        <v>0.262708</v>
+        <v>0.26942</v>
       </c>
       <c r="D139" t="n">
-        <v>0.269456</v>
+        <v>0.266554</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.313181</v>
+        <v>0.301241</v>
       </c>
       <c r="C140" t="n">
-        <v>0.254665</v>
+        <v>0.264374</v>
       </c>
       <c r="D140" t="n">
-        <v>0.257605</v>
+        <v>0.262121</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.306994</v>
+        <v>0.289367</v>
       </c>
       <c r="C141" t="n">
-        <v>0.254098</v>
+        <v>0.261574</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2641</v>
+        <v>0.268238</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.297512</v>
+        <v>0.289609</v>
       </c>
       <c r="C142" t="n">
-        <v>0.25317</v>
+        <v>0.260949</v>
       </c>
       <c r="D142" t="n">
-        <v>0.25553</v>
+        <v>0.257399</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.292508</v>
+        <v>0.283717</v>
       </c>
       <c r="C143" t="n">
-        <v>0.251886</v>
+        <v>0.252126</v>
       </c>
       <c r="D143" t="n">
-        <v>0.255167</v>
+        <v>0.259722</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.255031</v>
+        <v>0.257533</v>
       </c>
       <c r="C2" t="n">
-        <v>0.234488</v>
+        <v>0.23422</v>
       </c>
       <c r="D2" t="n">
-        <v>0.239066</v>
+        <v>0.242285</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.246174</v>
+        <v>0.25185</v>
       </c>
       <c r="C3" t="n">
-        <v>0.238885</v>
+        <v>0.243944</v>
       </c>
       <c r="D3" t="n">
-        <v>0.235462</v>
+        <v>0.235346</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.242266</v>
+        <v>0.243617</v>
       </c>
       <c r="C4" t="n">
-        <v>0.237553</v>
+        <v>0.236096</v>
       </c>
       <c r="D4" t="n">
-        <v>0.239567</v>
+        <v>0.241092</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.232129</v>
+        <v>0.237684</v>
       </c>
       <c r="C5" t="n">
-        <v>0.243577</v>
+        <v>0.238345</v>
       </c>
       <c r="D5" t="n">
-        <v>0.234825</v>
+        <v>0.239088</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.232958</v>
+        <v>0.22903</v>
       </c>
       <c r="C6" t="n">
-        <v>0.235648</v>
+        <v>0.231226</v>
       </c>
       <c r="D6" t="n">
-        <v>0.232511</v>
+        <v>0.241823</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.219576</v>
+        <v>0.221749</v>
       </c>
       <c r="C7" t="n">
-        <v>0.234432</v>
+        <v>0.236229</v>
       </c>
       <c r="D7" t="n">
-        <v>0.233346</v>
+        <v>0.236065</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.215709</v>
+        <v>0.213473</v>
       </c>
       <c r="C8" t="n">
-        <v>0.232013</v>
+        <v>0.24032</v>
       </c>
       <c r="D8" t="n">
-        <v>0.234973</v>
+        <v>0.236026</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.207714</v>
+        <v>0.210916</v>
       </c>
       <c r="C9" t="n">
-        <v>0.236043</v>
+        <v>0.230154</v>
       </c>
       <c r="D9" t="n">
-        <v>0.24538</v>
+        <v>0.249756</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.290255</v>
+        <v>0.296398</v>
       </c>
       <c r="C10" t="n">
-        <v>0.244124</v>
+        <v>0.245109</v>
       </c>
       <c r="D10" t="n">
-        <v>0.244966</v>
+        <v>0.254449</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.285139</v>
+        <v>0.289762</v>
       </c>
       <c r="C11" t="n">
-        <v>0.245556</v>
+        <v>0.250558</v>
       </c>
       <c r="D11" t="n">
-        <v>0.245414</v>
+        <v>0.247729</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.28052</v>
+        <v>0.281099</v>
       </c>
       <c r="C12" t="n">
-        <v>0.241007</v>
+        <v>0.24099</v>
       </c>
       <c r="D12" t="n">
-        <v>0.250493</v>
+        <v>0.25064</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.277676</v>
+        <v>0.278894</v>
       </c>
       <c r="C13" t="n">
-        <v>0.248134</v>
+        <v>0.245087</v>
       </c>
       <c r="D13" t="n">
-        <v>0.248584</v>
+        <v>0.246562</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.268416</v>
+        <v>0.269691</v>
       </c>
       <c r="C14" t="n">
-        <v>0.244473</v>
+        <v>0.239577</v>
       </c>
       <c r="D14" t="n">
-        <v>0.249027</v>
+        <v>0.243375</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.262163</v>
+        <v>0.265595</v>
       </c>
       <c r="C15" t="n">
-        <v>0.237029</v>
+        <v>0.247261</v>
       </c>
       <c r="D15" t="n">
-        <v>0.246963</v>
+        <v>0.250885</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.259272</v>
+        <v>0.25824</v>
       </c>
       <c r="C16" t="n">
-        <v>0.241074</v>
+        <v>0.235747</v>
       </c>
       <c r="D16" t="n">
-        <v>0.249999</v>
+        <v>0.244888</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.259148</v>
+        <v>0.253904</v>
       </c>
       <c r="C17" t="n">
-        <v>0.237153</v>
+        <v>0.24121</v>
       </c>
       <c r="D17" t="n">
-        <v>0.243014</v>
+        <v>0.247782</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.245854</v>
+        <v>0.251328</v>
       </c>
       <c r="C18" t="n">
-        <v>0.239417</v>
+        <v>0.237816</v>
       </c>
       <c r="D18" t="n">
-        <v>0.252111</v>
+        <v>0.241596</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.242511</v>
+        <v>0.238915</v>
       </c>
       <c r="C19" t="n">
-        <v>0.249329</v>
+        <v>0.234332</v>
       </c>
       <c r="D19" t="n">
-        <v>0.242344</v>
+        <v>0.243667</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.238534</v>
+        <v>0.232442</v>
       </c>
       <c r="C20" t="n">
-        <v>0.237613</v>
+        <v>0.234131</v>
       </c>
       <c r="D20" t="n">
-        <v>0.240278</v>
+        <v>0.245598</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.226463</v>
+        <v>0.223167</v>
       </c>
       <c r="C21" t="n">
-        <v>0.240464</v>
+        <v>0.236057</v>
       </c>
       <c r="D21" t="n">
-        <v>0.248206</v>
+        <v>0.243932</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.22824</v>
+        <v>0.216914</v>
       </c>
       <c r="C22" t="n">
-        <v>0.239005</v>
+        <v>0.243673</v>
       </c>
       <c r="D22" t="n">
-        <v>0.246942</v>
+        <v>0.243642</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.214238</v>
+        <v>0.213341</v>
       </c>
       <c r="C23" t="n">
-        <v>0.235471</v>
+        <v>0.24633</v>
       </c>
       <c r="D23" t="n">
-        <v>0.258771</v>
+        <v>0.260035</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.28942</v>
+        <v>0.29025</v>
       </c>
       <c r="C24" t="n">
-        <v>0.246736</v>
+        <v>0.24371</v>
       </c>
       <c r="D24" t="n">
-        <v>0.252578</v>
+        <v>0.259649</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.287513</v>
+        <v>0.285891</v>
       </c>
       <c r="C25" t="n">
-        <v>0.245992</v>
+        <v>0.246</v>
       </c>
       <c r="D25" t="n">
-        <v>0.252731</v>
+        <v>0.248965</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.282017</v>
+        <v>0.281052</v>
       </c>
       <c r="C26" t="n">
-        <v>0.246471</v>
+        <v>0.242296</v>
       </c>
       <c r="D26" t="n">
-        <v>0.248482</v>
+        <v>0.251696</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.284242</v>
+        <v>0.281297</v>
       </c>
       <c r="C27" t="n">
-        <v>0.244826</v>
+        <v>0.240344</v>
       </c>
       <c r="D27" t="n">
-        <v>0.254684</v>
+        <v>0.249175</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.273873</v>
+        <v>0.269829</v>
       </c>
       <c r="C28" t="n">
-        <v>0.24387</v>
+        <v>0.239518</v>
       </c>
       <c r="D28" t="n">
-        <v>0.255091</v>
+        <v>0.248375</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.266453</v>
+        <v>0.26325</v>
       </c>
       <c r="C29" t="n">
-        <v>0.243569</v>
+        <v>0.239416</v>
       </c>
       <c r="D29" t="n">
-        <v>0.248091</v>
+        <v>0.250783</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2601</v>
+        <v>0.257473</v>
       </c>
       <c r="C30" t="n">
-        <v>0.241506</v>
+        <v>0.238031</v>
       </c>
       <c r="D30" t="n">
-        <v>0.255697</v>
+        <v>0.250486</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.258201</v>
+        <v>0.253135</v>
       </c>
       <c r="C31" t="n">
-        <v>0.240027</v>
+        <v>0.243674</v>
       </c>
       <c r="D31" t="n">
-        <v>0.244792</v>
+        <v>0.249966</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.248332</v>
+        <v>0.247088</v>
       </c>
       <c r="C32" t="n">
-        <v>0.239215</v>
+        <v>0.240658</v>
       </c>
       <c r="D32" t="n">
-        <v>0.249664</v>
+        <v>0.241511</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2411</v>
+        <v>0.242243</v>
       </c>
       <c r="C33" t="n">
-        <v>0.24181</v>
+        <v>0.240733</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2512</v>
+        <v>0.246316</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.235933</v>
+        <v>0.244807</v>
       </c>
       <c r="C34" t="n">
-        <v>0.238537</v>
+        <v>0.23739</v>
       </c>
       <c r="D34" t="n">
-        <v>0.247744</v>
+        <v>0.241404</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.229166</v>
+        <v>0.229449</v>
       </c>
       <c r="C35" t="n">
-        <v>0.23752</v>
+        <v>0.236391</v>
       </c>
       <c r="D35" t="n">
-        <v>0.243702</v>
+        <v>0.25093</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.221343</v>
+        <v>0.222988</v>
       </c>
       <c r="C36" t="n">
-        <v>0.239392</v>
+        <v>0.234632</v>
       </c>
       <c r="D36" t="n">
-        <v>0.246543</v>
+        <v>0.244925</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.21409</v>
+        <v>0.214072</v>
       </c>
       <c r="C37" t="n">
-        <v>0.237043</v>
+        <v>0.234898</v>
       </c>
       <c r="D37" t="n">
-        <v>0.255675</v>
+        <v>0.252789</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.293164</v>
+        <v>0.288796</v>
       </c>
       <c r="C38" t="n">
-        <v>0.248543</v>
+        <v>0.246739</v>
       </c>
       <c r="D38" t="n">
-        <v>0.251502</v>
+        <v>0.255183</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.292423</v>
+        <v>0.287871</v>
       </c>
       <c r="C39" t="n">
-        <v>0.248609</v>
+        <v>0.245517</v>
       </c>
       <c r="D39" t="n">
-        <v>0.249362</v>
+        <v>0.251782</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.282843</v>
+        <v>0.282847</v>
       </c>
       <c r="C40" t="n">
-        <v>0.246292</v>
+        <v>0.24396</v>
       </c>
       <c r="D40" t="n">
-        <v>0.249641</v>
+        <v>0.249767</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.27215</v>
+        <v>0.273391</v>
       </c>
       <c r="C41" t="n">
-        <v>0.244781</v>
+        <v>0.243906</v>
       </c>
       <c r="D41" t="n">
-        <v>0.251291</v>
+        <v>0.248555</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.27364</v>
+        <v>0.272059</v>
       </c>
       <c r="C42" t="n">
-        <v>0.24067</v>
+        <v>0.241824</v>
       </c>
       <c r="D42" t="n">
-        <v>0.249377</v>
+        <v>0.250753</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.261519</v>
+        <v>0.264996</v>
       </c>
       <c r="C43" t="n">
-        <v>0.241998</v>
+        <v>0.243168</v>
       </c>
       <c r="D43" t="n">
-        <v>0.246736</v>
+        <v>0.248191</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.260299</v>
+        <v>0.259808</v>
       </c>
       <c r="C44" t="n">
-        <v>0.243695</v>
+        <v>0.242638</v>
       </c>
       <c r="D44" t="n">
-        <v>0.250648</v>
+        <v>0.24852</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.257035</v>
+        <v>0.257425</v>
       </c>
       <c r="C45" t="n">
-        <v>0.245274</v>
+        <v>0.2408</v>
       </c>
       <c r="D45" t="n">
-        <v>0.248658</v>
+        <v>0.249808</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.248292</v>
+        <v>0.249744</v>
       </c>
       <c r="C46" t="n">
-        <v>0.240079</v>
+        <v>0.241733</v>
       </c>
       <c r="D46" t="n">
-        <v>0.248581</v>
+        <v>0.246382</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.242829</v>
+        <v>0.242263</v>
       </c>
       <c r="C47" t="n">
-        <v>0.238292</v>
+        <v>0.238696</v>
       </c>
       <c r="D47" t="n">
-        <v>0.244318</v>
+        <v>0.246446</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.234195</v>
+        <v>0.23614</v>
       </c>
       <c r="C48" t="n">
-        <v>0.239238</v>
+        <v>0.240975</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2429</v>
+        <v>0.242723</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.232719</v>
+        <v>0.23023</v>
       </c>
       <c r="C49" t="n">
-        <v>0.239879</v>
+        <v>0.240275</v>
       </c>
       <c r="D49" t="n">
-        <v>0.243759</v>
+        <v>0.245264</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.225589</v>
+        <v>0.226479</v>
       </c>
       <c r="C50" t="n">
-        <v>0.237201</v>
+        <v>0.236455</v>
       </c>
       <c r="D50" t="n">
-        <v>0.246167</v>
+        <v>0.247497</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.217407</v>
+        <v>0.21735</v>
       </c>
       <c r="C51" t="n">
-        <v>0.237951</v>
+        <v>0.236948</v>
       </c>
       <c r="D51" t="n">
-        <v>0.257479</v>
+        <v>0.25945</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.211218</v>
+        <v>0.209099</v>
       </c>
       <c r="C52" t="n">
-        <v>0.238326</v>
+        <v>0.236974</v>
       </c>
       <c r="D52" t="n">
-        <v>0.256677</v>
+        <v>0.259007</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.289655</v>
+        <v>0.29211</v>
       </c>
       <c r="C53" t="n">
-        <v>0.253244</v>
+        <v>0.24831</v>
       </c>
       <c r="D53" t="n">
-        <v>0.259362</v>
+        <v>0.256312</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.285247</v>
+        <v>0.283778</v>
       </c>
       <c r="C54" t="n">
-        <v>0.247225</v>
+        <v>0.251037</v>
       </c>
       <c r="D54" t="n">
-        <v>0.253594</v>
+        <v>0.253881</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.279394</v>
+        <v>0.282779</v>
       </c>
       <c r="C55" t="n">
-        <v>0.245689</v>
+        <v>0.243753</v>
       </c>
       <c r="D55" t="n">
-        <v>0.251828</v>
+        <v>0.253282</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.275461</v>
+        <v>0.280199</v>
       </c>
       <c r="C56" t="n">
-        <v>0.24722</v>
+        <v>0.247292</v>
       </c>
       <c r="D56" t="n">
-        <v>0.248979</v>
+        <v>0.25379</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.275045</v>
+        <v>0.271902</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2471</v>
+        <v>0.247664</v>
       </c>
       <c r="D57" t="n">
-        <v>0.251361</v>
+        <v>0.25227</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.267869</v>
+        <v>0.262706</v>
       </c>
       <c r="C58" t="n">
-        <v>0.240985</v>
+        <v>0.244312</v>
       </c>
       <c r="D58" t="n">
-        <v>0.251715</v>
+        <v>0.250943</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.25861</v>
+        <v>0.256643</v>
       </c>
       <c r="C59" t="n">
-        <v>0.243663</v>
+        <v>0.2442</v>
       </c>
       <c r="D59" t="n">
-        <v>0.250001</v>
+        <v>0.250418</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.252096</v>
+        <v>0.253637</v>
       </c>
       <c r="C60" t="n">
-        <v>0.239173</v>
+        <v>0.244207</v>
       </c>
       <c r="D60" t="n">
-        <v>0.248022</v>
+        <v>0.252943</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.245634</v>
+        <v>0.250378</v>
       </c>
       <c r="C61" t="n">
-        <v>0.238214</v>
+        <v>0.241401</v>
       </c>
       <c r="D61" t="n">
-        <v>0.24467</v>
+        <v>0.247757</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.2443</v>
+        <v>0.243007</v>
       </c>
       <c r="C62" t="n">
-        <v>0.242315</v>
+        <v>0.241543</v>
       </c>
       <c r="D62" t="n">
-        <v>0.248807</v>
+        <v>0.244563</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.234859</v>
+        <v>0.231184</v>
       </c>
       <c r="C63" t="n">
-        <v>0.240542</v>
+        <v>0.240539</v>
       </c>
       <c r="D63" t="n">
-        <v>0.245502</v>
+        <v>0.24424</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.229185</v>
+        <v>0.225248</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242459</v>
+        <v>0.238823</v>
       </c>
       <c r="D64" t="n">
-        <v>0.243237</v>
+        <v>0.247629</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.222268</v>
+        <v>0.221653</v>
       </c>
       <c r="C65" t="n">
-        <v>0.237712</v>
+        <v>0.243304</v>
       </c>
       <c r="D65" t="n">
-        <v>0.241009</v>
+        <v>0.247066</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.213</v>
+        <v>0.212252</v>
       </c>
       <c r="C66" t="n">
-        <v>0.240634</v>
+        <v>0.23745</v>
       </c>
       <c r="D66" t="n">
-        <v>0.261577</v>
+        <v>0.261484</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.29931</v>
+        <v>0.296011</v>
       </c>
       <c r="C67" t="n">
-        <v>0.254785</v>
+        <v>0.253058</v>
       </c>
       <c r="D67" t="n">
-        <v>0.261737</v>
+        <v>0.261759</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.294228</v>
+        <v>0.296183</v>
       </c>
       <c r="C68" t="n">
-        <v>0.251265</v>
+        <v>0.255844</v>
       </c>
       <c r="D68" t="n">
-        <v>0.25547</v>
+        <v>0.263218</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.289101</v>
+        <v>0.286785</v>
       </c>
       <c r="C69" t="n">
-        <v>0.249318</v>
+        <v>0.251013</v>
       </c>
       <c r="D69" t="n">
-        <v>0.256332</v>
+        <v>0.2578</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.283913</v>
+        <v>0.27679</v>
       </c>
       <c r="C70" t="n">
-        <v>0.251904</v>
+        <v>0.250153</v>
       </c>
       <c r="D70" t="n">
-        <v>0.258131</v>
+        <v>0.255446</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.275465</v>
+        <v>0.274278</v>
       </c>
       <c r="C71" t="n">
-        <v>0.248544</v>
+        <v>0.247905</v>
       </c>
       <c r="D71" t="n">
-        <v>0.251919</v>
+        <v>0.254404</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.269998</v>
+        <v>0.270062</v>
       </c>
       <c r="C72" t="n">
-        <v>0.251459</v>
+        <v>0.249809</v>
       </c>
       <c r="D72" t="n">
-        <v>0.253889</v>
+        <v>0.252633</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.265279</v>
+        <v>0.264035</v>
       </c>
       <c r="C73" t="n">
-        <v>0.246754</v>
+        <v>0.245849</v>
       </c>
       <c r="D73" t="n">
-        <v>0.247906</v>
+        <v>0.254031</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.260966</v>
+        <v>0.260958</v>
       </c>
       <c r="C74" t="n">
-        <v>0.246241</v>
+        <v>0.248153</v>
       </c>
       <c r="D74" t="n">
-        <v>0.252555</v>
+        <v>0.252718</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.252988</v>
+        <v>0.251519</v>
       </c>
       <c r="C75" t="n">
-        <v>0.244264</v>
+        <v>0.245026</v>
       </c>
       <c r="D75" t="n">
-        <v>0.252917</v>
+        <v>0.248672</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.247622</v>
+        <v>0.249349</v>
       </c>
       <c r="C76" t="n">
-        <v>0.246095</v>
+        <v>0.246275</v>
       </c>
       <c r="D76" t="n">
-        <v>0.248279</v>
+        <v>0.249029</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.242592</v>
+        <v>0.239903</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243697</v>
+        <v>0.245711</v>
       </c>
       <c r="D77" t="n">
-        <v>0.250298</v>
+        <v>0.256467</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.232359</v>
+        <v>0.235006</v>
       </c>
       <c r="C78" t="n">
-        <v>0.244465</v>
+        <v>0.242039</v>
       </c>
       <c r="D78" t="n">
-        <v>0.245455</v>
+        <v>0.246258</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.226785</v>
+        <v>0.223871</v>
       </c>
       <c r="C79" t="n">
-        <v>0.244769</v>
+        <v>0.240209</v>
       </c>
       <c r="D79" t="n">
-        <v>0.247416</v>
+        <v>0.2473</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.220712</v>
+        <v>0.218357</v>
       </c>
       <c r="C80" t="n">
-        <v>0.243677</v>
+        <v>0.240674</v>
       </c>
       <c r="D80" t="n">
-        <v>0.262855</v>
+        <v>0.270005</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.306044</v>
+        <v>0.307289</v>
       </c>
       <c r="C81" t="n">
-        <v>0.258782</v>
+        <v>0.259977</v>
       </c>
       <c r="D81" t="n">
-        <v>0.263356</v>
+        <v>0.267373</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.299361</v>
+        <v>0.301373</v>
       </c>
       <c r="C82" t="n">
-        <v>0.25927</v>
+        <v>0.257719</v>
       </c>
       <c r="D82" t="n">
-        <v>0.269821</v>
+        <v>0.270195</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.294147</v>
+        <v>0.293535</v>
       </c>
       <c r="C83" t="n">
-        <v>0.255893</v>
+        <v>0.264724</v>
       </c>
       <c r="D83" t="n">
-        <v>0.263129</v>
+        <v>0.260673</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.287013</v>
+        <v>0.289133</v>
       </c>
       <c r="C84" t="n">
-        <v>0.254578</v>
+        <v>0.256757</v>
       </c>
       <c r="D84" t="n">
-        <v>0.258296</v>
+        <v>0.260257</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.280777</v>
+        <v>0.280526</v>
       </c>
       <c r="C85" t="n">
-        <v>0.250115</v>
+        <v>0.25494</v>
       </c>
       <c r="D85" t="n">
-        <v>0.260096</v>
+        <v>0.260362</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.276603</v>
+        <v>0.281324</v>
       </c>
       <c r="C86" t="n">
-        <v>0.250288</v>
+        <v>0.253675</v>
       </c>
       <c r="D86" t="n">
-        <v>0.256054</v>
+        <v>0.259641</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.274135</v>
+        <v>0.26798</v>
       </c>
       <c r="C87" t="n">
-        <v>0.250657</v>
+        <v>0.253704</v>
       </c>
       <c r="D87" t="n">
-        <v>0.255169</v>
+        <v>0.260376</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.267061</v>
+        <v>0.264955</v>
       </c>
       <c r="C88" t="n">
-        <v>0.251358</v>
+        <v>0.25066</v>
       </c>
       <c r="D88" t="n">
-        <v>0.256169</v>
+        <v>0.258011</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.256293</v>
+        <v>0.25884</v>
       </c>
       <c r="C89" t="n">
-        <v>0.252268</v>
+        <v>0.246083</v>
       </c>
       <c r="D89" t="n">
-        <v>0.258016</v>
+        <v>0.257526</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.251881</v>
+        <v>0.250727</v>
       </c>
       <c r="C90" t="n">
-        <v>0.245299</v>
+        <v>0.249044</v>
       </c>
       <c r="D90" t="n">
-        <v>0.251963</v>
+        <v>0.256455</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.245563</v>
+        <v>0.243222</v>
       </c>
       <c r="C91" t="n">
-        <v>0.248627</v>
+        <v>0.246428</v>
       </c>
       <c r="D91" t="n">
-        <v>0.250654</v>
+        <v>0.250951</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.239191</v>
+        <v>0.236778</v>
       </c>
       <c r="C92" t="n">
-        <v>0.245506</v>
+        <v>0.243585</v>
       </c>
       <c r="D92" t="n">
-        <v>0.255897</v>
+        <v>0.252067</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.233563</v>
+        <v>0.23163</v>
       </c>
       <c r="C93" t="n">
-        <v>0.246165</v>
+        <v>0.245298</v>
       </c>
       <c r="D93" t="n">
-        <v>0.250895</v>
+        <v>0.256003</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.222372</v>
+        <v>0.220027</v>
       </c>
       <c r="C94" t="n">
-        <v>0.24539</v>
+        <v>0.243948</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2666</v>
+        <v>0.271895</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.303556</v>
+        <v>0.307517</v>
       </c>
       <c r="C95" t="n">
-        <v>0.267761</v>
+        <v>0.261292</v>
       </c>
       <c r="D95" t="n">
-        <v>0.265459</v>
+        <v>0.266227</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.299321</v>
+        <v>0.306163</v>
       </c>
       <c r="C96" t="n">
-        <v>0.262226</v>
+        <v>0.263511</v>
       </c>
       <c r="D96" t="n">
-        <v>0.266971</v>
+        <v>0.263576</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.297777</v>
+        <v>0.296627</v>
       </c>
       <c r="C97" t="n">
-        <v>0.257501</v>
+        <v>0.257821</v>
       </c>
       <c r="D97" t="n">
-        <v>0.265233</v>
+        <v>0.26422</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.29086</v>
+        <v>0.293428</v>
       </c>
       <c r="C98" t="n">
-        <v>0.257584</v>
+        <v>0.257304</v>
       </c>
       <c r="D98" t="n">
-        <v>0.25831</v>
+        <v>0.258784</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.294031</v>
+        <v>0.286059</v>
       </c>
       <c r="C99" t="n">
-        <v>0.253084</v>
+        <v>0.254607</v>
       </c>
       <c r="D99" t="n">
-        <v>0.261689</v>
+        <v>0.26009</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.281976</v>
+        <v>0.284782</v>
       </c>
       <c r="C100" t="n">
-        <v>0.253446</v>
+        <v>0.25246</v>
       </c>
       <c r="D100" t="n">
-        <v>0.258788</v>
+        <v>0.261634</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.273356</v>
+        <v>0.268329</v>
       </c>
       <c r="C101" t="n">
-        <v>0.254045</v>
+        <v>0.251098</v>
       </c>
       <c r="D101" t="n">
-        <v>0.256726</v>
+        <v>0.257043</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.265303</v>
+        <v>0.268808</v>
       </c>
       <c r="C102" t="n">
-        <v>0.248314</v>
+        <v>0.251355</v>
       </c>
       <c r="D102" t="n">
-        <v>0.258036</v>
+        <v>0.253807</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.259651</v>
+        <v>0.261807</v>
       </c>
       <c r="C103" t="n">
-        <v>0.247237</v>
+        <v>0.246912</v>
       </c>
       <c r="D103" t="n">
-        <v>0.253767</v>
+        <v>0.253956</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.25485</v>
+        <v>0.252594</v>
       </c>
       <c r="C104" t="n">
-        <v>0.252266</v>
+        <v>0.249739</v>
       </c>
       <c r="D104" t="n">
-        <v>0.254052</v>
+        <v>0.25613</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.245165</v>
+        <v>0.246576</v>
       </c>
       <c r="C105" t="n">
-        <v>0.245295</v>
+        <v>0.245765</v>
       </c>
       <c r="D105" t="n">
-        <v>0.249204</v>
+        <v>0.254881</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.236688</v>
+        <v>0.240237</v>
       </c>
       <c r="C106" t="n">
-        <v>0.244814</v>
+        <v>0.24969</v>
       </c>
       <c r="D106" t="n">
-        <v>0.248904</v>
+        <v>0.250953</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.23412</v>
+        <v>0.235162</v>
       </c>
       <c r="C107" t="n">
-        <v>0.244869</v>
+        <v>0.249515</v>
       </c>
       <c r="D107" t="n">
-        <v>0.252638</v>
+        <v>0.246801</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.228657</v>
+        <v>0.224338</v>
       </c>
       <c r="C108" t="n">
-        <v>0.245378</v>
+        <v>0.247909</v>
       </c>
       <c r="D108" t="n">
-        <v>0.268151</v>
+        <v>0.266035</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.217493</v>
+        <v>0.216314</v>
       </c>
       <c r="C109" t="n">
-        <v>0.254532</v>
+        <v>0.243864</v>
       </c>
       <c r="D109" t="n">
-        <v>0.269343</v>
+        <v>0.266417</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.303052</v>
+        <v>0.306294</v>
       </c>
       <c r="C110" t="n">
-        <v>0.260505</v>
+        <v>0.260835</v>
       </c>
       <c r="D110" t="n">
-        <v>0.266276</v>
+        <v>0.266912</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.29424</v>
+        <v>0.298227</v>
       </c>
       <c r="C111" t="n">
-        <v>0.256158</v>
+        <v>0.259237</v>
       </c>
       <c r="D111" t="n">
-        <v>0.266162</v>
+        <v>0.259118</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.295482</v>
+        <v>0.292204</v>
       </c>
       <c r="C112" t="n">
-        <v>0.25545</v>
+        <v>0.256789</v>
       </c>
       <c r="D112" t="n">
-        <v>0.260361</v>
+        <v>0.261388</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.287589</v>
+        <v>0.28864</v>
       </c>
       <c r="C113" t="n">
-        <v>0.260805</v>
+        <v>0.257052</v>
       </c>
       <c r="D113" t="n">
-        <v>0.261162</v>
+        <v>0.264834</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.285612</v>
+        <v>0.278764</v>
       </c>
       <c r="C114" t="n">
-        <v>0.254839</v>
+        <v>0.25323</v>
       </c>
       <c r="D114" t="n">
-        <v>0.258626</v>
+        <v>0.256689</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.273129</v>
+        <v>0.277314</v>
       </c>
       <c r="C115" t="n">
-        <v>0.251105</v>
+        <v>0.252381</v>
       </c>
       <c r="D115" t="n">
-        <v>0.259621</v>
+        <v>0.25726</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.272164</v>
+        <v>0.266783</v>
       </c>
       <c r="C116" t="n">
-        <v>0.251094</v>
+        <v>0.253525</v>
       </c>
       <c r="D116" t="n">
-        <v>0.25605</v>
+        <v>0.25884</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.261081</v>
+        <v>0.260323</v>
       </c>
       <c r="C117" t="n">
-        <v>0.251477</v>
+        <v>0.25382</v>
       </c>
       <c r="D117" t="n">
-        <v>0.253983</v>
+        <v>0.256056</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.25889</v>
+        <v>0.251872</v>
       </c>
       <c r="C118" t="n">
-        <v>0.245898</v>
+        <v>0.248119</v>
       </c>
       <c r="D118" t="n">
-        <v>0.25134</v>
+        <v>0.251773</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.246216</v>
+        <v>0.247798</v>
       </c>
       <c r="C119" t="n">
-        <v>0.245674</v>
+        <v>0.248018</v>
       </c>
       <c r="D119" t="n">
-        <v>0.250425</v>
+        <v>0.251947</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.243926</v>
+        <v>0.239509</v>
       </c>
       <c r="C120" t="n">
-        <v>0.250449</v>
+        <v>0.247168</v>
       </c>
       <c r="D120" t="n">
-        <v>0.259934</v>
+        <v>0.253594</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.233934</v>
+        <v>0.232456</v>
       </c>
       <c r="C121" t="n">
-        <v>0.247835</v>
+        <v>0.246864</v>
       </c>
       <c r="D121" t="n">
-        <v>0.250209</v>
+        <v>0.25373</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.22743</v>
+        <v>0.224329</v>
       </c>
       <c r="C122" t="n">
-        <v>0.243066</v>
+        <v>0.246707</v>
       </c>
       <c r="D122" t="n">
-        <v>0.249303</v>
+        <v>0.253982</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.219728</v>
+        <v>0.216521</v>
       </c>
       <c r="C123" t="n">
-        <v>0.243942</v>
+        <v>0.246462</v>
       </c>
       <c r="D123" t="n">
-        <v>0.267895</v>
+        <v>0.266366</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.306113</v>
+        <v>0.305963</v>
       </c>
       <c r="C124" t="n">
-        <v>0.2664</v>
+        <v>0.264812</v>
       </c>
       <c r="D124" t="n">
-        <v>0.266472</v>
+        <v>0.269503</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.304897</v>
+        <v>0.299619</v>
       </c>
       <c r="C125" t="n">
-        <v>0.257935</v>
+        <v>0.260122</v>
       </c>
       <c r="D125" t="n">
-        <v>0.268288</v>
+        <v>0.26383</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.293201</v>
+        <v>0.303972</v>
       </c>
       <c r="C126" t="n">
-        <v>0.255454</v>
+        <v>0.262883</v>
       </c>
       <c r="D126" t="n">
-        <v>0.259555</v>
+        <v>0.26379</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.285485</v>
+        <v>0.288641</v>
       </c>
       <c r="C127" t="n">
-        <v>0.258147</v>
+        <v>0.25459</v>
       </c>
       <c r="D127" t="n">
-        <v>0.264224</v>
+        <v>0.262728</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.283161</v>
+        <v>0.283658</v>
       </c>
       <c r="C128" t="n">
-        <v>0.255233</v>
+        <v>0.254591</v>
       </c>
       <c r="D128" t="n">
-        <v>0.263755</v>
+        <v>0.257206</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.280778</v>
+        <v>0.280785</v>
       </c>
       <c r="C129" t="n">
-        <v>0.254111</v>
+        <v>0.257382</v>
       </c>
       <c r="D129" t="n">
-        <v>0.258205</v>
+        <v>0.25885</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.268636</v>
+        <v>0.268384</v>
       </c>
       <c r="C130" t="n">
-        <v>0.251058</v>
+        <v>0.252463</v>
       </c>
       <c r="D130" t="n">
-        <v>0.258492</v>
+        <v>0.255924</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.259306</v>
+        <v>0.263854</v>
       </c>
       <c r="C131" t="n">
-        <v>0.251074</v>
+        <v>0.258022</v>
       </c>
       <c r="D131" t="n">
-        <v>0.255819</v>
+        <v>0.255998</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.261713</v>
+        <v>0.257689</v>
       </c>
       <c r="C132" t="n">
-        <v>0.251739</v>
+        <v>0.254093</v>
       </c>
       <c r="D132" t="n">
-        <v>0.257544</v>
+        <v>0.252646</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.249644</v>
+        <v>0.251596</v>
       </c>
       <c r="C133" t="n">
-        <v>0.255147</v>
+        <v>0.249019</v>
       </c>
       <c r="D133" t="n">
-        <v>0.25576</v>
+        <v>0.254681</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.247684</v>
+        <v>0.240531</v>
       </c>
       <c r="C134" t="n">
-        <v>0.245306</v>
+        <v>0.247195</v>
       </c>
       <c r="D134" t="n">
-        <v>0.253815</v>
+        <v>0.251748</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.235349</v>
+        <v>0.235457</v>
       </c>
       <c r="C135" t="n">
-        <v>0.250472</v>
+        <v>0.24705</v>
       </c>
       <c r="D135" t="n">
-        <v>0.24719</v>
+        <v>0.2504</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.226852</v>
+        <v>0.227738</v>
       </c>
       <c r="C136" t="n">
-        <v>0.247224</v>
+        <v>0.246237</v>
       </c>
       <c r="D136" t="n">
-        <v>0.248527</v>
+        <v>0.248597</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.21776</v>
+        <v>0.22091</v>
       </c>
       <c r="C137" t="n">
-        <v>0.247509</v>
+        <v>0.246543</v>
       </c>
       <c r="D137" t="n">
-        <v>0.269454</v>
+        <v>0.271216</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.305161</v>
+        <v>0.312946</v>
       </c>
       <c r="C138" t="n">
-        <v>0.264022</v>
+        <v>0.262224</v>
       </c>
       <c r="D138" t="n">
-        <v>0.27372</v>
+        <v>0.267605</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.301024</v>
+        <v>0.298168</v>
       </c>
       <c r="C139" t="n">
-        <v>0.26942</v>
+        <v>0.266069</v>
       </c>
       <c r="D139" t="n">
-        <v>0.266554</v>
+        <v>0.267228</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.301241</v>
+        <v>0.291979</v>
       </c>
       <c r="C140" t="n">
-        <v>0.264374</v>
+        <v>0.261478</v>
       </c>
       <c r="D140" t="n">
-        <v>0.262121</v>
+        <v>0.264584</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.289367</v>
+        <v>0.287635</v>
       </c>
       <c r="C141" t="n">
-        <v>0.261574</v>
+        <v>0.253532</v>
       </c>
       <c r="D141" t="n">
-        <v>0.268238</v>
+        <v>0.265528</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.289609</v>
+        <v>0.279684</v>
       </c>
       <c r="C142" t="n">
-        <v>0.260949</v>
+        <v>0.251745</v>
       </c>
       <c r="D142" t="n">
-        <v>0.257399</v>
+        <v>0.257852</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.283717</v>
+        <v>0.276068</v>
       </c>
       <c r="C143" t="n">
-        <v>0.252126</v>
+        <v>0.253447</v>
       </c>
       <c r="D143" t="n">
-        <v>0.259722</v>
+        <v>0.259695</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.257533</v>
+        <v>0.275413</v>
       </c>
       <c r="C2" t="n">
-        <v>0.23422</v>
+        <v>0.238206</v>
       </c>
       <c r="D2" t="n">
-        <v>0.242285</v>
+        <v>0.253645</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.25185</v>
+        <v>0.274464</v>
       </c>
       <c r="C3" t="n">
-        <v>0.243944</v>
+        <v>0.24111</v>
       </c>
       <c r="D3" t="n">
-        <v>0.235346</v>
+        <v>0.24782</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.243617</v>
+        <v>0.268104</v>
       </c>
       <c r="C4" t="n">
-        <v>0.236096</v>
+        <v>0.236542</v>
       </c>
       <c r="D4" t="n">
-        <v>0.241092</v>
+        <v>0.250402</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.237684</v>
+        <v>0.253949</v>
       </c>
       <c r="C5" t="n">
-        <v>0.238345</v>
+        <v>0.240105</v>
       </c>
       <c r="D5" t="n">
-        <v>0.239088</v>
+        <v>0.241814</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.22903</v>
+        <v>0.246243</v>
       </c>
       <c r="C6" t="n">
-        <v>0.231226</v>
+        <v>0.234813</v>
       </c>
       <c r="D6" t="n">
-        <v>0.241823</v>
+        <v>0.246993</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.221749</v>
+        <v>0.236548</v>
       </c>
       <c r="C7" t="n">
-        <v>0.236229</v>
+        <v>0.231671</v>
       </c>
       <c r="D7" t="n">
-        <v>0.236065</v>
+        <v>0.243097</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.213473</v>
+        <v>0.226332</v>
       </c>
       <c r="C8" t="n">
-        <v>0.24032</v>
+        <v>0.230176</v>
       </c>
       <c r="D8" t="n">
-        <v>0.236026</v>
+        <v>0.242511</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.210916</v>
+        <v>0.222251</v>
       </c>
       <c r="C9" t="n">
-        <v>0.230154</v>
+        <v>0.234432</v>
       </c>
       <c r="D9" t="n">
-        <v>0.249756</v>
+        <v>0.251267</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.296398</v>
+        <v>0.312972</v>
       </c>
       <c r="C10" t="n">
-        <v>0.245109</v>
+        <v>0.248002</v>
       </c>
       <c r="D10" t="n">
-        <v>0.254449</v>
+        <v>0.249685</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.289762</v>
+        <v>0.303822</v>
       </c>
       <c r="C11" t="n">
-        <v>0.250558</v>
+        <v>0.24343</v>
       </c>
       <c r="D11" t="n">
-        <v>0.247729</v>
+        <v>0.254596</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.281099</v>
+        <v>0.304695</v>
       </c>
       <c r="C12" t="n">
-        <v>0.24099</v>
+        <v>0.242764</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25064</v>
+        <v>0.25114</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.278894</v>
+        <v>0.301771</v>
       </c>
       <c r="C13" t="n">
-        <v>0.245087</v>
+        <v>0.243205</v>
       </c>
       <c r="D13" t="n">
-        <v>0.246562</v>
+        <v>0.250984</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.269691</v>
+        <v>0.290101</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239577</v>
+        <v>0.241432</v>
       </c>
       <c r="D14" t="n">
-        <v>0.243375</v>
+        <v>0.252503</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265595</v>
+        <v>0.283624</v>
       </c>
       <c r="C15" t="n">
-        <v>0.247261</v>
+        <v>0.241448</v>
       </c>
       <c r="D15" t="n">
-        <v>0.250885</v>
+        <v>0.250222</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.25824</v>
+        <v>0.282774</v>
       </c>
       <c r="C16" t="n">
-        <v>0.235747</v>
+        <v>0.239781</v>
       </c>
       <c r="D16" t="n">
-        <v>0.244888</v>
+        <v>0.249432</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.253904</v>
+        <v>0.271671</v>
       </c>
       <c r="C17" t="n">
-        <v>0.24121</v>
+        <v>0.238755</v>
       </c>
       <c r="D17" t="n">
-        <v>0.247782</v>
+        <v>0.250113</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.251328</v>
+        <v>0.264181</v>
       </c>
       <c r="C18" t="n">
-        <v>0.237816</v>
+        <v>0.232904</v>
       </c>
       <c r="D18" t="n">
-        <v>0.241596</v>
+        <v>0.247261</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.238915</v>
+        <v>0.257266</v>
       </c>
       <c r="C19" t="n">
-        <v>0.234332</v>
+        <v>0.234794</v>
       </c>
       <c r="D19" t="n">
-        <v>0.243667</v>
+        <v>0.243203</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.232442</v>
+        <v>0.25263</v>
       </c>
       <c r="C20" t="n">
-        <v>0.234131</v>
+        <v>0.234527</v>
       </c>
       <c r="D20" t="n">
-        <v>0.245598</v>
+        <v>0.244209</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.223167</v>
+        <v>0.24178</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236057</v>
+        <v>0.231559</v>
       </c>
       <c r="D21" t="n">
-        <v>0.243932</v>
+        <v>0.244082</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.216914</v>
+        <v>0.231822</v>
       </c>
       <c r="C22" t="n">
-        <v>0.243673</v>
+        <v>0.234417</v>
       </c>
       <c r="D22" t="n">
-        <v>0.243642</v>
+        <v>0.242942</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.213341</v>
+        <v>0.226854</v>
       </c>
       <c r="C23" t="n">
-        <v>0.24633</v>
+        <v>0.234579</v>
       </c>
       <c r="D23" t="n">
-        <v>0.260035</v>
+        <v>0.259956</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.29025</v>
+        <v>0.311148</v>
       </c>
       <c r="C24" t="n">
-        <v>0.24371</v>
+        <v>0.25007</v>
       </c>
       <c r="D24" t="n">
-        <v>0.259649</v>
+        <v>0.257069</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.285891</v>
+        <v>0.30614</v>
       </c>
       <c r="C25" t="n">
-        <v>0.246</v>
+        <v>0.249684</v>
       </c>
       <c r="D25" t="n">
-        <v>0.248965</v>
+        <v>0.258734</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.281052</v>
+        <v>0.301492</v>
       </c>
       <c r="C26" t="n">
-        <v>0.242296</v>
+        <v>0.247266</v>
       </c>
       <c r="D26" t="n">
-        <v>0.251696</v>
+        <v>0.259036</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.281297</v>
+        <v>0.29548</v>
       </c>
       <c r="C27" t="n">
-        <v>0.240344</v>
+        <v>0.246899</v>
       </c>
       <c r="D27" t="n">
-        <v>0.249175</v>
+        <v>0.254196</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.269829</v>
+        <v>0.291718</v>
       </c>
       <c r="C28" t="n">
-        <v>0.239518</v>
+        <v>0.244274</v>
       </c>
       <c r="D28" t="n">
-        <v>0.248375</v>
+        <v>0.256388</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.26325</v>
+        <v>0.287655</v>
       </c>
       <c r="C29" t="n">
-        <v>0.239416</v>
+        <v>0.247006</v>
       </c>
       <c r="D29" t="n">
-        <v>0.250783</v>
+        <v>0.25252</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.257473</v>
+        <v>0.274477</v>
       </c>
       <c r="C30" t="n">
-        <v>0.238031</v>
+        <v>0.240984</v>
       </c>
       <c r="D30" t="n">
-        <v>0.250486</v>
+        <v>0.252464</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.253135</v>
+        <v>0.268753</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243674</v>
+        <v>0.240996</v>
       </c>
       <c r="D31" t="n">
-        <v>0.249966</v>
+        <v>0.250076</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.247088</v>
+        <v>0.26592</v>
       </c>
       <c r="C32" t="n">
-        <v>0.240658</v>
+        <v>0.242421</v>
       </c>
       <c r="D32" t="n">
-        <v>0.241511</v>
+        <v>0.250165</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.242243</v>
+        <v>0.260329</v>
       </c>
       <c r="C33" t="n">
-        <v>0.240733</v>
+        <v>0.240586</v>
       </c>
       <c r="D33" t="n">
-        <v>0.246316</v>
+        <v>0.246946</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.244807</v>
+        <v>0.25288</v>
       </c>
       <c r="C34" t="n">
-        <v>0.23739</v>
+        <v>0.238261</v>
       </c>
       <c r="D34" t="n">
-        <v>0.241404</v>
+        <v>0.247816</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.229449</v>
+        <v>0.240484</v>
       </c>
       <c r="C35" t="n">
-        <v>0.236391</v>
+        <v>0.234003</v>
       </c>
       <c r="D35" t="n">
-        <v>0.25093</v>
+        <v>0.246467</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.222988</v>
+        <v>0.236919</v>
       </c>
       <c r="C36" t="n">
-        <v>0.234632</v>
+        <v>0.232027</v>
       </c>
       <c r="D36" t="n">
-        <v>0.244925</v>
+        <v>0.245859</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.214072</v>
+        <v>0.227354</v>
       </c>
       <c r="C37" t="n">
-        <v>0.234898</v>
+        <v>0.233978</v>
       </c>
       <c r="D37" t="n">
-        <v>0.252789</v>
+        <v>0.268684</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.288796</v>
+        <v>0.310064</v>
       </c>
       <c r="C38" t="n">
-        <v>0.246739</v>
+        <v>0.260643</v>
       </c>
       <c r="D38" t="n">
-        <v>0.255183</v>
+        <v>0.267956</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.287871</v>
+        <v>0.313737</v>
       </c>
       <c r="C39" t="n">
-        <v>0.245517</v>
+        <v>0.252182</v>
       </c>
       <c r="D39" t="n">
-        <v>0.251782</v>
+        <v>0.26392</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.282847</v>
+        <v>0.305519</v>
       </c>
       <c r="C40" t="n">
-        <v>0.24396</v>
+        <v>0.252224</v>
       </c>
       <c r="D40" t="n">
-        <v>0.249767</v>
+        <v>0.264746</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.273391</v>
+        <v>0.29605</v>
       </c>
       <c r="C41" t="n">
-        <v>0.243906</v>
+        <v>0.253336</v>
       </c>
       <c r="D41" t="n">
-        <v>0.248555</v>
+        <v>0.262681</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.272059</v>
+        <v>0.296184</v>
       </c>
       <c r="C42" t="n">
-        <v>0.241824</v>
+        <v>0.251666</v>
       </c>
       <c r="D42" t="n">
-        <v>0.250753</v>
+        <v>0.25681</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.264996</v>
+        <v>0.288482</v>
       </c>
       <c r="C43" t="n">
-        <v>0.243168</v>
+        <v>0.246883</v>
       </c>
       <c r="D43" t="n">
-        <v>0.248191</v>
+        <v>0.255758</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.259808</v>
+        <v>0.280762</v>
       </c>
       <c r="C44" t="n">
-        <v>0.242638</v>
+        <v>0.244733</v>
       </c>
       <c r="D44" t="n">
-        <v>0.24852</v>
+        <v>0.254616</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.257425</v>
+        <v>0.276418</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2408</v>
+        <v>0.246643</v>
       </c>
       <c r="D45" t="n">
-        <v>0.249808</v>
+        <v>0.255765</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.249744</v>
+        <v>0.270296</v>
       </c>
       <c r="C46" t="n">
-        <v>0.241733</v>
+        <v>0.245779</v>
       </c>
       <c r="D46" t="n">
-        <v>0.246382</v>
+        <v>0.255963</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.242263</v>
+        <v>0.263135</v>
       </c>
       <c r="C47" t="n">
-        <v>0.238696</v>
+        <v>0.240477</v>
       </c>
       <c r="D47" t="n">
-        <v>0.246446</v>
+        <v>0.247617</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.23614</v>
+        <v>0.253972</v>
       </c>
       <c r="C48" t="n">
-        <v>0.240975</v>
+        <v>0.239329</v>
       </c>
       <c r="D48" t="n">
-        <v>0.242723</v>
+        <v>0.24891</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.23023</v>
+        <v>0.24574</v>
       </c>
       <c r="C49" t="n">
-        <v>0.240275</v>
+        <v>0.240078</v>
       </c>
       <c r="D49" t="n">
-        <v>0.245264</v>
+        <v>0.251521</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.226479</v>
+        <v>0.239182</v>
       </c>
       <c r="C50" t="n">
-        <v>0.236455</v>
+        <v>0.23595</v>
       </c>
       <c r="D50" t="n">
-        <v>0.247497</v>
+        <v>0.248795</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.21735</v>
+        <v>0.230808</v>
       </c>
       <c r="C51" t="n">
-        <v>0.236948</v>
+        <v>0.235542</v>
       </c>
       <c r="D51" t="n">
-        <v>0.25945</v>
+        <v>0.272528</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.209099</v>
+        <v>0.222267</v>
       </c>
       <c r="C52" t="n">
-        <v>0.236974</v>
+        <v>0.23471</v>
       </c>
       <c r="D52" t="n">
-        <v>0.259007</v>
+        <v>0.269136</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.29211</v>
+        <v>0.317804</v>
       </c>
       <c r="C53" t="n">
-        <v>0.24831</v>
+        <v>0.261731</v>
       </c>
       <c r="D53" t="n">
-        <v>0.256312</v>
+        <v>0.268655</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.283778</v>
+        <v>0.311307</v>
       </c>
       <c r="C54" t="n">
-        <v>0.251037</v>
+        <v>0.259682</v>
       </c>
       <c r="D54" t="n">
-        <v>0.253881</v>
+        <v>0.266616</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.282779</v>
+        <v>0.307577</v>
       </c>
       <c r="C55" t="n">
-        <v>0.243753</v>
+        <v>0.254536</v>
       </c>
       <c r="D55" t="n">
-        <v>0.253282</v>
+        <v>0.263774</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.280199</v>
+        <v>0.301467</v>
       </c>
       <c r="C56" t="n">
-        <v>0.247292</v>
+        <v>0.25488</v>
       </c>
       <c r="D56" t="n">
-        <v>0.25379</v>
+        <v>0.26399</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.271902</v>
+        <v>0.304099</v>
       </c>
       <c r="C57" t="n">
-        <v>0.247664</v>
+        <v>0.252939</v>
       </c>
       <c r="D57" t="n">
-        <v>0.25227</v>
+        <v>0.262867</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.262706</v>
+        <v>0.287653</v>
       </c>
       <c r="C58" t="n">
-        <v>0.244312</v>
+        <v>0.250912</v>
       </c>
       <c r="D58" t="n">
-        <v>0.250943</v>
+        <v>0.257715</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.256643</v>
+        <v>0.280641</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2442</v>
+        <v>0.248532</v>
       </c>
       <c r="D59" t="n">
-        <v>0.250418</v>
+        <v>0.258482</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.253637</v>
+        <v>0.278628</v>
       </c>
       <c r="C60" t="n">
-        <v>0.244207</v>
+        <v>0.249111</v>
       </c>
       <c r="D60" t="n">
-        <v>0.252943</v>
+        <v>0.262195</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.250378</v>
+        <v>0.269961</v>
       </c>
       <c r="C61" t="n">
-        <v>0.241401</v>
+        <v>0.25034</v>
       </c>
       <c r="D61" t="n">
-        <v>0.247757</v>
+        <v>0.259871</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.243007</v>
+        <v>0.261949</v>
       </c>
       <c r="C62" t="n">
-        <v>0.241543</v>
+        <v>0.243462</v>
       </c>
       <c r="D62" t="n">
-        <v>0.244563</v>
+        <v>0.255634</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.231184</v>
+        <v>0.250721</v>
       </c>
       <c r="C63" t="n">
-        <v>0.240539</v>
+        <v>0.242168</v>
       </c>
       <c r="D63" t="n">
-        <v>0.24424</v>
+        <v>0.260845</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.225248</v>
+        <v>0.244219</v>
       </c>
       <c r="C64" t="n">
-        <v>0.238823</v>
+        <v>0.236585</v>
       </c>
       <c r="D64" t="n">
-        <v>0.247629</v>
+        <v>0.24772</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.221653</v>
+        <v>0.231559</v>
       </c>
       <c r="C65" t="n">
-        <v>0.243304</v>
+        <v>0.235874</v>
       </c>
       <c r="D65" t="n">
-        <v>0.247066</v>
+        <v>0.250758</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.212252</v>
+        <v>0.228423</v>
       </c>
       <c r="C66" t="n">
-        <v>0.23745</v>
+        <v>0.238699</v>
       </c>
       <c r="D66" t="n">
-        <v>0.261484</v>
+        <v>0.279504</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.296011</v>
+        <v>0.325084</v>
       </c>
       <c r="C67" t="n">
-        <v>0.253058</v>
+        <v>0.267594</v>
       </c>
       <c r="D67" t="n">
-        <v>0.261759</v>
+        <v>0.278086</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.296183</v>
+        <v>0.32229</v>
       </c>
       <c r="C68" t="n">
-        <v>0.255844</v>
+        <v>0.273117</v>
       </c>
       <c r="D68" t="n">
-        <v>0.263218</v>
+        <v>0.27296</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.286785</v>
+        <v>0.31876</v>
       </c>
       <c r="C69" t="n">
-        <v>0.251013</v>
+        <v>0.268386</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2578</v>
+        <v>0.277084</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.27679</v>
+        <v>0.313979</v>
       </c>
       <c r="C70" t="n">
-        <v>0.250153</v>
+        <v>0.262618</v>
       </c>
       <c r="D70" t="n">
-        <v>0.255446</v>
+        <v>0.274759</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.274278</v>
+        <v>0.309927</v>
       </c>
       <c r="C71" t="n">
-        <v>0.247905</v>
+        <v>0.259731</v>
       </c>
       <c r="D71" t="n">
-        <v>0.254404</v>
+        <v>0.266568</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.270062</v>
+        <v>0.304481</v>
       </c>
       <c r="C72" t="n">
-        <v>0.249809</v>
+        <v>0.258527</v>
       </c>
       <c r="D72" t="n">
-        <v>0.252633</v>
+        <v>0.267596</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.264035</v>
+        <v>0.294661</v>
       </c>
       <c r="C73" t="n">
-        <v>0.245849</v>
+        <v>0.258437</v>
       </c>
       <c r="D73" t="n">
-        <v>0.254031</v>
+        <v>0.265402</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.260958</v>
+        <v>0.286515</v>
       </c>
       <c r="C74" t="n">
-        <v>0.248153</v>
+        <v>0.254497</v>
       </c>
       <c r="D74" t="n">
-        <v>0.252718</v>
+        <v>0.270883</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.251519</v>
+        <v>0.276506</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245026</v>
+        <v>0.256518</v>
       </c>
       <c r="D75" t="n">
-        <v>0.248672</v>
+        <v>0.264238</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.249349</v>
+        <v>0.270986</v>
       </c>
       <c r="C76" t="n">
-        <v>0.246275</v>
+        <v>0.253058</v>
       </c>
       <c r="D76" t="n">
-        <v>0.249029</v>
+        <v>0.261364</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.239903</v>
+        <v>0.263301</v>
       </c>
       <c r="C77" t="n">
-        <v>0.245711</v>
+        <v>0.250768</v>
       </c>
       <c r="D77" t="n">
-        <v>0.256467</v>
+        <v>0.261994</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.235006</v>
+        <v>0.255712</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242039</v>
+        <v>0.246359</v>
       </c>
       <c r="D78" t="n">
-        <v>0.246258</v>
+        <v>0.257532</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.223871</v>
+        <v>0.245728</v>
       </c>
       <c r="C79" t="n">
-        <v>0.240209</v>
+        <v>0.245861</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2473</v>
+        <v>0.25587</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218357</v>
+        <v>0.239468</v>
       </c>
       <c r="C80" t="n">
-        <v>0.240674</v>
+        <v>0.246296</v>
       </c>
       <c r="D80" t="n">
-        <v>0.270005</v>
+        <v>0.287392</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.307289</v>
+        <v>0.333691</v>
       </c>
       <c r="C81" t="n">
-        <v>0.259977</v>
+        <v>0.276552</v>
       </c>
       <c r="D81" t="n">
-        <v>0.267373</v>
+        <v>0.283432</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.301373</v>
+        <v>0.330255</v>
       </c>
       <c r="C82" t="n">
-        <v>0.257719</v>
+        <v>0.27116</v>
       </c>
       <c r="D82" t="n">
-        <v>0.270195</v>
+        <v>0.279929</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.293535</v>
+        <v>0.322823</v>
       </c>
       <c r="C83" t="n">
-        <v>0.264724</v>
+        <v>0.268175</v>
       </c>
       <c r="D83" t="n">
-        <v>0.260673</v>
+        <v>0.276572</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.289133</v>
+        <v>0.316712</v>
       </c>
       <c r="C84" t="n">
-        <v>0.256757</v>
+        <v>0.268476</v>
       </c>
       <c r="D84" t="n">
-        <v>0.260257</v>
+        <v>0.275685</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.280526</v>
+        <v>0.309393</v>
       </c>
       <c r="C85" t="n">
-        <v>0.25494</v>
+        <v>0.265888</v>
       </c>
       <c r="D85" t="n">
-        <v>0.260362</v>
+        <v>0.275185</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.281324</v>
+        <v>0.306829</v>
       </c>
       <c r="C86" t="n">
-        <v>0.253675</v>
+        <v>0.263731</v>
       </c>
       <c r="D86" t="n">
-        <v>0.259641</v>
+        <v>0.274486</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.26798</v>
+        <v>0.296695</v>
       </c>
       <c r="C87" t="n">
-        <v>0.253704</v>
+        <v>0.263664</v>
       </c>
       <c r="D87" t="n">
-        <v>0.260376</v>
+        <v>0.270996</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.264955</v>
+        <v>0.291997</v>
       </c>
       <c r="C88" t="n">
-        <v>0.25066</v>
+        <v>0.257645</v>
       </c>
       <c r="D88" t="n">
-        <v>0.258011</v>
+        <v>0.265664</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.25884</v>
+        <v>0.282096</v>
       </c>
       <c r="C89" t="n">
-        <v>0.246083</v>
+        <v>0.254647</v>
       </c>
       <c r="D89" t="n">
-        <v>0.257526</v>
+        <v>0.264467</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.250727</v>
+        <v>0.273486</v>
       </c>
       <c r="C90" t="n">
-        <v>0.249044</v>
+        <v>0.256424</v>
       </c>
       <c r="D90" t="n">
-        <v>0.256455</v>
+        <v>0.264693</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.243222</v>
+        <v>0.265418</v>
       </c>
       <c r="C91" t="n">
-        <v>0.246428</v>
+        <v>0.252529</v>
       </c>
       <c r="D91" t="n">
-        <v>0.250951</v>
+        <v>0.260118</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.236778</v>
+        <v>0.256549</v>
       </c>
       <c r="C92" t="n">
-        <v>0.243585</v>
+        <v>0.248165</v>
       </c>
       <c r="D92" t="n">
-        <v>0.252067</v>
+        <v>0.263217</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.23163</v>
+        <v>0.250125</v>
       </c>
       <c r="C93" t="n">
-        <v>0.245298</v>
+        <v>0.245522</v>
       </c>
       <c r="D93" t="n">
-        <v>0.256003</v>
+        <v>0.259666</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.220027</v>
+        <v>0.238321</v>
       </c>
       <c r="C94" t="n">
-        <v>0.243948</v>
+        <v>0.244024</v>
       </c>
       <c r="D94" t="n">
-        <v>0.271895</v>
+        <v>0.290669</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.307517</v>
+        <v>0.337015</v>
       </c>
       <c r="C95" t="n">
-        <v>0.261292</v>
+        <v>0.27843</v>
       </c>
       <c r="D95" t="n">
-        <v>0.266227</v>
+        <v>0.283451</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.306163</v>
+        <v>0.330876</v>
       </c>
       <c r="C96" t="n">
-        <v>0.263511</v>
+        <v>0.274048</v>
       </c>
       <c r="D96" t="n">
-        <v>0.263576</v>
+        <v>0.2846</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.296627</v>
+        <v>0.330293</v>
       </c>
       <c r="C97" t="n">
-        <v>0.257821</v>
+        <v>0.26876</v>
       </c>
       <c r="D97" t="n">
-        <v>0.26422</v>
+        <v>0.279459</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.293428</v>
+        <v>0.321383</v>
       </c>
       <c r="C98" t="n">
-        <v>0.257304</v>
+        <v>0.269083</v>
       </c>
       <c r="D98" t="n">
-        <v>0.258784</v>
+        <v>0.278949</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.286059</v>
+        <v>0.312569</v>
       </c>
       <c r="C99" t="n">
-        <v>0.254607</v>
+        <v>0.265125</v>
       </c>
       <c r="D99" t="n">
-        <v>0.26009</v>
+        <v>0.274697</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.284782</v>
+        <v>0.308198</v>
       </c>
       <c r="C100" t="n">
-        <v>0.25246</v>
+        <v>0.263992</v>
       </c>
       <c r="D100" t="n">
-        <v>0.261634</v>
+        <v>0.274199</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.268329</v>
+        <v>0.299939</v>
       </c>
       <c r="C101" t="n">
-        <v>0.251098</v>
+        <v>0.262502</v>
       </c>
       <c r="D101" t="n">
-        <v>0.257043</v>
+        <v>0.27033</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.268808</v>
+        <v>0.290839</v>
       </c>
       <c r="C102" t="n">
-        <v>0.251355</v>
+        <v>0.260549</v>
       </c>
       <c r="D102" t="n">
-        <v>0.253807</v>
+        <v>0.265846</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.261807</v>
+        <v>0.284838</v>
       </c>
       <c r="C103" t="n">
-        <v>0.246912</v>
+        <v>0.259516</v>
       </c>
       <c r="D103" t="n">
-        <v>0.253956</v>
+        <v>0.266212</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.252594</v>
+        <v>0.278083</v>
       </c>
       <c r="C104" t="n">
-        <v>0.249739</v>
+        <v>0.255506</v>
       </c>
       <c r="D104" t="n">
-        <v>0.25613</v>
+        <v>0.265476</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.246576</v>
+        <v>0.269309</v>
       </c>
       <c r="C105" t="n">
-        <v>0.245765</v>
+        <v>0.252738</v>
       </c>
       <c r="D105" t="n">
-        <v>0.254881</v>
+        <v>0.262902</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.240237</v>
+        <v>0.258683</v>
       </c>
       <c r="C106" t="n">
-        <v>0.24969</v>
+        <v>0.252493</v>
       </c>
       <c r="D106" t="n">
-        <v>0.250953</v>
+        <v>0.264596</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.235162</v>
+        <v>0.253262</v>
       </c>
       <c r="C107" t="n">
-        <v>0.249515</v>
+        <v>0.247966</v>
       </c>
       <c r="D107" t="n">
-        <v>0.246801</v>
+        <v>0.260027</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.224338</v>
+        <v>0.244796</v>
       </c>
       <c r="C108" t="n">
-        <v>0.247909</v>
+        <v>0.246878</v>
       </c>
       <c r="D108" t="n">
-        <v>0.266035</v>
+        <v>0.292057</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.216314</v>
+        <v>0.23209</v>
       </c>
       <c r="C109" t="n">
-        <v>0.243864</v>
+        <v>0.243454</v>
       </c>
       <c r="D109" t="n">
-        <v>0.266417</v>
+        <v>0.285862</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.306294</v>
+        <v>0.337717</v>
       </c>
       <c r="C110" t="n">
-        <v>0.260835</v>
+        <v>0.280962</v>
       </c>
       <c r="D110" t="n">
-        <v>0.266912</v>
+        <v>0.28502</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.298227</v>
+        <v>0.327567</v>
       </c>
       <c r="C111" t="n">
-        <v>0.259237</v>
+        <v>0.271708</v>
       </c>
       <c r="D111" t="n">
-        <v>0.259118</v>
+        <v>0.283071</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.292204</v>
+        <v>0.322379</v>
       </c>
       <c r="C112" t="n">
-        <v>0.256789</v>
+        <v>0.272881</v>
       </c>
       <c r="D112" t="n">
-        <v>0.261388</v>
+        <v>0.283272</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.28864</v>
+        <v>0.313829</v>
       </c>
       <c r="C113" t="n">
-        <v>0.257052</v>
+        <v>0.267569</v>
       </c>
       <c r="D113" t="n">
-        <v>0.264834</v>
+        <v>0.27707</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.278764</v>
+        <v>0.30695</v>
       </c>
       <c r="C114" t="n">
-        <v>0.25323</v>
+        <v>0.265719</v>
       </c>
       <c r="D114" t="n">
-        <v>0.256689</v>
+        <v>0.278395</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.277314</v>
+        <v>0.303344</v>
       </c>
       <c r="C115" t="n">
-        <v>0.252381</v>
+        <v>0.263874</v>
       </c>
       <c r="D115" t="n">
-        <v>0.25726</v>
+        <v>0.271601</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.266783</v>
+        <v>0.292813</v>
       </c>
       <c r="C116" t="n">
-        <v>0.253525</v>
+        <v>0.259445</v>
       </c>
       <c r="D116" t="n">
-        <v>0.25884</v>
+        <v>0.269727</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.260323</v>
+        <v>0.287493</v>
       </c>
       <c r="C117" t="n">
-        <v>0.25382</v>
+        <v>0.259421</v>
       </c>
       <c r="D117" t="n">
-        <v>0.256056</v>
+        <v>0.266747</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.251872</v>
+        <v>0.285134</v>
       </c>
       <c r="C118" t="n">
-        <v>0.248119</v>
+        <v>0.257342</v>
       </c>
       <c r="D118" t="n">
-        <v>0.251773</v>
+        <v>0.26927</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.247798</v>
+        <v>0.275311</v>
       </c>
       <c r="C119" t="n">
-        <v>0.248018</v>
+        <v>0.259031</v>
       </c>
       <c r="D119" t="n">
-        <v>0.251947</v>
+        <v>0.267117</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.239509</v>
+        <v>0.261888</v>
       </c>
       <c r="C120" t="n">
-        <v>0.247168</v>
+        <v>0.253816</v>
       </c>
       <c r="D120" t="n">
-        <v>0.253594</v>
+        <v>0.264685</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.232456</v>
+        <v>0.254653</v>
       </c>
       <c r="C121" t="n">
-        <v>0.246864</v>
+        <v>0.247456</v>
       </c>
       <c r="D121" t="n">
-        <v>0.25373</v>
+        <v>0.261295</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.224329</v>
+        <v>0.247274</v>
       </c>
       <c r="C122" t="n">
-        <v>0.246707</v>
+        <v>0.247248</v>
       </c>
       <c r="D122" t="n">
-        <v>0.253982</v>
+        <v>0.260493</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.216521</v>
+        <v>0.235351</v>
       </c>
       <c r="C123" t="n">
-        <v>0.246462</v>
+        <v>0.247777</v>
       </c>
       <c r="D123" t="n">
-        <v>0.266366</v>
+        <v>0.286459</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.305963</v>
+        <v>0.341513</v>
       </c>
       <c r="C124" t="n">
-        <v>0.264812</v>
+        <v>0.276124</v>
       </c>
       <c r="D124" t="n">
-        <v>0.269503</v>
+        <v>0.286851</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.299619</v>
+        <v>0.340778</v>
       </c>
       <c r="C125" t="n">
-        <v>0.260122</v>
+        <v>0.268251</v>
       </c>
       <c r="D125" t="n">
-        <v>0.26383</v>
+        <v>0.284688</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.303972</v>
+        <v>0.320577</v>
       </c>
       <c r="C126" t="n">
-        <v>0.262883</v>
+        <v>0.27311</v>
       </c>
       <c r="D126" t="n">
-        <v>0.26379</v>
+        <v>0.284253</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.288641</v>
+        <v>0.316873</v>
       </c>
       <c r="C127" t="n">
-        <v>0.25459</v>
+        <v>0.270318</v>
       </c>
       <c r="D127" t="n">
-        <v>0.262728</v>
+        <v>0.274981</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.283658</v>
+        <v>0.304778</v>
       </c>
       <c r="C128" t="n">
-        <v>0.254591</v>
+        <v>0.264489</v>
       </c>
       <c r="D128" t="n">
-        <v>0.257206</v>
+        <v>0.27941</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.280785</v>
+        <v>0.305879</v>
       </c>
       <c r="C129" t="n">
-        <v>0.257382</v>
+        <v>0.271065</v>
       </c>
       <c r="D129" t="n">
-        <v>0.25885</v>
+        <v>0.273464</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.268384</v>
+        <v>0.297876</v>
       </c>
       <c r="C130" t="n">
-        <v>0.252463</v>
+        <v>0.261027</v>
       </c>
       <c r="D130" t="n">
-        <v>0.255924</v>
+        <v>0.275615</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.263854</v>
+        <v>0.289644</v>
       </c>
       <c r="C131" t="n">
-        <v>0.258022</v>
+        <v>0.261556</v>
       </c>
       <c r="D131" t="n">
-        <v>0.255998</v>
+        <v>0.273037</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.257689</v>
+        <v>0.280906</v>
       </c>
       <c r="C132" t="n">
-        <v>0.254093</v>
+        <v>0.260321</v>
       </c>
       <c r="D132" t="n">
-        <v>0.252646</v>
+        <v>0.267537</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.251596</v>
+        <v>0.269126</v>
       </c>
       <c r="C133" t="n">
-        <v>0.249019</v>
+        <v>0.258306</v>
       </c>
       <c r="D133" t="n">
-        <v>0.254681</v>
+        <v>0.266022</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.240531</v>
+        <v>0.261025</v>
       </c>
       <c r="C134" t="n">
-        <v>0.247195</v>
+        <v>0.250968</v>
       </c>
       <c r="D134" t="n">
-        <v>0.251748</v>
+        <v>0.264223</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.235457</v>
+        <v>0.263015</v>
       </c>
       <c r="C135" t="n">
-        <v>0.24705</v>
+        <v>0.252061</v>
       </c>
       <c r="D135" t="n">
-        <v>0.2504</v>
+        <v>0.262612</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.227738</v>
+        <v>0.244687</v>
       </c>
       <c r="C136" t="n">
-        <v>0.246237</v>
+        <v>0.254997</v>
       </c>
       <c r="D136" t="n">
-        <v>0.248597</v>
+        <v>0.260721</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.22091</v>
+        <v>0.236159</v>
       </c>
       <c r="C137" t="n">
-        <v>0.246543</v>
+        <v>0.251479</v>
       </c>
       <c r="D137" t="n">
-        <v>0.271216</v>
+        <v>0.286722</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.312946</v>
+        <v>0.339734</v>
       </c>
       <c r="C138" t="n">
-        <v>0.262224</v>
+        <v>0.278641</v>
       </c>
       <c r="D138" t="n">
-        <v>0.267605</v>
+        <v>0.282585</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.298168</v>
+        <v>0.334986</v>
       </c>
       <c r="C139" t="n">
-        <v>0.266069</v>
+        <v>0.273894</v>
       </c>
       <c r="D139" t="n">
-        <v>0.267228</v>
+        <v>0.279512</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.291979</v>
+        <v>0.331203</v>
       </c>
       <c r="C140" t="n">
-        <v>0.261478</v>
+        <v>0.267443</v>
       </c>
       <c r="D140" t="n">
-        <v>0.264584</v>
+        <v>0.295809</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.287635</v>
+        <v>0.31452</v>
       </c>
       <c r="C141" t="n">
-        <v>0.253532</v>
+        <v>0.265938</v>
       </c>
       <c r="D141" t="n">
-        <v>0.265528</v>
+        <v>0.276861</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.279684</v>
+        <v>0.3122</v>
       </c>
       <c r="C142" t="n">
-        <v>0.251745</v>
+        <v>0.267911</v>
       </c>
       <c r="D142" t="n">
-        <v>0.257852</v>
+        <v>0.279276</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.276068</v>
+        <v>0.309182</v>
       </c>
       <c r="C143" t="n">
-        <v>0.253447</v>
+        <v>0.267002</v>
       </c>
       <c r="D143" t="n">
-        <v>0.259695</v>
+        <v>0.273209</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.261399</v>
+                  <v>0.28096</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.256866</v>
+                  <v>0.275285</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.246091</v>
+                  <v>0.260227</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.238799</v>
+                  <v>0.249344</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.239431</v>
+                  <v>0.236975</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.224649</v>
+                  <v>0.225674</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.219223</v>
+                  <v>0.210202</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.206036</v>
+                  <v>0.194356</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.292673</v>
+                  <v>0.334027</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.284187</v>
+                  <v>0.329254</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.277952</v>
+                  <v>0.323249</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.274145</v>
+                  <v>0.318197</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.275292</v>
+                  <v>0.311484</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.262485</v>
+                  <v>0.301987</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.256164</v>
+                  <v>0.293769</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.25263</v>
+                  <v>0.283186</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.244474</v>
+                  <v>0.274789</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.242317</v>
+                  <v>0.264307</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.231773</v>
+                  <v>0.253335</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.224657</v>
+                  <v>0.240375</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.221013</v>
+                  <v>0.225843</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.215837</v>
+                  <v>0.209111</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.290867</v>
+                  <v>0.347854</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.289233</v>
+                  <v>0.342351</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.28255</v>
+                  <v>0.335171</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.279968</v>
+                  <v>0.3287</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.271043</v>
+                  <v>0.321793</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.267077</v>
+                  <v>0.313509</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.259434</v>
+                  <v>0.304099</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.253029</v>
+                  <v>0.294429</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.248723</v>
+                  <v>0.283902</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.243492</v>
+                  <v>0.273734</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.237995</v>
+                  <v>0.261908</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.229485</v>
+                  <v>0.247935</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.222138</v>
+                  <v>0.234331</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.214958</v>
+                  <v>0.21972</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.29029</v>
+                  <v>0.351019</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.284164</v>
+                  <v>0.347109</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.278011</v>
+                  <v>0.341148</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.27743</v>
+                  <v>0.334155</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.272535</v>
+                  <v>0.326696</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.267892</v>
+                  <v>0.319361</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.262829</v>
+                  <v>0.310476</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.254848</v>
+                  <v>0.301515</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.250872</v>
+                  <v>0.290456</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.249968</v>
+                  <v>0.279872</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.238393</v>
+                  <v>0.268143</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.235627</v>
+                  <v>0.255679</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.224785</v>
+                  <v>0.241931</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.219888</v>
+                  <v>0.2267</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.210881</v>
+                  <v>0.209666</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.288789</v>
+                  <v>0.349707</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.285474</v>
+                  <v>0.344393</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.284684</v>
+                  <v>0.338195</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.274609</v>
+                  <v>0.330917</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.270266</v>
+                  <v>0.3224</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.270448</v>
+                  <v>0.313751</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.258096</v>
+                  <v>0.304247</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.255793</v>
+                  <v>0.294116</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.247838</v>
+                  <v>0.283229</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.240989</v>
+                  <v>0.27188</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.234169</v>
+                  <v>0.259034</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.228466</v>
+                  <v>0.245623</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.223031</v>
+                  <v>0.230273</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.214503</v>
+                  <v>0.213342</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.297038</v>
+                  <v>0.352417</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.292727</v>
+                  <v>0.346913</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.286095</v>
+                  <v>0.34069</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.278809</v>
+                  <v>0.33338</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.275974</v>
+                  <v>0.325287</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.274183</v>
+                  <v>0.316404</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.264649</v>
+                  <v>0.30706</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.259186</v>
+                  <v>0.297067</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.252627</v>
+                  <v>0.286289</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.245143</v>
+                  <v>0.275097</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.241459</v>
+                  <v>0.262689</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.229402</v>
+                  <v>0.248989</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.226811</v>
+                  <v>0.234185</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.217959</v>
+                  <v>0.218351</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.301204</v>
+                  <v>0.353918</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.300015</v>
+                  <v>0.348163</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.293272</v>
+                  <v>0.341876</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.293783</v>
+                  <v>0.334423</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.27937</v>
+                  <v>0.326677</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.282814</v>
+                  <v>0.318483</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.268407</v>
+                  <v>0.309192</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.265279</v>
+                  <v>0.299657</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.259415</v>
+                  <v>0.289052</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.250675</v>
+                  <v>0.277682</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.24631</v>
+                  <v>0.265329</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.243943</v>
+                  <v>0.251956</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.230979</v>
+                  <v>0.237928</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.225879</v>
+                  <v>0.221988</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.310195</v>
+                  <v>0.355226</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.301098</v>
+                  <v>0.349632</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.299434</v>
+                  <v>0.343221</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.292053</v>
+                  <v>0.336572</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.287426</v>
+                  <v>0.32902</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.277974</v>
+                  <v>0.320108</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.27554</v>
+                  <v>0.311141</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.270584</v>
+                  <v>0.30161</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.2614</v>
+                  <v>0.29136</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.255063</v>
+                  <v>0.280099</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.246489</v>
+                  <v>0.267905</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.243253</v>
+                  <v>0.254834</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.233512</v>
+                  <v>0.241048</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.224872</v>
+                  <v>0.225455</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.217314</v>
+                  <v>0.209024</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.306831</v>
+                  <v>0.350837</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.304058</v>
+                  <v>0.344389</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.288169</v>
+                  <v>0.33797</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.282139</v>
+                  <v>0.330553</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.286838</v>
+                  <v>0.322178</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.273506</v>
+                  <v>0.313349</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.271648</v>
+                  <v>0.303814</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.25775</v>
+                  <v>0.293692</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.256259</v>
+                  <v>0.282839</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.252429</v>
+                  <v>0.270756</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.247771</v>
+                  <v>0.258147</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.236365</v>
+                  <v>0.244214</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.224553</v>
+                  <v>0.229059</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.218326</v>
+                  <v>0.212331</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.308212</v>
+                  <v>0.352099</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.295983</v>
+                  <v>0.346249</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.294718</v>
+                  <v>0.339646</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.294565</v>
+                  <v>0.332407</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.280669</v>
+                  <v>0.324287</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.273717</v>
+                  <v>0.315583</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.272025</v>
+                  <v>0.305883</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.263699</v>
+                  <v>0.295897</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.257983</v>
+                  <v>0.285083</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.252649</v>
+                  <v>0.273328</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.243367</v>
+                  <v>0.260703</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.237392</v>
+                  <v>0.246882</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.225555</v>
+                  <v>0.232078</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.218985</v>
+                  <v>0.215942</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.297897</v>
+                  <v>0.352911</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.302747</v>
+                  <v>0.347437</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.291025</v>
+                  <v>0.340815</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.297349</v>
+                  <v>0.333681</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.278245</v>
+                  <v>0.325639</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.280699</v>
+                  <v>0.317122</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.249509</v>
+                  <v>0.195912</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.253134</v>
+                  <v>0.19706</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.248219</v>
+                  <v>0.196006</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.250584</v>
+                  <v>0.196838</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.244479</v>
+                  <v>0.197821</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.241052</v>
+                  <v>0.198401</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.240606</v>
+                  <v>0.198864</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.23474</v>
+                  <v>0.198849</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.2522</v>
+                  <v>0.216994</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.25336</v>
+                  <v>0.216483</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.255066</v>
+                  <v>0.215332</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.248663</v>
+                  <v>0.213636</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.25427</v>
+                  <v>0.212433</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.248684</v>
+                  <v>0.212771</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.247827</v>
+                  <v>0.212356</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.241917</v>
+                  <v>0.21158</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.24205</v>
+                  <v>0.211342</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.250113</v>
+                  <v>0.211014</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.248171</v>
+                  <v>0.21131</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.243683</v>
+                  <v>0.211178</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.239365</v>
+                  <v>0.210535</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.244471</v>
+                  <v>0.211058</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.249687</v>
+                  <v>0.225388</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.250841</v>
+                  <v>0.222286</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.248948</v>
+                  <v>0.221108</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.251022</v>
+                  <v>0.218269</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.249989</v>
+                  <v>0.216629</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.247616</v>
+                  <v>0.216104</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.246473</v>
+                  <v>0.215542</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.247132</v>
+                  <v>0.214565</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.245909</v>
+                  <v>0.214083</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.244046</v>
+                  <v>0.213151</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.244261</v>
+                  <v>0.212756</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.247812</v>
+                  <v>0.212244</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.245984</v>
+                  <v>0.212313</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.242096</v>
+                  <v>0.212479</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.256503</v>
+                  <v>0.231716</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.252545</v>
+                  <v>0.228089</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.256757</v>
+                  <v>0.225541</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.249912</v>
+                  <v>0.221715</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.249735</v>
+                  <v>0.219716</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.24823</v>
+                  <v>0.217608</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.249824</v>
+                  <v>0.216079</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.245516</v>
+                  <v>0.215361</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.247296</v>
+                  <v>0.214512</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.248193</v>
+                  <v>0.213976</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.241797</v>
+                  <v>0.213395</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.240273</v>
+                  <v>0.213081</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.248728</v>
+                  <v>0.212729</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.243184</v>
+                  <v>0.212137</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.239835</v>
+                  <v>0.211929</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.261785</v>
+                  <v>0.226985</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.2545</v>
+                  <v>0.224765</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.25438</v>
+                  <v>0.221165</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.258108</v>
+                  <v>0.219252</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.250334</v>
+                  <v>0.217853</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.252954</v>
+                  <v>0.216655</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.250238</v>
+                  <v>0.215205</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.245775</v>
+                  <v>0.21459</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.24922</v>
+                  <v>0.213892</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.248338</v>
+                  <v>0.213172</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.244766</v>
+                  <v>0.212503</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.240859</v>
+                  <v>0.212304</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.247186</v>
+                  <v>0.211984</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.245628</v>
+                  <v>0.211979</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.261907</v>
+                  <v>0.230208</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.263449</v>
+                  <v>0.224883</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.257664</v>
+                  <v>0.221567</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.255028</v>
+                  <v>0.219015</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.25521</v>
+                  <v>0.217904</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.25653</v>
+                  <v>0.216587</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.250733</v>
+                  <v>0.215397</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.251459</v>
+                  <v>0.214854</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.253638</v>
+                  <v>0.21402</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.247592</v>
+                  <v>0.21366</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.245995</v>
+                  <v>0.212863</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.244514</v>
+                  <v>0.212404</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.245114</v>
+                  <v>0.212223</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.246908</v>
+                  <v>0.211854</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.265429</v>
+                  <v>0.229933</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.266261</v>
+                  <v>0.224301</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.264133</v>
+                  <v>0.221634</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.25992</v>
+                  <v>0.219343</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.259465</v>
+                  <v>0.218126</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.256202</v>
+                  <v>0.217137</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.256705</v>
+                  <v>0.21601</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.257227</v>
+                  <v>0.214977</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.252984</v>
+                  <v>0.214757</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.257134</v>
+                  <v>0.213529</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.250775</v>
+                  <v>0.212993</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.248642</v>
+                  <v>0.212489</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.252641</v>
+                  <v>0.212003</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.252175</v>
+                  <v>0.21166</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.264836</v>
+                  <v>0.229306</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.263437</v>
+                  <v>0.225598</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.268535</v>
+                  <v>0.222495</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.263072</v>
+                  <v>0.219992</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.26362</v>
+                  <v>0.21844</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.259074</v>
+                  <v>0.217086</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.261077</v>
+                  <v>0.21603</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.254887</v>
+                  <v>0.215118</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.258018</v>
+                  <v>0.214407</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.257011</v>
+                  <v>0.213596</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.253011</v>
+                  <v>0.213057</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.252172</v>
+                  <v>0.212665</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.250366</v>
+                  <v>0.212</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.250182</v>
+                  <v>0.211712</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.247718</v>
+                  <v>0.211438</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.268192</v>
+                  <v>0.225697</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.268797</v>
+                  <v>0.222578</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.263757</v>
+                  <v>0.220709</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.261955</v>
+                  <v>0.21886</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259194</v>
+                  <v>0.217834</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.259304</v>
+                  <v>0.21669</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.257434</v>
+                  <v>0.215701</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.255043</v>
+                  <v>0.214744</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.252145</v>
+                  <v>0.214672</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.254297</v>
+                  <v>0.213705</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.251318</v>
+                  <v>0.213054</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.248411</v>
+                  <v>0.212576</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.24878</v>
+                  <v>0.211978</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.244983</v>
+                  <v>0.211931</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.27187</v>
+                  <v>0.226236</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.263157</v>
+                  <v>0.222892</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.267348</v>
+                  <v>0.220768</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.260395</v>
+                  <v>0.219005</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.259809</v>
+                  <v>0.21759</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.26167</v>
+                  <v>0.216422</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.26264</v>
+                  <v>0.215617</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.257853</v>
+                  <v>0.214832</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.256828</v>
+                  <v>0.214082</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.25482</v>
+                  <v>0.213471</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.25068</v>
+                  <v>0.212914</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.250971</v>
+                  <v>0.212385</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.247854</v>
+                  <v>0.212004</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.247021</v>
+                  <v>0.212133</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.266232</v>
+                  <v>0.227952</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.27517</v>
+                  <v>0.224209</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.266241</v>
+                  <v>0.221617</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.258707</v>
+                  <v>0.21951</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.265127</v>
+                  <v>0.21815</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.257763</v>
+                  <v>0.217027</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.248528</v>
+                  <v>0.231268</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.241161</v>
+                  <v>0.232151</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.246414</v>
+                  <v>0.233511</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.244231</v>
+                  <v>0.233102</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.239269</v>
+                  <v>0.233692</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.242133</v>
+                  <v>0.234047</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.234763</v>
+                  <v>0.236592</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.245193</v>
+                  <v>0.265773</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.250403</v>
+                  <v>0.256745</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.251692</v>
+                  <v>0.256613</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.246194</v>
+                  <v>0.277037</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.245441</v>
+                  <v>0.253983</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.241049</v>
+                  <v>0.253043</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.242618</v>
+                  <v>0.252393</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.243095</v>
+                  <v>0.274053</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.239652</v>
+                  <v>0.276569</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.240425</v>
+                  <v>0.249118</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.239435</v>
+                  <v>0.246154</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.239156</v>
+                  <v>0.247092</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.237689</v>
+                  <v>0.248933</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.236139</v>
+                  <v>0.247076</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.252815</v>
+                  <v>0.264081</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.247793</v>
+                  <v>0.263005</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.251782</v>
+                  <v>0.262406</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.254461</v>
+                  <v>0.261724</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.251826</v>
+                  <v>0.258214</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.250669</v>
+                  <v>0.256235</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.242942</v>
+                  <v>0.25501</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.242735</v>
+                  <v>0.253997</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.246201</v>
+                  <v>0.253212</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.241918</v>
+                  <v>0.252973</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.244996</v>
+                  <v>0.251955</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.240734</v>
+                  <v>0.250418</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.237227</v>
+                  <v>0.249931</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.237345</v>
+                  <v>0.25125</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.25178</v>
+                  <v>0.267948</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.250844</v>
+                  <v>0.265477</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.249292</v>
+                  <v>0.263563</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.252836</v>
+                  <v>0.261508</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.248678</v>
+                  <v>0.259424</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.246356</v>
+                  <v>0.258308</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.248282</v>
+                  <v>0.257397</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.243989</v>
+                  <v>0.255033</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.242953</v>
+                  <v>0.254953</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.242141</v>
+                  <v>0.252743</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.246454</v>
+                  <v>0.252257</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.237663</v>
+                  <v>0.251358</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.240926</v>
+                  <v>0.250701</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241896</v>
+                  <v>0.252639</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.257118</v>
+                  <v>0.267618</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.253497</v>
+                  <v>0.26451</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.257818</v>
+                  <v>0.262485</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.250629</v>
+                  <v>0.261372</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.249194</v>
+                  <v>0.259083</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.246779</v>
+                  <v>0.258255</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.247967</v>
+                  <v>0.256473</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.249786</v>
+                  <v>0.254751</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.245</v>
+                  <v>0.253478</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.245426</v>
+                  <v>0.252454</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.241905</v>
+                  <v>0.251959</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.242766</v>
+                  <v>0.251108</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.24255</v>
+                  <v>0.250374</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.239089</v>
+                  <v>0.249696</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.238327</v>
+                  <v>0.249233</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.260128</v>
+                  <v>0.267199</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.259337</v>
+                  <v>0.264368</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.255923</v>
+                  <v>0.261476</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.255293</v>
+                  <v>0.259992</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.252754</v>
+                  <v>0.258824</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.252914</v>
+                  <v>0.257234</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.252024</v>
+                  <v>0.255778</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.249615</v>
+                  <v>0.254864</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.246912</v>
+                  <v>0.25281</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.251191</v>
+                  <v>0.252056</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.242615</v>
+                  <v>0.251157</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.244564</v>
+                  <v>0.25035</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.242649</v>
+                  <v>0.249625</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.247979</v>
+                  <v>0.249799</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.262937</v>
+                  <v>0.267725</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.264417</v>
+                  <v>0.264639</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.25851</v>
+                  <v>0.26212</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.260138</v>
+                  <v>0.260398</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.258611</v>
+                  <v>0.258807</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.254748</v>
+                  <v>0.257237</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.254317</v>
+                  <v>0.256192</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.252636</v>
+                  <v>0.254682</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.251599</v>
+                  <v>0.253834</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.248919</v>
+                  <v>0.252277</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.248394</v>
+                  <v>0.251467</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.24607</v>
+                  <v>0.25073</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.245052</v>
+                  <v>0.250208</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.244393</v>
+                  <v>0.249795</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.266599</v>
+                  <v>0.268728</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.263655</v>
+                  <v>0.265368</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.262932</v>
+                  <v>0.263136</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.261082</v>
+                  <v>0.261588</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.264965</v>
+                  <v>0.259708</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.257925</v>
+                  <v>0.258439</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.252469</v>
+                  <v>0.257048</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.253028</v>
+                  <v>0.255861</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.249738</v>
+                  <v>0.25506</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.254934</v>
+                  <v>0.253643</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.253083</v>
+                  <v>0.252447</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.249139</v>
+                  <v>0.251631</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.248628</v>
+                  <v>0.25027</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.24567</v>
+                  <v>0.249676</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.268704</v>
+                  <v>0.267902</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.262929</v>
+                  <v>0.265381</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.263837</v>
+                  <v>0.263476</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.266238</v>
+                  <v>0.261695</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.259148</v>
+                  <v>0.259699</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.255583</v>
+                  <v>0.258738</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.257807</v>
+                  <v>0.257442</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.253293</v>
+                  <v>0.255897</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.257958</v>
+                  <v>0.254296</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.254607</v>
+                  <v>0.253976</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.247355</v>
+                  <v>0.253858</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.252275</v>
+                  <v>0.252652</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.245957</v>
+                  <v>0.251436</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.245928</v>
+                  <v>0.251373</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.245708</v>
+                  <v>0.249863</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.264026</v>
+                  <v>0.266506</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.264647</v>
+                  <v>0.26438</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.269045</v>
+                  <v>0.261884</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.258691</v>
+                  <v>0.260327</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.26042</v>
+                  <v>0.25828</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.258834</v>
+                  <v>0.257292</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.253576</v>
+                  <v>0.256414</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.259869</v>
+                  <v>0.255015</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.255368</v>
+                  <v>0.253526</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.251552</v>
+                  <v>0.252946</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.250506</v>
+                  <v>0.252272</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.248071</v>
+                  <v>0.251202</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.246364</v>
+                  <v>0.251597</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.245107</v>
+                  <v>0.251317</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.26657</v>
+                  <v>0.267088</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.263007</v>
+                  <v>0.264928</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.263054</v>
+                  <v>0.263676</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.263115</v>
+                  <v>0.26094</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.260417</v>
+                  <v>0.259854</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.252729</v>
+                  <v>0.258275</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.259028</v>
+                  <v>0.256589</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3217,30 +3217,30 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="4" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="5" style="1" width="11.42578125"/>
+    <col customWidth="1" max="7" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="8" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.275413</v>
+        <v>0.265106</v>
       </c>
       <c r="C2" t="n">
-        <v>0.238206</v>
+        <v>0.235991</v>
       </c>
       <c r="D2" t="n">
-        <v>0.253645</v>
+        <v>0.244063</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.274464</v>
+        <v>0.263572</v>
       </c>
       <c r="C3" t="n">
-        <v>0.24111</v>
+        <v>0.232966</v>
       </c>
       <c r="D3" t="n">
-        <v>0.24782</v>
+        <v>0.240451</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.268104</v>
+        <v>0.260474</v>
       </c>
       <c r="C4" t="n">
-        <v>0.236542</v>
+        <v>0.230815</v>
       </c>
       <c r="D4" t="n">
-        <v>0.250402</v>
+        <v>0.246785</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.253949</v>
+        <v>0.24642</v>
       </c>
       <c r="C5" t="n">
-        <v>0.240105</v>
+        <v>0.230478</v>
       </c>
       <c r="D5" t="n">
-        <v>0.241814</v>
+        <v>0.239909</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.246243</v>
+        <v>0.238962</v>
       </c>
       <c r="C6" t="n">
-        <v>0.234813</v>
+        <v>0.227444</v>
       </c>
       <c r="D6" t="n">
-        <v>0.246993</v>
+        <v>0.242382</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.236548</v>
+        <v>0.23366</v>
       </c>
       <c r="C7" t="n">
-        <v>0.231671</v>
+        <v>0.236519</v>
       </c>
       <c r="D7" t="n">
-        <v>0.243097</v>
+        <v>0.240165</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.226332</v>
+        <v>0.225742</v>
       </c>
       <c r="C8" t="n">
-        <v>0.230176</v>
+        <v>0.228826</v>
       </c>
       <c r="D8" t="n">
-        <v>0.242511</v>
+        <v>0.242812</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.222251</v>
+        <v>0.217977</v>
       </c>
       <c r="C9" t="n">
-        <v>0.234432</v>
+        <v>0.225852</v>
       </c>
       <c r="D9" t="n">
-        <v>0.251267</v>
+        <v>0.255241</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.312972</v>
+        <v>0.308401</v>
       </c>
       <c r="C10" t="n">
-        <v>0.248002</v>
+        <v>0.247469</v>
       </c>
       <c r="D10" t="n">
-        <v>0.249685</v>
+        <v>0.252836</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.303822</v>
+        <v>0.303809</v>
       </c>
       <c r="C11" t="n">
-        <v>0.24343</v>
+        <v>0.247278</v>
       </c>
       <c r="D11" t="n">
-        <v>0.254596</v>
+        <v>0.256101</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.304695</v>
+        <v>0.297338</v>
       </c>
       <c r="C12" t="n">
-        <v>0.242764</v>
+        <v>0.23968</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25114</v>
+        <v>0.252712</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.301771</v>
+        <v>0.293668</v>
       </c>
       <c r="C13" t="n">
-        <v>0.243205</v>
+        <v>0.241677</v>
       </c>
       <c r="D13" t="n">
-        <v>0.250984</v>
+        <v>0.255578</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.290101</v>
+        <v>0.285282</v>
       </c>
       <c r="C14" t="n">
-        <v>0.241432</v>
+        <v>0.240059</v>
       </c>
       <c r="D14" t="n">
-        <v>0.252503</v>
+        <v>0.248698</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.283624</v>
+        <v>0.282323</v>
       </c>
       <c r="C15" t="n">
-        <v>0.241448</v>
+        <v>0.239012</v>
       </c>
       <c r="D15" t="n">
-        <v>0.250222</v>
+        <v>0.246783</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.282774</v>
+        <v>0.275965</v>
       </c>
       <c r="C16" t="n">
-        <v>0.239781</v>
+        <v>0.240898</v>
       </c>
       <c r="D16" t="n">
-        <v>0.249432</v>
+        <v>0.246752</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.271671</v>
+        <v>0.268382</v>
       </c>
       <c r="C17" t="n">
-        <v>0.238755</v>
+        <v>0.236757</v>
       </c>
       <c r="D17" t="n">
-        <v>0.250113</v>
+        <v>0.245403</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.264181</v>
+        <v>0.266625</v>
       </c>
       <c r="C18" t="n">
-        <v>0.232904</v>
+        <v>0.235262</v>
       </c>
       <c r="D18" t="n">
-        <v>0.247261</v>
+        <v>0.258634</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.257266</v>
+        <v>0.260423</v>
       </c>
       <c r="C19" t="n">
-        <v>0.234794</v>
+        <v>0.239218</v>
       </c>
       <c r="D19" t="n">
-        <v>0.243203</v>
+        <v>0.242445</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.25263</v>
+        <v>0.249786</v>
       </c>
       <c r="C20" t="n">
-        <v>0.234527</v>
+        <v>0.239918</v>
       </c>
       <c r="D20" t="n">
-        <v>0.244209</v>
+        <v>0.250322</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.24178</v>
+        <v>0.245554</v>
       </c>
       <c r="C21" t="n">
-        <v>0.231559</v>
+        <v>0.231652</v>
       </c>
       <c r="D21" t="n">
-        <v>0.244082</v>
+        <v>0.242275</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.231822</v>
+        <v>0.233639</v>
       </c>
       <c r="C22" t="n">
-        <v>0.234417</v>
+        <v>0.231883</v>
       </c>
       <c r="D22" t="n">
-        <v>0.242942</v>
+        <v>0.246503</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.226854</v>
+        <v>0.222706</v>
       </c>
       <c r="C23" t="n">
-        <v>0.234579</v>
+        <v>0.232514</v>
       </c>
       <c r="D23" t="n">
-        <v>0.259956</v>
+        <v>0.261511</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.311148</v>
+        <v>0.3075</v>
       </c>
       <c r="C24" t="n">
-        <v>0.25007</v>
+        <v>0.248618</v>
       </c>
       <c r="D24" t="n">
-        <v>0.257069</v>
+        <v>0.258825</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.30614</v>
+        <v>0.306876</v>
       </c>
       <c r="C25" t="n">
-        <v>0.249684</v>
+        <v>0.248207</v>
       </c>
       <c r="D25" t="n">
-        <v>0.258734</v>
+        <v>0.255432</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.301492</v>
+        <v>0.29818</v>
       </c>
       <c r="C26" t="n">
-        <v>0.247266</v>
+        <v>0.24787</v>
       </c>
       <c r="D26" t="n">
-        <v>0.259036</v>
+        <v>0.254492</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.29548</v>
+        <v>0.29274</v>
       </c>
       <c r="C27" t="n">
-        <v>0.246899</v>
+        <v>0.244911</v>
       </c>
       <c r="D27" t="n">
-        <v>0.254196</v>
+        <v>0.253679</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.291718</v>
+        <v>0.289073</v>
       </c>
       <c r="C28" t="n">
-        <v>0.244274</v>
+        <v>0.248302</v>
       </c>
       <c r="D28" t="n">
-        <v>0.256388</v>
+        <v>0.252845</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.287655</v>
+        <v>0.282148</v>
       </c>
       <c r="C29" t="n">
-        <v>0.247006</v>
+        <v>0.242262</v>
       </c>
       <c r="D29" t="n">
-        <v>0.25252</v>
+        <v>0.254479</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.274477</v>
+        <v>0.277757</v>
       </c>
       <c r="C30" t="n">
-        <v>0.240984</v>
+        <v>0.242995</v>
       </c>
       <c r="D30" t="n">
-        <v>0.252464</v>
+        <v>0.253713</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.268753</v>
+        <v>0.270951</v>
       </c>
       <c r="C31" t="n">
-        <v>0.240996</v>
+        <v>0.242315</v>
       </c>
       <c r="D31" t="n">
-        <v>0.250076</v>
+        <v>0.252509</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.26592</v>
+        <v>0.268058</v>
       </c>
       <c r="C32" t="n">
-        <v>0.242421</v>
+        <v>0.239696</v>
       </c>
       <c r="D32" t="n">
-        <v>0.250165</v>
+        <v>0.248175</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.260329</v>
+        <v>0.256171</v>
       </c>
       <c r="C33" t="n">
-        <v>0.240586</v>
+        <v>0.235489</v>
       </c>
       <c r="D33" t="n">
-        <v>0.246946</v>
+        <v>0.248311</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.25288</v>
+        <v>0.251674</v>
       </c>
       <c r="C34" t="n">
-        <v>0.238261</v>
+        <v>0.236997</v>
       </c>
       <c r="D34" t="n">
-        <v>0.247816</v>
+        <v>0.245791</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.240484</v>
+        <v>0.242802</v>
       </c>
       <c r="C35" t="n">
-        <v>0.234003</v>
+        <v>0.235455</v>
       </c>
       <c r="D35" t="n">
-        <v>0.246467</v>
+        <v>0.245393</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.236919</v>
+        <v>0.235207</v>
       </c>
       <c r="C36" t="n">
-        <v>0.232027</v>
+        <v>0.237746</v>
       </c>
       <c r="D36" t="n">
-        <v>0.245859</v>
+        <v>0.244673</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.227354</v>
+        <v>0.23184</v>
       </c>
       <c r="C37" t="n">
-        <v>0.233978</v>
+        <v>0.235413</v>
       </c>
       <c r="D37" t="n">
-        <v>0.268684</v>
+        <v>0.267822</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.310064</v>
+        <v>0.312622</v>
       </c>
       <c r="C38" t="n">
-        <v>0.260643</v>
+        <v>0.253853</v>
       </c>
       <c r="D38" t="n">
-        <v>0.267956</v>
+        <v>0.262154</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.313737</v>
+        <v>0.308594</v>
       </c>
       <c r="C39" t="n">
-        <v>0.252182</v>
+        <v>0.251613</v>
       </c>
       <c r="D39" t="n">
-        <v>0.26392</v>
+        <v>0.261002</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.305519</v>
+        <v>0.302887</v>
       </c>
       <c r="C40" t="n">
-        <v>0.252224</v>
+        <v>0.251158</v>
       </c>
       <c r="D40" t="n">
-        <v>0.264746</v>
+        <v>0.261329</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.29605</v>
+        <v>0.294947</v>
       </c>
       <c r="C41" t="n">
-        <v>0.253336</v>
+        <v>0.24894</v>
       </c>
       <c r="D41" t="n">
-        <v>0.262681</v>
+        <v>0.25737</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.296184</v>
+        <v>0.290926</v>
       </c>
       <c r="C42" t="n">
-        <v>0.251666</v>
+        <v>0.244602</v>
       </c>
       <c r="D42" t="n">
-        <v>0.25681</v>
+        <v>0.256258</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.288482</v>
+        <v>0.28751</v>
       </c>
       <c r="C43" t="n">
-        <v>0.246883</v>
+        <v>0.248457</v>
       </c>
       <c r="D43" t="n">
-        <v>0.255758</v>
+        <v>0.257376</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.280762</v>
+        <v>0.280957</v>
       </c>
       <c r="C44" t="n">
-        <v>0.244733</v>
+        <v>0.249006</v>
       </c>
       <c r="D44" t="n">
-        <v>0.254616</v>
+        <v>0.255185</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.276418</v>
+        <v>0.273463</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246643</v>
+        <v>0.244538</v>
       </c>
       <c r="D45" t="n">
-        <v>0.255765</v>
+        <v>0.252331</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.270296</v>
+        <v>0.271489</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245779</v>
+        <v>0.240745</v>
       </c>
       <c r="D46" t="n">
-        <v>0.255963</v>
+        <v>0.254745</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.263135</v>
+        <v>0.259688</v>
       </c>
       <c r="C47" t="n">
-        <v>0.240477</v>
+        <v>0.237122</v>
       </c>
       <c r="D47" t="n">
-        <v>0.247617</v>
+        <v>0.250158</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.253972</v>
+        <v>0.251411</v>
       </c>
       <c r="C48" t="n">
-        <v>0.239329</v>
+        <v>0.240829</v>
       </c>
       <c r="D48" t="n">
-        <v>0.24891</v>
+        <v>0.25062</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.24574</v>
+        <v>0.246634</v>
       </c>
       <c r="C49" t="n">
-        <v>0.240078</v>
+        <v>0.237534</v>
       </c>
       <c r="D49" t="n">
-        <v>0.251521</v>
+        <v>0.250278</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.239182</v>
+        <v>0.239599</v>
       </c>
       <c r="C50" t="n">
-        <v>0.23595</v>
+        <v>0.237179</v>
       </c>
       <c r="D50" t="n">
-        <v>0.248795</v>
+        <v>0.252122</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.230808</v>
+        <v>0.230127</v>
       </c>
       <c r="C51" t="n">
-        <v>0.235542</v>
+        <v>0.235193</v>
       </c>
       <c r="D51" t="n">
-        <v>0.272528</v>
+        <v>0.273035</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.222267</v>
+        <v>0.223996</v>
       </c>
       <c r="C52" t="n">
-        <v>0.23471</v>
+        <v>0.234708</v>
       </c>
       <c r="D52" t="n">
-        <v>0.269136</v>
+        <v>0.271054</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.317804</v>
+        <v>0.314218</v>
       </c>
       <c r="C53" t="n">
-        <v>0.261731</v>
+        <v>0.258775</v>
       </c>
       <c r="D53" t="n">
-        <v>0.268655</v>
+        <v>0.269233</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.311307</v>
+        <v>0.310366</v>
       </c>
       <c r="C54" t="n">
-        <v>0.259682</v>
+        <v>0.262396</v>
       </c>
       <c r="D54" t="n">
-        <v>0.266616</v>
+        <v>0.267428</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.307577</v>
+        <v>0.304875</v>
       </c>
       <c r="C55" t="n">
-        <v>0.254536</v>
+        <v>0.25769</v>
       </c>
       <c r="D55" t="n">
-        <v>0.263774</v>
+        <v>0.264924</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.301467</v>
+        <v>0.304735</v>
       </c>
       <c r="C56" t="n">
-        <v>0.25488</v>
+        <v>0.256219</v>
       </c>
       <c r="D56" t="n">
-        <v>0.26399</v>
+        <v>0.265007</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.304099</v>
+        <v>0.295299</v>
       </c>
       <c r="C57" t="n">
-        <v>0.252939</v>
+        <v>0.25281</v>
       </c>
       <c r="D57" t="n">
-        <v>0.262867</v>
+        <v>0.263434</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.287653</v>
+        <v>0.28278</v>
       </c>
       <c r="C58" t="n">
-        <v>0.250912</v>
+        <v>0.251177</v>
       </c>
       <c r="D58" t="n">
-        <v>0.257715</v>
+        <v>0.261242</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.280641</v>
+        <v>0.283373</v>
       </c>
       <c r="C59" t="n">
-        <v>0.248532</v>
+        <v>0.253846</v>
       </c>
       <c r="D59" t="n">
-        <v>0.258482</v>
+        <v>0.260901</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.278628</v>
+        <v>0.27645</v>
       </c>
       <c r="C60" t="n">
-        <v>0.249111</v>
+        <v>0.249878</v>
       </c>
       <c r="D60" t="n">
-        <v>0.262195</v>
+        <v>0.257628</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.269961</v>
+        <v>0.266868</v>
       </c>
       <c r="C61" t="n">
-        <v>0.25034</v>
+        <v>0.244983</v>
       </c>
       <c r="D61" t="n">
-        <v>0.259871</v>
+        <v>0.258622</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.261949</v>
+        <v>0.261807</v>
       </c>
       <c r="C62" t="n">
-        <v>0.243462</v>
+        <v>0.246808</v>
       </c>
       <c r="D62" t="n">
-        <v>0.255634</v>
+        <v>0.259944</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.250721</v>
+        <v>0.251442</v>
       </c>
       <c r="C63" t="n">
-        <v>0.242168</v>
+        <v>0.243038</v>
       </c>
       <c r="D63" t="n">
-        <v>0.260845</v>
+        <v>0.257847</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.244219</v>
+        <v>0.244333</v>
       </c>
       <c r="C64" t="n">
-        <v>0.236585</v>
+        <v>0.249335</v>
       </c>
       <c r="D64" t="n">
-        <v>0.24772</v>
+        <v>0.253106</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.231559</v>
+        <v>0.240207</v>
       </c>
       <c r="C65" t="n">
-        <v>0.235874</v>
+        <v>0.241123</v>
       </c>
       <c r="D65" t="n">
-        <v>0.250758</v>
+        <v>0.254012</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.228423</v>
+        <v>0.225502</v>
       </c>
       <c r="C66" t="n">
-        <v>0.238699</v>
+        <v>0.239949</v>
       </c>
       <c r="D66" t="n">
-        <v>0.279504</v>
+        <v>0.280916</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.325084</v>
+        <v>0.330973</v>
       </c>
       <c r="C67" t="n">
-        <v>0.267594</v>
+        <v>0.266463</v>
       </c>
       <c r="D67" t="n">
-        <v>0.278086</v>
+        <v>0.273583</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.32229</v>
+        <v>0.320504</v>
       </c>
       <c r="C68" t="n">
-        <v>0.273117</v>
+        <v>0.266454</v>
       </c>
       <c r="D68" t="n">
-        <v>0.27296</v>
+        <v>0.28059</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.31876</v>
+        <v>0.315311</v>
       </c>
       <c r="C69" t="n">
-        <v>0.268386</v>
+        <v>0.261061</v>
       </c>
       <c r="D69" t="n">
-        <v>0.277084</v>
+        <v>0.274193</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.313979</v>
+        <v>0.308292</v>
       </c>
       <c r="C70" t="n">
-        <v>0.262618</v>
+        <v>0.260071</v>
       </c>
       <c r="D70" t="n">
-        <v>0.274759</v>
+        <v>0.269957</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.309927</v>
+        <v>0.304422</v>
       </c>
       <c r="C71" t="n">
-        <v>0.259731</v>
+        <v>0.258231</v>
       </c>
       <c r="D71" t="n">
-        <v>0.266568</v>
+        <v>0.266189</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.304481</v>
+        <v>0.298004</v>
       </c>
       <c r="C72" t="n">
-        <v>0.258527</v>
+        <v>0.256064</v>
       </c>
       <c r="D72" t="n">
-        <v>0.267596</v>
+        <v>0.266621</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.294661</v>
+        <v>0.290694</v>
       </c>
       <c r="C73" t="n">
-        <v>0.258437</v>
+        <v>0.253574</v>
       </c>
       <c r="D73" t="n">
-        <v>0.265402</v>
+        <v>0.265729</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.286515</v>
+        <v>0.282211</v>
       </c>
       <c r="C74" t="n">
-        <v>0.254497</v>
+        <v>0.251577</v>
       </c>
       <c r="D74" t="n">
-        <v>0.270883</v>
+        <v>0.263798</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.276506</v>
+        <v>0.277434</v>
       </c>
       <c r="C75" t="n">
-        <v>0.256518</v>
+        <v>0.251908</v>
       </c>
       <c r="D75" t="n">
-        <v>0.264238</v>
+        <v>0.262754</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.270986</v>
+        <v>0.267127</v>
       </c>
       <c r="C76" t="n">
-        <v>0.253058</v>
+        <v>0.247384</v>
       </c>
       <c r="D76" t="n">
-        <v>0.261364</v>
+        <v>0.262484</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.263301</v>
+        <v>0.265187</v>
       </c>
       <c r="C77" t="n">
-        <v>0.250768</v>
+        <v>0.250469</v>
       </c>
       <c r="D77" t="n">
-        <v>0.261994</v>
+        <v>0.256802</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.255712</v>
+        <v>0.251979</v>
       </c>
       <c r="C78" t="n">
-        <v>0.246359</v>
+        <v>0.245199</v>
       </c>
       <c r="D78" t="n">
-        <v>0.257532</v>
+        <v>0.258676</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.245728</v>
+        <v>0.245297</v>
       </c>
       <c r="C79" t="n">
-        <v>0.245861</v>
+        <v>0.24763</v>
       </c>
       <c r="D79" t="n">
-        <v>0.25587</v>
+        <v>0.259155</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.239468</v>
+        <v>0.234506</v>
       </c>
       <c r="C80" t="n">
-        <v>0.246296</v>
+        <v>0.245481</v>
       </c>
       <c r="D80" t="n">
-        <v>0.287392</v>
+        <v>0.284753</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.333691</v>
+        <v>0.335753</v>
       </c>
       <c r="C81" t="n">
-        <v>0.276552</v>
+        <v>0.274845</v>
       </c>
       <c r="D81" t="n">
-        <v>0.283432</v>
+        <v>0.280294</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.330255</v>
+        <v>0.327487</v>
       </c>
       <c r="C82" t="n">
-        <v>0.27116</v>
+        <v>0.276504</v>
       </c>
       <c r="D82" t="n">
-        <v>0.279929</v>
+        <v>0.280989</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.322823</v>
+        <v>0.320527</v>
       </c>
       <c r="C83" t="n">
-        <v>0.268175</v>
+        <v>0.273773</v>
       </c>
       <c r="D83" t="n">
-        <v>0.276572</v>
+        <v>0.27679</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.316712</v>
+        <v>0.316762</v>
       </c>
       <c r="C84" t="n">
-        <v>0.268476</v>
+        <v>0.265918</v>
       </c>
       <c r="D84" t="n">
-        <v>0.275685</v>
+        <v>0.273422</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.309393</v>
+        <v>0.307521</v>
       </c>
       <c r="C85" t="n">
-        <v>0.265888</v>
+        <v>0.263272</v>
       </c>
       <c r="D85" t="n">
-        <v>0.275185</v>
+        <v>0.270142</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.306829</v>
+        <v>0.298172</v>
       </c>
       <c r="C86" t="n">
-        <v>0.263731</v>
+        <v>0.259969</v>
       </c>
       <c r="D86" t="n">
-        <v>0.274486</v>
+        <v>0.275106</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.296695</v>
+        <v>0.2951</v>
       </c>
       <c r="C87" t="n">
-        <v>0.263664</v>
+        <v>0.258257</v>
       </c>
       <c r="D87" t="n">
-        <v>0.270996</v>
+        <v>0.268157</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.291997</v>
+        <v>0.289249</v>
       </c>
       <c r="C88" t="n">
-        <v>0.257645</v>
+        <v>0.259213</v>
       </c>
       <c r="D88" t="n">
-        <v>0.265664</v>
+        <v>0.268247</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.282096</v>
+        <v>0.282494</v>
       </c>
       <c r="C89" t="n">
-        <v>0.254647</v>
+        <v>0.253906</v>
       </c>
       <c r="D89" t="n">
-        <v>0.264467</v>
+        <v>0.267465</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.273486</v>
+        <v>0.273194</v>
       </c>
       <c r="C90" t="n">
-        <v>0.256424</v>
+        <v>0.256644</v>
       </c>
       <c r="D90" t="n">
-        <v>0.264693</v>
+        <v>0.26704</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265418</v>
+        <v>0.262297</v>
       </c>
       <c r="C91" t="n">
-        <v>0.252529</v>
+        <v>0.250177</v>
       </c>
       <c r="D91" t="n">
-        <v>0.260118</v>
+        <v>0.263994</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.256549</v>
+        <v>0.255416</v>
       </c>
       <c r="C92" t="n">
-        <v>0.248165</v>
+        <v>0.250068</v>
       </c>
       <c r="D92" t="n">
-        <v>0.263217</v>
+        <v>0.264779</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.250125</v>
+        <v>0.252591</v>
       </c>
       <c r="C93" t="n">
-        <v>0.245522</v>
+        <v>0.249477</v>
       </c>
       <c r="D93" t="n">
-        <v>0.259666</v>
+        <v>0.2585</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.238321</v>
+        <v>0.239734</v>
       </c>
       <c r="C94" t="n">
-        <v>0.244024</v>
+        <v>0.249722</v>
       </c>
       <c r="D94" t="n">
-        <v>0.290669</v>
+        <v>0.287995</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.337015</v>
+        <v>0.338745</v>
       </c>
       <c r="C95" t="n">
-        <v>0.27843</v>
+        <v>0.274106</v>
       </c>
       <c r="D95" t="n">
-        <v>0.283451</v>
+        <v>0.285095</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.330876</v>
+        <v>0.328926</v>
       </c>
       <c r="C96" t="n">
-        <v>0.274048</v>
+        <v>0.274531</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2846</v>
+        <v>0.282489</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.330293</v>
+        <v>0.326901</v>
       </c>
       <c r="C97" t="n">
-        <v>0.26876</v>
+        <v>0.274372</v>
       </c>
       <c r="D97" t="n">
-        <v>0.279459</v>
+        <v>0.280315</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.321383</v>
+        <v>0.32253</v>
       </c>
       <c r="C98" t="n">
-        <v>0.269083</v>
+        <v>0.268714</v>
       </c>
       <c r="D98" t="n">
-        <v>0.278949</v>
+        <v>0.27412</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.312569</v>
+        <v>0.312479</v>
       </c>
       <c r="C99" t="n">
-        <v>0.265125</v>
+        <v>0.269527</v>
       </c>
       <c r="D99" t="n">
-        <v>0.274697</v>
+        <v>0.274199</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.308198</v>
+        <v>0.305745</v>
       </c>
       <c r="C100" t="n">
-        <v>0.263992</v>
+        <v>0.26552</v>
       </c>
       <c r="D100" t="n">
-        <v>0.274199</v>
+        <v>0.278599</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.299939</v>
+        <v>0.296932</v>
       </c>
       <c r="C101" t="n">
-        <v>0.262502</v>
+        <v>0.258147</v>
       </c>
       <c r="D101" t="n">
-        <v>0.27033</v>
+        <v>0.270143</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.290839</v>
+        <v>0.287843</v>
       </c>
       <c r="C102" t="n">
-        <v>0.260549</v>
+        <v>0.261559</v>
       </c>
       <c r="D102" t="n">
-        <v>0.265846</v>
+        <v>0.269489</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.284838</v>
+        <v>0.281386</v>
       </c>
       <c r="C103" t="n">
-        <v>0.259516</v>
+        <v>0.258989</v>
       </c>
       <c r="D103" t="n">
-        <v>0.266212</v>
+        <v>0.266712</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.278083</v>
+        <v>0.276255</v>
       </c>
       <c r="C104" t="n">
-        <v>0.255506</v>
+        <v>0.255435</v>
       </c>
       <c r="D104" t="n">
-        <v>0.265476</v>
+        <v>0.264806</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.269309</v>
+        <v>0.268833</v>
       </c>
       <c r="C105" t="n">
-        <v>0.252738</v>
+        <v>0.24929</v>
       </c>
       <c r="D105" t="n">
-        <v>0.262902</v>
+        <v>0.264091</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.258683</v>
+        <v>0.256876</v>
       </c>
       <c r="C106" t="n">
-        <v>0.252493</v>
+        <v>0.252064</v>
       </c>
       <c r="D106" t="n">
-        <v>0.264596</v>
+        <v>0.260097</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.253262</v>
+        <v>0.252305</v>
       </c>
       <c r="C107" t="n">
-        <v>0.247966</v>
+        <v>0.24881</v>
       </c>
       <c r="D107" t="n">
-        <v>0.260027</v>
+        <v>0.258756</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.244796</v>
+        <v>0.239308</v>
       </c>
       <c r="C108" t="n">
-        <v>0.246878</v>
+        <v>0.248293</v>
       </c>
       <c r="D108" t="n">
-        <v>0.292057</v>
+        <v>0.288239</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.23209</v>
+        <v>0.232244</v>
       </c>
       <c r="C109" t="n">
-        <v>0.243454</v>
+        <v>0.245986</v>
       </c>
       <c r="D109" t="n">
-        <v>0.285862</v>
+        <v>0.286142</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.337717</v>
+        <v>0.329409</v>
       </c>
       <c r="C110" t="n">
-        <v>0.280962</v>
+        <v>0.273227</v>
       </c>
       <c r="D110" t="n">
-        <v>0.28502</v>
+        <v>0.286469</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.327567</v>
+        <v>0.32234</v>
       </c>
       <c r="C111" t="n">
-        <v>0.271708</v>
+        <v>0.277174</v>
       </c>
       <c r="D111" t="n">
-        <v>0.283071</v>
+        <v>0.28611</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.322379</v>
+        <v>0.32221</v>
       </c>
       <c r="C112" t="n">
-        <v>0.272881</v>
+        <v>0.273581</v>
       </c>
       <c r="D112" t="n">
-        <v>0.283272</v>
+        <v>0.280734</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.313829</v>
+        <v>0.313176</v>
       </c>
       <c r="C113" t="n">
-        <v>0.267569</v>
+        <v>0.267979</v>
       </c>
       <c r="D113" t="n">
-        <v>0.27707</v>
+        <v>0.279763</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.30695</v>
+        <v>0.307062</v>
       </c>
       <c r="C114" t="n">
-        <v>0.265719</v>
+        <v>0.26601</v>
       </c>
       <c r="D114" t="n">
-        <v>0.278395</v>
+        <v>0.276231</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.303344</v>
+        <v>0.29801</v>
       </c>
       <c r="C115" t="n">
-        <v>0.263874</v>
+        <v>0.267421</v>
       </c>
       <c r="D115" t="n">
-        <v>0.271601</v>
+        <v>0.271416</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.292813</v>
+        <v>0.293237</v>
       </c>
       <c r="C116" t="n">
-        <v>0.259445</v>
+        <v>0.258698</v>
       </c>
       <c r="D116" t="n">
-        <v>0.269727</v>
+        <v>0.269915</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.287493</v>
+        <v>0.284879</v>
       </c>
       <c r="C117" t="n">
-        <v>0.259421</v>
+        <v>0.259467</v>
       </c>
       <c r="D117" t="n">
-        <v>0.266747</v>
+        <v>0.268993</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285134</v>
+        <v>0.280348</v>
       </c>
       <c r="C118" t="n">
-        <v>0.257342</v>
+        <v>0.254247</v>
       </c>
       <c r="D118" t="n">
-        <v>0.26927</v>
+        <v>0.268027</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.275311</v>
+        <v>0.271467</v>
       </c>
       <c r="C119" t="n">
-        <v>0.259031</v>
+        <v>0.256311</v>
       </c>
       <c r="D119" t="n">
-        <v>0.267117</v>
+        <v>0.274323</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.261888</v>
+        <v>0.26163</v>
       </c>
       <c r="C120" t="n">
-        <v>0.253816</v>
+        <v>0.256215</v>
       </c>
       <c r="D120" t="n">
-        <v>0.264685</v>
+        <v>0.266433</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.254653</v>
+        <v>0.253832</v>
       </c>
       <c r="C121" t="n">
-        <v>0.247456</v>
+        <v>0.249183</v>
       </c>
       <c r="D121" t="n">
-        <v>0.261295</v>
+        <v>0.260087</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.247274</v>
+        <v>0.244977</v>
       </c>
       <c r="C122" t="n">
-        <v>0.247248</v>
+        <v>0.246413</v>
       </c>
       <c r="D122" t="n">
-        <v>0.260493</v>
+        <v>0.256443</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.235351</v>
+        <v>0.235019</v>
       </c>
       <c r="C123" t="n">
-        <v>0.247777</v>
+        <v>0.245986</v>
       </c>
       <c r="D123" t="n">
-        <v>0.286459</v>
+        <v>0.282808</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.341513</v>
+        <v>0.331916</v>
       </c>
       <c r="C124" t="n">
-        <v>0.276124</v>
+        <v>0.276734</v>
       </c>
       <c r="D124" t="n">
-        <v>0.286851</v>
+        <v>0.282977</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.340778</v>
+        <v>0.323449</v>
       </c>
       <c r="C125" t="n">
-        <v>0.268251</v>
+        <v>0.271503</v>
       </c>
       <c r="D125" t="n">
-        <v>0.284688</v>
+        <v>0.283898</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.320577</v>
+        <v>0.320192</v>
       </c>
       <c r="C126" t="n">
-        <v>0.27311</v>
+        <v>0.272262</v>
       </c>
       <c r="D126" t="n">
-        <v>0.284253</v>
+        <v>0.274513</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.316873</v>
+        <v>0.310063</v>
       </c>
       <c r="C127" t="n">
-        <v>0.270318</v>
+        <v>0.267436</v>
       </c>
       <c r="D127" t="n">
-        <v>0.274981</v>
+        <v>0.274127</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.304778</v>
+        <v>0.304686</v>
       </c>
       <c r="C128" t="n">
-        <v>0.264489</v>
+        <v>0.265966</v>
       </c>
       <c r="D128" t="n">
-        <v>0.27941</v>
+        <v>0.277711</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.305879</v>
+        <v>0.299159</v>
       </c>
       <c r="C129" t="n">
-        <v>0.271065</v>
+        <v>0.260981</v>
       </c>
       <c r="D129" t="n">
-        <v>0.273464</v>
+        <v>0.271317</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.297876</v>
+        <v>0.29694</v>
       </c>
       <c r="C130" t="n">
-        <v>0.261027</v>
+        <v>0.262828</v>
       </c>
       <c r="D130" t="n">
-        <v>0.275615</v>
+        <v>0.270028</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.289644</v>
+        <v>0.284932</v>
       </c>
       <c r="C131" t="n">
-        <v>0.261556</v>
+        <v>0.259092</v>
       </c>
       <c r="D131" t="n">
-        <v>0.273037</v>
+        <v>0.266626</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.280906</v>
+        <v>0.278415</v>
       </c>
       <c r="C132" t="n">
-        <v>0.260321</v>
+        <v>0.260738</v>
       </c>
       <c r="D132" t="n">
-        <v>0.267537</v>
+        <v>0.266942</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.269126</v>
+        <v>0.272551</v>
       </c>
       <c r="C133" t="n">
-        <v>0.258306</v>
+        <v>0.25592</v>
       </c>
       <c r="D133" t="n">
-        <v>0.266022</v>
+        <v>0.260821</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.261025</v>
+        <v>0.270414</v>
       </c>
       <c r="C134" t="n">
-        <v>0.250968</v>
+        <v>0.254169</v>
       </c>
       <c r="D134" t="n">
-        <v>0.264223</v>
+        <v>0.264246</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.263015</v>
+        <v>0.251789</v>
       </c>
       <c r="C135" t="n">
-        <v>0.252061</v>
+        <v>0.255905</v>
       </c>
       <c r="D135" t="n">
-        <v>0.262612</v>
+        <v>0.263356</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.244687</v>
+        <v>0.248574</v>
       </c>
       <c r="C136" t="n">
-        <v>0.254997</v>
+        <v>0.253227</v>
       </c>
       <c r="D136" t="n">
-        <v>0.260721</v>
+        <v>0.262672</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.236159</v>
+        <v>0.237764</v>
       </c>
       <c r="C137" t="n">
-        <v>0.251479</v>
+        <v>0.246104</v>
       </c>
       <c r="D137" t="n">
-        <v>0.286722</v>
+        <v>0.29655</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.339734</v>
+        <v>0.328871</v>
       </c>
       <c r="C138" t="n">
-        <v>0.278641</v>
+        <v>0.278278</v>
       </c>
       <c r="D138" t="n">
-        <v>0.282585</v>
+        <v>0.291214</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.334986</v>
+        <v>0.334626</v>
       </c>
       <c r="C139" t="n">
-        <v>0.273894</v>
+        <v>0.274997</v>
       </c>
       <c r="D139" t="n">
-        <v>0.279512</v>
+        <v>0.277018</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.331203</v>
+        <v>0.323003</v>
       </c>
       <c r="C140" t="n">
-        <v>0.267443</v>
+        <v>0.273793</v>
       </c>
       <c r="D140" t="n">
-        <v>0.295809</v>
+        <v>0.285191</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.31452</v>
+        <v>0.317893</v>
       </c>
       <c r="C141" t="n">
-        <v>0.265938</v>
+        <v>0.272384</v>
       </c>
       <c r="D141" t="n">
-        <v>0.276861</v>
+        <v>0.277608</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.3122</v>
+        <v>0.309885</v>
       </c>
       <c r="C142" t="n">
-        <v>0.267911</v>
+        <v>0.262411</v>
       </c>
       <c r="D142" t="n">
-        <v>0.279276</v>
+        <v>0.271719</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.309182</v>
+        <v>0.29892</v>
       </c>
       <c r="C143" t="n">
-        <v>0.267002</v>
+        <v>0.261759</v>
       </c>
       <c r="D143" t="n">
-        <v>0.273209</v>
+        <v>0.27234</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.265106</v>
+        <v>0.268849</v>
       </c>
       <c r="C2" t="n">
-        <v>0.235991</v>
+        <v>0.23707</v>
       </c>
       <c r="D2" t="n">
-        <v>0.244063</v>
+        <v>0.245706</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.263572</v>
+        <v>0.266898</v>
       </c>
       <c r="C3" t="n">
-        <v>0.232966</v>
+        <v>0.234821</v>
       </c>
       <c r="D3" t="n">
-        <v>0.240451</v>
+        <v>0.247925</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.260474</v>
+        <v>0.260407</v>
       </c>
       <c r="C4" t="n">
-        <v>0.230815</v>
+        <v>0.232484</v>
       </c>
       <c r="D4" t="n">
-        <v>0.246785</v>
+        <v>0.247248</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.24642</v>
+        <v>0.249924</v>
       </c>
       <c r="C5" t="n">
-        <v>0.230478</v>
+        <v>0.235204</v>
       </c>
       <c r="D5" t="n">
-        <v>0.239909</v>
+        <v>0.241834</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.238962</v>
+        <v>0.243236</v>
       </c>
       <c r="C6" t="n">
-        <v>0.227444</v>
+        <v>0.233318</v>
       </c>
       <c r="D6" t="n">
-        <v>0.242382</v>
+        <v>0.245195</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.23366</v>
+        <v>0.234828</v>
       </c>
       <c r="C7" t="n">
-        <v>0.236519</v>
+        <v>0.236277</v>
       </c>
       <c r="D7" t="n">
-        <v>0.240165</v>
+        <v>0.244838</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.225742</v>
+        <v>0.229153</v>
       </c>
       <c r="C8" t="n">
-        <v>0.228826</v>
+        <v>0.23227</v>
       </c>
       <c r="D8" t="n">
-        <v>0.242812</v>
+        <v>0.241312</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.217977</v>
+        <v>0.216689</v>
       </c>
       <c r="C9" t="n">
-        <v>0.225852</v>
+        <v>0.229296</v>
       </c>
       <c r="D9" t="n">
-        <v>0.255241</v>
+        <v>0.249717</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.308401</v>
+        <v>0.310947</v>
       </c>
       <c r="C10" t="n">
-        <v>0.247469</v>
+        <v>0.246597</v>
       </c>
       <c r="D10" t="n">
-        <v>0.252836</v>
+        <v>0.251817</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.303809</v>
+        <v>0.305326</v>
       </c>
       <c r="C11" t="n">
-        <v>0.247278</v>
+        <v>0.243994</v>
       </c>
       <c r="D11" t="n">
-        <v>0.256101</v>
+        <v>0.254591</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.297338</v>
+        <v>0.296624</v>
       </c>
       <c r="C12" t="n">
-        <v>0.23968</v>
+        <v>0.243496</v>
       </c>
       <c r="D12" t="n">
-        <v>0.252712</v>
+        <v>0.24949</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.293668</v>
+        <v>0.297566</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241677</v>
+        <v>0.244384</v>
       </c>
       <c r="D13" t="n">
-        <v>0.255578</v>
+        <v>0.252165</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.285282</v>
+        <v>0.288344</v>
       </c>
       <c r="C14" t="n">
-        <v>0.240059</v>
+        <v>0.245882</v>
       </c>
       <c r="D14" t="n">
-        <v>0.248698</v>
+        <v>0.247556</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.282323</v>
+        <v>0.281382</v>
       </c>
       <c r="C15" t="n">
-        <v>0.239012</v>
+        <v>0.238235</v>
       </c>
       <c r="D15" t="n">
-        <v>0.246783</v>
+        <v>0.250472</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.275965</v>
+        <v>0.280111</v>
       </c>
       <c r="C16" t="n">
-        <v>0.240898</v>
+        <v>0.237828</v>
       </c>
       <c r="D16" t="n">
-        <v>0.246752</v>
+        <v>0.247995</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.268382</v>
+        <v>0.269068</v>
       </c>
       <c r="C17" t="n">
-        <v>0.236757</v>
+        <v>0.239809</v>
       </c>
       <c r="D17" t="n">
-        <v>0.245403</v>
+        <v>0.250393</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.266625</v>
+        <v>0.265579</v>
       </c>
       <c r="C18" t="n">
-        <v>0.235262</v>
+        <v>0.235388</v>
       </c>
       <c r="D18" t="n">
-        <v>0.258634</v>
+        <v>0.245809</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.260423</v>
+        <v>0.255928</v>
       </c>
       <c r="C19" t="n">
-        <v>0.239218</v>
+        <v>0.234202</v>
       </c>
       <c r="D19" t="n">
-        <v>0.242445</v>
+        <v>0.24491</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.249786</v>
+        <v>0.249472</v>
       </c>
       <c r="C20" t="n">
-        <v>0.239918</v>
+        <v>0.237672</v>
       </c>
       <c r="D20" t="n">
-        <v>0.250322</v>
+        <v>0.242992</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.245554</v>
+        <v>0.248043</v>
       </c>
       <c r="C21" t="n">
-        <v>0.231652</v>
+        <v>0.232579</v>
       </c>
       <c r="D21" t="n">
-        <v>0.242275</v>
+        <v>0.243894</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.233639</v>
+        <v>0.232724</v>
       </c>
       <c r="C22" t="n">
-        <v>0.231883</v>
+        <v>0.233958</v>
       </c>
       <c r="D22" t="n">
-        <v>0.246503</v>
+        <v>0.24194</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.222706</v>
+        <v>0.225772</v>
       </c>
       <c r="C23" t="n">
-        <v>0.232514</v>
+        <v>0.230558</v>
       </c>
       <c r="D23" t="n">
-        <v>0.261511</v>
+        <v>0.263057</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3075</v>
+        <v>0.308807</v>
       </c>
       <c r="C24" t="n">
-        <v>0.248618</v>
+        <v>0.251651</v>
       </c>
       <c r="D24" t="n">
-        <v>0.258825</v>
+        <v>0.259745</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.306876</v>
+        <v>0.304536</v>
       </c>
       <c r="C25" t="n">
-        <v>0.248207</v>
+        <v>0.250019</v>
       </c>
       <c r="D25" t="n">
-        <v>0.255432</v>
+        <v>0.263119</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.29818</v>
+        <v>0.303449</v>
       </c>
       <c r="C26" t="n">
-        <v>0.24787</v>
+        <v>0.248384</v>
       </c>
       <c r="D26" t="n">
-        <v>0.254492</v>
+        <v>0.258203</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.29274</v>
+        <v>0.298193</v>
       </c>
       <c r="C27" t="n">
-        <v>0.244911</v>
+        <v>0.248617</v>
       </c>
       <c r="D27" t="n">
-        <v>0.253679</v>
+        <v>0.254176</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.289073</v>
+        <v>0.287085</v>
       </c>
       <c r="C28" t="n">
-        <v>0.248302</v>
+        <v>0.24521</v>
       </c>
       <c r="D28" t="n">
-        <v>0.252845</v>
+        <v>0.254286</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.282148</v>
+        <v>0.285467</v>
       </c>
       <c r="C29" t="n">
-        <v>0.242262</v>
+        <v>0.244795</v>
       </c>
       <c r="D29" t="n">
-        <v>0.254479</v>
+        <v>0.251882</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.277757</v>
+        <v>0.276899</v>
       </c>
       <c r="C30" t="n">
-        <v>0.242995</v>
+        <v>0.242806</v>
       </c>
       <c r="D30" t="n">
-        <v>0.253713</v>
+        <v>0.254198</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.270951</v>
+        <v>0.271475</v>
       </c>
       <c r="C31" t="n">
-        <v>0.242315</v>
+        <v>0.240435</v>
       </c>
       <c r="D31" t="n">
-        <v>0.252509</v>
+        <v>0.250011</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.268058</v>
+        <v>0.261489</v>
       </c>
       <c r="C32" t="n">
-        <v>0.239696</v>
+        <v>0.235473</v>
       </c>
       <c r="D32" t="n">
-        <v>0.248175</v>
+        <v>0.252257</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256171</v>
+        <v>0.258928</v>
       </c>
       <c r="C33" t="n">
-        <v>0.235489</v>
+        <v>0.237296</v>
       </c>
       <c r="D33" t="n">
-        <v>0.248311</v>
+        <v>0.245886</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.251674</v>
+        <v>0.254207</v>
       </c>
       <c r="C34" t="n">
-        <v>0.236997</v>
+        <v>0.243747</v>
       </c>
       <c r="D34" t="n">
-        <v>0.245791</v>
+        <v>0.249044</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.242802</v>
+        <v>0.244712</v>
       </c>
       <c r="C35" t="n">
-        <v>0.235455</v>
+        <v>0.232985</v>
       </c>
       <c r="D35" t="n">
-        <v>0.245393</v>
+        <v>0.248929</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.235207</v>
+        <v>0.233699</v>
       </c>
       <c r="C36" t="n">
-        <v>0.237746</v>
+        <v>0.236055</v>
       </c>
       <c r="D36" t="n">
-        <v>0.244673</v>
+        <v>0.246711</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.23184</v>
+        <v>0.224067</v>
       </c>
       <c r="C37" t="n">
-        <v>0.235413</v>
+        <v>0.234546</v>
       </c>
       <c r="D37" t="n">
-        <v>0.267822</v>
+        <v>0.268145</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.312622</v>
+        <v>0.312119</v>
       </c>
       <c r="C38" t="n">
-        <v>0.253853</v>
+        <v>0.252015</v>
       </c>
       <c r="D38" t="n">
-        <v>0.262154</v>
+        <v>0.267442</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.308594</v>
+        <v>0.308486</v>
       </c>
       <c r="C39" t="n">
-        <v>0.251613</v>
+        <v>0.255377</v>
       </c>
       <c r="D39" t="n">
-        <v>0.261002</v>
+        <v>0.265112</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.302887</v>
+        <v>0.303868</v>
       </c>
       <c r="C40" t="n">
-        <v>0.251158</v>
+        <v>0.252347</v>
       </c>
       <c r="D40" t="n">
-        <v>0.261329</v>
+        <v>0.267709</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.294947</v>
+        <v>0.301486</v>
       </c>
       <c r="C41" t="n">
-        <v>0.24894</v>
+        <v>0.247981</v>
       </c>
       <c r="D41" t="n">
-        <v>0.25737</v>
+        <v>0.26054</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.290926</v>
+        <v>0.294225</v>
       </c>
       <c r="C42" t="n">
-        <v>0.244602</v>
+        <v>0.247583</v>
       </c>
       <c r="D42" t="n">
-        <v>0.256258</v>
+        <v>0.257405</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.28751</v>
+        <v>0.285647</v>
       </c>
       <c r="C43" t="n">
-        <v>0.248457</v>
+        <v>0.247674</v>
       </c>
       <c r="D43" t="n">
-        <v>0.257376</v>
+        <v>0.257482</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.280957</v>
+        <v>0.283586</v>
       </c>
       <c r="C44" t="n">
-        <v>0.249006</v>
+        <v>0.244874</v>
       </c>
       <c r="D44" t="n">
-        <v>0.255185</v>
+        <v>0.257616</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.273463</v>
+        <v>0.274127</v>
       </c>
       <c r="C45" t="n">
-        <v>0.244538</v>
+        <v>0.243951</v>
       </c>
       <c r="D45" t="n">
-        <v>0.252331</v>
+        <v>0.255421</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.271489</v>
+        <v>0.265671</v>
       </c>
       <c r="C46" t="n">
-        <v>0.240745</v>
+        <v>0.243719</v>
       </c>
       <c r="D46" t="n">
-        <v>0.254745</v>
+        <v>0.259228</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.259688</v>
+        <v>0.264252</v>
       </c>
       <c r="C47" t="n">
-        <v>0.237122</v>
+        <v>0.242819</v>
       </c>
       <c r="D47" t="n">
-        <v>0.250158</v>
+        <v>0.254525</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.251411</v>
+        <v>0.256081</v>
       </c>
       <c r="C48" t="n">
-        <v>0.240829</v>
+        <v>0.238372</v>
       </c>
       <c r="D48" t="n">
-        <v>0.25062</v>
+        <v>0.255531</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.246634</v>
+        <v>0.245639</v>
       </c>
       <c r="C49" t="n">
-        <v>0.237534</v>
+        <v>0.240442</v>
       </c>
       <c r="D49" t="n">
-        <v>0.250278</v>
+        <v>0.251849</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.239599</v>
+        <v>0.243803</v>
       </c>
       <c r="C50" t="n">
-        <v>0.237179</v>
+        <v>0.240133</v>
       </c>
       <c r="D50" t="n">
-        <v>0.252122</v>
+        <v>0.250213</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.230127</v>
+        <v>0.232918</v>
       </c>
       <c r="C51" t="n">
-        <v>0.235193</v>
+        <v>0.240627</v>
       </c>
       <c r="D51" t="n">
-        <v>0.273035</v>
+        <v>0.273557</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.223996</v>
+        <v>0.22257</v>
       </c>
       <c r="C52" t="n">
-        <v>0.234708</v>
+        <v>0.235269</v>
       </c>
       <c r="D52" t="n">
-        <v>0.271054</v>
+        <v>0.268757</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.314218</v>
+        <v>0.312942</v>
       </c>
       <c r="C53" t="n">
-        <v>0.258775</v>
+        <v>0.258859</v>
       </c>
       <c r="D53" t="n">
-        <v>0.269233</v>
+        <v>0.266338</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.310366</v>
+        <v>0.310749</v>
       </c>
       <c r="C54" t="n">
-        <v>0.262396</v>
+        <v>0.258305</v>
       </c>
       <c r="D54" t="n">
-        <v>0.267428</v>
+        <v>0.27241</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.304875</v>
+        <v>0.302424</v>
       </c>
       <c r="C55" t="n">
-        <v>0.25769</v>
+        <v>0.25651</v>
       </c>
       <c r="D55" t="n">
-        <v>0.264924</v>
+        <v>0.264638</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.304735</v>
+        <v>0.299886</v>
       </c>
       <c r="C56" t="n">
-        <v>0.256219</v>
+        <v>0.254058</v>
       </c>
       <c r="D56" t="n">
-        <v>0.265007</v>
+        <v>0.263375</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.295299</v>
+        <v>0.294167</v>
       </c>
       <c r="C57" t="n">
-        <v>0.25281</v>
+        <v>0.252137</v>
       </c>
       <c r="D57" t="n">
-        <v>0.263434</v>
+        <v>0.264106</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.28278</v>
+        <v>0.289665</v>
       </c>
       <c r="C58" t="n">
-        <v>0.251177</v>
+        <v>0.251133</v>
       </c>
       <c r="D58" t="n">
-        <v>0.261242</v>
+        <v>0.262906</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.283373</v>
+        <v>0.281018</v>
       </c>
       <c r="C59" t="n">
-        <v>0.253846</v>
+        <v>0.249767</v>
       </c>
       <c r="D59" t="n">
-        <v>0.260901</v>
+        <v>0.258186</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.27645</v>
+        <v>0.275487</v>
       </c>
       <c r="C60" t="n">
-        <v>0.249878</v>
+        <v>0.24874</v>
       </c>
       <c r="D60" t="n">
-        <v>0.257628</v>
+        <v>0.261825</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.266868</v>
+        <v>0.268401</v>
       </c>
       <c r="C61" t="n">
-        <v>0.244983</v>
+        <v>0.251737</v>
       </c>
       <c r="D61" t="n">
-        <v>0.258622</v>
+        <v>0.258998</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.261807</v>
+        <v>0.257227</v>
       </c>
       <c r="C62" t="n">
-        <v>0.246808</v>
+        <v>0.247677</v>
       </c>
       <c r="D62" t="n">
-        <v>0.259944</v>
+        <v>0.257255</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.251442</v>
+        <v>0.253549</v>
       </c>
       <c r="C63" t="n">
-        <v>0.243038</v>
+        <v>0.242371</v>
       </c>
       <c r="D63" t="n">
-        <v>0.257847</v>
+        <v>0.254951</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.244333</v>
+        <v>0.24439</v>
       </c>
       <c r="C64" t="n">
-        <v>0.249335</v>
+        <v>0.238487</v>
       </c>
       <c r="D64" t="n">
-        <v>0.253106</v>
+        <v>0.256942</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.240207</v>
+        <v>0.240071</v>
       </c>
       <c r="C65" t="n">
-        <v>0.241123</v>
+        <v>0.243269</v>
       </c>
       <c r="D65" t="n">
-        <v>0.254012</v>
+        <v>0.25158</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.225502</v>
+        <v>0.228602</v>
       </c>
       <c r="C66" t="n">
-        <v>0.239949</v>
+        <v>0.239004</v>
       </c>
       <c r="D66" t="n">
-        <v>0.280916</v>
+        <v>0.27877</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.330973</v>
+        <v>0.328955</v>
       </c>
       <c r="C67" t="n">
-        <v>0.266463</v>
+        <v>0.270964</v>
       </c>
       <c r="D67" t="n">
-        <v>0.273583</v>
+        <v>0.283392</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.320504</v>
+        <v>0.324762</v>
       </c>
       <c r="C68" t="n">
-        <v>0.266454</v>
+        <v>0.266271</v>
       </c>
       <c r="D68" t="n">
-        <v>0.28059</v>
+        <v>0.276292</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.315311</v>
+        <v>0.31431</v>
       </c>
       <c r="C69" t="n">
-        <v>0.261061</v>
+        <v>0.267998</v>
       </c>
       <c r="D69" t="n">
-        <v>0.274193</v>
+        <v>0.275329</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.308292</v>
+        <v>0.310576</v>
       </c>
       <c r="C70" t="n">
-        <v>0.260071</v>
+        <v>0.268274</v>
       </c>
       <c r="D70" t="n">
-        <v>0.269957</v>
+        <v>0.274531</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.304422</v>
+        <v>0.303297</v>
       </c>
       <c r="C71" t="n">
-        <v>0.258231</v>
+        <v>0.260891</v>
       </c>
       <c r="D71" t="n">
-        <v>0.266189</v>
+        <v>0.271872</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.298004</v>
+        <v>0.29781</v>
       </c>
       <c r="C72" t="n">
-        <v>0.256064</v>
+        <v>0.259461</v>
       </c>
       <c r="D72" t="n">
-        <v>0.266621</v>
+        <v>0.267457</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.290694</v>
+        <v>0.292477</v>
       </c>
       <c r="C73" t="n">
-        <v>0.253574</v>
+        <v>0.258344</v>
       </c>
       <c r="D73" t="n">
-        <v>0.265729</v>
+        <v>0.264015</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.282211</v>
+        <v>0.286263</v>
       </c>
       <c r="C74" t="n">
-        <v>0.251577</v>
+        <v>0.258475</v>
       </c>
       <c r="D74" t="n">
-        <v>0.263798</v>
+        <v>0.263313</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.277434</v>
+        <v>0.276412</v>
       </c>
       <c r="C75" t="n">
-        <v>0.251908</v>
+        <v>0.254053</v>
       </c>
       <c r="D75" t="n">
-        <v>0.262754</v>
+        <v>0.264836</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.267127</v>
+        <v>0.267498</v>
       </c>
       <c r="C76" t="n">
-        <v>0.247384</v>
+        <v>0.25369</v>
       </c>
       <c r="D76" t="n">
-        <v>0.262484</v>
+        <v>0.258828</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.265187</v>
+        <v>0.260126</v>
       </c>
       <c r="C77" t="n">
-        <v>0.250469</v>
+        <v>0.251254</v>
       </c>
       <c r="D77" t="n">
-        <v>0.256802</v>
+        <v>0.25785</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.251979</v>
+        <v>0.253139</v>
       </c>
       <c r="C78" t="n">
-        <v>0.245199</v>
+        <v>0.245153</v>
       </c>
       <c r="D78" t="n">
-        <v>0.258676</v>
+        <v>0.257022</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.245297</v>
+        <v>0.245271</v>
       </c>
       <c r="C79" t="n">
-        <v>0.24763</v>
+        <v>0.246111</v>
       </c>
       <c r="D79" t="n">
-        <v>0.259155</v>
+        <v>0.257307</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.234506</v>
+        <v>0.236331</v>
       </c>
       <c r="C80" t="n">
-        <v>0.245481</v>
+        <v>0.242218</v>
       </c>
       <c r="D80" t="n">
-        <v>0.284753</v>
+        <v>0.284956</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.335753</v>
+        <v>0.337356</v>
       </c>
       <c r="C81" t="n">
-        <v>0.274845</v>
+        <v>0.273977</v>
       </c>
       <c r="D81" t="n">
-        <v>0.280294</v>
+        <v>0.283123</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.327487</v>
+        <v>0.329169</v>
       </c>
       <c r="C82" t="n">
-        <v>0.276504</v>
+        <v>0.274995</v>
       </c>
       <c r="D82" t="n">
-        <v>0.280989</v>
+        <v>0.281235</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.320527</v>
+        <v>0.320795</v>
       </c>
       <c r="C83" t="n">
-        <v>0.273773</v>
+        <v>0.27126</v>
       </c>
       <c r="D83" t="n">
-        <v>0.27679</v>
+        <v>0.277007</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.316762</v>
+        <v>0.314726</v>
       </c>
       <c r="C84" t="n">
-        <v>0.265918</v>
+        <v>0.267347</v>
       </c>
       <c r="D84" t="n">
-        <v>0.273422</v>
+        <v>0.276159</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.307521</v>
+        <v>0.314981</v>
       </c>
       <c r="C85" t="n">
-        <v>0.263272</v>
+        <v>0.265211</v>
       </c>
       <c r="D85" t="n">
-        <v>0.270142</v>
+        <v>0.273724</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.298172</v>
+        <v>0.302956</v>
       </c>
       <c r="C86" t="n">
-        <v>0.259969</v>
+        <v>0.266188</v>
       </c>
       <c r="D86" t="n">
-        <v>0.275106</v>
+        <v>0.270605</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.2951</v>
+        <v>0.296503</v>
       </c>
       <c r="C87" t="n">
-        <v>0.258257</v>
+        <v>0.261823</v>
       </c>
       <c r="D87" t="n">
-        <v>0.268157</v>
+        <v>0.267855</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.289249</v>
+        <v>0.285242</v>
       </c>
       <c r="C88" t="n">
-        <v>0.259213</v>
+        <v>0.262907</v>
       </c>
       <c r="D88" t="n">
-        <v>0.268247</v>
+        <v>0.270154</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.282494</v>
+        <v>0.27897</v>
       </c>
       <c r="C89" t="n">
-        <v>0.253906</v>
+        <v>0.252809</v>
       </c>
       <c r="D89" t="n">
-        <v>0.267465</v>
+        <v>0.265251</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.273194</v>
+        <v>0.268933</v>
       </c>
       <c r="C90" t="n">
-        <v>0.256644</v>
+        <v>0.256355</v>
       </c>
       <c r="D90" t="n">
-        <v>0.26704</v>
+        <v>0.265479</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.262297</v>
+        <v>0.269731</v>
       </c>
       <c r="C91" t="n">
-        <v>0.250177</v>
+        <v>0.254265</v>
       </c>
       <c r="D91" t="n">
-        <v>0.263994</v>
+        <v>0.263783</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.255416</v>
+        <v>0.252871</v>
       </c>
       <c r="C92" t="n">
-        <v>0.250068</v>
+        <v>0.250938</v>
       </c>
       <c r="D92" t="n">
-        <v>0.264779</v>
+        <v>0.260342</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.252591</v>
+        <v>0.24688</v>
       </c>
       <c r="C93" t="n">
-        <v>0.249477</v>
+        <v>0.249214</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2585</v>
+        <v>0.260791</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.239734</v>
+        <v>0.240351</v>
       </c>
       <c r="C94" t="n">
-        <v>0.249722</v>
+        <v>0.246436</v>
       </c>
       <c r="D94" t="n">
-        <v>0.287995</v>
+        <v>0.287009</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.338745</v>
+        <v>0.336203</v>
       </c>
       <c r="C95" t="n">
-        <v>0.274106</v>
+        <v>0.279522</v>
       </c>
       <c r="D95" t="n">
-        <v>0.285095</v>
+        <v>0.285656</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.328926</v>
+        <v>0.328832</v>
       </c>
       <c r="C96" t="n">
-        <v>0.274531</v>
+        <v>0.271606</v>
       </c>
       <c r="D96" t="n">
-        <v>0.282489</v>
+        <v>0.287175</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.326901</v>
+        <v>0.324124</v>
       </c>
       <c r="C97" t="n">
-        <v>0.274372</v>
+        <v>0.269688</v>
       </c>
       <c r="D97" t="n">
-        <v>0.280315</v>
+        <v>0.278678</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.32253</v>
+        <v>0.314672</v>
       </c>
       <c r="C98" t="n">
-        <v>0.268714</v>
+        <v>0.270485</v>
       </c>
       <c r="D98" t="n">
-        <v>0.27412</v>
+        <v>0.274629</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.312479</v>
+        <v>0.309122</v>
       </c>
       <c r="C99" t="n">
-        <v>0.269527</v>
+        <v>0.268839</v>
       </c>
       <c r="D99" t="n">
-        <v>0.274199</v>
+        <v>0.278479</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.305745</v>
+        <v>0.309994</v>
       </c>
       <c r="C100" t="n">
-        <v>0.26552</v>
+        <v>0.26597</v>
       </c>
       <c r="D100" t="n">
-        <v>0.278599</v>
+        <v>0.273957</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.296932</v>
+        <v>0.29525</v>
       </c>
       <c r="C101" t="n">
-        <v>0.258147</v>
+        <v>0.262241</v>
       </c>
       <c r="D101" t="n">
-        <v>0.270143</v>
+        <v>0.268759</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.287843</v>
+        <v>0.286941</v>
       </c>
       <c r="C102" t="n">
-        <v>0.261559</v>
+        <v>0.261667</v>
       </c>
       <c r="D102" t="n">
-        <v>0.269489</v>
+        <v>0.268666</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.281386</v>
+        <v>0.279395</v>
       </c>
       <c r="C103" t="n">
-        <v>0.258989</v>
+        <v>0.254443</v>
       </c>
       <c r="D103" t="n">
-        <v>0.266712</v>
+        <v>0.269882</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.276255</v>
+        <v>0.273703</v>
       </c>
       <c r="C104" t="n">
-        <v>0.255435</v>
+        <v>0.252365</v>
       </c>
       <c r="D104" t="n">
-        <v>0.264806</v>
+        <v>0.265867</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268833</v>
+        <v>0.26818</v>
       </c>
       <c r="C105" t="n">
-        <v>0.24929</v>
+        <v>0.255723</v>
       </c>
       <c r="D105" t="n">
-        <v>0.264091</v>
+        <v>0.267159</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.256876</v>
+        <v>0.262937</v>
       </c>
       <c r="C106" t="n">
-        <v>0.252064</v>
+        <v>0.249906</v>
       </c>
       <c r="D106" t="n">
-        <v>0.260097</v>
+        <v>0.258707</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.252305</v>
+        <v>0.249967</v>
       </c>
       <c r="C107" t="n">
-        <v>0.24881</v>
+        <v>0.247429</v>
       </c>
       <c r="D107" t="n">
-        <v>0.258756</v>
+        <v>0.260127</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.239308</v>
+        <v>0.243453</v>
       </c>
       <c r="C108" t="n">
-        <v>0.248293</v>
+        <v>0.246189</v>
       </c>
       <c r="D108" t="n">
-        <v>0.288239</v>
+        <v>0.28702</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.232244</v>
+        <v>0.231624</v>
       </c>
       <c r="C109" t="n">
-        <v>0.245986</v>
+        <v>0.245724</v>
       </c>
       <c r="D109" t="n">
-        <v>0.286142</v>
+        <v>0.285735</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.329409</v>
+        <v>0.329855</v>
       </c>
       <c r="C110" t="n">
-        <v>0.273227</v>
+        <v>0.275862</v>
       </c>
       <c r="D110" t="n">
-        <v>0.286469</v>
+        <v>0.284783</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.32234</v>
+        <v>0.322565</v>
       </c>
       <c r="C111" t="n">
-        <v>0.277174</v>
+        <v>0.269435</v>
       </c>
       <c r="D111" t="n">
-        <v>0.28611</v>
+        <v>0.278172</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.32221</v>
+        <v>0.321012</v>
       </c>
       <c r="C112" t="n">
-        <v>0.273581</v>
+        <v>0.269586</v>
       </c>
       <c r="D112" t="n">
-        <v>0.280734</v>
+        <v>0.276501</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.313176</v>
+        <v>0.311187</v>
       </c>
       <c r="C113" t="n">
-        <v>0.267979</v>
+        <v>0.270477</v>
       </c>
       <c r="D113" t="n">
-        <v>0.279763</v>
+        <v>0.275335</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.307062</v>
+        <v>0.31051</v>
       </c>
       <c r="C114" t="n">
-        <v>0.26601</v>
+        <v>0.264366</v>
       </c>
       <c r="D114" t="n">
-        <v>0.276231</v>
+        <v>0.280195</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.29801</v>
+        <v>0.295015</v>
       </c>
       <c r="C115" t="n">
-        <v>0.267421</v>
+        <v>0.262135</v>
       </c>
       <c r="D115" t="n">
-        <v>0.271416</v>
+        <v>0.269817</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.293237</v>
+        <v>0.294803</v>
       </c>
       <c r="C116" t="n">
-        <v>0.258698</v>
+        <v>0.258328</v>
       </c>
       <c r="D116" t="n">
-        <v>0.269915</v>
+        <v>0.269223</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.284879</v>
+        <v>0.287335</v>
       </c>
       <c r="C117" t="n">
-        <v>0.259467</v>
+        <v>0.257007</v>
       </c>
       <c r="D117" t="n">
-        <v>0.268993</v>
+        <v>0.267491</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.280348</v>
+        <v>0.280231</v>
       </c>
       <c r="C118" t="n">
-        <v>0.254247</v>
+        <v>0.254098</v>
       </c>
       <c r="D118" t="n">
-        <v>0.268027</v>
+        <v>0.266359</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271467</v>
+        <v>0.272511</v>
       </c>
       <c r="C119" t="n">
-        <v>0.256311</v>
+        <v>0.253943</v>
       </c>
       <c r="D119" t="n">
-        <v>0.274323</v>
+        <v>0.266798</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.26163</v>
+        <v>0.263688</v>
       </c>
       <c r="C120" t="n">
-        <v>0.256215</v>
+        <v>0.251904</v>
       </c>
       <c r="D120" t="n">
-        <v>0.266433</v>
+        <v>0.260388</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.253832</v>
+        <v>0.250987</v>
       </c>
       <c r="C121" t="n">
-        <v>0.249183</v>
+        <v>0.247213</v>
       </c>
       <c r="D121" t="n">
-        <v>0.260087</v>
+        <v>0.259763</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.244977</v>
+        <v>0.241884</v>
       </c>
       <c r="C122" t="n">
-        <v>0.246413</v>
+        <v>0.251134</v>
       </c>
       <c r="D122" t="n">
-        <v>0.256443</v>
+        <v>0.261627</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.235019</v>
+        <v>0.235137</v>
       </c>
       <c r="C123" t="n">
-        <v>0.245986</v>
+        <v>0.246266</v>
       </c>
       <c r="D123" t="n">
-        <v>0.282808</v>
+        <v>0.284881</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.331916</v>
+        <v>0.336474</v>
       </c>
       <c r="C124" t="n">
-        <v>0.276734</v>
+        <v>0.27633</v>
       </c>
       <c r="D124" t="n">
-        <v>0.282977</v>
+        <v>0.282352</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.323449</v>
+        <v>0.3415</v>
       </c>
       <c r="C125" t="n">
-        <v>0.271503</v>
+        <v>0.269875</v>
       </c>
       <c r="D125" t="n">
-        <v>0.283898</v>
+        <v>0.280811</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.320192</v>
+        <v>0.3222</v>
       </c>
       <c r="C126" t="n">
-        <v>0.272262</v>
+        <v>0.272465</v>
       </c>
       <c r="D126" t="n">
-        <v>0.274513</v>
+        <v>0.286042</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.310063</v>
+        <v>0.315329</v>
       </c>
       <c r="C127" t="n">
-        <v>0.267436</v>
+        <v>0.270385</v>
       </c>
       <c r="D127" t="n">
-        <v>0.274127</v>
+        <v>0.275617</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.304686</v>
+        <v>0.306957</v>
       </c>
       <c r="C128" t="n">
-        <v>0.265966</v>
+        <v>0.263829</v>
       </c>
       <c r="D128" t="n">
-        <v>0.277711</v>
+        <v>0.277304</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.299159</v>
+        <v>0.296635</v>
       </c>
       <c r="C129" t="n">
-        <v>0.260981</v>
+        <v>0.264829</v>
       </c>
       <c r="D129" t="n">
-        <v>0.271317</v>
+        <v>0.275392</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.29694</v>
+        <v>0.294205</v>
       </c>
       <c r="C130" t="n">
-        <v>0.262828</v>
+        <v>0.257862</v>
       </c>
       <c r="D130" t="n">
-        <v>0.270028</v>
+        <v>0.271012</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.284932</v>
+        <v>0.287568</v>
       </c>
       <c r="C131" t="n">
-        <v>0.259092</v>
+        <v>0.259969</v>
       </c>
       <c r="D131" t="n">
-        <v>0.266626</v>
+        <v>0.268252</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278415</v>
+        <v>0.280438</v>
       </c>
       <c r="C132" t="n">
-        <v>0.260738</v>
+        <v>0.258508</v>
       </c>
       <c r="D132" t="n">
-        <v>0.266942</v>
+        <v>0.264808</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.272551</v>
+        <v>0.275049</v>
       </c>
       <c r="C133" t="n">
-        <v>0.25592</v>
+        <v>0.258782</v>
       </c>
       <c r="D133" t="n">
-        <v>0.260821</v>
+        <v>0.263871</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.270414</v>
+        <v>0.262962</v>
       </c>
       <c r="C134" t="n">
-        <v>0.254169</v>
+        <v>0.256396</v>
       </c>
       <c r="D134" t="n">
-        <v>0.264246</v>
+        <v>0.260374</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.251789</v>
+        <v>0.256164</v>
       </c>
       <c r="C135" t="n">
-        <v>0.255905</v>
+        <v>0.25552</v>
       </c>
       <c r="D135" t="n">
-        <v>0.263356</v>
+        <v>0.262606</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.248574</v>
+        <v>0.247255</v>
       </c>
       <c r="C136" t="n">
-        <v>0.253227</v>
+        <v>0.247062</v>
       </c>
       <c r="D136" t="n">
-        <v>0.262672</v>
+        <v>0.264024</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.237764</v>
+        <v>0.236046</v>
       </c>
       <c r="C137" t="n">
-        <v>0.246104</v>
+        <v>0.251066</v>
       </c>
       <c r="D137" t="n">
-        <v>0.29655</v>
+        <v>0.288544</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.328871</v>
+        <v>0.334652</v>
       </c>
       <c r="C138" t="n">
-        <v>0.278278</v>
+        <v>0.278605</v>
       </c>
       <c r="D138" t="n">
-        <v>0.291214</v>
+        <v>0.290856</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.334626</v>
+        <v>0.325594</v>
       </c>
       <c r="C139" t="n">
-        <v>0.274997</v>
+        <v>0.273038</v>
       </c>
       <c r="D139" t="n">
-        <v>0.277018</v>
+        <v>0.279971</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.323003</v>
+        <v>0.322398</v>
       </c>
       <c r="C140" t="n">
-        <v>0.273793</v>
+        <v>0.273763</v>
       </c>
       <c r="D140" t="n">
-        <v>0.285191</v>
+        <v>0.278905</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.317893</v>
+        <v>0.311882</v>
       </c>
       <c r="C141" t="n">
-        <v>0.272384</v>
+        <v>0.265156</v>
       </c>
       <c r="D141" t="n">
-        <v>0.277608</v>
+        <v>0.280116</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.309885</v>
+        <v>0.311925</v>
       </c>
       <c r="C142" t="n">
-        <v>0.262411</v>
+        <v>0.271115</v>
       </c>
       <c r="D142" t="n">
-        <v>0.271719</v>
+        <v>0.273526</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.29892</v>
+        <v>0.305513</v>
       </c>
       <c r="C143" t="n">
-        <v>0.261759</v>
+        <v>0.264399</v>
       </c>
       <c r="D143" t="n">
-        <v>0.27234</v>
+        <v>0.274815</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.268849</v>
+        <v>0.271352</v>
       </c>
       <c r="C2" t="n">
-        <v>0.23707</v>
+        <v>0.234375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.245706</v>
+        <v>0.246343</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.266898</v>
+        <v>0.267934</v>
       </c>
       <c r="C3" t="n">
-        <v>0.234821</v>
+        <v>0.245221</v>
       </c>
       <c r="D3" t="n">
-        <v>0.247925</v>
+        <v>0.250237</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.260407</v>
+        <v>0.261239</v>
       </c>
       <c r="C4" t="n">
-        <v>0.232484</v>
+        <v>0.243747</v>
       </c>
       <c r="D4" t="n">
-        <v>0.247248</v>
+        <v>0.247913</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.249924</v>
+        <v>0.255198</v>
       </c>
       <c r="C5" t="n">
-        <v>0.235204</v>
+        <v>0.237083</v>
       </c>
       <c r="D5" t="n">
-        <v>0.241834</v>
+        <v>0.24579</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.243236</v>
+        <v>0.249861</v>
       </c>
       <c r="C6" t="n">
-        <v>0.233318</v>
+        <v>0.235135</v>
       </c>
       <c r="D6" t="n">
-        <v>0.245195</v>
+        <v>0.245659</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.234828</v>
+        <v>0.235987</v>
       </c>
       <c r="C7" t="n">
-        <v>0.236277</v>
+        <v>0.231065</v>
       </c>
       <c r="D7" t="n">
-        <v>0.244838</v>
+        <v>0.242371</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.229153</v>
+        <v>0.229213</v>
       </c>
       <c r="C8" t="n">
-        <v>0.23227</v>
+        <v>0.23273</v>
       </c>
       <c r="D8" t="n">
-        <v>0.241312</v>
+        <v>0.245183</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.216689</v>
+        <v>0.220346</v>
       </c>
       <c r="C9" t="n">
-        <v>0.229296</v>
+        <v>0.231314</v>
       </c>
       <c r="D9" t="n">
-        <v>0.249717</v>
+        <v>0.255683</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.310947</v>
+        <v>0.308318</v>
       </c>
       <c r="C10" t="n">
-        <v>0.246597</v>
+        <v>0.24711</v>
       </c>
       <c r="D10" t="n">
-        <v>0.251817</v>
+        <v>0.251125</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.305326</v>
+        <v>0.305157</v>
       </c>
       <c r="C11" t="n">
-        <v>0.243994</v>
+        <v>0.24431</v>
       </c>
       <c r="D11" t="n">
-        <v>0.254591</v>
+        <v>0.251394</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.296624</v>
+        <v>0.297052</v>
       </c>
       <c r="C12" t="n">
-        <v>0.243496</v>
+        <v>0.244499</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24949</v>
+        <v>0.249585</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.297566</v>
+        <v>0.292841</v>
       </c>
       <c r="C13" t="n">
-        <v>0.244384</v>
+        <v>0.242491</v>
       </c>
       <c r="D13" t="n">
-        <v>0.252165</v>
+        <v>0.249076</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.288344</v>
+        <v>0.286362</v>
       </c>
       <c r="C14" t="n">
-        <v>0.245882</v>
+        <v>0.239125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.247556</v>
+        <v>0.251912</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.281382</v>
+        <v>0.281422</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238235</v>
+        <v>0.237999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.250472</v>
+        <v>0.24844</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.280111</v>
+        <v>0.275809</v>
       </c>
       <c r="C16" t="n">
-        <v>0.237828</v>
+        <v>0.238353</v>
       </c>
       <c r="D16" t="n">
-        <v>0.247995</v>
+        <v>0.250149</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.269068</v>
+        <v>0.271882</v>
       </c>
       <c r="C17" t="n">
-        <v>0.239809</v>
+        <v>0.237649</v>
       </c>
       <c r="D17" t="n">
-        <v>0.250393</v>
+        <v>0.24782</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.265579</v>
+        <v>0.260278</v>
       </c>
       <c r="C18" t="n">
-        <v>0.235388</v>
+        <v>0.235472</v>
       </c>
       <c r="D18" t="n">
-        <v>0.245809</v>
+        <v>0.251094</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.255928</v>
+        <v>0.255246</v>
       </c>
       <c r="C19" t="n">
-        <v>0.234202</v>
+        <v>0.234588</v>
       </c>
       <c r="D19" t="n">
-        <v>0.24491</v>
+        <v>0.247477</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.249472</v>
+        <v>0.249786</v>
       </c>
       <c r="C20" t="n">
-        <v>0.237672</v>
+        <v>0.233491</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242992</v>
+        <v>0.249908</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.248043</v>
+        <v>0.240982</v>
       </c>
       <c r="C21" t="n">
-        <v>0.232579</v>
+        <v>0.23189</v>
       </c>
       <c r="D21" t="n">
-        <v>0.243894</v>
+        <v>0.245071</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.232724</v>
+        <v>0.236135</v>
       </c>
       <c r="C22" t="n">
-        <v>0.233958</v>
+        <v>0.233706</v>
       </c>
       <c r="D22" t="n">
-        <v>0.24194</v>
+        <v>0.242155</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.225772</v>
+        <v>0.224607</v>
       </c>
       <c r="C23" t="n">
-        <v>0.230558</v>
+        <v>0.231107</v>
       </c>
       <c r="D23" t="n">
-        <v>0.263057</v>
+        <v>0.261713</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.308807</v>
+        <v>0.307725</v>
       </c>
       <c r="C24" t="n">
-        <v>0.251651</v>
+        <v>0.249835</v>
       </c>
       <c r="D24" t="n">
-        <v>0.259745</v>
+        <v>0.259408</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.304536</v>
+        <v>0.307047</v>
       </c>
       <c r="C25" t="n">
-        <v>0.250019</v>
+        <v>0.249834</v>
       </c>
       <c r="D25" t="n">
-        <v>0.263119</v>
+        <v>0.257245</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.303449</v>
+        <v>0.296223</v>
       </c>
       <c r="C26" t="n">
-        <v>0.248384</v>
+        <v>0.245721</v>
       </c>
       <c r="D26" t="n">
-        <v>0.258203</v>
+        <v>0.258102</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.298193</v>
+        <v>0.295356</v>
       </c>
       <c r="C27" t="n">
-        <v>0.248617</v>
+        <v>0.247805</v>
       </c>
       <c r="D27" t="n">
-        <v>0.254176</v>
+        <v>0.257067</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.287085</v>
+        <v>0.288122</v>
       </c>
       <c r="C28" t="n">
-        <v>0.24521</v>
+        <v>0.252685</v>
       </c>
       <c r="D28" t="n">
-        <v>0.254286</v>
+        <v>0.258277</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.285467</v>
+        <v>0.286019</v>
       </c>
       <c r="C29" t="n">
-        <v>0.244795</v>
+        <v>0.241311</v>
       </c>
       <c r="D29" t="n">
-        <v>0.251882</v>
+        <v>0.252919</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.276899</v>
+        <v>0.276486</v>
       </c>
       <c r="C30" t="n">
-        <v>0.242806</v>
+        <v>0.242752</v>
       </c>
       <c r="D30" t="n">
-        <v>0.254198</v>
+        <v>0.254459</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.271475</v>
+        <v>0.269002</v>
       </c>
       <c r="C31" t="n">
-        <v>0.240435</v>
+        <v>0.240918</v>
       </c>
       <c r="D31" t="n">
-        <v>0.250011</v>
+        <v>0.249866</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.261489</v>
+        <v>0.264083</v>
       </c>
       <c r="C32" t="n">
-        <v>0.235473</v>
+        <v>0.242894</v>
       </c>
       <c r="D32" t="n">
-        <v>0.252257</v>
+        <v>0.250764</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.258928</v>
+        <v>0.258942</v>
       </c>
       <c r="C33" t="n">
-        <v>0.237296</v>
+        <v>0.237118</v>
       </c>
       <c r="D33" t="n">
-        <v>0.245886</v>
+        <v>0.254582</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.254207</v>
+        <v>0.246749</v>
       </c>
       <c r="C34" t="n">
-        <v>0.243747</v>
+        <v>0.233943</v>
       </c>
       <c r="D34" t="n">
-        <v>0.249044</v>
+        <v>0.248071</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.244712</v>
+        <v>0.244029</v>
       </c>
       <c r="C35" t="n">
-        <v>0.232985</v>
+        <v>0.234317</v>
       </c>
       <c r="D35" t="n">
-        <v>0.248929</v>
+        <v>0.248786</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.233699</v>
+        <v>0.237262</v>
       </c>
       <c r="C36" t="n">
-        <v>0.236055</v>
+        <v>0.233065</v>
       </c>
       <c r="D36" t="n">
-        <v>0.246711</v>
+        <v>0.246575</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.224067</v>
+        <v>0.227685</v>
       </c>
       <c r="C37" t="n">
-        <v>0.234546</v>
+        <v>0.229865</v>
       </c>
       <c r="D37" t="n">
-        <v>0.268145</v>
+        <v>0.263143</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.312119</v>
+        <v>0.308052</v>
       </c>
       <c r="C38" t="n">
-        <v>0.252015</v>
+        <v>0.25327</v>
       </c>
       <c r="D38" t="n">
-        <v>0.267442</v>
+        <v>0.271064</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.308486</v>
+        <v>0.311235</v>
       </c>
       <c r="C39" t="n">
-        <v>0.255377</v>
+        <v>0.252376</v>
       </c>
       <c r="D39" t="n">
-        <v>0.265112</v>
+        <v>0.261156</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.303868</v>
+        <v>0.302338</v>
       </c>
       <c r="C40" t="n">
-        <v>0.252347</v>
+        <v>0.251801</v>
       </c>
       <c r="D40" t="n">
-        <v>0.267709</v>
+        <v>0.260973</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.301486</v>
+        <v>0.298284</v>
       </c>
       <c r="C41" t="n">
-        <v>0.247981</v>
+        <v>0.246664</v>
       </c>
       <c r="D41" t="n">
-        <v>0.26054</v>
+        <v>0.258921</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.294225</v>
+        <v>0.288649</v>
       </c>
       <c r="C42" t="n">
-        <v>0.247583</v>
+        <v>0.249044</v>
       </c>
       <c r="D42" t="n">
-        <v>0.257405</v>
+        <v>0.26245</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.285647</v>
+        <v>0.285214</v>
       </c>
       <c r="C43" t="n">
-        <v>0.247674</v>
+        <v>0.246788</v>
       </c>
       <c r="D43" t="n">
-        <v>0.257482</v>
+        <v>0.258046</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.283586</v>
+        <v>0.276997</v>
       </c>
       <c r="C44" t="n">
-        <v>0.244874</v>
+        <v>0.245399</v>
       </c>
       <c r="D44" t="n">
-        <v>0.257616</v>
+        <v>0.256132</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.274127</v>
+        <v>0.273737</v>
       </c>
       <c r="C45" t="n">
-        <v>0.243951</v>
+        <v>0.244998</v>
       </c>
       <c r="D45" t="n">
-        <v>0.255421</v>
+        <v>0.255214</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.265671</v>
+        <v>0.266874</v>
       </c>
       <c r="C46" t="n">
-        <v>0.243719</v>
+        <v>0.245506</v>
       </c>
       <c r="D46" t="n">
-        <v>0.259228</v>
+        <v>0.252222</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.264252</v>
+        <v>0.262412</v>
       </c>
       <c r="C47" t="n">
-        <v>0.242819</v>
+        <v>0.23981</v>
       </c>
       <c r="D47" t="n">
-        <v>0.254525</v>
+        <v>0.25251</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.256081</v>
+        <v>0.252903</v>
       </c>
       <c r="C48" t="n">
-        <v>0.238372</v>
+        <v>0.239149</v>
       </c>
       <c r="D48" t="n">
-        <v>0.255531</v>
+        <v>0.252948</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.245639</v>
+        <v>0.244852</v>
       </c>
       <c r="C49" t="n">
-        <v>0.240442</v>
+        <v>0.23877</v>
       </c>
       <c r="D49" t="n">
-        <v>0.251849</v>
+        <v>0.252895</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.243803</v>
+        <v>0.241719</v>
       </c>
       <c r="C50" t="n">
-        <v>0.240133</v>
+        <v>0.235685</v>
       </c>
       <c r="D50" t="n">
-        <v>0.250213</v>
+        <v>0.249336</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.232918</v>
+        <v>0.229591</v>
       </c>
       <c r="C51" t="n">
-        <v>0.240627</v>
+        <v>0.237792</v>
       </c>
       <c r="D51" t="n">
-        <v>0.273557</v>
+        <v>0.272475</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.22257</v>
+        <v>0.22146</v>
       </c>
       <c r="C52" t="n">
-        <v>0.235269</v>
+        <v>0.238359</v>
       </c>
       <c r="D52" t="n">
-        <v>0.268757</v>
+        <v>0.271638</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.312942</v>
+        <v>0.310633</v>
       </c>
       <c r="C53" t="n">
-        <v>0.258859</v>
+        <v>0.262619</v>
       </c>
       <c r="D53" t="n">
-        <v>0.266338</v>
+        <v>0.271555</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.310749</v>
+        <v>0.308279</v>
       </c>
       <c r="C54" t="n">
-        <v>0.258305</v>
+        <v>0.258345</v>
       </c>
       <c r="D54" t="n">
-        <v>0.27241</v>
+        <v>0.268933</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.302424</v>
+        <v>0.304946</v>
       </c>
       <c r="C55" t="n">
-        <v>0.25651</v>
+        <v>0.25614</v>
       </c>
       <c r="D55" t="n">
-        <v>0.264638</v>
+        <v>0.266677</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.299886</v>
+        <v>0.29662</v>
       </c>
       <c r="C56" t="n">
-        <v>0.254058</v>
+        <v>0.255416</v>
       </c>
       <c r="D56" t="n">
-        <v>0.263375</v>
+        <v>0.265762</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.294167</v>
+        <v>0.294458</v>
       </c>
       <c r="C57" t="n">
-        <v>0.252137</v>
+        <v>0.255276</v>
       </c>
       <c r="D57" t="n">
-        <v>0.264106</v>
+        <v>0.265686</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.289665</v>
+        <v>0.288737</v>
       </c>
       <c r="C58" t="n">
-        <v>0.251133</v>
+        <v>0.252828</v>
       </c>
       <c r="D58" t="n">
-        <v>0.262906</v>
+        <v>0.25947</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.281018</v>
+        <v>0.27978</v>
       </c>
       <c r="C59" t="n">
-        <v>0.249767</v>
+        <v>0.249302</v>
       </c>
       <c r="D59" t="n">
-        <v>0.258186</v>
+        <v>0.262831</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.275487</v>
+        <v>0.27559</v>
       </c>
       <c r="C60" t="n">
-        <v>0.24874</v>
+        <v>0.24658</v>
       </c>
       <c r="D60" t="n">
-        <v>0.261825</v>
+        <v>0.260381</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.268401</v>
+        <v>0.263768</v>
       </c>
       <c r="C61" t="n">
-        <v>0.251737</v>
+        <v>0.249149</v>
       </c>
       <c r="D61" t="n">
-        <v>0.258998</v>
+        <v>0.257989</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.257227</v>
+        <v>0.257976</v>
       </c>
       <c r="C62" t="n">
-        <v>0.247677</v>
+        <v>0.247133</v>
       </c>
       <c r="D62" t="n">
-        <v>0.257255</v>
+        <v>0.254628</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.253549</v>
+        <v>0.256329</v>
       </c>
       <c r="C63" t="n">
-        <v>0.242371</v>
+        <v>0.242829</v>
       </c>
       <c r="D63" t="n">
-        <v>0.254951</v>
+        <v>0.256105</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.24439</v>
+        <v>0.245563</v>
       </c>
       <c r="C64" t="n">
-        <v>0.238487</v>
+        <v>0.242852</v>
       </c>
       <c r="D64" t="n">
-        <v>0.256942</v>
+        <v>0.252405</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.240071</v>
+        <v>0.23501</v>
       </c>
       <c r="C65" t="n">
-        <v>0.243269</v>
+        <v>0.242909</v>
       </c>
       <c r="D65" t="n">
-        <v>0.25158</v>
+        <v>0.252948</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.228602</v>
+        <v>0.230059</v>
       </c>
       <c r="C66" t="n">
-        <v>0.239004</v>
+        <v>0.239487</v>
       </c>
       <c r="D66" t="n">
-        <v>0.27877</v>
+        <v>0.277687</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.328955</v>
+        <v>0.334338</v>
       </c>
       <c r="C67" t="n">
-        <v>0.270964</v>
+        <v>0.269614</v>
       </c>
       <c r="D67" t="n">
-        <v>0.283392</v>
+        <v>0.2762</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.324762</v>
+        <v>0.318516</v>
       </c>
       <c r="C68" t="n">
-        <v>0.266271</v>
+        <v>0.26456</v>
       </c>
       <c r="D68" t="n">
-        <v>0.276292</v>
+        <v>0.275725</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.31431</v>
+        <v>0.312305</v>
       </c>
       <c r="C69" t="n">
-        <v>0.267998</v>
+        <v>0.260218</v>
       </c>
       <c r="D69" t="n">
-        <v>0.275329</v>
+        <v>0.278449</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.310576</v>
+        <v>0.305002</v>
       </c>
       <c r="C70" t="n">
-        <v>0.268274</v>
+        <v>0.263949</v>
       </c>
       <c r="D70" t="n">
-        <v>0.274531</v>
+        <v>0.271848</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.303297</v>
+        <v>0.308139</v>
       </c>
       <c r="C71" t="n">
-        <v>0.260891</v>
+        <v>0.256894</v>
       </c>
       <c r="D71" t="n">
-        <v>0.271872</v>
+        <v>0.272111</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.29781</v>
+        <v>0.293738</v>
       </c>
       <c r="C72" t="n">
-        <v>0.259461</v>
+        <v>0.261888</v>
       </c>
       <c r="D72" t="n">
-        <v>0.267457</v>
+        <v>0.272975</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.292477</v>
+        <v>0.288591</v>
       </c>
       <c r="C73" t="n">
-        <v>0.258344</v>
+        <v>0.255554</v>
       </c>
       <c r="D73" t="n">
-        <v>0.264015</v>
+        <v>0.266416</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.286263</v>
+        <v>0.282779</v>
       </c>
       <c r="C74" t="n">
-        <v>0.258475</v>
+        <v>0.258482</v>
       </c>
       <c r="D74" t="n">
-        <v>0.263313</v>
+        <v>0.264146</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.276412</v>
+        <v>0.276378</v>
       </c>
       <c r="C75" t="n">
-        <v>0.254053</v>
+        <v>0.250668</v>
       </c>
       <c r="D75" t="n">
-        <v>0.264836</v>
+        <v>0.258066</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.267498</v>
+        <v>0.266688</v>
       </c>
       <c r="C76" t="n">
-        <v>0.25369</v>
+        <v>0.251296</v>
       </c>
       <c r="D76" t="n">
-        <v>0.258828</v>
+        <v>0.261957</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.260126</v>
+        <v>0.260671</v>
       </c>
       <c r="C77" t="n">
-        <v>0.251254</v>
+        <v>0.248668</v>
       </c>
       <c r="D77" t="n">
-        <v>0.25785</v>
+        <v>0.263835</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.253139</v>
+        <v>0.250407</v>
       </c>
       <c r="C78" t="n">
-        <v>0.245153</v>
+        <v>0.243652</v>
       </c>
       <c r="D78" t="n">
-        <v>0.257022</v>
+        <v>0.262649</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.245271</v>
+        <v>0.245679</v>
       </c>
       <c r="C79" t="n">
-        <v>0.246111</v>
+        <v>0.244056</v>
       </c>
       <c r="D79" t="n">
-        <v>0.257307</v>
+        <v>0.256624</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.236331</v>
+        <v>0.234474</v>
       </c>
       <c r="C80" t="n">
-        <v>0.242218</v>
+        <v>0.241629</v>
       </c>
       <c r="D80" t="n">
-        <v>0.284956</v>
+        <v>0.286193</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.337356</v>
+        <v>0.338073</v>
       </c>
       <c r="C81" t="n">
-        <v>0.273977</v>
+        <v>0.275187</v>
       </c>
       <c r="D81" t="n">
-        <v>0.283123</v>
+        <v>0.282462</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.329169</v>
+        <v>0.32709</v>
       </c>
       <c r="C82" t="n">
-        <v>0.274995</v>
+        <v>0.269914</v>
       </c>
       <c r="D82" t="n">
-        <v>0.281235</v>
+        <v>0.281898</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.320795</v>
+        <v>0.31811</v>
       </c>
       <c r="C83" t="n">
-        <v>0.27126</v>
+        <v>0.27139</v>
       </c>
       <c r="D83" t="n">
-        <v>0.277007</v>
+        <v>0.279998</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.314726</v>
+        <v>0.313001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.267347</v>
+        <v>0.268442</v>
       </c>
       <c r="D84" t="n">
-        <v>0.276159</v>
+        <v>0.276518</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.314981</v>
+        <v>0.30699</v>
       </c>
       <c r="C85" t="n">
-        <v>0.265211</v>
+        <v>0.266469</v>
       </c>
       <c r="D85" t="n">
-        <v>0.273724</v>
+        <v>0.273379</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.302956</v>
+        <v>0.301303</v>
       </c>
       <c r="C86" t="n">
-        <v>0.266188</v>
+        <v>0.264876</v>
       </c>
       <c r="D86" t="n">
-        <v>0.270605</v>
+        <v>0.279261</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.296503</v>
+        <v>0.301155</v>
       </c>
       <c r="C87" t="n">
-        <v>0.261823</v>
+        <v>0.263273</v>
       </c>
       <c r="D87" t="n">
-        <v>0.267855</v>
+        <v>0.269396</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.285242</v>
+        <v>0.289366</v>
       </c>
       <c r="C88" t="n">
-        <v>0.262907</v>
+        <v>0.258648</v>
       </c>
       <c r="D88" t="n">
-        <v>0.270154</v>
+        <v>0.268678</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.27897</v>
+        <v>0.280178</v>
       </c>
       <c r="C89" t="n">
-        <v>0.252809</v>
+        <v>0.25739</v>
       </c>
       <c r="D89" t="n">
-        <v>0.265251</v>
+        <v>0.267483</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.268933</v>
+        <v>0.284438</v>
       </c>
       <c r="C90" t="n">
-        <v>0.256355</v>
+        <v>0.257338</v>
       </c>
       <c r="D90" t="n">
-        <v>0.265479</v>
+        <v>0.264671</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269731</v>
+        <v>0.263809</v>
       </c>
       <c r="C91" t="n">
-        <v>0.254265</v>
+        <v>0.251628</v>
       </c>
       <c r="D91" t="n">
-        <v>0.263783</v>
+        <v>0.260654</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252871</v>
+        <v>0.256257</v>
       </c>
       <c r="C92" t="n">
-        <v>0.250938</v>
+        <v>0.249462</v>
       </c>
       <c r="D92" t="n">
-        <v>0.260342</v>
+        <v>0.257612</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.24688</v>
+        <v>0.249022</v>
       </c>
       <c r="C93" t="n">
-        <v>0.249214</v>
+        <v>0.248103</v>
       </c>
       <c r="D93" t="n">
-        <v>0.260791</v>
+        <v>0.262011</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.240351</v>
+        <v>0.241121</v>
       </c>
       <c r="C94" t="n">
-        <v>0.246436</v>
+        <v>0.248204</v>
       </c>
       <c r="D94" t="n">
-        <v>0.287009</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.336203</v>
+        <v>0.335596</v>
       </c>
       <c r="C95" t="n">
-        <v>0.279522</v>
+        <v>0.280065</v>
       </c>
       <c r="D95" t="n">
-        <v>0.285656</v>
+        <v>0.285724</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.328832</v>
+        <v>0.332543</v>
       </c>
       <c r="C96" t="n">
-        <v>0.271606</v>
+        <v>0.27332</v>
       </c>
       <c r="D96" t="n">
-        <v>0.287175</v>
+        <v>0.28463</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.324124</v>
+        <v>0.327559</v>
       </c>
       <c r="C97" t="n">
-        <v>0.269688</v>
+        <v>0.274145</v>
       </c>
       <c r="D97" t="n">
-        <v>0.278678</v>
+        <v>0.280158</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.314672</v>
+        <v>0.318895</v>
       </c>
       <c r="C98" t="n">
-        <v>0.270485</v>
+        <v>0.269106</v>
       </c>
       <c r="D98" t="n">
-        <v>0.274629</v>
+        <v>0.276331</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.309122</v>
+        <v>0.311595</v>
       </c>
       <c r="C99" t="n">
-        <v>0.268839</v>
+        <v>0.265213</v>
       </c>
       <c r="D99" t="n">
-        <v>0.278479</v>
+        <v>0.272909</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.309994</v>
+        <v>0.306991</v>
       </c>
       <c r="C100" t="n">
-        <v>0.26597</v>
+        <v>0.265966</v>
       </c>
       <c r="D100" t="n">
-        <v>0.273957</v>
+        <v>0.276913</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.29525</v>
+        <v>0.295768</v>
       </c>
       <c r="C101" t="n">
-        <v>0.262241</v>
+        <v>0.261635</v>
       </c>
       <c r="D101" t="n">
-        <v>0.268759</v>
+        <v>0.267591</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.286941</v>
+        <v>0.288972</v>
       </c>
       <c r="C102" t="n">
-        <v>0.261667</v>
+        <v>0.26077</v>
       </c>
       <c r="D102" t="n">
-        <v>0.268666</v>
+        <v>0.270363</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.279395</v>
+        <v>0.283992</v>
       </c>
       <c r="C103" t="n">
-        <v>0.254443</v>
+        <v>0.260676</v>
       </c>
       <c r="D103" t="n">
-        <v>0.269882</v>
+        <v>0.268338</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.273703</v>
+        <v>0.274268</v>
       </c>
       <c r="C104" t="n">
-        <v>0.252365</v>
+        <v>0.255705</v>
       </c>
       <c r="D104" t="n">
-        <v>0.265867</v>
+        <v>0.265575</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.26818</v>
+        <v>0.271463</v>
       </c>
       <c r="C105" t="n">
-        <v>0.255723</v>
+        <v>0.255785</v>
       </c>
       <c r="D105" t="n">
-        <v>0.267159</v>
+        <v>0.262181</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.262937</v>
+        <v>0.257773</v>
       </c>
       <c r="C106" t="n">
-        <v>0.249906</v>
+        <v>0.251412</v>
       </c>
       <c r="D106" t="n">
-        <v>0.258707</v>
+        <v>0.264259</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.249967</v>
+        <v>0.250637</v>
       </c>
       <c r="C107" t="n">
-        <v>0.247429</v>
+        <v>0.247218</v>
       </c>
       <c r="D107" t="n">
-        <v>0.260127</v>
+        <v>0.265185</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.243453</v>
+        <v>0.2435</v>
       </c>
       <c r="C108" t="n">
-        <v>0.246189</v>
+        <v>0.24722</v>
       </c>
       <c r="D108" t="n">
-        <v>0.28702</v>
+        <v>0.287637</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.231624</v>
+        <v>0.236167</v>
       </c>
       <c r="C109" t="n">
-        <v>0.245724</v>
+        <v>0.248014</v>
       </c>
       <c r="D109" t="n">
-        <v>0.285735</v>
+        <v>0.28366</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.329855</v>
+        <v>0.334502</v>
       </c>
       <c r="C110" t="n">
-        <v>0.275862</v>
+        <v>0.274139</v>
       </c>
       <c r="D110" t="n">
-        <v>0.284783</v>
+        <v>0.283242</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.322565</v>
+        <v>0.324539</v>
       </c>
       <c r="C111" t="n">
-        <v>0.269435</v>
+        <v>0.271974</v>
       </c>
       <c r="D111" t="n">
-        <v>0.278172</v>
+        <v>0.280605</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.321012</v>
+        <v>0.321485</v>
       </c>
       <c r="C112" t="n">
-        <v>0.269586</v>
+        <v>0.272164</v>
       </c>
       <c r="D112" t="n">
-        <v>0.276501</v>
+        <v>0.282936</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.311187</v>
+        <v>0.317244</v>
       </c>
       <c r="C113" t="n">
-        <v>0.270477</v>
+        <v>0.270398</v>
       </c>
       <c r="D113" t="n">
-        <v>0.275335</v>
+        <v>0.278364</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.31051</v>
+        <v>0.304895</v>
       </c>
       <c r="C114" t="n">
-        <v>0.264366</v>
+        <v>0.26606</v>
       </c>
       <c r="D114" t="n">
-        <v>0.280195</v>
+        <v>0.27426</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.295015</v>
+        <v>0.303299</v>
       </c>
       <c r="C115" t="n">
-        <v>0.262135</v>
+        <v>0.25977</v>
       </c>
       <c r="D115" t="n">
-        <v>0.269817</v>
+        <v>0.272656</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.294803</v>
+        <v>0.288918</v>
       </c>
       <c r="C116" t="n">
-        <v>0.258328</v>
+        <v>0.258737</v>
       </c>
       <c r="D116" t="n">
-        <v>0.269223</v>
+        <v>0.26823</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.287335</v>
+        <v>0.283332</v>
       </c>
       <c r="C117" t="n">
-        <v>0.257007</v>
+        <v>0.256462</v>
       </c>
       <c r="D117" t="n">
-        <v>0.267491</v>
+        <v>0.268567</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.280231</v>
+        <v>0.2746</v>
       </c>
       <c r="C118" t="n">
-        <v>0.254098</v>
+        <v>0.256346</v>
       </c>
       <c r="D118" t="n">
-        <v>0.266359</v>
+        <v>0.265154</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.272511</v>
+        <v>0.273398</v>
       </c>
       <c r="C119" t="n">
-        <v>0.253943</v>
+        <v>0.256327</v>
       </c>
       <c r="D119" t="n">
-        <v>0.266798</v>
+        <v>0.265139</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263688</v>
+        <v>0.261772</v>
       </c>
       <c r="C120" t="n">
-        <v>0.251904</v>
+        <v>0.25314</v>
       </c>
       <c r="D120" t="n">
-        <v>0.260388</v>
+        <v>0.26235</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.250987</v>
+        <v>0.254252</v>
       </c>
       <c r="C121" t="n">
-        <v>0.247213</v>
+        <v>0.25002</v>
       </c>
       <c r="D121" t="n">
-        <v>0.259763</v>
+        <v>0.260907</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.241884</v>
+        <v>0.244376</v>
       </c>
       <c r="C122" t="n">
-        <v>0.251134</v>
+        <v>0.249219</v>
       </c>
       <c r="D122" t="n">
-        <v>0.261627</v>
+        <v>0.261448</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.235137</v>
+        <v>0.240642</v>
       </c>
       <c r="C123" t="n">
-        <v>0.246266</v>
+        <v>0.249057</v>
       </c>
       <c r="D123" t="n">
-        <v>0.284881</v>
+        <v>0.28644</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.336474</v>
+        <v>0.336904</v>
       </c>
       <c r="C124" t="n">
-        <v>0.27633</v>
+        <v>0.275555</v>
       </c>
       <c r="D124" t="n">
-        <v>0.282352</v>
+        <v>0.281277</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.3415</v>
+        <v>0.327831</v>
       </c>
       <c r="C125" t="n">
-        <v>0.269875</v>
+        <v>0.274949</v>
       </c>
       <c r="D125" t="n">
-        <v>0.280811</v>
+        <v>0.283093</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.3222</v>
+        <v>0.321824</v>
       </c>
       <c r="C126" t="n">
-        <v>0.272465</v>
+        <v>0.273216</v>
       </c>
       <c r="D126" t="n">
-        <v>0.286042</v>
+        <v>0.287065</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.315329</v>
+        <v>0.311078</v>
       </c>
       <c r="C127" t="n">
-        <v>0.270385</v>
+        <v>0.265424</v>
       </c>
       <c r="D127" t="n">
-        <v>0.275617</v>
+        <v>0.27629</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.306957</v>
+        <v>0.307242</v>
       </c>
       <c r="C128" t="n">
-        <v>0.263829</v>
+        <v>0.266432</v>
       </c>
       <c r="D128" t="n">
-        <v>0.277304</v>
+        <v>0.272361</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.296635</v>
+        <v>0.297384</v>
       </c>
       <c r="C129" t="n">
-        <v>0.264829</v>
+        <v>0.259391</v>
       </c>
       <c r="D129" t="n">
-        <v>0.275392</v>
+        <v>0.269076</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.294205</v>
+        <v>0.290294</v>
       </c>
       <c r="C130" t="n">
-        <v>0.257862</v>
+        <v>0.257588</v>
       </c>
       <c r="D130" t="n">
-        <v>0.271012</v>
+        <v>0.269945</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.287568</v>
+        <v>0.287049</v>
       </c>
       <c r="C131" t="n">
-        <v>0.259969</v>
+        <v>0.256757</v>
       </c>
       <c r="D131" t="n">
-        <v>0.268252</v>
+        <v>0.265853</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.280438</v>
+        <v>0.278314</v>
       </c>
       <c r="C132" t="n">
-        <v>0.258508</v>
+        <v>0.253195</v>
       </c>
       <c r="D132" t="n">
-        <v>0.264808</v>
+        <v>0.273331</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275049</v>
+        <v>0.269624</v>
       </c>
       <c r="C133" t="n">
-        <v>0.258782</v>
+        <v>0.256792</v>
       </c>
       <c r="D133" t="n">
-        <v>0.263871</v>
+        <v>0.264531</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.262962</v>
+        <v>0.270947</v>
       </c>
       <c r="C134" t="n">
-        <v>0.256396</v>
+        <v>0.252663</v>
       </c>
       <c r="D134" t="n">
-        <v>0.260374</v>
+        <v>0.26335</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.256164</v>
+        <v>0.250684</v>
       </c>
       <c r="C135" t="n">
-        <v>0.25552</v>
+        <v>0.253399</v>
       </c>
       <c r="D135" t="n">
-        <v>0.262606</v>
+        <v>0.263328</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.247255</v>
+        <v>0.249677</v>
       </c>
       <c r="C136" t="n">
-        <v>0.247062</v>
+        <v>0.247326</v>
       </c>
       <c r="D136" t="n">
-        <v>0.264024</v>
+        <v>0.258247</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.236046</v>
+        <v>0.234064</v>
       </c>
       <c r="C137" t="n">
-        <v>0.251066</v>
+        <v>0.245632</v>
       </c>
       <c r="D137" t="n">
-        <v>0.288544</v>
+        <v>0.286843</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.334652</v>
+        <v>0.336298</v>
       </c>
       <c r="C138" t="n">
-        <v>0.278605</v>
+        <v>0.280602</v>
       </c>
       <c r="D138" t="n">
-        <v>0.290856</v>
+        <v>0.286791</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.325594</v>
+        <v>0.325114</v>
       </c>
       <c r="C139" t="n">
-        <v>0.273038</v>
+        <v>0.273752</v>
       </c>
       <c r="D139" t="n">
-        <v>0.279971</v>
+        <v>0.280906</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.322398</v>
+        <v>0.319406</v>
       </c>
       <c r="C140" t="n">
-        <v>0.273763</v>
+        <v>0.270787</v>
       </c>
       <c r="D140" t="n">
-        <v>0.278905</v>
+        <v>0.280868</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.311882</v>
+        <v>0.322638</v>
       </c>
       <c r="C141" t="n">
-        <v>0.265156</v>
+        <v>0.268382</v>
       </c>
       <c r="D141" t="n">
-        <v>0.280116</v>
+        <v>0.277275</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.311925</v>
+        <v>0.307035</v>
       </c>
       <c r="C142" t="n">
-        <v>0.271115</v>
+        <v>0.267288</v>
       </c>
       <c r="D142" t="n">
-        <v>0.273526</v>
+        <v>0.2741</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.305513</v>
+        <v>0.299702</v>
       </c>
       <c r="C143" t="n">
-        <v>0.264399</v>
+        <v>0.261727</v>
       </c>
       <c r="D143" t="n">
-        <v>0.274815</v>
+        <v>0.272934</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.271352</v>
+        <v>0.253731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.234375</v>
+        <v>0.237939</v>
       </c>
       <c r="D2" t="n">
-        <v>0.246343</v>
+        <v>0.235903</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.267934</v>
+        <v>0.249468</v>
       </c>
       <c r="C3" t="n">
-        <v>0.245221</v>
+        <v>0.238689</v>
       </c>
       <c r="D3" t="n">
-        <v>0.250237</v>
+        <v>0.233425</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.261239</v>
+        <v>0.242916</v>
       </c>
       <c r="C4" t="n">
-        <v>0.243747</v>
+        <v>0.240356</v>
       </c>
       <c r="D4" t="n">
-        <v>0.247913</v>
+        <v>0.237366</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.255198</v>
+        <v>0.238054</v>
       </c>
       <c r="C5" t="n">
-        <v>0.237083</v>
+        <v>0.24014</v>
       </c>
       <c r="D5" t="n">
-        <v>0.24579</v>
+        <v>0.24258</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.249861</v>
+        <v>0.233214</v>
       </c>
       <c r="C6" t="n">
-        <v>0.235135</v>
+        <v>0.234307</v>
       </c>
       <c r="D6" t="n">
-        <v>0.245659</v>
+        <v>0.234595</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.235987</v>
+        <v>0.222462</v>
       </c>
       <c r="C7" t="n">
-        <v>0.231065</v>
+        <v>0.238909</v>
       </c>
       <c r="D7" t="n">
-        <v>0.242371</v>
+        <v>0.231089</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.229213</v>
+        <v>0.216718</v>
       </c>
       <c r="C8" t="n">
-        <v>0.23273</v>
+        <v>0.230134</v>
       </c>
       <c r="D8" t="n">
-        <v>0.245183</v>
+        <v>0.234666</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.220346</v>
+        <v>0.209425</v>
       </c>
       <c r="C9" t="n">
-        <v>0.231314</v>
+        <v>0.236475</v>
       </c>
       <c r="D9" t="n">
-        <v>0.255683</v>
+        <v>0.245077</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.308318</v>
+        <v>0.297308</v>
       </c>
       <c r="C10" t="n">
-        <v>0.24711</v>
+        <v>0.248835</v>
       </c>
       <c r="D10" t="n">
-        <v>0.251125</v>
+        <v>0.249514</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.305157</v>
+        <v>0.290264</v>
       </c>
       <c r="C11" t="n">
-        <v>0.24431</v>
+        <v>0.249125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.251394</v>
+        <v>0.245368</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.297052</v>
+        <v>0.285589</v>
       </c>
       <c r="C12" t="n">
-        <v>0.244499</v>
+        <v>0.249095</v>
       </c>
       <c r="D12" t="n">
-        <v>0.249585</v>
+        <v>0.247821</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.292841</v>
+        <v>0.278463</v>
       </c>
       <c r="C13" t="n">
-        <v>0.242491</v>
+        <v>0.246487</v>
       </c>
       <c r="D13" t="n">
-        <v>0.249076</v>
+        <v>0.240628</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.286362</v>
+        <v>0.275632</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239125</v>
+        <v>0.245834</v>
       </c>
       <c r="D14" t="n">
-        <v>0.251912</v>
+        <v>0.243546</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.281422</v>
+        <v>0.270416</v>
       </c>
       <c r="C15" t="n">
-        <v>0.237999</v>
+        <v>0.242176</v>
       </c>
       <c r="D15" t="n">
-        <v>0.24844</v>
+        <v>0.243015</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.275809</v>
+        <v>0.261588</v>
       </c>
       <c r="C16" t="n">
-        <v>0.238353</v>
+        <v>0.242759</v>
       </c>
       <c r="D16" t="n">
-        <v>0.250149</v>
+        <v>0.240243</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.271882</v>
+        <v>0.255702</v>
       </c>
       <c r="C17" t="n">
-        <v>0.237649</v>
+        <v>0.242949</v>
       </c>
       <c r="D17" t="n">
-        <v>0.24782</v>
+        <v>0.245473</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.260278</v>
+        <v>0.248943</v>
       </c>
       <c r="C18" t="n">
-        <v>0.235472</v>
+        <v>0.240242</v>
       </c>
       <c r="D18" t="n">
-        <v>0.251094</v>
+        <v>0.241118</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.255246</v>
+        <v>0.244335</v>
       </c>
       <c r="C19" t="n">
-        <v>0.234588</v>
+        <v>0.243839</v>
       </c>
       <c r="D19" t="n">
-        <v>0.247477</v>
+        <v>0.247356</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.249786</v>
+        <v>0.236568</v>
       </c>
       <c r="C20" t="n">
-        <v>0.233491</v>
+        <v>0.237985</v>
       </c>
       <c r="D20" t="n">
-        <v>0.249908</v>
+        <v>0.237762</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240982</v>
+        <v>0.230589</v>
       </c>
       <c r="C21" t="n">
-        <v>0.23189</v>
+        <v>0.239607</v>
       </c>
       <c r="D21" t="n">
-        <v>0.245071</v>
+        <v>0.23667</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.236135</v>
+        <v>0.225238</v>
       </c>
       <c r="C22" t="n">
-        <v>0.233706</v>
+        <v>0.235813</v>
       </c>
       <c r="D22" t="n">
-        <v>0.242155</v>
+        <v>0.238557</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224607</v>
+        <v>0.213504</v>
       </c>
       <c r="C23" t="n">
-        <v>0.231107</v>
+        <v>0.234644</v>
       </c>
       <c r="D23" t="n">
-        <v>0.261713</v>
+        <v>0.252646</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.307725</v>
+        <v>0.293352</v>
       </c>
       <c r="C24" t="n">
-        <v>0.249835</v>
+        <v>0.255633</v>
       </c>
       <c r="D24" t="n">
-        <v>0.259408</v>
+        <v>0.25228</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.307047</v>
+        <v>0.29107</v>
       </c>
       <c r="C25" t="n">
-        <v>0.249834</v>
+        <v>0.25801</v>
       </c>
       <c r="D25" t="n">
-        <v>0.257245</v>
+        <v>0.251046</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.296223</v>
+        <v>0.286565</v>
       </c>
       <c r="C26" t="n">
-        <v>0.245721</v>
+        <v>0.25697</v>
       </c>
       <c r="D26" t="n">
-        <v>0.258102</v>
+        <v>0.249884</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.295356</v>
+        <v>0.279127</v>
       </c>
       <c r="C27" t="n">
-        <v>0.247805</v>
+        <v>0.249032</v>
       </c>
       <c r="D27" t="n">
-        <v>0.257067</v>
+        <v>0.252097</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.288122</v>
+        <v>0.275429</v>
       </c>
       <c r="C28" t="n">
-        <v>0.252685</v>
+        <v>0.249407</v>
       </c>
       <c r="D28" t="n">
-        <v>0.258277</v>
+        <v>0.249775</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.286019</v>
+        <v>0.26725</v>
       </c>
       <c r="C29" t="n">
-        <v>0.241311</v>
+        <v>0.248319</v>
       </c>
       <c r="D29" t="n">
-        <v>0.252919</v>
+        <v>0.245835</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.276486</v>
+        <v>0.260768</v>
       </c>
       <c r="C30" t="n">
-        <v>0.242752</v>
+        <v>0.24373</v>
       </c>
       <c r="D30" t="n">
-        <v>0.254459</v>
+        <v>0.243045</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.269002</v>
+        <v>0.25488</v>
       </c>
       <c r="C31" t="n">
-        <v>0.240918</v>
+        <v>0.243855</v>
       </c>
       <c r="D31" t="n">
-        <v>0.249866</v>
+        <v>0.246109</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.264083</v>
+        <v>0.252154</v>
       </c>
       <c r="C32" t="n">
-        <v>0.242894</v>
+        <v>0.244429</v>
       </c>
       <c r="D32" t="n">
-        <v>0.250764</v>
+        <v>0.242751</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.258942</v>
+        <v>0.246933</v>
       </c>
       <c r="C33" t="n">
-        <v>0.237118</v>
+        <v>0.242342</v>
       </c>
       <c r="D33" t="n">
-        <v>0.254582</v>
+        <v>0.240694</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.246749</v>
+        <v>0.239644</v>
       </c>
       <c r="C34" t="n">
-        <v>0.233943</v>
+        <v>0.24278</v>
       </c>
       <c r="D34" t="n">
-        <v>0.248071</v>
+        <v>0.245061</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.244029</v>
+        <v>0.23217</v>
       </c>
       <c r="C35" t="n">
-        <v>0.234317</v>
+        <v>0.238103</v>
       </c>
       <c r="D35" t="n">
-        <v>0.248786</v>
+        <v>0.242331</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.237262</v>
+        <v>0.222962</v>
       </c>
       <c r="C36" t="n">
-        <v>0.233065</v>
+        <v>0.241865</v>
       </c>
       <c r="D36" t="n">
-        <v>0.246575</v>
+        <v>0.240118</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.227685</v>
+        <v>0.220689</v>
       </c>
       <c r="C37" t="n">
-        <v>0.229865</v>
+        <v>0.240865</v>
       </c>
       <c r="D37" t="n">
-        <v>0.263143</v>
+        <v>0.263016</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.308052</v>
+        <v>0.299928</v>
       </c>
       <c r="C38" t="n">
-        <v>0.25327</v>
+        <v>0.263789</v>
       </c>
       <c r="D38" t="n">
-        <v>0.271064</v>
+        <v>0.264291</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.311235</v>
+        <v>0.298182</v>
       </c>
       <c r="C39" t="n">
-        <v>0.252376</v>
+        <v>0.259174</v>
       </c>
       <c r="D39" t="n">
-        <v>0.261156</v>
+        <v>0.253643</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.302338</v>
+        <v>0.289015</v>
       </c>
       <c r="C40" t="n">
-        <v>0.251801</v>
+        <v>0.254508</v>
       </c>
       <c r="D40" t="n">
-        <v>0.260973</v>
+        <v>0.249488</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.298284</v>
+        <v>0.284648</v>
       </c>
       <c r="C41" t="n">
-        <v>0.246664</v>
+        <v>0.259108</v>
       </c>
       <c r="D41" t="n">
-        <v>0.258921</v>
+        <v>0.252393</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.288649</v>
+        <v>0.283656</v>
       </c>
       <c r="C42" t="n">
-        <v>0.249044</v>
+        <v>0.253411</v>
       </c>
       <c r="D42" t="n">
-        <v>0.26245</v>
+        <v>0.252773</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.285214</v>
+        <v>0.273326</v>
       </c>
       <c r="C43" t="n">
-        <v>0.246788</v>
+        <v>0.251435</v>
       </c>
       <c r="D43" t="n">
-        <v>0.258046</v>
+        <v>0.253957</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.276997</v>
+        <v>0.268243</v>
       </c>
       <c r="C44" t="n">
-        <v>0.245399</v>
+        <v>0.252444</v>
       </c>
       <c r="D44" t="n">
-        <v>0.256132</v>
+        <v>0.245403</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.273737</v>
+        <v>0.261875</v>
       </c>
       <c r="C45" t="n">
-        <v>0.244998</v>
+        <v>0.252608</v>
       </c>
       <c r="D45" t="n">
-        <v>0.255214</v>
+        <v>0.24782</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.266874</v>
+        <v>0.256431</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245506</v>
+        <v>0.245084</v>
       </c>
       <c r="D46" t="n">
-        <v>0.252222</v>
+        <v>0.246818</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.262412</v>
+        <v>0.249352</v>
       </c>
       <c r="C47" t="n">
-        <v>0.23981</v>
+        <v>0.248547</v>
       </c>
       <c r="D47" t="n">
-        <v>0.25251</v>
+        <v>0.250599</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.252903</v>
+        <v>0.242959</v>
       </c>
       <c r="C48" t="n">
-        <v>0.239149</v>
+        <v>0.243034</v>
       </c>
       <c r="D48" t="n">
-        <v>0.252948</v>
+        <v>0.245325</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.244852</v>
+        <v>0.237326</v>
       </c>
       <c r="C49" t="n">
-        <v>0.23877</v>
+        <v>0.245617</v>
       </c>
       <c r="D49" t="n">
-        <v>0.252895</v>
+        <v>0.244868</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.241719</v>
+        <v>0.22766</v>
       </c>
       <c r="C50" t="n">
-        <v>0.235685</v>
+        <v>0.241256</v>
       </c>
       <c r="D50" t="n">
-        <v>0.249336</v>
+        <v>0.240564</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.229591</v>
+        <v>0.222189</v>
       </c>
       <c r="C51" t="n">
-        <v>0.237792</v>
+        <v>0.239779</v>
       </c>
       <c r="D51" t="n">
-        <v>0.272475</v>
+        <v>0.269071</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.22146</v>
+        <v>0.213376</v>
       </c>
       <c r="C52" t="n">
-        <v>0.238359</v>
+        <v>0.238517</v>
       </c>
       <c r="D52" t="n">
-        <v>0.271638</v>
+        <v>0.264268</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.310633</v>
+        <v>0.303578</v>
       </c>
       <c r="C53" t="n">
-        <v>0.262619</v>
+        <v>0.266833</v>
       </c>
       <c r="D53" t="n">
-        <v>0.271555</v>
+        <v>0.266843</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.308279</v>
+        <v>0.297305</v>
       </c>
       <c r="C54" t="n">
-        <v>0.258345</v>
+        <v>0.263982</v>
       </c>
       <c r="D54" t="n">
-        <v>0.268933</v>
+        <v>0.258491</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.304946</v>
+        <v>0.29312</v>
       </c>
       <c r="C55" t="n">
-        <v>0.25614</v>
+        <v>0.261438</v>
       </c>
       <c r="D55" t="n">
-        <v>0.266677</v>
+        <v>0.260618</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.29662</v>
+        <v>0.285676</v>
       </c>
       <c r="C56" t="n">
-        <v>0.255416</v>
+        <v>0.259902</v>
       </c>
       <c r="D56" t="n">
-        <v>0.265762</v>
+        <v>0.256763</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.294458</v>
+        <v>0.281982</v>
       </c>
       <c r="C57" t="n">
-        <v>0.255276</v>
+        <v>0.261146</v>
       </c>
       <c r="D57" t="n">
-        <v>0.265686</v>
+        <v>0.257084</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.288737</v>
+        <v>0.272492</v>
       </c>
       <c r="C58" t="n">
-        <v>0.252828</v>
+        <v>0.256847</v>
       </c>
       <c r="D58" t="n">
-        <v>0.25947</v>
+        <v>0.25422</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.27978</v>
+        <v>0.268102</v>
       </c>
       <c r="C59" t="n">
-        <v>0.249302</v>
+        <v>0.255878</v>
       </c>
       <c r="D59" t="n">
-        <v>0.262831</v>
+        <v>0.254127</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.27559</v>
+        <v>0.2612</v>
       </c>
       <c r="C60" t="n">
-        <v>0.24658</v>
+        <v>0.253659</v>
       </c>
       <c r="D60" t="n">
-        <v>0.260381</v>
+        <v>0.249604</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.263768</v>
+        <v>0.254836</v>
       </c>
       <c r="C61" t="n">
-        <v>0.249149</v>
+        <v>0.248381</v>
       </c>
       <c r="D61" t="n">
-        <v>0.257989</v>
+        <v>0.249107</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.257976</v>
+        <v>0.249422</v>
       </c>
       <c r="C62" t="n">
-        <v>0.247133</v>
+        <v>0.247804</v>
       </c>
       <c r="D62" t="n">
-        <v>0.254628</v>
+        <v>0.246938</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.256329</v>
+        <v>0.240744</v>
       </c>
       <c r="C63" t="n">
-        <v>0.242829</v>
+        <v>0.249216</v>
       </c>
       <c r="D63" t="n">
-        <v>0.256105</v>
+        <v>0.247856</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245563</v>
+        <v>0.232346</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242852</v>
+        <v>0.247174</v>
       </c>
       <c r="D64" t="n">
-        <v>0.252405</v>
+        <v>0.246691</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.23501</v>
+        <v>0.223588</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242909</v>
+        <v>0.242586</v>
       </c>
       <c r="D65" t="n">
-        <v>0.252948</v>
+        <v>0.245225</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.230059</v>
+        <v>0.21639</v>
       </c>
       <c r="C66" t="n">
-        <v>0.239487</v>
+        <v>0.245284</v>
       </c>
       <c r="D66" t="n">
-        <v>0.277687</v>
+        <v>0.275047</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.334338</v>
+        <v>0.311527</v>
       </c>
       <c r="C67" t="n">
-        <v>0.269614</v>
+        <v>0.269722</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2762</v>
+        <v>0.271841</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.318516</v>
+        <v>0.309769</v>
       </c>
       <c r="C68" t="n">
-        <v>0.26456</v>
+        <v>0.270311</v>
       </c>
       <c r="D68" t="n">
-        <v>0.275725</v>
+        <v>0.268236</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.312305</v>
+        <v>0.30285</v>
       </c>
       <c r="C69" t="n">
-        <v>0.260218</v>
+        <v>0.268895</v>
       </c>
       <c r="D69" t="n">
-        <v>0.278449</v>
+        <v>0.268697</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.305002</v>
+        <v>0.304036</v>
       </c>
       <c r="C70" t="n">
-        <v>0.263949</v>
+        <v>0.26576</v>
       </c>
       <c r="D70" t="n">
-        <v>0.271848</v>
+        <v>0.262324</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.308139</v>
+        <v>0.291852</v>
       </c>
       <c r="C71" t="n">
-        <v>0.256894</v>
+        <v>0.262501</v>
       </c>
       <c r="D71" t="n">
-        <v>0.272111</v>
+        <v>0.260288</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.293738</v>
+        <v>0.286749</v>
       </c>
       <c r="C72" t="n">
-        <v>0.261888</v>
+        <v>0.263179</v>
       </c>
       <c r="D72" t="n">
-        <v>0.272975</v>
+        <v>0.260058</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.288591</v>
+        <v>0.281228</v>
       </c>
       <c r="C73" t="n">
-        <v>0.255554</v>
+        <v>0.262959</v>
       </c>
       <c r="D73" t="n">
-        <v>0.266416</v>
+        <v>0.257416</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.282779</v>
+        <v>0.272888</v>
       </c>
       <c r="C74" t="n">
-        <v>0.258482</v>
+        <v>0.260213</v>
       </c>
       <c r="D74" t="n">
-        <v>0.264146</v>
+        <v>0.254796</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.276378</v>
+        <v>0.261169</v>
       </c>
       <c r="C75" t="n">
-        <v>0.250668</v>
+        <v>0.254292</v>
       </c>
       <c r="D75" t="n">
-        <v>0.258066</v>
+        <v>0.255298</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.266688</v>
+        <v>0.258032</v>
       </c>
       <c r="C76" t="n">
-        <v>0.251296</v>
+        <v>0.256001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.261957</v>
+        <v>0.258623</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.260671</v>
+        <v>0.250686</v>
       </c>
       <c r="C77" t="n">
-        <v>0.248668</v>
+        <v>0.253463</v>
       </c>
       <c r="D77" t="n">
-        <v>0.263835</v>
+        <v>0.251903</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.250407</v>
+        <v>0.241741</v>
       </c>
       <c r="C78" t="n">
-        <v>0.243652</v>
+        <v>0.250435</v>
       </c>
       <c r="D78" t="n">
-        <v>0.262649</v>
+        <v>0.256927</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.245679</v>
+        <v>0.236427</v>
       </c>
       <c r="C79" t="n">
-        <v>0.244056</v>
+        <v>0.250361</v>
       </c>
       <c r="D79" t="n">
-        <v>0.256624</v>
+        <v>0.255037</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.234474</v>
+        <v>0.224917</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241629</v>
+        <v>0.247186</v>
       </c>
       <c r="D80" t="n">
-        <v>0.286193</v>
+        <v>0.281884</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.338073</v>
+        <v>0.320887</v>
       </c>
       <c r="C81" t="n">
-        <v>0.275187</v>
+        <v>0.281908</v>
       </c>
       <c r="D81" t="n">
-        <v>0.282462</v>
+        <v>0.275843</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.32709</v>
+        <v>0.313198</v>
       </c>
       <c r="C82" t="n">
-        <v>0.269914</v>
+        <v>0.275752</v>
       </c>
       <c r="D82" t="n">
-        <v>0.281898</v>
+        <v>0.273724</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.31811</v>
+        <v>0.308661</v>
       </c>
       <c r="C83" t="n">
-        <v>0.27139</v>
+        <v>0.275425</v>
       </c>
       <c r="D83" t="n">
-        <v>0.279998</v>
+        <v>0.272529</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.313001</v>
+        <v>0.29943</v>
       </c>
       <c r="C84" t="n">
-        <v>0.268442</v>
+        <v>0.269297</v>
       </c>
       <c r="D84" t="n">
-        <v>0.276518</v>
+        <v>0.269145</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.30699</v>
+        <v>0.294068</v>
       </c>
       <c r="C85" t="n">
-        <v>0.266469</v>
+        <v>0.266135</v>
       </c>
       <c r="D85" t="n">
-        <v>0.273379</v>
+        <v>0.266088</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.301303</v>
+        <v>0.293778</v>
       </c>
       <c r="C86" t="n">
-        <v>0.264876</v>
+        <v>0.268242</v>
       </c>
       <c r="D86" t="n">
-        <v>0.279261</v>
+        <v>0.264149</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.301155</v>
+        <v>0.282625</v>
       </c>
       <c r="C87" t="n">
-        <v>0.263273</v>
+        <v>0.265428</v>
       </c>
       <c r="D87" t="n">
-        <v>0.269396</v>
+        <v>0.258575</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.289366</v>
+        <v>0.273484</v>
       </c>
       <c r="C88" t="n">
-        <v>0.258648</v>
+        <v>0.259752</v>
       </c>
       <c r="D88" t="n">
-        <v>0.268678</v>
+        <v>0.260303</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.280178</v>
+        <v>0.269626</v>
       </c>
       <c r="C89" t="n">
-        <v>0.25739</v>
+        <v>0.263479</v>
       </c>
       <c r="D89" t="n">
-        <v>0.267483</v>
+        <v>0.260107</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.284438</v>
+        <v>0.261697</v>
       </c>
       <c r="C90" t="n">
-        <v>0.257338</v>
+        <v>0.257181</v>
       </c>
       <c r="D90" t="n">
-        <v>0.264671</v>
+        <v>0.256496</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.263809</v>
+        <v>0.254963</v>
       </c>
       <c r="C91" t="n">
-        <v>0.251628</v>
+        <v>0.256571</v>
       </c>
       <c r="D91" t="n">
-        <v>0.260654</v>
+        <v>0.255702</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.256257</v>
+        <v>0.24549</v>
       </c>
       <c r="C92" t="n">
-        <v>0.249462</v>
+        <v>0.253689</v>
       </c>
       <c r="D92" t="n">
-        <v>0.257612</v>
+        <v>0.251776</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.249022</v>
+        <v>0.236814</v>
       </c>
       <c r="C93" t="n">
-        <v>0.248103</v>
+        <v>0.252819</v>
       </c>
       <c r="D93" t="n">
-        <v>0.262011</v>
+        <v>0.254043</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.241121</v>
+        <v>0.22955</v>
       </c>
       <c r="C94" t="n">
-        <v>0.248204</v>
+        <v>0.251696</v>
       </c>
       <c r="D94" t="n">
-        <v>0.289</v>
+        <v>0.280637</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.335596</v>
+        <v>0.322786</v>
       </c>
       <c r="C95" t="n">
-        <v>0.280065</v>
+        <v>0.281757</v>
       </c>
       <c r="D95" t="n">
-        <v>0.285724</v>
+        <v>0.277612</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.332543</v>
+        <v>0.319151</v>
       </c>
       <c r="C96" t="n">
-        <v>0.27332</v>
+        <v>0.281424</v>
       </c>
       <c r="D96" t="n">
-        <v>0.28463</v>
+        <v>0.277555</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.327559</v>
+        <v>0.315658</v>
       </c>
       <c r="C97" t="n">
-        <v>0.274145</v>
+        <v>0.275674</v>
       </c>
       <c r="D97" t="n">
-        <v>0.280158</v>
+        <v>0.272715</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.318895</v>
+        <v>0.304317</v>
       </c>
       <c r="C98" t="n">
-        <v>0.269106</v>
+        <v>0.272299</v>
       </c>
       <c r="D98" t="n">
-        <v>0.276331</v>
+        <v>0.268549</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.311595</v>
+        <v>0.298187</v>
       </c>
       <c r="C99" t="n">
-        <v>0.265213</v>
+        <v>0.271312</v>
       </c>
       <c r="D99" t="n">
-        <v>0.272909</v>
+        <v>0.269442</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.306991</v>
+        <v>0.292424</v>
       </c>
       <c r="C100" t="n">
-        <v>0.265966</v>
+        <v>0.267639</v>
       </c>
       <c r="D100" t="n">
-        <v>0.276913</v>
+        <v>0.265945</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.295768</v>
+        <v>0.287526</v>
       </c>
       <c r="C101" t="n">
-        <v>0.261635</v>
+        <v>0.263348</v>
       </c>
       <c r="D101" t="n">
-        <v>0.267591</v>
+        <v>0.261604</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.288972</v>
+        <v>0.279135</v>
       </c>
       <c r="C102" t="n">
-        <v>0.26077</v>
+        <v>0.261793</v>
       </c>
       <c r="D102" t="n">
-        <v>0.270363</v>
+        <v>0.261951</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.283992</v>
+        <v>0.27336</v>
       </c>
       <c r="C103" t="n">
-        <v>0.260676</v>
+        <v>0.264345</v>
       </c>
       <c r="D103" t="n">
-        <v>0.268338</v>
+        <v>0.265508</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.274268</v>
+        <v>0.26462</v>
       </c>
       <c r="C104" t="n">
-        <v>0.255705</v>
+        <v>0.261519</v>
       </c>
       <c r="D104" t="n">
-        <v>0.265575</v>
+        <v>0.256789</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.271463</v>
+        <v>0.252705</v>
       </c>
       <c r="C105" t="n">
-        <v>0.255785</v>
+        <v>0.258259</v>
       </c>
       <c r="D105" t="n">
-        <v>0.262181</v>
+        <v>0.2575</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.257773</v>
+        <v>0.249871</v>
       </c>
       <c r="C106" t="n">
-        <v>0.251412</v>
+        <v>0.257331</v>
       </c>
       <c r="D106" t="n">
-        <v>0.264259</v>
+        <v>0.253592</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.250637</v>
+        <v>0.240899</v>
       </c>
       <c r="C107" t="n">
-        <v>0.247218</v>
+        <v>0.254482</v>
       </c>
       <c r="D107" t="n">
-        <v>0.265185</v>
+        <v>0.251631</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.2435</v>
+        <v>0.233072</v>
       </c>
       <c r="C108" t="n">
-        <v>0.24722</v>
+        <v>0.251017</v>
       </c>
       <c r="D108" t="n">
-        <v>0.287637</v>
+        <v>0.284381</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.236167</v>
+        <v>0.223365</v>
       </c>
       <c r="C109" t="n">
-        <v>0.248014</v>
+        <v>0.252749</v>
       </c>
       <c r="D109" t="n">
-        <v>0.28366</v>
+        <v>0.278624</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.334502</v>
+        <v>0.32482</v>
       </c>
       <c r="C110" t="n">
-        <v>0.274139</v>
+        <v>0.278752</v>
       </c>
       <c r="D110" t="n">
-        <v>0.283242</v>
+        <v>0.274193</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.324539</v>
+        <v>0.309009</v>
       </c>
       <c r="C111" t="n">
-        <v>0.271974</v>
+        <v>0.273835</v>
       </c>
       <c r="D111" t="n">
-        <v>0.280605</v>
+        <v>0.274888</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.321485</v>
+        <v>0.304354</v>
       </c>
       <c r="C112" t="n">
-        <v>0.272164</v>
+        <v>0.276169</v>
       </c>
       <c r="D112" t="n">
-        <v>0.282936</v>
+        <v>0.269262</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.317244</v>
+        <v>0.307308</v>
       </c>
       <c r="C113" t="n">
-        <v>0.270398</v>
+        <v>0.269386</v>
       </c>
       <c r="D113" t="n">
-        <v>0.278364</v>
+        <v>0.266688</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.304895</v>
+        <v>0.292938</v>
       </c>
       <c r="C114" t="n">
-        <v>0.26606</v>
+        <v>0.27439</v>
       </c>
       <c r="D114" t="n">
-        <v>0.27426</v>
+        <v>0.266959</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.303299</v>
+        <v>0.285637</v>
       </c>
       <c r="C115" t="n">
-        <v>0.25977</v>
+        <v>0.266818</v>
       </c>
       <c r="D115" t="n">
-        <v>0.272656</v>
+        <v>0.265266</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.288918</v>
+        <v>0.279882</v>
       </c>
       <c r="C116" t="n">
-        <v>0.258737</v>
+        <v>0.266156</v>
       </c>
       <c r="D116" t="n">
-        <v>0.26823</v>
+        <v>0.262743</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.283332</v>
+        <v>0.273494</v>
       </c>
       <c r="C117" t="n">
-        <v>0.256462</v>
+        <v>0.263593</v>
       </c>
       <c r="D117" t="n">
-        <v>0.268567</v>
+        <v>0.261328</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2746</v>
+        <v>0.26442</v>
       </c>
       <c r="C118" t="n">
-        <v>0.256346</v>
+        <v>0.258917</v>
       </c>
       <c r="D118" t="n">
-        <v>0.265154</v>
+        <v>0.258992</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.273398</v>
+        <v>0.257131</v>
       </c>
       <c r="C119" t="n">
-        <v>0.256327</v>
+        <v>0.25624</v>
       </c>
       <c r="D119" t="n">
-        <v>0.265139</v>
+        <v>0.253676</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.261772</v>
+        <v>0.250746</v>
       </c>
       <c r="C120" t="n">
-        <v>0.25314</v>
+        <v>0.26476</v>
       </c>
       <c r="D120" t="n">
-        <v>0.26235</v>
+        <v>0.259852</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.254252</v>
+        <v>0.24078</v>
       </c>
       <c r="C121" t="n">
-        <v>0.25002</v>
+        <v>0.254751</v>
       </c>
       <c r="D121" t="n">
-        <v>0.260907</v>
+        <v>0.260168</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.244376</v>
+        <v>0.233296</v>
       </c>
       <c r="C122" t="n">
-        <v>0.249219</v>
+        <v>0.251413</v>
       </c>
       <c r="D122" t="n">
-        <v>0.261448</v>
+        <v>0.255488</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.240642</v>
+        <v>0.223025</v>
       </c>
       <c r="C123" t="n">
-        <v>0.249057</v>
+        <v>0.2531</v>
       </c>
       <c r="D123" t="n">
-        <v>0.28644</v>
+        <v>0.288476</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.336904</v>
+        <v>0.321079</v>
       </c>
       <c r="C124" t="n">
-        <v>0.275555</v>
+        <v>0.277302</v>
       </c>
       <c r="D124" t="n">
-        <v>0.281277</v>
+        <v>0.273486</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.327831</v>
+        <v>0.317376</v>
       </c>
       <c r="C125" t="n">
-        <v>0.274949</v>
+        <v>0.280236</v>
       </c>
       <c r="D125" t="n">
-        <v>0.283093</v>
+        <v>0.278526</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.321824</v>
+        <v>0.312896</v>
       </c>
       <c r="C126" t="n">
-        <v>0.273216</v>
+        <v>0.272102</v>
       </c>
       <c r="D126" t="n">
-        <v>0.287065</v>
+        <v>0.271517</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.311078</v>
+        <v>0.303638</v>
       </c>
       <c r="C127" t="n">
-        <v>0.265424</v>
+        <v>0.273448</v>
       </c>
       <c r="D127" t="n">
-        <v>0.27629</v>
+        <v>0.272269</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.307242</v>
+        <v>0.298248</v>
       </c>
       <c r="C128" t="n">
-        <v>0.266432</v>
+        <v>0.270046</v>
       </c>
       <c r="D128" t="n">
-        <v>0.272361</v>
+        <v>0.270391</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.297384</v>
+        <v>0.284805</v>
       </c>
       <c r="C129" t="n">
-        <v>0.259391</v>
+        <v>0.275691</v>
       </c>
       <c r="D129" t="n">
-        <v>0.269076</v>
+        <v>0.26982</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.290294</v>
+        <v>0.278937</v>
       </c>
       <c r="C130" t="n">
-        <v>0.257588</v>
+        <v>0.265623</v>
       </c>
       <c r="D130" t="n">
-        <v>0.269945</v>
+        <v>0.264641</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.287049</v>
+        <v>0.272341</v>
       </c>
       <c r="C131" t="n">
-        <v>0.256757</v>
+        <v>0.264412</v>
       </c>
       <c r="D131" t="n">
-        <v>0.265853</v>
+        <v>0.260863</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278314</v>
+        <v>0.270557</v>
       </c>
       <c r="C132" t="n">
-        <v>0.253195</v>
+        <v>0.262912</v>
       </c>
       <c r="D132" t="n">
-        <v>0.273331</v>
+        <v>0.256999</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.269624</v>
+        <v>0.264541</v>
       </c>
       <c r="C133" t="n">
-        <v>0.256792</v>
+        <v>0.260691</v>
       </c>
       <c r="D133" t="n">
-        <v>0.264531</v>
+        <v>0.256949</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.270947</v>
+        <v>0.249084</v>
       </c>
       <c r="C134" t="n">
-        <v>0.252663</v>
+        <v>0.260988</v>
       </c>
       <c r="D134" t="n">
-        <v>0.26335</v>
+        <v>0.259158</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.250684</v>
+        <v>0.242292</v>
       </c>
       <c r="C135" t="n">
-        <v>0.253399</v>
+        <v>0.253339</v>
       </c>
       <c r="D135" t="n">
-        <v>0.263328</v>
+        <v>0.253983</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.249677</v>
+        <v>0.233831</v>
       </c>
       <c r="C136" t="n">
-        <v>0.247326</v>
+        <v>0.26207</v>
       </c>
       <c r="D136" t="n">
-        <v>0.258247</v>
+        <v>0.251368</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.234064</v>
+        <v>0.226242</v>
       </c>
       <c r="C137" t="n">
-        <v>0.245632</v>
+        <v>0.249116</v>
       </c>
       <c r="D137" t="n">
-        <v>0.286843</v>
+        <v>0.282647</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.336298</v>
+        <v>0.324993</v>
       </c>
       <c r="C138" t="n">
-        <v>0.280602</v>
+        <v>0.282515</v>
       </c>
       <c r="D138" t="n">
-        <v>0.286791</v>
+        <v>0.272997</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.325114</v>
+        <v>0.317416</v>
       </c>
       <c r="C139" t="n">
-        <v>0.273752</v>
+        <v>0.27288</v>
       </c>
       <c r="D139" t="n">
-        <v>0.280906</v>
+        <v>0.277686</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.319406</v>
+        <v>0.308004</v>
       </c>
       <c r="C140" t="n">
-        <v>0.270787</v>
+        <v>0.271371</v>
       </c>
       <c r="D140" t="n">
-        <v>0.280868</v>
+        <v>0.270321</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.322638</v>
+        <v>0.300823</v>
       </c>
       <c r="C141" t="n">
-        <v>0.268382</v>
+        <v>0.272866</v>
       </c>
       <c r="D141" t="n">
-        <v>0.277275</v>
+        <v>0.269063</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.307035</v>
+        <v>0.298881</v>
       </c>
       <c r="C142" t="n">
-        <v>0.267288</v>
+        <v>0.273852</v>
       </c>
       <c r="D142" t="n">
-        <v>0.2741</v>
+        <v>0.264883</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.299702</v>
+        <v>0.288608</v>
       </c>
       <c r="C143" t="n">
-        <v>0.261727</v>
+        <v>0.272318</v>
       </c>
       <c r="D143" t="n">
-        <v>0.272934</v>
+        <v>0.266179</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.253731</v>
+        <v>0.263435</v>
       </c>
       <c r="C2" t="n">
-        <v>0.237939</v>
+        <v>0.243584</v>
       </c>
       <c r="D2" t="n">
-        <v>0.235903</v>
+        <v>0.238454</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.249468</v>
+        <v>0.258836</v>
       </c>
       <c r="C3" t="n">
-        <v>0.238689</v>
+        <v>0.240601</v>
       </c>
       <c r="D3" t="n">
-        <v>0.233425</v>
+        <v>0.244779</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.242916</v>
+        <v>0.253817</v>
       </c>
       <c r="C4" t="n">
-        <v>0.240356</v>
+        <v>0.24317</v>
       </c>
       <c r="D4" t="n">
-        <v>0.237366</v>
+        <v>0.241196</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.238054</v>
+        <v>0.240771</v>
       </c>
       <c r="C5" t="n">
-        <v>0.24014</v>
+        <v>0.238485</v>
       </c>
       <c r="D5" t="n">
-        <v>0.24258</v>
+        <v>0.245174</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.233214</v>
+        <v>0.23353</v>
       </c>
       <c r="C6" t="n">
-        <v>0.234307</v>
+        <v>0.235107</v>
       </c>
       <c r="D6" t="n">
-        <v>0.234595</v>
+        <v>0.247349</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.222462</v>
+        <v>0.230133</v>
       </c>
       <c r="C7" t="n">
-        <v>0.238909</v>
+        <v>0.237982</v>
       </c>
       <c r="D7" t="n">
-        <v>0.231089</v>
+        <v>0.236045</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.216718</v>
+        <v>0.226178</v>
       </c>
       <c r="C8" t="n">
-        <v>0.230134</v>
+        <v>0.239543</v>
       </c>
       <c r="D8" t="n">
-        <v>0.234666</v>
+        <v>0.236606</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.209425</v>
+        <v>0.209846</v>
       </c>
       <c r="C9" t="n">
-        <v>0.236475</v>
+        <v>0.235313</v>
       </c>
       <c r="D9" t="n">
-        <v>0.245077</v>
+        <v>0.246965</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.297308</v>
+        <v>0.297835</v>
       </c>
       <c r="C10" t="n">
-        <v>0.248835</v>
+        <v>0.248802</v>
       </c>
       <c r="D10" t="n">
-        <v>0.249514</v>
+        <v>0.246555</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.290264</v>
+        <v>0.29104</v>
       </c>
       <c r="C11" t="n">
-        <v>0.249125</v>
+        <v>0.251306</v>
       </c>
       <c r="D11" t="n">
-        <v>0.245368</v>
+        <v>0.246915</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.285589</v>
+        <v>0.283316</v>
       </c>
       <c r="C12" t="n">
-        <v>0.249095</v>
+        <v>0.248912</v>
       </c>
       <c r="D12" t="n">
-        <v>0.247821</v>
+        <v>0.243268</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.278463</v>
+        <v>0.276652</v>
       </c>
       <c r="C13" t="n">
-        <v>0.246487</v>
+        <v>0.245487</v>
       </c>
       <c r="D13" t="n">
-        <v>0.240628</v>
+        <v>0.246387</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.275632</v>
+        <v>0.274933</v>
       </c>
       <c r="C14" t="n">
-        <v>0.245834</v>
+        <v>0.247938</v>
       </c>
       <c r="D14" t="n">
-        <v>0.243546</v>
+        <v>0.239195</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.270416</v>
+        <v>0.265035</v>
       </c>
       <c r="C15" t="n">
-        <v>0.242176</v>
+        <v>0.242181</v>
       </c>
       <c r="D15" t="n">
-        <v>0.243015</v>
+        <v>0.241857</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.261588</v>
+        <v>0.266961</v>
       </c>
       <c r="C16" t="n">
-        <v>0.242759</v>
+        <v>0.240558</v>
       </c>
       <c r="D16" t="n">
-        <v>0.240243</v>
+        <v>0.243663</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.255702</v>
+        <v>0.255215</v>
       </c>
       <c r="C17" t="n">
-        <v>0.242949</v>
+        <v>0.243694</v>
       </c>
       <c r="D17" t="n">
-        <v>0.245473</v>
+        <v>0.250966</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.248943</v>
+        <v>0.249449</v>
       </c>
       <c r="C18" t="n">
-        <v>0.240242</v>
+        <v>0.240311</v>
       </c>
       <c r="D18" t="n">
-        <v>0.241118</v>
+        <v>0.240472</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.244335</v>
+        <v>0.245257</v>
       </c>
       <c r="C19" t="n">
-        <v>0.243839</v>
+        <v>0.241068</v>
       </c>
       <c r="D19" t="n">
-        <v>0.247356</v>
+        <v>0.245642</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.236568</v>
+        <v>0.236658</v>
       </c>
       <c r="C20" t="n">
-        <v>0.237985</v>
+        <v>0.24005</v>
       </c>
       <c r="D20" t="n">
-        <v>0.237762</v>
+        <v>0.239729</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230589</v>
+        <v>0.228049</v>
       </c>
       <c r="C21" t="n">
-        <v>0.239607</v>
+        <v>0.238165</v>
       </c>
       <c r="D21" t="n">
-        <v>0.23667</v>
+        <v>0.237314</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225238</v>
+        <v>0.222526</v>
       </c>
       <c r="C22" t="n">
-        <v>0.235813</v>
+        <v>0.234104</v>
       </c>
       <c r="D22" t="n">
-        <v>0.238557</v>
+        <v>0.236305</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.213504</v>
+        <v>0.211994</v>
       </c>
       <c r="C23" t="n">
-        <v>0.234644</v>
+        <v>0.234683</v>
       </c>
       <c r="D23" t="n">
-        <v>0.252646</v>
+        <v>0.251768</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.293352</v>
+        <v>0.296121</v>
       </c>
       <c r="C24" t="n">
-        <v>0.255633</v>
+        <v>0.254041</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25228</v>
+        <v>0.251961</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.29107</v>
+        <v>0.293698</v>
       </c>
       <c r="C25" t="n">
-        <v>0.25801</v>
+        <v>0.253009</v>
       </c>
       <c r="D25" t="n">
-        <v>0.251046</v>
+        <v>0.25043</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.286565</v>
+        <v>0.290715</v>
       </c>
       <c r="C26" t="n">
-        <v>0.25697</v>
+        <v>0.24962</v>
       </c>
       <c r="D26" t="n">
-        <v>0.249884</v>
+        <v>0.251266</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.279127</v>
+        <v>0.283655</v>
       </c>
       <c r="C27" t="n">
-        <v>0.249032</v>
+        <v>0.251279</v>
       </c>
       <c r="D27" t="n">
-        <v>0.252097</v>
+        <v>0.24904</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.275429</v>
+        <v>0.277572</v>
       </c>
       <c r="C28" t="n">
-        <v>0.249407</v>
+        <v>0.252259</v>
       </c>
       <c r="D28" t="n">
-        <v>0.249775</v>
+        <v>0.25086</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.26725</v>
+        <v>0.269363</v>
       </c>
       <c r="C29" t="n">
-        <v>0.248319</v>
+        <v>0.248795</v>
       </c>
       <c r="D29" t="n">
-        <v>0.245835</v>
+        <v>0.247865</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.260768</v>
+        <v>0.268373</v>
       </c>
       <c r="C30" t="n">
-        <v>0.24373</v>
+        <v>0.246</v>
       </c>
       <c r="D30" t="n">
-        <v>0.243045</v>
+        <v>0.246397</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.25488</v>
+        <v>0.261423</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243855</v>
+        <v>0.242708</v>
       </c>
       <c r="D31" t="n">
-        <v>0.246109</v>
+        <v>0.244875</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.252154</v>
+        <v>0.255404</v>
       </c>
       <c r="C32" t="n">
-        <v>0.244429</v>
+        <v>0.24496</v>
       </c>
       <c r="D32" t="n">
-        <v>0.242751</v>
+        <v>0.241207</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.246933</v>
+        <v>0.247299</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242342</v>
+        <v>0.24473</v>
       </c>
       <c r="D33" t="n">
-        <v>0.240694</v>
+        <v>0.237636</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.239644</v>
+        <v>0.24069</v>
       </c>
       <c r="C34" t="n">
-        <v>0.24278</v>
+        <v>0.239672</v>
       </c>
       <c r="D34" t="n">
-        <v>0.245061</v>
+        <v>0.241634</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.23217</v>
+        <v>0.23324</v>
       </c>
       <c r="C35" t="n">
-        <v>0.238103</v>
+        <v>0.242984</v>
       </c>
       <c r="D35" t="n">
-        <v>0.242331</v>
+        <v>0.238275</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.222962</v>
+        <v>0.22372</v>
       </c>
       <c r="C36" t="n">
-        <v>0.241865</v>
+        <v>0.242505</v>
       </c>
       <c r="D36" t="n">
-        <v>0.240118</v>
+        <v>0.24099</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.220689</v>
+        <v>0.216389</v>
       </c>
       <c r="C37" t="n">
-        <v>0.240865</v>
+        <v>0.241822</v>
       </c>
       <c r="D37" t="n">
-        <v>0.263016</v>
+        <v>0.260687</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.299928</v>
+        <v>0.305602</v>
       </c>
       <c r="C38" t="n">
-        <v>0.263789</v>
+        <v>0.260265</v>
       </c>
       <c r="D38" t="n">
-        <v>0.264291</v>
+        <v>0.258963</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.298182</v>
+        <v>0.299445</v>
       </c>
       <c r="C39" t="n">
-        <v>0.259174</v>
+        <v>0.255866</v>
       </c>
       <c r="D39" t="n">
-        <v>0.253643</v>
+        <v>0.255028</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.289015</v>
+        <v>0.295128</v>
       </c>
       <c r="C40" t="n">
-        <v>0.254508</v>
+        <v>0.257498</v>
       </c>
       <c r="D40" t="n">
-        <v>0.249488</v>
+        <v>0.255233</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.284648</v>
+        <v>0.286748</v>
       </c>
       <c r="C41" t="n">
-        <v>0.259108</v>
+        <v>0.255665</v>
       </c>
       <c r="D41" t="n">
-        <v>0.252393</v>
+        <v>0.251575</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.283656</v>
+        <v>0.284293</v>
       </c>
       <c r="C42" t="n">
-        <v>0.253411</v>
+        <v>0.252747</v>
       </c>
       <c r="D42" t="n">
-        <v>0.252773</v>
+        <v>0.251958</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.273326</v>
+        <v>0.275031</v>
       </c>
       <c r="C43" t="n">
-        <v>0.251435</v>
+        <v>0.251232</v>
       </c>
       <c r="D43" t="n">
-        <v>0.253957</v>
+        <v>0.24837</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.268243</v>
+        <v>0.270759</v>
       </c>
       <c r="C44" t="n">
-        <v>0.252444</v>
+        <v>0.251752</v>
       </c>
       <c r="D44" t="n">
-        <v>0.245403</v>
+        <v>0.246434</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.261875</v>
+        <v>0.262295</v>
       </c>
       <c r="C45" t="n">
-        <v>0.252608</v>
+        <v>0.250572</v>
       </c>
       <c r="D45" t="n">
-        <v>0.24782</v>
+        <v>0.24939</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.256431</v>
+        <v>0.258826</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245084</v>
+        <v>0.246198</v>
       </c>
       <c r="D46" t="n">
-        <v>0.246818</v>
+        <v>0.246577</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.249352</v>
+        <v>0.250916</v>
       </c>
       <c r="C47" t="n">
-        <v>0.248547</v>
+        <v>0.249767</v>
       </c>
       <c r="D47" t="n">
-        <v>0.250599</v>
+        <v>0.245906</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.242959</v>
+        <v>0.243341</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243034</v>
+        <v>0.248988</v>
       </c>
       <c r="D48" t="n">
-        <v>0.245325</v>
+        <v>0.24458</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.237326</v>
+        <v>0.236192</v>
       </c>
       <c r="C49" t="n">
-        <v>0.245617</v>
+        <v>0.242527</v>
       </c>
       <c r="D49" t="n">
-        <v>0.244868</v>
+        <v>0.242986</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.22766</v>
+        <v>0.231479</v>
       </c>
       <c r="C50" t="n">
-        <v>0.241256</v>
+        <v>0.23877</v>
       </c>
       <c r="D50" t="n">
-        <v>0.240564</v>
+        <v>0.245764</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.222189</v>
+        <v>0.222921</v>
       </c>
       <c r="C51" t="n">
-        <v>0.239779</v>
+        <v>0.238906</v>
       </c>
       <c r="D51" t="n">
-        <v>0.269071</v>
+        <v>0.265902</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.213376</v>
+        <v>0.211919</v>
       </c>
       <c r="C52" t="n">
-        <v>0.238517</v>
+        <v>0.238609</v>
       </c>
       <c r="D52" t="n">
-        <v>0.264268</v>
+        <v>0.265423</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.303578</v>
+        <v>0.304156</v>
       </c>
       <c r="C53" t="n">
-        <v>0.266833</v>
+        <v>0.263128</v>
       </c>
       <c r="D53" t="n">
-        <v>0.266843</v>
+        <v>0.259986</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.297305</v>
+        <v>0.297791</v>
       </c>
       <c r="C54" t="n">
-        <v>0.263982</v>
+        <v>0.262896</v>
       </c>
       <c r="D54" t="n">
-        <v>0.258491</v>
+        <v>0.25972</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.29312</v>
+        <v>0.29262</v>
       </c>
       <c r="C55" t="n">
-        <v>0.261438</v>
+        <v>0.262142</v>
       </c>
       <c r="D55" t="n">
-        <v>0.260618</v>
+        <v>0.259922</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.285676</v>
+        <v>0.289803</v>
       </c>
       <c r="C56" t="n">
-        <v>0.259902</v>
+        <v>0.258796</v>
       </c>
       <c r="D56" t="n">
-        <v>0.256763</v>
+        <v>0.256074</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.281982</v>
+        <v>0.282511</v>
       </c>
       <c r="C57" t="n">
-        <v>0.261146</v>
+        <v>0.259707</v>
       </c>
       <c r="D57" t="n">
-        <v>0.257084</v>
+        <v>0.25336</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.272492</v>
+        <v>0.275177</v>
       </c>
       <c r="C58" t="n">
-        <v>0.256847</v>
+        <v>0.256669</v>
       </c>
       <c r="D58" t="n">
-        <v>0.25422</v>
+        <v>0.254941</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.268102</v>
+        <v>0.269707</v>
       </c>
       <c r="C59" t="n">
-        <v>0.255878</v>
+        <v>0.256456</v>
       </c>
       <c r="D59" t="n">
-        <v>0.254127</v>
+        <v>0.254583</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.2612</v>
+        <v>0.27006</v>
       </c>
       <c r="C60" t="n">
-        <v>0.253659</v>
+        <v>0.252107</v>
       </c>
       <c r="D60" t="n">
-        <v>0.249604</v>
+        <v>0.252266</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.254836</v>
+        <v>0.258663</v>
       </c>
       <c r="C61" t="n">
-        <v>0.248381</v>
+        <v>0.251798</v>
       </c>
       <c r="D61" t="n">
-        <v>0.249107</v>
+        <v>0.249482</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.249422</v>
+        <v>0.249016</v>
       </c>
       <c r="C62" t="n">
-        <v>0.247804</v>
+        <v>0.248912</v>
       </c>
       <c r="D62" t="n">
-        <v>0.246938</v>
+        <v>0.251002</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.240744</v>
+        <v>0.241055</v>
       </c>
       <c r="C63" t="n">
-        <v>0.249216</v>
+        <v>0.252205</v>
       </c>
       <c r="D63" t="n">
-        <v>0.247856</v>
+        <v>0.251426</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.232346</v>
+        <v>0.236432</v>
       </c>
       <c r="C64" t="n">
-        <v>0.247174</v>
+        <v>0.248675</v>
       </c>
       <c r="D64" t="n">
-        <v>0.246691</v>
+        <v>0.248157</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.223588</v>
+        <v>0.22836</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242586</v>
+        <v>0.242656</v>
       </c>
       <c r="D65" t="n">
-        <v>0.245225</v>
+        <v>0.243121</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.21639</v>
+        <v>0.222714</v>
       </c>
       <c r="C66" t="n">
-        <v>0.245284</v>
+        <v>0.245131</v>
       </c>
       <c r="D66" t="n">
-        <v>0.275047</v>
+        <v>0.278353</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.311527</v>
+        <v>0.318747</v>
       </c>
       <c r="C67" t="n">
-        <v>0.269722</v>
+        <v>0.273768</v>
       </c>
       <c r="D67" t="n">
-        <v>0.271841</v>
+        <v>0.274443</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.309769</v>
+        <v>0.313931</v>
       </c>
       <c r="C68" t="n">
-        <v>0.270311</v>
+        <v>0.278946</v>
       </c>
       <c r="D68" t="n">
-        <v>0.268236</v>
+        <v>0.271861</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.30285</v>
+        <v>0.306935</v>
       </c>
       <c r="C69" t="n">
-        <v>0.268895</v>
+        <v>0.270748</v>
       </c>
       <c r="D69" t="n">
-        <v>0.268697</v>
+        <v>0.271823</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.304036</v>
+        <v>0.301931</v>
       </c>
       <c r="C70" t="n">
-        <v>0.26576</v>
+        <v>0.271082</v>
       </c>
       <c r="D70" t="n">
-        <v>0.262324</v>
+        <v>0.271737</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.291852</v>
+        <v>0.290866</v>
       </c>
       <c r="C71" t="n">
-        <v>0.262501</v>
+        <v>0.26821</v>
       </c>
       <c r="D71" t="n">
-        <v>0.260288</v>
+        <v>0.265851</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.286749</v>
+        <v>0.28717</v>
       </c>
       <c r="C72" t="n">
-        <v>0.263179</v>
+        <v>0.264455</v>
       </c>
       <c r="D72" t="n">
-        <v>0.260058</v>
+        <v>0.263535</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.281228</v>
+        <v>0.283312</v>
       </c>
       <c r="C73" t="n">
-        <v>0.262959</v>
+        <v>0.265037</v>
       </c>
       <c r="D73" t="n">
-        <v>0.257416</v>
+        <v>0.264999</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.272888</v>
+        <v>0.276392</v>
       </c>
       <c r="C74" t="n">
-        <v>0.260213</v>
+        <v>0.261764</v>
       </c>
       <c r="D74" t="n">
-        <v>0.254796</v>
+        <v>0.260544</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.261169</v>
+        <v>0.266798</v>
       </c>
       <c r="C75" t="n">
-        <v>0.254292</v>
+        <v>0.25708</v>
       </c>
       <c r="D75" t="n">
-        <v>0.255298</v>
+        <v>0.256482</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.258032</v>
+        <v>0.255216</v>
       </c>
       <c r="C76" t="n">
-        <v>0.256001</v>
+        <v>0.257988</v>
       </c>
       <c r="D76" t="n">
-        <v>0.258623</v>
+        <v>0.255225</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.250686</v>
+        <v>0.251374</v>
       </c>
       <c r="C77" t="n">
-        <v>0.253463</v>
+        <v>0.256706</v>
       </c>
       <c r="D77" t="n">
-        <v>0.251903</v>
+        <v>0.254457</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.241741</v>
+        <v>0.243935</v>
       </c>
       <c r="C78" t="n">
-        <v>0.250435</v>
+        <v>0.251401</v>
       </c>
       <c r="D78" t="n">
-        <v>0.256927</v>
+        <v>0.254344</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.236427</v>
+        <v>0.236076</v>
       </c>
       <c r="C79" t="n">
-        <v>0.250361</v>
+        <v>0.251545</v>
       </c>
       <c r="D79" t="n">
-        <v>0.255037</v>
+        <v>0.24909</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.224917</v>
+        <v>0.227346</v>
       </c>
       <c r="C80" t="n">
-        <v>0.247186</v>
+        <v>0.248687</v>
       </c>
       <c r="D80" t="n">
-        <v>0.281884</v>
+        <v>0.279542</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.320887</v>
+        <v>0.323453</v>
       </c>
       <c r="C81" t="n">
-        <v>0.281908</v>
+        <v>0.279342</v>
       </c>
       <c r="D81" t="n">
-        <v>0.275843</v>
+        <v>0.276496</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.313198</v>
+        <v>0.315835</v>
       </c>
       <c r="C82" t="n">
-        <v>0.275752</v>
+        <v>0.278487</v>
       </c>
       <c r="D82" t="n">
-        <v>0.273724</v>
+        <v>0.274383</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.308661</v>
+        <v>0.311393</v>
       </c>
       <c r="C83" t="n">
-        <v>0.275425</v>
+        <v>0.275684</v>
       </c>
       <c r="D83" t="n">
-        <v>0.272529</v>
+        <v>0.271398</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.29943</v>
+        <v>0.304827</v>
       </c>
       <c r="C84" t="n">
-        <v>0.269297</v>
+        <v>0.274073</v>
       </c>
       <c r="D84" t="n">
-        <v>0.269145</v>
+        <v>0.272243</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.294068</v>
+        <v>0.296905</v>
       </c>
       <c r="C85" t="n">
-        <v>0.266135</v>
+        <v>0.268577</v>
       </c>
       <c r="D85" t="n">
-        <v>0.266088</v>
+        <v>0.26768</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.293778</v>
+        <v>0.2892</v>
       </c>
       <c r="C86" t="n">
-        <v>0.268242</v>
+        <v>0.268313</v>
       </c>
       <c r="D86" t="n">
-        <v>0.264149</v>
+        <v>0.265719</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.282625</v>
+        <v>0.283077</v>
       </c>
       <c r="C87" t="n">
-        <v>0.265428</v>
+        <v>0.263054</v>
       </c>
       <c r="D87" t="n">
-        <v>0.258575</v>
+        <v>0.260588</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.273484</v>
+        <v>0.27527</v>
       </c>
       <c r="C88" t="n">
-        <v>0.259752</v>
+        <v>0.263783</v>
       </c>
       <c r="D88" t="n">
-        <v>0.260303</v>
+        <v>0.262992</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.269626</v>
+        <v>0.267859</v>
       </c>
       <c r="C89" t="n">
-        <v>0.263479</v>
+        <v>0.266031</v>
       </c>
       <c r="D89" t="n">
-        <v>0.260107</v>
+        <v>0.259933</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.261697</v>
+        <v>0.263251</v>
       </c>
       <c r="C90" t="n">
-        <v>0.257181</v>
+        <v>0.260801</v>
       </c>
       <c r="D90" t="n">
-        <v>0.256496</v>
+        <v>0.25865</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.254963</v>
+        <v>0.255279</v>
       </c>
       <c r="C91" t="n">
-        <v>0.256571</v>
+        <v>0.257609</v>
       </c>
       <c r="D91" t="n">
-        <v>0.255702</v>
+        <v>0.257915</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.24549</v>
+        <v>0.244362</v>
       </c>
       <c r="C92" t="n">
-        <v>0.253689</v>
+        <v>0.255684</v>
       </c>
       <c r="D92" t="n">
-        <v>0.251776</v>
+        <v>0.261915</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.236814</v>
+        <v>0.24056</v>
       </c>
       <c r="C93" t="n">
-        <v>0.252819</v>
+        <v>0.255773</v>
       </c>
       <c r="D93" t="n">
-        <v>0.254043</v>
+        <v>0.253838</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.22955</v>
+        <v>0.227297</v>
       </c>
       <c r="C94" t="n">
-        <v>0.251696</v>
+        <v>0.252378</v>
       </c>
       <c r="D94" t="n">
-        <v>0.280637</v>
+        <v>0.278011</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.322786</v>
+        <v>0.326101</v>
       </c>
       <c r="C95" t="n">
-        <v>0.281757</v>
+        <v>0.282865</v>
       </c>
       <c r="D95" t="n">
-        <v>0.277612</v>
+        <v>0.282437</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.319151</v>
+        <v>0.323384</v>
       </c>
       <c r="C96" t="n">
-        <v>0.281424</v>
+        <v>0.278184</v>
       </c>
       <c r="D96" t="n">
-        <v>0.277555</v>
+        <v>0.274898</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.315658</v>
+        <v>0.313869</v>
       </c>
       <c r="C97" t="n">
-        <v>0.275674</v>
+        <v>0.274133</v>
       </c>
       <c r="D97" t="n">
-        <v>0.272715</v>
+        <v>0.272192</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.304317</v>
+        <v>0.302852</v>
       </c>
       <c r="C98" t="n">
-        <v>0.272299</v>
+        <v>0.274375</v>
       </c>
       <c r="D98" t="n">
-        <v>0.268549</v>
+        <v>0.272179</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.298187</v>
+        <v>0.307238</v>
       </c>
       <c r="C99" t="n">
-        <v>0.271312</v>
+        <v>0.271427</v>
       </c>
       <c r="D99" t="n">
-        <v>0.269442</v>
+        <v>0.27271</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.292424</v>
+        <v>0.294401</v>
       </c>
       <c r="C100" t="n">
-        <v>0.267639</v>
+        <v>0.268937</v>
       </c>
       <c r="D100" t="n">
-        <v>0.265945</v>
+        <v>0.267157</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.287526</v>
+        <v>0.282526</v>
       </c>
       <c r="C101" t="n">
-        <v>0.263348</v>
+        <v>0.265472</v>
       </c>
       <c r="D101" t="n">
-        <v>0.261604</v>
+        <v>0.263415</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.279135</v>
+        <v>0.282098</v>
       </c>
       <c r="C102" t="n">
-        <v>0.261793</v>
+        <v>0.262179</v>
       </c>
       <c r="D102" t="n">
-        <v>0.261951</v>
+        <v>0.264761</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.27336</v>
+        <v>0.272195</v>
       </c>
       <c r="C103" t="n">
-        <v>0.264345</v>
+        <v>0.260791</v>
       </c>
       <c r="D103" t="n">
-        <v>0.265508</v>
+        <v>0.259105</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.26462</v>
+        <v>0.259944</v>
       </c>
       <c r="C104" t="n">
-        <v>0.261519</v>
+        <v>0.264346</v>
       </c>
       <c r="D104" t="n">
-        <v>0.256789</v>
+        <v>0.263693</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.252705</v>
+        <v>0.256661</v>
       </c>
       <c r="C105" t="n">
-        <v>0.258259</v>
+        <v>0.257836</v>
       </c>
       <c r="D105" t="n">
-        <v>0.2575</v>
+        <v>0.262083</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.249871</v>
+        <v>0.249872</v>
       </c>
       <c r="C106" t="n">
-        <v>0.257331</v>
+        <v>0.25632</v>
       </c>
       <c r="D106" t="n">
-        <v>0.253592</v>
+        <v>0.255565</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.240899</v>
+        <v>0.244449</v>
       </c>
       <c r="C107" t="n">
-        <v>0.254482</v>
+        <v>0.252289</v>
       </c>
       <c r="D107" t="n">
-        <v>0.251631</v>
+        <v>0.251909</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233072</v>
+        <v>0.232478</v>
       </c>
       <c r="C108" t="n">
-        <v>0.251017</v>
+        <v>0.254841</v>
       </c>
       <c r="D108" t="n">
-        <v>0.284381</v>
+        <v>0.286904</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.223365</v>
+        <v>0.221467</v>
       </c>
       <c r="C109" t="n">
-        <v>0.252749</v>
+        <v>0.250652</v>
       </c>
       <c r="D109" t="n">
-        <v>0.278624</v>
+        <v>0.279248</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.32482</v>
+        <v>0.326628</v>
       </c>
       <c r="C110" t="n">
-        <v>0.278752</v>
+        <v>0.278041</v>
       </c>
       <c r="D110" t="n">
-        <v>0.274193</v>
+        <v>0.27498</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.309009</v>
+        <v>0.322455</v>
       </c>
       <c r="C111" t="n">
-        <v>0.273835</v>
+        <v>0.277343</v>
       </c>
       <c r="D111" t="n">
-        <v>0.274888</v>
+        <v>0.273249</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.304354</v>
+        <v>0.314479</v>
       </c>
       <c r="C112" t="n">
-        <v>0.276169</v>
+        <v>0.274831</v>
       </c>
       <c r="D112" t="n">
-        <v>0.269262</v>
+        <v>0.271479</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.307308</v>
+        <v>0.298093</v>
       </c>
       <c r="C113" t="n">
-        <v>0.269386</v>
+        <v>0.274997</v>
       </c>
       <c r="D113" t="n">
-        <v>0.266688</v>
+        <v>0.267387</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.292938</v>
+        <v>0.295061</v>
       </c>
       <c r="C114" t="n">
-        <v>0.27439</v>
+        <v>0.271756</v>
       </c>
       <c r="D114" t="n">
-        <v>0.266959</v>
+        <v>0.26738</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.285637</v>
+        <v>0.288146</v>
       </c>
       <c r="C115" t="n">
-        <v>0.266818</v>
+        <v>0.265604</v>
       </c>
       <c r="D115" t="n">
-        <v>0.265266</v>
+        <v>0.268821</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.279882</v>
+        <v>0.282556</v>
       </c>
       <c r="C116" t="n">
-        <v>0.266156</v>
+        <v>0.262099</v>
       </c>
       <c r="D116" t="n">
-        <v>0.262743</v>
+        <v>0.263454</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.273494</v>
+        <v>0.274187</v>
       </c>
       <c r="C117" t="n">
-        <v>0.263593</v>
+        <v>0.264923</v>
       </c>
       <c r="D117" t="n">
-        <v>0.261328</v>
+        <v>0.265133</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.26442</v>
+        <v>0.270053</v>
       </c>
       <c r="C118" t="n">
-        <v>0.258917</v>
+        <v>0.26091</v>
       </c>
       <c r="D118" t="n">
-        <v>0.258992</v>
+        <v>0.261286</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.257131</v>
+        <v>0.258239</v>
       </c>
       <c r="C119" t="n">
-        <v>0.25624</v>
+        <v>0.259717</v>
       </c>
       <c r="D119" t="n">
-        <v>0.253676</v>
+        <v>0.256736</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.250746</v>
+        <v>0.257521</v>
       </c>
       <c r="C120" t="n">
-        <v>0.26476</v>
+        <v>0.255977</v>
       </c>
       <c r="D120" t="n">
-        <v>0.259852</v>
+        <v>0.268264</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.24078</v>
+        <v>0.244813</v>
       </c>
       <c r="C121" t="n">
-        <v>0.254751</v>
+        <v>0.250676</v>
       </c>
       <c r="D121" t="n">
-        <v>0.260168</v>
+        <v>0.252965</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.233296</v>
+        <v>0.234221</v>
       </c>
       <c r="C122" t="n">
-        <v>0.251413</v>
+        <v>0.256562</v>
       </c>
       <c r="D122" t="n">
-        <v>0.255488</v>
+        <v>0.252056</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.223025</v>
+        <v>0.226481</v>
       </c>
       <c r="C123" t="n">
-        <v>0.2531</v>
+        <v>0.2559</v>
       </c>
       <c r="D123" t="n">
-        <v>0.288476</v>
+        <v>0.279251</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.321079</v>
+        <v>0.324115</v>
       </c>
       <c r="C124" t="n">
-        <v>0.277302</v>
+        <v>0.283762</v>
       </c>
       <c r="D124" t="n">
-        <v>0.273486</v>
+        <v>0.277903</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.317376</v>
+        <v>0.316335</v>
       </c>
       <c r="C125" t="n">
-        <v>0.280236</v>
+        <v>0.275587</v>
       </c>
       <c r="D125" t="n">
-        <v>0.278526</v>
+        <v>0.274496</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.312896</v>
+        <v>0.307995</v>
       </c>
       <c r="C126" t="n">
-        <v>0.272102</v>
+        <v>0.274863</v>
       </c>
       <c r="D126" t="n">
-        <v>0.271517</v>
+        <v>0.269644</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.303638</v>
+        <v>0.302823</v>
       </c>
       <c r="C127" t="n">
-        <v>0.273448</v>
+        <v>0.271653</v>
       </c>
       <c r="D127" t="n">
-        <v>0.272269</v>
+        <v>0.271967</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.298248</v>
+        <v>0.295727</v>
       </c>
       <c r="C128" t="n">
-        <v>0.270046</v>
+        <v>0.271339</v>
       </c>
       <c r="D128" t="n">
-        <v>0.270391</v>
+        <v>0.27102</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.284805</v>
+        <v>0.2858</v>
       </c>
       <c r="C129" t="n">
-        <v>0.275691</v>
+        <v>0.271005</v>
       </c>
       <c r="D129" t="n">
-        <v>0.26982</v>
+        <v>0.271517</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.278937</v>
+        <v>0.279781</v>
       </c>
       <c r="C130" t="n">
-        <v>0.265623</v>
+        <v>0.269052</v>
       </c>
       <c r="D130" t="n">
-        <v>0.264641</v>
+        <v>0.266405</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.272341</v>
+        <v>0.27502</v>
       </c>
       <c r="C131" t="n">
-        <v>0.264412</v>
+        <v>0.261974</v>
       </c>
       <c r="D131" t="n">
-        <v>0.260863</v>
+        <v>0.259081</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.270557</v>
+        <v>0.265915</v>
       </c>
       <c r="C132" t="n">
-        <v>0.262912</v>
+        <v>0.25847</v>
       </c>
       <c r="D132" t="n">
-        <v>0.256999</v>
+        <v>0.256741</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.264541</v>
+        <v>0.259099</v>
       </c>
       <c r="C133" t="n">
-        <v>0.260691</v>
+        <v>0.257326</v>
       </c>
       <c r="D133" t="n">
-        <v>0.256949</v>
+        <v>0.25442</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.249084</v>
+        <v>0.255182</v>
       </c>
       <c r="C134" t="n">
-        <v>0.260988</v>
+        <v>0.258023</v>
       </c>
       <c r="D134" t="n">
-        <v>0.259158</v>
+        <v>0.258338</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.242292</v>
+        <v>0.242769</v>
       </c>
       <c r="C135" t="n">
-        <v>0.253339</v>
+        <v>0.25812</v>
       </c>
       <c r="D135" t="n">
-        <v>0.253983</v>
+        <v>0.254082</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.233831</v>
+        <v>0.237826</v>
       </c>
       <c r="C136" t="n">
-        <v>0.26207</v>
+        <v>0.25461</v>
       </c>
       <c r="D136" t="n">
-        <v>0.251368</v>
+        <v>0.2572</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226242</v>
+        <v>0.229886</v>
       </c>
       <c r="C137" t="n">
-        <v>0.249116</v>
+        <v>0.247341</v>
       </c>
       <c r="D137" t="n">
-        <v>0.282647</v>
+        <v>0.282522</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.324993</v>
+        <v>0.327248</v>
       </c>
       <c r="C138" t="n">
-        <v>0.282515</v>
+        <v>0.281673</v>
       </c>
       <c r="D138" t="n">
-        <v>0.272997</v>
+        <v>0.283477</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.317416</v>
+        <v>0.319061</v>
       </c>
       <c r="C139" t="n">
-        <v>0.27288</v>
+        <v>0.275011</v>
       </c>
       <c r="D139" t="n">
-        <v>0.277686</v>
+        <v>0.271462</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.308004</v>
+        <v>0.306875</v>
       </c>
       <c r="C140" t="n">
-        <v>0.271371</v>
+        <v>0.276491</v>
       </c>
       <c r="D140" t="n">
-        <v>0.270321</v>
+        <v>0.276548</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.300823</v>
+        <v>0.304056</v>
       </c>
       <c r="C141" t="n">
-        <v>0.272866</v>
+        <v>0.268778</v>
       </c>
       <c r="D141" t="n">
-        <v>0.269063</v>
+        <v>0.268455</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.298881</v>
+        <v>0.294813</v>
       </c>
       <c r="C142" t="n">
-        <v>0.273852</v>
+        <v>0.271072</v>
       </c>
       <c r="D142" t="n">
-        <v>0.264883</v>
+        <v>0.267275</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.288608</v>
+        <v>0.290938</v>
       </c>
       <c r="C143" t="n">
-        <v>0.272318</v>
+        <v>0.267528</v>
       </c>
       <c r="D143" t="n">
-        <v>0.266179</v>
+        <v>0.264677</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.263435</v>
+        <v>0.27943</v>
       </c>
       <c r="C2" t="n">
-        <v>0.243584</v>
+        <v>0.240387</v>
       </c>
       <c r="D2" t="n">
-        <v>0.238454</v>
+        <v>0.250331</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.258836</v>
+        <v>0.271988</v>
       </c>
       <c r="C3" t="n">
-        <v>0.240601</v>
+        <v>0.242805</v>
       </c>
       <c r="D3" t="n">
-        <v>0.244779</v>
+        <v>0.254632</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.253817</v>
+        <v>0.260963</v>
       </c>
       <c r="C4" t="n">
-        <v>0.24317</v>
+        <v>0.240339</v>
       </c>
       <c r="D4" t="n">
-        <v>0.241196</v>
+        <v>0.252089</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.240771</v>
+        <v>0.254522</v>
       </c>
       <c r="C5" t="n">
-        <v>0.238485</v>
+        <v>0.234439</v>
       </c>
       <c r="D5" t="n">
-        <v>0.245174</v>
+        <v>0.247385</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.23353</v>
+        <v>0.245715</v>
       </c>
       <c r="C6" t="n">
-        <v>0.235107</v>
+        <v>0.238841</v>
       </c>
       <c r="D6" t="n">
-        <v>0.247349</v>
+        <v>0.246338</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.230133</v>
+        <v>0.242182</v>
       </c>
       <c r="C7" t="n">
-        <v>0.237982</v>
+        <v>0.230662</v>
       </c>
       <c r="D7" t="n">
-        <v>0.236045</v>
+        <v>0.246708</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.226178</v>
+        <v>0.234657</v>
       </c>
       <c r="C8" t="n">
-        <v>0.239543</v>
+        <v>0.233742</v>
       </c>
       <c r="D8" t="n">
-        <v>0.236606</v>
+        <v>0.241301</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.209846</v>
+        <v>0.219724</v>
       </c>
       <c r="C9" t="n">
-        <v>0.235313</v>
+        <v>0.233493</v>
       </c>
       <c r="D9" t="n">
-        <v>0.246965</v>
+        <v>0.249986</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.297835</v>
+        <v>0.309373</v>
       </c>
       <c r="C10" t="n">
-        <v>0.248802</v>
+        <v>0.246599</v>
       </c>
       <c r="D10" t="n">
-        <v>0.246555</v>
+        <v>0.251611</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.29104</v>
+        <v>0.303657</v>
       </c>
       <c r="C11" t="n">
-        <v>0.251306</v>
+        <v>0.240995</v>
       </c>
       <c r="D11" t="n">
-        <v>0.246915</v>
+        <v>0.248337</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.283316</v>
+        <v>0.299714</v>
       </c>
       <c r="C12" t="n">
-        <v>0.248912</v>
+        <v>0.245889</v>
       </c>
       <c r="D12" t="n">
-        <v>0.243268</v>
+        <v>0.25134</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.276652</v>
+        <v>0.293585</v>
       </c>
       <c r="C13" t="n">
-        <v>0.245487</v>
+        <v>0.242997</v>
       </c>
       <c r="D13" t="n">
-        <v>0.246387</v>
+        <v>0.250748</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.274933</v>
+        <v>0.290198</v>
       </c>
       <c r="C14" t="n">
-        <v>0.247938</v>
+        <v>0.240713</v>
       </c>
       <c r="D14" t="n">
-        <v>0.239195</v>
+        <v>0.245989</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.265035</v>
+        <v>0.281255</v>
       </c>
       <c r="C15" t="n">
-        <v>0.242181</v>
+        <v>0.238938</v>
       </c>
       <c r="D15" t="n">
-        <v>0.241857</v>
+        <v>0.248517</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.266961</v>
+        <v>0.27619</v>
       </c>
       <c r="C16" t="n">
-        <v>0.240558</v>
+        <v>0.237814</v>
       </c>
       <c r="D16" t="n">
-        <v>0.243663</v>
+        <v>0.244478</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.255215</v>
+        <v>0.269152</v>
       </c>
       <c r="C17" t="n">
-        <v>0.243694</v>
+        <v>0.240231</v>
       </c>
       <c r="D17" t="n">
-        <v>0.250966</v>
+        <v>0.24697</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.249449</v>
+        <v>0.265596</v>
       </c>
       <c r="C18" t="n">
-        <v>0.240311</v>
+        <v>0.238764</v>
       </c>
       <c r="D18" t="n">
-        <v>0.240472</v>
+        <v>0.246648</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.245257</v>
+        <v>0.256848</v>
       </c>
       <c r="C19" t="n">
-        <v>0.241068</v>
+        <v>0.232077</v>
       </c>
       <c r="D19" t="n">
-        <v>0.245642</v>
+        <v>0.250557</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.236658</v>
+        <v>0.248167</v>
       </c>
       <c r="C20" t="n">
-        <v>0.24005</v>
+        <v>0.233383</v>
       </c>
       <c r="D20" t="n">
-        <v>0.239729</v>
+        <v>0.250739</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.228049</v>
+        <v>0.242231</v>
       </c>
       <c r="C21" t="n">
-        <v>0.238165</v>
+        <v>0.23241</v>
       </c>
       <c r="D21" t="n">
-        <v>0.237314</v>
+        <v>0.24636</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.222526</v>
+        <v>0.233227</v>
       </c>
       <c r="C22" t="n">
-        <v>0.234104</v>
+        <v>0.232721</v>
       </c>
       <c r="D22" t="n">
-        <v>0.236305</v>
+        <v>0.244165</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.211994</v>
+        <v>0.224989</v>
       </c>
       <c r="C23" t="n">
-        <v>0.234683</v>
+        <v>0.231695</v>
       </c>
       <c r="D23" t="n">
-        <v>0.251768</v>
+        <v>0.258999</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.296121</v>
+        <v>0.308636</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254041</v>
+        <v>0.247973</v>
       </c>
       <c r="D24" t="n">
-        <v>0.251961</v>
+        <v>0.258592</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.293698</v>
+        <v>0.303923</v>
       </c>
       <c r="C25" t="n">
-        <v>0.253009</v>
+        <v>0.250885</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25043</v>
+        <v>0.258544</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.290715</v>
+        <v>0.298089</v>
       </c>
       <c r="C26" t="n">
-        <v>0.24962</v>
+        <v>0.250666</v>
       </c>
       <c r="D26" t="n">
-        <v>0.251266</v>
+        <v>0.257622</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.283655</v>
+        <v>0.292446</v>
       </c>
       <c r="C27" t="n">
-        <v>0.251279</v>
+        <v>0.247419</v>
       </c>
       <c r="D27" t="n">
-        <v>0.24904</v>
+        <v>0.254782</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.277572</v>
+        <v>0.285575</v>
       </c>
       <c r="C28" t="n">
-        <v>0.252259</v>
+        <v>0.246314</v>
       </c>
       <c r="D28" t="n">
-        <v>0.25086</v>
+        <v>0.254028</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.269363</v>
+        <v>0.279692</v>
       </c>
       <c r="C29" t="n">
-        <v>0.248795</v>
+        <v>0.242188</v>
       </c>
       <c r="D29" t="n">
-        <v>0.247865</v>
+        <v>0.251935</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.268373</v>
+        <v>0.274646</v>
       </c>
       <c r="C30" t="n">
-        <v>0.246</v>
+        <v>0.241306</v>
       </c>
       <c r="D30" t="n">
-        <v>0.246397</v>
+        <v>0.252465</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.261423</v>
+        <v>0.269134</v>
       </c>
       <c r="C31" t="n">
-        <v>0.242708</v>
+        <v>0.241297</v>
       </c>
       <c r="D31" t="n">
-        <v>0.244875</v>
+        <v>0.252355</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.255404</v>
+        <v>0.262994</v>
       </c>
       <c r="C32" t="n">
-        <v>0.24496</v>
+        <v>0.238845</v>
       </c>
       <c r="D32" t="n">
-        <v>0.241207</v>
+        <v>0.248953</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.247299</v>
+        <v>0.257303</v>
       </c>
       <c r="C33" t="n">
-        <v>0.24473</v>
+        <v>0.236148</v>
       </c>
       <c r="D33" t="n">
-        <v>0.237636</v>
+        <v>0.248638</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.24069</v>
+        <v>0.254884</v>
       </c>
       <c r="C34" t="n">
-        <v>0.239672</v>
+        <v>0.234599</v>
       </c>
       <c r="D34" t="n">
-        <v>0.241634</v>
+        <v>0.244475</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.23324</v>
+        <v>0.241811</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242984</v>
+        <v>0.237715</v>
       </c>
       <c r="D35" t="n">
-        <v>0.238275</v>
+        <v>0.245577</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.22372</v>
+        <v>0.23836</v>
       </c>
       <c r="C36" t="n">
-        <v>0.242505</v>
+        <v>0.233159</v>
       </c>
       <c r="D36" t="n">
-        <v>0.24099</v>
+        <v>0.248038</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.216389</v>
+        <v>0.224589</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241822</v>
+        <v>0.232636</v>
       </c>
       <c r="D37" t="n">
-        <v>0.260687</v>
+        <v>0.263846</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.305602</v>
+        <v>0.311471</v>
       </c>
       <c r="C38" t="n">
-        <v>0.260265</v>
+        <v>0.254116</v>
       </c>
       <c r="D38" t="n">
-        <v>0.258963</v>
+        <v>0.26227</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.299445</v>
+        <v>0.30538</v>
       </c>
       <c r="C39" t="n">
-        <v>0.255866</v>
+        <v>0.248044</v>
       </c>
       <c r="D39" t="n">
-        <v>0.255028</v>
+        <v>0.26031</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.295128</v>
+        <v>0.304722</v>
       </c>
       <c r="C40" t="n">
-        <v>0.257498</v>
+        <v>0.252918</v>
       </c>
       <c r="D40" t="n">
-        <v>0.255233</v>
+        <v>0.260832</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.286748</v>
+        <v>0.297852</v>
       </c>
       <c r="C41" t="n">
-        <v>0.255665</v>
+        <v>0.246219</v>
       </c>
       <c r="D41" t="n">
-        <v>0.251575</v>
+        <v>0.259504</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.284293</v>
+        <v>0.293156</v>
       </c>
       <c r="C42" t="n">
-        <v>0.252747</v>
+        <v>0.247057</v>
       </c>
       <c r="D42" t="n">
-        <v>0.251958</v>
+        <v>0.257208</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.275031</v>
+        <v>0.288592</v>
       </c>
       <c r="C43" t="n">
-        <v>0.251232</v>
+        <v>0.243252</v>
       </c>
       <c r="D43" t="n">
-        <v>0.24837</v>
+        <v>0.253682</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.270759</v>
+        <v>0.276484</v>
       </c>
       <c r="C44" t="n">
-        <v>0.251752</v>
+        <v>0.243649</v>
       </c>
       <c r="D44" t="n">
-        <v>0.246434</v>
+        <v>0.258844</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.262295</v>
+        <v>0.272294</v>
       </c>
       <c r="C45" t="n">
-        <v>0.250572</v>
+        <v>0.245049</v>
       </c>
       <c r="D45" t="n">
-        <v>0.24939</v>
+        <v>0.254799</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.258826</v>
+        <v>0.270693</v>
       </c>
       <c r="C46" t="n">
-        <v>0.246198</v>
+        <v>0.242876</v>
       </c>
       <c r="D46" t="n">
-        <v>0.246577</v>
+        <v>0.252657</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.250916</v>
+        <v>0.268005</v>
       </c>
       <c r="C47" t="n">
-        <v>0.249767</v>
+        <v>0.238513</v>
       </c>
       <c r="D47" t="n">
-        <v>0.245906</v>
+        <v>0.255741</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.243341</v>
+        <v>0.253909</v>
       </c>
       <c r="C48" t="n">
-        <v>0.248988</v>
+        <v>0.243908</v>
       </c>
       <c r="D48" t="n">
-        <v>0.24458</v>
+        <v>0.249078</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.236192</v>
+        <v>0.24636</v>
       </c>
       <c r="C49" t="n">
-        <v>0.242527</v>
+        <v>0.238666</v>
       </c>
       <c r="D49" t="n">
-        <v>0.242986</v>
+        <v>0.251353</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.231479</v>
+        <v>0.241744</v>
       </c>
       <c r="C50" t="n">
-        <v>0.23877</v>
+        <v>0.236033</v>
       </c>
       <c r="D50" t="n">
-        <v>0.245764</v>
+        <v>0.249492</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.222921</v>
+        <v>0.232889</v>
       </c>
       <c r="C51" t="n">
-        <v>0.238906</v>
+        <v>0.233606</v>
       </c>
       <c r="D51" t="n">
-        <v>0.265902</v>
+        <v>0.272345</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.211919</v>
+        <v>0.222814</v>
       </c>
       <c r="C52" t="n">
-        <v>0.238609</v>
+        <v>0.232512</v>
       </c>
       <c r="D52" t="n">
-        <v>0.265423</v>
+        <v>0.271183</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.304156</v>
+        <v>0.315118</v>
       </c>
       <c r="C53" t="n">
-        <v>0.263128</v>
+        <v>0.25985</v>
       </c>
       <c r="D53" t="n">
-        <v>0.259986</v>
+        <v>0.267825</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.297791</v>
+        <v>0.310838</v>
       </c>
       <c r="C54" t="n">
-        <v>0.262896</v>
+        <v>0.256891</v>
       </c>
       <c r="D54" t="n">
-        <v>0.25972</v>
+        <v>0.264989</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.29262</v>
+        <v>0.306339</v>
       </c>
       <c r="C55" t="n">
-        <v>0.262142</v>
+        <v>0.256501</v>
       </c>
       <c r="D55" t="n">
-        <v>0.259922</v>
+        <v>0.263576</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.289803</v>
+        <v>0.297994</v>
       </c>
       <c r="C56" t="n">
-        <v>0.258796</v>
+        <v>0.250768</v>
       </c>
       <c r="D56" t="n">
-        <v>0.256074</v>
+        <v>0.265018</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.282511</v>
+        <v>0.29321</v>
       </c>
       <c r="C57" t="n">
-        <v>0.259707</v>
+        <v>0.254031</v>
       </c>
       <c r="D57" t="n">
-        <v>0.25336</v>
+        <v>0.261171</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.275177</v>
+        <v>0.283057</v>
       </c>
       <c r="C58" t="n">
-        <v>0.256669</v>
+        <v>0.249274</v>
       </c>
       <c r="D58" t="n">
-        <v>0.254941</v>
+        <v>0.258051</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.269707</v>
+        <v>0.280235</v>
       </c>
       <c r="C59" t="n">
-        <v>0.256456</v>
+        <v>0.247757</v>
       </c>
       <c r="D59" t="n">
-        <v>0.254583</v>
+        <v>0.254889</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.27006</v>
+        <v>0.282058</v>
       </c>
       <c r="C60" t="n">
-        <v>0.252107</v>
+        <v>0.248917</v>
       </c>
       <c r="D60" t="n">
-        <v>0.252266</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.258663</v>
+        <v>0.267978</v>
       </c>
       <c r="C61" t="n">
-        <v>0.251798</v>
+        <v>0.245338</v>
       </c>
       <c r="D61" t="n">
-        <v>0.249482</v>
+        <v>0.256584</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.249016</v>
+        <v>0.261532</v>
       </c>
       <c r="C62" t="n">
-        <v>0.248912</v>
+        <v>0.243769</v>
       </c>
       <c r="D62" t="n">
-        <v>0.251002</v>
+        <v>0.255013</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.241055</v>
+        <v>0.25394</v>
       </c>
       <c r="C63" t="n">
-        <v>0.252205</v>
+        <v>0.245615</v>
       </c>
       <c r="D63" t="n">
-        <v>0.251426</v>
+        <v>0.253307</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.236432</v>
+        <v>0.246168</v>
       </c>
       <c r="C64" t="n">
-        <v>0.248675</v>
+        <v>0.240485</v>
       </c>
       <c r="D64" t="n">
-        <v>0.248157</v>
+        <v>0.253882</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.22836</v>
+        <v>0.237741</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242656</v>
+        <v>0.239188</v>
       </c>
       <c r="D65" t="n">
-        <v>0.243121</v>
+        <v>0.253593</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.222714</v>
+        <v>0.226968</v>
       </c>
       <c r="C66" t="n">
-        <v>0.245131</v>
+        <v>0.237902</v>
       </c>
       <c r="D66" t="n">
-        <v>0.278353</v>
+        <v>0.280721</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.318747</v>
+        <v>0.32505</v>
       </c>
       <c r="C67" t="n">
-        <v>0.273768</v>
+        <v>0.264773</v>
       </c>
       <c r="D67" t="n">
-        <v>0.274443</v>
+        <v>0.277058</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.313931</v>
+        <v>0.321045</v>
       </c>
       <c r="C68" t="n">
-        <v>0.278946</v>
+        <v>0.264231</v>
       </c>
       <c r="D68" t="n">
-        <v>0.271861</v>
+        <v>0.274423</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.306935</v>
+        <v>0.313783</v>
       </c>
       <c r="C69" t="n">
-        <v>0.270748</v>
+        <v>0.263255</v>
       </c>
       <c r="D69" t="n">
-        <v>0.271823</v>
+        <v>0.270441</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.301931</v>
+        <v>0.306312</v>
       </c>
       <c r="C70" t="n">
-        <v>0.271082</v>
+        <v>0.26422</v>
       </c>
       <c r="D70" t="n">
-        <v>0.271737</v>
+        <v>0.270598</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.290866</v>
+        <v>0.303322</v>
       </c>
       <c r="C71" t="n">
-        <v>0.26821</v>
+        <v>0.258795</v>
       </c>
       <c r="D71" t="n">
-        <v>0.265851</v>
+        <v>0.269079</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.28717</v>
+        <v>0.294365</v>
       </c>
       <c r="C72" t="n">
-        <v>0.264455</v>
+        <v>0.255962</v>
       </c>
       <c r="D72" t="n">
-        <v>0.263535</v>
+        <v>0.266453</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.283312</v>
+        <v>0.287781</v>
       </c>
       <c r="C73" t="n">
-        <v>0.265037</v>
+        <v>0.262808</v>
       </c>
       <c r="D73" t="n">
-        <v>0.264999</v>
+        <v>0.262065</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.276392</v>
+        <v>0.282671</v>
       </c>
       <c r="C74" t="n">
-        <v>0.261764</v>
+        <v>0.256009</v>
       </c>
       <c r="D74" t="n">
-        <v>0.260544</v>
+        <v>0.263393</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.266798</v>
+        <v>0.278796</v>
       </c>
       <c r="C75" t="n">
-        <v>0.25708</v>
+        <v>0.254133</v>
       </c>
       <c r="D75" t="n">
-        <v>0.256482</v>
+        <v>0.26254</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.255216</v>
+        <v>0.270929</v>
       </c>
       <c r="C76" t="n">
-        <v>0.257988</v>
+        <v>0.249773</v>
       </c>
       <c r="D76" t="n">
-        <v>0.255225</v>
+        <v>0.26234</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.251374</v>
+        <v>0.257744</v>
       </c>
       <c r="C77" t="n">
-        <v>0.256706</v>
+        <v>0.24976</v>
       </c>
       <c r="D77" t="n">
-        <v>0.254457</v>
+        <v>0.260052</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.243935</v>
+        <v>0.254866</v>
       </c>
       <c r="C78" t="n">
-        <v>0.251401</v>
+        <v>0.24733</v>
       </c>
       <c r="D78" t="n">
-        <v>0.254344</v>
+        <v>0.257166</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.236076</v>
+        <v>0.247152</v>
       </c>
       <c r="C79" t="n">
-        <v>0.251545</v>
+        <v>0.245866</v>
       </c>
       <c r="D79" t="n">
-        <v>0.24909</v>
+        <v>0.257593</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227346</v>
+        <v>0.234879</v>
       </c>
       <c r="C80" t="n">
-        <v>0.248687</v>
+        <v>0.242254</v>
       </c>
       <c r="D80" t="n">
-        <v>0.279542</v>
+        <v>0.285893</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.323453</v>
+        <v>0.331355</v>
       </c>
       <c r="C81" t="n">
-        <v>0.279342</v>
+        <v>0.275</v>
       </c>
       <c r="D81" t="n">
-        <v>0.276496</v>
+        <v>0.283635</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.315835</v>
+        <v>0.322299</v>
       </c>
       <c r="C82" t="n">
-        <v>0.278487</v>
+        <v>0.27159</v>
       </c>
       <c r="D82" t="n">
-        <v>0.274383</v>
+        <v>0.279592</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.311393</v>
+        <v>0.3196</v>
       </c>
       <c r="C83" t="n">
-        <v>0.275684</v>
+        <v>0.266282</v>
       </c>
       <c r="D83" t="n">
-        <v>0.271398</v>
+        <v>0.278944</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.304827</v>
+        <v>0.313748</v>
       </c>
       <c r="C84" t="n">
-        <v>0.274073</v>
+        <v>0.26575</v>
       </c>
       <c r="D84" t="n">
-        <v>0.272243</v>
+        <v>0.278198</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.296905</v>
+        <v>0.307201</v>
       </c>
       <c r="C85" t="n">
-        <v>0.268577</v>
+        <v>0.265896</v>
       </c>
       <c r="D85" t="n">
-        <v>0.26768</v>
+        <v>0.2783</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.2892</v>
+        <v>0.304799</v>
       </c>
       <c r="C86" t="n">
-        <v>0.268313</v>
+        <v>0.262899</v>
       </c>
       <c r="D86" t="n">
-        <v>0.265719</v>
+        <v>0.272318</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.283077</v>
+        <v>0.292478</v>
       </c>
       <c r="C87" t="n">
-        <v>0.263054</v>
+        <v>0.260162</v>
       </c>
       <c r="D87" t="n">
-        <v>0.260588</v>
+        <v>0.274612</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.27527</v>
+        <v>0.285629</v>
       </c>
       <c r="C88" t="n">
-        <v>0.263783</v>
+        <v>0.258575</v>
       </c>
       <c r="D88" t="n">
-        <v>0.262992</v>
+        <v>0.26626</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.267859</v>
+        <v>0.278641</v>
       </c>
       <c r="C89" t="n">
-        <v>0.266031</v>
+        <v>0.25878</v>
       </c>
       <c r="D89" t="n">
-        <v>0.259933</v>
+        <v>0.262653</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.263251</v>
+        <v>0.269992</v>
       </c>
       <c r="C90" t="n">
-        <v>0.260801</v>
+        <v>0.254435</v>
       </c>
       <c r="D90" t="n">
-        <v>0.25865</v>
+        <v>0.262717</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.255279</v>
+        <v>0.266251</v>
       </c>
       <c r="C91" t="n">
-        <v>0.257609</v>
+        <v>0.252727</v>
       </c>
       <c r="D91" t="n">
-        <v>0.257915</v>
+        <v>0.262699</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.244362</v>
+        <v>0.260618</v>
       </c>
       <c r="C92" t="n">
-        <v>0.255684</v>
+        <v>0.249331</v>
       </c>
       <c r="D92" t="n">
-        <v>0.261915</v>
+        <v>0.261759</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.24056</v>
+        <v>0.245489</v>
       </c>
       <c r="C93" t="n">
-        <v>0.255773</v>
+        <v>0.245494</v>
       </c>
       <c r="D93" t="n">
-        <v>0.253838</v>
+        <v>0.263838</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.227297</v>
+        <v>0.242448</v>
       </c>
       <c r="C94" t="n">
-        <v>0.252378</v>
+        <v>0.248773</v>
       </c>
       <c r="D94" t="n">
-        <v>0.278011</v>
+        <v>0.288997</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.326101</v>
+        <v>0.336175</v>
       </c>
       <c r="C95" t="n">
-        <v>0.282865</v>
+        <v>0.281145</v>
       </c>
       <c r="D95" t="n">
-        <v>0.282437</v>
+        <v>0.282622</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.323384</v>
+        <v>0.328133</v>
       </c>
       <c r="C96" t="n">
-        <v>0.278184</v>
+        <v>0.270759</v>
       </c>
       <c r="D96" t="n">
-        <v>0.274898</v>
+        <v>0.287318</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.313869</v>
+        <v>0.32429</v>
       </c>
       <c r="C97" t="n">
-        <v>0.274133</v>
+        <v>0.270988</v>
       </c>
       <c r="D97" t="n">
-        <v>0.272192</v>
+        <v>0.279005</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.302852</v>
+        <v>0.318596</v>
       </c>
       <c r="C98" t="n">
-        <v>0.274375</v>
+        <v>0.269856</v>
       </c>
       <c r="D98" t="n">
-        <v>0.272179</v>
+        <v>0.279743</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.307238</v>
+        <v>0.309888</v>
       </c>
       <c r="C99" t="n">
-        <v>0.271427</v>
+        <v>0.265737</v>
       </c>
       <c r="D99" t="n">
-        <v>0.27271</v>
+        <v>0.273614</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.294401</v>
+        <v>0.304686</v>
       </c>
       <c r="C100" t="n">
-        <v>0.268937</v>
+        <v>0.263333</v>
       </c>
       <c r="D100" t="n">
-        <v>0.267157</v>
+        <v>0.272291</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.282526</v>
+        <v>0.295891</v>
       </c>
       <c r="C101" t="n">
-        <v>0.265472</v>
+        <v>0.260931</v>
       </c>
       <c r="D101" t="n">
-        <v>0.263415</v>
+        <v>0.26854</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.282098</v>
+        <v>0.291483</v>
       </c>
       <c r="C102" t="n">
-        <v>0.262179</v>
+        <v>0.261164</v>
       </c>
       <c r="D102" t="n">
-        <v>0.264761</v>
+        <v>0.272025</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.272195</v>
+        <v>0.282032</v>
       </c>
       <c r="C103" t="n">
-        <v>0.260791</v>
+        <v>0.257722</v>
       </c>
       <c r="D103" t="n">
-        <v>0.259105</v>
+        <v>0.269903</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.259944</v>
+        <v>0.274734</v>
       </c>
       <c r="C104" t="n">
-        <v>0.264346</v>
+        <v>0.255277</v>
       </c>
       <c r="D104" t="n">
-        <v>0.263693</v>
+        <v>0.266356</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.256661</v>
+        <v>0.27091</v>
       </c>
       <c r="C105" t="n">
-        <v>0.257836</v>
+        <v>0.253429</v>
       </c>
       <c r="D105" t="n">
-        <v>0.262083</v>
+        <v>0.263239</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.249872</v>
+        <v>0.257755</v>
       </c>
       <c r="C106" t="n">
-        <v>0.25632</v>
+        <v>0.250447</v>
       </c>
       <c r="D106" t="n">
-        <v>0.255565</v>
+        <v>0.262797</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.244449</v>
+        <v>0.25472</v>
       </c>
       <c r="C107" t="n">
-        <v>0.252289</v>
+        <v>0.248548</v>
       </c>
       <c r="D107" t="n">
-        <v>0.251909</v>
+        <v>0.261798</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.232478</v>
+        <v>0.241197</v>
       </c>
       <c r="C108" t="n">
-        <v>0.254841</v>
+        <v>0.248876</v>
       </c>
       <c r="D108" t="n">
-        <v>0.286904</v>
+        <v>0.29028</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.221467</v>
+        <v>0.231943</v>
       </c>
       <c r="C109" t="n">
-        <v>0.250652</v>
+        <v>0.246227</v>
       </c>
       <c r="D109" t="n">
-        <v>0.279248</v>
+        <v>0.286948</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.326628</v>
+        <v>0.328116</v>
       </c>
       <c r="C110" t="n">
-        <v>0.278041</v>
+        <v>0.277068</v>
       </c>
       <c r="D110" t="n">
-        <v>0.27498</v>
+        <v>0.286363</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.322455</v>
+        <v>0.322582</v>
       </c>
       <c r="C111" t="n">
-        <v>0.277343</v>
+        <v>0.272749</v>
       </c>
       <c r="D111" t="n">
-        <v>0.273249</v>
+        <v>0.277596</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.314479</v>
+        <v>0.315043</v>
       </c>
       <c r="C112" t="n">
-        <v>0.274831</v>
+        <v>0.270231</v>
       </c>
       <c r="D112" t="n">
-        <v>0.271479</v>
+        <v>0.279325</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.298093</v>
+        <v>0.315473</v>
       </c>
       <c r="C113" t="n">
-        <v>0.274997</v>
+        <v>0.265038</v>
       </c>
       <c r="D113" t="n">
-        <v>0.267387</v>
+        <v>0.278102</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.295061</v>
+        <v>0.303421</v>
       </c>
       <c r="C114" t="n">
-        <v>0.271756</v>
+        <v>0.269997</v>
       </c>
       <c r="D114" t="n">
-        <v>0.26738</v>
+        <v>0.273066</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.288146</v>
+        <v>0.298685</v>
       </c>
       <c r="C115" t="n">
-        <v>0.265604</v>
+        <v>0.262183</v>
       </c>
       <c r="D115" t="n">
-        <v>0.268821</v>
+        <v>0.273769</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.282556</v>
+        <v>0.290592</v>
       </c>
       <c r="C116" t="n">
-        <v>0.262099</v>
+        <v>0.259816</v>
       </c>
       <c r="D116" t="n">
-        <v>0.263454</v>
+        <v>0.267624</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.274187</v>
+        <v>0.28439</v>
       </c>
       <c r="C117" t="n">
-        <v>0.264923</v>
+        <v>0.256703</v>
       </c>
       <c r="D117" t="n">
-        <v>0.265133</v>
+        <v>0.267149</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.270053</v>
+        <v>0.276691</v>
       </c>
       <c r="C118" t="n">
-        <v>0.26091</v>
+        <v>0.256613</v>
       </c>
       <c r="D118" t="n">
-        <v>0.261286</v>
+        <v>0.2655</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.258239</v>
+        <v>0.271247</v>
       </c>
       <c r="C119" t="n">
-        <v>0.259717</v>
+        <v>0.254163</v>
       </c>
       <c r="D119" t="n">
-        <v>0.256736</v>
+        <v>0.263342</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.257521</v>
+        <v>0.258671</v>
       </c>
       <c r="C120" t="n">
-        <v>0.255977</v>
+        <v>0.254623</v>
       </c>
       <c r="D120" t="n">
-        <v>0.268264</v>
+        <v>0.263165</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244813</v>
+        <v>0.253961</v>
       </c>
       <c r="C121" t="n">
-        <v>0.250676</v>
+        <v>0.248098</v>
       </c>
       <c r="D121" t="n">
-        <v>0.252965</v>
+        <v>0.258157</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.234221</v>
+        <v>0.242907</v>
       </c>
       <c r="C122" t="n">
-        <v>0.256562</v>
+        <v>0.248208</v>
       </c>
       <c r="D122" t="n">
-        <v>0.252056</v>
+        <v>0.265123</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.226481</v>
+        <v>0.236375</v>
       </c>
       <c r="C123" t="n">
-        <v>0.2559</v>
+        <v>0.253705</v>
       </c>
       <c r="D123" t="n">
-        <v>0.279251</v>
+        <v>0.285673</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.324115</v>
+        <v>0.332701</v>
       </c>
       <c r="C124" t="n">
-        <v>0.283762</v>
+        <v>0.27421</v>
       </c>
       <c r="D124" t="n">
-        <v>0.277903</v>
+        <v>0.286894</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.316335</v>
+        <v>0.328455</v>
       </c>
       <c r="C125" t="n">
-        <v>0.275587</v>
+        <v>0.274942</v>
       </c>
       <c r="D125" t="n">
-        <v>0.274496</v>
+        <v>0.28305</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.307995</v>
+        <v>0.320001</v>
       </c>
       <c r="C126" t="n">
-        <v>0.274863</v>
+        <v>0.270333</v>
       </c>
       <c r="D126" t="n">
-        <v>0.269644</v>
+        <v>0.279194</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.302823</v>
+        <v>0.314571</v>
       </c>
       <c r="C127" t="n">
-        <v>0.271653</v>
+        <v>0.266535</v>
       </c>
       <c r="D127" t="n">
-        <v>0.271967</v>
+        <v>0.282359</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.295727</v>
+        <v>0.309538</v>
       </c>
       <c r="C128" t="n">
-        <v>0.271339</v>
+        <v>0.270095</v>
       </c>
       <c r="D128" t="n">
-        <v>0.27102</v>
+        <v>0.28709</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.2858</v>
+        <v>0.300415</v>
       </c>
       <c r="C129" t="n">
-        <v>0.271005</v>
+        <v>0.263426</v>
       </c>
       <c r="D129" t="n">
-        <v>0.271517</v>
+        <v>0.277637</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.279781</v>
+        <v>0.300856</v>
       </c>
       <c r="C130" t="n">
-        <v>0.269052</v>
+        <v>0.258794</v>
       </c>
       <c r="D130" t="n">
-        <v>0.266405</v>
+        <v>0.269918</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.27502</v>
+        <v>0.282593</v>
       </c>
       <c r="C131" t="n">
-        <v>0.261974</v>
+        <v>0.259894</v>
       </c>
       <c r="D131" t="n">
-        <v>0.259081</v>
+        <v>0.277126</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.265915</v>
+        <v>0.27886</v>
       </c>
       <c r="C132" t="n">
-        <v>0.25847</v>
+        <v>0.256648</v>
       </c>
       <c r="D132" t="n">
-        <v>0.256741</v>
+        <v>0.265514</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.259099</v>
+        <v>0.272871</v>
       </c>
       <c r="C133" t="n">
-        <v>0.257326</v>
+        <v>0.258827</v>
       </c>
       <c r="D133" t="n">
-        <v>0.25442</v>
+        <v>0.261947</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.255182</v>
+        <v>0.259485</v>
       </c>
       <c r="C134" t="n">
-        <v>0.258023</v>
+        <v>0.253479</v>
       </c>
       <c r="D134" t="n">
-        <v>0.258338</v>
+        <v>0.261326</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.242769</v>
+        <v>0.248497</v>
       </c>
       <c r="C135" t="n">
-        <v>0.25812</v>
+        <v>0.253195</v>
       </c>
       <c r="D135" t="n">
-        <v>0.254082</v>
+        <v>0.258322</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.237826</v>
+        <v>0.246723</v>
       </c>
       <c r="C136" t="n">
-        <v>0.25461</v>
+        <v>0.251386</v>
       </c>
       <c r="D136" t="n">
-        <v>0.2572</v>
+        <v>0.260719</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.229886</v>
+        <v>0.235909</v>
       </c>
       <c r="C137" t="n">
-        <v>0.247341</v>
+        <v>0.252103</v>
       </c>
       <c r="D137" t="n">
-        <v>0.282522</v>
+        <v>0.291121</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.327248</v>
+        <v>0.328816</v>
       </c>
       <c r="C138" t="n">
-        <v>0.281673</v>
+        <v>0.280726</v>
       </c>
       <c r="D138" t="n">
-        <v>0.283477</v>
+        <v>0.282307</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.319061</v>
+        <v>0.332969</v>
       </c>
       <c r="C139" t="n">
-        <v>0.275011</v>
+        <v>0.270448</v>
       </c>
       <c r="D139" t="n">
-        <v>0.271462</v>
+        <v>0.283821</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.306875</v>
+        <v>0.32744</v>
       </c>
       <c r="C140" t="n">
-        <v>0.276491</v>
+        <v>0.274139</v>
       </c>
       <c r="D140" t="n">
-        <v>0.276548</v>
+        <v>0.281646</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.304056</v>
+        <v>0.313273</v>
       </c>
       <c r="C141" t="n">
-        <v>0.268778</v>
+        <v>0.270812</v>
       </c>
       <c r="D141" t="n">
-        <v>0.268455</v>
+        <v>0.275403</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.294813</v>
+        <v>0.306234</v>
       </c>
       <c r="C142" t="n">
-        <v>0.271072</v>
+        <v>0.268087</v>
       </c>
       <c r="D142" t="n">
-        <v>0.267275</v>
+        <v>0.270999</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.290938</v>
+        <v>0.303893</v>
       </c>
       <c r="C143" t="n">
-        <v>0.267528</v>
+        <v>0.26375</v>
       </c>
       <c r="D143" t="n">
-        <v>0.264677</v>
+        <v>0.277145</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.27943</v>
+        <v>0.267781</v>
       </c>
       <c r="C2" t="n">
-        <v>0.240387</v>
+        <v>0.237474</v>
       </c>
       <c r="D2" t="n">
-        <v>0.250331</v>
+        <v>0.243715</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.271988</v>
+        <v>0.267045</v>
       </c>
       <c r="C3" t="n">
-        <v>0.242805</v>
+        <v>0.242272</v>
       </c>
       <c r="D3" t="n">
-        <v>0.254632</v>
+        <v>0.250851</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.260963</v>
+        <v>0.258457</v>
       </c>
       <c r="C4" t="n">
-        <v>0.240339</v>
+        <v>0.236796</v>
       </c>
       <c r="D4" t="n">
-        <v>0.252089</v>
+        <v>0.247523</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.254522</v>
+        <v>0.257078</v>
       </c>
       <c r="C5" t="n">
-        <v>0.234439</v>
+        <v>0.237439</v>
       </c>
       <c r="D5" t="n">
-        <v>0.247385</v>
+        <v>0.249327</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.245715</v>
+        <v>0.246777</v>
       </c>
       <c r="C6" t="n">
-        <v>0.238841</v>
+        <v>0.236201</v>
       </c>
       <c r="D6" t="n">
-        <v>0.246338</v>
+        <v>0.247718</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.242182</v>
+        <v>0.241302</v>
       </c>
       <c r="C7" t="n">
-        <v>0.230662</v>
+        <v>0.23074</v>
       </c>
       <c r="D7" t="n">
-        <v>0.246708</v>
+        <v>0.24048</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.234657</v>
+        <v>0.234326</v>
       </c>
       <c r="C8" t="n">
-        <v>0.233742</v>
+        <v>0.235715</v>
       </c>
       <c r="D8" t="n">
-        <v>0.241301</v>
+        <v>0.247939</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.219724</v>
+        <v>0.224924</v>
       </c>
       <c r="C9" t="n">
-        <v>0.233493</v>
+        <v>0.235368</v>
       </c>
       <c r="D9" t="n">
-        <v>0.249986</v>
+        <v>0.253062</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.309373</v>
+        <v>0.311369</v>
       </c>
       <c r="C10" t="n">
-        <v>0.246599</v>
+        <v>0.245775</v>
       </c>
       <c r="D10" t="n">
-        <v>0.251611</v>
+        <v>0.254562</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.303657</v>
+        <v>0.30578</v>
       </c>
       <c r="C11" t="n">
-        <v>0.240995</v>
+        <v>0.246985</v>
       </c>
       <c r="D11" t="n">
-        <v>0.248337</v>
+        <v>0.2506</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.299714</v>
+        <v>0.2973</v>
       </c>
       <c r="C12" t="n">
-        <v>0.245889</v>
+        <v>0.247447</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25134</v>
+        <v>0.249397</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.293585</v>
+        <v>0.294744</v>
       </c>
       <c r="C13" t="n">
-        <v>0.242997</v>
+        <v>0.243375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.250748</v>
+        <v>0.25449</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.290198</v>
+        <v>0.28891</v>
       </c>
       <c r="C14" t="n">
-        <v>0.240713</v>
+        <v>0.239851</v>
       </c>
       <c r="D14" t="n">
-        <v>0.245989</v>
+        <v>0.248665</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.281255</v>
+        <v>0.283448</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238938</v>
+        <v>0.235256</v>
       </c>
       <c r="D15" t="n">
-        <v>0.248517</v>
+        <v>0.24333</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.27619</v>
+        <v>0.275687</v>
       </c>
       <c r="C16" t="n">
-        <v>0.237814</v>
+        <v>0.239668</v>
       </c>
       <c r="D16" t="n">
-        <v>0.244478</v>
+        <v>0.253162</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.269152</v>
+        <v>0.267115</v>
       </c>
       <c r="C17" t="n">
-        <v>0.240231</v>
+        <v>0.235444</v>
       </c>
       <c r="D17" t="n">
-        <v>0.24697</v>
+        <v>0.249589</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.265596</v>
+        <v>0.261251</v>
       </c>
       <c r="C18" t="n">
-        <v>0.238764</v>
+        <v>0.237786</v>
       </c>
       <c r="D18" t="n">
-        <v>0.246648</v>
+        <v>0.247504</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.256848</v>
+        <v>0.255282</v>
       </c>
       <c r="C19" t="n">
-        <v>0.232077</v>
+        <v>0.235034</v>
       </c>
       <c r="D19" t="n">
-        <v>0.250557</v>
+        <v>0.247438</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.248167</v>
+        <v>0.249821</v>
       </c>
       <c r="C20" t="n">
-        <v>0.233383</v>
+        <v>0.234651</v>
       </c>
       <c r="D20" t="n">
-        <v>0.250739</v>
+        <v>0.244934</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.242231</v>
+        <v>0.242413</v>
       </c>
       <c r="C21" t="n">
-        <v>0.23241</v>
+        <v>0.232152</v>
       </c>
       <c r="D21" t="n">
-        <v>0.24636</v>
+        <v>0.244085</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.233227</v>
+        <v>0.23176</v>
       </c>
       <c r="C22" t="n">
-        <v>0.232721</v>
+        <v>0.231962</v>
       </c>
       <c r="D22" t="n">
-        <v>0.244165</v>
+        <v>0.244637</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224989</v>
+        <v>0.22456</v>
       </c>
       <c r="C23" t="n">
-        <v>0.231695</v>
+        <v>0.227908</v>
       </c>
       <c r="D23" t="n">
-        <v>0.258999</v>
+        <v>0.25877</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.308636</v>
+        <v>0.305947</v>
       </c>
       <c r="C24" t="n">
-        <v>0.247973</v>
+        <v>0.250079</v>
       </c>
       <c r="D24" t="n">
-        <v>0.258592</v>
+        <v>0.258061</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.303923</v>
+        <v>0.305294</v>
       </c>
       <c r="C25" t="n">
-        <v>0.250885</v>
+        <v>0.246643</v>
       </c>
       <c r="D25" t="n">
-        <v>0.258544</v>
+        <v>0.261135</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.298089</v>
+        <v>0.299039</v>
       </c>
       <c r="C26" t="n">
-        <v>0.250666</v>
+        <v>0.246707</v>
       </c>
       <c r="D26" t="n">
-        <v>0.257622</v>
+        <v>0.257251</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.292446</v>
+        <v>0.293567</v>
       </c>
       <c r="C27" t="n">
-        <v>0.247419</v>
+        <v>0.242516</v>
       </c>
       <c r="D27" t="n">
-        <v>0.254782</v>
+        <v>0.253876</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.285575</v>
+        <v>0.295209</v>
       </c>
       <c r="C28" t="n">
-        <v>0.246314</v>
+        <v>0.245963</v>
       </c>
       <c r="D28" t="n">
-        <v>0.254028</v>
+        <v>0.249495</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.279692</v>
+        <v>0.277467</v>
       </c>
       <c r="C29" t="n">
-        <v>0.242188</v>
+        <v>0.240336</v>
       </c>
       <c r="D29" t="n">
-        <v>0.251935</v>
+        <v>0.250207</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.274646</v>
+        <v>0.275762</v>
       </c>
       <c r="C30" t="n">
-        <v>0.241306</v>
+        <v>0.237071</v>
       </c>
       <c r="D30" t="n">
-        <v>0.252465</v>
+        <v>0.251385</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.269134</v>
+        <v>0.27005</v>
       </c>
       <c r="C31" t="n">
-        <v>0.241297</v>
+        <v>0.238709</v>
       </c>
       <c r="D31" t="n">
-        <v>0.252355</v>
+        <v>0.251952</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.262994</v>
+        <v>0.264497</v>
       </c>
       <c r="C32" t="n">
-        <v>0.238845</v>
+        <v>0.235027</v>
       </c>
       <c r="D32" t="n">
-        <v>0.248953</v>
+        <v>0.246247</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.257303</v>
+        <v>0.260711</v>
       </c>
       <c r="C33" t="n">
-        <v>0.236148</v>
+        <v>0.236721</v>
       </c>
       <c r="D33" t="n">
-        <v>0.248638</v>
+        <v>0.250393</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.254884</v>
+        <v>0.25335</v>
       </c>
       <c r="C34" t="n">
-        <v>0.234599</v>
+        <v>0.238829</v>
       </c>
       <c r="D34" t="n">
-        <v>0.244475</v>
+        <v>0.24872</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.241811</v>
+        <v>0.244225</v>
       </c>
       <c r="C35" t="n">
-        <v>0.237715</v>
+        <v>0.235092</v>
       </c>
       <c r="D35" t="n">
-        <v>0.245577</v>
+        <v>0.246607</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.23836</v>
+        <v>0.234835</v>
       </c>
       <c r="C36" t="n">
-        <v>0.233159</v>
+        <v>0.231284</v>
       </c>
       <c r="D36" t="n">
-        <v>0.248038</v>
+        <v>0.24516</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.224589</v>
+        <v>0.225776</v>
       </c>
       <c r="C37" t="n">
-        <v>0.232636</v>
+        <v>0.233586</v>
       </c>
       <c r="D37" t="n">
-        <v>0.263846</v>
+        <v>0.266158</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.311471</v>
+        <v>0.31274</v>
       </c>
       <c r="C38" t="n">
-        <v>0.254116</v>
+        <v>0.256103</v>
       </c>
       <c r="D38" t="n">
-        <v>0.26227</v>
+        <v>0.264374</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.30538</v>
+        <v>0.306893</v>
       </c>
       <c r="C39" t="n">
-        <v>0.248044</v>
+        <v>0.249628</v>
       </c>
       <c r="D39" t="n">
-        <v>0.26031</v>
+        <v>0.2628</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.304722</v>
+        <v>0.30747</v>
       </c>
       <c r="C40" t="n">
-        <v>0.252918</v>
+        <v>0.251636</v>
       </c>
       <c r="D40" t="n">
-        <v>0.260832</v>
+        <v>0.261798</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.297852</v>
+        <v>0.29906</v>
       </c>
       <c r="C41" t="n">
-        <v>0.246219</v>
+        <v>0.248237</v>
       </c>
       <c r="D41" t="n">
-        <v>0.259504</v>
+        <v>0.25918</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.293156</v>
+        <v>0.295224</v>
       </c>
       <c r="C42" t="n">
-        <v>0.247057</v>
+        <v>0.252461</v>
       </c>
       <c r="D42" t="n">
-        <v>0.257208</v>
+        <v>0.261363</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.288592</v>
+        <v>0.289519</v>
       </c>
       <c r="C43" t="n">
-        <v>0.243252</v>
+        <v>0.248457</v>
       </c>
       <c r="D43" t="n">
-        <v>0.253682</v>
+        <v>0.256355</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.276484</v>
+        <v>0.282179</v>
       </c>
       <c r="C44" t="n">
-        <v>0.243649</v>
+        <v>0.247022</v>
       </c>
       <c r="D44" t="n">
-        <v>0.258844</v>
+        <v>0.256186</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.272294</v>
+        <v>0.277491</v>
       </c>
       <c r="C45" t="n">
-        <v>0.245049</v>
+        <v>0.24632</v>
       </c>
       <c r="D45" t="n">
-        <v>0.254799</v>
+        <v>0.256103</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.270693</v>
+        <v>0.27045</v>
       </c>
       <c r="C46" t="n">
-        <v>0.242876</v>
+        <v>0.240289</v>
       </c>
       <c r="D46" t="n">
-        <v>0.252657</v>
+        <v>0.252015</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.268005</v>
+        <v>0.265856</v>
       </c>
       <c r="C47" t="n">
-        <v>0.238513</v>
+        <v>0.241625</v>
       </c>
       <c r="D47" t="n">
-        <v>0.255741</v>
+        <v>0.252546</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.253909</v>
+        <v>0.257497</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243908</v>
+        <v>0.240701</v>
       </c>
       <c r="D48" t="n">
-        <v>0.249078</v>
+        <v>0.249718</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.24636</v>
+        <v>0.251149</v>
       </c>
       <c r="C49" t="n">
-        <v>0.238666</v>
+        <v>0.240177</v>
       </c>
       <c r="D49" t="n">
-        <v>0.251353</v>
+        <v>0.250078</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.241744</v>
+        <v>0.23856</v>
       </c>
       <c r="C50" t="n">
-        <v>0.236033</v>
+        <v>0.235541</v>
       </c>
       <c r="D50" t="n">
-        <v>0.249492</v>
+        <v>0.245878</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.232889</v>
+        <v>0.229245</v>
       </c>
       <c r="C51" t="n">
-        <v>0.233606</v>
+        <v>0.236349</v>
       </c>
       <c r="D51" t="n">
-        <v>0.272345</v>
+        <v>0.272814</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.222814</v>
+        <v>0.222648</v>
       </c>
       <c r="C52" t="n">
-        <v>0.232512</v>
+        <v>0.236349</v>
       </c>
       <c r="D52" t="n">
-        <v>0.271183</v>
+        <v>0.26784</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.315118</v>
+        <v>0.318989</v>
       </c>
       <c r="C53" t="n">
-        <v>0.25985</v>
+        <v>0.261648</v>
       </c>
       <c r="D53" t="n">
-        <v>0.267825</v>
+        <v>0.265735</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.310838</v>
+        <v>0.311454</v>
       </c>
       <c r="C54" t="n">
-        <v>0.256891</v>
+        <v>0.25706</v>
       </c>
       <c r="D54" t="n">
-        <v>0.264989</v>
+        <v>0.266177</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.306339</v>
+        <v>0.305157</v>
       </c>
       <c r="C55" t="n">
-        <v>0.256501</v>
+        <v>0.253625</v>
       </c>
       <c r="D55" t="n">
-        <v>0.263576</v>
+        <v>0.26218</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.297994</v>
+        <v>0.29773</v>
       </c>
       <c r="C56" t="n">
-        <v>0.250768</v>
+        <v>0.255209</v>
       </c>
       <c r="D56" t="n">
-        <v>0.265018</v>
+        <v>0.263762</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.29321</v>
+        <v>0.290365</v>
       </c>
       <c r="C57" t="n">
-        <v>0.254031</v>
+        <v>0.251301</v>
       </c>
       <c r="D57" t="n">
-        <v>0.261171</v>
+        <v>0.259671</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.283057</v>
+        <v>0.285652</v>
       </c>
       <c r="C58" t="n">
-        <v>0.249274</v>
+        <v>0.248606</v>
       </c>
       <c r="D58" t="n">
-        <v>0.258051</v>
+        <v>0.259556</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.280235</v>
+        <v>0.28078</v>
       </c>
       <c r="C59" t="n">
-        <v>0.247757</v>
+        <v>0.248128</v>
       </c>
       <c r="D59" t="n">
-        <v>0.254889</v>
+        <v>0.260654</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.282058</v>
+        <v>0.277925</v>
       </c>
       <c r="C60" t="n">
-        <v>0.248917</v>
+        <v>0.247339</v>
       </c>
       <c r="D60" t="n">
-        <v>0.257</v>
+        <v>0.260766</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.267978</v>
+        <v>0.268514</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245338</v>
+        <v>0.245767</v>
       </c>
       <c r="D61" t="n">
-        <v>0.256584</v>
+        <v>0.260101</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.261532</v>
+        <v>0.260949</v>
       </c>
       <c r="C62" t="n">
-        <v>0.243769</v>
+        <v>0.246089</v>
       </c>
       <c r="D62" t="n">
-        <v>0.255013</v>
+        <v>0.259483</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.25394</v>
+        <v>0.254946</v>
       </c>
       <c r="C63" t="n">
-        <v>0.245615</v>
+        <v>0.240704</v>
       </c>
       <c r="D63" t="n">
-        <v>0.253307</v>
+        <v>0.25476</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.246168</v>
+        <v>0.245763</v>
       </c>
       <c r="C64" t="n">
-        <v>0.240485</v>
+        <v>0.243373</v>
       </c>
       <c r="D64" t="n">
-        <v>0.253882</v>
+        <v>0.250756</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.237741</v>
+        <v>0.235802</v>
       </c>
       <c r="C65" t="n">
-        <v>0.239188</v>
+        <v>0.238129</v>
       </c>
       <c r="D65" t="n">
-        <v>0.253593</v>
+        <v>0.248773</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.226968</v>
+        <v>0.229649</v>
       </c>
       <c r="C66" t="n">
-        <v>0.237902</v>
+        <v>0.236801</v>
       </c>
       <c r="D66" t="n">
-        <v>0.280721</v>
+        <v>0.282408</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.32505</v>
+        <v>0.324473</v>
       </c>
       <c r="C67" t="n">
-        <v>0.264773</v>
+        <v>0.269137</v>
       </c>
       <c r="D67" t="n">
-        <v>0.277058</v>
+        <v>0.277474</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.321045</v>
+        <v>0.316128</v>
       </c>
       <c r="C68" t="n">
-        <v>0.264231</v>
+        <v>0.272338</v>
       </c>
       <c r="D68" t="n">
-        <v>0.274423</v>
+        <v>0.275677</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.313783</v>
+        <v>0.31377</v>
       </c>
       <c r="C69" t="n">
-        <v>0.263255</v>
+        <v>0.267256</v>
       </c>
       <c r="D69" t="n">
-        <v>0.270441</v>
+        <v>0.274642</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.306312</v>
+        <v>0.321018</v>
       </c>
       <c r="C70" t="n">
-        <v>0.26422</v>
+        <v>0.270261</v>
       </c>
       <c r="D70" t="n">
-        <v>0.270598</v>
+        <v>0.276569</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.303322</v>
+        <v>0.30353</v>
       </c>
       <c r="C71" t="n">
-        <v>0.258795</v>
+        <v>0.264032</v>
       </c>
       <c r="D71" t="n">
-        <v>0.269079</v>
+        <v>0.270087</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.294365</v>
+        <v>0.297084</v>
       </c>
       <c r="C72" t="n">
-        <v>0.255962</v>
+        <v>0.267746</v>
       </c>
       <c r="D72" t="n">
-        <v>0.266453</v>
+        <v>0.266188</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.287781</v>
+        <v>0.291576</v>
       </c>
       <c r="C73" t="n">
-        <v>0.262808</v>
+        <v>0.25802</v>
       </c>
       <c r="D73" t="n">
-        <v>0.262065</v>
+        <v>0.26563</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.282671</v>
+        <v>0.281785</v>
       </c>
       <c r="C74" t="n">
-        <v>0.256009</v>
+        <v>0.252983</v>
       </c>
       <c r="D74" t="n">
-        <v>0.263393</v>
+        <v>0.262999</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.278796</v>
+        <v>0.279367</v>
       </c>
       <c r="C75" t="n">
-        <v>0.254133</v>
+        <v>0.254137</v>
       </c>
       <c r="D75" t="n">
-        <v>0.26254</v>
+        <v>0.262708</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.270929</v>
+        <v>0.270245</v>
       </c>
       <c r="C76" t="n">
-        <v>0.249773</v>
+        <v>0.255479</v>
       </c>
       <c r="D76" t="n">
-        <v>0.26234</v>
+        <v>0.260954</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.257744</v>
+        <v>0.259607</v>
       </c>
       <c r="C77" t="n">
-        <v>0.24976</v>
+        <v>0.247042</v>
       </c>
       <c r="D77" t="n">
-        <v>0.260052</v>
+        <v>0.258593</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254866</v>
+        <v>0.253672</v>
       </c>
       <c r="C78" t="n">
-        <v>0.24733</v>
+        <v>0.247453</v>
       </c>
       <c r="D78" t="n">
-        <v>0.257166</v>
+        <v>0.260749</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.247152</v>
+        <v>0.243803</v>
       </c>
       <c r="C79" t="n">
-        <v>0.245866</v>
+        <v>0.247614</v>
       </c>
       <c r="D79" t="n">
-        <v>0.257593</v>
+        <v>0.256185</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.234879</v>
+        <v>0.237667</v>
       </c>
       <c r="C80" t="n">
-        <v>0.242254</v>
+        <v>0.245942</v>
       </c>
       <c r="D80" t="n">
-        <v>0.285893</v>
+        <v>0.290691</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.331355</v>
+        <v>0.332058</v>
       </c>
       <c r="C81" t="n">
-        <v>0.275</v>
+        <v>0.276097</v>
       </c>
       <c r="D81" t="n">
-        <v>0.283635</v>
+        <v>0.2845</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.322299</v>
+        <v>0.329294</v>
       </c>
       <c r="C82" t="n">
-        <v>0.27159</v>
+        <v>0.27462</v>
       </c>
       <c r="D82" t="n">
-        <v>0.279592</v>
+        <v>0.282166</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3196</v>
+        <v>0.322085</v>
       </c>
       <c r="C83" t="n">
-        <v>0.266282</v>
+        <v>0.269757</v>
       </c>
       <c r="D83" t="n">
-        <v>0.278944</v>
+        <v>0.278385</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.313748</v>
+        <v>0.314135</v>
       </c>
       <c r="C84" t="n">
-        <v>0.26575</v>
+        <v>0.267182</v>
       </c>
       <c r="D84" t="n">
-        <v>0.278198</v>
+        <v>0.277252</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.307201</v>
+        <v>0.310532</v>
       </c>
       <c r="C85" t="n">
-        <v>0.265896</v>
+        <v>0.266983</v>
       </c>
       <c r="D85" t="n">
-        <v>0.2783</v>
+        <v>0.273251</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.304799</v>
+        <v>0.300142</v>
       </c>
       <c r="C86" t="n">
-        <v>0.262899</v>
+        <v>0.262566</v>
       </c>
       <c r="D86" t="n">
-        <v>0.272318</v>
+        <v>0.272461</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.292478</v>
+        <v>0.2967</v>
       </c>
       <c r="C87" t="n">
-        <v>0.260162</v>
+        <v>0.258824</v>
       </c>
       <c r="D87" t="n">
-        <v>0.274612</v>
+        <v>0.267946</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.285629</v>
+        <v>0.289928</v>
       </c>
       <c r="C88" t="n">
-        <v>0.258575</v>
+        <v>0.257578</v>
       </c>
       <c r="D88" t="n">
-        <v>0.26626</v>
+        <v>0.264914</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.278641</v>
+        <v>0.278332</v>
       </c>
       <c r="C89" t="n">
-        <v>0.25878</v>
+        <v>0.255996</v>
       </c>
       <c r="D89" t="n">
-        <v>0.262653</v>
+        <v>0.263682</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.269992</v>
+        <v>0.271653</v>
       </c>
       <c r="C90" t="n">
-        <v>0.254435</v>
+        <v>0.258653</v>
       </c>
       <c r="D90" t="n">
-        <v>0.262717</v>
+        <v>0.266616</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.266251</v>
+        <v>0.265134</v>
       </c>
       <c r="C91" t="n">
-        <v>0.252727</v>
+        <v>0.250642</v>
       </c>
       <c r="D91" t="n">
-        <v>0.262699</v>
+        <v>0.262838</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.260618</v>
+        <v>0.258075</v>
       </c>
       <c r="C92" t="n">
-        <v>0.249331</v>
+        <v>0.247585</v>
       </c>
       <c r="D92" t="n">
-        <v>0.261759</v>
+        <v>0.261665</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.245489</v>
+        <v>0.247615</v>
       </c>
       <c r="C93" t="n">
-        <v>0.245494</v>
+        <v>0.246394</v>
       </c>
       <c r="D93" t="n">
-        <v>0.263838</v>
+        <v>0.258847</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.242448</v>
+        <v>0.242944</v>
       </c>
       <c r="C94" t="n">
-        <v>0.248773</v>
+        <v>0.246694</v>
       </c>
       <c r="D94" t="n">
-        <v>0.288997</v>
+        <v>0.291991</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.336175</v>
+        <v>0.338475</v>
       </c>
       <c r="C95" t="n">
-        <v>0.281145</v>
+        <v>0.278408</v>
       </c>
       <c r="D95" t="n">
-        <v>0.282622</v>
+        <v>0.28337</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.328133</v>
+        <v>0.331229</v>
       </c>
       <c r="C96" t="n">
-        <v>0.270759</v>
+        <v>0.274034</v>
       </c>
       <c r="D96" t="n">
-        <v>0.287318</v>
+        <v>0.286103</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.32429</v>
+        <v>0.322109</v>
       </c>
       <c r="C97" t="n">
-        <v>0.270988</v>
+        <v>0.274602</v>
       </c>
       <c r="D97" t="n">
-        <v>0.279005</v>
+        <v>0.284936</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.318596</v>
+        <v>0.31459</v>
       </c>
       <c r="C98" t="n">
-        <v>0.269856</v>
+        <v>0.26939</v>
       </c>
       <c r="D98" t="n">
-        <v>0.279743</v>
+        <v>0.277421</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.309888</v>
+        <v>0.30614</v>
       </c>
       <c r="C99" t="n">
-        <v>0.265737</v>
+        <v>0.268077</v>
       </c>
       <c r="D99" t="n">
-        <v>0.273614</v>
+        <v>0.275117</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.304686</v>
+        <v>0.303252</v>
       </c>
       <c r="C100" t="n">
-        <v>0.263333</v>
+        <v>0.263811</v>
       </c>
       <c r="D100" t="n">
-        <v>0.272291</v>
+        <v>0.275256</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.295891</v>
+        <v>0.299738</v>
       </c>
       <c r="C101" t="n">
-        <v>0.260931</v>
+        <v>0.265364</v>
       </c>
       <c r="D101" t="n">
-        <v>0.26854</v>
+        <v>0.270039</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.291483</v>
+        <v>0.294617</v>
       </c>
       <c r="C102" t="n">
-        <v>0.261164</v>
+        <v>0.259731</v>
       </c>
       <c r="D102" t="n">
-        <v>0.272025</v>
+        <v>0.267096</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.282032</v>
+        <v>0.280675</v>
       </c>
       <c r="C103" t="n">
-        <v>0.257722</v>
+        <v>0.255981</v>
       </c>
       <c r="D103" t="n">
-        <v>0.269903</v>
+        <v>0.265069</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.274734</v>
+        <v>0.277361</v>
       </c>
       <c r="C104" t="n">
-        <v>0.255277</v>
+        <v>0.253546</v>
       </c>
       <c r="D104" t="n">
-        <v>0.266356</v>
+        <v>0.264334</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.27091</v>
+        <v>0.271286</v>
       </c>
       <c r="C105" t="n">
-        <v>0.253429</v>
+        <v>0.252915</v>
       </c>
       <c r="D105" t="n">
-        <v>0.263239</v>
+        <v>0.264061</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.257755</v>
+        <v>0.25941</v>
       </c>
       <c r="C106" t="n">
-        <v>0.250447</v>
+        <v>0.253003</v>
       </c>
       <c r="D106" t="n">
-        <v>0.262797</v>
+        <v>0.261672</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.25472</v>
+        <v>0.256841</v>
       </c>
       <c r="C107" t="n">
-        <v>0.248548</v>
+        <v>0.251686</v>
       </c>
       <c r="D107" t="n">
-        <v>0.261798</v>
+        <v>0.258568</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.241197</v>
+        <v>0.240321</v>
       </c>
       <c r="C108" t="n">
-        <v>0.248876</v>
+        <v>0.250342</v>
       </c>
       <c r="D108" t="n">
-        <v>0.29028</v>
+        <v>0.288587</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.231943</v>
+        <v>0.233479</v>
       </c>
       <c r="C109" t="n">
-        <v>0.246227</v>
+        <v>0.24872</v>
       </c>
       <c r="D109" t="n">
-        <v>0.286948</v>
+        <v>0.289278</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.328116</v>
+        <v>0.331471</v>
       </c>
       <c r="C110" t="n">
-        <v>0.277068</v>
+        <v>0.278502</v>
       </c>
       <c r="D110" t="n">
-        <v>0.286363</v>
+        <v>0.28014</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.322582</v>
+        <v>0.325382</v>
       </c>
       <c r="C111" t="n">
-        <v>0.272749</v>
+        <v>0.270565</v>
       </c>
       <c r="D111" t="n">
-        <v>0.277596</v>
+        <v>0.282065</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.315043</v>
+        <v>0.318481</v>
       </c>
       <c r="C112" t="n">
-        <v>0.270231</v>
+        <v>0.27264</v>
       </c>
       <c r="D112" t="n">
-        <v>0.279325</v>
+        <v>0.27951</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.315473</v>
+        <v>0.313064</v>
       </c>
       <c r="C113" t="n">
-        <v>0.265038</v>
+        <v>0.268545</v>
       </c>
       <c r="D113" t="n">
-        <v>0.278102</v>
+        <v>0.275697</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.303421</v>
+        <v>0.305822</v>
       </c>
       <c r="C114" t="n">
-        <v>0.269997</v>
+        <v>0.264368</v>
       </c>
       <c r="D114" t="n">
-        <v>0.273066</v>
+        <v>0.275038</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.298685</v>
+        <v>0.303093</v>
       </c>
       <c r="C115" t="n">
-        <v>0.262183</v>
+        <v>0.262564</v>
       </c>
       <c r="D115" t="n">
-        <v>0.273769</v>
+        <v>0.267895</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.290592</v>
+        <v>0.289808</v>
       </c>
       <c r="C116" t="n">
-        <v>0.259816</v>
+        <v>0.262351</v>
       </c>
       <c r="D116" t="n">
-        <v>0.267624</v>
+        <v>0.268059</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.28439</v>
+        <v>0.28524</v>
       </c>
       <c r="C117" t="n">
-        <v>0.256703</v>
+        <v>0.253997</v>
       </c>
       <c r="D117" t="n">
-        <v>0.267149</v>
+        <v>0.266255</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.276691</v>
+        <v>0.277941</v>
       </c>
       <c r="C118" t="n">
-        <v>0.256613</v>
+        <v>0.256193</v>
       </c>
       <c r="D118" t="n">
-        <v>0.2655</v>
+        <v>0.267088</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271247</v>
+        <v>0.270151</v>
       </c>
       <c r="C119" t="n">
-        <v>0.254163</v>
+        <v>0.255284</v>
       </c>
       <c r="D119" t="n">
-        <v>0.263342</v>
+        <v>0.26652</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258671</v>
+        <v>0.26281</v>
       </c>
       <c r="C120" t="n">
-        <v>0.254623</v>
+        <v>0.249847</v>
       </c>
       <c r="D120" t="n">
-        <v>0.263165</v>
+        <v>0.260716</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.253961</v>
+        <v>0.252942</v>
       </c>
       <c r="C121" t="n">
-        <v>0.248098</v>
+        <v>0.24712</v>
       </c>
       <c r="D121" t="n">
-        <v>0.258157</v>
+        <v>0.264172</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.242907</v>
+        <v>0.242293</v>
       </c>
       <c r="C122" t="n">
-        <v>0.248208</v>
+        <v>0.246214</v>
       </c>
       <c r="D122" t="n">
-        <v>0.265123</v>
+        <v>0.257114</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.236375</v>
+        <v>0.234903</v>
       </c>
       <c r="C123" t="n">
-        <v>0.253705</v>
+        <v>0.247034</v>
       </c>
       <c r="D123" t="n">
-        <v>0.285673</v>
+        <v>0.286725</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.332701</v>
+        <v>0.32845</v>
       </c>
       <c r="C124" t="n">
-        <v>0.27421</v>
+        <v>0.273216</v>
       </c>
       <c r="D124" t="n">
-        <v>0.286894</v>
+        <v>0.282815</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.328455</v>
+        <v>0.32892</v>
       </c>
       <c r="C125" t="n">
-        <v>0.274942</v>
+        <v>0.272504</v>
       </c>
       <c r="D125" t="n">
-        <v>0.28305</v>
+        <v>0.283652</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.320001</v>
+        <v>0.326714</v>
       </c>
       <c r="C126" t="n">
-        <v>0.270333</v>
+        <v>0.27434</v>
       </c>
       <c r="D126" t="n">
-        <v>0.279194</v>
+        <v>0.28218</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.314571</v>
+        <v>0.313245</v>
       </c>
       <c r="C127" t="n">
-        <v>0.266535</v>
+        <v>0.265798</v>
       </c>
       <c r="D127" t="n">
-        <v>0.282359</v>
+        <v>0.27955</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.309538</v>
+        <v>0.305397</v>
       </c>
       <c r="C128" t="n">
-        <v>0.270095</v>
+        <v>0.26526</v>
       </c>
       <c r="D128" t="n">
-        <v>0.28709</v>
+        <v>0.278319</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.300415</v>
+        <v>0.300167</v>
       </c>
       <c r="C129" t="n">
-        <v>0.263426</v>
+        <v>0.262056</v>
       </c>
       <c r="D129" t="n">
-        <v>0.277637</v>
+        <v>0.274522</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.300856</v>
+        <v>0.289051</v>
       </c>
       <c r="C130" t="n">
-        <v>0.258794</v>
+        <v>0.264271</v>
       </c>
       <c r="D130" t="n">
-        <v>0.269918</v>
+        <v>0.267481</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.282593</v>
+        <v>0.287824</v>
       </c>
       <c r="C131" t="n">
-        <v>0.259894</v>
+        <v>0.256955</v>
       </c>
       <c r="D131" t="n">
-        <v>0.277126</v>
+        <v>0.266664</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.27886</v>
+        <v>0.282094</v>
       </c>
       <c r="C132" t="n">
-        <v>0.256648</v>
+        <v>0.250847</v>
       </c>
       <c r="D132" t="n">
-        <v>0.265514</v>
+        <v>0.269931</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.272871</v>
+        <v>0.273357</v>
       </c>
       <c r="C133" t="n">
-        <v>0.258827</v>
+        <v>0.253675</v>
       </c>
       <c r="D133" t="n">
-        <v>0.261947</v>
+        <v>0.260411</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.259485</v>
+        <v>0.268735</v>
       </c>
       <c r="C134" t="n">
-        <v>0.253479</v>
+        <v>0.254104</v>
       </c>
       <c r="D134" t="n">
-        <v>0.261326</v>
+        <v>0.263335</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.248497</v>
+        <v>0.254119</v>
       </c>
       <c r="C135" t="n">
-        <v>0.253195</v>
+        <v>0.25547</v>
       </c>
       <c r="D135" t="n">
-        <v>0.258322</v>
+        <v>0.264934</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.246723</v>
+        <v>0.242857</v>
       </c>
       <c r="C136" t="n">
-        <v>0.251386</v>
+        <v>0.254879</v>
       </c>
       <c r="D136" t="n">
-        <v>0.260719</v>
+        <v>0.262729</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235909</v>
+        <v>0.236269</v>
       </c>
       <c r="C137" t="n">
-        <v>0.252103</v>
+        <v>0.247234</v>
       </c>
       <c r="D137" t="n">
-        <v>0.291121</v>
+        <v>0.286227</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.328816</v>
+        <v>0.329804</v>
       </c>
       <c r="C138" t="n">
-        <v>0.280726</v>
+        <v>0.273692</v>
       </c>
       <c r="D138" t="n">
-        <v>0.282307</v>
+        <v>0.281593</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.332969</v>
+        <v>0.326338</v>
       </c>
       <c r="C139" t="n">
-        <v>0.270448</v>
+        <v>0.273228</v>
       </c>
       <c r="D139" t="n">
-        <v>0.283821</v>
+        <v>0.28741</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.32744</v>
+        <v>0.321619</v>
       </c>
       <c r="C140" t="n">
-        <v>0.274139</v>
+        <v>0.280451</v>
       </c>
       <c r="D140" t="n">
-        <v>0.281646</v>
+        <v>0.285792</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.313273</v>
+        <v>0.312159</v>
       </c>
       <c r="C141" t="n">
-        <v>0.270812</v>
+        <v>0.268501</v>
       </c>
       <c r="D141" t="n">
-        <v>0.275403</v>
+        <v>0.277031</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.306234</v>
+        <v>0.31023</v>
       </c>
       <c r="C142" t="n">
-        <v>0.268087</v>
+        <v>0.266358</v>
       </c>
       <c r="D142" t="n">
-        <v>0.270999</v>
+        <v>0.275533</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.303893</v>
+        <v>0.308495</v>
       </c>
       <c r="C143" t="n">
-        <v>0.26375</v>
+        <v>0.259822</v>
       </c>
       <c r="D143" t="n">
-        <v>0.277145</v>
+        <v>0.277109</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.267781</v>
+        <v>0.27444</v>
       </c>
       <c r="C2" t="n">
-        <v>0.237474</v>
+        <v>0.235233</v>
       </c>
       <c r="D2" t="n">
-        <v>0.243715</v>
+        <v>0.247922</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.267045</v>
+        <v>0.265151</v>
       </c>
       <c r="C3" t="n">
-        <v>0.242272</v>
+        <v>0.235965</v>
       </c>
       <c r="D3" t="n">
-        <v>0.250851</v>
+        <v>0.238901</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.258457</v>
+        <v>0.253328</v>
       </c>
       <c r="C4" t="n">
-        <v>0.236796</v>
+        <v>0.235946</v>
       </c>
       <c r="D4" t="n">
-        <v>0.247523</v>
+        <v>0.249444</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.257078</v>
+        <v>0.260005</v>
       </c>
       <c r="C5" t="n">
-        <v>0.237439</v>
+        <v>0.236562</v>
       </c>
       <c r="D5" t="n">
-        <v>0.249327</v>
+        <v>0.245646</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.246777</v>
+        <v>0.252031</v>
       </c>
       <c r="C6" t="n">
-        <v>0.236201</v>
+        <v>0.232467</v>
       </c>
       <c r="D6" t="n">
-        <v>0.247718</v>
+        <v>0.244862</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.241302</v>
+        <v>0.240313</v>
       </c>
       <c r="C7" t="n">
-        <v>0.23074</v>
+        <v>0.235242</v>
       </c>
       <c r="D7" t="n">
-        <v>0.24048</v>
+        <v>0.243752</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.234326</v>
+        <v>0.230478</v>
       </c>
       <c r="C8" t="n">
-        <v>0.235715</v>
+        <v>0.229818</v>
       </c>
       <c r="D8" t="n">
-        <v>0.247939</v>
+        <v>0.242609</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.224924</v>
+        <v>0.217998</v>
       </c>
       <c r="C9" t="n">
-        <v>0.235368</v>
+        <v>0.230423</v>
       </c>
       <c r="D9" t="n">
-        <v>0.253062</v>
+        <v>0.257038</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.311369</v>
+        <v>0.312633</v>
       </c>
       <c r="C10" t="n">
-        <v>0.245775</v>
+        <v>0.248312</v>
       </c>
       <c r="D10" t="n">
-        <v>0.254562</v>
+        <v>0.250775</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.30578</v>
+        <v>0.304808</v>
       </c>
       <c r="C11" t="n">
-        <v>0.246985</v>
+        <v>0.242725</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2506</v>
+        <v>0.254771</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2973</v>
+        <v>0.299138</v>
       </c>
       <c r="C12" t="n">
-        <v>0.247447</v>
+        <v>0.242559</v>
       </c>
       <c r="D12" t="n">
-        <v>0.249397</v>
+        <v>0.249461</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.294744</v>
+        <v>0.290305</v>
       </c>
       <c r="C13" t="n">
-        <v>0.243375</v>
+        <v>0.240273</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25449</v>
+        <v>0.246665</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.28891</v>
+        <v>0.284399</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239851</v>
+        <v>0.240264</v>
       </c>
       <c r="D14" t="n">
-        <v>0.248665</v>
+        <v>0.24772</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.283448</v>
+        <v>0.279947</v>
       </c>
       <c r="C15" t="n">
-        <v>0.235256</v>
+        <v>0.238809</v>
       </c>
       <c r="D15" t="n">
-        <v>0.24333</v>
+        <v>0.246629</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.275687</v>
+        <v>0.274988</v>
       </c>
       <c r="C16" t="n">
-        <v>0.239668</v>
+        <v>0.237371</v>
       </c>
       <c r="D16" t="n">
-        <v>0.253162</v>
+        <v>0.24869</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.267115</v>
+        <v>0.267964</v>
       </c>
       <c r="C17" t="n">
-        <v>0.235444</v>
+        <v>0.239988</v>
       </c>
       <c r="D17" t="n">
-        <v>0.249589</v>
+        <v>0.248432</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.261251</v>
+        <v>0.261674</v>
       </c>
       <c r="C18" t="n">
-        <v>0.237786</v>
+        <v>0.238938</v>
       </c>
       <c r="D18" t="n">
-        <v>0.247504</v>
+        <v>0.248056</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.255282</v>
+        <v>0.2539</v>
       </c>
       <c r="C19" t="n">
-        <v>0.235034</v>
+        <v>0.23454</v>
       </c>
       <c r="D19" t="n">
-        <v>0.247438</v>
+        <v>0.243496</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.249821</v>
+        <v>0.247191</v>
       </c>
       <c r="C20" t="n">
-        <v>0.234651</v>
+        <v>0.232092</v>
       </c>
       <c r="D20" t="n">
-        <v>0.244934</v>
+        <v>0.248057</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.242413</v>
+        <v>0.241709</v>
       </c>
       <c r="C21" t="n">
-        <v>0.232152</v>
+        <v>0.234432</v>
       </c>
       <c r="D21" t="n">
-        <v>0.244085</v>
+        <v>0.247132</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.23176</v>
+        <v>0.232105</v>
       </c>
       <c r="C22" t="n">
-        <v>0.231962</v>
+        <v>0.232253</v>
       </c>
       <c r="D22" t="n">
-        <v>0.244637</v>
+        <v>0.245107</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.22456</v>
+        <v>0.221567</v>
       </c>
       <c r="C23" t="n">
-        <v>0.227908</v>
+        <v>0.230146</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25877</v>
+        <v>0.261046</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.305947</v>
+        <v>0.309705</v>
       </c>
       <c r="C24" t="n">
-        <v>0.250079</v>
+        <v>0.250992</v>
       </c>
       <c r="D24" t="n">
-        <v>0.258061</v>
+        <v>0.259686</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.305294</v>
+        <v>0.303539</v>
       </c>
       <c r="C25" t="n">
-        <v>0.246643</v>
+        <v>0.251601</v>
       </c>
       <c r="D25" t="n">
-        <v>0.261135</v>
+        <v>0.255077</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.299039</v>
+        <v>0.301476</v>
       </c>
       <c r="C26" t="n">
-        <v>0.246707</v>
+        <v>0.247932</v>
       </c>
       <c r="D26" t="n">
-        <v>0.257251</v>
+        <v>0.254559</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.293567</v>
+        <v>0.29397</v>
       </c>
       <c r="C27" t="n">
-        <v>0.242516</v>
+        <v>0.246176</v>
       </c>
       <c r="D27" t="n">
-        <v>0.253876</v>
+        <v>0.255929</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.295209</v>
+        <v>0.288764</v>
       </c>
       <c r="C28" t="n">
-        <v>0.245963</v>
+        <v>0.244246</v>
       </c>
       <c r="D28" t="n">
-        <v>0.249495</v>
+        <v>0.251672</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.277467</v>
+        <v>0.28554</v>
       </c>
       <c r="C29" t="n">
-        <v>0.240336</v>
+        <v>0.244322</v>
       </c>
       <c r="D29" t="n">
-        <v>0.250207</v>
+        <v>0.250895</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.275762</v>
+        <v>0.277389</v>
       </c>
       <c r="C30" t="n">
-        <v>0.237071</v>
+        <v>0.240018</v>
       </c>
       <c r="D30" t="n">
-        <v>0.251385</v>
+        <v>0.252594</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.27005</v>
+        <v>0.270261</v>
       </c>
       <c r="C31" t="n">
-        <v>0.238709</v>
+        <v>0.238196</v>
       </c>
       <c r="D31" t="n">
-        <v>0.251952</v>
+        <v>0.248753</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.264497</v>
+        <v>0.262877</v>
       </c>
       <c r="C32" t="n">
-        <v>0.235027</v>
+        <v>0.237786</v>
       </c>
       <c r="D32" t="n">
-        <v>0.246247</v>
+        <v>0.249735</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.260711</v>
+        <v>0.25649</v>
       </c>
       <c r="C33" t="n">
-        <v>0.236721</v>
+        <v>0.23685</v>
       </c>
       <c r="D33" t="n">
-        <v>0.250393</v>
+        <v>0.250607</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.25335</v>
+        <v>0.250111</v>
       </c>
       <c r="C34" t="n">
-        <v>0.238829</v>
+        <v>0.234352</v>
       </c>
       <c r="D34" t="n">
-        <v>0.24872</v>
+        <v>0.250292</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.244225</v>
+        <v>0.242906</v>
       </c>
       <c r="C35" t="n">
-        <v>0.235092</v>
+        <v>0.238661</v>
       </c>
       <c r="D35" t="n">
-        <v>0.246607</v>
+        <v>0.24762</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.234835</v>
+        <v>0.237286</v>
       </c>
       <c r="C36" t="n">
-        <v>0.231284</v>
+        <v>0.235512</v>
       </c>
       <c r="D36" t="n">
-        <v>0.24516</v>
+        <v>0.247487</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.225776</v>
+        <v>0.228782</v>
       </c>
       <c r="C37" t="n">
-        <v>0.233586</v>
+        <v>0.233647</v>
       </c>
       <c r="D37" t="n">
-        <v>0.266158</v>
+        <v>0.266632</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.31274</v>
+        <v>0.317563</v>
       </c>
       <c r="C38" t="n">
-        <v>0.256103</v>
+        <v>0.260811</v>
       </c>
       <c r="D38" t="n">
-        <v>0.264374</v>
+        <v>0.265975</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.306893</v>
+        <v>0.312413</v>
       </c>
       <c r="C39" t="n">
-        <v>0.249628</v>
+        <v>0.254571</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2628</v>
+        <v>0.264624</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.30747</v>
+        <v>0.30739</v>
       </c>
       <c r="C40" t="n">
-        <v>0.251636</v>
+        <v>0.253236</v>
       </c>
       <c r="D40" t="n">
-        <v>0.261798</v>
+        <v>0.264915</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.29906</v>
+        <v>0.301978</v>
       </c>
       <c r="C41" t="n">
-        <v>0.248237</v>
+        <v>0.252114</v>
       </c>
       <c r="D41" t="n">
-        <v>0.25918</v>
+        <v>0.259944</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.295224</v>
+        <v>0.292511</v>
       </c>
       <c r="C42" t="n">
-        <v>0.252461</v>
+        <v>0.250437</v>
       </c>
       <c r="D42" t="n">
-        <v>0.261363</v>
+        <v>0.261113</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.289519</v>
+        <v>0.291142</v>
       </c>
       <c r="C43" t="n">
-        <v>0.248457</v>
+        <v>0.247064</v>
       </c>
       <c r="D43" t="n">
-        <v>0.256355</v>
+        <v>0.25355</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.282179</v>
+        <v>0.282284</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247022</v>
+        <v>0.24743</v>
       </c>
       <c r="D44" t="n">
-        <v>0.256186</v>
+        <v>0.259106</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.277491</v>
+        <v>0.27523</v>
       </c>
       <c r="C45" t="n">
-        <v>0.24632</v>
+        <v>0.243387</v>
       </c>
       <c r="D45" t="n">
-        <v>0.256103</v>
+        <v>0.25486</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.27045</v>
+        <v>0.270267</v>
       </c>
       <c r="C46" t="n">
-        <v>0.240289</v>
+        <v>0.242534</v>
       </c>
       <c r="D46" t="n">
-        <v>0.252015</v>
+        <v>0.251617</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.265856</v>
+        <v>0.26027</v>
       </c>
       <c r="C47" t="n">
-        <v>0.241625</v>
+        <v>0.240635</v>
       </c>
       <c r="D47" t="n">
-        <v>0.252546</v>
+        <v>0.253416</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.257497</v>
+        <v>0.260021</v>
       </c>
       <c r="C48" t="n">
-        <v>0.240701</v>
+        <v>0.240284</v>
       </c>
       <c r="D48" t="n">
-        <v>0.249718</v>
+        <v>0.254214</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.251149</v>
+        <v>0.248193</v>
       </c>
       <c r="C49" t="n">
-        <v>0.240177</v>
+        <v>0.240514</v>
       </c>
       <c r="D49" t="n">
-        <v>0.250078</v>
+        <v>0.251398</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.23856</v>
+        <v>0.238283</v>
       </c>
       <c r="C50" t="n">
-        <v>0.235541</v>
+        <v>0.234975</v>
       </c>
       <c r="D50" t="n">
-        <v>0.245878</v>
+        <v>0.249772</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.229245</v>
+        <v>0.229241</v>
       </c>
       <c r="C51" t="n">
-        <v>0.236349</v>
+        <v>0.235481</v>
       </c>
       <c r="D51" t="n">
-        <v>0.272814</v>
+        <v>0.276936</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.222648</v>
+        <v>0.227075</v>
       </c>
       <c r="C52" t="n">
-        <v>0.236349</v>
+        <v>0.236291</v>
       </c>
       <c r="D52" t="n">
-        <v>0.26784</v>
+        <v>0.273338</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.318989</v>
+        <v>0.31511</v>
       </c>
       <c r="C53" t="n">
-        <v>0.261648</v>
+        <v>0.260212</v>
       </c>
       <c r="D53" t="n">
-        <v>0.265735</v>
+        <v>0.273593</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.311454</v>
+        <v>0.316664</v>
       </c>
       <c r="C54" t="n">
-        <v>0.25706</v>
+        <v>0.260485</v>
       </c>
       <c r="D54" t="n">
-        <v>0.266177</v>
+        <v>0.267248</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.305157</v>
+        <v>0.307084</v>
       </c>
       <c r="C55" t="n">
-        <v>0.253625</v>
+        <v>0.254783</v>
       </c>
       <c r="D55" t="n">
-        <v>0.26218</v>
+        <v>0.266802</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.29773</v>
+        <v>0.300815</v>
       </c>
       <c r="C56" t="n">
-        <v>0.255209</v>
+        <v>0.257212</v>
       </c>
       <c r="D56" t="n">
-        <v>0.263762</v>
+        <v>0.265977</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.290365</v>
+        <v>0.29497</v>
       </c>
       <c r="C57" t="n">
-        <v>0.251301</v>
+        <v>0.249741</v>
       </c>
       <c r="D57" t="n">
-        <v>0.259671</v>
+        <v>0.263633</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.285652</v>
+        <v>0.285439</v>
       </c>
       <c r="C58" t="n">
-        <v>0.248606</v>
+        <v>0.251567</v>
       </c>
       <c r="D58" t="n">
-        <v>0.259556</v>
+        <v>0.260609</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.28078</v>
+        <v>0.277741</v>
       </c>
       <c r="C59" t="n">
-        <v>0.248128</v>
+        <v>0.247918</v>
       </c>
       <c r="D59" t="n">
-        <v>0.260654</v>
+        <v>0.26152</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.277925</v>
+        <v>0.273503</v>
       </c>
       <c r="C60" t="n">
-        <v>0.247339</v>
+        <v>0.247506</v>
       </c>
       <c r="D60" t="n">
-        <v>0.260766</v>
+        <v>0.258701</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.268514</v>
+        <v>0.266811</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245767</v>
+        <v>0.245291</v>
       </c>
       <c r="D61" t="n">
-        <v>0.260101</v>
+        <v>0.255473</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.260949</v>
+        <v>0.262688</v>
       </c>
       <c r="C62" t="n">
-        <v>0.246089</v>
+        <v>0.242699</v>
       </c>
       <c r="D62" t="n">
-        <v>0.259483</v>
+        <v>0.256119</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.254946</v>
+        <v>0.25321</v>
       </c>
       <c r="C63" t="n">
-        <v>0.240704</v>
+        <v>0.245006</v>
       </c>
       <c r="D63" t="n">
-        <v>0.25476</v>
+        <v>0.25844</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245763</v>
+        <v>0.246074</v>
       </c>
       <c r="C64" t="n">
-        <v>0.243373</v>
+        <v>0.242273</v>
       </c>
       <c r="D64" t="n">
-        <v>0.250756</v>
+        <v>0.253419</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.235802</v>
+        <v>0.241071</v>
       </c>
       <c r="C65" t="n">
-        <v>0.238129</v>
+        <v>0.241146</v>
       </c>
       <c r="D65" t="n">
-        <v>0.248773</v>
+        <v>0.250639</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.229649</v>
+        <v>0.225543</v>
       </c>
       <c r="C66" t="n">
-        <v>0.236801</v>
+        <v>0.236944</v>
       </c>
       <c r="D66" t="n">
-        <v>0.282408</v>
+        <v>0.281174</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.324473</v>
+        <v>0.323678</v>
       </c>
       <c r="C67" t="n">
-        <v>0.269137</v>
+        <v>0.266154</v>
       </c>
       <c r="D67" t="n">
-        <v>0.277474</v>
+        <v>0.27904</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.316128</v>
+        <v>0.324262</v>
       </c>
       <c r="C68" t="n">
-        <v>0.272338</v>
+        <v>0.268281</v>
       </c>
       <c r="D68" t="n">
-        <v>0.275677</v>
+        <v>0.279192</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.31377</v>
+        <v>0.311338</v>
       </c>
       <c r="C69" t="n">
-        <v>0.267256</v>
+        <v>0.266888</v>
       </c>
       <c r="D69" t="n">
-        <v>0.274642</v>
+        <v>0.273661</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.321018</v>
+        <v>0.309958</v>
       </c>
       <c r="C70" t="n">
-        <v>0.270261</v>
+        <v>0.260587</v>
       </c>
       <c r="D70" t="n">
-        <v>0.276569</v>
+        <v>0.269375</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.30353</v>
+        <v>0.301652</v>
       </c>
       <c r="C71" t="n">
-        <v>0.264032</v>
+        <v>0.258996</v>
       </c>
       <c r="D71" t="n">
-        <v>0.270087</v>
+        <v>0.268623</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.297084</v>
+        <v>0.294176</v>
       </c>
       <c r="C72" t="n">
-        <v>0.267746</v>
+        <v>0.255829</v>
       </c>
       <c r="D72" t="n">
-        <v>0.266188</v>
+        <v>0.269697</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.291576</v>
+        <v>0.285197</v>
       </c>
       <c r="C73" t="n">
-        <v>0.25802</v>
+        <v>0.260467</v>
       </c>
       <c r="D73" t="n">
-        <v>0.26563</v>
+        <v>0.266322</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.281785</v>
+        <v>0.281244</v>
       </c>
       <c r="C74" t="n">
-        <v>0.252983</v>
+        <v>0.252417</v>
       </c>
       <c r="D74" t="n">
-        <v>0.262999</v>
+        <v>0.263081</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279367</v>
+        <v>0.273381</v>
       </c>
       <c r="C75" t="n">
-        <v>0.254137</v>
+        <v>0.252691</v>
       </c>
       <c r="D75" t="n">
-        <v>0.262708</v>
+        <v>0.26013</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.270245</v>
+        <v>0.267514</v>
       </c>
       <c r="C76" t="n">
-        <v>0.255479</v>
+        <v>0.253843</v>
       </c>
       <c r="D76" t="n">
-        <v>0.260954</v>
+        <v>0.26159</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.259607</v>
+        <v>0.259768</v>
       </c>
       <c r="C77" t="n">
-        <v>0.247042</v>
+        <v>0.247358</v>
       </c>
       <c r="D77" t="n">
-        <v>0.258593</v>
+        <v>0.259471</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.253672</v>
+        <v>0.252327</v>
       </c>
       <c r="C78" t="n">
-        <v>0.247453</v>
+        <v>0.249368</v>
       </c>
       <c r="D78" t="n">
-        <v>0.260749</v>
+        <v>0.255289</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.243803</v>
+        <v>0.245012</v>
       </c>
       <c r="C79" t="n">
-        <v>0.247614</v>
+        <v>0.243117</v>
       </c>
       <c r="D79" t="n">
-        <v>0.256185</v>
+        <v>0.256934</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.237667</v>
+        <v>0.233071</v>
       </c>
       <c r="C80" t="n">
-        <v>0.245942</v>
+        <v>0.245738</v>
       </c>
       <c r="D80" t="n">
-        <v>0.290691</v>
+        <v>0.287366</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.332058</v>
+        <v>0.334605</v>
       </c>
       <c r="C81" t="n">
-        <v>0.276097</v>
+        <v>0.274781</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2845</v>
+        <v>0.282571</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.329294</v>
+        <v>0.324801</v>
       </c>
       <c r="C82" t="n">
-        <v>0.27462</v>
+        <v>0.270102</v>
       </c>
       <c r="D82" t="n">
-        <v>0.282166</v>
+        <v>0.279493</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.322085</v>
+        <v>0.323867</v>
       </c>
       <c r="C83" t="n">
-        <v>0.269757</v>
+        <v>0.268366</v>
       </c>
       <c r="D83" t="n">
-        <v>0.278385</v>
+        <v>0.27664</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.314135</v>
+        <v>0.31411</v>
       </c>
       <c r="C84" t="n">
-        <v>0.267182</v>
+        <v>0.266578</v>
       </c>
       <c r="D84" t="n">
-        <v>0.277252</v>
+        <v>0.273112</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.310532</v>
+        <v>0.307228</v>
       </c>
       <c r="C85" t="n">
-        <v>0.266983</v>
+        <v>0.26184</v>
       </c>
       <c r="D85" t="n">
-        <v>0.273251</v>
+        <v>0.2719</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.300142</v>
+        <v>0.302991</v>
       </c>
       <c r="C86" t="n">
-        <v>0.262566</v>
+        <v>0.262592</v>
       </c>
       <c r="D86" t="n">
-        <v>0.272461</v>
+        <v>0.272968</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.2967</v>
+        <v>0.292881</v>
       </c>
       <c r="C87" t="n">
-        <v>0.258824</v>
+        <v>0.260505</v>
       </c>
       <c r="D87" t="n">
-        <v>0.267946</v>
+        <v>0.266495</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.289928</v>
+        <v>0.284734</v>
       </c>
       <c r="C88" t="n">
-        <v>0.257578</v>
+        <v>0.259554</v>
       </c>
       <c r="D88" t="n">
-        <v>0.264914</v>
+        <v>0.266182</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.278332</v>
+        <v>0.277567</v>
       </c>
       <c r="C89" t="n">
-        <v>0.255996</v>
+        <v>0.254559</v>
       </c>
       <c r="D89" t="n">
-        <v>0.263682</v>
+        <v>0.268731</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.271653</v>
+        <v>0.272312</v>
       </c>
       <c r="C90" t="n">
-        <v>0.258653</v>
+        <v>0.254174</v>
       </c>
       <c r="D90" t="n">
-        <v>0.266616</v>
+        <v>0.263603</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265134</v>
+        <v>0.262775</v>
       </c>
       <c r="C91" t="n">
-        <v>0.250642</v>
+        <v>0.250077</v>
       </c>
       <c r="D91" t="n">
-        <v>0.262838</v>
+        <v>0.262611</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258075</v>
+        <v>0.258756</v>
       </c>
       <c r="C92" t="n">
-        <v>0.247585</v>
+        <v>0.249822</v>
       </c>
       <c r="D92" t="n">
-        <v>0.261665</v>
+        <v>0.258467</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.247615</v>
+        <v>0.248857</v>
       </c>
       <c r="C93" t="n">
-        <v>0.246394</v>
+        <v>0.250807</v>
       </c>
       <c r="D93" t="n">
-        <v>0.258847</v>
+        <v>0.257319</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.242944</v>
+        <v>0.243057</v>
       </c>
       <c r="C94" t="n">
-        <v>0.246694</v>
+        <v>0.244167</v>
       </c>
       <c r="D94" t="n">
-        <v>0.291991</v>
+        <v>0.288267</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.338475</v>
+        <v>0.333804</v>
       </c>
       <c r="C95" t="n">
-        <v>0.278408</v>
+        <v>0.279325</v>
       </c>
       <c r="D95" t="n">
-        <v>0.28337</v>
+        <v>0.28914</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.331229</v>
+        <v>0.33321</v>
       </c>
       <c r="C96" t="n">
-        <v>0.274034</v>
+        <v>0.275372</v>
       </c>
       <c r="D96" t="n">
-        <v>0.286103</v>
+        <v>0.282176</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.322109</v>
+        <v>0.324281</v>
       </c>
       <c r="C97" t="n">
-        <v>0.274602</v>
+        <v>0.274575</v>
       </c>
       <c r="D97" t="n">
-        <v>0.284936</v>
+        <v>0.276061</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.31459</v>
+        <v>0.313518</v>
       </c>
       <c r="C98" t="n">
-        <v>0.26939</v>
+        <v>0.274048</v>
       </c>
       <c r="D98" t="n">
-        <v>0.277421</v>
+        <v>0.276726</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.30614</v>
+        <v>0.314644</v>
       </c>
       <c r="C99" t="n">
-        <v>0.268077</v>
+        <v>0.266505</v>
       </c>
       <c r="D99" t="n">
-        <v>0.275117</v>
+        <v>0.274043</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.303252</v>
+        <v>0.30568</v>
       </c>
       <c r="C100" t="n">
-        <v>0.263811</v>
+        <v>0.263973</v>
       </c>
       <c r="D100" t="n">
-        <v>0.275256</v>
+        <v>0.272883</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.299738</v>
+        <v>0.294331</v>
       </c>
       <c r="C101" t="n">
-        <v>0.265364</v>
+        <v>0.265029</v>
       </c>
       <c r="D101" t="n">
-        <v>0.270039</v>
+        <v>0.269527</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.294617</v>
+        <v>0.291766</v>
       </c>
       <c r="C102" t="n">
-        <v>0.259731</v>
+        <v>0.261132</v>
       </c>
       <c r="D102" t="n">
-        <v>0.267096</v>
+        <v>0.274654</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.280675</v>
+        <v>0.280942</v>
       </c>
       <c r="C103" t="n">
-        <v>0.255981</v>
+        <v>0.257118</v>
       </c>
       <c r="D103" t="n">
-        <v>0.265069</v>
+        <v>0.263821</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.277361</v>
+        <v>0.277421</v>
       </c>
       <c r="C104" t="n">
-        <v>0.253546</v>
+        <v>0.255414</v>
       </c>
       <c r="D104" t="n">
-        <v>0.264334</v>
+        <v>0.265231</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.271286</v>
+        <v>0.26978</v>
       </c>
       <c r="C105" t="n">
-        <v>0.252915</v>
+        <v>0.254262</v>
       </c>
       <c r="D105" t="n">
-        <v>0.264061</v>
+        <v>0.263084</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.25941</v>
+        <v>0.264762</v>
       </c>
       <c r="C106" t="n">
-        <v>0.253003</v>
+        <v>0.249813</v>
       </c>
       <c r="D106" t="n">
-        <v>0.261672</v>
+        <v>0.26092</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.256841</v>
+        <v>0.250269</v>
       </c>
       <c r="C107" t="n">
-        <v>0.251686</v>
+        <v>0.248113</v>
       </c>
       <c r="D107" t="n">
-        <v>0.258568</v>
+        <v>0.260264</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.240321</v>
+        <v>0.244304</v>
       </c>
       <c r="C108" t="n">
-        <v>0.250342</v>
+        <v>0.246559</v>
       </c>
       <c r="D108" t="n">
-        <v>0.288587</v>
+        <v>0.290543</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.233479</v>
+        <v>0.230508</v>
       </c>
       <c r="C109" t="n">
-        <v>0.24872</v>
+        <v>0.248421</v>
       </c>
       <c r="D109" t="n">
-        <v>0.289278</v>
+        <v>0.28506</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.331471</v>
+        <v>0.332504</v>
       </c>
       <c r="C110" t="n">
-        <v>0.278502</v>
+        <v>0.274715</v>
       </c>
       <c r="D110" t="n">
-        <v>0.28014</v>
+        <v>0.282342</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.325382</v>
+        <v>0.326635</v>
       </c>
       <c r="C111" t="n">
-        <v>0.270565</v>
+        <v>0.272227</v>
       </c>
       <c r="D111" t="n">
-        <v>0.282065</v>
+        <v>0.278539</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.318481</v>
+        <v>0.321617</v>
       </c>
       <c r="C112" t="n">
-        <v>0.27264</v>
+        <v>0.270614</v>
       </c>
       <c r="D112" t="n">
-        <v>0.27951</v>
+        <v>0.277111</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.313064</v>
+        <v>0.311684</v>
       </c>
       <c r="C113" t="n">
-        <v>0.268545</v>
+        <v>0.267412</v>
       </c>
       <c r="D113" t="n">
-        <v>0.275697</v>
+        <v>0.27547</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.305822</v>
+        <v>0.309113</v>
       </c>
       <c r="C114" t="n">
-        <v>0.264368</v>
+        <v>0.265527</v>
       </c>
       <c r="D114" t="n">
-        <v>0.275038</v>
+        <v>0.273264</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.303093</v>
+        <v>0.295518</v>
       </c>
       <c r="C115" t="n">
-        <v>0.262564</v>
+        <v>0.260462</v>
       </c>
       <c r="D115" t="n">
-        <v>0.267895</v>
+        <v>0.272114</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.289808</v>
+        <v>0.293937</v>
       </c>
       <c r="C116" t="n">
-        <v>0.262351</v>
+        <v>0.25818</v>
       </c>
       <c r="D116" t="n">
-        <v>0.268059</v>
+        <v>0.269349</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.28524</v>
+        <v>0.284063</v>
       </c>
       <c r="C117" t="n">
-        <v>0.253997</v>
+        <v>0.260471</v>
       </c>
       <c r="D117" t="n">
-        <v>0.266255</v>
+        <v>0.26916</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.277941</v>
+        <v>0.274069</v>
       </c>
       <c r="C118" t="n">
-        <v>0.256193</v>
+        <v>0.253151</v>
       </c>
       <c r="D118" t="n">
-        <v>0.267088</v>
+        <v>0.264221</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.270151</v>
+        <v>0.271097</v>
       </c>
       <c r="C119" t="n">
-        <v>0.255284</v>
+        <v>0.255233</v>
       </c>
       <c r="D119" t="n">
-        <v>0.26652</v>
+        <v>0.265742</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.26281</v>
+        <v>0.262609</v>
       </c>
       <c r="C120" t="n">
-        <v>0.249847</v>
+        <v>0.254688</v>
       </c>
       <c r="D120" t="n">
-        <v>0.260716</v>
+        <v>0.260197</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.252942</v>
+        <v>0.25318</v>
       </c>
       <c r="C121" t="n">
-        <v>0.24712</v>
+        <v>0.247083</v>
       </c>
       <c r="D121" t="n">
-        <v>0.264172</v>
+        <v>0.260946</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.242293</v>
+        <v>0.243006</v>
       </c>
       <c r="C122" t="n">
-        <v>0.246214</v>
+        <v>0.247224</v>
       </c>
       <c r="D122" t="n">
-        <v>0.257114</v>
+        <v>0.259489</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.234903</v>
+        <v>0.24115</v>
       </c>
       <c r="C123" t="n">
-        <v>0.247034</v>
+        <v>0.24907</v>
       </c>
       <c r="D123" t="n">
-        <v>0.286725</v>
+        <v>0.297083</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.32845</v>
+        <v>0.337804</v>
       </c>
       <c r="C124" t="n">
-        <v>0.273216</v>
+        <v>0.277766</v>
       </c>
       <c r="D124" t="n">
-        <v>0.282815</v>
+        <v>0.279792</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.32892</v>
+        <v>0.332338</v>
       </c>
       <c r="C125" t="n">
-        <v>0.272504</v>
+        <v>0.270243</v>
       </c>
       <c r="D125" t="n">
-        <v>0.283652</v>
+        <v>0.281998</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.326714</v>
+        <v>0.325898</v>
       </c>
       <c r="C126" t="n">
-        <v>0.27434</v>
+        <v>0.26794</v>
       </c>
       <c r="D126" t="n">
-        <v>0.28218</v>
+        <v>0.285731</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.313245</v>
+        <v>0.313704</v>
       </c>
       <c r="C127" t="n">
-        <v>0.265798</v>
+        <v>0.267777</v>
       </c>
       <c r="D127" t="n">
-        <v>0.27955</v>
+        <v>0.277972</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.305397</v>
+        <v>0.309019</v>
       </c>
       <c r="C128" t="n">
-        <v>0.26526</v>
+        <v>0.266775</v>
       </c>
       <c r="D128" t="n">
-        <v>0.278319</v>
+        <v>0.275425</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.300167</v>
+        <v>0.295748</v>
       </c>
       <c r="C129" t="n">
-        <v>0.262056</v>
+        <v>0.272403</v>
       </c>
       <c r="D129" t="n">
-        <v>0.274522</v>
+        <v>0.277602</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.289051</v>
+        <v>0.293213</v>
       </c>
       <c r="C130" t="n">
-        <v>0.264271</v>
+        <v>0.261537</v>
       </c>
       <c r="D130" t="n">
-        <v>0.267481</v>
+        <v>0.271001</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.287824</v>
+        <v>0.284606</v>
       </c>
       <c r="C131" t="n">
-        <v>0.256955</v>
+        <v>0.25947</v>
       </c>
       <c r="D131" t="n">
-        <v>0.266664</v>
+        <v>0.268217</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.282094</v>
+        <v>0.276605</v>
       </c>
       <c r="C132" t="n">
-        <v>0.250847</v>
+        <v>0.259816</v>
       </c>
       <c r="D132" t="n">
-        <v>0.269931</v>
+        <v>0.268377</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273357</v>
+        <v>0.27398</v>
       </c>
       <c r="C133" t="n">
-        <v>0.253675</v>
+        <v>0.251432</v>
       </c>
       <c r="D133" t="n">
-        <v>0.260411</v>
+        <v>0.266395</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.268735</v>
+        <v>0.261218</v>
       </c>
       <c r="C134" t="n">
-        <v>0.254104</v>
+        <v>0.251692</v>
       </c>
       <c r="D134" t="n">
-        <v>0.263335</v>
+        <v>0.262496</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.254119</v>
+        <v>0.253432</v>
       </c>
       <c r="C135" t="n">
-        <v>0.25547</v>
+        <v>0.250459</v>
       </c>
       <c r="D135" t="n">
-        <v>0.264934</v>
+        <v>0.263982</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.242857</v>
+        <v>0.248572</v>
       </c>
       <c r="C136" t="n">
-        <v>0.254879</v>
+        <v>0.248913</v>
       </c>
       <c r="D136" t="n">
-        <v>0.262729</v>
+        <v>0.260145</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.236269</v>
+        <v>0.235411</v>
       </c>
       <c r="C137" t="n">
-        <v>0.247234</v>
+        <v>0.247921</v>
       </c>
       <c r="D137" t="n">
-        <v>0.286227</v>
+        <v>0.290949</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.329804</v>
+        <v>0.332816</v>
       </c>
       <c r="C138" t="n">
-        <v>0.273692</v>
+        <v>0.289399</v>
       </c>
       <c r="D138" t="n">
-        <v>0.281593</v>
+        <v>0.285658</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.326338</v>
+        <v>0.323057</v>
       </c>
       <c r="C139" t="n">
-        <v>0.273228</v>
+        <v>0.274286</v>
       </c>
       <c r="D139" t="n">
-        <v>0.28741</v>
+        <v>0.27501</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.321619</v>
+        <v>0.316668</v>
       </c>
       <c r="C140" t="n">
-        <v>0.280451</v>
+        <v>0.264822</v>
       </c>
       <c r="D140" t="n">
-        <v>0.285792</v>
+        <v>0.274939</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.312159</v>
+        <v>0.308926</v>
       </c>
       <c r="C141" t="n">
-        <v>0.268501</v>
+        <v>0.260613</v>
       </c>
       <c r="D141" t="n">
-        <v>0.277031</v>
+        <v>0.276693</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.31023</v>
+        <v>0.301165</v>
       </c>
       <c r="C142" t="n">
-        <v>0.266358</v>
+        <v>0.259008</v>
       </c>
       <c r="D142" t="n">
-        <v>0.275533</v>
+        <v>0.267377</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.308495</v>
+        <v>0.297193</v>
       </c>
       <c r="C143" t="n">
-        <v>0.259822</v>
+        <v>0.258764</v>
       </c>
       <c r="D143" t="n">
-        <v>0.277109</v>
+        <v>0.264835</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.27444</v>
+        <v>0.2593</v>
       </c>
       <c r="C2" t="n">
-        <v>0.235233</v>
+        <v>0.244809</v>
       </c>
       <c r="D2" t="n">
-        <v>0.247922</v>
+        <v>0.2435</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.265151</v>
+        <v>0.26161</v>
       </c>
       <c r="C3" t="n">
-        <v>0.235965</v>
+        <v>0.242979</v>
       </c>
       <c r="D3" t="n">
-        <v>0.238901</v>
+        <v>0.239462</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.253328</v>
+        <v>0.253918</v>
       </c>
       <c r="C4" t="n">
-        <v>0.235946</v>
+        <v>0.241092</v>
       </c>
       <c r="D4" t="n">
-        <v>0.249444</v>
+        <v>0.241019</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.260005</v>
+        <v>0.249083</v>
       </c>
       <c r="C5" t="n">
-        <v>0.236562</v>
+        <v>0.242131</v>
       </c>
       <c r="D5" t="n">
-        <v>0.245646</v>
+        <v>0.240351</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.252031</v>
+        <v>0.240156</v>
       </c>
       <c r="C6" t="n">
-        <v>0.232467</v>
+        <v>0.238499</v>
       </c>
       <c r="D6" t="n">
-        <v>0.244862</v>
+        <v>0.241887</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.240313</v>
+        <v>0.231546</v>
       </c>
       <c r="C7" t="n">
-        <v>0.235242</v>
+        <v>0.233668</v>
       </c>
       <c r="D7" t="n">
-        <v>0.243752</v>
+        <v>0.240877</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.230478</v>
+        <v>0.223383</v>
       </c>
       <c r="C8" t="n">
-        <v>0.229818</v>
+        <v>0.23967</v>
       </c>
       <c r="D8" t="n">
-        <v>0.242609</v>
+        <v>0.240182</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.217998</v>
+        <v>0.213325</v>
       </c>
       <c r="C9" t="n">
-        <v>0.230423</v>
+        <v>0.233161</v>
       </c>
       <c r="D9" t="n">
-        <v>0.257038</v>
+        <v>0.248555</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.312633</v>
+        <v>0.297957</v>
       </c>
       <c r="C10" t="n">
-        <v>0.248312</v>
+        <v>0.251659</v>
       </c>
       <c r="D10" t="n">
-        <v>0.250775</v>
+        <v>0.245453</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.304808</v>
+        <v>0.294853</v>
       </c>
       <c r="C11" t="n">
-        <v>0.242725</v>
+        <v>0.251818</v>
       </c>
       <c r="D11" t="n">
-        <v>0.254771</v>
+        <v>0.246691</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.299138</v>
+        <v>0.283731</v>
       </c>
       <c r="C12" t="n">
-        <v>0.242559</v>
+        <v>0.249093</v>
       </c>
       <c r="D12" t="n">
-        <v>0.249461</v>
+        <v>0.248494</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.290305</v>
+        <v>0.277722</v>
       </c>
       <c r="C13" t="n">
-        <v>0.240273</v>
+        <v>0.247639</v>
       </c>
       <c r="D13" t="n">
-        <v>0.246665</v>
+        <v>0.248682</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.284399</v>
+        <v>0.272003</v>
       </c>
       <c r="C14" t="n">
-        <v>0.240264</v>
+        <v>0.243772</v>
       </c>
       <c r="D14" t="n">
-        <v>0.24772</v>
+        <v>0.244551</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.279947</v>
+        <v>0.269835</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238809</v>
+        <v>0.244748</v>
       </c>
       <c r="D15" t="n">
-        <v>0.246629</v>
+        <v>0.239062</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.274988</v>
+        <v>0.262785</v>
       </c>
       <c r="C16" t="n">
-        <v>0.237371</v>
+        <v>0.242651</v>
       </c>
       <c r="D16" t="n">
-        <v>0.24869</v>
+        <v>0.23887</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.267964</v>
+        <v>0.257344</v>
       </c>
       <c r="C17" t="n">
-        <v>0.239988</v>
+        <v>0.24193</v>
       </c>
       <c r="D17" t="n">
-        <v>0.248432</v>
+        <v>0.241793</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.261674</v>
+        <v>0.249829</v>
       </c>
       <c r="C18" t="n">
-        <v>0.238938</v>
+        <v>0.242129</v>
       </c>
       <c r="D18" t="n">
-        <v>0.248056</v>
+        <v>0.239944</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2539</v>
+        <v>0.244149</v>
       </c>
       <c r="C19" t="n">
-        <v>0.23454</v>
+        <v>0.241767</v>
       </c>
       <c r="D19" t="n">
-        <v>0.243496</v>
+        <v>0.237491</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.247191</v>
+        <v>0.23902</v>
       </c>
       <c r="C20" t="n">
-        <v>0.232092</v>
+        <v>0.2373</v>
       </c>
       <c r="D20" t="n">
-        <v>0.248057</v>
+        <v>0.239525</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241709</v>
+        <v>0.231258</v>
       </c>
       <c r="C21" t="n">
-        <v>0.234432</v>
+        <v>0.236011</v>
       </c>
       <c r="D21" t="n">
-        <v>0.247132</v>
+        <v>0.239521</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.232105</v>
+        <v>0.223937</v>
       </c>
       <c r="C22" t="n">
-        <v>0.232253</v>
+        <v>0.236944</v>
       </c>
       <c r="D22" t="n">
-        <v>0.245107</v>
+        <v>0.239506</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.221567</v>
+        <v>0.216806</v>
       </c>
       <c r="C23" t="n">
-        <v>0.230146</v>
+        <v>0.237307</v>
       </c>
       <c r="D23" t="n">
-        <v>0.261046</v>
+        <v>0.25084</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.309705</v>
+        <v>0.297313</v>
       </c>
       <c r="C24" t="n">
-        <v>0.250992</v>
+        <v>0.255643</v>
       </c>
       <c r="D24" t="n">
-        <v>0.259686</v>
+        <v>0.252947</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.303539</v>
+        <v>0.293969</v>
       </c>
       <c r="C25" t="n">
-        <v>0.251601</v>
+        <v>0.254186</v>
       </c>
       <c r="D25" t="n">
-        <v>0.255077</v>
+        <v>0.248136</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.301476</v>
+        <v>0.288743</v>
       </c>
       <c r="C26" t="n">
-        <v>0.247932</v>
+        <v>0.252088</v>
       </c>
       <c r="D26" t="n">
-        <v>0.254559</v>
+        <v>0.253679</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.29397</v>
+        <v>0.282419</v>
       </c>
       <c r="C27" t="n">
-        <v>0.246176</v>
+        <v>0.252239</v>
       </c>
       <c r="D27" t="n">
-        <v>0.255929</v>
+        <v>0.248823</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.288764</v>
+        <v>0.274107</v>
       </c>
       <c r="C28" t="n">
-        <v>0.244246</v>
+        <v>0.252917</v>
       </c>
       <c r="D28" t="n">
-        <v>0.251672</v>
+        <v>0.246781</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.28554</v>
+        <v>0.268914</v>
       </c>
       <c r="C29" t="n">
-        <v>0.244322</v>
+        <v>0.245788</v>
       </c>
       <c r="D29" t="n">
-        <v>0.250895</v>
+        <v>0.247889</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.277389</v>
+        <v>0.262849</v>
       </c>
       <c r="C30" t="n">
-        <v>0.240018</v>
+        <v>0.250441</v>
       </c>
       <c r="D30" t="n">
-        <v>0.252594</v>
+        <v>0.250544</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.270261</v>
+        <v>0.255558</v>
       </c>
       <c r="C31" t="n">
-        <v>0.238196</v>
+        <v>0.24701</v>
       </c>
       <c r="D31" t="n">
-        <v>0.248753</v>
+        <v>0.245213</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.262877</v>
+        <v>0.252285</v>
       </c>
       <c r="C32" t="n">
-        <v>0.237786</v>
+        <v>0.248536</v>
       </c>
       <c r="D32" t="n">
-        <v>0.249735</v>
+        <v>0.249625</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.25649</v>
+        <v>0.248325</v>
       </c>
       <c r="C33" t="n">
-        <v>0.23685</v>
+        <v>0.245091</v>
       </c>
       <c r="D33" t="n">
-        <v>0.250607</v>
+        <v>0.243087</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.250111</v>
+        <v>0.237855</v>
       </c>
       <c r="C34" t="n">
-        <v>0.234352</v>
+        <v>0.240115</v>
       </c>
       <c r="D34" t="n">
-        <v>0.250292</v>
+        <v>0.240434</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.242906</v>
+        <v>0.233593</v>
       </c>
       <c r="C35" t="n">
-        <v>0.238661</v>
+        <v>0.239982</v>
       </c>
       <c r="D35" t="n">
-        <v>0.24762</v>
+        <v>0.242428</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.237286</v>
+        <v>0.22654</v>
       </c>
       <c r="C36" t="n">
-        <v>0.235512</v>
+        <v>0.237093</v>
       </c>
       <c r="D36" t="n">
-        <v>0.247487</v>
+        <v>0.24038</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.228782</v>
+        <v>0.221487</v>
       </c>
       <c r="C37" t="n">
-        <v>0.233647</v>
+        <v>0.239483</v>
       </c>
       <c r="D37" t="n">
-        <v>0.266632</v>
+        <v>0.264847</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.317563</v>
+        <v>0.303676</v>
       </c>
       <c r="C38" t="n">
-        <v>0.260811</v>
+        <v>0.258213</v>
       </c>
       <c r="D38" t="n">
-        <v>0.265975</v>
+        <v>0.261476</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.312413</v>
+        <v>0.2991</v>
       </c>
       <c r="C39" t="n">
-        <v>0.254571</v>
+        <v>0.257607</v>
       </c>
       <c r="D39" t="n">
-        <v>0.264624</v>
+        <v>0.259044</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.30739</v>
+        <v>0.291954</v>
       </c>
       <c r="C40" t="n">
-        <v>0.253236</v>
+        <v>0.257322</v>
       </c>
       <c r="D40" t="n">
-        <v>0.264915</v>
+        <v>0.259655</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.301978</v>
+        <v>0.285332</v>
       </c>
       <c r="C41" t="n">
-        <v>0.252114</v>
+        <v>0.254166</v>
       </c>
       <c r="D41" t="n">
-        <v>0.259944</v>
+        <v>0.256612</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.292511</v>
+        <v>0.281723</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250437</v>
+        <v>0.256749</v>
       </c>
       <c r="D42" t="n">
-        <v>0.261113</v>
+        <v>0.253266</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.291142</v>
+        <v>0.275591</v>
       </c>
       <c r="C43" t="n">
-        <v>0.247064</v>
+        <v>0.25248</v>
       </c>
       <c r="D43" t="n">
-        <v>0.25355</v>
+        <v>0.255411</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.282284</v>
+        <v>0.269514</v>
       </c>
       <c r="C44" t="n">
-        <v>0.24743</v>
+        <v>0.253029</v>
       </c>
       <c r="D44" t="n">
-        <v>0.259106</v>
+        <v>0.250557</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.27523</v>
+        <v>0.261068</v>
       </c>
       <c r="C45" t="n">
-        <v>0.243387</v>
+        <v>0.252549</v>
       </c>
       <c r="D45" t="n">
-        <v>0.25486</v>
+        <v>0.248028</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.270267</v>
+        <v>0.257183</v>
       </c>
       <c r="C46" t="n">
-        <v>0.242534</v>
+        <v>0.250236</v>
       </c>
       <c r="D46" t="n">
-        <v>0.251617</v>
+        <v>0.246655</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.26027</v>
+        <v>0.250086</v>
       </c>
       <c r="C47" t="n">
-        <v>0.240635</v>
+        <v>0.247643</v>
       </c>
       <c r="D47" t="n">
-        <v>0.253416</v>
+        <v>0.246742</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.260021</v>
+        <v>0.246342</v>
       </c>
       <c r="C48" t="n">
-        <v>0.240284</v>
+        <v>0.245106</v>
       </c>
       <c r="D48" t="n">
-        <v>0.254214</v>
+        <v>0.246064</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.248193</v>
+        <v>0.237326</v>
       </c>
       <c r="C49" t="n">
-        <v>0.240514</v>
+        <v>0.24482</v>
       </c>
       <c r="D49" t="n">
-        <v>0.251398</v>
+        <v>0.243526</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.238283</v>
+        <v>0.227351</v>
       </c>
       <c r="C50" t="n">
-        <v>0.234975</v>
+        <v>0.243269</v>
       </c>
       <c r="D50" t="n">
-        <v>0.249772</v>
+        <v>0.241932</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.229241</v>
+        <v>0.227919</v>
       </c>
       <c r="C51" t="n">
-        <v>0.235481</v>
+        <v>0.243348</v>
       </c>
       <c r="D51" t="n">
-        <v>0.276936</v>
+        <v>0.269141</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.227075</v>
+        <v>0.212232</v>
       </c>
       <c r="C52" t="n">
-        <v>0.236291</v>
+        <v>0.241379</v>
       </c>
       <c r="D52" t="n">
-        <v>0.273338</v>
+        <v>0.261148</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.31511</v>
+        <v>0.30372</v>
       </c>
       <c r="C53" t="n">
-        <v>0.260212</v>
+        <v>0.266371</v>
       </c>
       <c r="D53" t="n">
-        <v>0.273593</v>
+        <v>0.261008</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.316664</v>
+        <v>0.295533</v>
       </c>
       <c r="C54" t="n">
-        <v>0.260485</v>
+        <v>0.266863</v>
       </c>
       <c r="D54" t="n">
-        <v>0.267248</v>
+        <v>0.262813</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.307084</v>
+        <v>0.294756</v>
       </c>
       <c r="C55" t="n">
-        <v>0.254783</v>
+        <v>0.261247</v>
       </c>
       <c r="D55" t="n">
-        <v>0.266802</v>
+        <v>0.256911</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.300815</v>
+        <v>0.287708</v>
       </c>
       <c r="C56" t="n">
-        <v>0.257212</v>
+        <v>0.259743</v>
       </c>
       <c r="D56" t="n">
-        <v>0.265977</v>
+        <v>0.256462</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.29497</v>
+        <v>0.282306</v>
       </c>
       <c r="C57" t="n">
-        <v>0.249741</v>
+        <v>0.25579</v>
       </c>
       <c r="D57" t="n">
-        <v>0.263633</v>
+        <v>0.257993</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.285439</v>
+        <v>0.280572</v>
       </c>
       <c r="C58" t="n">
-        <v>0.251567</v>
+        <v>0.25495</v>
       </c>
       <c r="D58" t="n">
-        <v>0.260609</v>
+        <v>0.25479</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.277741</v>
+        <v>0.273276</v>
       </c>
       <c r="C59" t="n">
-        <v>0.247918</v>
+        <v>0.253129</v>
       </c>
       <c r="D59" t="n">
-        <v>0.26152</v>
+        <v>0.253683</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.273503</v>
+        <v>0.263449</v>
       </c>
       <c r="C60" t="n">
-        <v>0.247506</v>
+        <v>0.256431</v>
       </c>
       <c r="D60" t="n">
-        <v>0.258701</v>
+        <v>0.253845</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.266811</v>
+        <v>0.258143</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245291</v>
+        <v>0.250083</v>
       </c>
       <c r="D61" t="n">
-        <v>0.255473</v>
+        <v>0.250812</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.262688</v>
+        <v>0.252238</v>
       </c>
       <c r="C62" t="n">
-        <v>0.242699</v>
+        <v>0.247702</v>
       </c>
       <c r="D62" t="n">
-        <v>0.256119</v>
+        <v>0.249824</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.25321</v>
+        <v>0.243118</v>
       </c>
       <c r="C63" t="n">
-        <v>0.245006</v>
+        <v>0.246404</v>
       </c>
       <c r="D63" t="n">
-        <v>0.25844</v>
+        <v>0.246722</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.246074</v>
+        <v>0.236772</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242273</v>
+        <v>0.246098</v>
       </c>
       <c r="D64" t="n">
-        <v>0.253419</v>
+        <v>0.244581</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.241071</v>
+        <v>0.230921</v>
       </c>
       <c r="C65" t="n">
-        <v>0.241146</v>
+        <v>0.248443</v>
       </c>
       <c r="D65" t="n">
-        <v>0.250639</v>
+        <v>0.249428</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.225543</v>
+        <v>0.219233</v>
       </c>
       <c r="C66" t="n">
-        <v>0.236944</v>
+        <v>0.242029</v>
       </c>
       <c r="D66" t="n">
-        <v>0.281174</v>
+        <v>0.278437</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.323678</v>
+        <v>0.318603</v>
       </c>
       <c r="C67" t="n">
-        <v>0.266154</v>
+        <v>0.278623</v>
       </c>
       <c r="D67" t="n">
-        <v>0.27904</v>
+        <v>0.276765</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.324262</v>
+        <v>0.303925</v>
       </c>
       <c r="C68" t="n">
-        <v>0.268281</v>
+        <v>0.27896</v>
       </c>
       <c r="D68" t="n">
-        <v>0.279192</v>
+        <v>0.270807</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.311338</v>
+        <v>0.305429</v>
       </c>
       <c r="C69" t="n">
-        <v>0.266888</v>
+        <v>0.274955</v>
       </c>
       <c r="D69" t="n">
-        <v>0.273661</v>
+        <v>0.270471</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.309958</v>
+        <v>0.299172</v>
       </c>
       <c r="C70" t="n">
-        <v>0.260587</v>
+        <v>0.269942</v>
       </c>
       <c r="D70" t="n">
-        <v>0.269375</v>
+        <v>0.267107</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.301652</v>
+        <v>0.293049</v>
       </c>
       <c r="C71" t="n">
-        <v>0.258996</v>
+        <v>0.270216</v>
       </c>
       <c r="D71" t="n">
-        <v>0.268623</v>
+        <v>0.264894</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.294176</v>
+        <v>0.284244</v>
       </c>
       <c r="C72" t="n">
-        <v>0.255829</v>
+        <v>0.266363</v>
       </c>
       <c r="D72" t="n">
-        <v>0.269697</v>
+        <v>0.26463</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.285197</v>
+        <v>0.277146</v>
       </c>
       <c r="C73" t="n">
-        <v>0.260467</v>
+        <v>0.262996</v>
       </c>
       <c r="D73" t="n">
-        <v>0.266322</v>
+        <v>0.261393</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.281244</v>
+        <v>0.275629</v>
       </c>
       <c r="C74" t="n">
-        <v>0.252417</v>
+        <v>0.258479</v>
       </c>
       <c r="D74" t="n">
-        <v>0.263081</v>
+        <v>0.260627</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.273381</v>
+        <v>0.268751</v>
       </c>
       <c r="C75" t="n">
-        <v>0.252691</v>
+        <v>0.256909</v>
       </c>
       <c r="D75" t="n">
-        <v>0.26013</v>
+        <v>0.256399</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.267514</v>
+        <v>0.258243</v>
       </c>
       <c r="C76" t="n">
-        <v>0.253843</v>
+        <v>0.256963</v>
       </c>
       <c r="D76" t="n">
-        <v>0.26159</v>
+        <v>0.253349</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.259768</v>
+        <v>0.252497</v>
       </c>
       <c r="C77" t="n">
-        <v>0.247358</v>
+        <v>0.253499</v>
       </c>
       <c r="D77" t="n">
-        <v>0.259471</v>
+        <v>0.251169</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.252327</v>
+        <v>0.243144</v>
       </c>
       <c r="C78" t="n">
-        <v>0.249368</v>
+        <v>0.254381</v>
       </c>
       <c r="D78" t="n">
-        <v>0.255289</v>
+        <v>0.25212</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.245012</v>
+        <v>0.233829</v>
       </c>
       <c r="C79" t="n">
-        <v>0.243117</v>
+        <v>0.250142</v>
       </c>
       <c r="D79" t="n">
-        <v>0.256934</v>
+        <v>0.25172</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.233071</v>
+        <v>0.229634</v>
       </c>
       <c r="C80" t="n">
-        <v>0.245738</v>
+        <v>0.249708</v>
       </c>
       <c r="D80" t="n">
-        <v>0.287366</v>
+        <v>0.27834</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.334605</v>
+        <v>0.320896</v>
       </c>
       <c r="C81" t="n">
-        <v>0.274781</v>
+        <v>0.280927</v>
       </c>
       <c r="D81" t="n">
-        <v>0.282571</v>
+        <v>0.276198</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.324801</v>
+        <v>0.315758</v>
       </c>
       <c r="C82" t="n">
-        <v>0.270102</v>
+        <v>0.280444</v>
       </c>
       <c r="D82" t="n">
-        <v>0.279493</v>
+        <v>0.273942</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.323867</v>
+        <v>0.310826</v>
       </c>
       <c r="C83" t="n">
-        <v>0.268366</v>
+        <v>0.27426</v>
       </c>
       <c r="D83" t="n">
-        <v>0.27664</v>
+        <v>0.271125</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.31411</v>
+        <v>0.304111</v>
       </c>
       <c r="C84" t="n">
-        <v>0.266578</v>
+        <v>0.275735</v>
       </c>
       <c r="D84" t="n">
-        <v>0.273112</v>
+        <v>0.276344</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.307228</v>
+        <v>0.298424</v>
       </c>
       <c r="C85" t="n">
-        <v>0.26184</v>
+        <v>0.271303</v>
       </c>
       <c r="D85" t="n">
-        <v>0.2719</v>
+        <v>0.267528</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.302991</v>
+        <v>0.285188</v>
       </c>
       <c r="C86" t="n">
-        <v>0.262592</v>
+        <v>0.266587</v>
       </c>
       <c r="D86" t="n">
-        <v>0.272968</v>
+        <v>0.263094</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.292881</v>
+        <v>0.28436</v>
       </c>
       <c r="C87" t="n">
-        <v>0.260505</v>
+        <v>0.264778</v>
       </c>
       <c r="D87" t="n">
-        <v>0.266495</v>
+        <v>0.265325</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.284734</v>
+        <v>0.280522</v>
       </c>
       <c r="C88" t="n">
-        <v>0.259554</v>
+        <v>0.263159</v>
       </c>
       <c r="D88" t="n">
-        <v>0.266182</v>
+        <v>0.264788</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.277567</v>
+        <v>0.27395</v>
       </c>
       <c r="C89" t="n">
-        <v>0.254559</v>
+        <v>0.259309</v>
       </c>
       <c r="D89" t="n">
-        <v>0.268731</v>
+        <v>0.258775</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.272312</v>
+        <v>0.261452</v>
       </c>
       <c r="C90" t="n">
-        <v>0.254174</v>
+        <v>0.259156</v>
       </c>
       <c r="D90" t="n">
-        <v>0.263603</v>
+        <v>0.254658</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.262775</v>
+        <v>0.255026</v>
       </c>
       <c r="C91" t="n">
-        <v>0.250077</v>
+        <v>0.257662</v>
       </c>
       <c r="D91" t="n">
-        <v>0.262611</v>
+        <v>0.257238</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258756</v>
+        <v>0.246846</v>
       </c>
       <c r="C92" t="n">
-        <v>0.249822</v>
+        <v>0.254441</v>
       </c>
       <c r="D92" t="n">
-        <v>0.258467</v>
+        <v>0.253723</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.248857</v>
+        <v>0.236633</v>
       </c>
       <c r="C93" t="n">
-        <v>0.250807</v>
+        <v>0.251696</v>
       </c>
       <c r="D93" t="n">
-        <v>0.257319</v>
+        <v>0.253192</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.243057</v>
+        <v>0.2336</v>
       </c>
       <c r="C94" t="n">
-        <v>0.244167</v>
+        <v>0.250569</v>
       </c>
       <c r="D94" t="n">
-        <v>0.288267</v>
+        <v>0.283577</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.333804</v>
+        <v>0.325322</v>
       </c>
       <c r="C95" t="n">
-        <v>0.279325</v>
+        <v>0.284771</v>
       </c>
       <c r="D95" t="n">
-        <v>0.28914</v>
+        <v>0.27827</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.33321</v>
+        <v>0.320273</v>
       </c>
       <c r="C96" t="n">
-        <v>0.275372</v>
+        <v>0.2758</v>
       </c>
       <c r="D96" t="n">
-        <v>0.282176</v>
+        <v>0.278499</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.324281</v>
+        <v>0.311708</v>
       </c>
       <c r="C97" t="n">
-        <v>0.274575</v>
+        <v>0.279406</v>
       </c>
       <c r="D97" t="n">
-        <v>0.276061</v>
+        <v>0.274742</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.313518</v>
+        <v>0.305091</v>
       </c>
       <c r="C98" t="n">
-        <v>0.274048</v>
+        <v>0.276605</v>
       </c>
       <c r="D98" t="n">
-        <v>0.276726</v>
+        <v>0.274754</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.314644</v>
+        <v>0.298599</v>
       </c>
       <c r="C99" t="n">
-        <v>0.266505</v>
+        <v>0.269021</v>
       </c>
       <c r="D99" t="n">
-        <v>0.274043</v>
+        <v>0.272548</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.30568</v>
+        <v>0.29504</v>
       </c>
       <c r="C100" t="n">
-        <v>0.263973</v>
+        <v>0.266729</v>
       </c>
       <c r="D100" t="n">
-        <v>0.272883</v>
+        <v>0.267982</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.294331</v>
+        <v>0.286408</v>
       </c>
       <c r="C101" t="n">
-        <v>0.265029</v>
+        <v>0.27144</v>
       </c>
       <c r="D101" t="n">
-        <v>0.269527</v>
+        <v>0.261786</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.291766</v>
+        <v>0.275367</v>
       </c>
       <c r="C102" t="n">
-        <v>0.261132</v>
+        <v>0.263287</v>
       </c>
       <c r="D102" t="n">
-        <v>0.274654</v>
+        <v>0.259478</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.280942</v>
+        <v>0.272509</v>
       </c>
       <c r="C103" t="n">
-        <v>0.257118</v>
+        <v>0.259002</v>
       </c>
       <c r="D103" t="n">
-        <v>0.263821</v>
+        <v>0.263489</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.277421</v>
+        <v>0.267244</v>
       </c>
       <c r="C104" t="n">
-        <v>0.255414</v>
+        <v>0.258779</v>
       </c>
       <c r="D104" t="n">
-        <v>0.265231</v>
+        <v>0.257979</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.26978</v>
+        <v>0.256541</v>
       </c>
       <c r="C105" t="n">
-        <v>0.254262</v>
+        <v>0.258851</v>
       </c>
       <c r="D105" t="n">
-        <v>0.263084</v>
+        <v>0.256703</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.264762</v>
+        <v>0.249391</v>
       </c>
       <c r="C106" t="n">
-        <v>0.249813</v>
+        <v>0.261256</v>
       </c>
       <c r="D106" t="n">
-        <v>0.26092</v>
+        <v>0.25319</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.250269</v>
+        <v>0.238623</v>
       </c>
       <c r="C107" t="n">
-        <v>0.248113</v>
+        <v>0.253196</v>
       </c>
       <c r="D107" t="n">
-        <v>0.260264</v>
+        <v>0.254736</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.244304</v>
+        <v>0.234344</v>
       </c>
       <c r="C108" t="n">
-        <v>0.246559</v>
+        <v>0.251496</v>
       </c>
       <c r="D108" t="n">
-        <v>0.290543</v>
+        <v>0.282002</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.230508</v>
+        <v>0.225472</v>
       </c>
       <c r="C109" t="n">
-        <v>0.248421</v>
+        <v>0.253503</v>
       </c>
       <c r="D109" t="n">
-        <v>0.28506</v>
+        <v>0.279964</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.332504</v>
+        <v>0.32367</v>
       </c>
       <c r="C110" t="n">
-        <v>0.274715</v>
+        <v>0.277254</v>
       </c>
       <c r="D110" t="n">
-        <v>0.282342</v>
+        <v>0.279647</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.326635</v>
+        <v>0.312802</v>
       </c>
       <c r="C111" t="n">
-        <v>0.272227</v>
+        <v>0.276705</v>
       </c>
       <c r="D111" t="n">
-        <v>0.278539</v>
+        <v>0.272952</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.321617</v>
+        <v>0.30606</v>
       </c>
       <c r="C112" t="n">
-        <v>0.270614</v>
+        <v>0.278239</v>
       </c>
       <c r="D112" t="n">
-        <v>0.277111</v>
+        <v>0.275283</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.311684</v>
+        <v>0.300297</v>
       </c>
       <c r="C113" t="n">
-        <v>0.267412</v>
+        <v>0.276243</v>
       </c>
       <c r="D113" t="n">
-        <v>0.27547</v>
+        <v>0.271965</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.309113</v>
+        <v>0.300022</v>
       </c>
       <c r="C114" t="n">
-        <v>0.265527</v>
+        <v>0.275059</v>
       </c>
       <c r="D114" t="n">
-        <v>0.273264</v>
+        <v>0.266339</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.295518</v>
+        <v>0.287468</v>
       </c>
       <c r="C115" t="n">
-        <v>0.260462</v>
+        <v>0.269057</v>
       </c>
       <c r="D115" t="n">
-        <v>0.272114</v>
+        <v>0.265493</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.293937</v>
+        <v>0.286527</v>
       </c>
       <c r="C116" t="n">
-        <v>0.25818</v>
+        <v>0.26357</v>
       </c>
       <c r="D116" t="n">
-        <v>0.269349</v>
+        <v>0.268147</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.284063</v>
+        <v>0.273995</v>
       </c>
       <c r="C117" t="n">
-        <v>0.260471</v>
+        <v>0.262269</v>
       </c>
       <c r="D117" t="n">
-        <v>0.26916</v>
+        <v>0.260559</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.274069</v>
+        <v>0.263948</v>
       </c>
       <c r="C118" t="n">
-        <v>0.253151</v>
+        <v>0.25953</v>
       </c>
       <c r="D118" t="n">
-        <v>0.264221</v>
+        <v>0.262052</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271097</v>
+        <v>0.2577</v>
       </c>
       <c r="C119" t="n">
-        <v>0.255233</v>
+        <v>0.255421</v>
       </c>
       <c r="D119" t="n">
-        <v>0.265742</v>
+        <v>0.256218</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.262609</v>
+        <v>0.252555</v>
       </c>
       <c r="C120" t="n">
-        <v>0.254688</v>
+        <v>0.258739</v>
       </c>
       <c r="D120" t="n">
-        <v>0.260197</v>
+        <v>0.257522</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.25318</v>
+        <v>0.250449</v>
       </c>
       <c r="C121" t="n">
-        <v>0.247083</v>
+        <v>0.252679</v>
       </c>
       <c r="D121" t="n">
-        <v>0.260946</v>
+        <v>0.255925</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.243006</v>
+        <v>0.237829</v>
       </c>
       <c r="C122" t="n">
-        <v>0.247224</v>
+        <v>0.255194</v>
       </c>
       <c r="D122" t="n">
-        <v>0.259489</v>
+        <v>0.253601</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.24115</v>
+        <v>0.230346</v>
       </c>
       <c r="C123" t="n">
-        <v>0.24907</v>
+        <v>0.24958</v>
       </c>
       <c r="D123" t="n">
-        <v>0.297083</v>
+        <v>0.28131</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.337804</v>
+        <v>0.320759</v>
       </c>
       <c r="C124" t="n">
-        <v>0.277766</v>
+        <v>0.280788</v>
       </c>
       <c r="D124" t="n">
-        <v>0.279792</v>
+        <v>0.282981</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.332338</v>
+        <v>0.329867</v>
       </c>
       <c r="C125" t="n">
-        <v>0.270243</v>
+        <v>0.280729</v>
       </c>
       <c r="D125" t="n">
-        <v>0.281998</v>
+        <v>0.279371</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.325898</v>
+        <v>0.312694</v>
       </c>
       <c r="C126" t="n">
-        <v>0.26794</v>
+        <v>0.275948</v>
       </c>
       <c r="D126" t="n">
-        <v>0.285731</v>
+        <v>0.271614</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.313704</v>
+        <v>0.30051</v>
       </c>
       <c r="C127" t="n">
-        <v>0.267777</v>
+        <v>0.275437</v>
       </c>
       <c r="D127" t="n">
-        <v>0.277972</v>
+        <v>0.273035</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.309019</v>
+        <v>0.293972</v>
       </c>
       <c r="C128" t="n">
-        <v>0.266775</v>
+        <v>0.269972</v>
       </c>
       <c r="D128" t="n">
-        <v>0.275425</v>
+        <v>0.269726</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.295748</v>
+        <v>0.287287</v>
       </c>
       <c r="C129" t="n">
-        <v>0.272403</v>
+        <v>0.267497</v>
       </c>
       <c r="D129" t="n">
-        <v>0.277602</v>
+        <v>0.270446</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.293213</v>
+        <v>0.278121</v>
       </c>
       <c r="C130" t="n">
-        <v>0.261537</v>
+        <v>0.269342</v>
       </c>
       <c r="D130" t="n">
-        <v>0.271001</v>
+        <v>0.263675</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.284606</v>
+        <v>0.270599</v>
       </c>
       <c r="C131" t="n">
-        <v>0.25947</v>
+        <v>0.265494</v>
       </c>
       <c r="D131" t="n">
-        <v>0.268217</v>
+        <v>0.260704</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.276605</v>
+        <v>0.26538</v>
       </c>
       <c r="C132" t="n">
-        <v>0.259816</v>
+        <v>0.263399</v>
       </c>
       <c r="D132" t="n">
-        <v>0.268377</v>
+        <v>0.256581</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.27398</v>
+        <v>0.259596</v>
       </c>
       <c r="C133" t="n">
-        <v>0.251432</v>
+        <v>0.254148</v>
       </c>
       <c r="D133" t="n">
-        <v>0.266395</v>
+        <v>0.257177</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.261218</v>
+        <v>0.253826</v>
       </c>
       <c r="C134" t="n">
-        <v>0.251692</v>
+        <v>0.256284</v>
       </c>
       <c r="D134" t="n">
-        <v>0.262496</v>
+        <v>0.257166</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.253432</v>
+        <v>0.246882</v>
       </c>
       <c r="C135" t="n">
-        <v>0.250459</v>
+        <v>0.259174</v>
       </c>
       <c r="D135" t="n">
-        <v>0.263982</v>
+        <v>0.254677</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.248572</v>
+        <v>0.234966</v>
       </c>
       <c r="C136" t="n">
-        <v>0.248913</v>
+        <v>0.253237</v>
       </c>
       <c r="D136" t="n">
-        <v>0.260145</v>
+        <v>0.254946</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235411</v>
+        <v>0.227773</v>
       </c>
       <c r="C137" t="n">
-        <v>0.247921</v>
+        <v>0.256894</v>
       </c>
       <c r="D137" t="n">
-        <v>0.290949</v>
+        <v>0.281112</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.332816</v>
+        <v>0.322808</v>
       </c>
       <c r="C138" t="n">
-        <v>0.289399</v>
+        <v>0.278915</v>
       </c>
       <c r="D138" t="n">
-        <v>0.285658</v>
+        <v>0.279202</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.323057</v>
+        <v>0.312791</v>
       </c>
       <c r="C139" t="n">
-        <v>0.274286</v>
+        <v>0.277057</v>
       </c>
       <c r="D139" t="n">
-        <v>0.27501</v>
+        <v>0.277111</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.316668</v>
+        <v>0.311309</v>
       </c>
       <c r="C140" t="n">
-        <v>0.264822</v>
+        <v>0.273012</v>
       </c>
       <c r="D140" t="n">
-        <v>0.274939</v>
+        <v>0.272873</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.308926</v>
+        <v>0.305117</v>
       </c>
       <c r="C141" t="n">
-        <v>0.260613</v>
+        <v>0.271705</v>
       </c>
       <c r="D141" t="n">
-        <v>0.276693</v>
+        <v>0.271673</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.301165</v>
+        <v>0.293883</v>
       </c>
       <c r="C142" t="n">
-        <v>0.259008</v>
+        <v>0.271387</v>
       </c>
       <c r="D142" t="n">
-        <v>0.267377</v>
+        <v>0.265606</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.297193</v>
+        <v>0.296362</v>
       </c>
       <c r="C143" t="n">
-        <v>0.258764</v>
+        <v>0.270775</v>
       </c>
       <c r="D143" t="n">
-        <v>0.264835</v>
+        <v>0.263082</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2593</v>
+        <v>0.263379</v>
       </c>
       <c r="C2" t="n">
-        <v>0.244809</v>
+        <v>0.537235</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2435</v>
+        <v>0.242872</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.26161</v>
+        <v>0.254599</v>
       </c>
       <c r="C3" t="n">
-        <v>0.242979</v>
+        <v>0.546318</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239462</v>
+        <v>0.244564</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.253918</v>
+        <v>0.248366</v>
       </c>
       <c r="C4" t="n">
-        <v>0.241092</v>
+        <v>0.548901</v>
       </c>
       <c r="D4" t="n">
-        <v>0.241019</v>
+        <v>0.236575</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.249083</v>
+        <v>0.23627</v>
       </c>
       <c r="C5" t="n">
-        <v>0.242131</v>
+        <v>0.55716</v>
       </c>
       <c r="D5" t="n">
-        <v>0.240351</v>
+        <v>0.237292</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.240156</v>
+        <v>0.237104</v>
       </c>
       <c r="C6" t="n">
-        <v>0.238499</v>
+        <v>0.616428</v>
       </c>
       <c r="D6" t="n">
-        <v>0.241887</v>
+        <v>0.241966</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.231546</v>
+        <v>0.228393</v>
       </c>
       <c r="C7" t="n">
-        <v>0.233668</v>
+        <v>0.647915</v>
       </c>
       <c r="D7" t="n">
-        <v>0.240877</v>
+        <v>0.243425</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.223383</v>
+        <v>0.22251</v>
       </c>
       <c r="C8" t="n">
-        <v>0.23967</v>
+        <v>0.474696</v>
       </c>
       <c r="D8" t="n">
-        <v>0.240182</v>
+        <v>0.241595</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.213325</v>
+        <v>0.215845</v>
       </c>
       <c r="C9" t="n">
-        <v>0.233161</v>
+        <v>0.495092</v>
       </c>
       <c r="D9" t="n">
-        <v>0.248555</v>
+        <v>0.258002</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.297957</v>
+        <v>0.308111</v>
       </c>
       <c r="C10" t="n">
-        <v>0.251659</v>
+        <v>0.479237</v>
       </c>
       <c r="D10" t="n">
-        <v>0.245453</v>
+        <v>0.25198</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.294853</v>
+        <v>0.293267</v>
       </c>
       <c r="C11" t="n">
-        <v>0.251818</v>
+        <v>0.486409</v>
       </c>
       <c r="D11" t="n">
-        <v>0.246691</v>
+        <v>0.25161</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.283731</v>
+        <v>0.286199</v>
       </c>
       <c r="C12" t="n">
-        <v>0.249093</v>
+        <v>0.495697</v>
       </c>
       <c r="D12" t="n">
-        <v>0.248494</v>
+        <v>0.243731</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.277722</v>
+        <v>0.276361</v>
       </c>
       <c r="C13" t="n">
-        <v>0.247639</v>
+        <v>0.53047</v>
       </c>
       <c r="D13" t="n">
-        <v>0.248682</v>
+        <v>0.248301</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.272003</v>
+        <v>0.274646</v>
       </c>
       <c r="C14" t="n">
-        <v>0.243772</v>
+        <v>0.530959</v>
       </c>
       <c r="D14" t="n">
-        <v>0.244551</v>
+        <v>0.249197</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.269835</v>
+        <v>0.266871</v>
       </c>
       <c r="C15" t="n">
-        <v>0.244748</v>
+        <v>0.523536</v>
       </c>
       <c r="D15" t="n">
-        <v>0.239062</v>
+        <v>0.245278</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.262785</v>
+        <v>0.261571</v>
       </c>
       <c r="C16" t="n">
-        <v>0.242651</v>
+        <v>0.5277849999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.23887</v>
+        <v>0.246224</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.257344</v>
+        <v>0.25622</v>
       </c>
       <c r="C17" t="n">
-        <v>0.24193</v>
+        <v>0.55182</v>
       </c>
       <c r="D17" t="n">
-        <v>0.241793</v>
+        <v>0.247903</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.249829</v>
+        <v>0.251051</v>
       </c>
       <c r="C18" t="n">
-        <v>0.242129</v>
+        <v>0.5656</v>
       </c>
       <c r="D18" t="n">
-        <v>0.239944</v>
+        <v>0.241129</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.244149</v>
+        <v>0.24316</v>
       </c>
       <c r="C19" t="n">
-        <v>0.241767</v>
+        <v>0.590647</v>
       </c>
       <c r="D19" t="n">
-        <v>0.237491</v>
+        <v>0.241806</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.23902</v>
+        <v>0.235072</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2373</v>
+        <v>0.613216</v>
       </c>
       <c r="D20" t="n">
-        <v>0.239525</v>
+        <v>0.240504</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.231258</v>
+        <v>0.227465</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236011</v>
+        <v>0.623516</v>
       </c>
       <c r="D21" t="n">
-        <v>0.239521</v>
+        <v>0.242181</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.223937</v>
+        <v>0.22015</v>
       </c>
       <c r="C22" t="n">
-        <v>0.236944</v>
+        <v>0.47955</v>
       </c>
       <c r="D22" t="n">
-        <v>0.239506</v>
+        <v>0.237853</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.216806</v>
+        <v>0.213556</v>
       </c>
       <c r="C23" t="n">
-        <v>0.237307</v>
+        <v>0.508308</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25084</v>
+        <v>0.259215</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.297313</v>
+        <v>0.298313</v>
       </c>
       <c r="C24" t="n">
-        <v>0.255643</v>
+        <v>0.502822</v>
       </c>
       <c r="D24" t="n">
-        <v>0.252947</v>
+        <v>0.256415</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.293969</v>
+        <v>0.290507</v>
       </c>
       <c r="C25" t="n">
-        <v>0.254186</v>
+        <v>0.528985</v>
       </c>
       <c r="D25" t="n">
-        <v>0.248136</v>
+        <v>0.254995</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.288743</v>
+        <v>0.289087</v>
       </c>
       <c r="C26" t="n">
-        <v>0.252088</v>
+        <v>0.546028</v>
       </c>
       <c r="D26" t="n">
-        <v>0.253679</v>
+        <v>0.249852</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.282419</v>
+        <v>0.283303</v>
       </c>
       <c r="C27" t="n">
-        <v>0.252239</v>
+        <v>0.525276</v>
       </c>
       <c r="D27" t="n">
-        <v>0.248823</v>
+        <v>0.250934</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.274107</v>
+        <v>0.277531</v>
       </c>
       <c r="C28" t="n">
-        <v>0.252917</v>
+        <v>0.534348</v>
       </c>
       <c r="D28" t="n">
-        <v>0.246781</v>
+        <v>0.2532</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268914</v>
+        <v>0.268771</v>
       </c>
       <c r="C29" t="n">
-        <v>0.245788</v>
+        <v>0.547208</v>
       </c>
       <c r="D29" t="n">
-        <v>0.247889</v>
+        <v>0.248956</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.262849</v>
+        <v>0.264042</v>
       </c>
       <c r="C30" t="n">
-        <v>0.250441</v>
+        <v>0.557635</v>
       </c>
       <c r="D30" t="n">
-        <v>0.250544</v>
+        <v>0.251998</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.255558</v>
+        <v>0.260122</v>
       </c>
       <c r="C31" t="n">
-        <v>0.24701</v>
+        <v>0.5714050000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.245213</v>
+        <v>0.246578</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.252285</v>
+        <v>0.253044</v>
       </c>
       <c r="C32" t="n">
-        <v>0.248536</v>
+        <v>0.593396</v>
       </c>
       <c r="D32" t="n">
-        <v>0.249625</v>
+        <v>0.246223</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.248325</v>
+        <v>0.24509</v>
       </c>
       <c r="C33" t="n">
-        <v>0.245091</v>
+        <v>0.606177</v>
       </c>
       <c r="D33" t="n">
-        <v>0.243087</v>
+        <v>0.242733</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.237855</v>
+        <v>0.237512</v>
       </c>
       <c r="C34" t="n">
-        <v>0.240115</v>
+        <v>0.628764</v>
       </c>
       <c r="D34" t="n">
-        <v>0.240434</v>
+        <v>0.244287</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.233593</v>
+        <v>0.231266</v>
       </c>
       <c r="C35" t="n">
-        <v>0.239982</v>
+        <v>0.663208</v>
       </c>
       <c r="D35" t="n">
-        <v>0.242428</v>
+        <v>0.245029</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.22654</v>
+        <v>0.225501</v>
       </c>
       <c r="C36" t="n">
-        <v>0.237093</v>
+        <v>0.6796990000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.24038</v>
+        <v>0.243777</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.221487</v>
+        <v>0.216706</v>
       </c>
       <c r="C37" t="n">
-        <v>0.239483</v>
+        <v>0.500706</v>
       </c>
       <c r="D37" t="n">
-        <v>0.264847</v>
+        <v>0.256479</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.303676</v>
+        <v>0.301136</v>
       </c>
       <c r="C38" t="n">
-        <v>0.258213</v>
+        <v>0.512144</v>
       </c>
       <c r="D38" t="n">
-        <v>0.261476</v>
+        <v>0.25677</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2991</v>
+        <v>0.296816</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257607</v>
+        <v>0.518062</v>
       </c>
       <c r="D39" t="n">
-        <v>0.259044</v>
+        <v>0.255408</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.291954</v>
+        <v>0.287889</v>
       </c>
       <c r="C40" t="n">
-        <v>0.257322</v>
+        <v>0.525154</v>
       </c>
       <c r="D40" t="n">
-        <v>0.259655</v>
+        <v>0.254564</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.285332</v>
+        <v>0.284837</v>
       </c>
       <c r="C41" t="n">
-        <v>0.254166</v>
+        <v>0.559461</v>
       </c>
       <c r="D41" t="n">
-        <v>0.256612</v>
+        <v>0.249697</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.281723</v>
+        <v>0.280529</v>
       </c>
       <c r="C42" t="n">
-        <v>0.256749</v>
+        <v>0.543646</v>
       </c>
       <c r="D42" t="n">
-        <v>0.253266</v>
+        <v>0.250517</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.275591</v>
+        <v>0.272509</v>
       </c>
       <c r="C43" t="n">
-        <v>0.25248</v>
+        <v>0.557193</v>
       </c>
       <c r="D43" t="n">
-        <v>0.255411</v>
+        <v>0.252996</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.269514</v>
+        <v>0.264667</v>
       </c>
       <c r="C44" t="n">
-        <v>0.253029</v>
+        <v>0.57639</v>
       </c>
       <c r="D44" t="n">
-        <v>0.250557</v>
+        <v>0.247906</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.261068</v>
+        <v>0.260544</v>
       </c>
       <c r="C45" t="n">
-        <v>0.252549</v>
+        <v>0.578869</v>
       </c>
       <c r="D45" t="n">
-        <v>0.248028</v>
+        <v>0.244575</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.257183</v>
+        <v>0.251806</v>
       </c>
       <c r="C46" t="n">
-        <v>0.250236</v>
+        <v>0.612519</v>
       </c>
       <c r="D46" t="n">
-        <v>0.246655</v>
+        <v>0.244506</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.250086</v>
+        <v>0.248734</v>
       </c>
       <c r="C47" t="n">
-        <v>0.247643</v>
+        <v>0.674888</v>
       </c>
       <c r="D47" t="n">
-        <v>0.246742</v>
+        <v>0.248081</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.246342</v>
+        <v>0.244325</v>
       </c>
       <c r="C48" t="n">
-        <v>0.245106</v>
+        <v>0.649008</v>
       </c>
       <c r="D48" t="n">
-        <v>0.246064</v>
+        <v>0.247478</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.237326</v>
+        <v>0.239936</v>
       </c>
       <c r="C49" t="n">
-        <v>0.24482</v>
+        <v>0.666478</v>
       </c>
       <c r="D49" t="n">
-        <v>0.243526</v>
+        <v>0.244344</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.227351</v>
+        <v>0.22936</v>
       </c>
       <c r="C50" t="n">
-        <v>0.243269</v>
+        <v>0.681604</v>
       </c>
       <c r="D50" t="n">
-        <v>0.241932</v>
+        <v>0.243795</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.227919</v>
+        <v>0.222008</v>
       </c>
       <c r="C51" t="n">
-        <v>0.243348</v>
+        <v>0.547845</v>
       </c>
       <c r="D51" t="n">
-        <v>0.269141</v>
+        <v>0.268544</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.212232</v>
+        <v>0.214712</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241379</v>
+        <v>0.558093</v>
       </c>
       <c r="D52" t="n">
-        <v>0.261148</v>
+        <v>0.264997</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.30372</v>
+        <v>0.306529</v>
       </c>
       <c r="C53" t="n">
-        <v>0.266371</v>
+        <v>0.561762</v>
       </c>
       <c r="D53" t="n">
-        <v>0.261008</v>
+        <v>0.263803</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.295533</v>
+        <v>0.301047</v>
       </c>
       <c r="C54" t="n">
-        <v>0.266863</v>
+        <v>0.574599</v>
       </c>
       <c r="D54" t="n">
-        <v>0.262813</v>
+        <v>0.257065</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.294756</v>
+        <v>0.291324</v>
       </c>
       <c r="C55" t="n">
-        <v>0.261247</v>
+        <v>0.571182</v>
       </c>
       <c r="D55" t="n">
-        <v>0.256911</v>
+        <v>0.258125</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.287708</v>
+        <v>0.286261</v>
       </c>
       <c r="C56" t="n">
-        <v>0.259743</v>
+        <v>0.582793</v>
       </c>
       <c r="D56" t="n">
-        <v>0.256462</v>
+        <v>0.256838</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.282306</v>
+        <v>0.280899</v>
       </c>
       <c r="C57" t="n">
-        <v>0.25579</v>
+        <v>0.589106</v>
       </c>
       <c r="D57" t="n">
-        <v>0.257993</v>
+        <v>0.256841</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.280572</v>
+        <v>0.27597</v>
       </c>
       <c r="C58" t="n">
-        <v>0.25495</v>
+        <v>0.611044</v>
       </c>
       <c r="D58" t="n">
-        <v>0.25479</v>
+        <v>0.253891</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.273276</v>
+        <v>0.269887</v>
       </c>
       <c r="C59" t="n">
-        <v>0.253129</v>
+        <v>0.672826</v>
       </c>
       <c r="D59" t="n">
-        <v>0.253683</v>
+        <v>0.257132</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.263449</v>
+        <v>0.262794</v>
       </c>
       <c r="C60" t="n">
-        <v>0.256431</v>
+        <v>0.639651</v>
       </c>
       <c r="D60" t="n">
-        <v>0.253845</v>
+        <v>0.250286</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.258143</v>
+        <v>0.253702</v>
       </c>
       <c r="C61" t="n">
-        <v>0.250083</v>
+        <v>0.649184</v>
       </c>
       <c r="D61" t="n">
-        <v>0.250812</v>
+        <v>0.253551</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.252238</v>
+        <v>0.251391</v>
       </c>
       <c r="C62" t="n">
-        <v>0.247702</v>
+        <v>0.674798</v>
       </c>
       <c r="D62" t="n">
-        <v>0.249824</v>
+        <v>0.24839</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.243118</v>
+        <v>0.239964</v>
       </c>
       <c r="C63" t="n">
-        <v>0.246404</v>
+        <v>0.718112</v>
       </c>
       <c r="D63" t="n">
-        <v>0.246722</v>
+        <v>0.248504</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.236772</v>
+        <v>0.237103</v>
       </c>
       <c r="C64" t="n">
-        <v>0.246098</v>
+        <v>0.720529</v>
       </c>
       <c r="D64" t="n">
-        <v>0.244581</v>
+        <v>0.24451</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230921</v>
+        <v>0.224406</v>
       </c>
       <c r="C65" t="n">
-        <v>0.248443</v>
+        <v>0.765895</v>
       </c>
       <c r="D65" t="n">
-        <v>0.249428</v>
+        <v>0.24869</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.219233</v>
+        <v>0.21968</v>
       </c>
       <c r="C66" t="n">
-        <v>0.242029</v>
+        <v>0.847895</v>
       </c>
       <c r="D66" t="n">
-        <v>0.278437</v>
+        <v>0.272671</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.318603</v>
+        <v>0.318078</v>
       </c>
       <c r="C67" t="n">
-        <v>0.278623</v>
+        <v>0.787048</v>
       </c>
       <c r="D67" t="n">
-        <v>0.276765</v>
+        <v>0.2736</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.303925</v>
+        <v>0.313961</v>
       </c>
       <c r="C68" t="n">
-        <v>0.27896</v>
+        <v>0.802903</v>
       </c>
       <c r="D68" t="n">
-        <v>0.270807</v>
+        <v>0.268386</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.305429</v>
+        <v>0.304462</v>
       </c>
       <c r="C69" t="n">
-        <v>0.274955</v>
+        <v>0.807657</v>
       </c>
       <c r="D69" t="n">
-        <v>0.270471</v>
+        <v>0.265907</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.299172</v>
+        <v>0.300562</v>
       </c>
       <c r="C70" t="n">
-        <v>0.269942</v>
+        <v>0.78793</v>
       </c>
       <c r="D70" t="n">
-        <v>0.267107</v>
+        <v>0.266552</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.293049</v>
+        <v>0.291493</v>
       </c>
       <c r="C71" t="n">
-        <v>0.270216</v>
+        <v>0.824331</v>
       </c>
       <c r="D71" t="n">
-        <v>0.264894</v>
+        <v>0.265533</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.284244</v>
+        <v>0.280827</v>
       </c>
       <c r="C72" t="n">
-        <v>0.266363</v>
+        <v>0.821361</v>
       </c>
       <c r="D72" t="n">
-        <v>0.26463</v>
+        <v>0.261423</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.277146</v>
+        <v>0.281566</v>
       </c>
       <c r="C73" t="n">
-        <v>0.262996</v>
+        <v>0.828217</v>
       </c>
       <c r="D73" t="n">
-        <v>0.261393</v>
+        <v>0.264654</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.275629</v>
+        <v>0.267713</v>
       </c>
       <c r="C74" t="n">
-        <v>0.258479</v>
+        <v>0.851234</v>
       </c>
       <c r="D74" t="n">
-        <v>0.260627</v>
+        <v>0.256816</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.268751</v>
+        <v>0.264044</v>
       </c>
       <c r="C75" t="n">
-        <v>0.256909</v>
+        <v>0.907438</v>
       </c>
       <c r="D75" t="n">
-        <v>0.256399</v>
+        <v>0.258323</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.258243</v>
+        <v>0.258271</v>
       </c>
       <c r="C76" t="n">
-        <v>0.256963</v>
+        <v>0.889441</v>
       </c>
       <c r="D76" t="n">
-        <v>0.253349</v>
+        <v>0.25665</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.252497</v>
+        <v>0.249779</v>
       </c>
       <c r="C77" t="n">
-        <v>0.253499</v>
+        <v>0.920062</v>
       </c>
       <c r="D77" t="n">
-        <v>0.251169</v>
+        <v>0.253282</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.243144</v>
+        <v>0.241838</v>
       </c>
       <c r="C78" t="n">
-        <v>0.254381</v>
+        <v>0.949998</v>
       </c>
       <c r="D78" t="n">
-        <v>0.25212</v>
+        <v>0.25355</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.233829</v>
+        <v>0.23546</v>
       </c>
       <c r="C79" t="n">
-        <v>0.250142</v>
+        <v>1.08153</v>
       </c>
       <c r="D79" t="n">
-        <v>0.25172</v>
+        <v>0.255958</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.229634</v>
+        <v>0.224</v>
       </c>
       <c r="C80" t="n">
-        <v>0.249708</v>
+        <v>1.10232</v>
       </c>
       <c r="D80" t="n">
-        <v>0.27834</v>
+        <v>0.280532</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.320896</v>
+        <v>0.320625</v>
       </c>
       <c r="C81" t="n">
-        <v>0.280927</v>
+        <v>1.08786</v>
       </c>
       <c r="D81" t="n">
-        <v>0.276198</v>
+        <v>0.275407</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.315758</v>
+        <v>0.318529</v>
       </c>
       <c r="C82" t="n">
-        <v>0.280444</v>
+        <v>1.0823</v>
       </c>
       <c r="D82" t="n">
-        <v>0.273942</v>
+        <v>0.277073</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.310826</v>
+        <v>0.306666</v>
       </c>
       <c r="C83" t="n">
-        <v>0.27426</v>
+        <v>1.09598</v>
       </c>
       <c r="D83" t="n">
-        <v>0.271125</v>
+        <v>0.273968</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.304111</v>
+        <v>0.306058</v>
       </c>
       <c r="C84" t="n">
-        <v>0.275735</v>
+        <v>1.08896</v>
       </c>
       <c r="D84" t="n">
-        <v>0.276344</v>
+        <v>0.270291</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.298424</v>
+        <v>0.297825</v>
       </c>
       <c r="C85" t="n">
-        <v>0.271303</v>
+        <v>1.16077</v>
       </c>
       <c r="D85" t="n">
-        <v>0.267528</v>
+        <v>0.267832</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.285188</v>
+        <v>0.29077</v>
       </c>
       <c r="C86" t="n">
-        <v>0.266587</v>
+        <v>1.13402</v>
       </c>
       <c r="D86" t="n">
-        <v>0.263094</v>
+        <v>0.266344</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.28436</v>
+        <v>0.282889</v>
       </c>
       <c r="C87" t="n">
-        <v>0.264778</v>
+        <v>1.17802</v>
       </c>
       <c r="D87" t="n">
-        <v>0.265325</v>
+        <v>0.264751</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.280522</v>
+        <v>0.273857</v>
       </c>
       <c r="C88" t="n">
-        <v>0.263159</v>
+        <v>1.17718</v>
       </c>
       <c r="D88" t="n">
-        <v>0.264788</v>
+        <v>0.263167</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.27395</v>
+        <v>0.270089</v>
       </c>
       <c r="C89" t="n">
-        <v>0.259309</v>
+        <v>1.18366</v>
       </c>
       <c r="D89" t="n">
-        <v>0.258775</v>
+        <v>0.259678</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.261452</v>
+        <v>0.263837</v>
       </c>
       <c r="C90" t="n">
-        <v>0.259156</v>
+        <v>1.20074</v>
       </c>
       <c r="D90" t="n">
-        <v>0.254658</v>
+        <v>0.261408</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.255026</v>
+        <v>0.253285</v>
       </c>
       <c r="C91" t="n">
-        <v>0.257662</v>
+        <v>1.25558</v>
       </c>
       <c r="D91" t="n">
-        <v>0.257238</v>
+        <v>0.25529</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.246846</v>
+        <v>0.245882</v>
       </c>
       <c r="C92" t="n">
-        <v>0.254441</v>
+        <v>1.27957</v>
       </c>
       <c r="D92" t="n">
-        <v>0.253723</v>
+        <v>0.258371</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.236633</v>
+        <v>0.238103</v>
       </c>
       <c r="C93" t="n">
-        <v>0.251696</v>
+        <v>1.28926</v>
       </c>
       <c r="D93" t="n">
-        <v>0.253192</v>
+        <v>0.254005</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.2336</v>
+        <v>0.231638</v>
       </c>
       <c r="C94" t="n">
-        <v>0.250569</v>
+        <v>1.31889</v>
       </c>
       <c r="D94" t="n">
-        <v>0.283577</v>
+        <v>0.283129</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.325322</v>
+        <v>0.327799</v>
       </c>
       <c r="C95" t="n">
-        <v>0.284771</v>
+        <v>1.30137</v>
       </c>
       <c r="D95" t="n">
-        <v>0.27827</v>
+        <v>0.279515</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.320273</v>
+        <v>0.322011</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2758</v>
+        <v>1.32067</v>
       </c>
       <c r="D96" t="n">
-        <v>0.278499</v>
+        <v>0.276148</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.311708</v>
+        <v>0.309523</v>
       </c>
       <c r="C97" t="n">
-        <v>0.279406</v>
+        <v>1.31113</v>
       </c>
       <c r="D97" t="n">
-        <v>0.274742</v>
+        <v>0.276218</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.305091</v>
+        <v>0.306353</v>
       </c>
       <c r="C98" t="n">
-        <v>0.276605</v>
+        <v>1.33608</v>
       </c>
       <c r="D98" t="n">
-        <v>0.274754</v>
+        <v>0.272287</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.298599</v>
+        <v>0.300555</v>
       </c>
       <c r="C99" t="n">
-        <v>0.269021</v>
+        <v>1.34695</v>
       </c>
       <c r="D99" t="n">
-        <v>0.272548</v>
+        <v>0.268239</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.29504</v>
+        <v>0.288648</v>
       </c>
       <c r="C100" t="n">
-        <v>0.266729</v>
+        <v>1.40572</v>
       </c>
       <c r="D100" t="n">
-        <v>0.267982</v>
+        <v>0.271027</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.286408</v>
+        <v>0.281996</v>
       </c>
       <c r="C101" t="n">
-        <v>0.27144</v>
+        <v>1.37915</v>
       </c>
       <c r="D101" t="n">
-        <v>0.261786</v>
+        <v>0.26718</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.275367</v>
+        <v>0.280754</v>
       </c>
       <c r="C102" t="n">
-        <v>0.263287</v>
+        <v>1.43303</v>
       </c>
       <c r="D102" t="n">
-        <v>0.259478</v>
+        <v>0.264393</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.272509</v>
+        <v>0.270677</v>
       </c>
       <c r="C103" t="n">
-        <v>0.259002</v>
+        <v>1.44549</v>
       </c>
       <c r="D103" t="n">
-        <v>0.263489</v>
+        <v>0.261404</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.267244</v>
+        <v>0.263018</v>
       </c>
       <c r="C104" t="n">
-        <v>0.258779</v>
+        <v>1.44342</v>
       </c>
       <c r="D104" t="n">
-        <v>0.257979</v>
+        <v>0.261967</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.256541</v>
+        <v>0.25599</v>
       </c>
       <c r="C105" t="n">
-        <v>0.258851</v>
+        <v>1.50971</v>
       </c>
       <c r="D105" t="n">
-        <v>0.256703</v>
+        <v>0.257389</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.249391</v>
+        <v>0.250268</v>
       </c>
       <c r="C106" t="n">
-        <v>0.261256</v>
+        <v>1.56183</v>
       </c>
       <c r="D106" t="n">
-        <v>0.25319</v>
+        <v>0.254431</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.238623</v>
+        <v>0.237569</v>
       </c>
       <c r="C107" t="n">
-        <v>0.253196</v>
+        <v>1.55929</v>
       </c>
       <c r="D107" t="n">
-        <v>0.254736</v>
+        <v>0.254621</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.234344</v>
+        <v>0.232592</v>
       </c>
       <c r="C108" t="n">
-        <v>0.251496</v>
+        <v>1.43682</v>
       </c>
       <c r="D108" t="n">
-        <v>0.282002</v>
+        <v>0.28865</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.225472</v>
+        <v>0.221855</v>
       </c>
       <c r="C109" t="n">
-        <v>0.253503</v>
+        <v>1.49213</v>
       </c>
       <c r="D109" t="n">
-        <v>0.279964</v>
+        <v>0.28388</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.32367</v>
+        <v>0.318212</v>
       </c>
       <c r="C110" t="n">
-        <v>0.277254</v>
+        <v>1.45094</v>
       </c>
       <c r="D110" t="n">
-        <v>0.279647</v>
+        <v>0.275314</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.312802</v>
+        <v>0.312149</v>
       </c>
       <c r="C111" t="n">
-        <v>0.276705</v>
+        <v>1.46794</v>
       </c>
       <c r="D111" t="n">
-        <v>0.272952</v>
+        <v>0.270848</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.30606</v>
+        <v>0.302589</v>
       </c>
       <c r="C112" t="n">
-        <v>0.278239</v>
+        <v>1.4992</v>
       </c>
       <c r="D112" t="n">
-        <v>0.275283</v>
+        <v>0.274279</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.300297</v>
+        <v>0.299986</v>
       </c>
       <c r="C113" t="n">
-        <v>0.276243</v>
+        <v>1.50698</v>
       </c>
       <c r="D113" t="n">
-        <v>0.271965</v>
+        <v>0.26988</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.300022</v>
+        <v>0.292864</v>
       </c>
       <c r="C114" t="n">
-        <v>0.275059</v>
+        <v>1.51896</v>
       </c>
       <c r="D114" t="n">
-        <v>0.266339</v>
+        <v>0.274458</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.287468</v>
+        <v>0.285612</v>
       </c>
       <c r="C115" t="n">
-        <v>0.269057</v>
+        <v>1.55871</v>
       </c>
       <c r="D115" t="n">
-        <v>0.265493</v>
+        <v>0.265595</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.286527</v>
+        <v>0.278412</v>
       </c>
       <c r="C116" t="n">
-        <v>0.26357</v>
+        <v>1.58594</v>
       </c>
       <c r="D116" t="n">
-        <v>0.268147</v>
+        <v>0.26352</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.273995</v>
+        <v>0.273514</v>
       </c>
       <c r="C117" t="n">
-        <v>0.262269</v>
+        <v>1.55332</v>
       </c>
       <c r="D117" t="n">
-        <v>0.260559</v>
+        <v>0.26621</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.263948</v>
+        <v>0.26291</v>
       </c>
       <c r="C118" t="n">
-        <v>0.25953</v>
+        <v>1.60217</v>
       </c>
       <c r="D118" t="n">
-        <v>0.262052</v>
+        <v>0.264681</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.2577</v>
+        <v>0.258186</v>
       </c>
       <c r="C119" t="n">
-        <v>0.255421</v>
+        <v>1.6512</v>
       </c>
       <c r="D119" t="n">
-        <v>0.256218</v>
+        <v>0.255174</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.252555</v>
+        <v>0.251243</v>
       </c>
       <c r="C120" t="n">
-        <v>0.258739</v>
+        <v>1.67627</v>
       </c>
       <c r="D120" t="n">
-        <v>0.257522</v>
+        <v>0.257113</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.250449</v>
+        <v>0.244707</v>
       </c>
       <c r="C121" t="n">
-        <v>0.252679</v>
+        <v>1.74417</v>
       </c>
       <c r="D121" t="n">
-        <v>0.255925</v>
+        <v>0.258825</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237829</v>
+        <v>0.234817</v>
       </c>
       <c r="C122" t="n">
-        <v>0.255194</v>
+        <v>1.5758</v>
       </c>
       <c r="D122" t="n">
-        <v>0.253601</v>
+        <v>0.251742</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.230346</v>
+        <v>0.227666</v>
       </c>
       <c r="C123" t="n">
-        <v>0.24958</v>
+        <v>1.5668</v>
       </c>
       <c r="D123" t="n">
-        <v>0.28131</v>
+        <v>0.286358</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.320759</v>
+        <v>0.319838</v>
       </c>
       <c r="C124" t="n">
-        <v>0.280788</v>
+        <v>1.53933</v>
       </c>
       <c r="D124" t="n">
-        <v>0.282981</v>
+        <v>0.27467</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.329867</v>
+        <v>0.317798</v>
       </c>
       <c r="C125" t="n">
-        <v>0.280729</v>
+        <v>1.58978</v>
       </c>
       <c r="D125" t="n">
-        <v>0.279371</v>
+        <v>0.273801</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.312694</v>
+        <v>0.307161</v>
       </c>
       <c r="C126" t="n">
-        <v>0.275948</v>
+        <v>1.54813</v>
       </c>
       <c r="D126" t="n">
-        <v>0.271614</v>
+        <v>0.273191</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.30051</v>
+        <v>0.314087</v>
       </c>
       <c r="C127" t="n">
-        <v>0.275437</v>
+        <v>1.60349</v>
       </c>
       <c r="D127" t="n">
-        <v>0.273035</v>
+        <v>0.269772</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.293972</v>
+        <v>0.294237</v>
       </c>
       <c r="C128" t="n">
-        <v>0.269972</v>
+        <v>1.61685</v>
       </c>
       <c r="D128" t="n">
-        <v>0.269726</v>
+        <v>0.266834</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.287287</v>
+        <v>0.288764</v>
       </c>
       <c r="C129" t="n">
-        <v>0.267497</v>
+        <v>1.63872</v>
       </c>
       <c r="D129" t="n">
-        <v>0.270446</v>
+        <v>0.262442</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.278121</v>
+        <v>0.280193</v>
       </c>
       <c r="C130" t="n">
-        <v>0.269342</v>
+        <v>1.6494</v>
       </c>
       <c r="D130" t="n">
-        <v>0.263675</v>
+        <v>0.26418</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.270599</v>
+        <v>0.274968</v>
       </c>
       <c r="C131" t="n">
-        <v>0.265494</v>
+        <v>1.7007</v>
       </c>
       <c r="D131" t="n">
-        <v>0.260704</v>
+        <v>0.261479</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.26538</v>
+        <v>0.266687</v>
       </c>
       <c r="C132" t="n">
-        <v>0.263399</v>
+        <v>1.70576</v>
       </c>
       <c r="D132" t="n">
-        <v>0.256581</v>
+        <v>0.262427</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.259596</v>
+        <v>0.257485</v>
       </c>
       <c r="C133" t="n">
-        <v>0.254148</v>
+        <v>1.81548</v>
       </c>
       <c r="D133" t="n">
-        <v>0.257177</v>
+        <v>0.256602</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.253826</v>
+        <v>0.248151</v>
       </c>
       <c r="C134" t="n">
-        <v>0.256284</v>
+        <v>1.8099</v>
       </c>
       <c r="D134" t="n">
-        <v>0.257166</v>
+        <v>0.260533</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246882</v>
+        <v>0.243493</v>
       </c>
       <c r="C135" t="n">
-        <v>0.259174</v>
+        <v>1.8946</v>
       </c>
       <c r="D135" t="n">
-        <v>0.254677</v>
+        <v>0.257497</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.234966</v>
+        <v>0.236507</v>
       </c>
       <c r="C136" t="n">
-        <v>0.253237</v>
+        <v>1.73634</v>
       </c>
       <c r="D136" t="n">
-        <v>0.254946</v>
+        <v>0.256586</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.227773</v>
+        <v>0.228311</v>
       </c>
       <c r="C137" t="n">
-        <v>0.256894</v>
+        <v>1.79175</v>
       </c>
       <c r="D137" t="n">
-        <v>0.281112</v>
+        <v>0.285446</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.322808</v>
+        <v>0.325847</v>
       </c>
       <c r="C138" t="n">
-        <v>0.278915</v>
+        <v>1.73768</v>
       </c>
       <c r="D138" t="n">
-        <v>0.279202</v>
+        <v>0.274281</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.312791</v>
+        <v>0.324165</v>
       </c>
       <c r="C139" t="n">
-        <v>0.277057</v>
+        <v>1.72773</v>
       </c>
       <c r="D139" t="n">
-        <v>0.277111</v>
+        <v>0.274786</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.311309</v>
+        <v>0.305977</v>
       </c>
       <c r="C140" t="n">
-        <v>0.273012</v>
+        <v>1.74488</v>
       </c>
       <c r="D140" t="n">
-        <v>0.272873</v>
+        <v>0.270742</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.305117</v>
+        <v>0.302915</v>
       </c>
       <c r="C141" t="n">
-        <v>0.271705</v>
+        <v>1.81815</v>
       </c>
       <c r="D141" t="n">
-        <v>0.271673</v>
+        <v>0.275804</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.293883</v>
+        <v>0.296218</v>
       </c>
       <c r="C142" t="n">
-        <v>0.271387</v>
+        <v>1.77449</v>
       </c>
       <c r="D142" t="n">
-        <v>0.265606</v>
+        <v>0.267636</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.296362</v>
+        <v>0.292831</v>
       </c>
       <c r="C143" t="n">
-        <v>0.270775</v>
+        <v>1.79435</v>
       </c>
       <c r="D143" t="n">
-        <v>0.263082</v>
+        <v>0.271081</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.28096</v>
+                  <v>0.0641531</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.275285</v>
+                  <v>0.0641417</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.260227</v>
+                  <v>0.0639055</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.249344</v>
+                  <v>0.0642133</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.236975</v>
+                  <v>0.06474820000000001</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.225674</v>
+                  <v>0.06536599999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.210202</v>
+                  <v>0.0651717</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.194356</v>
+                  <v>0.06583840000000001</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.334027</v>
+                  <v>0.0890715</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.329254</v>
+                  <v>0.0891439</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.323249</v>
+                  <v>0.088877</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.318197</v>
+                  <v>0.0889416</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.311484</v>
+                  <v>0.0880235</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.301987</v>
+                  <v>0.0873052</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.293769</v>
+                  <v>0.08651929999999999</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.283186</v>
+                  <v>0.08555</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.274789</v>
+                  <v>0.08422979999999999</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.264307</v>
+                  <v>0.08232540000000001</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.253335</v>
+                  <v>0.0812894</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.240375</v>
+                  <v>0.0828969</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.225843</v>
+                  <v>0.08242620000000001</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.209111</v>
+                  <v>0.0803682</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.347854</v>
+                  <v>0.130945</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.342351</v>
+                  <v>0.13039</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.335171</v>
+                  <v>0.128396</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.3287</v>
+                  <v>0.126</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.321793</v>
+                  <v>0.122747</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.313509</v>
+                  <v>0.120164</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.304099</v>
+                  <v>0.117158</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.294429</v>
+                  <v>0.114482</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.283902</v>
+                  <v>0.110654</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.273734</v>
+                  <v>0.106787</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.261908</v>
+                  <v>0.10302</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.247935</v>
+                  <v>0.09905659999999999</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.234331</v>
+                  <v>0.0947708</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.21972</v>
+                  <v>0.0912707</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.351019</v>
+                  <v>0.15299</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.347109</v>
+                  <v>0.149699</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.341148</v>
+                  <v>0.145819</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.334155</v>
+                  <v>0.142408</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.326696</v>
+                  <v>0.138561</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.319361</v>
+                  <v>0.134735</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.310476</v>
+                  <v>0.13049</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.301515</v>
+                  <v>0.126237</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.290456</v>
+                  <v>0.121969</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.279872</v>
+                  <v>0.117384</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.268143</v>
+                  <v>0.112872</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.255679</v>
+                  <v>0.107687</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241931</v>
+                  <v>0.102518</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.2267</v>
+                  <v>0.097793</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.209666</v>
+                  <v>0.0929044</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.349707</v>
+                  <v>0.156627</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.344393</v>
+                  <v>0.152789</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.338195</v>
+                  <v>0.148886</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.330917</v>
+                  <v>0.14427</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.3224</v>
+                  <v>0.139987</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.313751</v>
+                  <v>0.135316</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.304247</v>
+                  <v>0.130625</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.294116</v>
+                  <v>0.125715</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.283229</v>
+                  <v>0.120655</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.27188</v>
+                  <v>0.115997</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.259034</v>
+                  <v>0.11107</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.245623</v>
+                  <v>0.105984</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.230273</v>
+                  <v>0.101445</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.213342</v>
+                  <v>0.0964059</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.352417</v>
+                  <v>0.160513</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.346913</v>
+                  <v>0.156502</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.34069</v>
+                  <v>0.152045</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.33338</v>
+                  <v>0.147806</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.325287</v>
+                  <v>0.143057</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.316404</v>
+                  <v>0.138315</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.30706</v>
+                  <v>0.133812</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.297067</v>
+                  <v>0.1287</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.286289</v>
+                  <v>0.123811</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.275097</v>
+                  <v>0.118628</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.262689</v>
+                  <v>0.11366</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.248989</v>
+                  <v>0.108714</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.234185</v>
+                  <v>0.1037</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.218351</v>
+                  <v>0.0989589</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.353918</v>
+                  <v>0.16153</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.348163</v>
+                  <v>0.157354</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.341876</v>
+                  <v>0.153056</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.334423</v>
+                  <v>0.148496</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.326677</v>
+                  <v>0.143805</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.318483</v>
+                  <v>0.138941</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.309192</v>
+                  <v>0.134036</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.299657</v>
+                  <v>0.12898</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.289052</v>
+                  <v>0.124047</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.277682</v>
+                  <v>0.119119</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.265329</v>
+                  <v>0.114214</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.251956</v>
+                  <v>0.109355</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.237928</v>
+                  <v>0.104326</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.221988</v>
+                  <v>0.0995196</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.355226</v>
+                  <v>0.162541</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.349632</v>
+                  <v>0.158578</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.343221</v>
+                  <v>0.154191</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.336572</v>
+                  <v>0.149705</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.32902</v>
+                  <v>0.144991</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.320108</v>
+                  <v>0.140036</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.311141</v>
+                  <v>0.135058</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.30161</v>
+                  <v>0.130142</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.29136</v>
+                  <v>0.12503</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.280099</v>
+                  <v>0.120231</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.267905</v>
+                  <v>0.115215</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.254834</v>
+                  <v>0.110352</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.241048</v>
+                  <v>0.105395</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.225455</v>
+                  <v>0.100493</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.209024</v>
+                  <v>0.0955453</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.350837</v>
+                  <v>0.159334</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.344389</v>
+                  <v>0.155161</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.33797</v>
+                  <v>0.150658</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.330553</v>
+                  <v>0.145997</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.322178</v>
+                  <v>0.141009</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.313349</v>
+                  <v>0.136065</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.303814</v>
+                  <v>0.131067</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.293692</v>
+                  <v>0.126055</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.282839</v>
+                  <v>0.121106</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.270756</v>
+                  <v>0.116169</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.258147</v>
+                  <v>0.11124</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.244214</v>
+                  <v>0.106338</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.229059</v>
+                  <v>0.10148</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.212331</v>
+                  <v>0.0966804</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.352099</v>
+                  <v>0.162912</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.346249</v>
+                  <v>0.158517</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.339646</v>
+                  <v>0.1538</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.332407</v>
+                  <v>0.148946</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.324287</v>
+                  <v>0.149784</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.315583</v>
+                  <v>0.144275</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.305883</v>
+                  <v>0.138341</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.295897</v>
+                  <v>0.133876</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.285083</v>
+                  <v>0.127861</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.273328</v>
+                  <v>0.123254</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.260703</v>
+                  <v>0.118096</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.246882</v>
+                  <v>0.112946</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.232078</v>
+                  <v>0.107887</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.215942</v>
+                  <v>0.10276</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.352911</v>
+                  <v>0.170386</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.347437</v>
+                  <v>0.165981</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.340815</v>
+                  <v>0.161275</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.333681</v>
+                  <v>0.1562</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.325639</v>
+                  <v>0.150804</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.317122</v>
+                  <v>0.145563</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.195912</v>
+                  <v>0.0575077</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.19706</v>
+                  <v>0.0598211</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.196006</v>
+                  <v>0.0649882</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.196838</v>
+                  <v>0.07328460000000001</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.197821</v>
+                  <v>0.09369329999999999</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.198401</v>
+                  <v>0.111546</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.198864</v>
+                  <v>0.06318840000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.198849</v>
+                  <v>0.06369279999999999</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.216994</v>
+                  <v>0.064666</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216483</v>
+                  <v>0.0662118</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.215332</v>
+                  <v>0.0703285</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.213636</v>
+                  <v>0.0767543</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.212433</v>
+                  <v>0.0847386</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.212771</v>
+                  <v>0.0924473</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212356</v>
+                  <v>0.103137</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.21158</v>
+                  <v>0.117766</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.211342</v>
+                  <v>0.138113</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.211014</v>
+                  <v>0.157701</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.21131</v>
+                  <v>0.183703</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.211178</v>
+                  <v>0.219332</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.210535</v>
+                  <v>0.0967408</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.211058</v>
+                  <v>0.101705</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.225388</v>
+                  <v>0.110323</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.222286</v>
+                  <v>0.118336</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.221108</v>
+                  <v>0.125077</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218269</v>
+                  <v>0.131743</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.216629</v>
+                  <v>0.136642</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.216104</v>
+                  <v>0.159372</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.215542</v>
+                  <v>0.164708</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.214565</v>
+                  <v>0.180538</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214083</v>
+                  <v>0.189276</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.213151</v>
+                  <v>0.205969</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.212756</v>
+                  <v>0.226981</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.212244</v>
+                  <v>0.25275</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.212313</v>
+                  <v>0.280765</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.212479</v>
+                  <v>0.125211</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.231716</v>
+                  <v>0.128879</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.228089</v>
+                  <v>0.139033</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.225541</v>
+                  <v>0.143689</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.221715</v>
+                  <v>0.153829</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.219716</v>
+                  <v>0.162005</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.217608</v>
+                  <v>0.17317</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.216079</v>
+                  <v>0.180018</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.215361</v>
+                  <v>0.189111</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.214512</v>
+                  <v>0.20117</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.213976</v>
+                  <v>0.218393</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.213395</v>
+                  <v>0.234699</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.213081</v>
+                  <v>0.256116</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.212729</v>
+                  <v>0.28101</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.212137</v>
+                  <v>0.134014</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.211929</v>
+                  <v>0.138441</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.226985</v>
+                  <v>0.144747</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.224765</v>
+                  <v>0.151243</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.221165</v>
+                  <v>0.158688</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.219252</v>
+                  <v>0.168342</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.217853</v>
+                  <v>0.174264</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.216655</v>
+                  <v>0.18304</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.215205</v>
+                  <v>0.195721</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.21459</v>
+                  <v>0.209809</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.213892</v>
+                  <v>0.221223</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.213172</v>
+                  <v>0.238103</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.212503</v>
+                  <v>0.256781</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.212304</v>
+                  <v>0.278367</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.211984</v>
+                  <v>0.142277</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.211979</v>
+                  <v>0.147209</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.230208</v>
+                  <v>0.153107</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.224883</v>
+                  <v>0.15876</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.221567</v>
+                  <v>0.165429</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.219015</v>
+                  <v>0.172505</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.217904</v>
+                  <v>0.180261</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.216587</v>
+                  <v>0.189204</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.215397</v>
+                  <v>0.200303</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.214854</v>
+                  <v>0.212441</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.21402</v>
+                  <v>0.227473</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.21366</v>
+                  <v>0.24306</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.212863</v>
+                  <v>0.261431</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.212404</v>
+                  <v>0.283264</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.212223</v>
+                  <v>0.170899</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.211854</v>
+                  <v>0.176969</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.229933</v>
+                  <v>0.182018</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.224301</v>
+                  <v>0.187372</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.221634</v>
+                  <v>0.194064</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.219343</v>
+                  <v>0.200521</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.218126</v>
+                  <v>0.208855</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.217137</v>
+                  <v>0.217776</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.21601</v>
+                  <v>0.228866</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.214977</v>
+                  <v>0.241842</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.214757</v>
+                  <v>0.253365</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.213529</v>
+                  <v>0.270187</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.212993</v>
+                  <v>0.291567</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.212489</v>
+                  <v>0.313726</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.212003</v>
+                  <v>0.340231</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.21166</v>
+                  <v>0.247908</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.229306</v>
+                  <v>0.254082</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.225598</v>
+                  <v>0.259408</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.222495</v>
+                  <v>0.265515</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.219992</v>
+                  <v>0.271721</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.21844</v>
+                  <v>0.280084</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.217086</v>
+                  <v>0.290491</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.21603</v>
+                  <v>0.300365</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.215118</v>
+                  <v>0.313845</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.214407</v>
+                  <v>0.32929</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.213596</v>
+                  <v>0.348304</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213057</v>
+                  <v>0.371064</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.212665</v>
+                  <v>0.399163</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.212</v>
+                  <v>0.429455</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.211712</v>
+                  <v>0.346596</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.211438</v>
+                  <v>0.351235</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.225697</v>
+                  <v>0.354989</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.222578</v>
+                  <v>0.36553</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.220709</v>
+                  <v>0.367381</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.21886</v>
+                  <v>0.377436</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.217834</v>
+                  <v>0.385652</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.21669</v>
+                  <v>0.39901</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.215701</v>
+                  <v>0.414407</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.214744</v>
+                  <v>0.432204</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.214672</v>
+                  <v>0.460297</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.213705</v>
+                  <v>0.491839</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.213054</v>
+                  <v>0.5331669999999999</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.212576</v>
+                  <v>0.583111</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.211978</v>
+                  <v>0.423701</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.211931</v>
+                  <v>0.425895</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.226236</v>
+                  <v>0.42969</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.222892</v>
+                  <v>0.434953</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.220768</v>
+                  <v>0.442049</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.219005</v>
+                  <v>0.449396</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.21759</v>
+                  <v>0.461779</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.216422</v>
+                  <v>0.47465</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.215617</v>
+                  <v>0.495717</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.214832</v>
+                  <v>0.512256</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.214082</v>
+                  <v>0.54552</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.213471</v>
+                  <v>0.582205</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.212914</v>
+                  <v>0.630783</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.212385</v>
+                  <v>0.693116</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.212004</v>
+                  <v>0.478361</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.212133</v>
+                  <v>0.479962</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.227952</v>
+                  <v>0.483763</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.224209</v>
+                  <v>0.488763</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.221617</v>
+                  <v>0.490947</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.21951</v>
+                  <v>0.518307</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.21815</v>
+                  <v>0.52015</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.217027</v>
+                  <v>0.53886</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.231268</v>
+                  <v>0.157822</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.232151</v>
+                  <v>0.158856</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.233511</v>
+                  <v>0.159729</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.233102</v>
+                  <v>0.15887</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.233692</v>
+                  <v>0.160271</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.234047</v>
+                  <v>0.159772</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.236592</v>
+                  <v>0.159948</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.265773</v>
+                  <v>0.164801</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.256745</v>
+                  <v>0.165641</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.256613</v>
+                  <v>0.165795</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.277037</v>
+                  <v>0.166284</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.253983</v>
+                  <v>0.166196</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.253043</v>
+                  <v>0.166822</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.252393</v>
+                  <v>0.16633</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.274053</v>
+                  <v>0.166022</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.276569</v>
+                  <v>0.165367</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.249118</v>
+                  <v>0.165413</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.246154</v>
+                  <v>0.165358</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.247092</v>
+                  <v>0.165959</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.248933</v>
+                  <v>0.165915</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.247076</v>
+                  <v>0.167046</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.264081</v>
+                  <v>0.182004</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.263005</v>
+                  <v>0.179886</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.262406</v>
+                  <v>0.176643</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.261724</v>
+                  <v>0.176678</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.258214</v>
+                  <v>0.175759</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.256235</v>
+                  <v>0.175754</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.25501</v>
+                  <v>0.176854</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.253997</v>
+                  <v>0.175894</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.253212</v>
+                  <v>0.172402</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.252973</v>
+                  <v>0.17302</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.251955</v>
+                  <v>0.17105</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.250418</v>
+                  <v>0.170195</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.249931</v>
+                  <v>0.169719</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.25125</v>
+                  <v>0.168159</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.267948</v>
+                  <v>0.184916</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.265477</v>
+                  <v>0.183052</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.263563</v>
+                  <v>0.182508</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.261508</v>
+                  <v>0.181083</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.259424</v>
+                  <v>0.17982</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.258308</v>
+                  <v>0.178386</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.257397</v>
+                  <v>0.178092</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.255033</v>
+                  <v>0.176222</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.254953</v>
+                  <v>0.175981</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.252743</v>
+                  <v>0.174595</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.252257</v>
+                  <v>0.173326</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.251358</v>
+                  <v>0.171569</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.250701</v>
+                  <v>0.171515</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.252639</v>
+                  <v>0.169954</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.267618</v>
+                  <v>0.186997</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.26451</v>
+                  <v>0.185308</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.262485</v>
+                  <v>0.183876</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.261372</v>
+                  <v>0.182684</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.259083</v>
+                  <v>0.181455</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.258255</v>
+                  <v>0.180231</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.256473</v>
+                  <v>0.179365</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254751</v>
+                  <v>0.177796</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.253478</v>
+                  <v>0.176715</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.252454</v>
+                  <v>0.175502</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.251959</v>
+                  <v>0.174353</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.251108</v>
+                  <v>0.173807</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.250374</v>
+                  <v>0.17214</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.249696</v>
+                  <v>0.170786</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249233</v>
+                  <v>0.169619</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.267199</v>
+                  <v>0.186654</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.264368</v>
+                  <v>0.185313</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.261476</v>
+                  <v>0.183854</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.259992</v>
+                  <v>0.182476</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.258824</v>
+                  <v>0.181164</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257234</v>
+                  <v>0.179912</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.255778</v>
+                  <v>0.178749</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.254864</v>
+                  <v>0.177311</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.25281</v>
+                  <v>0.176193</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.252056</v>
+                  <v>0.174878</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.251157</v>
+                  <v>0.173741</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.25035</v>
+                  <v>0.172506</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.249625</v>
+                  <v>0.171313</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.249799</v>
+                  <v>0.170248</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.267725</v>
+                  <v>0.187436</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.264639</v>
+                  <v>0.185778</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.26212</v>
+                  <v>0.184273</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.260398</v>
+                  <v>0.182842</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.258807</v>
+                  <v>0.181428</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.257237</v>
+                  <v>0.180248</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.256192</v>
+                  <v>0.17884</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.254682</v>
+                  <v>0.177651</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.253834</v>
+                  <v>0.176506</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.252277</v>
+                  <v>0.175158</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.251467</v>
+                  <v>0.17393</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.25073</v>
+                  <v>0.172921</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.250208</v>
+                  <v>0.171658</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.249795</v>
+                  <v>0.170365</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.268728</v>
+                  <v>0.187853</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.265368</v>
+                  <v>0.186208</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.263136</v>
+                  <v>0.18493</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.261588</v>
+                  <v>0.183349</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.259708</v>
+                  <v>0.181904</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.258439</v>
+                  <v>0.180677</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.257048</v>
+                  <v>0.17923</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.255861</v>
+                  <v>0.178029</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.25506</v>
+                  <v>0.17673</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.253643</v>
+                  <v>0.175554</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.252447</v>
+                  <v>0.174295</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.251631</v>
+                  <v>0.173194</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.25027</v>
+                  <v>0.17194</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.249676</v>
+                  <v>0.170673</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.267902</v>
+                  <v>0.18821</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.265381</v>
+                  <v>0.18648</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.263476</v>
+                  <v>0.185181</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.261695</v>
+                  <v>0.183927</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.259699</v>
+                  <v>0.18249</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.258738</v>
+                  <v>0.18114</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.257442</v>
+                  <v>0.179757</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255897</v>
+                  <v>0.178537</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.254296</v>
+                  <v>0.177269</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.253976</v>
+                  <v>0.175893</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.253858</v>
+                  <v>0.174715</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.252652</v>
+                  <v>0.173489</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.251436</v>
+                  <v>0.172158</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.251373</v>
+                  <v>0.170948</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.249863</v>
+                  <v>0.169715</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.266506</v>
+                  <v>0.187153</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.26438</v>
+                  <v>0.185547</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.261884</v>
+                  <v>0.184049</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.260327</v>
+                  <v>0.182769</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.25828</v>
+                  <v>0.181451</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.257292</v>
+                  <v>0.180103</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.256414</v>
+                  <v>0.178785</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.255015</v>
+                  <v>0.177335</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.253526</v>
+                  <v>0.176054</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.252946</v>
+                  <v>0.174854</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.252272</v>
+                  <v>0.173636</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.251202</v>
+                  <v>0.172385</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.251597</v>
+                  <v>0.171224</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.251317</v>
+                  <v>0.170001</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.267088</v>
+                  <v>0.196784</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.264928</v>
+                  <v>0.194704</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.263676</v>
+                  <v>0.192719</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.26094</v>
+                  <v>0.191072</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.259854</v>
+                  <v>0.189256</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.258275</v>
+                  <v>0.187704</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.256589</v>
+                  <v>0.185987</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2825,7 +2849,6 @@
         <axId val="163989376"/>
         <scaling>
           <orientation val="minMax"/>
-          <max val="0.5"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -3217,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="7" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="8" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3235,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2593</v>
+        <v>0.256177</v>
       </c>
       <c r="C2" t="n">
-        <v>0.244809</v>
+        <v>0.249459</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2435</v>
+        <v>0.251191</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.26161</v>
+        <v>0.264001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.242979</v>
+        <v>0.251153</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239462</v>
+        <v>0.251645</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.253918</v>
+        <v>0.247865</v>
       </c>
       <c r="C4" t="n">
-        <v>0.241092</v>
+        <v>0.241481</v>
       </c>
       <c r="D4" t="n">
-        <v>0.241019</v>
+        <v>0.248054</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.249083</v>
+        <v>0.239068</v>
       </c>
       <c r="C5" t="n">
-        <v>0.242131</v>
+        <v>0.236565</v>
       </c>
       <c r="D5" t="n">
-        <v>0.240351</v>
+        <v>0.251148</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.240156</v>
+        <v>0.233802</v>
       </c>
       <c r="C6" t="n">
-        <v>0.238499</v>
+        <v>0.239036</v>
       </c>
       <c r="D6" t="n">
-        <v>0.241887</v>
+        <v>0.240925</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.231546</v>
+        <v>0.223239</v>
       </c>
       <c r="C7" t="n">
-        <v>0.233668</v>
+        <v>0.23536</v>
       </c>
       <c r="D7" t="n">
-        <v>0.240877</v>
+        <v>0.246803</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.223383</v>
+        <v>0.220144</v>
       </c>
       <c r="C8" t="n">
-        <v>0.23967</v>
+        <v>0.242676</v>
       </c>
       <c r="D8" t="n">
-        <v>0.240182</v>
+        <v>0.242217</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.213325</v>
+        <v>0.211486</v>
       </c>
       <c r="C9" t="n">
-        <v>0.233161</v>
+        <v>0.241496</v>
       </c>
       <c r="D9" t="n">
-        <v>0.248555</v>
+        <v>0.259446</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.297957</v>
+        <v>0.30255</v>
       </c>
       <c r="C10" t="n">
-        <v>0.251659</v>
+        <v>0.259885</v>
       </c>
       <c r="D10" t="n">
-        <v>0.245453</v>
+        <v>0.254839</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.294853</v>
+        <v>0.296077</v>
       </c>
       <c r="C11" t="n">
-        <v>0.251818</v>
+        <v>0.250401</v>
       </c>
       <c r="D11" t="n">
-        <v>0.246691</v>
+        <v>0.251633</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.283731</v>
+        <v>0.2827</v>
       </c>
       <c r="C12" t="n">
-        <v>0.249093</v>
+        <v>0.250494</v>
       </c>
       <c r="D12" t="n">
-        <v>0.248494</v>
+        <v>0.24949</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.277722</v>
+        <v>0.280953</v>
       </c>
       <c r="C13" t="n">
-        <v>0.247639</v>
+        <v>0.246971</v>
       </c>
       <c r="D13" t="n">
-        <v>0.248682</v>
+        <v>0.254904</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.272003</v>
+        <v>0.27039</v>
       </c>
       <c r="C14" t="n">
-        <v>0.243772</v>
+        <v>0.247852</v>
       </c>
       <c r="D14" t="n">
-        <v>0.244551</v>
+        <v>0.253757</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.269835</v>
+        <v>0.266908</v>
       </c>
       <c r="C15" t="n">
-        <v>0.244748</v>
+        <v>0.245978</v>
       </c>
       <c r="D15" t="n">
-        <v>0.239062</v>
+        <v>0.245839</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.262785</v>
+        <v>0.259799</v>
       </c>
       <c r="C16" t="n">
-        <v>0.242651</v>
+        <v>0.246069</v>
       </c>
       <c r="D16" t="n">
-        <v>0.23887</v>
+        <v>0.241625</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.257344</v>
+        <v>0.256125</v>
       </c>
       <c r="C17" t="n">
-        <v>0.24193</v>
+        <v>0.245655</v>
       </c>
       <c r="D17" t="n">
-        <v>0.241793</v>
+        <v>0.241804</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.249829</v>
+        <v>0.249117</v>
       </c>
       <c r="C18" t="n">
-        <v>0.242129</v>
+        <v>0.235312</v>
       </c>
       <c r="D18" t="n">
-        <v>0.239944</v>
+        <v>0.245217</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.244149</v>
+        <v>0.23879</v>
       </c>
       <c r="C19" t="n">
-        <v>0.241767</v>
+        <v>0.23548</v>
       </c>
       <c r="D19" t="n">
-        <v>0.237491</v>
+        <v>0.245028</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.23902</v>
+        <v>0.235188</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2373</v>
+        <v>0.237407</v>
       </c>
       <c r="D20" t="n">
-        <v>0.239525</v>
+        <v>0.244159</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.231258</v>
+        <v>0.225319</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236011</v>
+        <v>0.236884</v>
       </c>
       <c r="D21" t="n">
-        <v>0.239521</v>
+        <v>0.241251</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.223937</v>
+        <v>0.218695</v>
       </c>
       <c r="C22" t="n">
-        <v>0.236944</v>
+        <v>0.23746</v>
       </c>
       <c r="D22" t="n">
-        <v>0.239506</v>
+        <v>0.24431</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.216806</v>
+        <v>0.210948</v>
       </c>
       <c r="C23" t="n">
-        <v>0.237307</v>
+        <v>0.230839</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25084</v>
+        <v>0.260349</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.297313</v>
+        <v>0.300883</v>
       </c>
       <c r="C24" t="n">
-        <v>0.255643</v>
+        <v>0.257158</v>
       </c>
       <c r="D24" t="n">
-        <v>0.252947</v>
+        <v>0.26094</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.293969</v>
+        <v>0.293008</v>
       </c>
       <c r="C25" t="n">
-        <v>0.254186</v>
+        <v>0.256257</v>
       </c>
       <c r="D25" t="n">
-        <v>0.248136</v>
+        <v>0.260737</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.288743</v>
+        <v>0.286166</v>
       </c>
       <c r="C26" t="n">
-        <v>0.252088</v>
+        <v>0.248669</v>
       </c>
       <c r="D26" t="n">
-        <v>0.253679</v>
+        <v>0.25426</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.282419</v>
+        <v>0.27469</v>
       </c>
       <c r="C27" t="n">
-        <v>0.252239</v>
+        <v>0.248263</v>
       </c>
       <c r="D27" t="n">
-        <v>0.248823</v>
+        <v>0.252108</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.274107</v>
+        <v>0.275752</v>
       </c>
       <c r="C28" t="n">
-        <v>0.252917</v>
+        <v>0.248396</v>
       </c>
       <c r="D28" t="n">
-        <v>0.246781</v>
+        <v>0.255979</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268914</v>
+        <v>0.269315</v>
       </c>
       <c r="C29" t="n">
-        <v>0.245788</v>
+        <v>0.245016</v>
       </c>
       <c r="D29" t="n">
-        <v>0.247889</v>
+        <v>0.249946</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.262849</v>
+        <v>0.262437</v>
       </c>
       <c r="C30" t="n">
-        <v>0.250441</v>
+        <v>0.245254</v>
       </c>
       <c r="D30" t="n">
-        <v>0.250544</v>
+        <v>0.249656</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.255558</v>
+        <v>0.25296</v>
       </c>
       <c r="C31" t="n">
-        <v>0.24701</v>
+        <v>0.24146</v>
       </c>
       <c r="D31" t="n">
-        <v>0.245213</v>
+        <v>0.246085</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.252285</v>
+        <v>0.24419</v>
       </c>
       <c r="C32" t="n">
-        <v>0.248536</v>
+        <v>0.242003</v>
       </c>
       <c r="D32" t="n">
-        <v>0.249625</v>
+        <v>0.245166</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.248325</v>
+        <v>0.243839</v>
       </c>
       <c r="C33" t="n">
-        <v>0.245091</v>
+        <v>0.24129</v>
       </c>
       <c r="D33" t="n">
-        <v>0.243087</v>
+        <v>0.243574</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.237855</v>
+        <v>0.239184</v>
       </c>
       <c r="C34" t="n">
-        <v>0.240115</v>
+        <v>0.240868</v>
       </c>
       <c r="D34" t="n">
-        <v>0.240434</v>
+        <v>0.244459</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.233593</v>
+        <v>0.227402</v>
       </c>
       <c r="C35" t="n">
-        <v>0.239982</v>
+        <v>0.239507</v>
       </c>
       <c r="D35" t="n">
-        <v>0.242428</v>
+        <v>0.246415</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.22654</v>
+        <v>0.221442</v>
       </c>
       <c r="C36" t="n">
-        <v>0.237093</v>
+        <v>0.238906</v>
       </c>
       <c r="D36" t="n">
-        <v>0.24038</v>
+        <v>0.241326</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.221487</v>
+        <v>0.212524</v>
       </c>
       <c r="C37" t="n">
-        <v>0.239483</v>
+        <v>0.235909</v>
       </c>
       <c r="D37" t="n">
-        <v>0.264847</v>
+        <v>0.26516</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.303676</v>
+        <v>0.301292</v>
       </c>
       <c r="C38" t="n">
-        <v>0.258213</v>
+        <v>0.264197</v>
       </c>
       <c r="D38" t="n">
-        <v>0.261476</v>
+        <v>0.263854</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2991</v>
+        <v>0.293352</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257607</v>
+        <v>0.254263</v>
       </c>
       <c r="D39" t="n">
-        <v>0.259044</v>
+        <v>0.258789</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.291954</v>
+        <v>0.287155</v>
       </c>
       <c r="C40" t="n">
-        <v>0.257322</v>
+        <v>0.256228</v>
       </c>
       <c r="D40" t="n">
-        <v>0.259655</v>
+        <v>0.262325</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.285332</v>
+        <v>0.282414</v>
       </c>
       <c r="C41" t="n">
-        <v>0.254166</v>
+        <v>0.25628</v>
       </c>
       <c r="D41" t="n">
-        <v>0.256612</v>
+        <v>0.255693</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.281723</v>
+        <v>0.280605</v>
       </c>
       <c r="C42" t="n">
-        <v>0.256749</v>
+        <v>0.25226</v>
       </c>
       <c r="D42" t="n">
-        <v>0.253266</v>
+        <v>0.263038</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.275591</v>
+        <v>0.27215</v>
       </c>
       <c r="C43" t="n">
-        <v>0.25248</v>
+        <v>0.255285</v>
       </c>
       <c r="D43" t="n">
-        <v>0.255411</v>
+        <v>0.260112</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.269514</v>
+        <v>0.263502</v>
       </c>
       <c r="C44" t="n">
-        <v>0.253029</v>
+        <v>0.248813</v>
       </c>
       <c r="D44" t="n">
-        <v>0.250557</v>
+        <v>0.254857</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.261068</v>
+        <v>0.260977</v>
       </c>
       <c r="C45" t="n">
-        <v>0.252549</v>
+        <v>0.247611</v>
       </c>
       <c r="D45" t="n">
-        <v>0.248028</v>
+        <v>0.253206</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.257183</v>
+        <v>0.24929</v>
       </c>
       <c r="C46" t="n">
-        <v>0.250236</v>
+        <v>0.248416</v>
       </c>
       <c r="D46" t="n">
-        <v>0.246655</v>
+        <v>0.253691</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.250086</v>
+        <v>0.246499</v>
       </c>
       <c r="C47" t="n">
-        <v>0.247643</v>
+        <v>0.244394</v>
       </c>
       <c r="D47" t="n">
-        <v>0.246742</v>
+        <v>0.245931</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.246342</v>
+        <v>0.242535</v>
       </c>
       <c r="C48" t="n">
-        <v>0.245106</v>
+        <v>0.245168</v>
       </c>
       <c r="D48" t="n">
-        <v>0.246064</v>
+        <v>0.247244</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.237326</v>
+        <v>0.234174</v>
       </c>
       <c r="C49" t="n">
-        <v>0.24482</v>
+        <v>0.241059</v>
       </c>
       <c r="D49" t="n">
-        <v>0.243526</v>
+        <v>0.246284</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.227351</v>
+        <v>0.226872</v>
       </c>
       <c r="C50" t="n">
-        <v>0.243269</v>
+        <v>0.240432</v>
       </c>
       <c r="D50" t="n">
-        <v>0.241932</v>
+        <v>0.252978</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.227919</v>
+        <v>0.220719</v>
       </c>
       <c r="C51" t="n">
-        <v>0.243348</v>
+        <v>0.241189</v>
       </c>
       <c r="D51" t="n">
-        <v>0.269141</v>
+        <v>0.276254</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.212232</v>
+        <v>0.208616</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241379</v>
+        <v>0.240818</v>
       </c>
       <c r="D52" t="n">
-        <v>0.261148</v>
+        <v>0.270546</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.30372</v>
+        <v>0.299442</v>
       </c>
       <c r="C53" t="n">
-        <v>0.266371</v>
+        <v>0.265726</v>
       </c>
       <c r="D53" t="n">
-        <v>0.261008</v>
+        <v>0.26956</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.295533</v>
+        <v>0.290141</v>
       </c>
       <c r="C54" t="n">
-        <v>0.266863</v>
+        <v>0.261199</v>
       </c>
       <c r="D54" t="n">
-        <v>0.262813</v>
+        <v>0.264958</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.294756</v>
+        <v>0.288735</v>
       </c>
       <c r="C55" t="n">
-        <v>0.261247</v>
+        <v>0.260391</v>
       </c>
       <c r="D55" t="n">
-        <v>0.256911</v>
+        <v>0.265043</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.287708</v>
+        <v>0.286929</v>
       </c>
       <c r="C56" t="n">
-        <v>0.259743</v>
+        <v>0.262315</v>
       </c>
       <c r="D56" t="n">
-        <v>0.256462</v>
+        <v>0.260047</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.282306</v>
+        <v>0.275665</v>
       </c>
       <c r="C57" t="n">
-        <v>0.25579</v>
+        <v>0.260562</v>
       </c>
       <c r="D57" t="n">
-        <v>0.257993</v>
+        <v>0.258869</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.280572</v>
+        <v>0.273616</v>
       </c>
       <c r="C58" t="n">
-        <v>0.25495</v>
+        <v>0.260774</v>
       </c>
       <c r="D58" t="n">
-        <v>0.25479</v>
+        <v>0.260596</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.273276</v>
+        <v>0.266737</v>
       </c>
       <c r="C59" t="n">
-        <v>0.253129</v>
+        <v>0.255841</v>
       </c>
       <c r="D59" t="n">
-        <v>0.253683</v>
+        <v>0.257181</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.263449</v>
+        <v>0.262212</v>
       </c>
       <c r="C60" t="n">
-        <v>0.256431</v>
+        <v>0.252608</v>
       </c>
       <c r="D60" t="n">
-        <v>0.253845</v>
+        <v>0.253335</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.258143</v>
+        <v>0.252331</v>
       </c>
       <c r="C61" t="n">
-        <v>0.250083</v>
+        <v>0.247773</v>
       </c>
       <c r="D61" t="n">
-        <v>0.250812</v>
+        <v>0.251221</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.252238</v>
+        <v>0.246968</v>
       </c>
       <c r="C62" t="n">
-        <v>0.247702</v>
+        <v>0.250034</v>
       </c>
       <c r="D62" t="n">
-        <v>0.249824</v>
+        <v>0.252821</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.243118</v>
+        <v>0.237642</v>
       </c>
       <c r="C63" t="n">
-        <v>0.246404</v>
+        <v>0.244844</v>
       </c>
       <c r="D63" t="n">
-        <v>0.246722</v>
+        <v>0.247581</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.236772</v>
+        <v>0.2315</v>
       </c>
       <c r="C64" t="n">
-        <v>0.246098</v>
+        <v>0.24267</v>
       </c>
       <c r="D64" t="n">
-        <v>0.244581</v>
+        <v>0.248205</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.230921</v>
+        <v>0.227993</v>
       </c>
       <c r="C65" t="n">
-        <v>0.248443</v>
+        <v>0.244054</v>
       </c>
       <c r="D65" t="n">
-        <v>0.249428</v>
+        <v>0.247763</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.219233</v>
+        <v>0.220111</v>
       </c>
       <c r="C66" t="n">
-        <v>0.242029</v>
+        <v>0.246366</v>
       </c>
       <c r="D66" t="n">
-        <v>0.278437</v>
+        <v>0.285575</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.318603</v>
+        <v>0.316939</v>
       </c>
       <c r="C67" t="n">
-        <v>0.278623</v>
+        <v>0.2741</v>
       </c>
       <c r="D67" t="n">
-        <v>0.276765</v>
+        <v>0.278352</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.303925</v>
+        <v>0.304475</v>
       </c>
       <c r="C68" t="n">
-        <v>0.27896</v>
+        <v>0.281827</v>
       </c>
       <c r="D68" t="n">
-        <v>0.270807</v>
+        <v>0.279708</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.305429</v>
+        <v>0.307808</v>
       </c>
       <c r="C69" t="n">
-        <v>0.274955</v>
+        <v>0.27304</v>
       </c>
       <c r="D69" t="n">
-        <v>0.270471</v>
+        <v>0.275619</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.299172</v>
+        <v>0.290224</v>
       </c>
       <c r="C70" t="n">
-        <v>0.269942</v>
+        <v>0.27191</v>
       </c>
       <c r="D70" t="n">
-        <v>0.267107</v>
+        <v>0.275095</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.293049</v>
+        <v>0.289092</v>
       </c>
       <c r="C71" t="n">
-        <v>0.270216</v>
+        <v>0.269029</v>
       </c>
       <c r="D71" t="n">
-        <v>0.264894</v>
+        <v>0.264867</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.284244</v>
+        <v>0.281745</v>
       </c>
       <c r="C72" t="n">
-        <v>0.266363</v>
+        <v>0.270725</v>
       </c>
       <c r="D72" t="n">
-        <v>0.26463</v>
+        <v>0.266019</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.277146</v>
+        <v>0.274684</v>
       </c>
       <c r="C73" t="n">
-        <v>0.262996</v>
+        <v>0.263107</v>
       </c>
       <c r="D73" t="n">
-        <v>0.261393</v>
+        <v>0.262723</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.275629</v>
+        <v>0.267085</v>
       </c>
       <c r="C74" t="n">
-        <v>0.258479</v>
+        <v>0.258692</v>
       </c>
       <c r="D74" t="n">
-        <v>0.260627</v>
+        <v>0.264634</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.268751</v>
+        <v>0.258744</v>
       </c>
       <c r="C75" t="n">
-        <v>0.256909</v>
+        <v>0.258748</v>
       </c>
       <c r="D75" t="n">
-        <v>0.256399</v>
+        <v>0.260813</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.258243</v>
+        <v>0.258787</v>
       </c>
       <c r="C76" t="n">
-        <v>0.256963</v>
+        <v>0.258046</v>
       </c>
       <c r="D76" t="n">
-        <v>0.253349</v>
+        <v>0.26036</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.252497</v>
+        <v>0.247615</v>
       </c>
       <c r="C77" t="n">
-        <v>0.253499</v>
+        <v>0.259735</v>
       </c>
       <c r="D77" t="n">
-        <v>0.251169</v>
+        <v>0.25687</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.243144</v>
+        <v>0.243098</v>
       </c>
       <c r="C78" t="n">
-        <v>0.254381</v>
+        <v>0.253872</v>
       </c>
       <c r="D78" t="n">
-        <v>0.25212</v>
+        <v>0.255028</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.233829</v>
+        <v>0.234354</v>
       </c>
       <c r="C79" t="n">
-        <v>0.250142</v>
+        <v>0.254538</v>
       </c>
       <c r="D79" t="n">
-        <v>0.25172</v>
+        <v>0.256161</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.229634</v>
+        <v>0.224683</v>
       </c>
       <c r="C80" t="n">
-        <v>0.249708</v>
+        <v>0.251499</v>
       </c>
       <c r="D80" t="n">
-        <v>0.27834</v>
+        <v>0.283909</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.320896</v>
+        <v>0.317978</v>
       </c>
       <c r="C81" t="n">
-        <v>0.280927</v>
+        <v>0.281503</v>
       </c>
       <c r="D81" t="n">
-        <v>0.276198</v>
+        <v>0.283021</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.315758</v>
+        <v>0.312175</v>
       </c>
       <c r="C82" t="n">
-        <v>0.280444</v>
+        <v>0.283381</v>
       </c>
       <c r="D82" t="n">
-        <v>0.273942</v>
+        <v>0.278096</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.310826</v>
+        <v>0.302419</v>
       </c>
       <c r="C83" t="n">
-        <v>0.27426</v>
+        <v>0.273445</v>
       </c>
       <c r="D83" t="n">
-        <v>0.271125</v>
+        <v>0.284816</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.304111</v>
+        <v>0.302993</v>
       </c>
       <c r="C84" t="n">
-        <v>0.275735</v>
+        <v>0.267736</v>
       </c>
       <c r="D84" t="n">
-        <v>0.276344</v>
+        <v>0.271596</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.298424</v>
+        <v>0.28998</v>
       </c>
       <c r="C85" t="n">
-        <v>0.271303</v>
+        <v>0.266834</v>
       </c>
       <c r="D85" t="n">
-        <v>0.267528</v>
+        <v>0.269143</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.285188</v>
+        <v>0.281941</v>
       </c>
       <c r="C86" t="n">
-        <v>0.266587</v>
+        <v>0.269991</v>
       </c>
       <c r="D86" t="n">
-        <v>0.263094</v>
+        <v>0.268931</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.28436</v>
+        <v>0.275615</v>
       </c>
       <c r="C87" t="n">
-        <v>0.264778</v>
+        <v>0.265157</v>
       </c>
       <c r="D87" t="n">
-        <v>0.265325</v>
+        <v>0.270018</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.280522</v>
+        <v>0.274242</v>
       </c>
       <c r="C88" t="n">
-        <v>0.263159</v>
+        <v>0.264078</v>
       </c>
       <c r="D88" t="n">
-        <v>0.264788</v>
+        <v>0.266463</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.27395</v>
+        <v>0.263858</v>
       </c>
       <c r="C89" t="n">
-        <v>0.259309</v>
+        <v>0.264659</v>
       </c>
       <c r="D89" t="n">
-        <v>0.258775</v>
+        <v>0.266524</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.261452</v>
+        <v>0.263384</v>
       </c>
       <c r="C90" t="n">
-        <v>0.259156</v>
+        <v>0.263114</v>
       </c>
       <c r="D90" t="n">
-        <v>0.254658</v>
+        <v>0.26807</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.255026</v>
+        <v>0.258947</v>
       </c>
       <c r="C91" t="n">
-        <v>0.257662</v>
+        <v>0.253766</v>
       </c>
       <c r="D91" t="n">
-        <v>0.257238</v>
+        <v>0.257657</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.246846</v>
+        <v>0.244151</v>
       </c>
       <c r="C92" t="n">
-        <v>0.254441</v>
+        <v>0.256114</v>
       </c>
       <c r="D92" t="n">
-        <v>0.253723</v>
+        <v>0.260373</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.236633</v>
+        <v>0.236253</v>
       </c>
       <c r="C93" t="n">
-        <v>0.251696</v>
+        <v>0.25369</v>
       </c>
       <c r="D93" t="n">
-        <v>0.253192</v>
+        <v>0.259381</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.2336</v>
+        <v>0.230309</v>
       </c>
       <c r="C94" t="n">
-        <v>0.250569</v>
+        <v>0.253205</v>
       </c>
       <c r="D94" t="n">
-        <v>0.283577</v>
+        <v>0.285046</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.325322</v>
+        <v>0.321799</v>
       </c>
       <c r="C95" t="n">
-        <v>0.284771</v>
+        <v>0.281993</v>
       </c>
       <c r="D95" t="n">
-        <v>0.27827</v>
+        <v>0.287625</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.320273</v>
+        <v>0.315541</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2758</v>
+        <v>0.281186</v>
       </c>
       <c r="D96" t="n">
-        <v>0.278499</v>
+        <v>0.277281</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.311708</v>
+        <v>0.301938</v>
       </c>
       <c r="C97" t="n">
-        <v>0.279406</v>
+        <v>0.272523</v>
       </c>
       <c r="D97" t="n">
-        <v>0.274742</v>
+        <v>0.275068</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.305091</v>
+        <v>0.297291</v>
       </c>
       <c r="C98" t="n">
-        <v>0.276605</v>
+        <v>0.276724</v>
       </c>
       <c r="D98" t="n">
-        <v>0.274754</v>
+        <v>0.275582</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.298599</v>
+        <v>0.298414</v>
       </c>
       <c r="C99" t="n">
-        <v>0.269021</v>
+        <v>0.272458</v>
       </c>
       <c r="D99" t="n">
-        <v>0.272548</v>
+        <v>0.272297</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.29504</v>
+        <v>0.285487</v>
       </c>
       <c r="C100" t="n">
-        <v>0.266729</v>
+        <v>0.268229</v>
       </c>
       <c r="D100" t="n">
-        <v>0.267982</v>
+        <v>0.267976</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.286408</v>
+        <v>0.278145</v>
       </c>
       <c r="C101" t="n">
-        <v>0.27144</v>
+        <v>0.261802</v>
       </c>
       <c r="D101" t="n">
-        <v>0.261786</v>
+        <v>0.264703</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.275367</v>
+        <v>0.270407</v>
       </c>
       <c r="C102" t="n">
-        <v>0.263287</v>
+        <v>0.263456</v>
       </c>
       <c r="D102" t="n">
-        <v>0.259478</v>
+        <v>0.264717</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.272509</v>
+        <v>0.266217</v>
       </c>
       <c r="C103" t="n">
-        <v>0.259002</v>
+        <v>0.259833</v>
       </c>
       <c r="D103" t="n">
-        <v>0.263489</v>
+        <v>0.260581</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.267244</v>
+        <v>0.256257</v>
       </c>
       <c r="C104" t="n">
-        <v>0.258779</v>
+        <v>0.261008</v>
       </c>
       <c r="D104" t="n">
-        <v>0.257979</v>
+        <v>0.259045</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.256541</v>
+        <v>0.250092</v>
       </c>
       <c r="C105" t="n">
-        <v>0.258851</v>
+        <v>0.25919</v>
       </c>
       <c r="D105" t="n">
-        <v>0.256703</v>
+        <v>0.260256</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.249391</v>
+        <v>0.24293</v>
       </c>
       <c r="C106" t="n">
-        <v>0.261256</v>
+        <v>0.255204</v>
       </c>
       <c r="D106" t="n">
-        <v>0.25319</v>
+        <v>0.264482</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.238623</v>
+        <v>0.235921</v>
       </c>
       <c r="C107" t="n">
-        <v>0.253196</v>
+        <v>0.250569</v>
       </c>
       <c r="D107" t="n">
-        <v>0.254736</v>
+        <v>0.256659</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.234344</v>
+        <v>0.227455</v>
       </c>
       <c r="C108" t="n">
-        <v>0.251496</v>
+        <v>0.248662</v>
       </c>
       <c r="D108" t="n">
-        <v>0.282002</v>
+        <v>0.284586</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.225472</v>
+        <v>0.218674</v>
       </c>
       <c r="C109" t="n">
-        <v>0.253503</v>
+        <v>0.24852</v>
       </c>
       <c r="D109" t="n">
-        <v>0.279964</v>
+        <v>0.285535</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.32367</v>
+        <v>0.317814</v>
       </c>
       <c r="C110" t="n">
-        <v>0.277254</v>
+        <v>0.278445</v>
       </c>
       <c r="D110" t="n">
-        <v>0.279647</v>
+        <v>0.277511</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.312802</v>
+        <v>0.30468</v>
       </c>
       <c r="C111" t="n">
-        <v>0.276705</v>
+        <v>0.273847</v>
       </c>
       <c r="D111" t="n">
-        <v>0.272952</v>
+        <v>0.280091</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.30606</v>
+        <v>0.300419</v>
       </c>
       <c r="C112" t="n">
-        <v>0.278239</v>
+        <v>0.280797</v>
       </c>
       <c r="D112" t="n">
-        <v>0.275283</v>
+        <v>0.275562</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.300297</v>
+        <v>0.300871</v>
       </c>
       <c r="C113" t="n">
-        <v>0.276243</v>
+        <v>0.270379</v>
       </c>
       <c r="D113" t="n">
-        <v>0.271965</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.300022</v>
+        <v>0.284843</v>
       </c>
       <c r="C114" t="n">
-        <v>0.275059</v>
+        <v>0.272864</v>
       </c>
       <c r="D114" t="n">
-        <v>0.266339</v>
+        <v>0.269401</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.287468</v>
+        <v>0.284355</v>
       </c>
       <c r="C115" t="n">
-        <v>0.269057</v>
+        <v>0.270416</v>
       </c>
       <c r="D115" t="n">
-        <v>0.265493</v>
+        <v>0.269274</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.286527</v>
+        <v>0.273652</v>
       </c>
       <c r="C116" t="n">
-        <v>0.26357</v>
+        <v>0.271025</v>
       </c>
       <c r="D116" t="n">
-        <v>0.268147</v>
+        <v>0.265839</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.273995</v>
+        <v>0.270659</v>
       </c>
       <c r="C117" t="n">
-        <v>0.262269</v>
+        <v>0.262798</v>
       </c>
       <c r="D117" t="n">
-        <v>0.260559</v>
+        <v>0.26453</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.263948</v>
+        <v>0.258372</v>
       </c>
       <c r="C118" t="n">
-        <v>0.25953</v>
+        <v>0.255951</v>
       </c>
       <c r="D118" t="n">
-        <v>0.262052</v>
+        <v>0.258755</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.2577</v>
+        <v>0.253755</v>
       </c>
       <c r="C119" t="n">
-        <v>0.255421</v>
+        <v>0.260986</v>
       </c>
       <c r="D119" t="n">
-        <v>0.256218</v>
+        <v>0.258551</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.252555</v>
+        <v>0.245263</v>
       </c>
       <c r="C120" t="n">
-        <v>0.258739</v>
+        <v>0.259913</v>
       </c>
       <c r="D120" t="n">
-        <v>0.257522</v>
+        <v>0.256886</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.250449</v>
+        <v>0.240048</v>
       </c>
       <c r="C121" t="n">
-        <v>0.252679</v>
+        <v>0.254489</v>
       </c>
       <c r="D121" t="n">
-        <v>0.255925</v>
+        <v>0.255461</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237829</v>
+        <v>0.229246</v>
       </c>
       <c r="C122" t="n">
-        <v>0.255194</v>
+        <v>0.247918</v>
       </c>
       <c r="D122" t="n">
-        <v>0.253601</v>
+        <v>0.252483</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.230346</v>
+        <v>0.225071</v>
       </c>
       <c r="C123" t="n">
-        <v>0.24958</v>
+        <v>0.252867</v>
       </c>
       <c r="D123" t="n">
-        <v>0.28131</v>
+        <v>0.28665</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.320759</v>
+        <v>0.319259</v>
       </c>
       <c r="C124" t="n">
-        <v>0.280788</v>
+        <v>0.279809</v>
       </c>
       <c r="D124" t="n">
-        <v>0.282981</v>
+        <v>0.277188</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.329867</v>
+        <v>0.303962</v>
       </c>
       <c r="C125" t="n">
-        <v>0.280729</v>
+        <v>0.272702</v>
       </c>
       <c r="D125" t="n">
-        <v>0.279371</v>
+        <v>0.2781</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.312694</v>
+        <v>0.301669</v>
       </c>
       <c r="C126" t="n">
-        <v>0.275948</v>
+        <v>0.271212</v>
       </c>
       <c r="D126" t="n">
-        <v>0.271614</v>
+        <v>0.272463</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.30051</v>
+        <v>0.294983</v>
       </c>
       <c r="C127" t="n">
-        <v>0.275437</v>
+        <v>0.267549</v>
       </c>
       <c r="D127" t="n">
-        <v>0.273035</v>
+        <v>0.269155</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.293972</v>
+        <v>0.288296</v>
       </c>
       <c r="C128" t="n">
-        <v>0.269972</v>
+        <v>0.266609</v>
       </c>
       <c r="D128" t="n">
-        <v>0.269726</v>
+        <v>0.275776</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.287287</v>
+        <v>0.28147</v>
       </c>
       <c r="C129" t="n">
-        <v>0.267497</v>
+        <v>0.270816</v>
       </c>
       <c r="D129" t="n">
-        <v>0.270446</v>
+        <v>0.271828</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.278121</v>
+        <v>0.27597</v>
       </c>
       <c r="C130" t="n">
-        <v>0.269342</v>
+        <v>0.26293</v>
       </c>
       <c r="D130" t="n">
-        <v>0.263675</v>
+        <v>0.264836</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.270599</v>
+        <v>0.267331</v>
       </c>
       <c r="C131" t="n">
-        <v>0.265494</v>
+        <v>0.259517</v>
       </c>
       <c r="D131" t="n">
-        <v>0.260704</v>
+        <v>0.261707</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.26538</v>
+        <v>0.268222</v>
       </c>
       <c r="C132" t="n">
-        <v>0.263399</v>
+        <v>0.2559</v>
       </c>
       <c r="D132" t="n">
-        <v>0.256581</v>
+        <v>0.26171</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.259596</v>
+        <v>0.256781</v>
       </c>
       <c r="C133" t="n">
-        <v>0.254148</v>
+        <v>0.258061</v>
       </c>
       <c r="D133" t="n">
-        <v>0.257177</v>
+        <v>0.26415</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.253826</v>
+        <v>0.247034</v>
       </c>
       <c r="C134" t="n">
-        <v>0.256284</v>
+        <v>0.263174</v>
       </c>
       <c r="D134" t="n">
-        <v>0.257166</v>
+        <v>0.259613</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.246882</v>
+        <v>0.239969</v>
       </c>
       <c r="C135" t="n">
-        <v>0.259174</v>
+        <v>0.256504</v>
       </c>
       <c r="D135" t="n">
-        <v>0.254677</v>
+        <v>0.255534</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.234966</v>
+        <v>0.234534</v>
       </c>
       <c r="C136" t="n">
-        <v>0.253237</v>
+        <v>0.252769</v>
       </c>
       <c r="D136" t="n">
-        <v>0.254946</v>
+        <v>0.25452</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.227773</v>
+        <v>0.221359</v>
       </c>
       <c r="C137" t="n">
-        <v>0.256894</v>
+        <v>0.250298</v>
       </c>
       <c r="D137" t="n">
-        <v>0.281112</v>
+        <v>0.281733</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.322808</v>
+        <v>0.321669</v>
       </c>
       <c r="C138" t="n">
-        <v>0.278915</v>
+        <v>0.284106</v>
       </c>
       <c r="D138" t="n">
-        <v>0.279202</v>
+        <v>0.292527</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.312791</v>
+        <v>0.318697</v>
       </c>
       <c r="C139" t="n">
-        <v>0.277057</v>
+        <v>0.280398</v>
       </c>
       <c r="D139" t="n">
-        <v>0.277111</v>
+        <v>0.274335</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.311309</v>
+        <v>0.301336</v>
       </c>
       <c r="C140" t="n">
-        <v>0.273012</v>
+        <v>0.279752</v>
       </c>
       <c r="D140" t="n">
-        <v>0.272873</v>
+        <v>0.27436</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.305117</v>
+        <v>0.294407</v>
       </c>
       <c r="C141" t="n">
-        <v>0.271705</v>
+        <v>0.268197</v>
       </c>
       <c r="D141" t="n">
-        <v>0.271673</v>
+        <v>0.274558</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.293883</v>
+        <v>0.289531</v>
       </c>
       <c r="C142" t="n">
-        <v>0.271387</v>
+        <v>0.269098</v>
       </c>
       <c r="D142" t="n">
-        <v>0.265606</v>
+        <v>0.27304</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.296362</v>
+        <v>0.283034</v>
       </c>
       <c r="C143" t="n">
-        <v>0.270775</v>
+        <v>0.267707</v>
       </c>
       <c r="D143" t="n">
-        <v>0.263082</v>
+        <v>0.270064</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.256177</v>
+        <v>0.278676</v>
       </c>
       <c r="C2" t="n">
-        <v>0.249459</v>
+        <v>0.239704</v>
       </c>
       <c r="D2" t="n">
-        <v>0.251191</v>
+        <v>0.246202</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.264001</v>
+        <v>0.267321</v>
       </c>
       <c r="C3" t="n">
-        <v>0.251153</v>
+        <v>0.234797</v>
       </c>
       <c r="D3" t="n">
-        <v>0.251645</v>
+        <v>0.248119</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.247865</v>
+        <v>0.259768</v>
       </c>
       <c r="C4" t="n">
-        <v>0.241481</v>
+        <v>0.233096</v>
       </c>
       <c r="D4" t="n">
-        <v>0.248054</v>
+        <v>0.243059</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.239068</v>
+        <v>0.252146</v>
       </c>
       <c r="C5" t="n">
-        <v>0.236565</v>
+        <v>0.229808</v>
       </c>
       <c r="D5" t="n">
-        <v>0.251148</v>
+        <v>0.24581</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.233802</v>
+        <v>0.244072</v>
       </c>
       <c r="C6" t="n">
-        <v>0.239036</v>
+        <v>0.230958</v>
       </c>
       <c r="D6" t="n">
-        <v>0.240925</v>
+        <v>0.244513</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.223239</v>
+        <v>0.239294</v>
       </c>
       <c r="C7" t="n">
-        <v>0.23536</v>
+        <v>0.234335</v>
       </c>
       <c r="D7" t="n">
-        <v>0.246803</v>
+        <v>0.242428</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.220144</v>
+        <v>0.228834</v>
       </c>
       <c r="C8" t="n">
-        <v>0.242676</v>
+        <v>0.230218</v>
       </c>
       <c r="D8" t="n">
-        <v>0.242217</v>
+        <v>0.243931</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.211486</v>
+        <v>0.220792</v>
       </c>
       <c r="C9" t="n">
-        <v>0.241496</v>
+        <v>0.230881</v>
       </c>
       <c r="D9" t="n">
-        <v>0.259446</v>
+        <v>0.258554</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.30255</v>
+        <v>0.312493</v>
       </c>
       <c r="C10" t="n">
-        <v>0.259885</v>
+        <v>0.244144</v>
       </c>
       <c r="D10" t="n">
-        <v>0.254839</v>
+        <v>0.248596</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.296077</v>
+        <v>0.305023</v>
       </c>
       <c r="C11" t="n">
-        <v>0.250401</v>
+        <v>0.244308</v>
       </c>
       <c r="D11" t="n">
-        <v>0.251633</v>
+        <v>0.249151</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2827</v>
+        <v>0.300238</v>
       </c>
       <c r="C12" t="n">
-        <v>0.250494</v>
+        <v>0.243005</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24949</v>
+        <v>0.245966</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.280953</v>
+        <v>0.289956</v>
       </c>
       <c r="C13" t="n">
-        <v>0.246971</v>
+        <v>0.242641</v>
       </c>
       <c r="D13" t="n">
-        <v>0.254904</v>
+        <v>0.248159</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.27039</v>
+        <v>0.28445</v>
       </c>
       <c r="C14" t="n">
-        <v>0.247852</v>
+        <v>0.240766</v>
       </c>
       <c r="D14" t="n">
-        <v>0.253757</v>
+        <v>0.247104</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.266908</v>
+        <v>0.280634</v>
       </c>
       <c r="C15" t="n">
-        <v>0.245978</v>
+        <v>0.238702</v>
       </c>
       <c r="D15" t="n">
-        <v>0.245839</v>
+        <v>0.245369</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.259799</v>
+        <v>0.269966</v>
       </c>
       <c r="C16" t="n">
-        <v>0.246069</v>
+        <v>0.234732</v>
       </c>
       <c r="D16" t="n">
-        <v>0.241625</v>
+        <v>0.2497</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.256125</v>
+        <v>0.267586</v>
       </c>
       <c r="C17" t="n">
-        <v>0.245655</v>
+        <v>0.238556</v>
       </c>
       <c r="D17" t="n">
-        <v>0.241804</v>
+        <v>0.249061</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.249117</v>
+        <v>0.260325</v>
       </c>
       <c r="C18" t="n">
-        <v>0.235312</v>
+        <v>0.233801</v>
       </c>
       <c r="D18" t="n">
-        <v>0.245217</v>
+        <v>0.245974</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.23879</v>
+        <v>0.252205</v>
       </c>
       <c r="C19" t="n">
-        <v>0.23548</v>
+        <v>0.233034</v>
       </c>
       <c r="D19" t="n">
-        <v>0.245028</v>
+        <v>0.243826</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.235188</v>
+        <v>0.247039</v>
       </c>
       <c r="C20" t="n">
-        <v>0.237407</v>
+        <v>0.234543</v>
       </c>
       <c r="D20" t="n">
-        <v>0.244159</v>
+        <v>0.247553</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.225319</v>
+        <v>0.238796</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236884</v>
+        <v>0.234815</v>
       </c>
       <c r="D21" t="n">
-        <v>0.241251</v>
+        <v>0.240548</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.218695</v>
+        <v>0.232105</v>
       </c>
       <c r="C22" t="n">
-        <v>0.23746</v>
+        <v>0.234392</v>
       </c>
       <c r="D22" t="n">
-        <v>0.24431</v>
+        <v>0.243258</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.210948</v>
+        <v>0.222863</v>
       </c>
       <c r="C23" t="n">
-        <v>0.230839</v>
+        <v>0.234678</v>
       </c>
       <c r="D23" t="n">
-        <v>0.260349</v>
+        <v>0.264721</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.300883</v>
+        <v>0.310601</v>
       </c>
       <c r="C24" t="n">
-        <v>0.257158</v>
+        <v>0.254177</v>
       </c>
       <c r="D24" t="n">
-        <v>0.26094</v>
+        <v>0.261181</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.293008</v>
+        <v>0.305701</v>
       </c>
       <c r="C25" t="n">
-        <v>0.256257</v>
+        <v>0.250736</v>
       </c>
       <c r="D25" t="n">
-        <v>0.260737</v>
+        <v>0.259481</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.286166</v>
+        <v>0.298451</v>
       </c>
       <c r="C26" t="n">
-        <v>0.248669</v>
+        <v>0.24591</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25426</v>
+        <v>0.255639</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.27469</v>
+        <v>0.292572</v>
       </c>
       <c r="C27" t="n">
-        <v>0.248263</v>
+        <v>0.246021</v>
       </c>
       <c r="D27" t="n">
-        <v>0.252108</v>
+        <v>0.258837</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.275752</v>
+        <v>0.286256</v>
       </c>
       <c r="C28" t="n">
-        <v>0.248396</v>
+        <v>0.24619</v>
       </c>
       <c r="D28" t="n">
-        <v>0.255979</v>
+        <v>0.255942</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.269315</v>
+        <v>0.285279</v>
       </c>
       <c r="C29" t="n">
-        <v>0.245016</v>
+        <v>0.243819</v>
       </c>
       <c r="D29" t="n">
-        <v>0.249946</v>
+        <v>0.255508</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.262437</v>
+        <v>0.277315</v>
       </c>
       <c r="C30" t="n">
-        <v>0.245254</v>
+        <v>0.24223</v>
       </c>
       <c r="D30" t="n">
-        <v>0.249656</v>
+        <v>0.252604</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.25296</v>
+        <v>0.268797</v>
       </c>
       <c r="C31" t="n">
-        <v>0.24146</v>
+        <v>0.240289</v>
       </c>
       <c r="D31" t="n">
-        <v>0.246085</v>
+        <v>0.248673</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.24419</v>
+        <v>0.266857</v>
       </c>
       <c r="C32" t="n">
-        <v>0.242003</v>
+        <v>0.23709</v>
       </c>
       <c r="D32" t="n">
-        <v>0.245166</v>
+        <v>0.249084</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.243839</v>
+        <v>0.261132</v>
       </c>
       <c r="C33" t="n">
-        <v>0.24129</v>
+        <v>0.236174</v>
       </c>
       <c r="D33" t="n">
-        <v>0.243574</v>
+        <v>0.253207</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.239184</v>
+        <v>0.251185</v>
       </c>
       <c r="C34" t="n">
-        <v>0.240868</v>
+        <v>0.236159</v>
       </c>
       <c r="D34" t="n">
-        <v>0.244459</v>
+        <v>0.247465</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.227402</v>
+        <v>0.243131</v>
       </c>
       <c r="C35" t="n">
-        <v>0.239507</v>
+        <v>0.235263</v>
       </c>
       <c r="D35" t="n">
-        <v>0.246415</v>
+        <v>0.245364</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.221442</v>
+        <v>0.235622</v>
       </c>
       <c r="C36" t="n">
-        <v>0.238906</v>
+        <v>0.234008</v>
       </c>
       <c r="D36" t="n">
-        <v>0.241326</v>
+        <v>0.245115</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.212524</v>
+        <v>0.228424</v>
       </c>
       <c r="C37" t="n">
-        <v>0.235909</v>
+        <v>0.234863</v>
       </c>
       <c r="D37" t="n">
-        <v>0.26516</v>
+        <v>0.268219</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.301292</v>
+        <v>0.310303</v>
       </c>
       <c r="C38" t="n">
-        <v>0.264197</v>
+        <v>0.257318</v>
       </c>
       <c r="D38" t="n">
-        <v>0.263854</v>
+        <v>0.265688</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.293352</v>
+        <v>0.308834</v>
       </c>
       <c r="C39" t="n">
-        <v>0.254263</v>
+        <v>0.254113</v>
       </c>
       <c r="D39" t="n">
-        <v>0.258789</v>
+        <v>0.262452</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.287155</v>
+        <v>0.303358</v>
       </c>
       <c r="C40" t="n">
-        <v>0.256228</v>
+        <v>0.254028</v>
       </c>
       <c r="D40" t="n">
-        <v>0.262325</v>
+        <v>0.262315</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.282414</v>
+        <v>0.297493</v>
       </c>
       <c r="C41" t="n">
-        <v>0.25628</v>
+        <v>0.248038</v>
       </c>
       <c r="D41" t="n">
-        <v>0.255693</v>
+        <v>0.259299</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.280605</v>
+        <v>0.293318</v>
       </c>
       <c r="C42" t="n">
-        <v>0.25226</v>
+        <v>0.249329</v>
       </c>
       <c r="D42" t="n">
-        <v>0.263038</v>
+        <v>0.260267</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.27215</v>
+        <v>0.28401</v>
       </c>
       <c r="C43" t="n">
-        <v>0.255285</v>
+        <v>0.246255</v>
       </c>
       <c r="D43" t="n">
-        <v>0.260112</v>
+        <v>0.256811</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.263502</v>
+        <v>0.283711</v>
       </c>
       <c r="C44" t="n">
-        <v>0.248813</v>
+        <v>0.243279</v>
       </c>
       <c r="D44" t="n">
-        <v>0.254857</v>
+        <v>0.25918</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.260977</v>
+        <v>0.27641</v>
       </c>
       <c r="C45" t="n">
-        <v>0.247611</v>
+        <v>0.247107</v>
       </c>
       <c r="D45" t="n">
-        <v>0.253206</v>
+        <v>0.255426</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.24929</v>
+        <v>0.268385</v>
       </c>
       <c r="C46" t="n">
-        <v>0.248416</v>
+        <v>0.242706</v>
       </c>
       <c r="D46" t="n">
-        <v>0.253691</v>
+        <v>0.25329</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.246499</v>
+        <v>0.263801</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244394</v>
+        <v>0.241288</v>
       </c>
       <c r="D47" t="n">
-        <v>0.245931</v>
+        <v>0.255027</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.242535</v>
+        <v>0.253234</v>
       </c>
       <c r="C48" t="n">
-        <v>0.245168</v>
+        <v>0.241524</v>
       </c>
       <c r="D48" t="n">
-        <v>0.247244</v>
+        <v>0.250697</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.234174</v>
+        <v>0.247635</v>
       </c>
       <c r="C49" t="n">
-        <v>0.241059</v>
+        <v>0.242962</v>
       </c>
       <c r="D49" t="n">
-        <v>0.246284</v>
+        <v>0.25099</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.226872</v>
+        <v>0.238983</v>
       </c>
       <c r="C50" t="n">
-        <v>0.240432</v>
+        <v>0.239437</v>
       </c>
       <c r="D50" t="n">
-        <v>0.252978</v>
+        <v>0.251244</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.220719</v>
+        <v>0.230478</v>
       </c>
       <c r="C51" t="n">
-        <v>0.241189</v>
+        <v>0.237508</v>
       </c>
       <c r="D51" t="n">
-        <v>0.276254</v>
+        <v>0.276213</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.208616</v>
+        <v>0.222317</v>
       </c>
       <c r="C52" t="n">
-        <v>0.240818</v>
+        <v>0.237533</v>
       </c>
       <c r="D52" t="n">
-        <v>0.270546</v>
+        <v>0.270663</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.299442</v>
+        <v>0.315292</v>
       </c>
       <c r="C53" t="n">
-        <v>0.265726</v>
+        <v>0.260392</v>
       </c>
       <c r="D53" t="n">
-        <v>0.26956</v>
+        <v>0.26847</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.290141</v>
+        <v>0.311061</v>
       </c>
       <c r="C54" t="n">
-        <v>0.261199</v>
+        <v>0.257404</v>
       </c>
       <c r="D54" t="n">
-        <v>0.264958</v>
+        <v>0.268862</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.288735</v>
+        <v>0.304052</v>
       </c>
       <c r="C55" t="n">
-        <v>0.260391</v>
+        <v>0.260077</v>
       </c>
       <c r="D55" t="n">
-        <v>0.265043</v>
+        <v>0.267689</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.286929</v>
+        <v>0.302416</v>
       </c>
       <c r="C56" t="n">
-        <v>0.262315</v>
+        <v>0.253983</v>
       </c>
       <c r="D56" t="n">
-        <v>0.260047</v>
+        <v>0.264775</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.275665</v>
+        <v>0.29889</v>
       </c>
       <c r="C57" t="n">
-        <v>0.260562</v>
+        <v>0.254867</v>
       </c>
       <c r="D57" t="n">
-        <v>0.258869</v>
+        <v>0.263456</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.273616</v>
+        <v>0.286691</v>
       </c>
       <c r="C58" t="n">
-        <v>0.260774</v>
+        <v>0.258029</v>
       </c>
       <c r="D58" t="n">
-        <v>0.260596</v>
+        <v>0.260407</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.266737</v>
+        <v>0.279451</v>
       </c>
       <c r="C59" t="n">
-        <v>0.255841</v>
+        <v>0.250226</v>
       </c>
       <c r="D59" t="n">
-        <v>0.257181</v>
+        <v>0.257025</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.262212</v>
+        <v>0.273546</v>
       </c>
       <c r="C60" t="n">
-        <v>0.252608</v>
+        <v>0.249561</v>
       </c>
       <c r="D60" t="n">
-        <v>0.253335</v>
+        <v>0.260218</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.252331</v>
+        <v>0.267927</v>
       </c>
       <c r="C61" t="n">
-        <v>0.247773</v>
+        <v>0.245122</v>
       </c>
       <c r="D61" t="n">
-        <v>0.251221</v>
+        <v>0.257099</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.246968</v>
+        <v>0.26033</v>
       </c>
       <c r="C62" t="n">
-        <v>0.250034</v>
+        <v>0.246562</v>
       </c>
       <c r="D62" t="n">
-        <v>0.252821</v>
+        <v>0.253301</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.237642</v>
+        <v>0.258772</v>
       </c>
       <c r="C63" t="n">
-        <v>0.244844</v>
+        <v>0.243878</v>
       </c>
       <c r="D63" t="n">
-        <v>0.247581</v>
+        <v>0.255379</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2315</v>
+        <v>0.24802</v>
       </c>
       <c r="C64" t="n">
-        <v>0.24267</v>
+        <v>0.243328</v>
       </c>
       <c r="D64" t="n">
-        <v>0.248205</v>
+        <v>0.250127</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.227993</v>
+        <v>0.238248</v>
       </c>
       <c r="C65" t="n">
-        <v>0.244054</v>
+        <v>0.237771</v>
       </c>
       <c r="D65" t="n">
-        <v>0.247763</v>
+        <v>0.256089</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.220111</v>
+        <v>0.229057</v>
       </c>
       <c r="C66" t="n">
-        <v>0.246366</v>
+        <v>0.239383</v>
       </c>
       <c r="D66" t="n">
-        <v>0.285575</v>
+        <v>0.277992</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.316939</v>
+        <v>0.330102</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2741</v>
+        <v>0.272987</v>
       </c>
       <c r="D67" t="n">
-        <v>0.278352</v>
+        <v>0.280806</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.304475</v>
+        <v>0.323669</v>
       </c>
       <c r="C68" t="n">
-        <v>0.281827</v>
+        <v>0.270519</v>
       </c>
       <c r="D68" t="n">
-        <v>0.279708</v>
+        <v>0.27994</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.307808</v>
+        <v>0.320889</v>
       </c>
       <c r="C69" t="n">
-        <v>0.27304</v>
+        <v>0.272079</v>
       </c>
       <c r="D69" t="n">
-        <v>0.275619</v>
+        <v>0.277498</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.290224</v>
+        <v>0.310522</v>
       </c>
       <c r="C70" t="n">
-        <v>0.27191</v>
+        <v>0.264063</v>
       </c>
       <c r="D70" t="n">
-        <v>0.275095</v>
+        <v>0.275636</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.289092</v>
+        <v>0.303568</v>
       </c>
       <c r="C71" t="n">
-        <v>0.269029</v>
+        <v>0.266502</v>
       </c>
       <c r="D71" t="n">
-        <v>0.264867</v>
+        <v>0.273795</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.281745</v>
+        <v>0.296518</v>
       </c>
       <c r="C72" t="n">
-        <v>0.270725</v>
+        <v>0.259502</v>
       </c>
       <c r="D72" t="n">
-        <v>0.266019</v>
+        <v>0.269289</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.274684</v>
+        <v>0.293777</v>
       </c>
       <c r="C73" t="n">
-        <v>0.263107</v>
+        <v>0.257681</v>
       </c>
       <c r="D73" t="n">
-        <v>0.262723</v>
+        <v>0.26904</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.267085</v>
+        <v>0.28305</v>
       </c>
       <c r="C74" t="n">
-        <v>0.258692</v>
+        <v>0.255117</v>
       </c>
       <c r="D74" t="n">
-        <v>0.264634</v>
+        <v>0.266023</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.258744</v>
+        <v>0.278189</v>
       </c>
       <c r="C75" t="n">
-        <v>0.258748</v>
+        <v>0.257887</v>
       </c>
       <c r="D75" t="n">
-        <v>0.260813</v>
+        <v>0.267446</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.258787</v>
+        <v>0.268069</v>
       </c>
       <c r="C76" t="n">
-        <v>0.258046</v>
+        <v>0.251614</v>
       </c>
       <c r="D76" t="n">
-        <v>0.26036</v>
+        <v>0.260857</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.247615</v>
+        <v>0.260032</v>
       </c>
       <c r="C77" t="n">
-        <v>0.259735</v>
+        <v>0.249754</v>
       </c>
       <c r="D77" t="n">
-        <v>0.25687</v>
+        <v>0.26106</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.243098</v>
+        <v>0.255496</v>
       </c>
       <c r="C78" t="n">
-        <v>0.253872</v>
+        <v>0.251246</v>
       </c>
       <c r="D78" t="n">
-        <v>0.255028</v>
+        <v>0.259036</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.234354</v>
+        <v>0.246468</v>
       </c>
       <c r="C79" t="n">
-        <v>0.254538</v>
+        <v>0.24936</v>
       </c>
       <c r="D79" t="n">
-        <v>0.256161</v>
+        <v>0.263312</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.224683</v>
+        <v>0.239437</v>
       </c>
       <c r="C80" t="n">
-        <v>0.251499</v>
+        <v>0.250864</v>
       </c>
       <c r="D80" t="n">
-        <v>0.283909</v>
+        <v>0.290763</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.317978</v>
+        <v>0.335108</v>
       </c>
       <c r="C81" t="n">
-        <v>0.281503</v>
+        <v>0.277992</v>
       </c>
       <c r="D81" t="n">
-        <v>0.283021</v>
+        <v>0.287757</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.312175</v>
+        <v>0.32644</v>
       </c>
       <c r="C82" t="n">
-        <v>0.283381</v>
+        <v>0.272562</v>
       </c>
       <c r="D82" t="n">
-        <v>0.278096</v>
+        <v>0.281012</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.302419</v>
+        <v>0.320012</v>
       </c>
       <c r="C83" t="n">
-        <v>0.273445</v>
+        <v>0.26853</v>
       </c>
       <c r="D83" t="n">
-        <v>0.284816</v>
+        <v>0.279794</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.302993</v>
+        <v>0.317887</v>
       </c>
       <c r="C84" t="n">
-        <v>0.267736</v>
+        <v>0.265774</v>
       </c>
       <c r="D84" t="n">
-        <v>0.271596</v>
+        <v>0.277996</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.28998</v>
+        <v>0.309217</v>
       </c>
       <c r="C85" t="n">
-        <v>0.266834</v>
+        <v>0.263454</v>
       </c>
       <c r="D85" t="n">
-        <v>0.269143</v>
+        <v>0.276901</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.281941</v>
+        <v>0.302503</v>
       </c>
       <c r="C86" t="n">
-        <v>0.269991</v>
+        <v>0.262446</v>
       </c>
       <c r="D86" t="n">
-        <v>0.268931</v>
+        <v>0.269993</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.275615</v>
+        <v>0.299469</v>
       </c>
       <c r="C87" t="n">
-        <v>0.265157</v>
+        <v>0.260883</v>
       </c>
       <c r="D87" t="n">
-        <v>0.270018</v>
+        <v>0.269146</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.274242</v>
+        <v>0.288947</v>
       </c>
       <c r="C88" t="n">
-        <v>0.264078</v>
+        <v>0.262861</v>
       </c>
       <c r="D88" t="n">
-        <v>0.266463</v>
+        <v>0.268445</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.263858</v>
+        <v>0.282107</v>
       </c>
       <c r="C89" t="n">
-        <v>0.264659</v>
+        <v>0.255889</v>
       </c>
       <c r="D89" t="n">
-        <v>0.266524</v>
+        <v>0.263897</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.263384</v>
+        <v>0.274174</v>
       </c>
       <c r="C90" t="n">
-        <v>0.263114</v>
+        <v>0.253771</v>
       </c>
       <c r="D90" t="n">
-        <v>0.26807</v>
+        <v>0.263706</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.258947</v>
+        <v>0.26477</v>
       </c>
       <c r="C91" t="n">
-        <v>0.253766</v>
+        <v>0.255745</v>
       </c>
       <c r="D91" t="n">
-        <v>0.257657</v>
+        <v>0.259113</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.244151</v>
+        <v>0.260043</v>
       </c>
       <c r="C92" t="n">
-        <v>0.256114</v>
+        <v>0.253617</v>
       </c>
       <c r="D92" t="n">
-        <v>0.260373</v>
+        <v>0.261713</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.236253</v>
+        <v>0.253102</v>
       </c>
       <c r="C93" t="n">
-        <v>0.25369</v>
+        <v>0.249293</v>
       </c>
       <c r="D93" t="n">
-        <v>0.259381</v>
+        <v>0.263094</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.230309</v>
+        <v>0.241379</v>
       </c>
       <c r="C94" t="n">
-        <v>0.253205</v>
+        <v>0.248558</v>
       </c>
       <c r="D94" t="n">
-        <v>0.285046</v>
+        <v>0.286686</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.321799</v>
+        <v>0.340025</v>
       </c>
       <c r="C95" t="n">
-        <v>0.281993</v>
+        <v>0.280916</v>
       </c>
       <c r="D95" t="n">
-        <v>0.287625</v>
+        <v>0.287451</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.315541</v>
+        <v>0.33206</v>
       </c>
       <c r="C96" t="n">
-        <v>0.281186</v>
+        <v>0.276701</v>
       </c>
       <c r="D96" t="n">
-        <v>0.277281</v>
+        <v>0.285546</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.301938</v>
+        <v>0.321745</v>
       </c>
       <c r="C97" t="n">
-        <v>0.272523</v>
+        <v>0.271925</v>
       </c>
       <c r="D97" t="n">
-        <v>0.275068</v>
+        <v>0.281478</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.297291</v>
+        <v>0.314323</v>
       </c>
       <c r="C98" t="n">
-        <v>0.276724</v>
+        <v>0.266916</v>
       </c>
       <c r="D98" t="n">
-        <v>0.275582</v>
+        <v>0.278484</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.298414</v>
+        <v>0.31465</v>
       </c>
       <c r="C99" t="n">
-        <v>0.272458</v>
+        <v>0.265544</v>
       </c>
       <c r="D99" t="n">
-        <v>0.272297</v>
+        <v>0.277253</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.285487</v>
+        <v>0.310058</v>
       </c>
       <c r="C100" t="n">
-        <v>0.268229</v>
+        <v>0.26438</v>
       </c>
       <c r="D100" t="n">
-        <v>0.267976</v>
+        <v>0.271243</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.278145</v>
+        <v>0.293573</v>
       </c>
       <c r="C101" t="n">
-        <v>0.261802</v>
+        <v>0.259015</v>
       </c>
       <c r="D101" t="n">
-        <v>0.264703</v>
+        <v>0.270511</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.270407</v>
+        <v>0.287283</v>
       </c>
       <c r="C102" t="n">
-        <v>0.263456</v>
+        <v>0.259653</v>
       </c>
       <c r="D102" t="n">
-        <v>0.264717</v>
+        <v>0.271644</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.266217</v>
+        <v>0.281763</v>
       </c>
       <c r="C103" t="n">
-        <v>0.259833</v>
+        <v>0.257402</v>
       </c>
       <c r="D103" t="n">
-        <v>0.260581</v>
+        <v>0.269898</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.256257</v>
+        <v>0.274646</v>
       </c>
       <c r="C104" t="n">
-        <v>0.261008</v>
+        <v>0.252911</v>
       </c>
       <c r="D104" t="n">
-        <v>0.259045</v>
+        <v>0.267019</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.250092</v>
+        <v>0.267078</v>
       </c>
       <c r="C105" t="n">
-        <v>0.25919</v>
+        <v>0.252479</v>
       </c>
       <c r="D105" t="n">
-        <v>0.260256</v>
+        <v>0.259486</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.24293</v>
+        <v>0.257948</v>
       </c>
       <c r="C106" t="n">
-        <v>0.255204</v>
+        <v>0.249775</v>
       </c>
       <c r="D106" t="n">
-        <v>0.264482</v>
+        <v>0.267412</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.235921</v>
+        <v>0.249714</v>
       </c>
       <c r="C107" t="n">
-        <v>0.250569</v>
+        <v>0.251953</v>
       </c>
       <c r="D107" t="n">
-        <v>0.256659</v>
+        <v>0.260693</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.227455</v>
+        <v>0.243724</v>
       </c>
       <c r="C108" t="n">
-        <v>0.248662</v>
+        <v>0.251508</v>
       </c>
       <c r="D108" t="n">
-        <v>0.284586</v>
+        <v>0.292116</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.218674</v>
+        <v>0.23124</v>
       </c>
       <c r="C109" t="n">
-        <v>0.24852</v>
+        <v>0.244728</v>
       </c>
       <c r="D109" t="n">
-        <v>0.285535</v>
+        <v>0.286314</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.317814</v>
+        <v>0.339315</v>
       </c>
       <c r="C110" t="n">
-        <v>0.278445</v>
+        <v>0.271458</v>
       </c>
       <c r="D110" t="n">
-        <v>0.277511</v>
+        <v>0.283023</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.30468</v>
+        <v>0.326421</v>
       </c>
       <c r="C111" t="n">
-        <v>0.273847</v>
+        <v>0.271327</v>
       </c>
       <c r="D111" t="n">
-        <v>0.280091</v>
+        <v>0.279842</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.300419</v>
+        <v>0.323348</v>
       </c>
       <c r="C112" t="n">
-        <v>0.280797</v>
+        <v>0.27272</v>
       </c>
       <c r="D112" t="n">
-        <v>0.275562</v>
+        <v>0.285266</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.300871</v>
+        <v>0.318653</v>
       </c>
       <c r="C113" t="n">
-        <v>0.270379</v>
+        <v>0.267253</v>
       </c>
       <c r="D113" t="n">
-        <v>0.282</v>
+        <v>0.278053</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.284843</v>
+        <v>0.304528</v>
       </c>
       <c r="C114" t="n">
-        <v>0.272864</v>
+        <v>0.268181</v>
       </c>
       <c r="D114" t="n">
-        <v>0.269401</v>
+        <v>0.272114</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.284355</v>
+        <v>0.299409</v>
       </c>
       <c r="C115" t="n">
-        <v>0.270416</v>
+        <v>0.263531</v>
       </c>
       <c r="D115" t="n">
-        <v>0.269274</v>
+        <v>0.274153</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.273652</v>
+        <v>0.295402</v>
       </c>
       <c r="C116" t="n">
-        <v>0.271025</v>
+        <v>0.259669</v>
       </c>
       <c r="D116" t="n">
-        <v>0.265839</v>
+        <v>0.27186</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.270659</v>
+        <v>0.286178</v>
       </c>
       <c r="C117" t="n">
-        <v>0.262798</v>
+        <v>0.255071</v>
       </c>
       <c r="D117" t="n">
-        <v>0.26453</v>
+        <v>0.266953</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.258372</v>
+        <v>0.272788</v>
       </c>
       <c r="C118" t="n">
-        <v>0.255951</v>
+        <v>0.256286</v>
       </c>
       <c r="D118" t="n">
-        <v>0.258755</v>
+        <v>0.262832</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.253755</v>
+        <v>0.267818</v>
       </c>
       <c r="C119" t="n">
-        <v>0.260986</v>
+        <v>0.251599</v>
       </c>
       <c r="D119" t="n">
-        <v>0.258551</v>
+        <v>0.262366</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.245263</v>
+        <v>0.258287</v>
       </c>
       <c r="C120" t="n">
-        <v>0.259913</v>
+        <v>0.251018</v>
       </c>
       <c r="D120" t="n">
-        <v>0.256886</v>
+        <v>0.264362</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.240048</v>
+        <v>0.251761</v>
       </c>
       <c r="C121" t="n">
-        <v>0.254489</v>
+        <v>0.246164</v>
       </c>
       <c r="D121" t="n">
-        <v>0.255461</v>
+        <v>0.257995</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.229246</v>
+        <v>0.245612</v>
       </c>
       <c r="C122" t="n">
-        <v>0.247918</v>
+        <v>0.247878</v>
       </c>
       <c r="D122" t="n">
-        <v>0.252483</v>
+        <v>0.260594</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.225071</v>
+        <v>0.232501</v>
       </c>
       <c r="C123" t="n">
-        <v>0.252867</v>
+        <v>0.244472</v>
       </c>
       <c r="D123" t="n">
-        <v>0.28665</v>
+        <v>0.286354</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.319259</v>
+        <v>0.340362</v>
       </c>
       <c r="C124" t="n">
-        <v>0.279809</v>
+        <v>0.278171</v>
       </c>
       <c r="D124" t="n">
-        <v>0.277188</v>
+        <v>0.282943</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.303962</v>
+        <v>0.34009</v>
       </c>
       <c r="C125" t="n">
-        <v>0.272702</v>
+        <v>0.271381</v>
       </c>
       <c r="D125" t="n">
-        <v>0.2781</v>
+        <v>0.284591</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.301669</v>
+        <v>0.320058</v>
       </c>
       <c r="C126" t="n">
-        <v>0.271212</v>
+        <v>0.269585</v>
       </c>
       <c r="D126" t="n">
-        <v>0.272463</v>
+        <v>0.277879</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.294983</v>
+        <v>0.30872</v>
       </c>
       <c r="C127" t="n">
-        <v>0.267549</v>
+        <v>0.265851</v>
       </c>
       <c r="D127" t="n">
-        <v>0.269155</v>
+        <v>0.28212</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.288296</v>
+        <v>0.311296</v>
       </c>
       <c r="C128" t="n">
-        <v>0.266609</v>
+        <v>0.265439</v>
       </c>
       <c r="D128" t="n">
-        <v>0.275776</v>
+        <v>0.281726</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.28147</v>
+        <v>0.299352</v>
       </c>
       <c r="C129" t="n">
-        <v>0.270816</v>
+        <v>0.263086</v>
       </c>
       <c r="D129" t="n">
-        <v>0.271828</v>
+        <v>0.271303</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.27597</v>
+        <v>0.291732</v>
       </c>
       <c r="C130" t="n">
-        <v>0.26293</v>
+        <v>0.268081</v>
       </c>
       <c r="D130" t="n">
-        <v>0.264836</v>
+        <v>0.267681</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.267331</v>
+        <v>0.291841</v>
       </c>
       <c r="C131" t="n">
-        <v>0.259517</v>
+        <v>0.259752</v>
       </c>
       <c r="D131" t="n">
-        <v>0.261707</v>
+        <v>0.269515</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.268222</v>
+        <v>0.28052</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2559</v>
+        <v>0.260986</v>
       </c>
       <c r="D132" t="n">
-        <v>0.26171</v>
+        <v>0.263353</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.256781</v>
+        <v>0.266943</v>
       </c>
       <c r="C133" t="n">
-        <v>0.258061</v>
+        <v>0.253953</v>
       </c>
       <c r="D133" t="n">
-        <v>0.26415</v>
+        <v>0.268093</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.247034</v>
+        <v>0.259468</v>
       </c>
       <c r="C134" t="n">
-        <v>0.263174</v>
+        <v>0.248475</v>
       </c>
       <c r="D134" t="n">
-        <v>0.259613</v>
+        <v>0.26171</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.239969</v>
+        <v>0.254853</v>
       </c>
       <c r="C135" t="n">
-        <v>0.256504</v>
+        <v>0.248187</v>
       </c>
       <c r="D135" t="n">
-        <v>0.255534</v>
+        <v>0.265491</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.234534</v>
+        <v>0.252486</v>
       </c>
       <c r="C136" t="n">
-        <v>0.252769</v>
+        <v>0.248955</v>
       </c>
       <c r="D136" t="n">
-        <v>0.25452</v>
+        <v>0.263103</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.221359</v>
+        <v>0.234332</v>
       </c>
       <c r="C137" t="n">
-        <v>0.250298</v>
+        <v>0.246896</v>
       </c>
       <c r="D137" t="n">
-        <v>0.281733</v>
+        <v>0.29375</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.321669</v>
+        <v>0.331072</v>
       </c>
       <c r="C138" t="n">
-        <v>0.284106</v>
+        <v>0.27703</v>
       </c>
       <c r="D138" t="n">
-        <v>0.292527</v>
+        <v>0.284319</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.318697</v>
+        <v>0.331253</v>
       </c>
       <c r="C139" t="n">
-        <v>0.280398</v>
+        <v>0.274921</v>
       </c>
       <c r="D139" t="n">
-        <v>0.274335</v>
+        <v>0.284821</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.301336</v>
+        <v>0.323076</v>
       </c>
       <c r="C140" t="n">
-        <v>0.279752</v>
+        <v>0.267968</v>
       </c>
       <c r="D140" t="n">
-        <v>0.27436</v>
+        <v>0.27842</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.294407</v>
+        <v>0.314089</v>
       </c>
       <c r="C141" t="n">
-        <v>0.268197</v>
+        <v>0.269065</v>
       </c>
       <c r="D141" t="n">
-        <v>0.274558</v>
+        <v>0.274632</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.289531</v>
+        <v>0.306528</v>
       </c>
       <c r="C142" t="n">
-        <v>0.269098</v>
+        <v>0.266002</v>
       </c>
       <c r="D142" t="n">
-        <v>0.27304</v>
+        <v>0.278337</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.283034</v>
+        <v>0.296053</v>
       </c>
       <c r="C143" t="n">
-        <v>0.267707</v>
+        <v>0.265313</v>
       </c>
       <c r="D143" t="n">
-        <v>0.270064</v>
+        <v>0.274402</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.278676</v>
+        <v>0.283131</v>
       </c>
       <c r="C2" t="n">
-        <v>0.239704</v>
+        <v>0.24144</v>
       </c>
       <c r="D2" t="n">
-        <v>0.246202</v>
+        <v>0.248796</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.267321</v>
+        <v>0.27039</v>
       </c>
       <c r="C3" t="n">
-        <v>0.234797</v>
+        <v>0.237309</v>
       </c>
       <c r="D3" t="n">
-        <v>0.248119</v>
+        <v>0.247728</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.259768</v>
+        <v>0.267147</v>
       </c>
       <c r="C4" t="n">
-        <v>0.233096</v>
+        <v>0.24328</v>
       </c>
       <c r="D4" t="n">
-        <v>0.243059</v>
+        <v>0.247556</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.252146</v>
+        <v>0.255665</v>
       </c>
       <c r="C5" t="n">
-        <v>0.229808</v>
+        <v>0.236549</v>
       </c>
       <c r="D5" t="n">
-        <v>0.24581</v>
+        <v>0.246203</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.244072</v>
+        <v>0.250211</v>
       </c>
       <c r="C6" t="n">
-        <v>0.230958</v>
+        <v>0.233191</v>
       </c>
       <c r="D6" t="n">
-        <v>0.244513</v>
+        <v>0.245701</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.239294</v>
+        <v>0.240287</v>
       </c>
       <c r="C7" t="n">
-        <v>0.234335</v>
+        <v>0.236355</v>
       </c>
       <c r="D7" t="n">
-        <v>0.242428</v>
+        <v>0.243987</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.228834</v>
+        <v>0.22838</v>
       </c>
       <c r="C8" t="n">
-        <v>0.230218</v>
+        <v>0.230313</v>
       </c>
       <c r="D8" t="n">
-        <v>0.243931</v>
+        <v>0.241107</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.220792</v>
+        <v>0.217742</v>
       </c>
       <c r="C9" t="n">
-        <v>0.230881</v>
+        <v>0.230299</v>
       </c>
       <c r="D9" t="n">
-        <v>0.258554</v>
+        <v>0.258761</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.312493</v>
+        <v>0.31332</v>
       </c>
       <c r="C10" t="n">
-        <v>0.244144</v>
+        <v>0.247794</v>
       </c>
       <c r="D10" t="n">
-        <v>0.248596</v>
+        <v>0.248518</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.305023</v>
+        <v>0.305613</v>
       </c>
       <c r="C11" t="n">
-        <v>0.244308</v>
+        <v>0.246737</v>
       </c>
       <c r="D11" t="n">
-        <v>0.249151</v>
+        <v>0.24852</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.300238</v>
+        <v>0.297623</v>
       </c>
       <c r="C12" t="n">
-        <v>0.243005</v>
+        <v>0.24384</v>
       </c>
       <c r="D12" t="n">
-        <v>0.245966</v>
+        <v>0.250438</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.289956</v>
+        <v>0.291936</v>
       </c>
       <c r="C13" t="n">
-        <v>0.242641</v>
+        <v>0.241546</v>
       </c>
       <c r="D13" t="n">
-        <v>0.248159</v>
+        <v>0.24879</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.28445</v>
+        <v>0.28656</v>
       </c>
       <c r="C14" t="n">
-        <v>0.240766</v>
+        <v>0.244756</v>
       </c>
       <c r="D14" t="n">
-        <v>0.247104</v>
+        <v>0.250774</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.280634</v>
+        <v>0.285229</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238702</v>
+        <v>0.240939</v>
       </c>
       <c r="D15" t="n">
-        <v>0.245369</v>
+        <v>0.248094</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.269966</v>
+        <v>0.276391</v>
       </c>
       <c r="C16" t="n">
-        <v>0.234732</v>
+        <v>0.239973</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2497</v>
+        <v>0.248005</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.267586</v>
+        <v>0.270215</v>
       </c>
       <c r="C17" t="n">
-        <v>0.238556</v>
+        <v>0.238867</v>
       </c>
       <c r="D17" t="n">
-        <v>0.249061</v>
+        <v>0.249189</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.260325</v>
+        <v>0.261081</v>
       </c>
       <c r="C18" t="n">
-        <v>0.233801</v>
+        <v>0.23581</v>
       </c>
       <c r="D18" t="n">
-        <v>0.245974</v>
+        <v>0.249384</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.252205</v>
+        <v>0.252187</v>
       </c>
       <c r="C19" t="n">
-        <v>0.233034</v>
+        <v>0.235639</v>
       </c>
       <c r="D19" t="n">
-        <v>0.243826</v>
+        <v>0.24902</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.247039</v>
+        <v>0.248267</v>
       </c>
       <c r="C20" t="n">
-        <v>0.234543</v>
+        <v>0.235974</v>
       </c>
       <c r="D20" t="n">
-        <v>0.247553</v>
+        <v>0.245761</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.238796</v>
+        <v>0.239767</v>
       </c>
       <c r="C21" t="n">
-        <v>0.234815</v>
+        <v>0.232981</v>
       </c>
       <c r="D21" t="n">
-        <v>0.240548</v>
+        <v>0.242854</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.232105</v>
+        <v>0.229832</v>
       </c>
       <c r="C22" t="n">
-        <v>0.234392</v>
+        <v>0.231656</v>
       </c>
       <c r="D22" t="n">
-        <v>0.243258</v>
+        <v>0.253678</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.222863</v>
+        <v>0.223974</v>
       </c>
       <c r="C23" t="n">
-        <v>0.234678</v>
+        <v>0.232741</v>
       </c>
       <c r="D23" t="n">
-        <v>0.264721</v>
+        <v>0.260215</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.310601</v>
+        <v>0.310599</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254177</v>
+        <v>0.256882</v>
       </c>
       <c r="D24" t="n">
-        <v>0.261181</v>
+        <v>0.259296</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.305701</v>
+        <v>0.304445</v>
       </c>
       <c r="C25" t="n">
-        <v>0.250736</v>
+        <v>0.252817</v>
       </c>
       <c r="D25" t="n">
-        <v>0.259481</v>
+        <v>0.258112</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.298451</v>
+        <v>0.300494</v>
       </c>
       <c r="C26" t="n">
-        <v>0.24591</v>
+        <v>0.249025</v>
       </c>
       <c r="D26" t="n">
-        <v>0.255639</v>
+        <v>0.255651</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.292572</v>
+        <v>0.294033</v>
       </c>
       <c r="C27" t="n">
-        <v>0.246021</v>
+        <v>0.246922</v>
       </c>
       <c r="D27" t="n">
-        <v>0.258837</v>
+        <v>0.257202</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.286256</v>
+        <v>0.286792</v>
       </c>
       <c r="C28" t="n">
-        <v>0.24619</v>
+        <v>0.244888</v>
       </c>
       <c r="D28" t="n">
-        <v>0.255942</v>
+        <v>0.255377</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.285279</v>
+        <v>0.279917</v>
       </c>
       <c r="C29" t="n">
-        <v>0.243819</v>
+        <v>0.243278</v>
       </c>
       <c r="D29" t="n">
-        <v>0.255508</v>
+        <v>0.255698</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.277315</v>
+        <v>0.275717</v>
       </c>
       <c r="C30" t="n">
-        <v>0.24223</v>
+        <v>0.24295</v>
       </c>
       <c r="D30" t="n">
-        <v>0.252604</v>
+        <v>0.24762</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.268797</v>
+        <v>0.26969</v>
       </c>
       <c r="C31" t="n">
-        <v>0.240289</v>
+        <v>0.241911</v>
       </c>
       <c r="D31" t="n">
-        <v>0.248673</v>
+        <v>0.24884</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.266857</v>
+        <v>0.266499</v>
       </c>
       <c r="C32" t="n">
-        <v>0.23709</v>
+        <v>0.236766</v>
       </c>
       <c r="D32" t="n">
-        <v>0.249084</v>
+        <v>0.247737</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.261132</v>
+        <v>0.255209</v>
       </c>
       <c r="C33" t="n">
-        <v>0.236174</v>
+        <v>0.241512</v>
       </c>
       <c r="D33" t="n">
-        <v>0.253207</v>
+        <v>0.249255</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.251185</v>
+        <v>0.252967</v>
       </c>
       <c r="C34" t="n">
-        <v>0.236159</v>
+        <v>0.237652</v>
       </c>
       <c r="D34" t="n">
-        <v>0.247465</v>
+        <v>0.244733</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.243131</v>
+        <v>0.242912</v>
       </c>
       <c r="C35" t="n">
-        <v>0.235263</v>
+        <v>0.233126</v>
       </c>
       <c r="D35" t="n">
-        <v>0.245364</v>
+        <v>0.244591</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.235622</v>
+        <v>0.23352</v>
       </c>
       <c r="C36" t="n">
-        <v>0.234008</v>
+        <v>0.234468</v>
       </c>
       <c r="D36" t="n">
-        <v>0.245115</v>
+        <v>0.245202</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.228424</v>
+        <v>0.227926</v>
       </c>
       <c r="C37" t="n">
-        <v>0.234863</v>
+        <v>0.23408</v>
       </c>
       <c r="D37" t="n">
-        <v>0.268219</v>
+        <v>0.269635</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.310303</v>
+        <v>0.312471</v>
       </c>
       <c r="C38" t="n">
-        <v>0.257318</v>
+        <v>0.2596</v>
       </c>
       <c r="D38" t="n">
-        <v>0.265688</v>
+        <v>0.267982</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.308834</v>
+        <v>0.307298</v>
       </c>
       <c r="C39" t="n">
-        <v>0.254113</v>
+        <v>0.257905</v>
       </c>
       <c r="D39" t="n">
-        <v>0.262452</v>
+        <v>0.263926</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.303358</v>
+        <v>0.300235</v>
       </c>
       <c r="C40" t="n">
-        <v>0.254028</v>
+        <v>0.25253</v>
       </c>
       <c r="D40" t="n">
-        <v>0.262315</v>
+        <v>0.262553</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.297493</v>
+        <v>0.300601</v>
       </c>
       <c r="C41" t="n">
-        <v>0.248038</v>
+        <v>0.252233</v>
       </c>
       <c r="D41" t="n">
-        <v>0.259299</v>
+        <v>0.263407</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.293318</v>
+        <v>0.292829</v>
       </c>
       <c r="C42" t="n">
-        <v>0.249329</v>
+        <v>0.248376</v>
       </c>
       <c r="D42" t="n">
-        <v>0.260267</v>
+        <v>0.262194</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.28401</v>
+        <v>0.285708</v>
       </c>
       <c r="C43" t="n">
-        <v>0.246255</v>
+        <v>0.250343</v>
       </c>
       <c r="D43" t="n">
-        <v>0.256811</v>
+        <v>0.261401</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.283711</v>
+        <v>0.282288</v>
       </c>
       <c r="C44" t="n">
-        <v>0.243279</v>
+        <v>0.246784</v>
       </c>
       <c r="D44" t="n">
-        <v>0.25918</v>
+        <v>0.26114</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.27641</v>
+        <v>0.278054</v>
       </c>
       <c r="C45" t="n">
-        <v>0.247107</v>
+        <v>0.244463</v>
       </c>
       <c r="D45" t="n">
-        <v>0.255426</v>
+        <v>0.255503</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.268385</v>
+        <v>0.267227</v>
       </c>
       <c r="C46" t="n">
-        <v>0.242706</v>
+        <v>0.243967</v>
       </c>
       <c r="D46" t="n">
-        <v>0.25329</v>
+        <v>0.253529</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.263801</v>
+        <v>0.260464</v>
       </c>
       <c r="C47" t="n">
-        <v>0.241288</v>
+        <v>0.243577</v>
       </c>
       <c r="D47" t="n">
-        <v>0.255027</v>
+        <v>0.251846</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.253234</v>
+        <v>0.253859</v>
       </c>
       <c r="C48" t="n">
-        <v>0.241524</v>
+        <v>0.240042</v>
       </c>
       <c r="D48" t="n">
-        <v>0.250697</v>
+        <v>0.252302</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.247635</v>
+        <v>0.245594</v>
       </c>
       <c r="C49" t="n">
-        <v>0.242962</v>
+        <v>0.24087</v>
       </c>
       <c r="D49" t="n">
-        <v>0.25099</v>
+        <v>0.251668</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.238983</v>
+        <v>0.239134</v>
       </c>
       <c r="C50" t="n">
-        <v>0.239437</v>
+        <v>0.236516</v>
       </c>
       <c r="D50" t="n">
-        <v>0.251244</v>
+        <v>0.249785</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.230478</v>
+        <v>0.230787</v>
       </c>
       <c r="C51" t="n">
-        <v>0.237508</v>
+        <v>0.240103</v>
       </c>
       <c r="D51" t="n">
-        <v>0.276213</v>
+        <v>0.273331</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.222317</v>
+        <v>0.222443</v>
       </c>
       <c r="C52" t="n">
-        <v>0.237533</v>
+        <v>0.239248</v>
       </c>
       <c r="D52" t="n">
-        <v>0.270663</v>
+        <v>0.271683</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.315292</v>
+        <v>0.31755</v>
       </c>
       <c r="C53" t="n">
-        <v>0.260392</v>
+        <v>0.267567</v>
       </c>
       <c r="D53" t="n">
-        <v>0.26847</v>
+        <v>0.271688</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.311061</v>
+        <v>0.308947</v>
       </c>
       <c r="C54" t="n">
-        <v>0.257404</v>
+        <v>0.259593</v>
       </c>
       <c r="D54" t="n">
-        <v>0.268862</v>
+        <v>0.264688</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.304052</v>
+        <v>0.306645</v>
       </c>
       <c r="C55" t="n">
-        <v>0.260077</v>
+        <v>0.260085</v>
       </c>
       <c r="D55" t="n">
-        <v>0.267689</v>
+        <v>0.266652</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.302416</v>
+        <v>0.300327</v>
       </c>
       <c r="C56" t="n">
-        <v>0.253983</v>
+        <v>0.257121</v>
       </c>
       <c r="D56" t="n">
-        <v>0.264775</v>
+        <v>0.267129</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.29889</v>
+        <v>0.292834</v>
       </c>
       <c r="C57" t="n">
-        <v>0.254867</v>
+        <v>0.254859</v>
       </c>
       <c r="D57" t="n">
-        <v>0.263456</v>
+        <v>0.263329</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.286691</v>
+        <v>0.283125</v>
       </c>
       <c r="C58" t="n">
-        <v>0.258029</v>
+        <v>0.251598</v>
       </c>
       <c r="D58" t="n">
-        <v>0.260407</v>
+        <v>0.264141</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.279451</v>
+        <v>0.28338</v>
       </c>
       <c r="C59" t="n">
-        <v>0.250226</v>
+        <v>0.252876</v>
       </c>
       <c r="D59" t="n">
-        <v>0.257025</v>
+        <v>0.261786</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.273546</v>
+        <v>0.278236</v>
       </c>
       <c r="C60" t="n">
-        <v>0.249561</v>
+        <v>0.246323</v>
       </c>
       <c r="D60" t="n">
-        <v>0.260218</v>
+        <v>0.260797</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.267927</v>
+        <v>0.269255</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245122</v>
+        <v>0.245358</v>
       </c>
       <c r="D61" t="n">
-        <v>0.257099</v>
+        <v>0.259741</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.26033</v>
+        <v>0.263517</v>
       </c>
       <c r="C62" t="n">
-        <v>0.246562</v>
+        <v>0.247512</v>
       </c>
       <c r="D62" t="n">
-        <v>0.253301</v>
+        <v>0.25371</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.258772</v>
+        <v>0.25616</v>
       </c>
       <c r="C63" t="n">
-        <v>0.243878</v>
+        <v>0.242751</v>
       </c>
       <c r="D63" t="n">
-        <v>0.255379</v>
+        <v>0.256029</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.24802</v>
+        <v>0.247053</v>
       </c>
       <c r="C64" t="n">
-        <v>0.243328</v>
+        <v>0.242992</v>
       </c>
       <c r="D64" t="n">
-        <v>0.250127</v>
+        <v>0.251282</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.238248</v>
+        <v>0.237083</v>
       </c>
       <c r="C65" t="n">
-        <v>0.237771</v>
+        <v>0.24159</v>
       </c>
       <c r="D65" t="n">
-        <v>0.256089</v>
+        <v>0.250765</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.229057</v>
+        <v>0.22757</v>
       </c>
       <c r="C66" t="n">
-        <v>0.239383</v>
+        <v>0.24074</v>
       </c>
       <c r="D66" t="n">
-        <v>0.277992</v>
+        <v>0.278707</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.330102</v>
+        <v>0.325789</v>
       </c>
       <c r="C67" t="n">
-        <v>0.272987</v>
+        <v>0.268475</v>
       </c>
       <c r="D67" t="n">
-        <v>0.280806</v>
+        <v>0.278191</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.323669</v>
+        <v>0.32378</v>
       </c>
       <c r="C68" t="n">
-        <v>0.270519</v>
+        <v>0.268562</v>
       </c>
       <c r="D68" t="n">
-        <v>0.27994</v>
+        <v>0.274254</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.320889</v>
+        <v>0.315653</v>
       </c>
       <c r="C69" t="n">
-        <v>0.272079</v>
+        <v>0.26874</v>
       </c>
       <c r="D69" t="n">
-        <v>0.277498</v>
+        <v>0.27517</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.310522</v>
+        <v>0.308715</v>
       </c>
       <c r="C70" t="n">
-        <v>0.264063</v>
+        <v>0.263376</v>
       </c>
       <c r="D70" t="n">
-        <v>0.275636</v>
+        <v>0.269338</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.303568</v>
+        <v>0.304919</v>
       </c>
       <c r="C71" t="n">
-        <v>0.266502</v>
+        <v>0.258525</v>
       </c>
       <c r="D71" t="n">
-        <v>0.273795</v>
+        <v>0.267968</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.296518</v>
+        <v>0.296657</v>
       </c>
       <c r="C72" t="n">
-        <v>0.259502</v>
+        <v>0.256862</v>
       </c>
       <c r="D72" t="n">
-        <v>0.269289</v>
+        <v>0.268383</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.293777</v>
+        <v>0.292619</v>
       </c>
       <c r="C73" t="n">
-        <v>0.257681</v>
+        <v>0.258409</v>
       </c>
       <c r="D73" t="n">
-        <v>0.26904</v>
+        <v>0.26568</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.28305</v>
+        <v>0.280499</v>
       </c>
       <c r="C74" t="n">
-        <v>0.255117</v>
+        <v>0.252579</v>
       </c>
       <c r="D74" t="n">
-        <v>0.266023</v>
+        <v>0.261862</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.278189</v>
+        <v>0.277023</v>
       </c>
       <c r="C75" t="n">
-        <v>0.257887</v>
+        <v>0.257143</v>
       </c>
       <c r="D75" t="n">
-        <v>0.267446</v>
+        <v>0.262241</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.268069</v>
+        <v>0.265299</v>
       </c>
       <c r="C76" t="n">
-        <v>0.251614</v>
+        <v>0.253807</v>
       </c>
       <c r="D76" t="n">
-        <v>0.260857</v>
+        <v>0.259874</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.260032</v>
+        <v>0.260837</v>
       </c>
       <c r="C77" t="n">
-        <v>0.249754</v>
+        <v>0.248682</v>
       </c>
       <c r="D77" t="n">
-        <v>0.26106</v>
+        <v>0.260648</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.255496</v>
+        <v>0.251558</v>
       </c>
       <c r="C78" t="n">
-        <v>0.251246</v>
+        <v>0.24814</v>
       </c>
       <c r="D78" t="n">
-        <v>0.259036</v>
+        <v>0.256989</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.246468</v>
+        <v>0.248397</v>
       </c>
       <c r="C79" t="n">
-        <v>0.24936</v>
+        <v>0.243008</v>
       </c>
       <c r="D79" t="n">
-        <v>0.263312</v>
+        <v>0.258729</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.239437</v>
+        <v>0.234074</v>
       </c>
       <c r="C80" t="n">
-        <v>0.250864</v>
+        <v>0.246592</v>
       </c>
       <c r="D80" t="n">
-        <v>0.290763</v>
+        <v>0.284208</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.335108</v>
+        <v>0.331313</v>
       </c>
       <c r="C81" t="n">
-        <v>0.277992</v>
+        <v>0.276005</v>
       </c>
       <c r="D81" t="n">
-        <v>0.287757</v>
+        <v>0.27964</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.32644</v>
+        <v>0.328262</v>
       </c>
       <c r="C82" t="n">
-        <v>0.272562</v>
+        <v>0.273826</v>
       </c>
       <c r="D82" t="n">
-        <v>0.281012</v>
+        <v>0.280376</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.320012</v>
+        <v>0.322513</v>
       </c>
       <c r="C83" t="n">
-        <v>0.26853</v>
+        <v>0.269233</v>
       </c>
       <c r="D83" t="n">
-        <v>0.279794</v>
+        <v>0.277091</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.317887</v>
+        <v>0.316466</v>
       </c>
       <c r="C84" t="n">
-        <v>0.265774</v>
+        <v>0.267943</v>
       </c>
       <c r="D84" t="n">
-        <v>0.277996</v>
+        <v>0.275429</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.309217</v>
+        <v>0.309426</v>
       </c>
       <c r="C85" t="n">
-        <v>0.263454</v>
+        <v>0.263044</v>
       </c>
       <c r="D85" t="n">
-        <v>0.276901</v>
+        <v>0.270595</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.302503</v>
+        <v>0.300851</v>
       </c>
       <c r="C86" t="n">
-        <v>0.262446</v>
+        <v>0.265013</v>
       </c>
       <c r="D86" t="n">
-        <v>0.269993</v>
+        <v>0.272023</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.299469</v>
+        <v>0.297931</v>
       </c>
       <c r="C87" t="n">
-        <v>0.260883</v>
+        <v>0.260576</v>
       </c>
       <c r="D87" t="n">
-        <v>0.269146</v>
+        <v>0.268136</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.288947</v>
+        <v>0.288017</v>
       </c>
       <c r="C88" t="n">
-        <v>0.262861</v>
+        <v>0.259919</v>
       </c>
       <c r="D88" t="n">
-        <v>0.268445</v>
+        <v>0.270224</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.282107</v>
+        <v>0.283787</v>
       </c>
       <c r="C89" t="n">
-        <v>0.255889</v>
+        <v>0.260247</v>
       </c>
       <c r="D89" t="n">
-        <v>0.263897</v>
+        <v>0.268063</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.274174</v>
+        <v>0.275192</v>
       </c>
       <c r="C90" t="n">
-        <v>0.253771</v>
+        <v>0.254423</v>
       </c>
       <c r="D90" t="n">
-        <v>0.263706</v>
+        <v>0.262988</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.26477</v>
+        <v>0.262641</v>
       </c>
       <c r="C91" t="n">
-        <v>0.255745</v>
+        <v>0.253132</v>
       </c>
       <c r="D91" t="n">
-        <v>0.259113</v>
+        <v>0.261924</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.260043</v>
+        <v>0.258282</v>
       </c>
       <c r="C92" t="n">
-        <v>0.253617</v>
+        <v>0.253942</v>
       </c>
       <c r="D92" t="n">
-        <v>0.261713</v>
+        <v>0.263756</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.253102</v>
+        <v>0.24737</v>
       </c>
       <c r="C93" t="n">
-        <v>0.249293</v>
+        <v>0.251106</v>
       </c>
       <c r="D93" t="n">
-        <v>0.263094</v>
+        <v>0.260225</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.241379</v>
+        <v>0.240975</v>
       </c>
       <c r="C94" t="n">
-        <v>0.248558</v>
+        <v>0.247538</v>
       </c>
       <c r="D94" t="n">
-        <v>0.286686</v>
+        <v>0.291455</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.340025</v>
+        <v>0.338424</v>
       </c>
       <c r="C95" t="n">
-        <v>0.280916</v>
+        <v>0.276977</v>
       </c>
       <c r="D95" t="n">
-        <v>0.287451</v>
+        <v>0.282508</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.33206</v>
+        <v>0.32753</v>
       </c>
       <c r="C96" t="n">
-        <v>0.276701</v>
+        <v>0.275171</v>
       </c>
       <c r="D96" t="n">
-        <v>0.285546</v>
+        <v>0.282516</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.321745</v>
+        <v>0.324621</v>
       </c>
       <c r="C97" t="n">
-        <v>0.271925</v>
+        <v>0.271839</v>
       </c>
       <c r="D97" t="n">
-        <v>0.281478</v>
+        <v>0.280023</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.314323</v>
+        <v>0.322888</v>
       </c>
       <c r="C98" t="n">
-        <v>0.266916</v>
+        <v>0.269577</v>
       </c>
       <c r="D98" t="n">
-        <v>0.278484</v>
+        <v>0.274848</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.31465</v>
+        <v>0.311879</v>
       </c>
       <c r="C99" t="n">
-        <v>0.265544</v>
+        <v>0.269335</v>
       </c>
       <c r="D99" t="n">
-        <v>0.277253</v>
+        <v>0.274205</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.310058</v>
+        <v>0.308007</v>
       </c>
       <c r="C100" t="n">
-        <v>0.26438</v>
+        <v>0.264406</v>
       </c>
       <c r="D100" t="n">
-        <v>0.271243</v>
+        <v>0.270332</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.293573</v>
+        <v>0.294337</v>
       </c>
       <c r="C101" t="n">
-        <v>0.259015</v>
+        <v>0.262783</v>
       </c>
       <c r="D101" t="n">
-        <v>0.270511</v>
+        <v>0.272645</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.287283</v>
+        <v>0.292169</v>
       </c>
       <c r="C102" t="n">
-        <v>0.259653</v>
+        <v>0.265978</v>
       </c>
       <c r="D102" t="n">
-        <v>0.271644</v>
+        <v>0.26738</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.281763</v>
+        <v>0.288057</v>
       </c>
       <c r="C103" t="n">
-        <v>0.257402</v>
+        <v>0.256163</v>
       </c>
       <c r="D103" t="n">
-        <v>0.269898</v>
+        <v>0.267683</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.274646</v>
+        <v>0.277746</v>
       </c>
       <c r="C104" t="n">
-        <v>0.252911</v>
+        <v>0.260182</v>
       </c>
       <c r="D104" t="n">
-        <v>0.267019</v>
+        <v>0.267524</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.267078</v>
+        <v>0.269113</v>
       </c>
       <c r="C105" t="n">
-        <v>0.252479</v>
+        <v>0.253105</v>
       </c>
       <c r="D105" t="n">
-        <v>0.259486</v>
+        <v>0.263039</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.257948</v>
+        <v>0.261891</v>
       </c>
       <c r="C106" t="n">
-        <v>0.249775</v>
+        <v>0.254478</v>
       </c>
       <c r="D106" t="n">
-        <v>0.267412</v>
+        <v>0.26385</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.249714</v>
+        <v>0.248787</v>
       </c>
       <c r="C107" t="n">
-        <v>0.251953</v>
+        <v>0.250039</v>
       </c>
       <c r="D107" t="n">
-        <v>0.260693</v>
+        <v>0.2587</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.243724</v>
+        <v>0.240666</v>
       </c>
       <c r="C108" t="n">
-        <v>0.251508</v>
+        <v>0.245245</v>
       </c>
       <c r="D108" t="n">
-        <v>0.292116</v>
+        <v>0.287342</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.23124</v>
+        <v>0.235931</v>
       </c>
       <c r="C109" t="n">
-        <v>0.244728</v>
+        <v>0.246021</v>
       </c>
       <c r="D109" t="n">
-        <v>0.286314</v>
+        <v>0.285441</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.339315</v>
+        <v>0.333468</v>
       </c>
       <c r="C110" t="n">
-        <v>0.271458</v>
+        <v>0.273982</v>
       </c>
       <c r="D110" t="n">
-        <v>0.283023</v>
+        <v>0.282757</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.326421</v>
+        <v>0.32081</v>
       </c>
       <c r="C111" t="n">
-        <v>0.271327</v>
+        <v>0.274401</v>
       </c>
       <c r="D111" t="n">
-        <v>0.279842</v>
+        <v>0.282832</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.323348</v>
+        <v>0.321539</v>
       </c>
       <c r="C112" t="n">
-        <v>0.27272</v>
+        <v>0.268826</v>
       </c>
       <c r="D112" t="n">
-        <v>0.285266</v>
+        <v>0.274584</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.318653</v>
+        <v>0.304649</v>
       </c>
       <c r="C113" t="n">
-        <v>0.267253</v>
+        <v>0.261221</v>
       </c>
       <c r="D113" t="n">
-        <v>0.278053</v>
+        <v>0.271042</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.304528</v>
+        <v>0.308706</v>
       </c>
       <c r="C114" t="n">
-        <v>0.268181</v>
+        <v>0.264762</v>
       </c>
       <c r="D114" t="n">
-        <v>0.272114</v>
+        <v>0.275225</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.299409</v>
+        <v>0.299375</v>
       </c>
       <c r="C115" t="n">
-        <v>0.263531</v>
+        <v>0.261933</v>
       </c>
       <c r="D115" t="n">
-        <v>0.274153</v>
+        <v>0.269752</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.295402</v>
+        <v>0.293445</v>
       </c>
       <c r="C116" t="n">
-        <v>0.259669</v>
+        <v>0.263598</v>
       </c>
       <c r="D116" t="n">
-        <v>0.27186</v>
+        <v>0.273047</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.286178</v>
+        <v>0.284866</v>
       </c>
       <c r="C117" t="n">
-        <v>0.255071</v>
+        <v>0.257424</v>
       </c>
       <c r="D117" t="n">
-        <v>0.266953</v>
+        <v>0.273933</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.272788</v>
+        <v>0.27635</v>
       </c>
       <c r="C118" t="n">
-        <v>0.256286</v>
+        <v>0.253678</v>
       </c>
       <c r="D118" t="n">
-        <v>0.262832</v>
+        <v>0.266187</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.267818</v>
+        <v>0.273934</v>
       </c>
       <c r="C119" t="n">
-        <v>0.251599</v>
+        <v>0.256988</v>
       </c>
       <c r="D119" t="n">
-        <v>0.262366</v>
+        <v>0.268854</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.258287</v>
+        <v>0.26641</v>
       </c>
       <c r="C120" t="n">
-        <v>0.251018</v>
+        <v>0.254925</v>
       </c>
       <c r="D120" t="n">
-        <v>0.264362</v>
+        <v>0.266571</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.251761</v>
+        <v>0.251911</v>
       </c>
       <c r="C121" t="n">
-        <v>0.246164</v>
+        <v>0.250577</v>
       </c>
       <c r="D121" t="n">
-        <v>0.257995</v>
+        <v>0.26005</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.245612</v>
+        <v>0.244349</v>
       </c>
       <c r="C122" t="n">
-        <v>0.247878</v>
+        <v>0.248397</v>
       </c>
       <c r="D122" t="n">
-        <v>0.260594</v>
+        <v>0.263109</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232501</v>
+        <v>0.235853</v>
       </c>
       <c r="C123" t="n">
-        <v>0.244472</v>
+        <v>0.250362</v>
       </c>
       <c r="D123" t="n">
-        <v>0.286354</v>
+        <v>0.290472</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.340362</v>
+        <v>0.332026</v>
       </c>
       <c r="C124" t="n">
-        <v>0.278171</v>
+        <v>0.281192</v>
       </c>
       <c r="D124" t="n">
-        <v>0.282943</v>
+        <v>0.287318</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.34009</v>
+        <v>0.330201</v>
       </c>
       <c r="C125" t="n">
-        <v>0.271381</v>
+        <v>0.280818</v>
       </c>
       <c r="D125" t="n">
-        <v>0.284591</v>
+        <v>0.285543</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.320058</v>
+        <v>0.322726</v>
       </c>
       <c r="C126" t="n">
-        <v>0.269585</v>
+        <v>0.273895</v>
       </c>
       <c r="D126" t="n">
-        <v>0.277879</v>
+        <v>0.282899</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.30872</v>
+        <v>0.323681</v>
       </c>
       <c r="C127" t="n">
-        <v>0.265851</v>
+        <v>0.268899</v>
       </c>
       <c r="D127" t="n">
-        <v>0.28212</v>
+        <v>0.276669</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.311296</v>
+        <v>0.312732</v>
       </c>
       <c r="C128" t="n">
-        <v>0.265439</v>
+        <v>0.266974</v>
       </c>
       <c r="D128" t="n">
-        <v>0.281726</v>
+        <v>0.281136</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.299352</v>
+        <v>0.300959</v>
       </c>
       <c r="C129" t="n">
-        <v>0.263086</v>
+        <v>0.266814</v>
       </c>
       <c r="D129" t="n">
-        <v>0.271303</v>
+        <v>0.273309</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.291732</v>
+        <v>0.293404</v>
       </c>
       <c r="C130" t="n">
-        <v>0.268081</v>
+        <v>0.264503</v>
       </c>
       <c r="D130" t="n">
-        <v>0.267681</v>
+        <v>0.270891</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.291841</v>
+        <v>0.291531</v>
       </c>
       <c r="C131" t="n">
-        <v>0.259752</v>
+        <v>0.259658</v>
       </c>
       <c r="D131" t="n">
-        <v>0.269515</v>
+        <v>0.272379</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.28052</v>
+        <v>0.280123</v>
       </c>
       <c r="C132" t="n">
-        <v>0.260986</v>
+        <v>0.256829</v>
       </c>
       <c r="D132" t="n">
-        <v>0.263353</v>
+        <v>0.264351</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.266943</v>
+        <v>0.271893</v>
       </c>
       <c r="C133" t="n">
-        <v>0.253953</v>
+        <v>0.255199</v>
       </c>
       <c r="D133" t="n">
-        <v>0.268093</v>
+        <v>0.267255</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.259468</v>
+        <v>0.261921</v>
       </c>
       <c r="C134" t="n">
-        <v>0.248475</v>
+        <v>0.253077</v>
       </c>
       <c r="D134" t="n">
-        <v>0.26171</v>
+        <v>0.261585</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.254853</v>
+        <v>0.251162</v>
       </c>
       <c r="C135" t="n">
-        <v>0.248187</v>
+        <v>0.253038</v>
       </c>
       <c r="D135" t="n">
-        <v>0.265491</v>
+        <v>0.263476</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.252486</v>
+        <v>0.244686</v>
       </c>
       <c r="C136" t="n">
-        <v>0.248955</v>
+        <v>0.249282</v>
       </c>
       <c r="D136" t="n">
-        <v>0.263103</v>
+        <v>0.261646</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.234332</v>
+        <v>0.232286</v>
       </c>
       <c r="C137" t="n">
-        <v>0.246896</v>
+        <v>0.244738</v>
       </c>
       <c r="D137" t="n">
-        <v>0.29375</v>
+        <v>0.284961</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.331072</v>
+        <v>0.33605</v>
       </c>
       <c r="C138" t="n">
-        <v>0.27703</v>
+        <v>0.276902</v>
       </c>
       <c r="D138" t="n">
-        <v>0.284319</v>
+        <v>0.288577</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.331253</v>
+        <v>0.330244</v>
       </c>
       <c r="C139" t="n">
-        <v>0.274921</v>
+        <v>0.275098</v>
       </c>
       <c r="D139" t="n">
-        <v>0.284821</v>
+        <v>0.285194</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.323076</v>
+        <v>0.329252</v>
       </c>
       <c r="C140" t="n">
-        <v>0.267968</v>
+        <v>0.272345</v>
       </c>
       <c r="D140" t="n">
-        <v>0.27842</v>
+        <v>0.284951</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.314089</v>
+        <v>0.321226</v>
       </c>
       <c r="C141" t="n">
-        <v>0.269065</v>
+        <v>0.266736</v>
       </c>
       <c r="D141" t="n">
-        <v>0.274632</v>
+        <v>0.276653</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.306528</v>
+        <v>0.316032</v>
       </c>
       <c r="C142" t="n">
-        <v>0.266002</v>
+        <v>0.266342</v>
       </c>
       <c r="D142" t="n">
-        <v>0.278337</v>
+        <v>0.281783</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.296053</v>
+        <v>0.300895</v>
       </c>
       <c r="C143" t="n">
-        <v>0.265313</v>
+        <v>0.264651</v>
       </c>
       <c r="D143" t="n">
-        <v>0.274402</v>
+        <v>0.274729</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.283131</v>
+        <v>0.267838</v>
       </c>
       <c r="C2" t="n">
-        <v>0.24144</v>
+        <v>0.237256</v>
       </c>
       <c r="D2" t="n">
-        <v>0.248796</v>
+        <v>0.244422</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.27039</v>
+        <v>0.267734</v>
       </c>
       <c r="C3" t="n">
-        <v>0.237309</v>
+        <v>0.240047</v>
       </c>
       <c r="D3" t="n">
-        <v>0.247728</v>
+        <v>0.246817</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.267147</v>
+        <v>0.260311</v>
       </c>
       <c r="C4" t="n">
-        <v>0.24328</v>
+        <v>0.238065</v>
       </c>
       <c r="D4" t="n">
-        <v>0.247556</v>
+        <v>0.247016</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.255665</v>
+        <v>0.254836</v>
       </c>
       <c r="C5" t="n">
-        <v>0.236549</v>
+        <v>0.238556</v>
       </c>
       <c r="D5" t="n">
-        <v>0.246203</v>
+        <v>0.247813</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.250211</v>
+        <v>0.246974</v>
       </c>
       <c r="C6" t="n">
-        <v>0.233191</v>
+        <v>0.23879</v>
       </c>
       <c r="D6" t="n">
-        <v>0.245701</v>
+        <v>0.245074</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.240287</v>
+        <v>0.236888</v>
       </c>
       <c r="C7" t="n">
-        <v>0.236355</v>
+        <v>0.235139</v>
       </c>
       <c r="D7" t="n">
-        <v>0.243987</v>
+        <v>0.246754</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.22838</v>
+        <v>0.231344</v>
       </c>
       <c r="C8" t="n">
-        <v>0.230313</v>
+        <v>0.233164</v>
       </c>
       <c r="D8" t="n">
-        <v>0.241107</v>
+        <v>0.24441</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.217742</v>
+        <v>0.217712</v>
       </c>
       <c r="C9" t="n">
-        <v>0.230299</v>
+        <v>0.234106</v>
       </c>
       <c r="D9" t="n">
-        <v>0.258761</v>
+        <v>0.25724</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.31332</v>
+        <v>0.308453</v>
       </c>
       <c r="C10" t="n">
-        <v>0.247794</v>
+        <v>0.248187</v>
       </c>
       <c r="D10" t="n">
-        <v>0.248518</v>
+        <v>0.24954</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.305613</v>
+        <v>0.303854</v>
       </c>
       <c r="C11" t="n">
-        <v>0.246737</v>
+        <v>0.245292</v>
       </c>
       <c r="D11" t="n">
-        <v>0.24852</v>
+        <v>0.250187</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.297623</v>
+        <v>0.301781</v>
       </c>
       <c r="C12" t="n">
-        <v>0.24384</v>
+        <v>0.245733</v>
       </c>
       <c r="D12" t="n">
-        <v>0.250438</v>
+        <v>0.254771</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.291936</v>
+        <v>0.295895</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241546</v>
+        <v>0.244513</v>
       </c>
       <c r="D13" t="n">
-        <v>0.24879</v>
+        <v>0.24553</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.28656</v>
+        <v>0.285934</v>
       </c>
       <c r="C14" t="n">
-        <v>0.244756</v>
+        <v>0.24424</v>
       </c>
       <c r="D14" t="n">
-        <v>0.250774</v>
+        <v>0.249767</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.285229</v>
+        <v>0.283537</v>
       </c>
       <c r="C15" t="n">
-        <v>0.240939</v>
+        <v>0.240765</v>
       </c>
       <c r="D15" t="n">
-        <v>0.248094</v>
+        <v>0.245714</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.276391</v>
+        <v>0.278597</v>
       </c>
       <c r="C16" t="n">
-        <v>0.239973</v>
+        <v>0.238737</v>
       </c>
       <c r="D16" t="n">
-        <v>0.248005</v>
+        <v>0.244239</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.270215</v>
+        <v>0.271779</v>
       </c>
       <c r="C17" t="n">
-        <v>0.238867</v>
+        <v>0.239443</v>
       </c>
       <c r="D17" t="n">
-        <v>0.249189</v>
+        <v>0.245661</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.261081</v>
+        <v>0.260396</v>
       </c>
       <c r="C18" t="n">
-        <v>0.23581</v>
+        <v>0.236785</v>
       </c>
       <c r="D18" t="n">
-        <v>0.249384</v>
+        <v>0.244951</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.252187</v>
+        <v>0.256133</v>
       </c>
       <c r="C19" t="n">
-        <v>0.235639</v>
+        <v>0.237134</v>
       </c>
       <c r="D19" t="n">
-        <v>0.24902</v>
+        <v>0.244107</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.248267</v>
+        <v>0.249178</v>
       </c>
       <c r="C20" t="n">
-        <v>0.235974</v>
+        <v>0.238143</v>
       </c>
       <c r="D20" t="n">
-        <v>0.245761</v>
+        <v>0.241206</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.239767</v>
+        <v>0.240192</v>
       </c>
       <c r="C21" t="n">
-        <v>0.232981</v>
+        <v>0.232018</v>
       </c>
       <c r="D21" t="n">
-        <v>0.242854</v>
+        <v>0.245634</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.229832</v>
+        <v>0.22996</v>
       </c>
       <c r="C22" t="n">
-        <v>0.231656</v>
+        <v>0.231756</v>
       </c>
       <c r="D22" t="n">
-        <v>0.253678</v>
+        <v>0.243534</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.223974</v>
+        <v>0.221999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.232741</v>
+        <v>0.232717</v>
       </c>
       <c r="D23" t="n">
-        <v>0.260215</v>
+        <v>0.257291</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.310599</v>
+        <v>0.309827</v>
       </c>
       <c r="C24" t="n">
-        <v>0.256882</v>
+        <v>0.253495</v>
       </c>
       <c r="D24" t="n">
-        <v>0.259296</v>
+        <v>0.25971</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.304445</v>
+        <v>0.308371</v>
       </c>
       <c r="C25" t="n">
-        <v>0.252817</v>
+        <v>0.247137</v>
       </c>
       <c r="D25" t="n">
-        <v>0.258112</v>
+        <v>0.259538</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.300494</v>
+        <v>0.303111</v>
       </c>
       <c r="C26" t="n">
-        <v>0.249025</v>
+        <v>0.246693</v>
       </c>
       <c r="D26" t="n">
-        <v>0.255651</v>
+        <v>0.257747</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.294033</v>
+        <v>0.292827</v>
       </c>
       <c r="C27" t="n">
-        <v>0.246922</v>
+        <v>0.248909</v>
       </c>
       <c r="D27" t="n">
-        <v>0.257202</v>
+        <v>0.256711</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.286792</v>
+        <v>0.290641</v>
       </c>
       <c r="C28" t="n">
-        <v>0.244888</v>
+        <v>0.244131</v>
       </c>
       <c r="D28" t="n">
-        <v>0.255377</v>
+        <v>0.25373</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.279917</v>
+        <v>0.28027</v>
       </c>
       <c r="C29" t="n">
-        <v>0.243278</v>
+        <v>0.247154</v>
       </c>
       <c r="D29" t="n">
-        <v>0.255698</v>
+        <v>0.25457</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.275717</v>
+        <v>0.278418</v>
       </c>
       <c r="C30" t="n">
-        <v>0.24295</v>
+        <v>0.241376</v>
       </c>
       <c r="D30" t="n">
-        <v>0.24762</v>
+        <v>0.257097</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.26969</v>
+        <v>0.272423</v>
       </c>
       <c r="C31" t="n">
-        <v>0.241911</v>
+        <v>0.238775</v>
       </c>
       <c r="D31" t="n">
-        <v>0.24884</v>
+        <v>0.252261</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.266499</v>
+        <v>0.262825</v>
       </c>
       <c r="C32" t="n">
-        <v>0.236766</v>
+        <v>0.240733</v>
       </c>
       <c r="D32" t="n">
-        <v>0.247737</v>
+        <v>0.247314</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.255209</v>
+        <v>0.256616</v>
       </c>
       <c r="C33" t="n">
-        <v>0.241512</v>
+        <v>0.236926</v>
       </c>
       <c r="D33" t="n">
-        <v>0.249255</v>
+        <v>0.247429</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.252967</v>
+        <v>0.249205</v>
       </c>
       <c r="C34" t="n">
-        <v>0.237652</v>
+        <v>0.238061</v>
       </c>
       <c r="D34" t="n">
-        <v>0.244733</v>
+        <v>0.245847</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.242912</v>
+        <v>0.242641</v>
       </c>
       <c r="C35" t="n">
-        <v>0.233126</v>
+        <v>0.234137</v>
       </c>
       <c r="D35" t="n">
-        <v>0.244591</v>
+        <v>0.249515</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.23352</v>
+        <v>0.23444</v>
       </c>
       <c r="C36" t="n">
-        <v>0.234468</v>
+        <v>0.232209</v>
       </c>
       <c r="D36" t="n">
-        <v>0.245202</v>
+        <v>0.247336</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.227926</v>
+        <v>0.225548</v>
       </c>
       <c r="C37" t="n">
-        <v>0.23408</v>
+        <v>0.238658</v>
       </c>
       <c r="D37" t="n">
-        <v>0.269635</v>
+        <v>0.267641</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.312471</v>
+        <v>0.313117</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2596</v>
+        <v>0.259596</v>
       </c>
       <c r="D38" t="n">
-        <v>0.267982</v>
+        <v>0.263581</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.307298</v>
+        <v>0.308049</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257905</v>
+        <v>0.25289</v>
       </c>
       <c r="D39" t="n">
-        <v>0.263926</v>
+        <v>0.264019</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.300235</v>
+        <v>0.302717</v>
       </c>
       <c r="C40" t="n">
-        <v>0.25253</v>
+        <v>0.254447</v>
       </c>
       <c r="D40" t="n">
-        <v>0.262553</v>
+        <v>0.260121</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.300601</v>
+        <v>0.296765</v>
       </c>
       <c r="C41" t="n">
-        <v>0.252233</v>
+        <v>0.253625</v>
       </c>
       <c r="D41" t="n">
-        <v>0.263407</v>
+        <v>0.259133</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.292829</v>
+        <v>0.291586</v>
       </c>
       <c r="C42" t="n">
-        <v>0.248376</v>
+        <v>0.24957</v>
       </c>
       <c r="D42" t="n">
-        <v>0.262194</v>
+        <v>0.260504</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.285708</v>
+        <v>0.28363</v>
       </c>
       <c r="C43" t="n">
-        <v>0.250343</v>
+        <v>0.245714</v>
       </c>
       <c r="D43" t="n">
-        <v>0.261401</v>
+        <v>0.254533</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.282288</v>
+        <v>0.281746</v>
       </c>
       <c r="C44" t="n">
-        <v>0.246784</v>
+        <v>0.244591</v>
       </c>
       <c r="D44" t="n">
-        <v>0.26114</v>
+        <v>0.255979</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.278054</v>
+        <v>0.276192</v>
       </c>
       <c r="C45" t="n">
-        <v>0.244463</v>
+        <v>0.245141</v>
       </c>
       <c r="D45" t="n">
-        <v>0.255503</v>
+        <v>0.256376</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.267227</v>
+        <v>0.268837</v>
       </c>
       <c r="C46" t="n">
-        <v>0.243967</v>
+        <v>0.248742</v>
       </c>
       <c r="D46" t="n">
-        <v>0.253529</v>
+        <v>0.25643</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.260464</v>
+        <v>0.26321</v>
       </c>
       <c r="C47" t="n">
-        <v>0.243577</v>
+        <v>0.241354</v>
       </c>
       <c r="D47" t="n">
-        <v>0.251846</v>
+        <v>0.251806</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.253859</v>
+        <v>0.252804</v>
       </c>
       <c r="C48" t="n">
-        <v>0.240042</v>
+        <v>0.239796</v>
       </c>
       <c r="D48" t="n">
-        <v>0.252302</v>
+        <v>0.250859</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.245594</v>
+        <v>0.248478</v>
       </c>
       <c r="C49" t="n">
-        <v>0.24087</v>
+        <v>0.241096</v>
       </c>
       <c r="D49" t="n">
-        <v>0.251668</v>
+        <v>0.24857</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.239134</v>
+        <v>0.239098</v>
       </c>
       <c r="C50" t="n">
-        <v>0.236516</v>
+        <v>0.238636</v>
       </c>
       <c r="D50" t="n">
-        <v>0.249785</v>
+        <v>0.252015</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.230787</v>
+        <v>0.231686</v>
       </c>
       <c r="C51" t="n">
-        <v>0.240103</v>
+        <v>0.237363</v>
       </c>
       <c r="D51" t="n">
-        <v>0.273331</v>
+        <v>0.278258</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.222443</v>
+        <v>0.22243</v>
       </c>
       <c r="C52" t="n">
-        <v>0.239248</v>
+        <v>0.239091</v>
       </c>
       <c r="D52" t="n">
-        <v>0.271683</v>
+        <v>0.271476</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.31755</v>
+        <v>0.317183</v>
       </c>
       <c r="C53" t="n">
-        <v>0.267567</v>
+        <v>0.26319</v>
       </c>
       <c r="D53" t="n">
-        <v>0.271688</v>
+        <v>0.270029</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.308947</v>
+        <v>0.307403</v>
       </c>
       <c r="C54" t="n">
-        <v>0.259593</v>
+        <v>0.257896</v>
       </c>
       <c r="D54" t="n">
-        <v>0.264688</v>
+        <v>0.264342</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.306645</v>
+        <v>0.306802</v>
       </c>
       <c r="C55" t="n">
-        <v>0.260085</v>
+        <v>0.261378</v>
       </c>
       <c r="D55" t="n">
-        <v>0.266652</v>
+        <v>0.265318</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.300327</v>
+        <v>0.302701</v>
       </c>
       <c r="C56" t="n">
-        <v>0.257121</v>
+        <v>0.258938</v>
       </c>
       <c r="D56" t="n">
-        <v>0.267129</v>
+        <v>0.263409</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.292834</v>
+        <v>0.29318</v>
       </c>
       <c r="C57" t="n">
-        <v>0.254859</v>
+        <v>0.253756</v>
       </c>
       <c r="D57" t="n">
-        <v>0.263329</v>
+        <v>0.264932</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.283125</v>
+        <v>0.287592</v>
       </c>
       <c r="C58" t="n">
-        <v>0.251598</v>
+        <v>0.252889</v>
       </c>
       <c r="D58" t="n">
-        <v>0.264141</v>
+        <v>0.259505</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.28338</v>
+        <v>0.280637</v>
       </c>
       <c r="C59" t="n">
-        <v>0.252876</v>
+        <v>0.251388</v>
       </c>
       <c r="D59" t="n">
-        <v>0.261786</v>
+        <v>0.26047</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.278236</v>
+        <v>0.277565</v>
       </c>
       <c r="C60" t="n">
-        <v>0.246323</v>
+        <v>0.246504</v>
       </c>
       <c r="D60" t="n">
-        <v>0.260797</v>
+        <v>0.258949</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.269255</v>
+        <v>0.268704</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245358</v>
+        <v>0.246722</v>
       </c>
       <c r="D61" t="n">
-        <v>0.259741</v>
+        <v>0.258326</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.263517</v>
+        <v>0.260909</v>
       </c>
       <c r="C62" t="n">
-        <v>0.247512</v>
+        <v>0.246483</v>
       </c>
       <c r="D62" t="n">
-        <v>0.25371</v>
+        <v>0.256183</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.25616</v>
+        <v>0.261038</v>
       </c>
       <c r="C63" t="n">
-        <v>0.242751</v>
+        <v>0.242293</v>
       </c>
       <c r="D63" t="n">
-        <v>0.256029</v>
+        <v>0.256376</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.247053</v>
+        <v>0.243984</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242992</v>
+        <v>0.2407</v>
       </c>
       <c r="D64" t="n">
-        <v>0.251282</v>
+        <v>0.254153</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.237083</v>
+        <v>0.239266</v>
       </c>
       <c r="C65" t="n">
-        <v>0.24159</v>
+        <v>0.238283</v>
       </c>
       <c r="D65" t="n">
-        <v>0.250765</v>
+        <v>0.254086</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.22757</v>
+        <v>0.226714</v>
       </c>
       <c r="C66" t="n">
-        <v>0.24074</v>
+        <v>0.242196</v>
       </c>
       <c r="D66" t="n">
-        <v>0.278707</v>
+        <v>0.278716</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.325789</v>
+        <v>0.328077</v>
       </c>
       <c r="C67" t="n">
-        <v>0.268475</v>
+        <v>0.27582</v>
       </c>
       <c r="D67" t="n">
-        <v>0.278191</v>
+        <v>0.276226</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.32378</v>
+        <v>0.321094</v>
       </c>
       <c r="C68" t="n">
-        <v>0.268562</v>
+        <v>0.266966</v>
       </c>
       <c r="D68" t="n">
-        <v>0.274254</v>
+        <v>0.277656</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.315653</v>
+        <v>0.316773</v>
       </c>
       <c r="C69" t="n">
-        <v>0.26874</v>
+        <v>0.262538</v>
       </c>
       <c r="D69" t="n">
-        <v>0.27517</v>
+        <v>0.271566</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.308715</v>
+        <v>0.310117</v>
       </c>
       <c r="C70" t="n">
-        <v>0.263376</v>
+        <v>0.267461</v>
       </c>
       <c r="D70" t="n">
-        <v>0.269338</v>
+        <v>0.26973</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.304919</v>
+        <v>0.302887</v>
       </c>
       <c r="C71" t="n">
-        <v>0.258525</v>
+        <v>0.260025</v>
       </c>
       <c r="D71" t="n">
-        <v>0.267968</v>
+        <v>0.269285</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.296657</v>
+        <v>0.299402</v>
       </c>
       <c r="C72" t="n">
-        <v>0.256862</v>
+        <v>0.257526</v>
       </c>
       <c r="D72" t="n">
-        <v>0.268383</v>
+        <v>0.270196</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.292619</v>
+        <v>0.290477</v>
       </c>
       <c r="C73" t="n">
-        <v>0.258409</v>
+        <v>0.255539</v>
       </c>
       <c r="D73" t="n">
-        <v>0.26568</v>
+        <v>0.264917</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.280499</v>
+        <v>0.280196</v>
       </c>
       <c r="C74" t="n">
-        <v>0.252579</v>
+        <v>0.249812</v>
       </c>
       <c r="D74" t="n">
-        <v>0.261862</v>
+        <v>0.266328</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.277023</v>
+        <v>0.275761</v>
       </c>
       <c r="C75" t="n">
-        <v>0.257143</v>
+        <v>0.256178</v>
       </c>
       <c r="D75" t="n">
-        <v>0.262241</v>
+        <v>0.260923</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.265299</v>
+        <v>0.271531</v>
       </c>
       <c r="C76" t="n">
-        <v>0.253807</v>
+        <v>0.247923</v>
       </c>
       <c r="D76" t="n">
-        <v>0.259874</v>
+        <v>0.25989</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.260837</v>
+        <v>0.260587</v>
       </c>
       <c r="C77" t="n">
-        <v>0.248682</v>
+        <v>0.248989</v>
       </c>
       <c r="D77" t="n">
-        <v>0.260648</v>
+        <v>0.25729</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.251558</v>
+        <v>0.257195</v>
       </c>
       <c r="C78" t="n">
-        <v>0.24814</v>
+        <v>0.250356</v>
       </c>
       <c r="D78" t="n">
-        <v>0.256989</v>
+        <v>0.261455</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.248397</v>
+        <v>0.243824</v>
       </c>
       <c r="C79" t="n">
-        <v>0.243008</v>
+        <v>0.245833</v>
       </c>
       <c r="D79" t="n">
-        <v>0.258729</v>
+        <v>0.257836</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.234074</v>
+        <v>0.236214</v>
       </c>
       <c r="C80" t="n">
-        <v>0.246592</v>
+        <v>0.244282</v>
       </c>
       <c r="D80" t="n">
-        <v>0.284208</v>
+        <v>0.284357</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.331313</v>
+        <v>0.334032</v>
       </c>
       <c r="C81" t="n">
-        <v>0.276005</v>
+        <v>0.276861</v>
       </c>
       <c r="D81" t="n">
-        <v>0.27964</v>
+        <v>0.281405</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.328262</v>
+        <v>0.327488</v>
       </c>
       <c r="C82" t="n">
-        <v>0.273826</v>
+        <v>0.272083</v>
       </c>
       <c r="D82" t="n">
-        <v>0.280376</v>
+        <v>0.284152</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.322513</v>
+        <v>0.319812</v>
       </c>
       <c r="C83" t="n">
-        <v>0.269233</v>
+        <v>0.277328</v>
       </c>
       <c r="D83" t="n">
-        <v>0.277091</v>
+        <v>0.280612</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.316466</v>
+        <v>0.32282</v>
       </c>
       <c r="C84" t="n">
-        <v>0.267943</v>
+        <v>0.269057</v>
       </c>
       <c r="D84" t="n">
-        <v>0.275429</v>
+        <v>0.275408</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.309426</v>
+        <v>0.311549</v>
       </c>
       <c r="C85" t="n">
-        <v>0.263044</v>
+        <v>0.263688</v>
       </c>
       <c r="D85" t="n">
-        <v>0.270595</v>
+        <v>0.272356</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.300851</v>
+        <v>0.302285</v>
       </c>
       <c r="C86" t="n">
-        <v>0.265013</v>
+        <v>0.25935</v>
       </c>
       <c r="D86" t="n">
-        <v>0.272023</v>
+        <v>0.275862</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.297931</v>
+        <v>0.293266</v>
       </c>
       <c r="C87" t="n">
-        <v>0.260576</v>
+        <v>0.260517</v>
       </c>
       <c r="D87" t="n">
-        <v>0.268136</v>
+        <v>0.270404</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.288017</v>
+        <v>0.287373</v>
       </c>
       <c r="C88" t="n">
-        <v>0.259919</v>
+        <v>0.255124</v>
       </c>
       <c r="D88" t="n">
-        <v>0.270224</v>
+        <v>0.268633</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.283787</v>
+        <v>0.279597</v>
       </c>
       <c r="C89" t="n">
-        <v>0.260247</v>
+        <v>0.257504</v>
       </c>
       <c r="D89" t="n">
-        <v>0.268063</v>
+        <v>0.265713</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.275192</v>
+        <v>0.277725</v>
       </c>
       <c r="C90" t="n">
-        <v>0.254423</v>
+        <v>0.255067</v>
       </c>
       <c r="D90" t="n">
-        <v>0.262988</v>
+        <v>0.265184</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.262641</v>
+        <v>0.266351</v>
       </c>
       <c r="C91" t="n">
-        <v>0.253132</v>
+        <v>0.251749</v>
       </c>
       <c r="D91" t="n">
-        <v>0.261924</v>
+        <v>0.262873</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258282</v>
+        <v>0.26109</v>
       </c>
       <c r="C92" t="n">
-        <v>0.253942</v>
+        <v>0.252798</v>
       </c>
       <c r="D92" t="n">
-        <v>0.263756</v>
+        <v>0.261414</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.24737</v>
+        <v>0.251688</v>
       </c>
       <c r="C93" t="n">
-        <v>0.251106</v>
+        <v>0.250228</v>
       </c>
       <c r="D93" t="n">
-        <v>0.260225</v>
+        <v>0.259008</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.240975</v>
+        <v>0.244615</v>
       </c>
       <c r="C94" t="n">
-        <v>0.247538</v>
+        <v>0.251587</v>
       </c>
       <c r="D94" t="n">
-        <v>0.291455</v>
+        <v>0.289176</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.338424</v>
+        <v>0.334555</v>
       </c>
       <c r="C95" t="n">
-        <v>0.276977</v>
+        <v>0.276496</v>
       </c>
       <c r="D95" t="n">
-        <v>0.282508</v>
+        <v>0.282096</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.32753</v>
+        <v>0.326314</v>
       </c>
       <c r="C96" t="n">
-        <v>0.275171</v>
+        <v>0.27934</v>
       </c>
       <c r="D96" t="n">
-        <v>0.282516</v>
+        <v>0.28487</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.324621</v>
+        <v>0.3318</v>
       </c>
       <c r="C97" t="n">
-        <v>0.271839</v>
+        <v>0.27269</v>
       </c>
       <c r="D97" t="n">
-        <v>0.280023</v>
+        <v>0.283644</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.322888</v>
+        <v>0.314523</v>
       </c>
       <c r="C98" t="n">
-        <v>0.269577</v>
+        <v>0.268452</v>
       </c>
       <c r="D98" t="n">
-        <v>0.274848</v>
+        <v>0.275423</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.311879</v>
+        <v>0.317896</v>
       </c>
       <c r="C99" t="n">
-        <v>0.269335</v>
+        <v>0.266201</v>
       </c>
       <c r="D99" t="n">
-        <v>0.274205</v>
+        <v>0.277746</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.308007</v>
+        <v>0.306181</v>
       </c>
       <c r="C100" t="n">
-        <v>0.264406</v>
+        <v>0.262295</v>
       </c>
       <c r="D100" t="n">
-        <v>0.270332</v>
+        <v>0.278567</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.294337</v>
+        <v>0.303032</v>
       </c>
       <c r="C101" t="n">
-        <v>0.262783</v>
+        <v>0.262175</v>
       </c>
       <c r="D101" t="n">
-        <v>0.272645</v>
+        <v>0.272276</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.292169</v>
+        <v>0.290321</v>
       </c>
       <c r="C102" t="n">
-        <v>0.265978</v>
+        <v>0.26037</v>
       </c>
       <c r="D102" t="n">
-        <v>0.26738</v>
+        <v>0.269264</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.288057</v>
+        <v>0.285197</v>
       </c>
       <c r="C103" t="n">
-        <v>0.256163</v>
+        <v>0.2607</v>
       </c>
       <c r="D103" t="n">
-        <v>0.267683</v>
+        <v>0.266874</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.277746</v>
+        <v>0.272848</v>
       </c>
       <c r="C104" t="n">
-        <v>0.260182</v>
+        <v>0.257626</v>
       </c>
       <c r="D104" t="n">
-        <v>0.267524</v>
+        <v>0.26417</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.269113</v>
+        <v>0.268566</v>
       </c>
       <c r="C105" t="n">
-        <v>0.253105</v>
+        <v>0.256376</v>
       </c>
       <c r="D105" t="n">
-        <v>0.263039</v>
+        <v>0.263824</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.261891</v>
+        <v>0.2609</v>
       </c>
       <c r="C106" t="n">
-        <v>0.254478</v>
+        <v>0.254782</v>
       </c>
       <c r="D106" t="n">
-        <v>0.26385</v>
+        <v>0.26337</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.248787</v>
+        <v>0.252215</v>
       </c>
       <c r="C107" t="n">
-        <v>0.250039</v>
+        <v>0.253326</v>
       </c>
       <c r="D107" t="n">
-        <v>0.2587</v>
+        <v>0.259281</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.240666</v>
+        <v>0.239053</v>
       </c>
       <c r="C108" t="n">
-        <v>0.245245</v>
+        <v>0.247004</v>
       </c>
       <c r="D108" t="n">
-        <v>0.287342</v>
+        <v>0.290723</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.235931</v>
+        <v>0.229618</v>
       </c>
       <c r="C109" t="n">
-        <v>0.246021</v>
+        <v>0.245556</v>
       </c>
       <c r="D109" t="n">
-        <v>0.285441</v>
+        <v>0.285434</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.333468</v>
+        <v>0.332111</v>
       </c>
       <c r="C110" t="n">
-        <v>0.273982</v>
+        <v>0.277382</v>
       </c>
       <c r="D110" t="n">
-        <v>0.282757</v>
+        <v>0.281314</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.32081</v>
+        <v>0.329778</v>
       </c>
       <c r="C111" t="n">
-        <v>0.274401</v>
+        <v>0.268895</v>
       </c>
       <c r="D111" t="n">
-        <v>0.282832</v>
+        <v>0.280213</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.321539</v>
+        <v>0.319448</v>
       </c>
       <c r="C112" t="n">
-        <v>0.268826</v>
+        <v>0.270854</v>
       </c>
       <c r="D112" t="n">
-        <v>0.274584</v>
+        <v>0.276372</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.304649</v>
+        <v>0.316529</v>
       </c>
       <c r="C113" t="n">
-        <v>0.261221</v>
+        <v>0.270815</v>
       </c>
       <c r="D113" t="n">
-        <v>0.271042</v>
+        <v>0.274699</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.308706</v>
+        <v>0.308858</v>
       </c>
       <c r="C114" t="n">
-        <v>0.264762</v>
+        <v>0.264737</v>
       </c>
       <c r="D114" t="n">
-        <v>0.275225</v>
+        <v>0.273386</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.299375</v>
+        <v>0.30205</v>
       </c>
       <c r="C115" t="n">
-        <v>0.261933</v>
+        <v>0.264757</v>
       </c>
       <c r="D115" t="n">
-        <v>0.269752</v>
+        <v>0.274862</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.293445</v>
+        <v>0.295701</v>
       </c>
       <c r="C116" t="n">
-        <v>0.263598</v>
+        <v>0.261653</v>
       </c>
       <c r="D116" t="n">
-        <v>0.273047</v>
+        <v>0.270945</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.284866</v>
+        <v>0.285406</v>
       </c>
       <c r="C117" t="n">
-        <v>0.257424</v>
+        <v>0.256244</v>
       </c>
       <c r="D117" t="n">
-        <v>0.273933</v>
+        <v>0.268677</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.27635</v>
+        <v>0.278823</v>
       </c>
       <c r="C118" t="n">
-        <v>0.253678</v>
+        <v>0.254954</v>
       </c>
       <c r="D118" t="n">
-        <v>0.266187</v>
+        <v>0.266111</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.273934</v>
+        <v>0.26549</v>
       </c>
       <c r="C119" t="n">
-        <v>0.256988</v>
+        <v>0.254643</v>
       </c>
       <c r="D119" t="n">
-        <v>0.268854</v>
+        <v>0.262731</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.26641</v>
+        <v>0.262456</v>
       </c>
       <c r="C120" t="n">
-        <v>0.254925</v>
+        <v>0.249897</v>
       </c>
       <c r="D120" t="n">
-        <v>0.266571</v>
+        <v>0.262998</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.251911</v>
+        <v>0.252964</v>
       </c>
       <c r="C121" t="n">
-        <v>0.250577</v>
+        <v>0.25066</v>
       </c>
       <c r="D121" t="n">
-        <v>0.26005</v>
+        <v>0.263821</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.244349</v>
+        <v>0.241741</v>
       </c>
       <c r="C122" t="n">
-        <v>0.248397</v>
+        <v>0.251318</v>
       </c>
       <c r="D122" t="n">
-        <v>0.263109</v>
+        <v>0.260352</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.235853</v>
+        <v>0.234736</v>
       </c>
       <c r="C123" t="n">
-        <v>0.250362</v>
+        <v>0.248111</v>
       </c>
       <c r="D123" t="n">
-        <v>0.290472</v>
+        <v>0.285268</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.332026</v>
+        <v>0.339553</v>
       </c>
       <c r="C124" t="n">
-        <v>0.281192</v>
+        <v>0.278037</v>
       </c>
       <c r="D124" t="n">
-        <v>0.287318</v>
+        <v>0.282733</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.330201</v>
+        <v>0.326647</v>
       </c>
       <c r="C125" t="n">
-        <v>0.280818</v>
+        <v>0.270925</v>
       </c>
       <c r="D125" t="n">
-        <v>0.285543</v>
+        <v>0.28239</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.322726</v>
+        <v>0.324119</v>
       </c>
       <c r="C126" t="n">
-        <v>0.273895</v>
+        <v>0.271888</v>
       </c>
       <c r="D126" t="n">
-        <v>0.282899</v>
+        <v>0.281825</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.323681</v>
+        <v>0.313903</v>
       </c>
       <c r="C127" t="n">
-        <v>0.268899</v>
+        <v>0.26783</v>
       </c>
       <c r="D127" t="n">
-        <v>0.276669</v>
+        <v>0.281114</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.312732</v>
+        <v>0.31164</v>
       </c>
       <c r="C128" t="n">
-        <v>0.266974</v>
+        <v>0.260835</v>
       </c>
       <c r="D128" t="n">
-        <v>0.281136</v>
+        <v>0.276769</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.300959</v>
+        <v>0.303137</v>
       </c>
       <c r="C129" t="n">
-        <v>0.266814</v>
+        <v>0.263865</v>
       </c>
       <c r="D129" t="n">
-        <v>0.273309</v>
+        <v>0.272766</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.293404</v>
+        <v>0.302515</v>
       </c>
       <c r="C130" t="n">
-        <v>0.264503</v>
+        <v>0.264578</v>
       </c>
       <c r="D130" t="n">
-        <v>0.270891</v>
+        <v>0.267518</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.291531</v>
+        <v>0.284057</v>
       </c>
       <c r="C131" t="n">
-        <v>0.259658</v>
+        <v>0.26192</v>
       </c>
       <c r="D131" t="n">
-        <v>0.272379</v>
+        <v>0.269815</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.280123</v>
+        <v>0.278234</v>
       </c>
       <c r="C132" t="n">
-        <v>0.256829</v>
+        <v>0.256472</v>
       </c>
       <c r="D132" t="n">
-        <v>0.264351</v>
+        <v>0.267209</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.271893</v>
+        <v>0.272079</v>
       </c>
       <c r="C133" t="n">
-        <v>0.255199</v>
+        <v>0.253183</v>
       </c>
       <c r="D133" t="n">
-        <v>0.267255</v>
+        <v>0.264345</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.261921</v>
+        <v>0.269067</v>
       </c>
       <c r="C134" t="n">
-        <v>0.253077</v>
+        <v>0.256432</v>
       </c>
       <c r="D134" t="n">
-        <v>0.261585</v>
+        <v>0.265405</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.251162</v>
+        <v>0.255137</v>
       </c>
       <c r="C135" t="n">
-        <v>0.253038</v>
+        <v>0.251434</v>
       </c>
       <c r="D135" t="n">
-        <v>0.263476</v>
+        <v>0.266292</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.244686</v>
+        <v>0.251619</v>
       </c>
       <c r="C136" t="n">
-        <v>0.249282</v>
+        <v>0.24745</v>
       </c>
       <c r="D136" t="n">
-        <v>0.261646</v>
+        <v>0.25919</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232286</v>
+        <v>0.242287</v>
       </c>
       <c r="C137" t="n">
-        <v>0.244738</v>
+        <v>0.246962</v>
       </c>
       <c r="D137" t="n">
-        <v>0.284961</v>
+        <v>0.289631</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.33605</v>
+        <v>0.328951</v>
       </c>
       <c r="C138" t="n">
-        <v>0.276902</v>
+        <v>0.277606</v>
       </c>
       <c r="D138" t="n">
-        <v>0.288577</v>
+        <v>0.284902</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.330244</v>
+        <v>0.335821</v>
       </c>
       <c r="C139" t="n">
-        <v>0.275098</v>
+        <v>0.276201</v>
       </c>
       <c r="D139" t="n">
-        <v>0.285194</v>
+        <v>0.284025</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.329252</v>
+        <v>0.323237</v>
       </c>
       <c r="C140" t="n">
-        <v>0.272345</v>
+        <v>0.270224</v>
       </c>
       <c r="D140" t="n">
-        <v>0.284951</v>
+        <v>0.278145</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.321226</v>
+        <v>0.313559</v>
       </c>
       <c r="C141" t="n">
-        <v>0.266736</v>
+        <v>0.268582</v>
       </c>
       <c r="D141" t="n">
-        <v>0.276653</v>
+        <v>0.274373</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.316032</v>
+        <v>0.318504</v>
       </c>
       <c r="C142" t="n">
-        <v>0.266342</v>
+        <v>0.269032</v>
       </c>
       <c r="D142" t="n">
-        <v>0.281783</v>
+        <v>0.276146</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.300895</v>
+        <v>0.303047</v>
       </c>
       <c r="C143" t="n">
-        <v>0.264651</v>
+        <v>0.263185</v>
       </c>
       <c r="D143" t="n">
-        <v>0.274729</v>
+        <v>0.270834</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.267838</v>
+        <v>0.277506</v>
       </c>
       <c r="C2" t="n">
-        <v>0.237256</v>
+        <v>0.241347</v>
       </c>
       <c r="D2" t="n">
-        <v>0.244422</v>
+        <v>0.249959</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.267734</v>
+        <v>0.273479</v>
       </c>
       <c r="C3" t="n">
-        <v>0.240047</v>
+        <v>0.237253</v>
       </c>
       <c r="D3" t="n">
-        <v>0.246817</v>
+        <v>0.246366</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.260311</v>
+        <v>0.264768</v>
       </c>
       <c r="C4" t="n">
-        <v>0.238065</v>
+        <v>0.23614</v>
       </c>
       <c r="D4" t="n">
-        <v>0.247016</v>
+        <v>0.247777</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.254836</v>
+        <v>0.255492</v>
       </c>
       <c r="C5" t="n">
-        <v>0.238556</v>
+        <v>0.234275</v>
       </c>
       <c r="D5" t="n">
-        <v>0.247813</v>
+        <v>0.246935</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.246974</v>
+        <v>0.248221</v>
       </c>
       <c r="C6" t="n">
-        <v>0.23879</v>
+        <v>0.23143</v>
       </c>
       <c r="D6" t="n">
-        <v>0.245074</v>
+        <v>0.241442</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.236888</v>
+        <v>0.237542</v>
       </c>
       <c r="C7" t="n">
-        <v>0.235139</v>
+        <v>0.229118</v>
       </c>
       <c r="D7" t="n">
-        <v>0.246754</v>
+        <v>0.246076</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.231344</v>
+        <v>0.233741</v>
       </c>
       <c r="C8" t="n">
-        <v>0.233164</v>
+        <v>0.232096</v>
       </c>
       <c r="D8" t="n">
-        <v>0.24441</v>
+        <v>0.245711</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.217712</v>
+        <v>0.217529</v>
       </c>
       <c r="C9" t="n">
-        <v>0.234106</v>
+        <v>0.230256</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25724</v>
+        <v>0.243187</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.308453</v>
+        <v>0.311726</v>
       </c>
       <c r="C10" t="n">
-        <v>0.248187</v>
+        <v>0.246947</v>
       </c>
       <c r="D10" t="n">
-        <v>0.24954</v>
+        <v>0.256143</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.303854</v>
+        <v>0.306302</v>
       </c>
       <c r="C11" t="n">
-        <v>0.245292</v>
+        <v>0.245597</v>
       </c>
       <c r="D11" t="n">
-        <v>0.250187</v>
+        <v>0.254637</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.301781</v>
+        <v>0.2986</v>
       </c>
       <c r="C12" t="n">
-        <v>0.245733</v>
+        <v>0.241871</v>
       </c>
       <c r="D12" t="n">
-        <v>0.254771</v>
+        <v>0.251497</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.295895</v>
+        <v>0.296917</v>
       </c>
       <c r="C13" t="n">
-        <v>0.244513</v>
+        <v>0.242213</v>
       </c>
       <c r="D13" t="n">
-        <v>0.24553</v>
+        <v>0.250333</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.285934</v>
+        <v>0.289823</v>
       </c>
       <c r="C14" t="n">
-        <v>0.24424</v>
+        <v>0.237864</v>
       </c>
       <c r="D14" t="n">
-        <v>0.249767</v>
+        <v>0.253245</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.283537</v>
+        <v>0.28186</v>
       </c>
       <c r="C15" t="n">
-        <v>0.240765</v>
+        <v>0.237982</v>
       </c>
       <c r="D15" t="n">
-        <v>0.245714</v>
+        <v>0.252722</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.278597</v>
+        <v>0.275213</v>
       </c>
       <c r="C16" t="n">
-        <v>0.238737</v>
+        <v>0.238851</v>
       </c>
       <c r="D16" t="n">
-        <v>0.244239</v>
+        <v>0.248784</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.271779</v>
+        <v>0.267513</v>
       </c>
       <c r="C17" t="n">
-        <v>0.239443</v>
+        <v>0.238319</v>
       </c>
       <c r="D17" t="n">
-        <v>0.245661</v>
+        <v>0.249072</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.260396</v>
+        <v>0.262233</v>
       </c>
       <c r="C18" t="n">
-        <v>0.236785</v>
+        <v>0.239364</v>
       </c>
       <c r="D18" t="n">
-        <v>0.244951</v>
+        <v>0.246399</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.256133</v>
+        <v>0.254638</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237134</v>
+        <v>0.238299</v>
       </c>
       <c r="D19" t="n">
-        <v>0.244107</v>
+        <v>0.247438</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.249178</v>
+        <v>0.248402</v>
       </c>
       <c r="C20" t="n">
-        <v>0.238143</v>
+        <v>0.236359</v>
       </c>
       <c r="D20" t="n">
-        <v>0.241206</v>
+        <v>0.246604</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240192</v>
+        <v>0.239863</v>
       </c>
       <c r="C21" t="n">
-        <v>0.232018</v>
+        <v>0.232812</v>
       </c>
       <c r="D21" t="n">
-        <v>0.245634</v>
+        <v>0.244569</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.22996</v>
+        <v>0.230569</v>
       </c>
       <c r="C22" t="n">
-        <v>0.231756</v>
+        <v>0.236729</v>
       </c>
       <c r="D22" t="n">
-        <v>0.243534</v>
+        <v>0.245873</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.221999</v>
+        <v>0.223276</v>
       </c>
       <c r="C23" t="n">
-        <v>0.232717</v>
+        <v>0.231791</v>
       </c>
       <c r="D23" t="n">
-        <v>0.257291</v>
+        <v>0.243357</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.309827</v>
+        <v>0.307843</v>
       </c>
       <c r="C24" t="n">
-        <v>0.253495</v>
+        <v>0.248592</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25971</v>
+        <v>0.259976</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.308371</v>
+        <v>0.305072</v>
       </c>
       <c r="C25" t="n">
-        <v>0.247137</v>
+        <v>0.249338</v>
       </c>
       <c r="D25" t="n">
-        <v>0.259538</v>
+        <v>0.260263</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.303111</v>
+        <v>0.296532</v>
       </c>
       <c r="C26" t="n">
-        <v>0.246693</v>
+        <v>0.247814</v>
       </c>
       <c r="D26" t="n">
-        <v>0.257747</v>
+        <v>0.257194</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.292827</v>
+        <v>0.294675</v>
       </c>
       <c r="C27" t="n">
-        <v>0.248909</v>
+        <v>0.244116</v>
       </c>
       <c r="D27" t="n">
-        <v>0.256711</v>
+        <v>0.260343</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.290641</v>
+        <v>0.284954</v>
       </c>
       <c r="C28" t="n">
-        <v>0.244131</v>
+        <v>0.241997</v>
       </c>
       <c r="D28" t="n">
-        <v>0.25373</v>
+        <v>0.252423</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.28027</v>
+        <v>0.281735</v>
       </c>
       <c r="C29" t="n">
-        <v>0.247154</v>
+        <v>0.244911</v>
       </c>
       <c r="D29" t="n">
-        <v>0.25457</v>
+        <v>0.252112</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.278418</v>
+        <v>0.276999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.241376</v>
+        <v>0.239991</v>
       </c>
       <c r="D30" t="n">
-        <v>0.257097</v>
+        <v>0.250246</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.272423</v>
+        <v>0.270116</v>
       </c>
       <c r="C31" t="n">
-        <v>0.238775</v>
+        <v>0.237811</v>
       </c>
       <c r="D31" t="n">
-        <v>0.252261</v>
+        <v>0.251979</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.262825</v>
+        <v>0.265001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.240733</v>
+        <v>0.2385</v>
       </c>
       <c r="D32" t="n">
-        <v>0.247314</v>
+        <v>0.250398</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256616</v>
+        <v>0.255098</v>
       </c>
       <c r="C33" t="n">
-        <v>0.236926</v>
+        <v>0.237485</v>
       </c>
       <c r="D33" t="n">
-        <v>0.247429</v>
+        <v>0.247235</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.249205</v>
+        <v>0.252674</v>
       </c>
       <c r="C34" t="n">
-        <v>0.238061</v>
+        <v>0.235508</v>
       </c>
       <c r="D34" t="n">
-        <v>0.245847</v>
+        <v>0.250962</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.242641</v>
+        <v>0.241885</v>
       </c>
       <c r="C35" t="n">
-        <v>0.234137</v>
+        <v>0.232655</v>
       </c>
       <c r="D35" t="n">
-        <v>0.249515</v>
+        <v>0.246901</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.23444</v>
+        <v>0.235473</v>
       </c>
       <c r="C36" t="n">
-        <v>0.232209</v>
+        <v>0.234417</v>
       </c>
       <c r="D36" t="n">
-        <v>0.247336</v>
+        <v>0.24518</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.225548</v>
+        <v>0.227297</v>
       </c>
       <c r="C37" t="n">
-        <v>0.238658</v>
+        <v>0.232899</v>
       </c>
       <c r="D37" t="n">
-        <v>0.267641</v>
+        <v>0.249599</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.313117</v>
+        <v>0.311662</v>
       </c>
       <c r="C38" t="n">
-        <v>0.259596</v>
+        <v>0.25146</v>
       </c>
       <c r="D38" t="n">
-        <v>0.263581</v>
+        <v>0.267369</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.308049</v>
+        <v>0.307938</v>
       </c>
       <c r="C39" t="n">
-        <v>0.25289</v>
+        <v>0.253333</v>
       </c>
       <c r="D39" t="n">
-        <v>0.264019</v>
+        <v>0.262902</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.302717</v>
+        <v>0.304297</v>
       </c>
       <c r="C40" t="n">
-        <v>0.254447</v>
+        <v>0.248047</v>
       </c>
       <c r="D40" t="n">
-        <v>0.260121</v>
+        <v>0.262933</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.296765</v>
+        <v>0.301675</v>
       </c>
       <c r="C41" t="n">
-        <v>0.253625</v>
+        <v>0.251344</v>
       </c>
       <c r="D41" t="n">
-        <v>0.259133</v>
+        <v>0.272223</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.291586</v>
+        <v>0.300315</v>
       </c>
       <c r="C42" t="n">
-        <v>0.24957</v>
+        <v>0.257501</v>
       </c>
       <c r="D42" t="n">
-        <v>0.260504</v>
+        <v>0.265882</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.28363</v>
+        <v>0.303535</v>
       </c>
       <c r="C43" t="n">
-        <v>0.245714</v>
+        <v>0.253085</v>
       </c>
       <c r="D43" t="n">
-        <v>0.254533</v>
+        <v>0.268455</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.281746</v>
+        <v>0.288994</v>
       </c>
       <c r="C44" t="n">
-        <v>0.244591</v>
+        <v>0.250572</v>
       </c>
       <c r="D44" t="n">
-        <v>0.255979</v>
+        <v>0.257597</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.276192</v>
+        <v>0.276311</v>
       </c>
       <c r="C45" t="n">
-        <v>0.245141</v>
+        <v>0.245454</v>
       </c>
       <c r="D45" t="n">
-        <v>0.256376</v>
+        <v>0.255964</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.268837</v>
+        <v>0.270791</v>
       </c>
       <c r="C46" t="n">
-        <v>0.248742</v>
+        <v>0.239788</v>
       </c>
       <c r="D46" t="n">
-        <v>0.25643</v>
+        <v>0.253402</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.26321</v>
+        <v>0.263967</v>
       </c>
       <c r="C47" t="n">
-        <v>0.241354</v>
+        <v>0.24145</v>
       </c>
       <c r="D47" t="n">
-        <v>0.251806</v>
+        <v>0.256647</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.252804</v>
+        <v>0.252041</v>
       </c>
       <c r="C48" t="n">
-        <v>0.239796</v>
+        <v>0.241879</v>
       </c>
       <c r="D48" t="n">
-        <v>0.250859</v>
+        <v>0.249991</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.248478</v>
+        <v>0.248008</v>
       </c>
       <c r="C49" t="n">
-        <v>0.241096</v>
+        <v>0.242634</v>
       </c>
       <c r="D49" t="n">
-        <v>0.24857</v>
+        <v>0.249546</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.239098</v>
+        <v>0.23889</v>
       </c>
       <c r="C50" t="n">
-        <v>0.238636</v>
+        <v>0.238236</v>
       </c>
       <c r="D50" t="n">
-        <v>0.252015</v>
+        <v>0.250925</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.231686</v>
+        <v>0.232307</v>
       </c>
       <c r="C51" t="n">
-        <v>0.237363</v>
+        <v>0.237003</v>
       </c>
       <c r="D51" t="n">
-        <v>0.278258</v>
+        <v>0.252796</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.22243</v>
+        <v>0.223262</v>
       </c>
       <c r="C52" t="n">
-        <v>0.239091</v>
+        <v>0.237635</v>
       </c>
       <c r="D52" t="n">
-        <v>0.271476</v>
+        <v>0.250571</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.317183</v>
+        <v>0.316074</v>
       </c>
       <c r="C53" t="n">
-        <v>0.26319</v>
+        <v>0.262752</v>
       </c>
       <c r="D53" t="n">
-        <v>0.270029</v>
+        <v>0.273982</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.307403</v>
+        <v>0.307865</v>
       </c>
       <c r="C54" t="n">
-        <v>0.257896</v>
+        <v>0.257936</v>
       </c>
       <c r="D54" t="n">
-        <v>0.264342</v>
+        <v>0.267401</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.306802</v>
+        <v>0.304041</v>
       </c>
       <c r="C55" t="n">
-        <v>0.261378</v>
+        <v>0.258811</v>
       </c>
       <c r="D55" t="n">
-        <v>0.265318</v>
+        <v>0.266463</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.302701</v>
+        <v>0.301955</v>
       </c>
       <c r="C56" t="n">
-        <v>0.258938</v>
+        <v>0.25164</v>
       </c>
       <c r="D56" t="n">
-        <v>0.263409</v>
+        <v>0.266469</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.29318</v>
+        <v>0.290677</v>
       </c>
       <c r="C57" t="n">
-        <v>0.253756</v>
+        <v>0.251804</v>
       </c>
       <c r="D57" t="n">
-        <v>0.264932</v>
+        <v>0.261375</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.287592</v>
+        <v>0.286006</v>
       </c>
       <c r="C58" t="n">
-        <v>0.252889</v>
+        <v>0.24939</v>
       </c>
       <c r="D58" t="n">
-        <v>0.259505</v>
+        <v>0.264571</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.280637</v>
+        <v>0.283409</v>
       </c>
       <c r="C59" t="n">
-        <v>0.251388</v>
+        <v>0.249169</v>
       </c>
       <c r="D59" t="n">
-        <v>0.26047</v>
+        <v>0.262796</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.277565</v>
+        <v>0.276426</v>
       </c>
       <c r="C60" t="n">
-        <v>0.246504</v>
+        <v>0.251222</v>
       </c>
       <c r="D60" t="n">
-        <v>0.258949</v>
+        <v>0.2603</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.268704</v>
+        <v>0.266134</v>
       </c>
       <c r="C61" t="n">
-        <v>0.246722</v>
+        <v>0.245861</v>
       </c>
       <c r="D61" t="n">
-        <v>0.258326</v>
+        <v>0.257839</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.260909</v>
+        <v>0.259326</v>
       </c>
       <c r="C62" t="n">
-        <v>0.246483</v>
+        <v>0.243334</v>
       </c>
       <c r="D62" t="n">
-        <v>0.256183</v>
+        <v>0.25581</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.261038</v>
+        <v>0.255217</v>
       </c>
       <c r="C63" t="n">
-        <v>0.242293</v>
+        <v>0.24236</v>
       </c>
       <c r="D63" t="n">
-        <v>0.256376</v>
+        <v>0.254705</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.243984</v>
+        <v>0.24585</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2407</v>
+        <v>0.238812</v>
       </c>
       <c r="D64" t="n">
-        <v>0.254153</v>
+        <v>0.253735</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.239266</v>
+        <v>0.240918</v>
       </c>
       <c r="C65" t="n">
-        <v>0.238283</v>
+        <v>0.241364</v>
       </c>
       <c r="D65" t="n">
-        <v>0.254086</v>
+        <v>0.250338</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.226714</v>
+        <v>0.232134</v>
       </c>
       <c r="C66" t="n">
-        <v>0.242196</v>
+        <v>0.242127</v>
       </c>
       <c r="D66" t="n">
-        <v>0.278716</v>
+        <v>0.253811</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.328077</v>
+        <v>0.329197</v>
       </c>
       <c r="C67" t="n">
-        <v>0.27582</v>
+        <v>0.276172</v>
       </c>
       <c r="D67" t="n">
-        <v>0.276226</v>
+        <v>0.284425</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.321094</v>
+        <v>0.325448</v>
       </c>
       <c r="C68" t="n">
-        <v>0.266966</v>
+        <v>0.273721</v>
       </c>
       <c r="D68" t="n">
-        <v>0.277656</v>
+        <v>0.283616</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.316773</v>
+        <v>0.31718</v>
       </c>
       <c r="C69" t="n">
-        <v>0.262538</v>
+        <v>0.268549</v>
       </c>
       <c r="D69" t="n">
-        <v>0.271566</v>
+        <v>0.278965</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.310117</v>
+        <v>0.313113</v>
       </c>
       <c r="C70" t="n">
-        <v>0.267461</v>
+        <v>0.265292</v>
       </c>
       <c r="D70" t="n">
-        <v>0.26973</v>
+        <v>0.280769</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.302887</v>
+        <v>0.30509</v>
       </c>
       <c r="C71" t="n">
-        <v>0.260025</v>
+        <v>0.262212</v>
       </c>
       <c r="D71" t="n">
-        <v>0.269285</v>
+        <v>0.276684</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.299402</v>
+        <v>0.299657</v>
       </c>
       <c r="C72" t="n">
-        <v>0.257526</v>
+        <v>0.262341</v>
       </c>
       <c r="D72" t="n">
-        <v>0.270196</v>
+        <v>0.27636</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.290477</v>
+        <v>0.292065</v>
       </c>
       <c r="C73" t="n">
-        <v>0.255539</v>
+        <v>0.258785</v>
       </c>
       <c r="D73" t="n">
-        <v>0.264917</v>
+        <v>0.27171</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.280196</v>
+        <v>0.283896</v>
       </c>
       <c r="C74" t="n">
-        <v>0.249812</v>
+        <v>0.257328</v>
       </c>
       <c r="D74" t="n">
-        <v>0.266328</v>
+        <v>0.267823</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.275761</v>
+        <v>0.276699</v>
       </c>
       <c r="C75" t="n">
-        <v>0.256178</v>
+        <v>0.258602</v>
       </c>
       <c r="D75" t="n">
-        <v>0.260923</v>
+        <v>0.265798</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.271531</v>
+        <v>0.268622</v>
       </c>
       <c r="C76" t="n">
-        <v>0.247923</v>
+        <v>0.252374</v>
       </c>
       <c r="D76" t="n">
-        <v>0.25989</v>
+        <v>0.263585</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.260587</v>
+        <v>0.263156</v>
       </c>
       <c r="C77" t="n">
-        <v>0.248989</v>
+        <v>0.25132</v>
       </c>
       <c r="D77" t="n">
-        <v>0.25729</v>
+        <v>0.263548</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.257195</v>
+        <v>0.255761</v>
       </c>
       <c r="C78" t="n">
-        <v>0.250356</v>
+        <v>0.247709</v>
       </c>
       <c r="D78" t="n">
-        <v>0.261455</v>
+        <v>0.26319</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.243824</v>
+        <v>0.242463</v>
       </c>
       <c r="C79" t="n">
-        <v>0.245833</v>
+        <v>0.251839</v>
       </c>
       <c r="D79" t="n">
-        <v>0.257836</v>
+        <v>0.261493</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.236214</v>
+        <v>0.235952</v>
       </c>
       <c r="C80" t="n">
-        <v>0.244282</v>
+        <v>0.247084</v>
       </c>
       <c r="D80" t="n">
-        <v>0.284357</v>
+        <v>0.258276</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.334032</v>
+        <v>0.335106</v>
       </c>
       <c r="C81" t="n">
-        <v>0.276861</v>
+        <v>0.27372</v>
       </c>
       <c r="D81" t="n">
-        <v>0.281405</v>
+        <v>0.287641</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.327488</v>
+        <v>0.325224</v>
       </c>
       <c r="C82" t="n">
-        <v>0.272083</v>
+        <v>0.273415</v>
       </c>
       <c r="D82" t="n">
-        <v>0.284152</v>
+        <v>0.282423</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.319812</v>
+        <v>0.32614</v>
       </c>
       <c r="C83" t="n">
-        <v>0.277328</v>
+        <v>0.269333</v>
       </c>
       <c r="D83" t="n">
-        <v>0.280612</v>
+        <v>0.279666</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.32282</v>
+        <v>0.315581</v>
       </c>
       <c r="C84" t="n">
-        <v>0.269057</v>
+        <v>0.26851</v>
       </c>
       <c r="D84" t="n">
-        <v>0.275408</v>
+        <v>0.282602</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.311549</v>
+        <v>0.307596</v>
       </c>
       <c r="C85" t="n">
-        <v>0.263688</v>
+        <v>0.268684</v>
       </c>
       <c r="D85" t="n">
-        <v>0.272356</v>
+        <v>0.281146</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.302285</v>
+        <v>0.307601</v>
       </c>
       <c r="C86" t="n">
-        <v>0.25935</v>
+        <v>0.264543</v>
       </c>
       <c r="D86" t="n">
-        <v>0.275862</v>
+        <v>0.275513</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.293266</v>
+        <v>0.298274</v>
       </c>
       <c r="C87" t="n">
-        <v>0.260517</v>
+        <v>0.258819</v>
       </c>
       <c r="D87" t="n">
-        <v>0.270404</v>
+        <v>0.271167</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.287373</v>
+        <v>0.284715</v>
       </c>
       <c r="C88" t="n">
-        <v>0.255124</v>
+        <v>0.25773</v>
       </c>
       <c r="D88" t="n">
-        <v>0.268633</v>
+        <v>0.268655</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.279597</v>
+        <v>0.285284</v>
       </c>
       <c r="C89" t="n">
-        <v>0.257504</v>
+        <v>0.261365</v>
       </c>
       <c r="D89" t="n">
-        <v>0.265713</v>
+        <v>0.271383</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.277725</v>
+        <v>0.278263</v>
       </c>
       <c r="C90" t="n">
-        <v>0.255067</v>
+        <v>0.253818</v>
       </c>
       <c r="D90" t="n">
-        <v>0.265184</v>
+        <v>0.267507</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.266351</v>
+        <v>0.268283</v>
       </c>
       <c r="C91" t="n">
-        <v>0.251749</v>
+        <v>0.255407</v>
       </c>
       <c r="D91" t="n">
-        <v>0.262873</v>
+        <v>0.268159</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.26109</v>
+        <v>0.255084</v>
       </c>
       <c r="C92" t="n">
-        <v>0.252798</v>
+        <v>0.250497</v>
       </c>
       <c r="D92" t="n">
-        <v>0.261414</v>
+        <v>0.26323</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.251688</v>
+        <v>0.249499</v>
       </c>
       <c r="C93" t="n">
-        <v>0.250228</v>
+        <v>0.248129</v>
       </c>
       <c r="D93" t="n">
-        <v>0.259008</v>
+        <v>0.261758</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.244615</v>
+        <v>0.242006</v>
       </c>
       <c r="C94" t="n">
-        <v>0.251587</v>
+        <v>0.244975</v>
       </c>
       <c r="D94" t="n">
-        <v>0.289176</v>
+        <v>0.264019</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.334555</v>
+        <v>0.332695</v>
       </c>
       <c r="C95" t="n">
-        <v>0.276496</v>
+        <v>0.274918</v>
       </c>
       <c r="D95" t="n">
-        <v>0.282096</v>
+        <v>0.287507</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.326314</v>
+        <v>0.330489</v>
       </c>
       <c r="C96" t="n">
-        <v>0.27934</v>
+        <v>0.274079</v>
       </c>
       <c r="D96" t="n">
-        <v>0.28487</v>
+        <v>0.286442</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.3318</v>
+        <v>0.324402</v>
       </c>
       <c r="C97" t="n">
-        <v>0.27269</v>
+        <v>0.268963</v>
       </c>
       <c r="D97" t="n">
-        <v>0.283644</v>
+        <v>0.280383</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.314523</v>
+        <v>0.319074</v>
       </c>
       <c r="C98" t="n">
-        <v>0.268452</v>
+        <v>0.273701</v>
       </c>
       <c r="D98" t="n">
-        <v>0.275423</v>
+        <v>0.277634</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.317896</v>
+        <v>0.313655</v>
       </c>
       <c r="C99" t="n">
-        <v>0.266201</v>
+        <v>0.265975</v>
       </c>
       <c r="D99" t="n">
-        <v>0.277746</v>
+        <v>0.274489</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.306181</v>
+        <v>0.306124</v>
       </c>
       <c r="C100" t="n">
-        <v>0.262295</v>
+        <v>0.264273</v>
       </c>
       <c r="D100" t="n">
-        <v>0.278567</v>
+        <v>0.275535</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.303032</v>
+        <v>0.297397</v>
       </c>
       <c r="C101" t="n">
-        <v>0.262175</v>
+        <v>0.264696</v>
       </c>
       <c r="D101" t="n">
-        <v>0.272276</v>
+        <v>0.274509</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.290321</v>
+        <v>0.29053</v>
       </c>
       <c r="C102" t="n">
-        <v>0.26037</v>
+        <v>0.258699</v>
       </c>
       <c r="D102" t="n">
-        <v>0.269264</v>
+        <v>0.269273</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.285197</v>
+        <v>0.279575</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2607</v>
+        <v>0.259582</v>
       </c>
       <c r="D103" t="n">
-        <v>0.266874</v>
+        <v>0.268264</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.272848</v>
+        <v>0.273716</v>
       </c>
       <c r="C104" t="n">
-        <v>0.257626</v>
+        <v>0.25956</v>
       </c>
       <c r="D104" t="n">
-        <v>0.26417</v>
+        <v>0.268153</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.268566</v>
+        <v>0.267439</v>
       </c>
       <c r="C105" t="n">
-        <v>0.256376</v>
+        <v>0.254722</v>
       </c>
       <c r="D105" t="n">
-        <v>0.263824</v>
+        <v>0.264196</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.2609</v>
+        <v>0.259909</v>
       </c>
       <c r="C106" t="n">
-        <v>0.254782</v>
+        <v>0.252405</v>
       </c>
       <c r="D106" t="n">
-        <v>0.26337</v>
+        <v>0.263192</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.252215</v>
+        <v>0.2528</v>
       </c>
       <c r="C107" t="n">
-        <v>0.253326</v>
+        <v>0.250145</v>
       </c>
       <c r="D107" t="n">
-        <v>0.259281</v>
+        <v>0.25937</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.239053</v>
+        <v>0.241586</v>
       </c>
       <c r="C108" t="n">
-        <v>0.247004</v>
+        <v>0.249433</v>
       </c>
       <c r="D108" t="n">
-        <v>0.290723</v>
+        <v>0.261272</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.229618</v>
+        <v>0.231858</v>
       </c>
       <c r="C109" t="n">
-        <v>0.245556</v>
+        <v>0.248643</v>
       </c>
       <c r="D109" t="n">
-        <v>0.285434</v>
+        <v>0.258268</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.332111</v>
+        <v>0.33125</v>
       </c>
       <c r="C110" t="n">
-        <v>0.277382</v>
+        <v>0.274691</v>
       </c>
       <c r="D110" t="n">
-        <v>0.281314</v>
+        <v>0.286441</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.329778</v>
+        <v>0.326056</v>
       </c>
       <c r="C111" t="n">
-        <v>0.268895</v>
+        <v>0.273196</v>
       </c>
       <c r="D111" t="n">
-        <v>0.280213</v>
+        <v>0.283367</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.319448</v>
+        <v>0.315454</v>
       </c>
       <c r="C112" t="n">
-        <v>0.270854</v>
+        <v>0.270965</v>
       </c>
       <c r="D112" t="n">
-        <v>0.276372</v>
+        <v>0.282157</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.316529</v>
+        <v>0.31036</v>
       </c>
       <c r="C113" t="n">
-        <v>0.270815</v>
+        <v>0.26746</v>
       </c>
       <c r="D113" t="n">
-        <v>0.274699</v>
+        <v>0.276165</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.308858</v>
+        <v>0.309513</v>
       </c>
       <c r="C114" t="n">
-        <v>0.264737</v>
+        <v>0.269734</v>
       </c>
       <c r="D114" t="n">
-        <v>0.273386</v>
+        <v>0.278124</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.30205</v>
+        <v>0.302199</v>
       </c>
       <c r="C115" t="n">
-        <v>0.264757</v>
+        <v>0.266882</v>
       </c>
       <c r="D115" t="n">
-        <v>0.274862</v>
+        <v>0.27256</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.295701</v>
+        <v>0.291039</v>
       </c>
       <c r="C116" t="n">
-        <v>0.261653</v>
+        <v>0.25783</v>
       </c>
       <c r="D116" t="n">
-        <v>0.270945</v>
+        <v>0.270219</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.285406</v>
+        <v>0.282633</v>
       </c>
       <c r="C117" t="n">
-        <v>0.256244</v>
+        <v>0.261448</v>
       </c>
       <c r="D117" t="n">
-        <v>0.268677</v>
+        <v>0.272391</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.278823</v>
+        <v>0.277179</v>
       </c>
       <c r="C118" t="n">
-        <v>0.254954</v>
+        <v>0.264521</v>
       </c>
       <c r="D118" t="n">
-        <v>0.266111</v>
+        <v>0.271623</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.26549</v>
+        <v>0.275745</v>
       </c>
       <c r="C119" t="n">
-        <v>0.254643</v>
+        <v>0.251835</v>
       </c>
       <c r="D119" t="n">
-        <v>0.262731</v>
+        <v>0.269953</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.262456</v>
+        <v>0.263414</v>
       </c>
       <c r="C120" t="n">
-        <v>0.249897</v>
+        <v>0.254065</v>
       </c>
       <c r="D120" t="n">
-        <v>0.262998</v>
+        <v>0.267523</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.252964</v>
+        <v>0.251648</v>
       </c>
       <c r="C121" t="n">
-        <v>0.25066</v>
+        <v>0.254282</v>
       </c>
       <c r="D121" t="n">
-        <v>0.263821</v>
+        <v>0.260985</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.241741</v>
+        <v>0.245568</v>
       </c>
       <c r="C122" t="n">
-        <v>0.251318</v>
+        <v>0.246467</v>
       </c>
       <c r="D122" t="n">
-        <v>0.260352</v>
+        <v>0.259393</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.234736</v>
+        <v>0.233358</v>
       </c>
       <c r="C123" t="n">
-        <v>0.248111</v>
+        <v>0.248297</v>
       </c>
       <c r="D123" t="n">
-        <v>0.285268</v>
+        <v>0.264845</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.339553</v>
+        <v>0.333579</v>
       </c>
       <c r="C124" t="n">
-        <v>0.278037</v>
+        <v>0.276304</v>
       </c>
       <c r="D124" t="n">
-        <v>0.282733</v>
+        <v>0.284259</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.326647</v>
+        <v>0.34034</v>
       </c>
       <c r="C125" t="n">
-        <v>0.270925</v>
+        <v>0.28036</v>
       </c>
       <c r="D125" t="n">
-        <v>0.28239</v>
+        <v>0.283186</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.324119</v>
+        <v>0.321644</v>
       </c>
       <c r="C126" t="n">
-        <v>0.271888</v>
+        <v>0.273087</v>
       </c>
       <c r="D126" t="n">
-        <v>0.281825</v>
+        <v>0.28225</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.313903</v>
+        <v>0.3189</v>
       </c>
       <c r="C127" t="n">
-        <v>0.26783</v>
+        <v>0.268235</v>
       </c>
       <c r="D127" t="n">
-        <v>0.281114</v>
+        <v>0.276968</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.31164</v>
+        <v>0.305061</v>
       </c>
       <c r="C128" t="n">
-        <v>0.260835</v>
+        <v>0.268728</v>
       </c>
       <c r="D128" t="n">
-        <v>0.276769</v>
+        <v>0.276232</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.303137</v>
+        <v>0.299139</v>
       </c>
       <c r="C129" t="n">
-        <v>0.263865</v>
+        <v>0.269899</v>
       </c>
       <c r="D129" t="n">
-        <v>0.272766</v>
+        <v>0.277977</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.302515</v>
+        <v>0.288691</v>
       </c>
       <c r="C130" t="n">
-        <v>0.264578</v>
+        <v>0.26595</v>
       </c>
       <c r="D130" t="n">
-        <v>0.267518</v>
+        <v>0.272422</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.284057</v>
+        <v>0.290123</v>
       </c>
       <c r="C131" t="n">
-        <v>0.26192</v>
+        <v>0.259312</v>
       </c>
       <c r="D131" t="n">
-        <v>0.269815</v>
+        <v>0.268863</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.278234</v>
+        <v>0.279092</v>
       </c>
       <c r="C132" t="n">
-        <v>0.256472</v>
+        <v>0.260365</v>
       </c>
       <c r="D132" t="n">
-        <v>0.267209</v>
+        <v>0.271705</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.272079</v>
+        <v>0.268768</v>
       </c>
       <c r="C133" t="n">
-        <v>0.253183</v>
+        <v>0.258351</v>
       </c>
       <c r="D133" t="n">
-        <v>0.264345</v>
+        <v>0.267497</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.269067</v>
+        <v>0.263039</v>
       </c>
       <c r="C134" t="n">
-        <v>0.256432</v>
+        <v>0.252085</v>
       </c>
       <c r="D134" t="n">
-        <v>0.265405</v>
+        <v>0.266222</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.255137</v>
+        <v>0.255501</v>
       </c>
       <c r="C135" t="n">
-        <v>0.251434</v>
+        <v>0.248347</v>
       </c>
       <c r="D135" t="n">
-        <v>0.266292</v>
+        <v>0.262648</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.251619</v>
+        <v>0.244311</v>
       </c>
       <c r="C136" t="n">
-        <v>0.24745</v>
+        <v>0.249085</v>
       </c>
       <c r="D136" t="n">
-        <v>0.25919</v>
+        <v>0.263103</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.242287</v>
+        <v>0.236237</v>
       </c>
       <c r="C137" t="n">
-        <v>0.246962</v>
+        <v>0.246656</v>
       </c>
       <c r="D137" t="n">
-        <v>0.289631</v>
+        <v>0.260374</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.328951</v>
+        <v>0.328591</v>
       </c>
       <c r="C138" t="n">
-        <v>0.277606</v>
+        <v>0.280625</v>
       </c>
       <c r="D138" t="n">
-        <v>0.284902</v>
+        <v>0.292919</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.335821</v>
+        <v>0.32717</v>
       </c>
       <c r="C139" t="n">
-        <v>0.276201</v>
+        <v>0.27149</v>
       </c>
       <c r="D139" t="n">
-        <v>0.284025</v>
+        <v>0.286217</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.323237</v>
+        <v>0.3216</v>
       </c>
       <c r="C140" t="n">
-        <v>0.270224</v>
+        <v>0.273754</v>
       </c>
       <c r="D140" t="n">
-        <v>0.278145</v>
+        <v>0.283411</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.313559</v>
+        <v>0.318176</v>
       </c>
       <c r="C141" t="n">
-        <v>0.268582</v>
+        <v>0.269794</v>
       </c>
       <c r="D141" t="n">
-        <v>0.274373</v>
+        <v>0.280805</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.318504</v>
+        <v>0.307685</v>
       </c>
       <c r="C142" t="n">
-        <v>0.269032</v>
+        <v>0.265041</v>
       </c>
       <c r="D142" t="n">
-        <v>0.276146</v>
+        <v>0.274184</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.303047</v>
+        <v>0.30242</v>
       </c>
       <c r="C143" t="n">
-        <v>0.263185</v>
+        <v>0.266063</v>
       </c>
       <c r="D143" t="n">
-        <v>0.270834</v>
+        <v>0.276355</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.277506</v>
+        <v>0.276402</v>
       </c>
       <c r="C2" t="n">
-        <v>0.241347</v>
+        <v>0.237071</v>
       </c>
       <c r="D2" t="n">
-        <v>0.249959</v>
+        <v>0.242616</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.273479</v>
+        <v>0.26535</v>
       </c>
       <c r="C3" t="n">
-        <v>0.237253</v>
+        <v>0.235546</v>
       </c>
       <c r="D3" t="n">
-        <v>0.246366</v>
+        <v>0.25108</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.264768</v>
+        <v>0.273047</v>
       </c>
       <c r="C4" t="n">
-        <v>0.23614</v>
+        <v>0.238646</v>
       </c>
       <c r="D4" t="n">
-        <v>0.247777</v>
+        <v>0.249701</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.255492</v>
+        <v>0.258929</v>
       </c>
       <c r="C5" t="n">
-        <v>0.234275</v>
+        <v>0.236867</v>
       </c>
       <c r="D5" t="n">
-        <v>0.246935</v>
+        <v>0.247957</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.248221</v>
+        <v>0.250767</v>
       </c>
       <c r="C6" t="n">
-        <v>0.23143</v>
+        <v>0.233895</v>
       </c>
       <c r="D6" t="n">
-        <v>0.241442</v>
+        <v>0.247002</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.237542</v>
+        <v>0.243601</v>
       </c>
       <c r="C7" t="n">
-        <v>0.229118</v>
+        <v>0.232504</v>
       </c>
       <c r="D7" t="n">
-        <v>0.246076</v>
+        <v>0.242094</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.233741</v>
+        <v>0.228344</v>
       </c>
       <c r="C8" t="n">
-        <v>0.232096</v>
+        <v>0.235365</v>
       </c>
       <c r="D8" t="n">
-        <v>0.245711</v>
+        <v>0.241998</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.217529</v>
+        <v>0.21808</v>
       </c>
       <c r="C9" t="n">
-        <v>0.230256</v>
+        <v>0.230191</v>
       </c>
       <c r="D9" t="n">
-        <v>0.243187</v>
+        <v>0.24246</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.311726</v>
+        <v>0.309859</v>
       </c>
       <c r="C10" t="n">
-        <v>0.246947</v>
+        <v>0.243436</v>
       </c>
       <c r="D10" t="n">
-        <v>0.256143</v>
+        <v>0.25859</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.306302</v>
+        <v>0.304788</v>
       </c>
       <c r="C11" t="n">
-        <v>0.245597</v>
+        <v>0.242022</v>
       </c>
       <c r="D11" t="n">
-        <v>0.254637</v>
+        <v>0.253693</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2986</v>
+        <v>0.301112</v>
       </c>
       <c r="C12" t="n">
-        <v>0.241871</v>
+        <v>0.246366</v>
       </c>
       <c r="D12" t="n">
-        <v>0.251497</v>
+        <v>0.254689</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.296917</v>
+        <v>0.292327</v>
       </c>
       <c r="C13" t="n">
-        <v>0.242213</v>
+        <v>0.241741</v>
       </c>
       <c r="D13" t="n">
-        <v>0.250333</v>
+        <v>0.255313</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.289823</v>
+        <v>0.290164</v>
       </c>
       <c r="C14" t="n">
-        <v>0.237864</v>
+        <v>0.241607</v>
       </c>
       <c r="D14" t="n">
-        <v>0.253245</v>
+        <v>0.25352</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.28186</v>
+        <v>0.283234</v>
       </c>
       <c r="C15" t="n">
-        <v>0.237982</v>
+        <v>0.240928</v>
       </c>
       <c r="D15" t="n">
-        <v>0.252722</v>
+        <v>0.247816</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.275213</v>
+        <v>0.273933</v>
       </c>
       <c r="C16" t="n">
-        <v>0.238851</v>
+        <v>0.239705</v>
       </c>
       <c r="D16" t="n">
-        <v>0.248784</v>
+        <v>0.247425</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.267513</v>
+        <v>0.267476</v>
       </c>
       <c r="C17" t="n">
-        <v>0.238319</v>
+        <v>0.235854</v>
       </c>
       <c r="D17" t="n">
-        <v>0.249072</v>
+        <v>0.2502</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.262233</v>
+        <v>0.262381</v>
       </c>
       <c r="C18" t="n">
-        <v>0.239364</v>
+        <v>0.234122</v>
       </c>
       <c r="D18" t="n">
-        <v>0.246399</v>
+        <v>0.249249</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.254638</v>
+        <v>0.253338</v>
       </c>
       <c r="C19" t="n">
-        <v>0.238299</v>
+        <v>0.234444</v>
       </c>
       <c r="D19" t="n">
-        <v>0.247438</v>
+        <v>0.244115</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.248402</v>
+        <v>0.248053</v>
       </c>
       <c r="C20" t="n">
-        <v>0.236359</v>
+        <v>0.234715</v>
       </c>
       <c r="D20" t="n">
-        <v>0.246604</v>
+        <v>0.247088</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.239863</v>
+        <v>0.243765</v>
       </c>
       <c r="C21" t="n">
-        <v>0.232812</v>
+        <v>0.230569</v>
       </c>
       <c r="D21" t="n">
-        <v>0.244569</v>
+        <v>0.245441</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.230569</v>
+        <v>0.23245</v>
       </c>
       <c r="C22" t="n">
-        <v>0.236729</v>
+        <v>0.23226</v>
       </c>
       <c r="D22" t="n">
-        <v>0.245873</v>
+        <v>0.243366</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.223276</v>
+        <v>0.225332</v>
       </c>
       <c r="C23" t="n">
-        <v>0.231791</v>
+        <v>0.229689</v>
       </c>
       <c r="D23" t="n">
-        <v>0.243357</v>
+        <v>0.239999</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.307843</v>
+        <v>0.310677</v>
       </c>
       <c r="C24" t="n">
-        <v>0.248592</v>
+        <v>0.251981</v>
       </c>
       <c r="D24" t="n">
-        <v>0.259976</v>
+        <v>0.264019</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.305072</v>
+        <v>0.305109</v>
       </c>
       <c r="C25" t="n">
-        <v>0.249338</v>
+        <v>0.251943</v>
       </c>
       <c r="D25" t="n">
-        <v>0.260263</v>
+        <v>0.262855</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.296532</v>
+        <v>0.298511</v>
       </c>
       <c r="C26" t="n">
-        <v>0.247814</v>
+        <v>0.250507</v>
       </c>
       <c r="D26" t="n">
-        <v>0.257194</v>
+        <v>0.258881</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.294675</v>
+        <v>0.292785</v>
       </c>
       <c r="C27" t="n">
-        <v>0.244116</v>
+        <v>0.248661</v>
       </c>
       <c r="D27" t="n">
-        <v>0.260343</v>
+        <v>0.25792</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.284954</v>
+        <v>0.288838</v>
       </c>
       <c r="C28" t="n">
-        <v>0.241997</v>
+        <v>0.246375</v>
       </c>
       <c r="D28" t="n">
-        <v>0.252423</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.281735</v>
+        <v>0.285766</v>
       </c>
       <c r="C29" t="n">
-        <v>0.244911</v>
+        <v>0.242506</v>
       </c>
       <c r="D29" t="n">
-        <v>0.252112</v>
+        <v>0.253548</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.276999</v>
+        <v>0.278454</v>
       </c>
       <c r="C30" t="n">
-        <v>0.239991</v>
+        <v>0.239128</v>
       </c>
       <c r="D30" t="n">
-        <v>0.250246</v>
+        <v>0.250479</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.270116</v>
+        <v>0.270999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.237811</v>
+        <v>0.237856</v>
       </c>
       <c r="D31" t="n">
-        <v>0.251979</v>
+        <v>0.253022</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.265001</v>
+        <v>0.262899</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2385</v>
+        <v>0.240544</v>
       </c>
       <c r="D32" t="n">
-        <v>0.250398</v>
+        <v>0.251264</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.255098</v>
+        <v>0.257629</v>
       </c>
       <c r="C33" t="n">
-        <v>0.237485</v>
+        <v>0.235057</v>
       </c>
       <c r="D33" t="n">
-        <v>0.247235</v>
+        <v>0.247827</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.252674</v>
+        <v>0.246604</v>
       </c>
       <c r="C34" t="n">
-        <v>0.235508</v>
+        <v>0.23855</v>
       </c>
       <c r="D34" t="n">
-        <v>0.250962</v>
+        <v>0.245511</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.241885</v>
+        <v>0.243186</v>
       </c>
       <c r="C35" t="n">
-        <v>0.232655</v>
+        <v>0.234253</v>
       </c>
       <c r="D35" t="n">
-        <v>0.246901</v>
+        <v>0.24846</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.235473</v>
+        <v>0.236186</v>
       </c>
       <c r="C36" t="n">
-        <v>0.234417</v>
+        <v>0.235392</v>
       </c>
       <c r="D36" t="n">
-        <v>0.24518</v>
+        <v>0.244685</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.227297</v>
+        <v>0.228206</v>
       </c>
       <c r="C37" t="n">
-        <v>0.232899</v>
+        <v>0.232169</v>
       </c>
       <c r="D37" t="n">
-        <v>0.249599</v>
+        <v>0.243924</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.311662</v>
+        <v>0.309231</v>
       </c>
       <c r="C38" t="n">
-        <v>0.25146</v>
+        <v>0.254436</v>
       </c>
       <c r="D38" t="n">
-        <v>0.267369</v>
+        <v>0.264584</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.307938</v>
+        <v>0.307421</v>
       </c>
       <c r="C39" t="n">
-        <v>0.253333</v>
+        <v>0.256792</v>
       </c>
       <c r="D39" t="n">
-        <v>0.262902</v>
+        <v>0.268342</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.304297</v>
+        <v>0.304291</v>
       </c>
       <c r="C40" t="n">
-        <v>0.248047</v>
+        <v>0.250944</v>
       </c>
       <c r="D40" t="n">
-        <v>0.262933</v>
+        <v>0.266929</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.301675</v>
+        <v>0.298431</v>
       </c>
       <c r="C41" t="n">
-        <v>0.251344</v>
+        <v>0.250356</v>
       </c>
       <c r="D41" t="n">
-        <v>0.272223</v>
+        <v>0.261019</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.300315</v>
+        <v>0.288705</v>
       </c>
       <c r="C42" t="n">
-        <v>0.257501</v>
+        <v>0.251263</v>
       </c>
       <c r="D42" t="n">
-        <v>0.265882</v>
+        <v>0.260265</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.303535</v>
+        <v>0.285002</v>
       </c>
       <c r="C43" t="n">
-        <v>0.253085</v>
+        <v>0.246968</v>
       </c>
       <c r="D43" t="n">
-        <v>0.268455</v>
+        <v>0.25759</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.288994</v>
+        <v>0.279996</v>
       </c>
       <c r="C44" t="n">
-        <v>0.250572</v>
+        <v>0.247065</v>
       </c>
       <c r="D44" t="n">
-        <v>0.257597</v>
+        <v>0.260043</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.276311</v>
+        <v>0.274313</v>
       </c>
       <c r="C45" t="n">
-        <v>0.245454</v>
+        <v>0.246416</v>
       </c>
       <c r="D45" t="n">
-        <v>0.255964</v>
+        <v>0.25886</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.270791</v>
+        <v>0.265041</v>
       </c>
       <c r="C46" t="n">
-        <v>0.239788</v>
+        <v>0.244842</v>
       </c>
       <c r="D46" t="n">
-        <v>0.253402</v>
+        <v>0.258186</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.263967</v>
+        <v>0.263208</v>
       </c>
       <c r="C47" t="n">
-        <v>0.24145</v>
+        <v>0.24211</v>
       </c>
       <c r="D47" t="n">
-        <v>0.256647</v>
+        <v>0.2554</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.252041</v>
+        <v>0.254063</v>
       </c>
       <c r="C48" t="n">
-        <v>0.241879</v>
+        <v>0.240475</v>
       </c>
       <c r="D48" t="n">
-        <v>0.249991</v>
+        <v>0.258759</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.248008</v>
+        <v>0.245147</v>
       </c>
       <c r="C49" t="n">
-        <v>0.242634</v>
+        <v>0.240472</v>
       </c>
       <c r="D49" t="n">
-        <v>0.249546</v>
+        <v>0.253188</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.23889</v>
+        <v>0.241686</v>
       </c>
       <c r="C50" t="n">
-        <v>0.238236</v>
+        <v>0.235726</v>
       </c>
       <c r="D50" t="n">
-        <v>0.250925</v>
+        <v>0.248589</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.232307</v>
+        <v>0.228898</v>
       </c>
       <c r="C51" t="n">
-        <v>0.237003</v>
+        <v>0.235337</v>
       </c>
       <c r="D51" t="n">
-        <v>0.252796</v>
+        <v>0.251026</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.223262</v>
+        <v>0.221989</v>
       </c>
       <c r="C52" t="n">
-        <v>0.237635</v>
+        <v>0.234395</v>
       </c>
       <c r="D52" t="n">
-        <v>0.250571</v>
+        <v>0.24969</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.316074</v>
+        <v>0.312827</v>
       </c>
       <c r="C53" t="n">
-        <v>0.262752</v>
+        <v>0.259497</v>
       </c>
       <c r="D53" t="n">
-        <v>0.273982</v>
+        <v>0.271845</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.307865</v>
+        <v>0.311341</v>
       </c>
       <c r="C54" t="n">
-        <v>0.257936</v>
+        <v>0.256646</v>
       </c>
       <c r="D54" t="n">
-        <v>0.267401</v>
+        <v>0.270533</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.304041</v>
+        <v>0.306371</v>
       </c>
       <c r="C55" t="n">
-        <v>0.258811</v>
+        <v>0.258129</v>
       </c>
       <c r="D55" t="n">
-        <v>0.266463</v>
+        <v>0.26862</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.301955</v>
+        <v>0.30283</v>
       </c>
       <c r="C56" t="n">
-        <v>0.25164</v>
+        <v>0.253385</v>
       </c>
       <c r="D56" t="n">
-        <v>0.266469</v>
+        <v>0.264827</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.290677</v>
+        <v>0.29646</v>
       </c>
       <c r="C57" t="n">
-        <v>0.251804</v>
+        <v>0.251231</v>
       </c>
       <c r="D57" t="n">
-        <v>0.261375</v>
+        <v>0.26551</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.286006</v>
+        <v>0.287377</v>
       </c>
       <c r="C58" t="n">
-        <v>0.24939</v>
+        <v>0.251202</v>
       </c>
       <c r="D58" t="n">
-        <v>0.264571</v>
+        <v>0.262995</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.283409</v>
+        <v>0.277962</v>
       </c>
       <c r="C59" t="n">
-        <v>0.249169</v>
+        <v>0.248671</v>
       </c>
       <c r="D59" t="n">
-        <v>0.262796</v>
+        <v>0.261133</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.276426</v>
+        <v>0.276464</v>
       </c>
       <c r="C60" t="n">
-        <v>0.251222</v>
+        <v>0.248644</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2603</v>
+        <v>0.262645</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.266134</v>
+        <v>0.266996</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245861</v>
+        <v>0.246729</v>
       </c>
       <c r="D61" t="n">
-        <v>0.257839</v>
+        <v>0.259709</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.259326</v>
+        <v>0.260439</v>
       </c>
       <c r="C62" t="n">
-        <v>0.243334</v>
+        <v>0.242198</v>
       </c>
       <c r="D62" t="n">
-        <v>0.25581</v>
+        <v>0.253502</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.255217</v>
+        <v>0.24998</v>
       </c>
       <c r="C63" t="n">
-        <v>0.24236</v>
+        <v>0.244789</v>
       </c>
       <c r="D63" t="n">
-        <v>0.254705</v>
+        <v>0.254807</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.24585</v>
+        <v>0.247944</v>
       </c>
       <c r="C64" t="n">
-        <v>0.238812</v>
+        <v>0.240339</v>
       </c>
       <c r="D64" t="n">
-        <v>0.253735</v>
+        <v>0.255644</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.240918</v>
+        <v>0.24025</v>
       </c>
       <c r="C65" t="n">
-        <v>0.241364</v>
+        <v>0.239443</v>
       </c>
       <c r="D65" t="n">
-        <v>0.250338</v>
+        <v>0.257639</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.232134</v>
+        <v>0.231251</v>
       </c>
       <c r="C66" t="n">
-        <v>0.242127</v>
+        <v>0.23844</v>
       </c>
       <c r="D66" t="n">
-        <v>0.253811</v>
+        <v>0.250987</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.329197</v>
+        <v>0.327903</v>
       </c>
       <c r="C67" t="n">
-        <v>0.276172</v>
+        <v>0.274924</v>
       </c>
       <c r="D67" t="n">
-        <v>0.284425</v>
+        <v>0.27974</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.325448</v>
+        <v>0.323439</v>
       </c>
       <c r="C68" t="n">
-        <v>0.273721</v>
+        <v>0.270586</v>
       </c>
       <c r="D68" t="n">
-        <v>0.283616</v>
+        <v>0.279536</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.31718</v>
+        <v>0.318711</v>
       </c>
       <c r="C69" t="n">
-        <v>0.268549</v>
+        <v>0.262193</v>
       </c>
       <c r="D69" t="n">
-        <v>0.278965</v>
+        <v>0.272874</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.313113</v>
+        <v>0.314684</v>
       </c>
       <c r="C70" t="n">
-        <v>0.265292</v>
+        <v>0.260908</v>
       </c>
       <c r="D70" t="n">
-        <v>0.280769</v>
+        <v>0.277873</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.30509</v>
+        <v>0.303063</v>
       </c>
       <c r="C71" t="n">
-        <v>0.262212</v>
+        <v>0.26188</v>
       </c>
       <c r="D71" t="n">
-        <v>0.276684</v>
+        <v>0.271218</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.299657</v>
+        <v>0.298579</v>
       </c>
       <c r="C72" t="n">
-        <v>0.262341</v>
+        <v>0.257021</v>
       </c>
       <c r="D72" t="n">
-        <v>0.27636</v>
+        <v>0.267413</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.292065</v>
+        <v>0.288731</v>
       </c>
       <c r="C73" t="n">
-        <v>0.258785</v>
+        <v>0.255596</v>
       </c>
       <c r="D73" t="n">
-        <v>0.27171</v>
+        <v>0.266385</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.283896</v>
+        <v>0.288322</v>
       </c>
       <c r="C74" t="n">
-        <v>0.257328</v>
+        <v>0.258052</v>
       </c>
       <c r="D74" t="n">
-        <v>0.267823</v>
+        <v>0.269613</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.276699</v>
+        <v>0.275546</v>
       </c>
       <c r="C75" t="n">
-        <v>0.258602</v>
+        <v>0.255176</v>
       </c>
       <c r="D75" t="n">
-        <v>0.265798</v>
+        <v>0.264537</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.268622</v>
+        <v>0.26819</v>
       </c>
       <c r="C76" t="n">
-        <v>0.252374</v>
+        <v>0.247835</v>
       </c>
       <c r="D76" t="n">
-        <v>0.263585</v>
+        <v>0.263175</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.263156</v>
+        <v>0.259586</v>
       </c>
       <c r="C77" t="n">
-        <v>0.25132</v>
+        <v>0.246645</v>
       </c>
       <c r="D77" t="n">
-        <v>0.263548</v>
+        <v>0.259159</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.255761</v>
+        <v>0.253225</v>
       </c>
       <c r="C78" t="n">
-        <v>0.247709</v>
+        <v>0.248914</v>
       </c>
       <c r="D78" t="n">
-        <v>0.26319</v>
+        <v>0.259571</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.242463</v>
+        <v>0.246303</v>
       </c>
       <c r="C79" t="n">
-        <v>0.251839</v>
+        <v>0.244733</v>
       </c>
       <c r="D79" t="n">
-        <v>0.261493</v>
+        <v>0.259998</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.235952</v>
+        <v>0.234649</v>
       </c>
       <c r="C80" t="n">
-        <v>0.247084</v>
+        <v>0.244353</v>
       </c>
       <c r="D80" t="n">
-        <v>0.258276</v>
+        <v>0.26174</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.335106</v>
+        <v>0.334248</v>
       </c>
       <c r="C81" t="n">
-        <v>0.27372</v>
+        <v>0.278233</v>
       </c>
       <c r="D81" t="n">
-        <v>0.287641</v>
+        <v>0.291634</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.325224</v>
+        <v>0.331208</v>
       </c>
       <c r="C82" t="n">
-        <v>0.273415</v>
+        <v>0.273523</v>
       </c>
       <c r="D82" t="n">
-        <v>0.282423</v>
+        <v>0.283205</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.32614</v>
+        <v>0.321435</v>
       </c>
       <c r="C83" t="n">
-        <v>0.269333</v>
+        <v>0.267287</v>
       </c>
       <c r="D83" t="n">
-        <v>0.279666</v>
+        <v>0.280717</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.315581</v>
+        <v>0.316315</v>
       </c>
       <c r="C84" t="n">
-        <v>0.26851</v>
+        <v>0.268255</v>
       </c>
       <c r="D84" t="n">
-        <v>0.282602</v>
+        <v>0.279044</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.307596</v>
+        <v>0.308492</v>
       </c>
       <c r="C85" t="n">
-        <v>0.268684</v>
+        <v>0.264094</v>
       </c>
       <c r="D85" t="n">
-        <v>0.281146</v>
+        <v>0.277376</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.307601</v>
+        <v>0.302412</v>
       </c>
       <c r="C86" t="n">
-        <v>0.264543</v>
+        <v>0.26048</v>
       </c>
       <c r="D86" t="n">
-        <v>0.275513</v>
+        <v>0.272225</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.298274</v>
+        <v>0.292436</v>
       </c>
       <c r="C87" t="n">
-        <v>0.258819</v>
+        <v>0.262435</v>
       </c>
       <c r="D87" t="n">
-        <v>0.271167</v>
+        <v>0.275317</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.284715</v>
+        <v>0.284757</v>
       </c>
       <c r="C88" t="n">
-        <v>0.25773</v>
+        <v>0.257716</v>
       </c>
       <c r="D88" t="n">
-        <v>0.268655</v>
+        <v>0.26706</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.285284</v>
+        <v>0.278008</v>
       </c>
       <c r="C89" t="n">
-        <v>0.261365</v>
+        <v>0.253313</v>
       </c>
       <c r="D89" t="n">
-        <v>0.271383</v>
+        <v>0.266347</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.278263</v>
+        <v>0.272077</v>
       </c>
       <c r="C90" t="n">
-        <v>0.253818</v>
+        <v>0.255477</v>
       </c>
       <c r="D90" t="n">
-        <v>0.267507</v>
+        <v>0.270911</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.268283</v>
+        <v>0.267407</v>
       </c>
       <c r="C91" t="n">
-        <v>0.255407</v>
+        <v>0.251205</v>
       </c>
       <c r="D91" t="n">
-        <v>0.268159</v>
+        <v>0.268548</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.255084</v>
+        <v>0.256392</v>
       </c>
       <c r="C92" t="n">
-        <v>0.250497</v>
+        <v>0.2529</v>
       </c>
       <c r="D92" t="n">
-        <v>0.26323</v>
+        <v>0.264923</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.249499</v>
+        <v>0.251487</v>
       </c>
       <c r="C93" t="n">
-        <v>0.248129</v>
+        <v>0.250289</v>
       </c>
       <c r="D93" t="n">
-        <v>0.261758</v>
+        <v>0.264864</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.242006</v>
+        <v>0.239076</v>
       </c>
       <c r="C94" t="n">
-        <v>0.244975</v>
+        <v>0.247943</v>
       </c>
       <c r="D94" t="n">
-        <v>0.264019</v>
+        <v>0.260438</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.332695</v>
+        <v>0.332703</v>
       </c>
       <c r="C95" t="n">
-        <v>0.274918</v>
+        <v>0.275569</v>
       </c>
       <c r="D95" t="n">
-        <v>0.287507</v>
+        <v>0.286875</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.330489</v>
+        <v>0.332003</v>
       </c>
       <c r="C96" t="n">
-        <v>0.274079</v>
+        <v>0.272853</v>
       </c>
       <c r="D96" t="n">
-        <v>0.286442</v>
+        <v>0.285383</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.324402</v>
+        <v>0.325054</v>
       </c>
       <c r="C97" t="n">
-        <v>0.268963</v>
+        <v>0.271978</v>
       </c>
       <c r="D97" t="n">
-        <v>0.280383</v>
+        <v>0.284519</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.319074</v>
+        <v>0.320023</v>
       </c>
       <c r="C98" t="n">
-        <v>0.273701</v>
+        <v>0.27059</v>
       </c>
       <c r="D98" t="n">
-        <v>0.277634</v>
+        <v>0.282388</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.313655</v>
+        <v>0.310723</v>
       </c>
       <c r="C99" t="n">
-        <v>0.265975</v>
+        <v>0.264875</v>
       </c>
       <c r="D99" t="n">
-        <v>0.274489</v>
+        <v>0.275195</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.306124</v>
+        <v>0.301432</v>
       </c>
       <c r="C100" t="n">
-        <v>0.264273</v>
+        <v>0.261271</v>
       </c>
       <c r="D100" t="n">
-        <v>0.275535</v>
+        <v>0.276107</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.297397</v>
+        <v>0.298263</v>
       </c>
       <c r="C101" t="n">
-        <v>0.264696</v>
+        <v>0.265021</v>
       </c>
       <c r="D101" t="n">
-        <v>0.274509</v>
+        <v>0.272694</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.29053</v>
+        <v>0.290922</v>
       </c>
       <c r="C102" t="n">
-        <v>0.258699</v>
+        <v>0.259523</v>
       </c>
       <c r="D102" t="n">
-        <v>0.269273</v>
+        <v>0.270479</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.279575</v>
+        <v>0.2844</v>
       </c>
       <c r="C103" t="n">
-        <v>0.259582</v>
+        <v>0.263011</v>
       </c>
       <c r="D103" t="n">
-        <v>0.268264</v>
+        <v>0.269794</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.273716</v>
+        <v>0.279153</v>
       </c>
       <c r="C104" t="n">
-        <v>0.25956</v>
+        <v>0.255516</v>
       </c>
       <c r="D104" t="n">
-        <v>0.268153</v>
+        <v>0.266483</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.267439</v>
+        <v>0.269506</v>
       </c>
       <c r="C105" t="n">
-        <v>0.254722</v>
+        <v>0.250116</v>
       </c>
       <c r="D105" t="n">
-        <v>0.264196</v>
+        <v>0.26572</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.259909</v>
+        <v>0.259607</v>
       </c>
       <c r="C106" t="n">
-        <v>0.252405</v>
+        <v>0.252437</v>
       </c>
       <c r="D106" t="n">
-        <v>0.263192</v>
+        <v>0.263393</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.2528</v>
+        <v>0.248819</v>
       </c>
       <c r="C107" t="n">
-        <v>0.250145</v>
+        <v>0.249351</v>
       </c>
       <c r="D107" t="n">
-        <v>0.25937</v>
+        <v>0.264095</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.241586</v>
+        <v>0.240372</v>
       </c>
       <c r="C108" t="n">
-        <v>0.249433</v>
+        <v>0.246946</v>
       </c>
       <c r="D108" t="n">
-        <v>0.261272</v>
+        <v>0.259286</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.231858</v>
+        <v>0.230401</v>
       </c>
       <c r="C109" t="n">
-        <v>0.248643</v>
+        <v>0.24645</v>
       </c>
       <c r="D109" t="n">
-        <v>0.258268</v>
+        <v>0.25663</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.33125</v>
+        <v>0.33546</v>
       </c>
       <c r="C110" t="n">
-        <v>0.274691</v>
+        <v>0.274344</v>
       </c>
       <c r="D110" t="n">
-        <v>0.286441</v>
+        <v>0.290948</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.326056</v>
+        <v>0.325985</v>
       </c>
       <c r="C111" t="n">
-        <v>0.273196</v>
+        <v>0.269538</v>
       </c>
       <c r="D111" t="n">
-        <v>0.283367</v>
+        <v>0.285446</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.315454</v>
+        <v>0.320355</v>
       </c>
       <c r="C112" t="n">
-        <v>0.270965</v>
+        <v>0.268355</v>
       </c>
       <c r="D112" t="n">
-        <v>0.282157</v>
+        <v>0.284632</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.31036</v>
+        <v>0.310605</v>
       </c>
       <c r="C113" t="n">
-        <v>0.26746</v>
+        <v>0.266716</v>
       </c>
       <c r="D113" t="n">
-        <v>0.276165</v>
+        <v>0.281275</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.309513</v>
+        <v>0.301924</v>
       </c>
       <c r="C114" t="n">
-        <v>0.269734</v>
+        <v>0.264277</v>
       </c>
       <c r="D114" t="n">
-        <v>0.278124</v>
+        <v>0.276892</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.302199</v>
+        <v>0.303896</v>
       </c>
       <c r="C115" t="n">
-        <v>0.266882</v>
+        <v>0.260352</v>
       </c>
       <c r="D115" t="n">
-        <v>0.27256</v>
+        <v>0.274719</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.291039</v>
+        <v>0.289308</v>
       </c>
       <c r="C116" t="n">
-        <v>0.25783</v>
+        <v>0.260839</v>
       </c>
       <c r="D116" t="n">
-        <v>0.270219</v>
+        <v>0.272587</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.282633</v>
+        <v>0.285681</v>
       </c>
       <c r="C117" t="n">
-        <v>0.261448</v>
+        <v>0.253802</v>
       </c>
       <c r="D117" t="n">
-        <v>0.272391</v>
+        <v>0.270616</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.277179</v>
+        <v>0.28222</v>
       </c>
       <c r="C118" t="n">
-        <v>0.264521</v>
+        <v>0.25789</v>
       </c>
       <c r="D118" t="n">
-        <v>0.271623</v>
+        <v>0.27186</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.275745</v>
+        <v>0.267822</v>
       </c>
       <c r="C119" t="n">
-        <v>0.251835</v>
+        <v>0.254692</v>
       </c>
       <c r="D119" t="n">
-        <v>0.269953</v>
+        <v>0.268304</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263414</v>
+        <v>0.261457</v>
       </c>
       <c r="C120" t="n">
-        <v>0.254065</v>
+        <v>0.248265</v>
       </c>
       <c r="D120" t="n">
-        <v>0.267523</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.251648</v>
+        <v>0.255205</v>
       </c>
       <c r="C121" t="n">
-        <v>0.254282</v>
+        <v>0.250287</v>
       </c>
       <c r="D121" t="n">
-        <v>0.260985</v>
+        <v>0.261962</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.245568</v>
+        <v>0.246724</v>
       </c>
       <c r="C122" t="n">
-        <v>0.246467</v>
+        <v>0.246083</v>
       </c>
       <c r="D122" t="n">
-        <v>0.259393</v>
+        <v>0.265092</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233358</v>
+        <v>0.240558</v>
       </c>
       <c r="C123" t="n">
-        <v>0.248297</v>
+        <v>0.24497</v>
       </c>
       <c r="D123" t="n">
-        <v>0.264845</v>
+        <v>0.257574</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.333579</v>
+        <v>0.333807</v>
       </c>
       <c r="C124" t="n">
-        <v>0.276304</v>
+        <v>0.278697</v>
       </c>
       <c r="D124" t="n">
-        <v>0.284259</v>
+        <v>0.289778</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.34034</v>
+        <v>0.329887</v>
       </c>
       <c r="C125" t="n">
-        <v>0.28036</v>
+        <v>0.272991</v>
       </c>
       <c r="D125" t="n">
-        <v>0.283186</v>
+        <v>0.286785</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.321644</v>
+        <v>0.325676</v>
       </c>
       <c r="C126" t="n">
-        <v>0.273087</v>
+        <v>0.271394</v>
       </c>
       <c r="D126" t="n">
-        <v>0.28225</v>
+        <v>0.283664</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3189</v>
+        <v>0.317312</v>
       </c>
       <c r="C127" t="n">
-        <v>0.268235</v>
+        <v>0.267888</v>
       </c>
       <c r="D127" t="n">
-        <v>0.276968</v>
+        <v>0.278025</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.305061</v>
+        <v>0.306486</v>
       </c>
       <c r="C128" t="n">
-        <v>0.268728</v>
+        <v>0.2779</v>
       </c>
       <c r="D128" t="n">
-        <v>0.276232</v>
+        <v>0.276943</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.299139</v>
+        <v>0.306831</v>
       </c>
       <c r="C129" t="n">
-        <v>0.269899</v>
+        <v>0.266959</v>
       </c>
       <c r="D129" t="n">
-        <v>0.277977</v>
+        <v>0.284776</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.288691</v>
+        <v>0.289188</v>
       </c>
       <c r="C130" t="n">
-        <v>0.26595</v>
+        <v>0.261271</v>
       </c>
       <c r="D130" t="n">
-        <v>0.272422</v>
+        <v>0.275297</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.290123</v>
+        <v>0.284579</v>
       </c>
       <c r="C131" t="n">
-        <v>0.259312</v>
+        <v>0.256271</v>
       </c>
       <c r="D131" t="n">
-        <v>0.268863</v>
+        <v>0.267368</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.279092</v>
+        <v>0.27863</v>
       </c>
       <c r="C132" t="n">
-        <v>0.260365</v>
+        <v>0.253572</v>
       </c>
       <c r="D132" t="n">
-        <v>0.271705</v>
+        <v>0.274854</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.268768</v>
+        <v>0.270278</v>
       </c>
       <c r="C133" t="n">
-        <v>0.258351</v>
+        <v>0.253792</v>
       </c>
       <c r="D133" t="n">
-        <v>0.267497</v>
+        <v>0.266426</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.263039</v>
+        <v>0.267359</v>
       </c>
       <c r="C134" t="n">
-        <v>0.252085</v>
+        <v>0.250972</v>
       </c>
       <c r="D134" t="n">
-        <v>0.266222</v>
+        <v>0.262139</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.255501</v>
+        <v>0.255689</v>
       </c>
       <c r="C135" t="n">
-        <v>0.248347</v>
+        <v>0.246858</v>
       </c>
       <c r="D135" t="n">
-        <v>0.262648</v>
+        <v>0.260357</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.244311</v>
+        <v>0.256612</v>
       </c>
       <c r="C136" t="n">
-        <v>0.249085</v>
+        <v>0.245587</v>
       </c>
       <c r="D136" t="n">
-        <v>0.263103</v>
+        <v>0.259466</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.236237</v>
+        <v>0.242556</v>
       </c>
       <c r="C137" t="n">
-        <v>0.246656</v>
+        <v>0.244667</v>
       </c>
       <c r="D137" t="n">
-        <v>0.260374</v>
+        <v>0.258348</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.328591</v>
+        <v>0.334557</v>
       </c>
       <c r="C138" t="n">
-        <v>0.280625</v>
+        <v>0.277571</v>
       </c>
       <c r="D138" t="n">
-        <v>0.292919</v>
+        <v>0.292835</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.32717</v>
+        <v>0.324538</v>
       </c>
       <c r="C139" t="n">
-        <v>0.27149</v>
+        <v>0.269744</v>
       </c>
       <c r="D139" t="n">
-        <v>0.286217</v>
+        <v>0.282631</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.3216</v>
+        <v>0.324378</v>
       </c>
       <c r="C140" t="n">
-        <v>0.273754</v>
+        <v>0.274614</v>
       </c>
       <c r="D140" t="n">
-        <v>0.283411</v>
+        <v>0.283417</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.318176</v>
+        <v>0.317828</v>
       </c>
       <c r="C141" t="n">
-        <v>0.269794</v>
+        <v>0.268213</v>
       </c>
       <c r="D141" t="n">
-        <v>0.280805</v>
+        <v>0.278332</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.307685</v>
+        <v>0.312938</v>
       </c>
       <c r="C142" t="n">
-        <v>0.265041</v>
+        <v>0.264679</v>
       </c>
       <c r="D142" t="n">
-        <v>0.274184</v>
+        <v>0.276035</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.30242</v>
+        <v>0.300985</v>
       </c>
       <c r="C143" t="n">
-        <v>0.266063</v>
+        <v>0.262051</v>
       </c>
       <c r="D143" t="n">
-        <v>0.276355</v>
+        <v>0.277065</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.276402</v>
+        <v>0.284202</v>
       </c>
       <c r="C2" t="n">
-        <v>0.237071</v>
+        <v>0.238256</v>
       </c>
       <c r="D2" t="n">
-        <v>0.242616</v>
+        <v>0.253521</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.26535</v>
+        <v>0.27504</v>
       </c>
       <c r="C3" t="n">
-        <v>0.235546</v>
+        <v>0.243076</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25108</v>
+        <v>0.247378</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.273047</v>
+        <v>0.264558</v>
       </c>
       <c r="C4" t="n">
-        <v>0.238646</v>
+        <v>0.236816</v>
       </c>
       <c r="D4" t="n">
-        <v>0.249701</v>
+        <v>0.245827</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.258929</v>
+        <v>0.258684</v>
       </c>
       <c r="C5" t="n">
-        <v>0.236867</v>
+        <v>0.238574</v>
       </c>
       <c r="D5" t="n">
-        <v>0.247957</v>
+        <v>0.249619</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.250767</v>
+        <v>0.250409</v>
       </c>
       <c r="C6" t="n">
-        <v>0.233895</v>
+        <v>0.236893</v>
       </c>
       <c r="D6" t="n">
-        <v>0.247002</v>
+        <v>0.2451</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.243601</v>
+        <v>0.243105</v>
       </c>
       <c r="C7" t="n">
-        <v>0.232504</v>
+        <v>0.238723</v>
       </c>
       <c r="D7" t="n">
-        <v>0.242094</v>
+        <v>0.247191</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.228344</v>
+        <v>0.238165</v>
       </c>
       <c r="C8" t="n">
-        <v>0.235365</v>
+        <v>0.231963</v>
       </c>
       <c r="D8" t="n">
-        <v>0.241998</v>
+        <v>0.241789</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.21808</v>
+        <v>0.219486</v>
       </c>
       <c r="C9" t="n">
-        <v>0.230191</v>
+        <v>0.234224</v>
       </c>
       <c r="D9" t="n">
-        <v>0.24246</v>
+        <v>0.243254</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.309859</v>
+        <v>0.312559</v>
       </c>
       <c r="C10" t="n">
-        <v>0.243436</v>
+        <v>0.245592</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25859</v>
+        <v>0.254244</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.304788</v>
+        <v>0.304917</v>
       </c>
       <c r="C11" t="n">
-        <v>0.242022</v>
+        <v>0.244968</v>
       </c>
       <c r="D11" t="n">
-        <v>0.253693</v>
+        <v>0.25486</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.301112</v>
+        <v>0.299685</v>
       </c>
       <c r="C12" t="n">
-        <v>0.246366</v>
+        <v>0.244011</v>
       </c>
       <c r="D12" t="n">
-        <v>0.254689</v>
+        <v>0.254701</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.292327</v>
+        <v>0.295484</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241741</v>
+        <v>0.242836</v>
       </c>
       <c r="D13" t="n">
-        <v>0.255313</v>
+        <v>0.252123</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.290164</v>
+        <v>0.288415</v>
       </c>
       <c r="C14" t="n">
-        <v>0.241607</v>
+        <v>0.240435</v>
       </c>
       <c r="D14" t="n">
-        <v>0.25352</v>
+        <v>0.252281</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.283234</v>
+        <v>0.28316</v>
       </c>
       <c r="C15" t="n">
-        <v>0.240928</v>
+        <v>0.238746</v>
       </c>
       <c r="D15" t="n">
-        <v>0.247816</v>
+        <v>0.248154</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.273933</v>
+        <v>0.274906</v>
       </c>
       <c r="C16" t="n">
-        <v>0.239705</v>
+        <v>0.23873</v>
       </c>
       <c r="D16" t="n">
-        <v>0.247425</v>
+        <v>0.251507</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.267476</v>
+        <v>0.26835</v>
       </c>
       <c r="C17" t="n">
-        <v>0.235854</v>
+        <v>0.238753</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2502</v>
+        <v>0.251336</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.262381</v>
+        <v>0.259889</v>
       </c>
       <c r="C18" t="n">
-        <v>0.234122</v>
+        <v>0.238997</v>
       </c>
       <c r="D18" t="n">
-        <v>0.249249</v>
+        <v>0.251991</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.253338</v>
+        <v>0.254202</v>
       </c>
       <c r="C19" t="n">
-        <v>0.234444</v>
+        <v>0.236705</v>
       </c>
       <c r="D19" t="n">
-        <v>0.244115</v>
+        <v>0.246308</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.248053</v>
+        <v>0.245688</v>
       </c>
       <c r="C20" t="n">
-        <v>0.234715</v>
+        <v>0.235229</v>
       </c>
       <c r="D20" t="n">
-        <v>0.247088</v>
+        <v>0.245983</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.243765</v>
+        <v>0.239243</v>
       </c>
       <c r="C21" t="n">
-        <v>0.230569</v>
+        <v>0.232393</v>
       </c>
       <c r="D21" t="n">
-        <v>0.245441</v>
+        <v>0.247655</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.23245</v>
+        <v>0.231712</v>
       </c>
       <c r="C22" t="n">
-        <v>0.23226</v>
+        <v>0.232931</v>
       </c>
       <c r="D22" t="n">
-        <v>0.243366</v>
+        <v>0.243803</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.225332</v>
+        <v>0.222928</v>
       </c>
       <c r="C23" t="n">
-        <v>0.229689</v>
+        <v>0.233234</v>
       </c>
       <c r="D23" t="n">
-        <v>0.239999</v>
+        <v>0.243275</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.310677</v>
+        <v>0.308354</v>
       </c>
       <c r="C24" t="n">
-        <v>0.251981</v>
+        <v>0.249138</v>
       </c>
       <c r="D24" t="n">
-        <v>0.264019</v>
+        <v>0.262039</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.305109</v>
+        <v>0.304765</v>
       </c>
       <c r="C25" t="n">
-        <v>0.251943</v>
+        <v>0.249351</v>
       </c>
       <c r="D25" t="n">
-        <v>0.262855</v>
+        <v>0.261829</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.298511</v>
+        <v>0.302668</v>
       </c>
       <c r="C26" t="n">
-        <v>0.250507</v>
+        <v>0.250919</v>
       </c>
       <c r="D26" t="n">
-        <v>0.258881</v>
+        <v>0.260295</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.292785</v>
+        <v>0.29295</v>
       </c>
       <c r="C27" t="n">
-        <v>0.248661</v>
+        <v>0.244882</v>
       </c>
       <c r="D27" t="n">
-        <v>0.25792</v>
+        <v>0.257578</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.288838</v>
+        <v>0.289192</v>
       </c>
       <c r="C28" t="n">
-        <v>0.246375</v>
+        <v>0.245268</v>
       </c>
       <c r="D28" t="n">
-        <v>0.255</v>
+        <v>0.254457</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.285766</v>
+        <v>0.282801</v>
       </c>
       <c r="C29" t="n">
-        <v>0.242506</v>
+        <v>0.244395</v>
       </c>
       <c r="D29" t="n">
-        <v>0.253548</v>
+        <v>0.252257</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.278454</v>
+        <v>0.275147</v>
       </c>
       <c r="C30" t="n">
-        <v>0.239128</v>
+        <v>0.240831</v>
       </c>
       <c r="D30" t="n">
-        <v>0.250479</v>
+        <v>0.250285</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.270999</v>
+        <v>0.269331</v>
       </c>
       <c r="C31" t="n">
-        <v>0.237856</v>
+        <v>0.237992</v>
       </c>
       <c r="D31" t="n">
-        <v>0.253022</v>
+        <v>0.252912</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.262899</v>
+        <v>0.263341</v>
       </c>
       <c r="C32" t="n">
-        <v>0.240544</v>
+        <v>0.236685</v>
       </c>
       <c r="D32" t="n">
-        <v>0.251264</v>
+        <v>0.250253</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.257629</v>
+        <v>0.258176</v>
       </c>
       <c r="C33" t="n">
-        <v>0.235057</v>
+        <v>0.239886</v>
       </c>
       <c r="D33" t="n">
-        <v>0.247827</v>
+        <v>0.25136</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.246604</v>
+        <v>0.249129</v>
       </c>
       <c r="C34" t="n">
-        <v>0.23855</v>
+        <v>0.23762</v>
       </c>
       <c r="D34" t="n">
-        <v>0.245511</v>
+        <v>0.247029</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.243186</v>
+        <v>0.244854</v>
       </c>
       <c r="C35" t="n">
-        <v>0.234253</v>
+        <v>0.237928</v>
       </c>
       <c r="D35" t="n">
-        <v>0.24846</v>
+        <v>0.247919</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.236186</v>
+        <v>0.236514</v>
       </c>
       <c r="C36" t="n">
-        <v>0.235392</v>
+        <v>0.236911</v>
       </c>
       <c r="D36" t="n">
-        <v>0.244685</v>
+        <v>0.250023</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.228206</v>
+        <v>0.228966</v>
       </c>
       <c r="C37" t="n">
-        <v>0.232169</v>
+        <v>0.23221</v>
       </c>
       <c r="D37" t="n">
-        <v>0.243924</v>
+        <v>0.247014</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.309231</v>
+        <v>0.310797</v>
       </c>
       <c r="C38" t="n">
-        <v>0.254436</v>
+        <v>0.253785</v>
       </c>
       <c r="D38" t="n">
-        <v>0.264584</v>
+        <v>0.264167</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.307421</v>
+        <v>0.311587</v>
       </c>
       <c r="C39" t="n">
-        <v>0.256792</v>
+        <v>0.250689</v>
       </c>
       <c r="D39" t="n">
-        <v>0.268342</v>
+        <v>0.264622</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.304291</v>
+        <v>0.30167</v>
       </c>
       <c r="C40" t="n">
-        <v>0.250944</v>
+        <v>0.249707</v>
       </c>
       <c r="D40" t="n">
-        <v>0.266929</v>
+        <v>0.261245</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.298431</v>
+        <v>0.295959</v>
       </c>
       <c r="C41" t="n">
-        <v>0.250356</v>
+        <v>0.247386</v>
       </c>
       <c r="D41" t="n">
-        <v>0.261019</v>
+        <v>0.261706</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.288705</v>
+        <v>0.289861</v>
       </c>
       <c r="C42" t="n">
-        <v>0.251263</v>
+        <v>0.249238</v>
       </c>
       <c r="D42" t="n">
-        <v>0.260265</v>
+        <v>0.261727</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.285002</v>
+        <v>0.284338</v>
       </c>
       <c r="C43" t="n">
-        <v>0.246968</v>
+        <v>0.248746</v>
       </c>
       <c r="D43" t="n">
-        <v>0.25759</v>
+        <v>0.259694</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.279996</v>
+        <v>0.282194</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247065</v>
+        <v>0.24644</v>
       </c>
       <c r="D44" t="n">
-        <v>0.260043</v>
+        <v>0.25582</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.274313</v>
+        <v>0.273874</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246416</v>
+        <v>0.243262</v>
       </c>
       <c r="D45" t="n">
-        <v>0.25886</v>
+        <v>0.257875</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.265041</v>
+        <v>0.267484</v>
       </c>
       <c r="C46" t="n">
-        <v>0.244842</v>
+        <v>0.240777</v>
       </c>
       <c r="D46" t="n">
-        <v>0.258186</v>
+        <v>0.255501</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.263208</v>
+        <v>0.26101</v>
       </c>
       <c r="C47" t="n">
-        <v>0.24211</v>
+        <v>0.241654</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2554</v>
+        <v>0.252989</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.254063</v>
+        <v>0.25574</v>
       </c>
       <c r="C48" t="n">
-        <v>0.240475</v>
+        <v>0.239097</v>
       </c>
       <c r="D48" t="n">
-        <v>0.258759</v>
+        <v>0.250754</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.245147</v>
+        <v>0.247223</v>
       </c>
       <c r="C49" t="n">
-        <v>0.240472</v>
+        <v>0.236647</v>
       </c>
       <c r="D49" t="n">
-        <v>0.253188</v>
+        <v>0.251576</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.241686</v>
+        <v>0.239321</v>
       </c>
       <c r="C50" t="n">
-        <v>0.235726</v>
+        <v>0.236299</v>
       </c>
       <c r="D50" t="n">
-        <v>0.248589</v>
+        <v>0.252069</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.228898</v>
+        <v>0.22994</v>
       </c>
       <c r="C51" t="n">
-        <v>0.235337</v>
+        <v>0.234941</v>
       </c>
       <c r="D51" t="n">
-        <v>0.251026</v>
+        <v>0.249944</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.221989</v>
+        <v>0.222594</v>
       </c>
       <c r="C52" t="n">
-        <v>0.234395</v>
+        <v>0.236556</v>
       </c>
       <c r="D52" t="n">
-        <v>0.24969</v>
+        <v>0.24685</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.312827</v>
+        <v>0.3163</v>
       </c>
       <c r="C53" t="n">
-        <v>0.259497</v>
+        <v>0.260924</v>
       </c>
       <c r="D53" t="n">
-        <v>0.271845</v>
+        <v>0.272064</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.311341</v>
+        <v>0.315355</v>
       </c>
       <c r="C54" t="n">
-        <v>0.256646</v>
+        <v>0.263334</v>
       </c>
       <c r="D54" t="n">
-        <v>0.270533</v>
+        <v>0.270266</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.306371</v>
+        <v>0.303629</v>
       </c>
       <c r="C55" t="n">
-        <v>0.258129</v>
+        <v>0.257764</v>
       </c>
       <c r="D55" t="n">
-        <v>0.26862</v>
+        <v>0.267918</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.30283</v>
+        <v>0.297335</v>
       </c>
       <c r="C56" t="n">
-        <v>0.253385</v>
+        <v>0.254335</v>
       </c>
       <c r="D56" t="n">
-        <v>0.264827</v>
+        <v>0.265137</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.29646</v>
+        <v>0.292505</v>
       </c>
       <c r="C57" t="n">
-        <v>0.251231</v>
+        <v>0.253684</v>
       </c>
       <c r="D57" t="n">
-        <v>0.26551</v>
+        <v>0.268932</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.287377</v>
+        <v>0.288462</v>
       </c>
       <c r="C58" t="n">
-        <v>0.251202</v>
+        <v>0.253542</v>
       </c>
       <c r="D58" t="n">
-        <v>0.262995</v>
+        <v>0.264298</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.277962</v>
+        <v>0.282846</v>
       </c>
       <c r="C59" t="n">
-        <v>0.248671</v>
+        <v>0.24936</v>
       </c>
       <c r="D59" t="n">
-        <v>0.261133</v>
+        <v>0.259715</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.276464</v>
+        <v>0.276983</v>
       </c>
       <c r="C60" t="n">
-        <v>0.248644</v>
+        <v>0.248589</v>
       </c>
       <c r="D60" t="n">
-        <v>0.262645</v>
+        <v>0.256562</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.266996</v>
+        <v>0.270716</v>
       </c>
       <c r="C61" t="n">
-        <v>0.246729</v>
+        <v>0.248879</v>
       </c>
       <c r="D61" t="n">
-        <v>0.259709</v>
+        <v>0.258843</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.260439</v>
+        <v>0.260598</v>
       </c>
       <c r="C62" t="n">
-        <v>0.242198</v>
+        <v>0.243301</v>
       </c>
       <c r="D62" t="n">
-        <v>0.253502</v>
+        <v>0.258499</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.24998</v>
+        <v>0.25586</v>
       </c>
       <c r="C63" t="n">
-        <v>0.244789</v>
+        <v>0.242275</v>
       </c>
       <c r="D63" t="n">
-        <v>0.254807</v>
+        <v>0.256252</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.247944</v>
+        <v>0.248345</v>
       </c>
       <c r="C64" t="n">
-        <v>0.240339</v>
+        <v>0.238827</v>
       </c>
       <c r="D64" t="n">
-        <v>0.255644</v>
+        <v>0.258414</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.24025</v>
+        <v>0.236611</v>
       </c>
       <c r="C65" t="n">
-        <v>0.239443</v>
+        <v>0.24063</v>
       </c>
       <c r="D65" t="n">
-        <v>0.257639</v>
+        <v>0.253651</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.231251</v>
+        <v>0.228001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.23844</v>
+        <v>0.240606</v>
       </c>
       <c r="D66" t="n">
-        <v>0.250987</v>
+        <v>0.255555</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.327903</v>
+        <v>0.322828</v>
       </c>
       <c r="C67" t="n">
-        <v>0.274924</v>
+        <v>0.26592</v>
       </c>
       <c r="D67" t="n">
-        <v>0.27974</v>
+        <v>0.279783</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.323439</v>
+        <v>0.320586</v>
       </c>
       <c r="C68" t="n">
-        <v>0.270586</v>
+        <v>0.271216</v>
       </c>
       <c r="D68" t="n">
-        <v>0.279536</v>
+        <v>0.275458</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.318711</v>
+        <v>0.313629</v>
       </c>
       <c r="C69" t="n">
-        <v>0.262193</v>
+        <v>0.267381</v>
       </c>
       <c r="D69" t="n">
-        <v>0.272874</v>
+        <v>0.274353</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.314684</v>
+        <v>0.309826</v>
       </c>
       <c r="C70" t="n">
-        <v>0.260908</v>
+        <v>0.259311</v>
       </c>
       <c r="D70" t="n">
-        <v>0.277873</v>
+        <v>0.270837</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.303063</v>
+        <v>0.300175</v>
       </c>
       <c r="C71" t="n">
-        <v>0.26188</v>
+        <v>0.261797</v>
       </c>
       <c r="D71" t="n">
-        <v>0.271218</v>
+        <v>0.271288</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.298579</v>
+        <v>0.296551</v>
       </c>
       <c r="C72" t="n">
-        <v>0.257021</v>
+        <v>0.258301</v>
       </c>
       <c r="D72" t="n">
-        <v>0.267413</v>
+        <v>0.280918</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.288731</v>
+        <v>0.288202</v>
       </c>
       <c r="C73" t="n">
-        <v>0.255596</v>
+        <v>0.253477</v>
       </c>
       <c r="D73" t="n">
-        <v>0.266385</v>
+        <v>0.266817</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.288322</v>
+        <v>0.282111</v>
       </c>
       <c r="C74" t="n">
-        <v>0.258052</v>
+        <v>0.255235</v>
       </c>
       <c r="D74" t="n">
-        <v>0.269613</v>
+        <v>0.267947</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.275546</v>
+        <v>0.273564</v>
       </c>
       <c r="C75" t="n">
-        <v>0.255176</v>
+        <v>0.253726</v>
       </c>
       <c r="D75" t="n">
-        <v>0.264537</v>
+        <v>0.262357</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.26819</v>
+        <v>0.265118</v>
       </c>
       <c r="C76" t="n">
-        <v>0.247835</v>
+        <v>0.251379</v>
       </c>
       <c r="D76" t="n">
-        <v>0.263175</v>
+        <v>0.262868</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.259586</v>
+        <v>0.259611</v>
       </c>
       <c r="C77" t="n">
-        <v>0.246645</v>
+        <v>0.249554</v>
       </c>
       <c r="D77" t="n">
-        <v>0.259159</v>
+        <v>0.261976</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.253225</v>
+        <v>0.254677</v>
       </c>
       <c r="C78" t="n">
-        <v>0.248914</v>
+        <v>0.24758</v>
       </c>
       <c r="D78" t="n">
-        <v>0.259571</v>
+        <v>0.260371</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.246303</v>
+        <v>0.242071</v>
       </c>
       <c r="C79" t="n">
-        <v>0.244733</v>
+        <v>0.244959</v>
       </c>
       <c r="D79" t="n">
-        <v>0.259998</v>
+        <v>0.260259</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.234649</v>
+        <v>0.234693</v>
       </c>
       <c r="C80" t="n">
-        <v>0.244353</v>
+        <v>0.249206</v>
       </c>
       <c r="D80" t="n">
-        <v>0.26174</v>
+        <v>0.260475</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.334248</v>
+        <v>0.336377</v>
       </c>
       <c r="C81" t="n">
-        <v>0.278233</v>
+        <v>0.277379</v>
       </c>
       <c r="D81" t="n">
-        <v>0.291634</v>
+        <v>0.289479</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.331208</v>
+        <v>0.33059</v>
       </c>
       <c r="C82" t="n">
-        <v>0.273523</v>
+        <v>0.275718</v>
       </c>
       <c r="D82" t="n">
-        <v>0.283205</v>
+        <v>0.283947</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.321435</v>
+        <v>0.324159</v>
       </c>
       <c r="C83" t="n">
-        <v>0.267287</v>
+        <v>0.270107</v>
       </c>
       <c r="D83" t="n">
-        <v>0.280717</v>
+        <v>0.280728</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.316315</v>
+        <v>0.311265</v>
       </c>
       <c r="C84" t="n">
-        <v>0.268255</v>
+        <v>0.268441</v>
       </c>
       <c r="D84" t="n">
-        <v>0.279044</v>
+        <v>0.281758</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.308492</v>
+        <v>0.3068</v>
       </c>
       <c r="C85" t="n">
-        <v>0.264094</v>
+        <v>0.263265</v>
       </c>
       <c r="D85" t="n">
-        <v>0.277376</v>
+        <v>0.277253</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.302412</v>
+        <v>0.303062</v>
       </c>
       <c r="C86" t="n">
-        <v>0.26048</v>
+        <v>0.261662</v>
       </c>
       <c r="D86" t="n">
-        <v>0.272225</v>
+        <v>0.273809</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.292436</v>
+        <v>0.29364</v>
       </c>
       <c r="C87" t="n">
-        <v>0.262435</v>
+        <v>0.260954</v>
       </c>
       <c r="D87" t="n">
-        <v>0.275317</v>
+        <v>0.268985</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.284757</v>
+        <v>0.288206</v>
       </c>
       <c r="C88" t="n">
-        <v>0.257716</v>
+        <v>0.257722</v>
       </c>
       <c r="D88" t="n">
-        <v>0.26706</v>
+        <v>0.269673</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.278008</v>
+        <v>0.279746</v>
       </c>
       <c r="C89" t="n">
-        <v>0.253313</v>
+        <v>0.253916</v>
       </c>
       <c r="D89" t="n">
-        <v>0.266347</v>
+        <v>0.270836</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.272077</v>
+        <v>0.273968</v>
       </c>
       <c r="C90" t="n">
-        <v>0.255477</v>
+        <v>0.254216</v>
       </c>
       <c r="D90" t="n">
-        <v>0.270911</v>
+        <v>0.267371</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.267407</v>
+        <v>0.265276</v>
       </c>
       <c r="C91" t="n">
-        <v>0.251205</v>
+        <v>0.25341</v>
       </c>
       <c r="D91" t="n">
-        <v>0.268548</v>
+        <v>0.263655</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.256392</v>
+        <v>0.255287</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2529</v>
+        <v>0.249567</v>
       </c>
       <c r="D92" t="n">
-        <v>0.264923</v>
+        <v>0.260945</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.251487</v>
+        <v>0.262294</v>
       </c>
       <c r="C93" t="n">
-        <v>0.250289</v>
+        <v>0.258735</v>
       </c>
       <c r="D93" t="n">
-        <v>0.264864</v>
+        <v>0.266682</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.239076</v>
+        <v>0.250267</v>
       </c>
       <c r="C94" t="n">
-        <v>0.247943</v>
+        <v>0.259569</v>
       </c>
       <c r="D94" t="n">
-        <v>0.260438</v>
+        <v>0.26747</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.332703</v>
+        <v>0.346971</v>
       </c>
       <c r="C95" t="n">
-        <v>0.275569</v>
+        <v>0.277028</v>
       </c>
       <c r="D95" t="n">
-        <v>0.286875</v>
+        <v>0.292173</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.332003</v>
+        <v>0.335038</v>
       </c>
       <c r="C96" t="n">
-        <v>0.272853</v>
+        <v>0.273638</v>
       </c>
       <c r="D96" t="n">
-        <v>0.285383</v>
+        <v>0.285046</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.325054</v>
+        <v>0.32656</v>
       </c>
       <c r="C97" t="n">
-        <v>0.271978</v>
+        <v>0.270332</v>
       </c>
       <c r="D97" t="n">
-        <v>0.284519</v>
+        <v>0.285045</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.320023</v>
+        <v>0.318574</v>
       </c>
       <c r="C98" t="n">
-        <v>0.27059</v>
+        <v>0.270588</v>
       </c>
       <c r="D98" t="n">
-        <v>0.282388</v>
+        <v>0.280767</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.310723</v>
+        <v>0.313737</v>
       </c>
       <c r="C99" t="n">
-        <v>0.264875</v>
+        <v>0.268167</v>
       </c>
       <c r="D99" t="n">
-        <v>0.275195</v>
+        <v>0.281814</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.301432</v>
+        <v>0.30709</v>
       </c>
       <c r="C100" t="n">
-        <v>0.261271</v>
+        <v>0.265582</v>
       </c>
       <c r="D100" t="n">
-        <v>0.276107</v>
+        <v>0.279219</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.298263</v>
+        <v>0.300807</v>
       </c>
       <c r="C101" t="n">
-        <v>0.265021</v>
+        <v>0.264892</v>
       </c>
       <c r="D101" t="n">
-        <v>0.272694</v>
+        <v>0.273384</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.290922</v>
+        <v>0.292161</v>
       </c>
       <c r="C102" t="n">
-        <v>0.259523</v>
+        <v>0.259564</v>
       </c>
       <c r="D102" t="n">
-        <v>0.270479</v>
+        <v>0.270847</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.2844</v>
+        <v>0.283359</v>
       </c>
       <c r="C103" t="n">
-        <v>0.263011</v>
+        <v>0.256893</v>
       </c>
       <c r="D103" t="n">
-        <v>0.269794</v>
+        <v>0.273712</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.279153</v>
+        <v>0.276245</v>
       </c>
       <c r="C104" t="n">
-        <v>0.255516</v>
+        <v>0.254547</v>
       </c>
       <c r="D104" t="n">
-        <v>0.266483</v>
+        <v>0.270464</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.269506</v>
+        <v>0.264425</v>
       </c>
       <c r="C105" t="n">
-        <v>0.250116</v>
+        <v>0.254821</v>
       </c>
       <c r="D105" t="n">
-        <v>0.26572</v>
+        <v>0.263981</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.259607</v>
+        <v>0.258946</v>
       </c>
       <c r="C106" t="n">
-        <v>0.252437</v>
+        <v>0.251205</v>
       </c>
       <c r="D106" t="n">
-        <v>0.263393</v>
+        <v>0.267378</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.248819</v>
+        <v>0.251448</v>
       </c>
       <c r="C107" t="n">
-        <v>0.249351</v>
+        <v>0.250539</v>
       </c>
       <c r="D107" t="n">
-        <v>0.264095</v>
+        <v>0.260995</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.240372</v>
+        <v>0.241946</v>
       </c>
       <c r="C108" t="n">
-        <v>0.246946</v>
+        <v>0.252617</v>
       </c>
       <c r="D108" t="n">
-        <v>0.259286</v>
+        <v>0.261466</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.230401</v>
+        <v>0.232594</v>
       </c>
       <c r="C109" t="n">
-        <v>0.24645</v>
+        <v>0.247868</v>
       </c>
       <c r="D109" t="n">
-        <v>0.25663</v>
+        <v>0.257499</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.33546</v>
+        <v>0.332233</v>
       </c>
       <c r="C110" t="n">
-        <v>0.274344</v>
+        <v>0.275789</v>
       </c>
       <c r="D110" t="n">
-        <v>0.290948</v>
+        <v>0.286981</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.325985</v>
+        <v>0.327818</v>
       </c>
       <c r="C111" t="n">
-        <v>0.269538</v>
+        <v>0.275321</v>
       </c>
       <c r="D111" t="n">
-        <v>0.285446</v>
+        <v>0.284703</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.320355</v>
+        <v>0.321087</v>
       </c>
       <c r="C112" t="n">
-        <v>0.268355</v>
+        <v>0.270922</v>
       </c>
       <c r="D112" t="n">
-        <v>0.284632</v>
+        <v>0.280873</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.310605</v>
+        <v>0.31677</v>
       </c>
       <c r="C113" t="n">
-        <v>0.266716</v>
+        <v>0.268336</v>
       </c>
       <c r="D113" t="n">
-        <v>0.281275</v>
+        <v>0.282862</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.301924</v>
+        <v>0.3091</v>
       </c>
       <c r="C114" t="n">
-        <v>0.264277</v>
+        <v>0.264944</v>
       </c>
       <c r="D114" t="n">
-        <v>0.276892</v>
+        <v>0.275794</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.303896</v>
+        <v>0.298301</v>
       </c>
       <c r="C115" t="n">
-        <v>0.260352</v>
+        <v>0.262479</v>
       </c>
       <c r="D115" t="n">
-        <v>0.274719</v>
+        <v>0.272884</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.289308</v>
+        <v>0.292221</v>
       </c>
       <c r="C116" t="n">
-        <v>0.260839</v>
+        <v>0.259646</v>
       </c>
       <c r="D116" t="n">
-        <v>0.272587</v>
+        <v>0.27463</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.285681</v>
+        <v>0.281309</v>
       </c>
       <c r="C117" t="n">
-        <v>0.253802</v>
+        <v>0.257843</v>
       </c>
       <c r="D117" t="n">
-        <v>0.270616</v>
+        <v>0.268649</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.28222</v>
+        <v>0.275499</v>
       </c>
       <c r="C118" t="n">
-        <v>0.25789</v>
+        <v>0.255808</v>
       </c>
       <c r="D118" t="n">
-        <v>0.27186</v>
+        <v>0.26966</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.267822</v>
+        <v>0.273675</v>
       </c>
       <c r="C119" t="n">
-        <v>0.254692</v>
+        <v>0.252602</v>
       </c>
       <c r="D119" t="n">
-        <v>0.268304</v>
+        <v>0.265705</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.261457</v>
+        <v>0.261913</v>
       </c>
       <c r="C120" t="n">
-        <v>0.248265</v>
+        <v>0.250308</v>
       </c>
       <c r="D120" t="n">
-        <v>0.264</v>
+        <v>0.265314</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.255205</v>
+        <v>0.257986</v>
       </c>
       <c r="C121" t="n">
-        <v>0.250287</v>
+        <v>0.247083</v>
       </c>
       <c r="D121" t="n">
-        <v>0.261962</v>
+        <v>0.260792</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.246724</v>
+        <v>0.245167</v>
       </c>
       <c r="C122" t="n">
-        <v>0.246083</v>
+        <v>0.249339</v>
       </c>
       <c r="D122" t="n">
-        <v>0.265092</v>
+        <v>0.261305</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.240558</v>
+        <v>0.24318</v>
       </c>
       <c r="C123" t="n">
-        <v>0.24497</v>
+        <v>0.248517</v>
       </c>
       <c r="D123" t="n">
-        <v>0.257574</v>
+        <v>0.256607</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.333807</v>
+        <v>0.335993</v>
       </c>
       <c r="C124" t="n">
-        <v>0.278697</v>
+        <v>0.282709</v>
       </c>
       <c r="D124" t="n">
-        <v>0.289778</v>
+        <v>0.28994</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.329887</v>
+        <v>0.327661</v>
       </c>
       <c r="C125" t="n">
-        <v>0.272991</v>
+        <v>0.271653</v>
       </c>
       <c r="D125" t="n">
-        <v>0.286785</v>
+        <v>0.281881</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.325676</v>
+        <v>0.326584</v>
       </c>
       <c r="C126" t="n">
-        <v>0.271394</v>
+        <v>0.269476</v>
       </c>
       <c r="D126" t="n">
-        <v>0.283664</v>
+        <v>0.280789</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.317312</v>
+        <v>0.311828</v>
       </c>
       <c r="C127" t="n">
-        <v>0.267888</v>
+        <v>0.267012</v>
       </c>
       <c r="D127" t="n">
-        <v>0.278025</v>
+        <v>0.279449</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.306486</v>
+        <v>0.309783</v>
       </c>
       <c r="C128" t="n">
-        <v>0.2779</v>
+        <v>0.265501</v>
       </c>
       <c r="D128" t="n">
-        <v>0.276943</v>
+        <v>0.276966</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.306831</v>
+        <v>0.293876</v>
       </c>
       <c r="C129" t="n">
-        <v>0.266959</v>
+        <v>0.263782</v>
       </c>
       <c r="D129" t="n">
-        <v>0.284776</v>
+        <v>0.272616</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.289188</v>
+        <v>0.294912</v>
       </c>
       <c r="C130" t="n">
-        <v>0.261271</v>
+        <v>0.260481</v>
       </c>
       <c r="D130" t="n">
-        <v>0.275297</v>
+        <v>0.270292</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.284579</v>
+        <v>0.285469</v>
       </c>
       <c r="C131" t="n">
-        <v>0.256271</v>
+        <v>0.257375</v>
       </c>
       <c r="D131" t="n">
-        <v>0.267368</v>
+        <v>0.272943</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.27863</v>
+        <v>0.277555</v>
       </c>
       <c r="C132" t="n">
-        <v>0.253572</v>
+        <v>0.254134</v>
       </c>
       <c r="D132" t="n">
-        <v>0.274854</v>
+        <v>0.267968</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.270278</v>
+        <v>0.27015</v>
       </c>
       <c r="C133" t="n">
-        <v>0.253792</v>
+        <v>0.251733</v>
       </c>
       <c r="D133" t="n">
-        <v>0.266426</v>
+        <v>0.268048</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.267359</v>
+        <v>0.266566</v>
       </c>
       <c r="C134" t="n">
-        <v>0.250972</v>
+        <v>0.25296</v>
       </c>
       <c r="D134" t="n">
-        <v>0.262139</v>
+        <v>0.266403</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.255689</v>
+        <v>0.255429</v>
       </c>
       <c r="C135" t="n">
-        <v>0.246858</v>
+        <v>0.251515</v>
       </c>
       <c r="D135" t="n">
-        <v>0.260357</v>
+        <v>0.261156</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.256612</v>
+        <v>0.244805</v>
       </c>
       <c r="C136" t="n">
-        <v>0.245587</v>
+        <v>0.246275</v>
       </c>
       <c r="D136" t="n">
-        <v>0.259466</v>
+        <v>0.265767</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.242556</v>
+        <v>0.235646</v>
       </c>
       <c r="C137" t="n">
-        <v>0.244667</v>
+        <v>0.254984</v>
       </c>
       <c r="D137" t="n">
-        <v>0.258348</v>
+        <v>0.259693</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.334557</v>
+        <v>0.334025</v>
       </c>
       <c r="C138" t="n">
-        <v>0.277571</v>
+        <v>0.278957</v>
       </c>
       <c r="D138" t="n">
-        <v>0.292835</v>
+        <v>0.28563</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.324538</v>
+        <v>0.331658</v>
       </c>
       <c r="C139" t="n">
-        <v>0.269744</v>
+        <v>0.273334</v>
       </c>
       <c r="D139" t="n">
-        <v>0.282631</v>
+        <v>0.287675</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.324378</v>
+        <v>0.320414</v>
       </c>
       <c r="C140" t="n">
-        <v>0.274614</v>
+        <v>0.27959</v>
       </c>
       <c r="D140" t="n">
-        <v>0.283417</v>
+        <v>0.281096</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.317828</v>
+        <v>0.311311</v>
       </c>
       <c r="C141" t="n">
-        <v>0.268213</v>
+        <v>0.268894</v>
       </c>
       <c r="D141" t="n">
-        <v>0.278332</v>
+        <v>0.27906</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.312938</v>
+        <v>0.309608</v>
       </c>
       <c r="C142" t="n">
-        <v>0.264679</v>
+        <v>0.265184</v>
       </c>
       <c r="D142" t="n">
-        <v>0.276035</v>
+        <v>0.279402</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.300985</v>
+        <v>0.301248</v>
       </c>
       <c r="C143" t="n">
-        <v>0.262051</v>
+        <v>0.259548</v>
       </c>
       <c r="D143" t="n">
-        <v>0.277065</v>
+        <v>0.275099</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.284202</v>
+        <v>0.254868</v>
       </c>
       <c r="C2" t="n">
-        <v>0.238256</v>
+        <v>0.237166</v>
       </c>
       <c r="D2" t="n">
-        <v>0.253521</v>
+        <v>0.241178</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.27504</v>
+        <v>0.246934</v>
       </c>
       <c r="C3" t="n">
-        <v>0.243076</v>
+        <v>0.239836</v>
       </c>
       <c r="D3" t="n">
-        <v>0.247378</v>
+        <v>0.229254</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.264558</v>
+        <v>0.244</v>
       </c>
       <c r="C4" t="n">
-        <v>0.236816</v>
+        <v>0.232253</v>
       </c>
       <c r="D4" t="n">
-        <v>0.245827</v>
+        <v>0.230176</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.258684</v>
+        <v>0.240383</v>
       </c>
       <c r="C5" t="n">
-        <v>0.238574</v>
+        <v>0.238301</v>
       </c>
       <c r="D5" t="n">
-        <v>0.249619</v>
+        <v>0.232977</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.250409</v>
+        <v>0.229601</v>
       </c>
       <c r="C6" t="n">
-        <v>0.236893</v>
+        <v>0.238779</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2451</v>
+        <v>0.233757</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.243105</v>
+        <v>0.227202</v>
       </c>
       <c r="C7" t="n">
-        <v>0.238723</v>
+        <v>0.231697</v>
       </c>
       <c r="D7" t="n">
-        <v>0.247191</v>
+        <v>0.233155</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.238165</v>
+        <v>0.221938</v>
       </c>
       <c r="C8" t="n">
-        <v>0.231963</v>
+        <v>0.236477</v>
       </c>
       <c r="D8" t="n">
-        <v>0.241789</v>
+        <v>0.229395</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.219486</v>
+        <v>0.207683</v>
       </c>
       <c r="C9" t="n">
-        <v>0.234224</v>
+        <v>0.231219</v>
       </c>
       <c r="D9" t="n">
-        <v>0.243254</v>
+        <v>0.23435</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.312559</v>
+        <v>0.295401</v>
       </c>
       <c r="C10" t="n">
-        <v>0.245592</v>
+        <v>0.251886</v>
       </c>
       <c r="D10" t="n">
-        <v>0.254244</v>
+        <v>0.246816</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.304917</v>
+        <v>0.288899</v>
       </c>
       <c r="C11" t="n">
-        <v>0.244968</v>
+        <v>0.245883</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25486</v>
+        <v>0.24831</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.299685</v>
+        <v>0.28536</v>
       </c>
       <c r="C12" t="n">
-        <v>0.244011</v>
+        <v>0.248942</v>
       </c>
       <c r="D12" t="n">
-        <v>0.254701</v>
+        <v>0.242254</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.295484</v>
+        <v>0.27782</v>
       </c>
       <c r="C13" t="n">
-        <v>0.242836</v>
+        <v>0.246093</v>
       </c>
       <c r="D13" t="n">
-        <v>0.252123</v>
+        <v>0.246749</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.288415</v>
+        <v>0.273456</v>
       </c>
       <c r="C14" t="n">
-        <v>0.240435</v>
+        <v>0.243807</v>
       </c>
       <c r="D14" t="n">
-        <v>0.252281</v>
+        <v>0.244759</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.28316</v>
+        <v>0.270485</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238746</v>
+        <v>0.240184</v>
       </c>
       <c r="D15" t="n">
-        <v>0.248154</v>
+        <v>0.244446</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.274906</v>
+        <v>0.262233</v>
       </c>
       <c r="C16" t="n">
-        <v>0.23873</v>
+        <v>0.24201</v>
       </c>
       <c r="D16" t="n">
-        <v>0.251507</v>
+        <v>0.241851</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.26835</v>
+        <v>0.256315</v>
       </c>
       <c r="C17" t="n">
-        <v>0.238753</v>
+        <v>0.241229</v>
       </c>
       <c r="D17" t="n">
-        <v>0.251336</v>
+        <v>0.243388</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.259889</v>
+        <v>0.250023</v>
       </c>
       <c r="C18" t="n">
-        <v>0.238997</v>
+        <v>0.241832</v>
       </c>
       <c r="D18" t="n">
-        <v>0.251991</v>
+        <v>0.239749</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.254202</v>
+        <v>0.24363</v>
       </c>
       <c r="C19" t="n">
-        <v>0.236705</v>
+        <v>0.238423</v>
       </c>
       <c r="D19" t="n">
-        <v>0.246308</v>
+        <v>0.239341</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.245688</v>
+        <v>0.236854</v>
       </c>
       <c r="C20" t="n">
-        <v>0.235229</v>
+        <v>0.239791</v>
       </c>
       <c r="D20" t="n">
-        <v>0.245983</v>
+        <v>0.240984</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.239243</v>
+        <v>0.230633</v>
       </c>
       <c r="C21" t="n">
-        <v>0.232393</v>
+        <v>0.234258</v>
       </c>
       <c r="D21" t="n">
-        <v>0.247655</v>
+        <v>0.23678</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.231712</v>
+        <v>0.222487</v>
       </c>
       <c r="C22" t="n">
-        <v>0.232931</v>
+        <v>0.234925</v>
       </c>
       <c r="D22" t="n">
-        <v>0.243803</v>
+        <v>0.236442</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.222928</v>
+        <v>0.213643</v>
       </c>
       <c r="C23" t="n">
-        <v>0.233234</v>
+        <v>0.235</v>
       </c>
       <c r="D23" t="n">
-        <v>0.243275</v>
+        <v>0.237885</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.308354</v>
+        <v>0.298891</v>
       </c>
       <c r="C24" t="n">
-        <v>0.249138</v>
+        <v>0.25702</v>
       </c>
       <c r="D24" t="n">
-        <v>0.262039</v>
+        <v>0.251739</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.304765</v>
+        <v>0.290734</v>
       </c>
       <c r="C25" t="n">
-        <v>0.249351</v>
+        <v>0.253513</v>
       </c>
       <c r="D25" t="n">
-        <v>0.261829</v>
+        <v>0.251883</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.302668</v>
+        <v>0.286909</v>
       </c>
       <c r="C26" t="n">
-        <v>0.250919</v>
+        <v>0.25322</v>
       </c>
       <c r="D26" t="n">
-        <v>0.260295</v>
+        <v>0.252519</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.29295</v>
+        <v>0.282622</v>
       </c>
       <c r="C27" t="n">
-        <v>0.244882</v>
+        <v>0.250074</v>
       </c>
       <c r="D27" t="n">
-        <v>0.257578</v>
+        <v>0.251738</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.289192</v>
+        <v>0.27339</v>
       </c>
       <c r="C28" t="n">
-        <v>0.245268</v>
+        <v>0.248938</v>
       </c>
       <c r="D28" t="n">
-        <v>0.254457</v>
+        <v>0.247855</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.282801</v>
+        <v>0.270043</v>
       </c>
       <c r="C29" t="n">
-        <v>0.244395</v>
+        <v>0.247086</v>
       </c>
       <c r="D29" t="n">
-        <v>0.252257</v>
+        <v>0.246938</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.275147</v>
+        <v>0.262228</v>
       </c>
       <c r="C30" t="n">
-        <v>0.240831</v>
+        <v>0.248576</v>
       </c>
       <c r="D30" t="n">
-        <v>0.250285</v>
+        <v>0.248565</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.269331</v>
+        <v>0.256954</v>
       </c>
       <c r="C31" t="n">
-        <v>0.237992</v>
+        <v>0.244209</v>
       </c>
       <c r="D31" t="n">
-        <v>0.252912</v>
+        <v>0.248266</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.263341</v>
+        <v>0.251749</v>
       </c>
       <c r="C32" t="n">
-        <v>0.236685</v>
+        <v>0.244198</v>
       </c>
       <c r="D32" t="n">
-        <v>0.250253</v>
+        <v>0.244176</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.258176</v>
+        <v>0.243134</v>
       </c>
       <c r="C33" t="n">
-        <v>0.239886</v>
+        <v>0.242433</v>
       </c>
       <c r="D33" t="n">
-        <v>0.25136</v>
+        <v>0.24179</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.249129</v>
+        <v>0.240375</v>
       </c>
       <c r="C34" t="n">
-        <v>0.23762</v>
+        <v>0.240875</v>
       </c>
       <c r="D34" t="n">
-        <v>0.247029</v>
+        <v>0.24115</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.244854</v>
+        <v>0.232004</v>
       </c>
       <c r="C35" t="n">
-        <v>0.237928</v>
+        <v>0.239905</v>
       </c>
       <c r="D35" t="n">
-        <v>0.247919</v>
+        <v>0.241153</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.236514</v>
+        <v>0.225505</v>
       </c>
       <c r="C36" t="n">
-        <v>0.236911</v>
+        <v>0.239675</v>
       </c>
       <c r="D36" t="n">
-        <v>0.250023</v>
+        <v>0.240077</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.228966</v>
+        <v>0.217924</v>
       </c>
       <c r="C37" t="n">
-        <v>0.23221</v>
+        <v>0.240592</v>
       </c>
       <c r="D37" t="n">
-        <v>0.247014</v>
+        <v>0.242134</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.310797</v>
+        <v>0.303525</v>
       </c>
       <c r="C38" t="n">
-        <v>0.253785</v>
+        <v>0.2595</v>
       </c>
       <c r="D38" t="n">
-        <v>0.264167</v>
+        <v>0.25815</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.311587</v>
+        <v>0.294712</v>
       </c>
       <c r="C39" t="n">
-        <v>0.250689</v>
+        <v>0.260247</v>
       </c>
       <c r="D39" t="n">
-        <v>0.264622</v>
+        <v>0.257874</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.30167</v>
+        <v>0.292518</v>
       </c>
       <c r="C40" t="n">
-        <v>0.249707</v>
+        <v>0.260287</v>
       </c>
       <c r="D40" t="n">
-        <v>0.261245</v>
+        <v>0.258046</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.295959</v>
+        <v>0.286113</v>
       </c>
       <c r="C41" t="n">
-        <v>0.247386</v>
+        <v>0.25702</v>
       </c>
       <c r="D41" t="n">
-        <v>0.261706</v>
+        <v>0.26557</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.289861</v>
+        <v>0.283572</v>
       </c>
       <c r="C42" t="n">
-        <v>0.249238</v>
+        <v>0.253508</v>
       </c>
       <c r="D42" t="n">
-        <v>0.261727</v>
+        <v>0.253558</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.284338</v>
+        <v>0.273032</v>
       </c>
       <c r="C43" t="n">
-        <v>0.248746</v>
+        <v>0.25065</v>
       </c>
       <c r="D43" t="n">
-        <v>0.259694</v>
+        <v>0.254671</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.282194</v>
+        <v>0.270133</v>
       </c>
       <c r="C44" t="n">
-        <v>0.24644</v>
+        <v>0.253933</v>
       </c>
       <c r="D44" t="n">
-        <v>0.25582</v>
+        <v>0.253649</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.273874</v>
+        <v>0.263464</v>
       </c>
       <c r="C45" t="n">
-        <v>0.243262</v>
+        <v>0.249893</v>
       </c>
       <c r="D45" t="n">
-        <v>0.257875</v>
+        <v>0.246611</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.267484</v>
+        <v>0.259473</v>
       </c>
       <c r="C46" t="n">
-        <v>0.240777</v>
+        <v>0.251481</v>
       </c>
       <c r="D46" t="n">
-        <v>0.255501</v>
+        <v>0.248118</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.26101</v>
+        <v>0.244101</v>
       </c>
       <c r="C47" t="n">
-        <v>0.241654</v>
+        <v>0.240999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.252989</v>
+        <v>0.241895</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.25574</v>
+        <v>0.245259</v>
       </c>
       <c r="C48" t="n">
-        <v>0.239097</v>
+        <v>0.249339</v>
       </c>
       <c r="D48" t="n">
-        <v>0.250754</v>
+        <v>0.25132</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.247223</v>
+        <v>0.238814</v>
       </c>
       <c r="C49" t="n">
-        <v>0.236647</v>
+        <v>0.246178</v>
       </c>
       <c r="D49" t="n">
-        <v>0.251576</v>
+        <v>0.245034</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.239321</v>
+        <v>0.229125</v>
       </c>
       <c r="C50" t="n">
-        <v>0.236299</v>
+        <v>0.23995</v>
       </c>
       <c r="D50" t="n">
-        <v>0.252069</v>
+        <v>0.241806</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.22994</v>
+        <v>0.221276</v>
       </c>
       <c r="C51" t="n">
-        <v>0.234941</v>
+        <v>0.242993</v>
       </c>
       <c r="D51" t="n">
-        <v>0.249944</v>
+        <v>0.244563</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.222594</v>
+        <v>0.216089</v>
       </c>
       <c r="C52" t="n">
-        <v>0.236556</v>
+        <v>0.237154</v>
       </c>
       <c r="D52" t="n">
-        <v>0.24685</v>
+        <v>0.241444</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3163</v>
+        <v>0.304729</v>
       </c>
       <c r="C53" t="n">
-        <v>0.260924</v>
+        <v>0.26699</v>
       </c>
       <c r="D53" t="n">
-        <v>0.272064</v>
+        <v>0.268789</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.315355</v>
+        <v>0.296008</v>
       </c>
       <c r="C54" t="n">
-        <v>0.263334</v>
+        <v>0.263879</v>
       </c>
       <c r="D54" t="n">
-        <v>0.270266</v>
+        <v>0.263701</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.303629</v>
+        <v>0.293227</v>
       </c>
       <c r="C55" t="n">
-        <v>0.257764</v>
+        <v>0.264724</v>
       </c>
       <c r="D55" t="n">
-        <v>0.267918</v>
+        <v>0.263872</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.297335</v>
+        <v>0.29376</v>
       </c>
       <c r="C56" t="n">
-        <v>0.254335</v>
+        <v>0.25949</v>
       </c>
       <c r="D56" t="n">
-        <v>0.265137</v>
+        <v>0.260464</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.292505</v>
+        <v>0.282731</v>
       </c>
       <c r="C57" t="n">
-        <v>0.253684</v>
+        <v>0.258028</v>
       </c>
       <c r="D57" t="n">
-        <v>0.268932</v>
+        <v>0.260186</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.288462</v>
+        <v>0.27442</v>
       </c>
       <c r="C58" t="n">
-        <v>0.253542</v>
+        <v>0.258533</v>
       </c>
       <c r="D58" t="n">
-        <v>0.264298</v>
+        <v>0.255483</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.282846</v>
+        <v>0.27257</v>
       </c>
       <c r="C59" t="n">
-        <v>0.24936</v>
+        <v>0.254213</v>
       </c>
       <c r="D59" t="n">
-        <v>0.259715</v>
+        <v>0.253773</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.276983</v>
+        <v>0.262744</v>
       </c>
       <c r="C60" t="n">
-        <v>0.248589</v>
+        <v>0.250966</v>
       </c>
       <c r="D60" t="n">
-        <v>0.256562</v>
+        <v>0.252514</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.270716</v>
+        <v>0.254583</v>
       </c>
       <c r="C61" t="n">
-        <v>0.248879</v>
+        <v>0.251012</v>
       </c>
       <c r="D61" t="n">
-        <v>0.258843</v>
+        <v>0.252647</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.260598</v>
+        <v>0.249908</v>
       </c>
       <c r="C62" t="n">
-        <v>0.243301</v>
+        <v>0.252184</v>
       </c>
       <c r="D62" t="n">
-        <v>0.258499</v>
+        <v>0.249937</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.25586</v>
+        <v>0.243344</v>
       </c>
       <c r="C63" t="n">
-        <v>0.242275</v>
+        <v>0.253042</v>
       </c>
       <c r="D63" t="n">
-        <v>0.256252</v>
+        <v>0.248083</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.248345</v>
+        <v>0.237928</v>
       </c>
       <c r="C64" t="n">
-        <v>0.238827</v>
+        <v>0.244758</v>
       </c>
       <c r="D64" t="n">
-        <v>0.258414</v>
+        <v>0.247342</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.236611</v>
+        <v>0.227647</v>
       </c>
       <c r="C65" t="n">
-        <v>0.24063</v>
+        <v>0.243203</v>
       </c>
       <c r="D65" t="n">
-        <v>0.253651</v>
+        <v>0.245927</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.228001</v>
+        <v>0.218665</v>
       </c>
       <c r="C66" t="n">
-        <v>0.240606</v>
+        <v>0.2462</v>
       </c>
       <c r="D66" t="n">
-        <v>0.255555</v>
+        <v>0.246329</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.322828</v>
+        <v>0.31942</v>
       </c>
       <c r="C67" t="n">
-        <v>0.26592</v>
+        <v>0.272514</v>
       </c>
       <c r="D67" t="n">
-        <v>0.279783</v>
+        <v>0.276063</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.320586</v>
+        <v>0.307712</v>
       </c>
       <c r="C68" t="n">
-        <v>0.271216</v>
+        <v>0.277288</v>
       </c>
       <c r="D68" t="n">
-        <v>0.275458</v>
+        <v>0.275446</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.313629</v>
+        <v>0.302219</v>
       </c>
       <c r="C69" t="n">
-        <v>0.267381</v>
+        <v>0.274036</v>
       </c>
       <c r="D69" t="n">
-        <v>0.274353</v>
+        <v>0.27586</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.309826</v>
+        <v>0.302481</v>
       </c>
       <c r="C70" t="n">
-        <v>0.259311</v>
+        <v>0.270695</v>
       </c>
       <c r="D70" t="n">
-        <v>0.270837</v>
+        <v>0.265624</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.300175</v>
+        <v>0.293075</v>
       </c>
       <c r="C71" t="n">
-        <v>0.261797</v>
+        <v>0.266198</v>
       </c>
       <c r="D71" t="n">
-        <v>0.271288</v>
+        <v>0.267566</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.296551</v>
+        <v>0.286631</v>
       </c>
       <c r="C72" t="n">
-        <v>0.258301</v>
+        <v>0.269782</v>
       </c>
       <c r="D72" t="n">
-        <v>0.280918</v>
+        <v>0.266524</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.288202</v>
+        <v>0.277792</v>
       </c>
       <c r="C73" t="n">
-        <v>0.253477</v>
+        <v>0.267032</v>
       </c>
       <c r="D73" t="n">
-        <v>0.266817</v>
+        <v>0.270069</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.282111</v>
+        <v>0.27128</v>
       </c>
       <c r="C74" t="n">
-        <v>0.255235</v>
+        <v>0.261526</v>
       </c>
       <c r="D74" t="n">
-        <v>0.267947</v>
+        <v>0.264591</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.273564</v>
+        <v>0.264885</v>
       </c>
       <c r="C75" t="n">
-        <v>0.253726</v>
+        <v>0.259031</v>
       </c>
       <c r="D75" t="n">
-        <v>0.262357</v>
+        <v>0.260556</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.265118</v>
+        <v>0.258339</v>
       </c>
       <c r="C76" t="n">
-        <v>0.251379</v>
+        <v>0.262854</v>
       </c>
       <c r="D76" t="n">
-        <v>0.262868</v>
+        <v>0.259646</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.259611</v>
+        <v>0.2512</v>
       </c>
       <c r="C77" t="n">
-        <v>0.249554</v>
+        <v>0.256141</v>
       </c>
       <c r="D77" t="n">
-        <v>0.261976</v>
+        <v>0.258644</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254677</v>
+        <v>0.240245</v>
       </c>
       <c r="C78" t="n">
-        <v>0.24758</v>
+        <v>0.257465</v>
       </c>
       <c r="D78" t="n">
-        <v>0.260371</v>
+        <v>0.250847</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.242071</v>
+        <v>0.237425</v>
       </c>
       <c r="C79" t="n">
-        <v>0.244959</v>
+        <v>0.251734</v>
       </c>
       <c r="D79" t="n">
-        <v>0.260259</v>
+        <v>0.251477</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.234693</v>
+        <v>0.226518</v>
       </c>
       <c r="C80" t="n">
-        <v>0.249206</v>
+        <v>0.248746</v>
       </c>
       <c r="D80" t="n">
-        <v>0.260475</v>
+        <v>0.251297</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.336377</v>
+        <v>0.321937</v>
       </c>
       <c r="C81" t="n">
-        <v>0.277379</v>
+        <v>0.279851</v>
       </c>
       <c r="D81" t="n">
-        <v>0.289479</v>
+        <v>0.282225</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.33059</v>
+        <v>0.318284</v>
       </c>
       <c r="C82" t="n">
-        <v>0.275718</v>
+        <v>0.277029</v>
       </c>
       <c r="D82" t="n">
-        <v>0.283947</v>
+        <v>0.278827</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.324159</v>
+        <v>0.311033</v>
       </c>
       <c r="C83" t="n">
-        <v>0.270107</v>
+        <v>0.272591</v>
       </c>
       <c r="D83" t="n">
-        <v>0.280728</v>
+        <v>0.278181</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.311265</v>
+        <v>0.305125</v>
       </c>
       <c r="C84" t="n">
-        <v>0.268441</v>
+        <v>0.272706</v>
       </c>
       <c r="D84" t="n">
-        <v>0.281758</v>
+        <v>0.275412</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.3068</v>
+        <v>0.293939</v>
       </c>
       <c r="C85" t="n">
-        <v>0.263265</v>
+        <v>0.267729</v>
       </c>
       <c r="D85" t="n">
-        <v>0.277253</v>
+        <v>0.268795</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.303062</v>
+        <v>0.289099</v>
       </c>
       <c r="C86" t="n">
-        <v>0.261662</v>
+        <v>0.268756</v>
       </c>
       <c r="D86" t="n">
-        <v>0.273809</v>
+        <v>0.268564</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.29364</v>
+        <v>0.28085</v>
       </c>
       <c r="C87" t="n">
-        <v>0.260954</v>
+        <v>0.267342</v>
       </c>
       <c r="D87" t="n">
-        <v>0.268985</v>
+        <v>0.269074</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.288206</v>
+        <v>0.278616</v>
       </c>
       <c r="C88" t="n">
-        <v>0.257722</v>
+        <v>0.266391</v>
       </c>
       <c r="D88" t="n">
-        <v>0.269673</v>
+        <v>0.264521</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.279746</v>
+        <v>0.26812</v>
       </c>
       <c r="C89" t="n">
-        <v>0.253916</v>
+        <v>0.264022</v>
       </c>
       <c r="D89" t="n">
-        <v>0.270836</v>
+        <v>0.260295</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.273968</v>
+        <v>0.260192</v>
       </c>
       <c r="C90" t="n">
-        <v>0.254216</v>
+        <v>0.258197</v>
       </c>
       <c r="D90" t="n">
-        <v>0.267371</v>
+        <v>0.258934</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.265276</v>
+        <v>0.255102</v>
       </c>
       <c r="C91" t="n">
-        <v>0.25341</v>
+        <v>0.256858</v>
       </c>
       <c r="D91" t="n">
-        <v>0.263655</v>
+        <v>0.261977</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.255287</v>
+        <v>0.245374</v>
       </c>
       <c r="C92" t="n">
-        <v>0.249567</v>
+        <v>0.253588</v>
       </c>
       <c r="D92" t="n">
-        <v>0.260945</v>
+        <v>0.258768</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.262294</v>
+        <v>0.240541</v>
       </c>
       <c r="C93" t="n">
-        <v>0.258735</v>
+        <v>0.25358</v>
       </c>
       <c r="D93" t="n">
-        <v>0.266682</v>
+        <v>0.256682</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.250267</v>
+        <v>0.229531</v>
       </c>
       <c r="C94" t="n">
-        <v>0.259569</v>
+        <v>0.249375</v>
       </c>
       <c r="D94" t="n">
-        <v>0.26747</v>
+        <v>0.253497</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.346971</v>
+        <v>0.326872</v>
       </c>
       <c r="C95" t="n">
-        <v>0.277028</v>
+        <v>0.284592</v>
       </c>
       <c r="D95" t="n">
-        <v>0.292173</v>
+        <v>0.28062</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.335038</v>
+        <v>0.31763</v>
       </c>
       <c r="C96" t="n">
-        <v>0.273638</v>
+        <v>0.275869</v>
       </c>
       <c r="D96" t="n">
-        <v>0.285046</v>
+        <v>0.28184</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.32656</v>
+        <v>0.311925</v>
       </c>
       <c r="C97" t="n">
-        <v>0.270332</v>
+        <v>0.277648</v>
       </c>
       <c r="D97" t="n">
-        <v>0.285045</v>
+        <v>0.278161</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.318574</v>
+        <v>0.300891</v>
       </c>
       <c r="C98" t="n">
-        <v>0.270588</v>
+        <v>0.275145</v>
       </c>
       <c r="D98" t="n">
-        <v>0.280767</v>
+        <v>0.277741</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.313737</v>
+        <v>0.295973</v>
       </c>
       <c r="C99" t="n">
-        <v>0.268167</v>
+        <v>0.270434</v>
       </c>
       <c r="D99" t="n">
-        <v>0.281814</v>
+        <v>0.271316</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.30709</v>
+        <v>0.296295</v>
       </c>
       <c r="C100" t="n">
-        <v>0.265582</v>
+        <v>0.26816</v>
       </c>
       <c r="D100" t="n">
-        <v>0.279219</v>
+        <v>0.271758</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.300807</v>
+        <v>0.284407</v>
       </c>
       <c r="C101" t="n">
-        <v>0.264892</v>
+        <v>0.265646</v>
       </c>
       <c r="D101" t="n">
-        <v>0.273384</v>
+        <v>0.268194</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.292161</v>
+        <v>0.276566</v>
       </c>
       <c r="C102" t="n">
-        <v>0.259564</v>
+        <v>0.262849</v>
       </c>
       <c r="D102" t="n">
-        <v>0.270847</v>
+        <v>0.264259</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.283359</v>
+        <v>0.27049</v>
       </c>
       <c r="C103" t="n">
-        <v>0.256893</v>
+        <v>0.261487</v>
       </c>
       <c r="D103" t="n">
-        <v>0.273712</v>
+        <v>0.264112</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.276245</v>
+        <v>0.265314</v>
       </c>
       <c r="C104" t="n">
-        <v>0.254547</v>
+        <v>0.262326</v>
       </c>
       <c r="D104" t="n">
-        <v>0.270464</v>
+        <v>0.262018</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.264425</v>
+        <v>0.256669</v>
       </c>
       <c r="C105" t="n">
-        <v>0.254821</v>
+        <v>0.258317</v>
       </c>
       <c r="D105" t="n">
-        <v>0.263981</v>
+        <v>0.259805</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.258946</v>
+        <v>0.248401</v>
       </c>
       <c r="C106" t="n">
-        <v>0.251205</v>
+        <v>0.257578</v>
       </c>
       <c r="D106" t="n">
-        <v>0.267378</v>
+        <v>0.260734</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.251448</v>
+        <v>0.239968</v>
       </c>
       <c r="C107" t="n">
-        <v>0.250539</v>
+        <v>0.251835</v>
       </c>
       <c r="D107" t="n">
-        <v>0.260995</v>
+        <v>0.254446</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.241946</v>
+        <v>0.232163</v>
       </c>
       <c r="C108" t="n">
-        <v>0.252617</v>
+        <v>0.254867</v>
       </c>
       <c r="D108" t="n">
-        <v>0.261466</v>
+        <v>0.256684</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.232594</v>
+        <v>0.222021</v>
       </c>
       <c r="C109" t="n">
-        <v>0.247868</v>
+        <v>0.248544</v>
       </c>
       <c r="D109" t="n">
-        <v>0.257499</v>
+        <v>0.251677</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.332233</v>
+        <v>0.322899</v>
       </c>
       <c r="C110" t="n">
-        <v>0.275789</v>
+        <v>0.276671</v>
       </c>
       <c r="D110" t="n">
-        <v>0.286981</v>
+        <v>0.28049</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.327818</v>
+        <v>0.315423</v>
       </c>
       <c r="C111" t="n">
-        <v>0.275321</v>
+        <v>0.274855</v>
       </c>
       <c r="D111" t="n">
-        <v>0.284703</v>
+        <v>0.279421</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.321087</v>
+        <v>0.306362</v>
       </c>
       <c r="C112" t="n">
-        <v>0.270922</v>
+        <v>0.276223</v>
       </c>
       <c r="D112" t="n">
-        <v>0.280873</v>
+        <v>0.273135</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.31677</v>
+        <v>0.300329</v>
       </c>
       <c r="C113" t="n">
-        <v>0.268336</v>
+        <v>0.271311</v>
       </c>
       <c r="D113" t="n">
-        <v>0.282862</v>
+        <v>0.271352</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.3091</v>
+        <v>0.298466</v>
       </c>
       <c r="C114" t="n">
-        <v>0.264944</v>
+        <v>0.269156</v>
       </c>
       <c r="D114" t="n">
-        <v>0.275794</v>
+        <v>0.268255</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.298301</v>
+        <v>0.285617</v>
       </c>
       <c r="C115" t="n">
-        <v>0.262479</v>
+        <v>0.267767</v>
       </c>
       <c r="D115" t="n">
-        <v>0.272884</v>
+        <v>0.274019</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.292221</v>
+        <v>0.277346</v>
       </c>
       <c r="C116" t="n">
-        <v>0.259646</v>
+        <v>0.265668</v>
       </c>
       <c r="D116" t="n">
-        <v>0.27463</v>
+        <v>0.268642</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.281309</v>
+        <v>0.275397</v>
       </c>
       <c r="C117" t="n">
-        <v>0.257843</v>
+        <v>0.265394</v>
       </c>
       <c r="D117" t="n">
-        <v>0.268649</v>
+        <v>0.265337</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.275499</v>
+        <v>0.264298</v>
       </c>
       <c r="C118" t="n">
-        <v>0.255808</v>
+        <v>0.260001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.26966</v>
+        <v>0.261815</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.273675</v>
+        <v>0.259722</v>
       </c>
       <c r="C119" t="n">
-        <v>0.252602</v>
+        <v>0.260115</v>
       </c>
       <c r="D119" t="n">
-        <v>0.265705</v>
+        <v>0.265523</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.261913</v>
+        <v>0.252113</v>
       </c>
       <c r="C120" t="n">
-        <v>0.250308</v>
+        <v>0.257637</v>
       </c>
       <c r="D120" t="n">
-        <v>0.265314</v>
+        <v>0.256985</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.257986</v>
+        <v>0.243016</v>
       </c>
       <c r="C121" t="n">
-        <v>0.247083</v>
+        <v>0.251494</v>
       </c>
       <c r="D121" t="n">
-        <v>0.260792</v>
+        <v>0.258546</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.245167</v>
+        <v>0.23915</v>
       </c>
       <c r="C122" t="n">
-        <v>0.249339</v>
+        <v>0.251328</v>
       </c>
       <c r="D122" t="n">
-        <v>0.261305</v>
+        <v>0.255918</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.24318</v>
+        <v>0.22627</v>
       </c>
       <c r="C123" t="n">
-        <v>0.248517</v>
+        <v>0.250371</v>
       </c>
       <c r="D123" t="n">
-        <v>0.256607</v>
+        <v>0.252679</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.335993</v>
+        <v>0.322951</v>
       </c>
       <c r="C124" t="n">
-        <v>0.282709</v>
+        <v>0.285313</v>
       </c>
       <c r="D124" t="n">
-        <v>0.28994</v>
+        <v>0.283584</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.327661</v>
+        <v>0.316841</v>
       </c>
       <c r="C125" t="n">
-        <v>0.271653</v>
+        <v>0.279387</v>
       </c>
       <c r="D125" t="n">
-        <v>0.281881</v>
+        <v>0.278324</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.326584</v>
+        <v>0.31355</v>
       </c>
       <c r="C126" t="n">
-        <v>0.269476</v>
+        <v>0.279909</v>
       </c>
       <c r="D126" t="n">
-        <v>0.280789</v>
+        <v>0.276314</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.311828</v>
+        <v>0.301746</v>
       </c>
       <c r="C127" t="n">
-        <v>0.267012</v>
+        <v>0.271119</v>
       </c>
       <c r="D127" t="n">
-        <v>0.279449</v>
+        <v>0.274937</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.309783</v>
+        <v>0.292001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.265501</v>
+        <v>0.269353</v>
       </c>
       <c r="D128" t="n">
-        <v>0.276966</v>
+        <v>0.270753</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.293876</v>
+        <v>0.286218</v>
       </c>
       <c r="C129" t="n">
-        <v>0.263782</v>
+        <v>0.274044</v>
       </c>
       <c r="D129" t="n">
-        <v>0.272616</v>
+        <v>0.267584</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.294912</v>
+        <v>0.281909</v>
       </c>
       <c r="C130" t="n">
-        <v>0.260481</v>
+        <v>0.264133</v>
       </c>
       <c r="D130" t="n">
-        <v>0.270292</v>
+        <v>0.265912</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.285469</v>
+        <v>0.274238</v>
       </c>
       <c r="C131" t="n">
-        <v>0.257375</v>
+        <v>0.264326</v>
       </c>
       <c r="D131" t="n">
-        <v>0.272943</v>
+        <v>0.262108</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.277555</v>
+        <v>0.265099</v>
       </c>
       <c r="C132" t="n">
-        <v>0.254134</v>
+        <v>0.25998</v>
       </c>
       <c r="D132" t="n">
-        <v>0.267968</v>
+        <v>0.259382</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.27015</v>
+        <v>0.258316</v>
       </c>
       <c r="C133" t="n">
-        <v>0.251733</v>
+        <v>0.257046</v>
       </c>
       <c r="D133" t="n">
-        <v>0.268048</v>
+        <v>0.257539</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.266566</v>
+        <v>0.247962</v>
       </c>
       <c r="C134" t="n">
-        <v>0.25296</v>
+        <v>0.256342</v>
       </c>
       <c r="D134" t="n">
-        <v>0.266403</v>
+        <v>0.25578</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.255429</v>
+        <v>0.240548</v>
       </c>
       <c r="C135" t="n">
-        <v>0.251515</v>
+        <v>0.257445</v>
       </c>
       <c r="D135" t="n">
-        <v>0.261156</v>
+        <v>0.250648</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.244805</v>
+        <v>0.235216</v>
       </c>
       <c r="C136" t="n">
-        <v>0.246275</v>
+        <v>0.253575</v>
       </c>
       <c r="D136" t="n">
-        <v>0.265767</v>
+        <v>0.257048</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235646</v>
+        <v>0.228957</v>
       </c>
       <c r="C137" t="n">
-        <v>0.254984</v>
+        <v>0.2499</v>
       </c>
       <c r="D137" t="n">
-        <v>0.259693</v>
+        <v>0.252167</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.334025</v>
+        <v>0.323405</v>
       </c>
       <c r="C138" t="n">
-        <v>0.278957</v>
+        <v>0.285659</v>
       </c>
       <c r="D138" t="n">
-        <v>0.28563</v>
+        <v>0.277895</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.331658</v>
+        <v>0.313057</v>
       </c>
       <c r="C139" t="n">
-        <v>0.273334</v>
+        <v>0.277949</v>
       </c>
       <c r="D139" t="n">
-        <v>0.287675</v>
+        <v>0.276837</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.320414</v>
+        <v>0.306459</v>
       </c>
       <c r="C140" t="n">
-        <v>0.27959</v>
+        <v>0.270906</v>
       </c>
       <c r="D140" t="n">
-        <v>0.281096</v>
+        <v>0.27897</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.311311</v>
+        <v>0.306475</v>
       </c>
       <c r="C141" t="n">
-        <v>0.268894</v>
+        <v>0.27383</v>
       </c>
       <c r="D141" t="n">
-        <v>0.27906</v>
+        <v>0.276836</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.309608</v>
+        <v>0.297214</v>
       </c>
       <c r="C142" t="n">
-        <v>0.265184</v>
+        <v>0.275888</v>
       </c>
       <c r="D142" t="n">
-        <v>0.279402</v>
+        <v>0.27661</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.301248</v>
+        <v>0.286661</v>
       </c>
       <c r="C143" t="n">
-        <v>0.259548</v>
+        <v>0.273345</v>
       </c>
       <c r="D143" t="n">
-        <v>0.275099</v>
+        <v>0.271513</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.254868</v>
+        <v>0.277612</v>
       </c>
       <c r="C2" t="n">
-        <v>0.237166</v>
+        <v>0.237616</v>
       </c>
       <c r="D2" t="n">
-        <v>0.241178</v>
+        <v>0.249446</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.246934</v>
+        <v>0.267267</v>
       </c>
       <c r="C3" t="n">
-        <v>0.239836</v>
+        <v>0.237875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.229254</v>
+        <v>0.245011</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.244</v>
+        <v>0.260107</v>
       </c>
       <c r="C4" t="n">
-        <v>0.232253</v>
+        <v>0.235447</v>
       </c>
       <c r="D4" t="n">
-        <v>0.230176</v>
+        <v>0.240123</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.240383</v>
+        <v>0.248002</v>
       </c>
       <c r="C5" t="n">
-        <v>0.238301</v>
+        <v>0.23727</v>
       </c>
       <c r="D5" t="n">
-        <v>0.232977</v>
+        <v>0.244383</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.229601</v>
+        <v>0.248687</v>
       </c>
       <c r="C6" t="n">
-        <v>0.238779</v>
+        <v>0.237044</v>
       </c>
       <c r="D6" t="n">
-        <v>0.233757</v>
+        <v>0.243954</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.227202</v>
+        <v>0.23953</v>
       </c>
       <c r="C7" t="n">
-        <v>0.231697</v>
+        <v>0.236006</v>
       </c>
       <c r="D7" t="n">
-        <v>0.233155</v>
+        <v>0.247921</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.221938</v>
+        <v>0.232074</v>
       </c>
       <c r="C8" t="n">
-        <v>0.236477</v>
+        <v>0.234229</v>
       </c>
       <c r="D8" t="n">
-        <v>0.229395</v>
+        <v>0.245029</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.207683</v>
+        <v>0.22054</v>
       </c>
       <c r="C9" t="n">
-        <v>0.231219</v>
+        <v>0.232108</v>
       </c>
       <c r="D9" t="n">
-        <v>0.23435</v>
+        <v>0.254741</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.295401</v>
+        <v>0.313114</v>
       </c>
       <c r="C10" t="n">
-        <v>0.251886</v>
+        <v>0.252265</v>
       </c>
       <c r="D10" t="n">
-        <v>0.246816</v>
+        <v>0.252451</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.288899</v>
+        <v>0.302266</v>
       </c>
       <c r="C11" t="n">
-        <v>0.245883</v>
+        <v>0.248702</v>
       </c>
       <c r="D11" t="n">
-        <v>0.24831</v>
+        <v>0.252109</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.28536</v>
+        <v>0.297905</v>
       </c>
       <c r="C12" t="n">
-        <v>0.248942</v>
+        <v>0.243641</v>
       </c>
       <c r="D12" t="n">
-        <v>0.242254</v>
+        <v>0.248819</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.27782</v>
+        <v>0.291359</v>
       </c>
       <c r="C13" t="n">
-        <v>0.246093</v>
+        <v>0.245188</v>
       </c>
       <c r="D13" t="n">
-        <v>0.246749</v>
+        <v>0.247667</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.273456</v>
+        <v>0.289013</v>
       </c>
       <c r="C14" t="n">
-        <v>0.243807</v>
+        <v>0.242348</v>
       </c>
       <c r="D14" t="n">
-        <v>0.244759</v>
+        <v>0.247431</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.270485</v>
+        <v>0.280638</v>
       </c>
       <c r="C15" t="n">
-        <v>0.240184</v>
+        <v>0.242314</v>
       </c>
       <c r="D15" t="n">
-        <v>0.244446</v>
+        <v>0.249535</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.262233</v>
+        <v>0.278241</v>
       </c>
       <c r="C16" t="n">
-        <v>0.24201</v>
+        <v>0.242239</v>
       </c>
       <c r="D16" t="n">
-        <v>0.241851</v>
+        <v>0.25091</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.256315</v>
+        <v>0.270613</v>
       </c>
       <c r="C17" t="n">
-        <v>0.241229</v>
+        <v>0.237245</v>
       </c>
       <c r="D17" t="n">
-        <v>0.243388</v>
+        <v>0.250632</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.250023</v>
+        <v>0.259777</v>
       </c>
       <c r="C18" t="n">
-        <v>0.241832</v>
+        <v>0.235767</v>
       </c>
       <c r="D18" t="n">
-        <v>0.239749</v>
+        <v>0.243118</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.24363</v>
+        <v>0.254062</v>
       </c>
       <c r="C19" t="n">
-        <v>0.238423</v>
+        <v>0.238047</v>
       </c>
       <c r="D19" t="n">
-        <v>0.239341</v>
+        <v>0.246965</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.236854</v>
+        <v>0.248433</v>
       </c>
       <c r="C20" t="n">
-        <v>0.239791</v>
+        <v>0.235759</v>
       </c>
       <c r="D20" t="n">
-        <v>0.240984</v>
+        <v>0.251273</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.230633</v>
+        <v>0.240274</v>
       </c>
       <c r="C21" t="n">
-        <v>0.234258</v>
+        <v>0.236781</v>
       </c>
       <c r="D21" t="n">
-        <v>0.23678</v>
+        <v>0.244685</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.222487</v>
+        <v>0.229253</v>
       </c>
       <c r="C22" t="n">
-        <v>0.234925</v>
+        <v>0.233028</v>
       </c>
       <c r="D22" t="n">
-        <v>0.236442</v>
+        <v>0.246264</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.213643</v>
+        <v>0.222911</v>
       </c>
       <c r="C23" t="n">
-        <v>0.235</v>
+        <v>0.229743</v>
       </c>
       <c r="D23" t="n">
-        <v>0.237885</v>
+        <v>0.262301</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.298891</v>
+        <v>0.307348</v>
       </c>
       <c r="C24" t="n">
-        <v>0.25702</v>
+        <v>0.249679</v>
       </c>
       <c r="D24" t="n">
-        <v>0.251739</v>
+        <v>0.260124</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.290734</v>
+        <v>0.304529</v>
       </c>
       <c r="C25" t="n">
-        <v>0.253513</v>
+        <v>0.25232</v>
       </c>
       <c r="D25" t="n">
-        <v>0.251883</v>
+        <v>0.255876</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.286909</v>
+        <v>0.297462</v>
       </c>
       <c r="C26" t="n">
-        <v>0.25322</v>
+        <v>0.250366</v>
       </c>
       <c r="D26" t="n">
-        <v>0.252519</v>
+        <v>0.258634</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.282622</v>
+        <v>0.295187</v>
       </c>
       <c r="C27" t="n">
-        <v>0.250074</v>
+        <v>0.246524</v>
       </c>
       <c r="D27" t="n">
-        <v>0.251738</v>
+        <v>0.254726</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.27339</v>
+        <v>0.286744</v>
       </c>
       <c r="C28" t="n">
-        <v>0.248938</v>
+        <v>0.244294</v>
       </c>
       <c r="D28" t="n">
-        <v>0.247855</v>
+        <v>0.253732</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.270043</v>
+        <v>0.279718</v>
       </c>
       <c r="C29" t="n">
-        <v>0.247086</v>
+        <v>0.240113</v>
       </c>
       <c r="D29" t="n">
-        <v>0.246938</v>
+        <v>0.250294</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.262228</v>
+        <v>0.276454</v>
       </c>
       <c r="C30" t="n">
-        <v>0.248576</v>
+        <v>0.242595</v>
       </c>
       <c r="D30" t="n">
-        <v>0.248565</v>
+        <v>0.251228</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.256954</v>
+        <v>0.26781</v>
       </c>
       <c r="C31" t="n">
-        <v>0.244209</v>
+        <v>0.242052</v>
       </c>
       <c r="D31" t="n">
-        <v>0.248266</v>
+        <v>0.250753</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.251749</v>
+        <v>0.26353</v>
       </c>
       <c r="C32" t="n">
-        <v>0.244198</v>
+        <v>0.236106</v>
       </c>
       <c r="D32" t="n">
-        <v>0.244176</v>
+        <v>0.250216</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.243134</v>
+        <v>0.256415</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242433</v>
+        <v>0.238272</v>
       </c>
       <c r="D33" t="n">
-        <v>0.24179</v>
+        <v>0.247293</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.240375</v>
+        <v>0.252425</v>
       </c>
       <c r="C34" t="n">
-        <v>0.240875</v>
+        <v>0.239337</v>
       </c>
       <c r="D34" t="n">
-        <v>0.24115</v>
+        <v>0.252827</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.232004</v>
+        <v>0.243723</v>
       </c>
       <c r="C35" t="n">
-        <v>0.239905</v>
+        <v>0.235307</v>
       </c>
       <c r="D35" t="n">
-        <v>0.241153</v>
+        <v>0.248596</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.225505</v>
+        <v>0.234639</v>
       </c>
       <c r="C36" t="n">
-        <v>0.239675</v>
+        <v>0.232671</v>
       </c>
       <c r="D36" t="n">
-        <v>0.240077</v>
+        <v>0.246655</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.217924</v>
+        <v>0.226678</v>
       </c>
       <c r="C37" t="n">
-        <v>0.240592</v>
+        <v>0.235566</v>
       </c>
       <c r="D37" t="n">
-        <v>0.242134</v>
+        <v>0.26814</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.303525</v>
+        <v>0.313184</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2595</v>
+        <v>0.258242</v>
       </c>
       <c r="D38" t="n">
-        <v>0.25815</v>
+        <v>0.263231</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.294712</v>
+        <v>0.310338</v>
       </c>
       <c r="C39" t="n">
-        <v>0.260247</v>
+        <v>0.253671</v>
       </c>
       <c r="D39" t="n">
-        <v>0.257874</v>
+        <v>0.259829</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.292518</v>
+        <v>0.302347</v>
       </c>
       <c r="C40" t="n">
-        <v>0.260287</v>
+        <v>0.251067</v>
       </c>
       <c r="D40" t="n">
-        <v>0.258046</v>
+        <v>0.258242</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.286113</v>
+        <v>0.298752</v>
       </c>
       <c r="C41" t="n">
-        <v>0.25702</v>
+        <v>0.250304</v>
       </c>
       <c r="D41" t="n">
-        <v>0.26557</v>
+        <v>0.258842</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.283572</v>
+        <v>0.290743</v>
       </c>
       <c r="C42" t="n">
-        <v>0.253508</v>
+        <v>0.248095</v>
       </c>
       <c r="D42" t="n">
-        <v>0.253558</v>
+        <v>0.258521</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.273032</v>
+        <v>0.28671</v>
       </c>
       <c r="C43" t="n">
-        <v>0.25065</v>
+        <v>0.247546</v>
       </c>
       <c r="D43" t="n">
-        <v>0.254671</v>
+        <v>0.255436</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.270133</v>
+        <v>0.281247</v>
       </c>
       <c r="C44" t="n">
-        <v>0.253933</v>
+        <v>0.245766</v>
       </c>
       <c r="D44" t="n">
-        <v>0.253649</v>
+        <v>0.255872</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.263464</v>
+        <v>0.272569</v>
       </c>
       <c r="C45" t="n">
-        <v>0.249893</v>
+        <v>0.245458</v>
       </c>
       <c r="D45" t="n">
-        <v>0.246611</v>
+        <v>0.252648</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.259473</v>
+        <v>0.270992</v>
       </c>
       <c r="C46" t="n">
-        <v>0.251481</v>
+        <v>0.238906</v>
       </c>
       <c r="D46" t="n">
-        <v>0.248118</v>
+        <v>0.256618</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.244101</v>
+        <v>0.260362</v>
       </c>
       <c r="C47" t="n">
-        <v>0.240999</v>
+        <v>0.24195</v>
       </c>
       <c r="D47" t="n">
-        <v>0.241895</v>
+        <v>0.252148</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.245259</v>
+        <v>0.251946</v>
       </c>
       <c r="C48" t="n">
-        <v>0.249339</v>
+        <v>0.237883</v>
       </c>
       <c r="D48" t="n">
-        <v>0.25132</v>
+        <v>0.252746</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.238814</v>
+        <v>0.246207</v>
       </c>
       <c r="C49" t="n">
-        <v>0.246178</v>
+        <v>0.237981</v>
       </c>
       <c r="D49" t="n">
-        <v>0.245034</v>
+        <v>0.248619</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.229125</v>
+        <v>0.239038</v>
       </c>
       <c r="C50" t="n">
-        <v>0.23995</v>
+        <v>0.238301</v>
       </c>
       <c r="D50" t="n">
-        <v>0.241806</v>
+        <v>0.246774</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.221276</v>
+        <v>0.229169</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242993</v>
+        <v>0.234292</v>
       </c>
       <c r="D51" t="n">
-        <v>0.244563</v>
+        <v>0.274268</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.216089</v>
+        <v>0.223677</v>
       </c>
       <c r="C52" t="n">
-        <v>0.237154</v>
+        <v>0.235155</v>
       </c>
       <c r="D52" t="n">
-        <v>0.241444</v>
+        <v>0.270737</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.304729</v>
+        <v>0.319675</v>
       </c>
       <c r="C53" t="n">
-        <v>0.26699</v>
+        <v>0.260026</v>
       </c>
       <c r="D53" t="n">
-        <v>0.268789</v>
+        <v>0.269673</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.296008</v>
+        <v>0.311396</v>
       </c>
       <c r="C54" t="n">
-        <v>0.263879</v>
+        <v>0.25784</v>
       </c>
       <c r="D54" t="n">
-        <v>0.263701</v>
+        <v>0.269119</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.293227</v>
+        <v>0.307455</v>
       </c>
       <c r="C55" t="n">
-        <v>0.264724</v>
+        <v>0.255189</v>
       </c>
       <c r="D55" t="n">
-        <v>0.263872</v>
+        <v>0.268151</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.29376</v>
+        <v>0.300887</v>
       </c>
       <c r="C56" t="n">
-        <v>0.25949</v>
+        <v>0.254644</v>
       </c>
       <c r="D56" t="n">
-        <v>0.260464</v>
+        <v>0.262974</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.282731</v>
+        <v>0.29702</v>
       </c>
       <c r="C57" t="n">
-        <v>0.258028</v>
+        <v>0.254126</v>
       </c>
       <c r="D57" t="n">
-        <v>0.260186</v>
+        <v>0.262727</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.27442</v>
+        <v>0.289818</v>
       </c>
       <c r="C58" t="n">
-        <v>0.258533</v>
+        <v>0.25206</v>
       </c>
       <c r="D58" t="n">
-        <v>0.255483</v>
+        <v>0.263215</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.27257</v>
+        <v>0.280629</v>
       </c>
       <c r="C59" t="n">
-        <v>0.254213</v>
+        <v>0.251265</v>
       </c>
       <c r="D59" t="n">
-        <v>0.253773</v>
+        <v>0.261061</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.262744</v>
+        <v>0.275523</v>
       </c>
       <c r="C60" t="n">
-        <v>0.250966</v>
+        <v>0.247641</v>
       </c>
       <c r="D60" t="n">
-        <v>0.252514</v>
+        <v>0.25516</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.254583</v>
+        <v>0.267285</v>
       </c>
       <c r="C61" t="n">
-        <v>0.251012</v>
+        <v>0.248653</v>
       </c>
       <c r="D61" t="n">
-        <v>0.252647</v>
+        <v>0.254721</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.249908</v>
+        <v>0.260818</v>
       </c>
       <c r="C62" t="n">
-        <v>0.252184</v>
+        <v>0.248083</v>
       </c>
       <c r="D62" t="n">
-        <v>0.249937</v>
+        <v>0.256644</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.243344</v>
+        <v>0.254471</v>
       </c>
       <c r="C63" t="n">
-        <v>0.253042</v>
+        <v>0.24206</v>
       </c>
       <c r="D63" t="n">
-        <v>0.248083</v>
+        <v>0.254381</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.237928</v>
+        <v>0.247159</v>
       </c>
       <c r="C64" t="n">
-        <v>0.244758</v>
+        <v>0.244614</v>
       </c>
       <c r="D64" t="n">
-        <v>0.247342</v>
+        <v>0.25479</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.227647</v>
+        <v>0.237179</v>
       </c>
       <c r="C65" t="n">
-        <v>0.243203</v>
+        <v>0.238983</v>
       </c>
       <c r="D65" t="n">
-        <v>0.245927</v>
+        <v>0.254642</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.218665</v>
+        <v>0.229297</v>
       </c>
       <c r="C66" t="n">
-        <v>0.2462</v>
+        <v>0.239121</v>
       </c>
       <c r="D66" t="n">
-        <v>0.246329</v>
+        <v>0.288493</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.31942</v>
+        <v>0.329566</v>
       </c>
       <c r="C67" t="n">
-        <v>0.272514</v>
+        <v>0.275412</v>
       </c>
       <c r="D67" t="n">
-        <v>0.276063</v>
+        <v>0.280608</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.307712</v>
+        <v>0.324569</v>
       </c>
       <c r="C68" t="n">
-        <v>0.277288</v>
+        <v>0.274451</v>
       </c>
       <c r="D68" t="n">
-        <v>0.275446</v>
+        <v>0.282161</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.302219</v>
+        <v>0.318677</v>
       </c>
       <c r="C69" t="n">
-        <v>0.274036</v>
+        <v>0.271529</v>
       </c>
       <c r="D69" t="n">
-        <v>0.27586</v>
+        <v>0.277118</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.302481</v>
+        <v>0.312474</v>
       </c>
       <c r="C70" t="n">
-        <v>0.270695</v>
+        <v>0.262165</v>
       </c>
       <c r="D70" t="n">
-        <v>0.265624</v>
+        <v>0.275355</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.293075</v>
+        <v>0.305599</v>
       </c>
       <c r="C71" t="n">
-        <v>0.266198</v>
+        <v>0.264495</v>
       </c>
       <c r="D71" t="n">
-        <v>0.267566</v>
+        <v>0.272018</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.286631</v>
+        <v>0.294691</v>
       </c>
       <c r="C72" t="n">
-        <v>0.269782</v>
+        <v>0.260599</v>
       </c>
       <c r="D72" t="n">
-        <v>0.266524</v>
+        <v>0.263852</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.277792</v>
+        <v>0.29506</v>
       </c>
       <c r="C73" t="n">
-        <v>0.267032</v>
+        <v>0.25633</v>
       </c>
       <c r="D73" t="n">
-        <v>0.270069</v>
+        <v>0.268655</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.27128</v>
+        <v>0.284725</v>
       </c>
       <c r="C74" t="n">
-        <v>0.261526</v>
+        <v>0.254122</v>
       </c>
       <c r="D74" t="n">
-        <v>0.264591</v>
+        <v>0.261848</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.264885</v>
+        <v>0.275547</v>
       </c>
       <c r="C75" t="n">
-        <v>0.259031</v>
+        <v>0.253778</v>
       </c>
       <c r="D75" t="n">
-        <v>0.260556</v>
+        <v>0.264272</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.258339</v>
+        <v>0.266576</v>
       </c>
       <c r="C76" t="n">
-        <v>0.262854</v>
+        <v>0.252649</v>
       </c>
       <c r="D76" t="n">
-        <v>0.259646</v>
+        <v>0.266413</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.2512</v>
+        <v>0.263378</v>
       </c>
       <c r="C77" t="n">
-        <v>0.256141</v>
+        <v>0.247296</v>
       </c>
       <c r="D77" t="n">
-        <v>0.258644</v>
+        <v>0.259948</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.240245</v>
+        <v>0.255867</v>
       </c>
       <c r="C78" t="n">
-        <v>0.257465</v>
+        <v>0.251956</v>
       </c>
       <c r="D78" t="n">
-        <v>0.250847</v>
+        <v>0.256878</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.237425</v>
+        <v>0.243174</v>
       </c>
       <c r="C79" t="n">
-        <v>0.251734</v>
+        <v>0.245408</v>
       </c>
       <c r="D79" t="n">
-        <v>0.251477</v>
+        <v>0.257788</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.226518</v>
+        <v>0.237073</v>
       </c>
       <c r="C80" t="n">
-        <v>0.248746</v>
+        <v>0.246267</v>
       </c>
       <c r="D80" t="n">
-        <v>0.251297</v>
+        <v>0.288768</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.321937</v>
+        <v>0.331398</v>
       </c>
       <c r="C81" t="n">
-        <v>0.279851</v>
+        <v>0.278308</v>
       </c>
       <c r="D81" t="n">
-        <v>0.282225</v>
+        <v>0.280182</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.318284</v>
+        <v>0.327883</v>
       </c>
       <c r="C82" t="n">
-        <v>0.277029</v>
+        <v>0.270312</v>
       </c>
       <c r="D82" t="n">
-        <v>0.278827</v>
+        <v>0.280313</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.311033</v>
+        <v>0.325204</v>
       </c>
       <c r="C83" t="n">
-        <v>0.272591</v>
+        <v>0.268382</v>
       </c>
       <c r="D83" t="n">
-        <v>0.278181</v>
+        <v>0.279951</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.305125</v>
+        <v>0.316857</v>
       </c>
       <c r="C84" t="n">
-        <v>0.272706</v>
+        <v>0.267921</v>
       </c>
       <c r="D84" t="n">
-        <v>0.275412</v>
+        <v>0.276893</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.293939</v>
+        <v>0.31318</v>
       </c>
       <c r="C85" t="n">
-        <v>0.267729</v>
+        <v>0.263285</v>
       </c>
       <c r="D85" t="n">
-        <v>0.268795</v>
+        <v>0.273784</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.289099</v>
+        <v>0.305228</v>
       </c>
       <c r="C86" t="n">
-        <v>0.268756</v>
+        <v>0.265565</v>
       </c>
       <c r="D86" t="n">
-        <v>0.268564</v>
+        <v>0.268823</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.28085</v>
+        <v>0.299542</v>
       </c>
       <c r="C87" t="n">
-        <v>0.267342</v>
+        <v>0.259521</v>
       </c>
       <c r="D87" t="n">
-        <v>0.269074</v>
+        <v>0.270062</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.278616</v>
+        <v>0.288695</v>
       </c>
       <c r="C88" t="n">
-        <v>0.266391</v>
+        <v>0.25821</v>
       </c>
       <c r="D88" t="n">
-        <v>0.264521</v>
+        <v>0.265905</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.26812</v>
+        <v>0.28219</v>
       </c>
       <c r="C89" t="n">
-        <v>0.264022</v>
+        <v>0.259211</v>
       </c>
       <c r="D89" t="n">
-        <v>0.260295</v>
+        <v>0.265743</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.260192</v>
+        <v>0.278276</v>
       </c>
       <c r="C90" t="n">
-        <v>0.258197</v>
+        <v>0.255667</v>
       </c>
       <c r="D90" t="n">
-        <v>0.258934</v>
+        <v>0.267951</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.255102</v>
+        <v>0.267054</v>
       </c>
       <c r="C91" t="n">
-        <v>0.256858</v>
+        <v>0.255056</v>
       </c>
       <c r="D91" t="n">
-        <v>0.261977</v>
+        <v>0.262116</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.245374</v>
+        <v>0.258037</v>
       </c>
       <c r="C92" t="n">
-        <v>0.253588</v>
+        <v>0.252213</v>
       </c>
       <c r="D92" t="n">
-        <v>0.258768</v>
+        <v>0.260972</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.240541</v>
+        <v>0.250035</v>
       </c>
       <c r="C93" t="n">
-        <v>0.25358</v>
+        <v>0.249052</v>
       </c>
       <c r="D93" t="n">
-        <v>0.256682</v>
+        <v>0.258388</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.229531</v>
+        <v>0.239819</v>
       </c>
       <c r="C94" t="n">
-        <v>0.249375</v>
+        <v>0.245265</v>
       </c>
       <c r="D94" t="n">
-        <v>0.253497</v>
+        <v>0.287041</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.326872</v>
+        <v>0.338034</v>
       </c>
       <c r="C95" t="n">
-        <v>0.284592</v>
+        <v>0.27913</v>
       </c>
       <c r="D95" t="n">
-        <v>0.28062</v>
+        <v>0.28572</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.31763</v>
+        <v>0.328425</v>
       </c>
       <c r="C96" t="n">
-        <v>0.275869</v>
+        <v>0.279167</v>
       </c>
       <c r="D96" t="n">
-        <v>0.28184</v>
+        <v>0.282887</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.311925</v>
+        <v>0.32226</v>
       </c>
       <c r="C97" t="n">
-        <v>0.277648</v>
+        <v>0.273266</v>
       </c>
       <c r="D97" t="n">
-        <v>0.278161</v>
+        <v>0.281613</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.300891</v>
+        <v>0.31747</v>
       </c>
       <c r="C98" t="n">
-        <v>0.275145</v>
+        <v>0.269754</v>
       </c>
       <c r="D98" t="n">
-        <v>0.277741</v>
+        <v>0.27788</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.295973</v>
+        <v>0.315337</v>
       </c>
       <c r="C99" t="n">
-        <v>0.270434</v>
+        <v>0.270398</v>
       </c>
       <c r="D99" t="n">
-        <v>0.271316</v>
+        <v>0.276443</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.296295</v>
+        <v>0.306849</v>
       </c>
       <c r="C100" t="n">
-        <v>0.26816</v>
+        <v>0.265017</v>
       </c>
       <c r="D100" t="n">
-        <v>0.271758</v>
+        <v>0.271547</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.284407</v>
+        <v>0.294163</v>
       </c>
       <c r="C101" t="n">
-        <v>0.265646</v>
+        <v>0.264987</v>
       </c>
       <c r="D101" t="n">
-        <v>0.268194</v>
+        <v>0.271883</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.276566</v>
+        <v>0.292963</v>
       </c>
       <c r="C102" t="n">
-        <v>0.262849</v>
+        <v>0.262465</v>
       </c>
       <c r="D102" t="n">
-        <v>0.264259</v>
+        <v>0.268953</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.27049</v>
+        <v>0.287353</v>
       </c>
       <c r="C103" t="n">
-        <v>0.261487</v>
+        <v>0.256715</v>
       </c>
       <c r="D103" t="n">
-        <v>0.264112</v>
+        <v>0.266681</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.265314</v>
+        <v>0.278887</v>
       </c>
       <c r="C104" t="n">
-        <v>0.262326</v>
+        <v>0.256831</v>
       </c>
       <c r="D104" t="n">
-        <v>0.262018</v>
+        <v>0.265761</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.256669</v>
+        <v>0.267285</v>
       </c>
       <c r="C105" t="n">
-        <v>0.258317</v>
+        <v>0.252674</v>
       </c>
       <c r="D105" t="n">
-        <v>0.259805</v>
+        <v>0.264191</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.248401</v>
+        <v>0.263388</v>
       </c>
       <c r="C106" t="n">
-        <v>0.257578</v>
+        <v>0.250256</v>
       </c>
       <c r="D106" t="n">
-        <v>0.260734</v>
+        <v>0.265803</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.239968</v>
+        <v>0.253752</v>
       </c>
       <c r="C107" t="n">
-        <v>0.251835</v>
+        <v>0.249463</v>
       </c>
       <c r="D107" t="n">
-        <v>0.254446</v>
+        <v>0.262151</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.232163</v>
+        <v>0.240473</v>
       </c>
       <c r="C108" t="n">
-        <v>0.254867</v>
+        <v>0.247744</v>
       </c>
       <c r="D108" t="n">
-        <v>0.256684</v>
+        <v>0.291991</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.222021</v>
+        <v>0.236063</v>
       </c>
       <c r="C109" t="n">
-        <v>0.248544</v>
+        <v>0.246638</v>
       </c>
       <c r="D109" t="n">
-        <v>0.251677</v>
+        <v>0.28704</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.322899</v>
+        <v>0.334623</v>
       </c>
       <c r="C110" t="n">
-        <v>0.276671</v>
+        <v>0.278908</v>
       </c>
       <c r="D110" t="n">
-        <v>0.28049</v>
+        <v>0.282242</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.315423</v>
+        <v>0.335732</v>
       </c>
       <c r="C111" t="n">
-        <v>0.274855</v>
+        <v>0.278392</v>
       </c>
       <c r="D111" t="n">
-        <v>0.279421</v>
+        <v>0.281581</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.306362</v>
+        <v>0.326839</v>
       </c>
       <c r="C112" t="n">
-        <v>0.276223</v>
+        <v>0.273798</v>
       </c>
       <c r="D112" t="n">
-        <v>0.273135</v>
+        <v>0.283934</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.300329</v>
+        <v>0.3096</v>
       </c>
       <c r="C113" t="n">
-        <v>0.271311</v>
+        <v>0.269039</v>
       </c>
       <c r="D113" t="n">
-        <v>0.271352</v>
+        <v>0.275171</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.298466</v>
+        <v>0.311824</v>
       </c>
       <c r="C114" t="n">
-        <v>0.269156</v>
+        <v>0.264363</v>
       </c>
       <c r="D114" t="n">
-        <v>0.268255</v>
+        <v>0.276507</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.285617</v>
+        <v>0.302694</v>
       </c>
       <c r="C115" t="n">
-        <v>0.267767</v>
+        <v>0.270322</v>
       </c>
       <c r="D115" t="n">
-        <v>0.274019</v>
+        <v>0.269825</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.277346</v>
+        <v>0.294503</v>
       </c>
       <c r="C116" t="n">
-        <v>0.265668</v>
+        <v>0.259257</v>
       </c>
       <c r="D116" t="n">
-        <v>0.268642</v>
+        <v>0.269969</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.275397</v>
+        <v>0.288618</v>
       </c>
       <c r="C117" t="n">
-        <v>0.265394</v>
+        <v>0.260869</v>
       </c>
       <c r="D117" t="n">
-        <v>0.265337</v>
+        <v>0.269612</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.264298</v>
+        <v>0.278754</v>
       </c>
       <c r="C118" t="n">
-        <v>0.260001</v>
+        <v>0.256738</v>
       </c>
       <c r="D118" t="n">
-        <v>0.261815</v>
+        <v>0.262668</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.259722</v>
+        <v>0.273024</v>
       </c>
       <c r="C119" t="n">
-        <v>0.260115</v>
+        <v>0.254798</v>
       </c>
       <c r="D119" t="n">
-        <v>0.265523</v>
+        <v>0.268552</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.252113</v>
+        <v>0.261956</v>
       </c>
       <c r="C120" t="n">
-        <v>0.257637</v>
+        <v>0.254132</v>
       </c>
       <c r="D120" t="n">
-        <v>0.256985</v>
+        <v>0.265533</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.243016</v>
+        <v>0.255217</v>
       </c>
       <c r="C121" t="n">
-        <v>0.251494</v>
+        <v>0.248784</v>
       </c>
       <c r="D121" t="n">
-        <v>0.258546</v>
+        <v>0.257924</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.23915</v>
+        <v>0.2437</v>
       </c>
       <c r="C122" t="n">
-        <v>0.251328</v>
+        <v>0.246933</v>
       </c>
       <c r="D122" t="n">
-        <v>0.255918</v>
+        <v>0.260918</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.22627</v>
+        <v>0.231467</v>
       </c>
       <c r="C123" t="n">
-        <v>0.250371</v>
+        <v>0.249399</v>
       </c>
       <c r="D123" t="n">
-        <v>0.252679</v>
+        <v>0.28828</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.322951</v>
+        <v>0.336574</v>
       </c>
       <c r="C124" t="n">
-        <v>0.285313</v>
+        <v>0.281737</v>
       </c>
       <c r="D124" t="n">
-        <v>0.283584</v>
+        <v>0.284552</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.316841</v>
+        <v>0.32842</v>
       </c>
       <c r="C125" t="n">
-        <v>0.279387</v>
+        <v>0.27442</v>
       </c>
       <c r="D125" t="n">
-        <v>0.278324</v>
+        <v>0.28143</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.31355</v>
+        <v>0.326823</v>
       </c>
       <c r="C126" t="n">
-        <v>0.279909</v>
+        <v>0.270946</v>
       </c>
       <c r="D126" t="n">
-        <v>0.276314</v>
+        <v>0.280089</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.301746</v>
+        <v>0.31493</v>
       </c>
       <c r="C127" t="n">
-        <v>0.271119</v>
+        <v>0.265658</v>
       </c>
       <c r="D127" t="n">
-        <v>0.274937</v>
+        <v>0.279673</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.292001</v>
+        <v>0.307904</v>
       </c>
       <c r="C128" t="n">
-        <v>0.269353</v>
+        <v>0.266273</v>
       </c>
       <c r="D128" t="n">
-        <v>0.270753</v>
+        <v>0.277095</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.286218</v>
+        <v>0.301125</v>
       </c>
       <c r="C129" t="n">
-        <v>0.274044</v>
+        <v>0.264731</v>
       </c>
       <c r="D129" t="n">
-        <v>0.267584</v>
+        <v>0.272434</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.281909</v>
+        <v>0.291946</v>
       </c>
       <c r="C130" t="n">
-        <v>0.264133</v>
+        <v>0.25933</v>
       </c>
       <c r="D130" t="n">
-        <v>0.265912</v>
+        <v>0.268927</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.274238</v>
+        <v>0.294101</v>
       </c>
       <c r="C131" t="n">
-        <v>0.264326</v>
+        <v>0.259445</v>
       </c>
       <c r="D131" t="n">
-        <v>0.262108</v>
+        <v>0.268094</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.265099</v>
+        <v>0.284958</v>
       </c>
       <c r="C132" t="n">
-        <v>0.25998</v>
+        <v>0.258961</v>
       </c>
       <c r="D132" t="n">
-        <v>0.259382</v>
+        <v>0.270779</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.258316</v>
+        <v>0.269385</v>
       </c>
       <c r="C133" t="n">
-        <v>0.257046</v>
+        <v>0.256784</v>
       </c>
       <c r="D133" t="n">
-        <v>0.257539</v>
+        <v>0.264187</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.247962</v>
+        <v>0.264367</v>
       </c>
       <c r="C134" t="n">
-        <v>0.256342</v>
+        <v>0.254189</v>
       </c>
       <c r="D134" t="n">
-        <v>0.25578</v>
+        <v>0.262853</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.240548</v>
+        <v>0.255611</v>
       </c>
       <c r="C135" t="n">
-        <v>0.257445</v>
+        <v>0.254065</v>
       </c>
       <c r="D135" t="n">
-        <v>0.250648</v>
+        <v>0.260576</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.235216</v>
+        <v>0.244008</v>
       </c>
       <c r="C136" t="n">
-        <v>0.253575</v>
+        <v>0.247663</v>
       </c>
       <c r="D136" t="n">
-        <v>0.257048</v>
+        <v>0.258341</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.228957</v>
+        <v>0.24085</v>
       </c>
       <c r="C137" t="n">
-        <v>0.2499</v>
+        <v>0.249579</v>
       </c>
       <c r="D137" t="n">
-        <v>0.252167</v>
+        <v>0.295963</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.323405</v>
+        <v>0.337408</v>
       </c>
       <c r="C138" t="n">
-        <v>0.285659</v>
+        <v>0.276282</v>
       </c>
       <c r="D138" t="n">
-        <v>0.277895</v>
+        <v>0.292354</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.313057</v>
+        <v>0.337983</v>
       </c>
       <c r="C139" t="n">
-        <v>0.277949</v>
+        <v>0.272077</v>
       </c>
       <c r="D139" t="n">
-        <v>0.276837</v>
+        <v>0.280314</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.306459</v>
+        <v>0.321954</v>
       </c>
       <c r="C140" t="n">
-        <v>0.270906</v>
+        <v>0.277297</v>
       </c>
       <c r="D140" t="n">
-        <v>0.27897</v>
+        <v>0.27776</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.306475</v>
+        <v>0.315523</v>
       </c>
       <c r="C141" t="n">
-        <v>0.27383</v>
+        <v>0.266527</v>
       </c>
       <c r="D141" t="n">
-        <v>0.276836</v>
+        <v>0.277466</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.297214</v>
+        <v>0.307314</v>
       </c>
       <c r="C142" t="n">
-        <v>0.275888</v>
+        <v>0.269145</v>
       </c>
       <c r="D142" t="n">
-        <v>0.27661</v>
+        <v>0.277271</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.286661</v>
+        <v>0.304433</v>
       </c>
       <c r="C143" t="n">
-        <v>0.273345</v>
+        <v>0.273068</v>
       </c>
       <c r="D143" t="n">
-        <v>0.271513</v>
+        <v>0.271003</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.277612</v>
+        <v>0.271268</v>
       </c>
       <c r="C2" t="n">
-        <v>0.237616</v>
+        <v>0.236329</v>
       </c>
       <c r="D2" t="n">
-        <v>0.249446</v>
+        <v>0.252965</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.267267</v>
+        <v>0.273325</v>
       </c>
       <c r="C3" t="n">
-        <v>0.237875</v>
+        <v>0.23779</v>
       </c>
       <c r="D3" t="n">
-        <v>0.245011</v>
+        <v>0.249313</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.260107</v>
+        <v>0.265423</v>
       </c>
       <c r="C4" t="n">
-        <v>0.235447</v>
+        <v>0.238699</v>
       </c>
       <c r="D4" t="n">
-        <v>0.240123</v>
+        <v>0.250238</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.248002</v>
+        <v>0.254767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.23727</v>
+        <v>0.237919</v>
       </c>
       <c r="D5" t="n">
-        <v>0.244383</v>
+        <v>0.250231</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.248687</v>
+        <v>0.246366</v>
       </c>
       <c r="C6" t="n">
-        <v>0.237044</v>
+        <v>0.235178</v>
       </c>
       <c r="D6" t="n">
-        <v>0.243954</v>
+        <v>0.24513</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.23953</v>
+        <v>0.241277</v>
       </c>
       <c r="C7" t="n">
-        <v>0.236006</v>
+        <v>0.230309</v>
       </c>
       <c r="D7" t="n">
-        <v>0.247921</v>
+        <v>0.246296</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.232074</v>
+        <v>0.226732</v>
       </c>
       <c r="C8" t="n">
-        <v>0.234229</v>
+        <v>0.235489</v>
       </c>
       <c r="D8" t="n">
-        <v>0.245029</v>
+        <v>0.244335</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.22054</v>
+        <v>0.220205</v>
       </c>
       <c r="C9" t="n">
-        <v>0.232108</v>
+        <v>0.228542</v>
       </c>
       <c r="D9" t="n">
-        <v>0.254741</v>
+        <v>0.254381</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.313114</v>
+        <v>0.314278</v>
       </c>
       <c r="C10" t="n">
-        <v>0.252265</v>
+        <v>0.249595</v>
       </c>
       <c r="D10" t="n">
-        <v>0.252451</v>
+        <v>0.256702</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.302266</v>
+        <v>0.30824</v>
       </c>
       <c r="C11" t="n">
-        <v>0.248702</v>
+        <v>0.242934</v>
       </c>
       <c r="D11" t="n">
-        <v>0.252109</v>
+        <v>0.252164</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.297905</v>
+        <v>0.302461</v>
       </c>
       <c r="C12" t="n">
-        <v>0.243641</v>
+        <v>0.245469</v>
       </c>
       <c r="D12" t="n">
-        <v>0.248819</v>
+        <v>0.252785</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.291359</v>
+        <v>0.297246</v>
       </c>
       <c r="C13" t="n">
-        <v>0.245188</v>
+        <v>0.242043</v>
       </c>
       <c r="D13" t="n">
-        <v>0.247667</v>
+        <v>0.257399</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.289013</v>
+        <v>0.28944</v>
       </c>
       <c r="C14" t="n">
-        <v>0.242348</v>
+        <v>0.241603</v>
       </c>
       <c r="D14" t="n">
-        <v>0.247431</v>
+        <v>0.247815</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.280638</v>
+        <v>0.282159</v>
       </c>
       <c r="C15" t="n">
-        <v>0.242314</v>
+        <v>0.24346</v>
       </c>
       <c r="D15" t="n">
-        <v>0.249535</v>
+        <v>0.251413</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.278241</v>
+        <v>0.278571</v>
       </c>
       <c r="C16" t="n">
-        <v>0.242239</v>
+        <v>0.239644</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25091</v>
+        <v>0.247412</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.270613</v>
+        <v>0.270581</v>
       </c>
       <c r="C17" t="n">
-        <v>0.237245</v>
+        <v>0.236511</v>
       </c>
       <c r="D17" t="n">
-        <v>0.250632</v>
+        <v>0.250036</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.259777</v>
+        <v>0.262184</v>
       </c>
       <c r="C18" t="n">
-        <v>0.235767</v>
+        <v>0.242732</v>
       </c>
       <c r="D18" t="n">
-        <v>0.243118</v>
+        <v>0.248584</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.254062</v>
+        <v>0.257303</v>
       </c>
       <c r="C19" t="n">
-        <v>0.238047</v>
+        <v>0.234432</v>
       </c>
       <c r="D19" t="n">
-        <v>0.246965</v>
+        <v>0.249297</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.248433</v>
+        <v>0.247412</v>
       </c>
       <c r="C20" t="n">
-        <v>0.235759</v>
+        <v>0.233396</v>
       </c>
       <c r="D20" t="n">
-        <v>0.251273</v>
+        <v>0.246761</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240274</v>
+        <v>0.24368</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236781</v>
+        <v>0.234099</v>
       </c>
       <c r="D21" t="n">
-        <v>0.244685</v>
+        <v>0.24692</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.229253</v>
+        <v>0.230513</v>
       </c>
       <c r="C22" t="n">
-        <v>0.233028</v>
+        <v>0.231098</v>
       </c>
       <c r="D22" t="n">
-        <v>0.246264</v>
+        <v>0.246756</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.222911</v>
+        <v>0.223471</v>
       </c>
       <c r="C23" t="n">
-        <v>0.229743</v>
+        <v>0.233592</v>
       </c>
       <c r="D23" t="n">
-        <v>0.262301</v>
+        <v>0.259113</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.307348</v>
+        <v>0.311027</v>
       </c>
       <c r="C24" t="n">
-        <v>0.249679</v>
+        <v>0.252834</v>
       </c>
       <c r="D24" t="n">
-        <v>0.260124</v>
+        <v>0.262671</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.304529</v>
+        <v>0.306727</v>
       </c>
       <c r="C25" t="n">
-        <v>0.25232</v>
+        <v>0.250363</v>
       </c>
       <c r="D25" t="n">
-        <v>0.255876</v>
+        <v>0.260704</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.297462</v>
+        <v>0.298067</v>
       </c>
       <c r="C26" t="n">
-        <v>0.250366</v>
+        <v>0.250077</v>
       </c>
       <c r="D26" t="n">
-        <v>0.258634</v>
+        <v>0.258546</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.295187</v>
+        <v>0.296091</v>
       </c>
       <c r="C27" t="n">
-        <v>0.246524</v>
+        <v>0.244689</v>
       </c>
       <c r="D27" t="n">
-        <v>0.254726</v>
+        <v>0.255348</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.286744</v>
+        <v>0.287857</v>
       </c>
       <c r="C28" t="n">
-        <v>0.244294</v>
+        <v>0.247075</v>
       </c>
       <c r="D28" t="n">
-        <v>0.253732</v>
+        <v>0.257859</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.279718</v>
+        <v>0.280823</v>
       </c>
       <c r="C29" t="n">
-        <v>0.240113</v>
+        <v>0.243935</v>
       </c>
       <c r="D29" t="n">
-        <v>0.250294</v>
+        <v>0.254862</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.276454</v>
+        <v>0.274796</v>
       </c>
       <c r="C30" t="n">
-        <v>0.242595</v>
+        <v>0.238407</v>
       </c>
       <c r="D30" t="n">
-        <v>0.251228</v>
+        <v>0.252609</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.26781</v>
+        <v>0.274273</v>
       </c>
       <c r="C31" t="n">
-        <v>0.242052</v>
+        <v>0.239284</v>
       </c>
       <c r="D31" t="n">
-        <v>0.250753</v>
+        <v>0.252691</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.26353</v>
+        <v>0.265384</v>
       </c>
       <c r="C32" t="n">
-        <v>0.236106</v>
+        <v>0.240722</v>
       </c>
       <c r="D32" t="n">
-        <v>0.250216</v>
+        <v>0.247282</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256415</v>
+        <v>0.25602</v>
       </c>
       <c r="C33" t="n">
-        <v>0.238272</v>
+        <v>0.239133</v>
       </c>
       <c r="D33" t="n">
-        <v>0.247293</v>
+        <v>0.251782</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.252425</v>
+        <v>0.253154</v>
       </c>
       <c r="C34" t="n">
-        <v>0.239337</v>
+        <v>0.236358</v>
       </c>
       <c r="D34" t="n">
-        <v>0.252827</v>
+        <v>0.244649</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.243723</v>
+        <v>0.241668</v>
       </c>
       <c r="C35" t="n">
-        <v>0.235307</v>
+        <v>0.23566</v>
       </c>
       <c r="D35" t="n">
-        <v>0.248596</v>
+        <v>0.251183</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.234639</v>
+        <v>0.236373</v>
       </c>
       <c r="C36" t="n">
-        <v>0.232671</v>
+        <v>0.232852</v>
       </c>
       <c r="D36" t="n">
-        <v>0.246655</v>
+        <v>0.247041</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.226678</v>
+        <v>0.225902</v>
       </c>
       <c r="C37" t="n">
-        <v>0.235566</v>
+        <v>0.236282</v>
       </c>
       <c r="D37" t="n">
-        <v>0.26814</v>
+        <v>0.265432</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.313184</v>
+        <v>0.313001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.258242</v>
+        <v>0.258062</v>
       </c>
       <c r="D38" t="n">
-        <v>0.263231</v>
+        <v>0.266364</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.310338</v>
+        <v>0.309612</v>
       </c>
       <c r="C39" t="n">
-        <v>0.253671</v>
+        <v>0.254337</v>
       </c>
       <c r="D39" t="n">
-        <v>0.259829</v>
+        <v>0.26028</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.302347</v>
+        <v>0.300887</v>
       </c>
       <c r="C40" t="n">
-        <v>0.251067</v>
+        <v>0.253165</v>
       </c>
       <c r="D40" t="n">
-        <v>0.258242</v>
+        <v>0.262061</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.298752</v>
+        <v>0.297021</v>
       </c>
       <c r="C41" t="n">
-        <v>0.250304</v>
+        <v>0.249447</v>
       </c>
       <c r="D41" t="n">
-        <v>0.258842</v>
+        <v>0.258616</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.290743</v>
+        <v>0.292647</v>
       </c>
       <c r="C42" t="n">
-        <v>0.248095</v>
+        <v>0.252483</v>
       </c>
       <c r="D42" t="n">
-        <v>0.258521</v>
+        <v>0.255167</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.28671</v>
+        <v>0.290646</v>
       </c>
       <c r="C43" t="n">
-        <v>0.247546</v>
+        <v>0.246306</v>
       </c>
       <c r="D43" t="n">
-        <v>0.255436</v>
+        <v>0.258744</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.281247</v>
+        <v>0.280172</v>
       </c>
       <c r="C44" t="n">
-        <v>0.245766</v>
+        <v>0.243058</v>
       </c>
       <c r="D44" t="n">
-        <v>0.255872</v>
+        <v>0.259454</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.272569</v>
+        <v>0.275174</v>
       </c>
       <c r="C45" t="n">
-        <v>0.245458</v>
+        <v>0.245549</v>
       </c>
       <c r="D45" t="n">
-        <v>0.252648</v>
+        <v>0.259093</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.270992</v>
+        <v>0.268733</v>
       </c>
       <c r="C46" t="n">
-        <v>0.238906</v>
+        <v>0.241948</v>
       </c>
       <c r="D46" t="n">
-        <v>0.256618</v>
+        <v>0.25326</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.260362</v>
+        <v>0.261118</v>
       </c>
       <c r="C47" t="n">
-        <v>0.24195</v>
+        <v>0.243624</v>
       </c>
       <c r="D47" t="n">
-        <v>0.252148</v>
+        <v>0.257413</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.251946</v>
+        <v>0.255504</v>
       </c>
       <c r="C48" t="n">
-        <v>0.237883</v>
+        <v>0.238901</v>
       </c>
       <c r="D48" t="n">
-        <v>0.252746</v>
+        <v>0.251683</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.246207</v>
+        <v>0.248289</v>
       </c>
       <c r="C49" t="n">
-        <v>0.237981</v>
+        <v>0.238971</v>
       </c>
       <c r="D49" t="n">
-        <v>0.248619</v>
+        <v>0.250093</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.239038</v>
+        <v>0.239655</v>
       </c>
       <c r="C50" t="n">
-        <v>0.238301</v>
+        <v>0.239244</v>
       </c>
       <c r="D50" t="n">
-        <v>0.246774</v>
+        <v>0.250882</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.229169</v>
+        <v>0.23244</v>
       </c>
       <c r="C51" t="n">
-        <v>0.234292</v>
+        <v>0.235501</v>
       </c>
       <c r="D51" t="n">
-        <v>0.274268</v>
+        <v>0.276281</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.223677</v>
+        <v>0.221723</v>
       </c>
       <c r="C52" t="n">
-        <v>0.235155</v>
+        <v>0.233429</v>
       </c>
       <c r="D52" t="n">
-        <v>0.270737</v>
+        <v>0.270154</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.319675</v>
+        <v>0.315586</v>
       </c>
       <c r="C53" t="n">
-        <v>0.260026</v>
+        <v>0.262404</v>
       </c>
       <c r="D53" t="n">
-        <v>0.269673</v>
+        <v>0.269139</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.311396</v>
+        <v>0.315927</v>
       </c>
       <c r="C54" t="n">
-        <v>0.25784</v>
+        <v>0.257858</v>
       </c>
       <c r="D54" t="n">
-        <v>0.269119</v>
+        <v>0.267105</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.307455</v>
+        <v>0.308375</v>
       </c>
       <c r="C55" t="n">
-        <v>0.255189</v>
+        <v>0.260561</v>
       </c>
       <c r="D55" t="n">
-        <v>0.268151</v>
+        <v>0.268983</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.300887</v>
+        <v>0.300682</v>
       </c>
       <c r="C56" t="n">
-        <v>0.254644</v>
+        <v>0.254623</v>
       </c>
       <c r="D56" t="n">
-        <v>0.262974</v>
+        <v>0.262191</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.29702</v>
+        <v>0.300339</v>
       </c>
       <c r="C57" t="n">
-        <v>0.254126</v>
+        <v>0.252229</v>
       </c>
       <c r="D57" t="n">
-        <v>0.262727</v>
+        <v>0.260953</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.289818</v>
+        <v>0.286889</v>
       </c>
       <c r="C58" t="n">
-        <v>0.25206</v>
+        <v>0.250666</v>
       </c>
       <c r="D58" t="n">
-        <v>0.263215</v>
+        <v>0.260065</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.280629</v>
+        <v>0.281415</v>
       </c>
       <c r="C59" t="n">
-        <v>0.251265</v>
+        <v>0.252588</v>
       </c>
       <c r="D59" t="n">
-        <v>0.261061</v>
+        <v>0.26074</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.275523</v>
+        <v>0.274711</v>
       </c>
       <c r="C60" t="n">
-        <v>0.247641</v>
+        <v>0.250655</v>
       </c>
       <c r="D60" t="n">
-        <v>0.25516</v>
+        <v>0.256907</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.267285</v>
+        <v>0.266375</v>
       </c>
       <c r="C61" t="n">
-        <v>0.248653</v>
+        <v>0.246562</v>
       </c>
       <c r="D61" t="n">
-        <v>0.254721</v>
+        <v>0.258399</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.260818</v>
+        <v>0.259776</v>
       </c>
       <c r="C62" t="n">
-        <v>0.248083</v>
+        <v>0.244996</v>
       </c>
       <c r="D62" t="n">
-        <v>0.256644</v>
+        <v>0.257598</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.254471</v>
+        <v>0.253793</v>
       </c>
       <c r="C63" t="n">
-        <v>0.24206</v>
+        <v>0.243092</v>
       </c>
       <c r="D63" t="n">
-        <v>0.254381</v>
+        <v>0.256854</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.247159</v>
+        <v>0.247048</v>
       </c>
       <c r="C64" t="n">
-        <v>0.244614</v>
+        <v>0.244578</v>
       </c>
       <c r="D64" t="n">
-        <v>0.25479</v>
+        <v>0.253726</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.237179</v>
+        <v>0.236863</v>
       </c>
       <c r="C65" t="n">
-        <v>0.238983</v>
+        <v>0.24246</v>
       </c>
       <c r="D65" t="n">
-        <v>0.254642</v>
+        <v>0.249994</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.229297</v>
+        <v>0.228061</v>
       </c>
       <c r="C66" t="n">
-        <v>0.239121</v>
+        <v>0.242844</v>
       </c>
       <c r="D66" t="n">
-        <v>0.288493</v>
+        <v>0.279528</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.329566</v>
+        <v>0.328842</v>
       </c>
       <c r="C67" t="n">
-        <v>0.275412</v>
+        <v>0.268147</v>
       </c>
       <c r="D67" t="n">
-        <v>0.280608</v>
+        <v>0.276658</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.324569</v>
+        <v>0.325041</v>
       </c>
       <c r="C68" t="n">
-        <v>0.274451</v>
+        <v>0.267653</v>
       </c>
       <c r="D68" t="n">
-        <v>0.282161</v>
+        <v>0.27486</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.318677</v>
+        <v>0.321387</v>
       </c>
       <c r="C69" t="n">
-        <v>0.271529</v>
+        <v>0.268769</v>
       </c>
       <c r="D69" t="n">
-        <v>0.277118</v>
+        <v>0.277766</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.312474</v>
+        <v>0.317262</v>
       </c>
       <c r="C70" t="n">
-        <v>0.262165</v>
+        <v>0.265815</v>
       </c>
       <c r="D70" t="n">
-        <v>0.275355</v>
+        <v>0.271356</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.305599</v>
+        <v>0.303279</v>
       </c>
       <c r="C71" t="n">
-        <v>0.264495</v>
+        <v>0.261461</v>
       </c>
       <c r="D71" t="n">
-        <v>0.272018</v>
+        <v>0.270186</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.294691</v>
+        <v>0.300686</v>
       </c>
       <c r="C72" t="n">
-        <v>0.260599</v>
+        <v>0.256936</v>
       </c>
       <c r="D72" t="n">
-        <v>0.263852</v>
+        <v>0.268215</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.29506</v>
+        <v>0.288601</v>
       </c>
       <c r="C73" t="n">
-        <v>0.25633</v>
+        <v>0.25837</v>
       </c>
       <c r="D73" t="n">
-        <v>0.268655</v>
+        <v>0.264594</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.284725</v>
+        <v>0.282987</v>
       </c>
       <c r="C74" t="n">
-        <v>0.254122</v>
+        <v>0.253922</v>
       </c>
       <c r="D74" t="n">
-        <v>0.261848</v>
+        <v>0.263823</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.275547</v>
+        <v>0.27545</v>
       </c>
       <c r="C75" t="n">
-        <v>0.253778</v>
+        <v>0.252513</v>
       </c>
       <c r="D75" t="n">
-        <v>0.264272</v>
+        <v>0.260812</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.266576</v>
+        <v>0.269302</v>
       </c>
       <c r="C76" t="n">
-        <v>0.252649</v>
+        <v>0.248096</v>
       </c>
       <c r="D76" t="n">
-        <v>0.266413</v>
+        <v>0.262266</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.263378</v>
+        <v>0.262246</v>
       </c>
       <c r="C77" t="n">
-        <v>0.247296</v>
+        <v>0.253093</v>
       </c>
       <c r="D77" t="n">
-        <v>0.259948</v>
+        <v>0.258775</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.255867</v>
+        <v>0.253238</v>
       </c>
       <c r="C78" t="n">
-        <v>0.251956</v>
+        <v>0.24571</v>
       </c>
       <c r="D78" t="n">
-        <v>0.256878</v>
+        <v>0.256884</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.243174</v>
+        <v>0.246818</v>
       </c>
       <c r="C79" t="n">
-        <v>0.245408</v>
+        <v>0.248826</v>
       </c>
       <c r="D79" t="n">
-        <v>0.257788</v>
+        <v>0.258881</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.237073</v>
+        <v>0.234858</v>
       </c>
       <c r="C80" t="n">
-        <v>0.246267</v>
+        <v>0.246225</v>
       </c>
       <c r="D80" t="n">
-        <v>0.288768</v>
+        <v>0.284646</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.331398</v>
+        <v>0.334315</v>
       </c>
       <c r="C81" t="n">
-        <v>0.278308</v>
+        <v>0.274708</v>
       </c>
       <c r="D81" t="n">
-        <v>0.280182</v>
+        <v>0.285783</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.327883</v>
+        <v>0.327192</v>
       </c>
       <c r="C82" t="n">
-        <v>0.270312</v>
+        <v>0.275456</v>
       </c>
       <c r="D82" t="n">
-        <v>0.280313</v>
+        <v>0.281906</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.325204</v>
+        <v>0.321434</v>
       </c>
       <c r="C83" t="n">
-        <v>0.268382</v>
+        <v>0.269924</v>
       </c>
       <c r="D83" t="n">
-        <v>0.279951</v>
+        <v>0.279575</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.316857</v>
+        <v>0.314004</v>
       </c>
       <c r="C84" t="n">
-        <v>0.267921</v>
+        <v>0.266661</v>
       </c>
       <c r="D84" t="n">
-        <v>0.276893</v>
+        <v>0.274516</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.31318</v>
+        <v>0.310881</v>
       </c>
       <c r="C85" t="n">
-        <v>0.263285</v>
+        <v>0.265448</v>
       </c>
       <c r="D85" t="n">
-        <v>0.273784</v>
+        <v>0.275473</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.305228</v>
+        <v>0.303773</v>
       </c>
       <c r="C86" t="n">
-        <v>0.265565</v>
+        <v>0.263008</v>
       </c>
       <c r="D86" t="n">
-        <v>0.268823</v>
+        <v>0.274407</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.299542</v>
+        <v>0.294506</v>
       </c>
       <c r="C87" t="n">
-        <v>0.259521</v>
+        <v>0.260162</v>
       </c>
       <c r="D87" t="n">
-        <v>0.270062</v>
+        <v>0.267422</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.288695</v>
+        <v>0.289994</v>
       </c>
       <c r="C88" t="n">
-        <v>0.25821</v>
+        <v>0.262208</v>
       </c>
       <c r="D88" t="n">
-        <v>0.265905</v>
+        <v>0.271568</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.28219</v>
+        <v>0.276809</v>
       </c>
       <c r="C89" t="n">
-        <v>0.259211</v>
+        <v>0.258776</v>
       </c>
       <c r="D89" t="n">
-        <v>0.265743</v>
+        <v>0.266491</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.278276</v>
+        <v>0.275111</v>
       </c>
       <c r="C90" t="n">
-        <v>0.255667</v>
+        <v>0.25602</v>
       </c>
       <c r="D90" t="n">
-        <v>0.267951</v>
+        <v>0.265927</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.267054</v>
+        <v>0.268122</v>
       </c>
       <c r="C91" t="n">
-        <v>0.255056</v>
+        <v>0.254062</v>
       </c>
       <c r="D91" t="n">
-        <v>0.262116</v>
+        <v>0.264454</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258037</v>
+        <v>0.255129</v>
       </c>
       <c r="C92" t="n">
-        <v>0.252213</v>
+        <v>0.249928</v>
       </c>
       <c r="D92" t="n">
-        <v>0.260972</v>
+        <v>0.259989</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.250035</v>
+        <v>0.247996</v>
       </c>
       <c r="C93" t="n">
-        <v>0.249052</v>
+        <v>0.249842</v>
       </c>
       <c r="D93" t="n">
-        <v>0.258388</v>
+        <v>0.25668</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.239819</v>
+        <v>0.242883</v>
       </c>
       <c r="C94" t="n">
-        <v>0.245265</v>
+        <v>0.245646</v>
       </c>
       <c r="D94" t="n">
-        <v>0.287041</v>
+        <v>0.287723</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.338034</v>
+        <v>0.340962</v>
       </c>
       <c r="C95" t="n">
-        <v>0.27913</v>
+        <v>0.274982</v>
       </c>
       <c r="D95" t="n">
-        <v>0.28572</v>
+        <v>0.286365</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.328425</v>
+        <v>0.329083</v>
       </c>
       <c r="C96" t="n">
-        <v>0.279167</v>
+        <v>0.275995</v>
       </c>
       <c r="D96" t="n">
-        <v>0.282887</v>
+        <v>0.282952</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.32226</v>
+        <v>0.329343</v>
       </c>
       <c r="C97" t="n">
-        <v>0.273266</v>
+        <v>0.274719</v>
       </c>
       <c r="D97" t="n">
-        <v>0.281613</v>
+        <v>0.281093</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.31747</v>
+        <v>0.32099</v>
       </c>
       <c r="C98" t="n">
-        <v>0.269754</v>
+        <v>0.269352</v>
       </c>
       <c r="D98" t="n">
-        <v>0.27788</v>
+        <v>0.277521</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.315337</v>
+        <v>0.311493</v>
       </c>
       <c r="C99" t="n">
-        <v>0.270398</v>
+        <v>0.26802</v>
       </c>
       <c r="D99" t="n">
-        <v>0.276443</v>
+        <v>0.279691</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.306849</v>
+        <v>0.30531</v>
       </c>
       <c r="C100" t="n">
-        <v>0.265017</v>
+        <v>0.26473</v>
       </c>
       <c r="D100" t="n">
-        <v>0.271547</v>
+        <v>0.273883</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.294163</v>
+        <v>0.297033</v>
       </c>
       <c r="C101" t="n">
-        <v>0.264987</v>
+        <v>0.262817</v>
       </c>
       <c r="D101" t="n">
-        <v>0.271883</v>
+        <v>0.269612</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.292963</v>
+        <v>0.290911</v>
       </c>
       <c r="C102" t="n">
-        <v>0.262465</v>
+        <v>0.26337</v>
       </c>
       <c r="D102" t="n">
-        <v>0.268953</v>
+        <v>0.269851</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.287353</v>
+        <v>0.286857</v>
       </c>
       <c r="C103" t="n">
-        <v>0.256715</v>
+        <v>0.265315</v>
       </c>
       <c r="D103" t="n">
-        <v>0.266681</v>
+        <v>0.272351</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.278887</v>
+        <v>0.273815</v>
       </c>
       <c r="C104" t="n">
-        <v>0.256831</v>
+        <v>0.256713</v>
       </c>
       <c r="D104" t="n">
-        <v>0.265761</v>
+        <v>0.265104</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.267285</v>
+        <v>0.26813</v>
       </c>
       <c r="C105" t="n">
-        <v>0.252674</v>
+        <v>0.256204</v>
       </c>
       <c r="D105" t="n">
-        <v>0.264191</v>
+        <v>0.265954</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.263388</v>
+        <v>0.259542</v>
       </c>
       <c r="C106" t="n">
-        <v>0.250256</v>
+        <v>0.251927</v>
       </c>
       <c r="D106" t="n">
-        <v>0.265803</v>
+        <v>0.26604</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.253752</v>
+        <v>0.25215</v>
       </c>
       <c r="C107" t="n">
-        <v>0.249463</v>
+        <v>0.249124</v>
       </c>
       <c r="D107" t="n">
-        <v>0.262151</v>
+        <v>0.26354</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.240473</v>
+        <v>0.245322</v>
       </c>
       <c r="C108" t="n">
-        <v>0.247744</v>
+        <v>0.247949</v>
       </c>
       <c r="D108" t="n">
-        <v>0.291991</v>
+        <v>0.287963</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.236063</v>
+        <v>0.230034</v>
       </c>
       <c r="C109" t="n">
-        <v>0.246638</v>
+        <v>0.247675</v>
       </c>
       <c r="D109" t="n">
-        <v>0.28704</v>
+        <v>0.28873</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.334623</v>
+        <v>0.336083</v>
       </c>
       <c r="C110" t="n">
-        <v>0.278908</v>
+        <v>0.275854</v>
       </c>
       <c r="D110" t="n">
-        <v>0.282242</v>
+        <v>0.282569</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.335732</v>
+        <v>0.32558</v>
       </c>
       <c r="C111" t="n">
-        <v>0.278392</v>
+        <v>0.275217</v>
       </c>
       <c r="D111" t="n">
-        <v>0.281581</v>
+        <v>0.284709</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.326839</v>
+        <v>0.321359</v>
       </c>
       <c r="C112" t="n">
-        <v>0.273798</v>
+        <v>0.271292</v>
       </c>
       <c r="D112" t="n">
-        <v>0.283934</v>
+        <v>0.278656</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.3096</v>
+        <v>0.315772</v>
       </c>
       <c r="C113" t="n">
-        <v>0.269039</v>
+        <v>0.266886</v>
       </c>
       <c r="D113" t="n">
-        <v>0.275171</v>
+        <v>0.280806</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.311824</v>
+        <v>0.310172</v>
       </c>
       <c r="C114" t="n">
-        <v>0.264363</v>
+        <v>0.268586</v>
       </c>
       <c r="D114" t="n">
-        <v>0.276507</v>
+        <v>0.274331</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.302694</v>
+        <v>0.304082</v>
       </c>
       <c r="C115" t="n">
-        <v>0.270322</v>
+        <v>0.264332</v>
       </c>
       <c r="D115" t="n">
-        <v>0.269825</v>
+        <v>0.271668</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.294503</v>
+        <v>0.290433</v>
       </c>
       <c r="C116" t="n">
-        <v>0.259257</v>
+        <v>0.264867</v>
       </c>
       <c r="D116" t="n">
-        <v>0.269969</v>
+        <v>0.270839</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.288618</v>
+        <v>0.281406</v>
       </c>
       <c r="C117" t="n">
-        <v>0.260869</v>
+        <v>0.257199</v>
       </c>
       <c r="D117" t="n">
-        <v>0.269612</v>
+        <v>0.271569</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.278754</v>
+        <v>0.275873</v>
       </c>
       <c r="C118" t="n">
-        <v>0.256738</v>
+        <v>0.260058</v>
       </c>
       <c r="D118" t="n">
-        <v>0.262668</v>
+        <v>0.2642</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.273024</v>
+        <v>0.270205</v>
       </c>
       <c r="C119" t="n">
-        <v>0.254798</v>
+        <v>0.254052</v>
       </c>
       <c r="D119" t="n">
-        <v>0.268552</v>
+        <v>0.268289</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.261956</v>
+        <v>0.262179</v>
       </c>
       <c r="C120" t="n">
-        <v>0.254132</v>
+        <v>0.250721</v>
       </c>
       <c r="D120" t="n">
-        <v>0.265533</v>
+        <v>0.266484</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.255217</v>
+        <v>0.255834</v>
       </c>
       <c r="C121" t="n">
-        <v>0.248784</v>
+        <v>0.248953</v>
       </c>
       <c r="D121" t="n">
-        <v>0.257924</v>
+        <v>0.263521</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.2437</v>
+        <v>0.246451</v>
       </c>
       <c r="C122" t="n">
-        <v>0.246933</v>
+        <v>0.250855</v>
       </c>
       <c r="D122" t="n">
-        <v>0.260918</v>
+        <v>0.260687</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.231467</v>
+        <v>0.234284</v>
       </c>
       <c r="C123" t="n">
-        <v>0.249399</v>
+        <v>0.246066</v>
       </c>
       <c r="D123" t="n">
-        <v>0.28828</v>
+        <v>0.288571</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.336574</v>
+        <v>0.336438</v>
       </c>
       <c r="C124" t="n">
-        <v>0.281737</v>
+        <v>0.281057</v>
       </c>
       <c r="D124" t="n">
-        <v>0.284552</v>
+        <v>0.286813</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.32842</v>
+        <v>0.331298</v>
       </c>
       <c r="C125" t="n">
-        <v>0.27442</v>
+        <v>0.278924</v>
       </c>
       <c r="D125" t="n">
-        <v>0.28143</v>
+        <v>0.2844</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.326823</v>
+        <v>0.326883</v>
       </c>
       <c r="C126" t="n">
-        <v>0.270946</v>
+        <v>0.275151</v>
       </c>
       <c r="D126" t="n">
-        <v>0.280089</v>
+        <v>0.27999</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.31493</v>
+        <v>0.320107</v>
       </c>
       <c r="C127" t="n">
-        <v>0.265658</v>
+        <v>0.270013</v>
       </c>
       <c r="D127" t="n">
-        <v>0.279673</v>
+        <v>0.278299</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.307904</v>
+        <v>0.314484</v>
       </c>
       <c r="C128" t="n">
-        <v>0.266273</v>
+        <v>0.269363</v>
       </c>
       <c r="D128" t="n">
-        <v>0.277095</v>
+        <v>0.274632</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.301125</v>
+        <v>0.304914</v>
       </c>
       <c r="C129" t="n">
-        <v>0.264731</v>
+        <v>0.262423</v>
       </c>
       <c r="D129" t="n">
-        <v>0.272434</v>
+        <v>0.274365</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.291946</v>
+        <v>0.290786</v>
       </c>
       <c r="C130" t="n">
-        <v>0.25933</v>
+        <v>0.26144</v>
       </c>
       <c r="D130" t="n">
-        <v>0.268927</v>
+        <v>0.271936</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.294101</v>
+        <v>0.289283</v>
       </c>
       <c r="C131" t="n">
-        <v>0.259445</v>
+        <v>0.260195</v>
       </c>
       <c r="D131" t="n">
-        <v>0.268094</v>
+        <v>0.271003</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.284958</v>
+        <v>0.282356</v>
       </c>
       <c r="C132" t="n">
-        <v>0.258961</v>
+        <v>0.258949</v>
       </c>
       <c r="D132" t="n">
-        <v>0.270779</v>
+        <v>0.269842</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.269385</v>
+        <v>0.274543</v>
       </c>
       <c r="C133" t="n">
-        <v>0.256784</v>
+        <v>0.259902</v>
       </c>
       <c r="D133" t="n">
-        <v>0.264187</v>
+        <v>0.2696</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.264367</v>
+        <v>0.261144</v>
       </c>
       <c r="C134" t="n">
-        <v>0.254189</v>
+        <v>0.253292</v>
       </c>
       <c r="D134" t="n">
-        <v>0.262853</v>
+        <v>0.263808</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.255611</v>
+        <v>0.262137</v>
       </c>
       <c r="C135" t="n">
-        <v>0.254065</v>
+        <v>0.252773</v>
       </c>
       <c r="D135" t="n">
-        <v>0.260576</v>
+        <v>0.260307</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.244008</v>
+        <v>0.245768</v>
       </c>
       <c r="C136" t="n">
-        <v>0.247663</v>
+        <v>0.249954</v>
       </c>
       <c r="D136" t="n">
-        <v>0.258341</v>
+        <v>0.260943</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.24085</v>
+        <v>0.239049</v>
       </c>
       <c r="C137" t="n">
-        <v>0.249579</v>
+        <v>0.24734</v>
       </c>
       <c r="D137" t="n">
-        <v>0.295963</v>
+        <v>0.291883</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.337408</v>
+        <v>0.329543</v>
       </c>
       <c r="C138" t="n">
-        <v>0.276282</v>
+        <v>0.276562</v>
       </c>
       <c r="D138" t="n">
-        <v>0.292354</v>
+        <v>0.282796</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.337983</v>
+        <v>0.330872</v>
       </c>
       <c r="C139" t="n">
-        <v>0.272077</v>
+        <v>0.271694</v>
       </c>
       <c r="D139" t="n">
-        <v>0.280314</v>
+        <v>0.283595</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.321954</v>
+        <v>0.322279</v>
       </c>
       <c r="C140" t="n">
-        <v>0.277297</v>
+        <v>0.268695</v>
       </c>
       <c r="D140" t="n">
-        <v>0.27776</v>
+        <v>0.27877</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.315523</v>
+        <v>0.317466</v>
       </c>
       <c r="C141" t="n">
-        <v>0.266527</v>
+        <v>0.275052</v>
       </c>
       <c r="D141" t="n">
-        <v>0.277466</v>
+        <v>0.27637</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.307314</v>
+        <v>0.30851</v>
       </c>
       <c r="C142" t="n">
-        <v>0.269145</v>
+        <v>0.269621</v>
       </c>
       <c r="D142" t="n">
-        <v>0.277271</v>
+        <v>0.27424</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.304433</v>
+        <v>0.299111</v>
       </c>
       <c r="C143" t="n">
-        <v>0.273068</v>
+        <v>0.266518</v>
       </c>
       <c r="D143" t="n">
-        <v>0.271003</v>
+        <v>0.27741</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.271268</v>
+        <v>0.279347</v>
       </c>
       <c r="C2" t="n">
-        <v>0.236329</v>
+        <v>0.239935</v>
       </c>
       <c r="D2" t="n">
-        <v>0.252965</v>
+        <v>0.251865</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.273325</v>
+        <v>0.26709</v>
       </c>
       <c r="C3" t="n">
-        <v>0.23779</v>
+        <v>0.239799</v>
       </c>
       <c r="D3" t="n">
-        <v>0.249313</v>
+        <v>0.244762</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.265423</v>
+        <v>0.259617</v>
       </c>
       <c r="C4" t="n">
-        <v>0.238699</v>
+        <v>0.240754</v>
       </c>
       <c r="D4" t="n">
-        <v>0.250238</v>
+        <v>0.248811</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.254767</v>
+        <v>0.253179</v>
       </c>
       <c r="C5" t="n">
-        <v>0.237919</v>
+        <v>0.234652</v>
       </c>
       <c r="D5" t="n">
-        <v>0.250231</v>
+        <v>0.241383</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.246366</v>
+        <v>0.244698</v>
       </c>
       <c r="C6" t="n">
-        <v>0.235178</v>
+        <v>0.230977</v>
       </c>
       <c r="D6" t="n">
-        <v>0.24513</v>
+        <v>0.245573</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.241277</v>
+        <v>0.234603</v>
       </c>
       <c r="C7" t="n">
-        <v>0.230309</v>
+        <v>0.231496</v>
       </c>
       <c r="D7" t="n">
-        <v>0.246296</v>
+        <v>0.241603</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.226732</v>
+        <v>0.228998</v>
       </c>
       <c r="C8" t="n">
-        <v>0.235489</v>
+        <v>0.227283</v>
       </c>
       <c r="D8" t="n">
-        <v>0.244335</v>
+        <v>0.239083</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.220205</v>
+        <v>0.21475</v>
       </c>
       <c r="C9" t="n">
-        <v>0.228542</v>
+        <v>0.229137</v>
       </c>
       <c r="D9" t="n">
-        <v>0.254381</v>
+        <v>0.247048</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.314278</v>
+        <v>0.312416</v>
       </c>
       <c r="C10" t="n">
-        <v>0.249595</v>
+        <v>0.249559</v>
       </c>
       <c r="D10" t="n">
-        <v>0.256702</v>
+        <v>0.254621</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.30824</v>
+        <v>0.306706</v>
       </c>
       <c r="C11" t="n">
-        <v>0.242934</v>
+        <v>0.245968</v>
       </c>
       <c r="D11" t="n">
-        <v>0.252164</v>
+        <v>0.25324</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.302461</v>
+        <v>0.299576</v>
       </c>
       <c r="C12" t="n">
-        <v>0.245469</v>
+        <v>0.244657</v>
       </c>
       <c r="D12" t="n">
-        <v>0.252785</v>
+        <v>0.252925</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.297246</v>
+        <v>0.289726</v>
       </c>
       <c r="C13" t="n">
-        <v>0.242043</v>
+        <v>0.240214</v>
       </c>
       <c r="D13" t="n">
-        <v>0.257399</v>
+        <v>0.246637</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.28944</v>
+        <v>0.286759</v>
       </c>
       <c r="C14" t="n">
-        <v>0.241603</v>
+        <v>0.243347</v>
       </c>
       <c r="D14" t="n">
-        <v>0.247815</v>
+        <v>0.250963</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.282159</v>
+        <v>0.280216</v>
       </c>
       <c r="C15" t="n">
-        <v>0.24346</v>
+        <v>0.239879</v>
       </c>
       <c r="D15" t="n">
-        <v>0.251413</v>
+        <v>0.252119</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.278571</v>
+        <v>0.275279</v>
       </c>
       <c r="C16" t="n">
-        <v>0.239644</v>
+        <v>0.236337</v>
       </c>
       <c r="D16" t="n">
-        <v>0.247412</v>
+        <v>0.248517</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.270581</v>
+        <v>0.270458</v>
       </c>
       <c r="C17" t="n">
-        <v>0.236511</v>
+        <v>0.238185</v>
       </c>
       <c r="D17" t="n">
-        <v>0.250036</v>
+        <v>0.25079</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.262184</v>
+        <v>0.262782</v>
       </c>
       <c r="C18" t="n">
-        <v>0.242732</v>
+        <v>0.239762</v>
       </c>
       <c r="D18" t="n">
-        <v>0.248584</v>
+        <v>0.245976</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.257303</v>
+        <v>0.254242</v>
       </c>
       <c r="C19" t="n">
-        <v>0.234432</v>
+        <v>0.238292</v>
       </c>
       <c r="D19" t="n">
-        <v>0.249297</v>
+        <v>0.251032</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.247412</v>
+        <v>0.24731</v>
       </c>
       <c r="C20" t="n">
-        <v>0.233396</v>
+        <v>0.234366</v>
       </c>
       <c r="D20" t="n">
-        <v>0.246761</v>
+        <v>0.244629</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.24368</v>
+        <v>0.239017</v>
       </c>
       <c r="C21" t="n">
-        <v>0.234099</v>
+        <v>0.231632</v>
       </c>
       <c r="D21" t="n">
-        <v>0.24692</v>
+        <v>0.242331</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.230513</v>
+        <v>0.231156</v>
       </c>
       <c r="C22" t="n">
-        <v>0.231098</v>
+        <v>0.235032</v>
       </c>
       <c r="D22" t="n">
-        <v>0.246756</v>
+        <v>0.242708</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.223471</v>
+        <v>0.222179</v>
       </c>
       <c r="C23" t="n">
-        <v>0.233592</v>
+        <v>0.227922</v>
       </c>
       <c r="D23" t="n">
-        <v>0.259113</v>
+        <v>0.259044</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.311027</v>
+        <v>0.309994</v>
       </c>
       <c r="C24" t="n">
-        <v>0.252834</v>
+        <v>0.249966</v>
       </c>
       <c r="D24" t="n">
-        <v>0.262671</v>
+        <v>0.256347</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.306727</v>
+        <v>0.303709</v>
       </c>
       <c r="C25" t="n">
-        <v>0.250363</v>
+        <v>0.248368</v>
       </c>
       <c r="D25" t="n">
-        <v>0.260704</v>
+        <v>0.258591</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.298067</v>
+        <v>0.299259</v>
       </c>
       <c r="C26" t="n">
-        <v>0.250077</v>
+        <v>0.248639</v>
       </c>
       <c r="D26" t="n">
-        <v>0.258546</v>
+        <v>0.252445</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.296091</v>
+        <v>0.29335</v>
       </c>
       <c r="C27" t="n">
-        <v>0.244689</v>
+        <v>0.245934</v>
       </c>
       <c r="D27" t="n">
-        <v>0.255348</v>
+        <v>0.252251</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.287857</v>
+        <v>0.287294</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247075</v>
+        <v>0.245182</v>
       </c>
       <c r="D28" t="n">
-        <v>0.257859</v>
+        <v>0.256322</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.280823</v>
+        <v>0.284866</v>
       </c>
       <c r="C29" t="n">
-        <v>0.243935</v>
+        <v>0.244651</v>
       </c>
       <c r="D29" t="n">
-        <v>0.254862</v>
+        <v>0.256055</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.274796</v>
+        <v>0.275959</v>
       </c>
       <c r="C30" t="n">
-        <v>0.238407</v>
+        <v>0.239013</v>
       </c>
       <c r="D30" t="n">
-        <v>0.252609</v>
+        <v>0.252062</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.274273</v>
+        <v>0.269024</v>
       </c>
       <c r="C31" t="n">
-        <v>0.239284</v>
+        <v>0.23737</v>
       </c>
       <c r="D31" t="n">
-        <v>0.252691</v>
+        <v>0.251271</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.265384</v>
+        <v>0.261937</v>
       </c>
       <c r="C32" t="n">
-        <v>0.240722</v>
+        <v>0.241792</v>
       </c>
       <c r="D32" t="n">
-        <v>0.247282</v>
+        <v>0.250901</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.25602</v>
+        <v>0.256654</v>
       </c>
       <c r="C33" t="n">
-        <v>0.239133</v>
+        <v>0.237281</v>
       </c>
       <c r="D33" t="n">
-        <v>0.251782</v>
+        <v>0.247267</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.253154</v>
+        <v>0.25488</v>
       </c>
       <c r="C34" t="n">
-        <v>0.236358</v>
+        <v>0.236342</v>
       </c>
       <c r="D34" t="n">
-        <v>0.244649</v>
+        <v>0.247439</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.241668</v>
+        <v>0.244884</v>
       </c>
       <c r="C35" t="n">
-        <v>0.23566</v>
+        <v>0.233574</v>
       </c>
       <c r="D35" t="n">
-        <v>0.251183</v>
+        <v>0.248633</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.236373</v>
+        <v>0.234701</v>
       </c>
       <c r="C36" t="n">
-        <v>0.232852</v>
+        <v>0.23484</v>
       </c>
       <c r="D36" t="n">
-        <v>0.247041</v>
+        <v>0.246009</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.225902</v>
+        <v>0.22698</v>
       </c>
       <c r="C37" t="n">
-        <v>0.236282</v>
+        <v>0.231556</v>
       </c>
       <c r="D37" t="n">
-        <v>0.265432</v>
+        <v>0.26662</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.313001</v>
+        <v>0.314112</v>
       </c>
       <c r="C38" t="n">
-        <v>0.258062</v>
+        <v>0.253744</v>
       </c>
       <c r="D38" t="n">
-        <v>0.266364</v>
+        <v>0.261608</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.309612</v>
+        <v>0.308959</v>
       </c>
       <c r="C39" t="n">
-        <v>0.254337</v>
+        <v>0.257094</v>
       </c>
       <c r="D39" t="n">
-        <v>0.26028</v>
+        <v>0.267853</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.300887</v>
+        <v>0.307286</v>
       </c>
       <c r="C40" t="n">
-        <v>0.253165</v>
+        <v>0.251764</v>
       </c>
       <c r="D40" t="n">
-        <v>0.262061</v>
+        <v>0.261613</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.297021</v>
+        <v>0.300018</v>
       </c>
       <c r="C41" t="n">
-        <v>0.249447</v>
+        <v>0.249014</v>
       </c>
       <c r="D41" t="n">
-        <v>0.258616</v>
+        <v>0.267252</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.292647</v>
+        <v>0.292941</v>
       </c>
       <c r="C42" t="n">
-        <v>0.252483</v>
+        <v>0.248116</v>
       </c>
       <c r="D42" t="n">
-        <v>0.255167</v>
+        <v>0.257995</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.290646</v>
+        <v>0.286371</v>
       </c>
       <c r="C43" t="n">
-        <v>0.246306</v>
+        <v>0.247078</v>
       </c>
       <c r="D43" t="n">
-        <v>0.258744</v>
+        <v>0.258962</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.280172</v>
+        <v>0.280945</v>
       </c>
       <c r="C44" t="n">
-        <v>0.243058</v>
+        <v>0.243987</v>
       </c>
       <c r="D44" t="n">
-        <v>0.259454</v>
+        <v>0.254923</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.275174</v>
+        <v>0.272647</v>
       </c>
       <c r="C45" t="n">
-        <v>0.245549</v>
+        <v>0.244546</v>
       </c>
       <c r="D45" t="n">
-        <v>0.259093</v>
+        <v>0.254384</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.268733</v>
+        <v>0.264577</v>
       </c>
       <c r="C46" t="n">
-        <v>0.241948</v>
+        <v>0.242735</v>
       </c>
       <c r="D46" t="n">
-        <v>0.25326</v>
+        <v>0.253327</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.261118</v>
+        <v>0.26174</v>
       </c>
       <c r="C47" t="n">
-        <v>0.243624</v>
+        <v>0.239469</v>
       </c>
       <c r="D47" t="n">
-        <v>0.257413</v>
+        <v>0.2524</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.255504</v>
+        <v>0.252523</v>
       </c>
       <c r="C48" t="n">
-        <v>0.238901</v>
+        <v>0.239865</v>
       </c>
       <c r="D48" t="n">
-        <v>0.251683</v>
+        <v>0.250127</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.248289</v>
+        <v>0.244094</v>
       </c>
       <c r="C49" t="n">
-        <v>0.238971</v>
+        <v>0.237444</v>
       </c>
       <c r="D49" t="n">
-        <v>0.250093</v>
+        <v>0.250982</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.239655</v>
+        <v>0.241137</v>
       </c>
       <c r="C50" t="n">
-        <v>0.239244</v>
+        <v>0.238042</v>
       </c>
       <c r="D50" t="n">
-        <v>0.250882</v>
+        <v>0.247782</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.23244</v>
+        <v>0.230235</v>
       </c>
       <c r="C51" t="n">
-        <v>0.235501</v>
+        <v>0.238494</v>
       </c>
       <c r="D51" t="n">
-        <v>0.276281</v>
+        <v>0.273108</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.221723</v>
+        <v>0.224968</v>
       </c>
       <c r="C52" t="n">
-        <v>0.233429</v>
+        <v>0.235691</v>
       </c>
       <c r="D52" t="n">
-        <v>0.270154</v>
+        <v>0.27052</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.315586</v>
+        <v>0.311341</v>
       </c>
       <c r="C53" t="n">
-        <v>0.262404</v>
+        <v>0.260404</v>
       </c>
       <c r="D53" t="n">
-        <v>0.269139</v>
+        <v>0.269836</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.315927</v>
+        <v>0.316713</v>
       </c>
       <c r="C54" t="n">
-        <v>0.257858</v>
+        <v>0.260394</v>
       </c>
       <c r="D54" t="n">
-        <v>0.267105</v>
+        <v>0.268504</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.308375</v>
+        <v>0.306413</v>
       </c>
       <c r="C55" t="n">
-        <v>0.260561</v>
+        <v>0.256686</v>
       </c>
       <c r="D55" t="n">
-        <v>0.268983</v>
+        <v>0.266181</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.300682</v>
+        <v>0.30108</v>
       </c>
       <c r="C56" t="n">
-        <v>0.254623</v>
+        <v>0.25702</v>
       </c>
       <c r="D56" t="n">
-        <v>0.262191</v>
+        <v>0.264011</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.300339</v>
+        <v>0.294624</v>
       </c>
       <c r="C57" t="n">
-        <v>0.252229</v>
+        <v>0.256945</v>
       </c>
       <c r="D57" t="n">
-        <v>0.260953</v>
+        <v>0.266549</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.286889</v>
+        <v>0.286939</v>
       </c>
       <c r="C58" t="n">
-        <v>0.250666</v>
+        <v>0.253007</v>
       </c>
       <c r="D58" t="n">
-        <v>0.260065</v>
+        <v>0.262565</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.281415</v>
+        <v>0.280849</v>
       </c>
       <c r="C59" t="n">
-        <v>0.252588</v>
+        <v>0.249198</v>
       </c>
       <c r="D59" t="n">
-        <v>0.26074</v>
+        <v>0.261726</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.274711</v>
+        <v>0.275991</v>
       </c>
       <c r="C60" t="n">
-        <v>0.250655</v>
+        <v>0.249365</v>
       </c>
       <c r="D60" t="n">
-        <v>0.256907</v>
+        <v>0.259518</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.266375</v>
+        <v>0.268504</v>
       </c>
       <c r="C61" t="n">
-        <v>0.246562</v>
+        <v>0.249964</v>
       </c>
       <c r="D61" t="n">
-        <v>0.258399</v>
+        <v>0.256087</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.259776</v>
+        <v>0.260176</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244996</v>
+        <v>0.245239</v>
       </c>
       <c r="D62" t="n">
-        <v>0.257598</v>
+        <v>0.256407</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.253793</v>
+        <v>0.252835</v>
       </c>
       <c r="C63" t="n">
-        <v>0.243092</v>
+        <v>0.245299</v>
       </c>
       <c r="D63" t="n">
-        <v>0.256854</v>
+        <v>0.259337</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.247048</v>
+        <v>0.243969</v>
       </c>
       <c r="C64" t="n">
-        <v>0.244578</v>
+        <v>0.241565</v>
       </c>
       <c r="D64" t="n">
-        <v>0.253726</v>
+        <v>0.253268</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.236863</v>
+        <v>0.238114</v>
       </c>
       <c r="C65" t="n">
-        <v>0.24246</v>
+        <v>0.242782</v>
       </c>
       <c r="D65" t="n">
-        <v>0.249994</v>
+        <v>0.250105</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.228061</v>
+        <v>0.227667</v>
       </c>
       <c r="C66" t="n">
-        <v>0.242844</v>
+        <v>0.241054</v>
       </c>
       <c r="D66" t="n">
-        <v>0.279528</v>
+        <v>0.283196</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.328842</v>
+        <v>0.330318</v>
       </c>
       <c r="C67" t="n">
-        <v>0.268147</v>
+        <v>0.274496</v>
       </c>
       <c r="D67" t="n">
-        <v>0.276658</v>
+        <v>0.282097</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.325041</v>
+        <v>0.326094</v>
       </c>
       <c r="C68" t="n">
-        <v>0.267653</v>
+        <v>0.270315</v>
       </c>
       <c r="D68" t="n">
-        <v>0.27486</v>
+        <v>0.277454</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.321387</v>
+        <v>0.320015</v>
       </c>
       <c r="C69" t="n">
-        <v>0.268769</v>
+        <v>0.263448</v>
       </c>
       <c r="D69" t="n">
-        <v>0.277766</v>
+        <v>0.271251</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.317262</v>
+        <v>0.314035</v>
       </c>
       <c r="C70" t="n">
-        <v>0.265815</v>
+        <v>0.265838</v>
       </c>
       <c r="D70" t="n">
-        <v>0.271356</v>
+        <v>0.281836</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.303279</v>
+        <v>0.311524</v>
       </c>
       <c r="C71" t="n">
-        <v>0.261461</v>
+        <v>0.262906</v>
       </c>
       <c r="D71" t="n">
-        <v>0.270186</v>
+        <v>0.271482</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.300686</v>
+        <v>0.300234</v>
       </c>
       <c r="C72" t="n">
-        <v>0.256936</v>
+        <v>0.260132</v>
       </c>
       <c r="D72" t="n">
-        <v>0.268215</v>
+        <v>0.271361</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.288601</v>
+        <v>0.289608</v>
       </c>
       <c r="C73" t="n">
-        <v>0.25837</v>
+        <v>0.259752</v>
       </c>
       <c r="D73" t="n">
-        <v>0.264594</v>
+        <v>0.266293</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.282987</v>
+        <v>0.286722</v>
       </c>
       <c r="C74" t="n">
-        <v>0.253922</v>
+        <v>0.256507</v>
       </c>
       <c r="D74" t="n">
-        <v>0.263823</v>
+        <v>0.268088</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.27545</v>
+        <v>0.279613</v>
       </c>
       <c r="C75" t="n">
-        <v>0.252513</v>
+        <v>0.256301</v>
       </c>
       <c r="D75" t="n">
-        <v>0.260812</v>
+        <v>0.269023</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.269302</v>
+        <v>0.274571</v>
       </c>
       <c r="C76" t="n">
-        <v>0.248096</v>
+        <v>0.253895</v>
       </c>
       <c r="D76" t="n">
-        <v>0.262266</v>
+        <v>0.264276</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.262246</v>
+        <v>0.261098</v>
       </c>
       <c r="C77" t="n">
-        <v>0.253093</v>
+        <v>0.253255</v>
       </c>
       <c r="D77" t="n">
-        <v>0.258775</v>
+        <v>0.259202</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.253238</v>
+        <v>0.252481</v>
       </c>
       <c r="C78" t="n">
-        <v>0.24571</v>
+        <v>0.247231</v>
       </c>
       <c r="D78" t="n">
-        <v>0.256884</v>
+        <v>0.260238</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.246818</v>
+        <v>0.245232</v>
       </c>
       <c r="C79" t="n">
-        <v>0.248826</v>
+        <v>0.246795</v>
       </c>
       <c r="D79" t="n">
-        <v>0.258881</v>
+        <v>0.253984</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.234858</v>
+        <v>0.235842</v>
       </c>
       <c r="C80" t="n">
-        <v>0.246225</v>
+        <v>0.242718</v>
       </c>
       <c r="D80" t="n">
-        <v>0.284646</v>
+        <v>0.290163</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.334315</v>
+        <v>0.333482</v>
       </c>
       <c r="C81" t="n">
-        <v>0.274708</v>
+        <v>0.275716</v>
       </c>
       <c r="D81" t="n">
-        <v>0.285783</v>
+        <v>0.28483</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.327192</v>
+        <v>0.331399</v>
       </c>
       <c r="C82" t="n">
-        <v>0.275456</v>
+        <v>0.280044</v>
       </c>
       <c r="D82" t="n">
-        <v>0.281906</v>
+        <v>0.279298</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.321434</v>
+        <v>0.321542</v>
       </c>
       <c r="C83" t="n">
-        <v>0.269924</v>
+        <v>0.269602</v>
       </c>
       <c r="D83" t="n">
-        <v>0.279575</v>
+        <v>0.279054</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.314004</v>
+        <v>0.316058</v>
       </c>
       <c r="C84" t="n">
-        <v>0.266661</v>
+        <v>0.267716</v>
       </c>
       <c r="D84" t="n">
-        <v>0.274516</v>
+        <v>0.277717</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.310881</v>
+        <v>0.310846</v>
       </c>
       <c r="C85" t="n">
-        <v>0.265448</v>
+        <v>0.269747</v>
       </c>
       <c r="D85" t="n">
-        <v>0.275473</v>
+        <v>0.274812</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.303773</v>
+        <v>0.302848</v>
       </c>
       <c r="C86" t="n">
-        <v>0.263008</v>
+        <v>0.26096</v>
       </c>
       <c r="D86" t="n">
-        <v>0.274407</v>
+        <v>0.271443</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.294506</v>
+        <v>0.294565</v>
       </c>
       <c r="C87" t="n">
-        <v>0.260162</v>
+        <v>0.263893</v>
       </c>
       <c r="D87" t="n">
-        <v>0.267422</v>
+        <v>0.272049</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.289994</v>
+        <v>0.285943</v>
       </c>
       <c r="C88" t="n">
-        <v>0.262208</v>
+        <v>0.26559</v>
       </c>
       <c r="D88" t="n">
-        <v>0.271568</v>
+        <v>0.276549</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.276809</v>
+        <v>0.283892</v>
       </c>
       <c r="C89" t="n">
-        <v>0.258776</v>
+        <v>0.256724</v>
       </c>
       <c r="D89" t="n">
-        <v>0.266491</v>
+        <v>0.266991</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.275111</v>
+        <v>0.2728</v>
       </c>
       <c r="C90" t="n">
-        <v>0.25602</v>
+        <v>0.256251</v>
       </c>
       <c r="D90" t="n">
-        <v>0.265927</v>
+        <v>0.266948</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.268122</v>
+        <v>0.26579</v>
       </c>
       <c r="C91" t="n">
-        <v>0.254062</v>
+        <v>0.253013</v>
       </c>
       <c r="D91" t="n">
-        <v>0.264454</v>
+        <v>0.265141</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.255129</v>
+        <v>0.255193</v>
       </c>
       <c r="C92" t="n">
-        <v>0.249928</v>
+        <v>0.252555</v>
       </c>
       <c r="D92" t="n">
-        <v>0.259989</v>
+        <v>0.260646</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.247996</v>
+        <v>0.245422</v>
       </c>
       <c r="C93" t="n">
-        <v>0.249842</v>
+        <v>0.252411</v>
       </c>
       <c r="D93" t="n">
-        <v>0.25668</v>
+        <v>0.262676</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.242883</v>
+        <v>0.23899</v>
       </c>
       <c r="C94" t="n">
-        <v>0.245646</v>
+        <v>0.247655</v>
       </c>
       <c r="D94" t="n">
-        <v>0.287723</v>
+        <v>0.288588</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.340962</v>
+        <v>0.338132</v>
       </c>
       <c r="C95" t="n">
-        <v>0.274982</v>
+        <v>0.279331</v>
       </c>
       <c r="D95" t="n">
-        <v>0.286365</v>
+        <v>0.287696</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.329083</v>
+        <v>0.335252</v>
       </c>
       <c r="C96" t="n">
-        <v>0.275995</v>
+        <v>0.273776</v>
       </c>
       <c r="D96" t="n">
-        <v>0.282952</v>
+        <v>0.281097</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.329343</v>
+        <v>0.3219</v>
       </c>
       <c r="C97" t="n">
-        <v>0.274719</v>
+        <v>0.274257</v>
       </c>
       <c r="D97" t="n">
-        <v>0.281093</v>
+        <v>0.279114</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.32099</v>
+        <v>0.321668</v>
       </c>
       <c r="C98" t="n">
-        <v>0.269352</v>
+        <v>0.272114</v>
       </c>
       <c r="D98" t="n">
-        <v>0.277521</v>
+        <v>0.279229</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.311493</v>
+        <v>0.307026</v>
       </c>
       <c r="C99" t="n">
-        <v>0.26802</v>
+        <v>0.267577</v>
       </c>
       <c r="D99" t="n">
-        <v>0.279691</v>
+        <v>0.27571</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.30531</v>
+        <v>0.306249</v>
       </c>
       <c r="C100" t="n">
-        <v>0.26473</v>
+        <v>0.264899</v>
       </c>
       <c r="D100" t="n">
-        <v>0.273883</v>
+        <v>0.277114</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.297033</v>
+        <v>0.300233</v>
       </c>
       <c r="C101" t="n">
-        <v>0.262817</v>
+        <v>0.265254</v>
       </c>
       <c r="D101" t="n">
-        <v>0.269612</v>
+        <v>0.267991</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.290911</v>
+        <v>0.291391</v>
       </c>
       <c r="C102" t="n">
-        <v>0.26337</v>
+        <v>0.258453</v>
       </c>
       <c r="D102" t="n">
-        <v>0.269851</v>
+        <v>0.265245</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.286857</v>
+        <v>0.284846</v>
       </c>
       <c r="C103" t="n">
-        <v>0.265315</v>
+        <v>0.26097</v>
       </c>
       <c r="D103" t="n">
-        <v>0.272351</v>
+        <v>0.267159</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.273815</v>
+        <v>0.275267</v>
       </c>
       <c r="C104" t="n">
-        <v>0.256713</v>
+        <v>0.259436</v>
       </c>
       <c r="D104" t="n">
-        <v>0.265104</v>
+        <v>0.262854</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.26813</v>
+        <v>0.27093</v>
       </c>
       <c r="C105" t="n">
-        <v>0.256204</v>
+        <v>0.253003</v>
       </c>
       <c r="D105" t="n">
-        <v>0.265954</v>
+        <v>0.265284</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.259542</v>
+        <v>0.257676</v>
       </c>
       <c r="C106" t="n">
-        <v>0.251927</v>
+        <v>0.254433</v>
       </c>
       <c r="D106" t="n">
-        <v>0.26604</v>
+        <v>0.259021</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.25215</v>
+        <v>0.252047</v>
       </c>
       <c r="C107" t="n">
-        <v>0.249124</v>
+        <v>0.251874</v>
       </c>
       <c r="D107" t="n">
-        <v>0.26354</v>
+        <v>0.260739</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.245322</v>
+        <v>0.243933</v>
       </c>
       <c r="C108" t="n">
-        <v>0.247949</v>
+        <v>0.246862</v>
       </c>
       <c r="D108" t="n">
-        <v>0.287963</v>
+        <v>0.292297</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.230034</v>
+        <v>0.233403</v>
       </c>
       <c r="C109" t="n">
-        <v>0.247675</v>
+        <v>0.245263</v>
       </c>
       <c r="D109" t="n">
-        <v>0.28873</v>
+        <v>0.287674</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.336083</v>
+        <v>0.333526</v>
       </c>
       <c r="C110" t="n">
-        <v>0.275854</v>
+        <v>0.278536</v>
       </c>
       <c r="D110" t="n">
-        <v>0.282569</v>
+        <v>0.282155</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.32558</v>
+        <v>0.32467</v>
       </c>
       <c r="C111" t="n">
-        <v>0.275217</v>
+        <v>0.272255</v>
       </c>
       <c r="D111" t="n">
-        <v>0.284709</v>
+        <v>0.279847</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.321359</v>
+        <v>0.323474</v>
       </c>
       <c r="C112" t="n">
-        <v>0.271292</v>
+        <v>0.270802</v>
       </c>
       <c r="D112" t="n">
-        <v>0.278656</v>
+        <v>0.278093</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.315772</v>
+        <v>0.311855</v>
       </c>
       <c r="C113" t="n">
-        <v>0.266886</v>
+        <v>0.269793</v>
       </c>
       <c r="D113" t="n">
-        <v>0.280806</v>
+        <v>0.277388</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.310172</v>
+        <v>0.30482</v>
       </c>
       <c r="C114" t="n">
-        <v>0.268586</v>
+        <v>0.267352</v>
       </c>
       <c r="D114" t="n">
-        <v>0.274331</v>
+        <v>0.274097</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.304082</v>
+        <v>0.303171</v>
       </c>
       <c r="C115" t="n">
-        <v>0.264332</v>
+        <v>0.261733</v>
       </c>
       <c r="D115" t="n">
-        <v>0.271668</v>
+        <v>0.272704</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.290433</v>
+        <v>0.29064</v>
       </c>
       <c r="C116" t="n">
-        <v>0.264867</v>
+        <v>0.263484</v>
       </c>
       <c r="D116" t="n">
-        <v>0.270839</v>
+        <v>0.270464</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.281406</v>
+        <v>0.293058</v>
       </c>
       <c r="C117" t="n">
-        <v>0.257199</v>
+        <v>0.263582</v>
       </c>
       <c r="D117" t="n">
-        <v>0.271569</v>
+        <v>0.264784</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.275873</v>
+        <v>0.278157</v>
       </c>
       <c r="C118" t="n">
-        <v>0.260058</v>
+        <v>0.260278</v>
       </c>
       <c r="D118" t="n">
-        <v>0.2642</v>
+        <v>0.266337</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.270205</v>
+        <v>0.27242</v>
       </c>
       <c r="C119" t="n">
-        <v>0.254052</v>
+        <v>0.253264</v>
       </c>
       <c r="D119" t="n">
-        <v>0.268289</v>
+        <v>0.262075</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.262179</v>
+        <v>0.264264</v>
       </c>
       <c r="C120" t="n">
-        <v>0.250721</v>
+        <v>0.255907</v>
       </c>
       <c r="D120" t="n">
-        <v>0.266484</v>
+        <v>0.264181</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.255834</v>
+        <v>0.256409</v>
       </c>
       <c r="C121" t="n">
-        <v>0.248953</v>
+        <v>0.258529</v>
       </c>
       <c r="D121" t="n">
-        <v>0.263521</v>
+        <v>0.260889</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.246451</v>
+        <v>0.248536</v>
       </c>
       <c r="C122" t="n">
-        <v>0.250855</v>
+        <v>0.248512</v>
       </c>
       <c r="D122" t="n">
-        <v>0.260687</v>
+        <v>0.261032</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.234284</v>
+        <v>0.233832</v>
       </c>
       <c r="C123" t="n">
-        <v>0.246066</v>
+        <v>0.244396</v>
       </c>
       <c r="D123" t="n">
-        <v>0.288571</v>
+        <v>0.289176</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.336438</v>
+        <v>0.330148</v>
       </c>
       <c r="C124" t="n">
-        <v>0.281057</v>
+        <v>0.278229</v>
       </c>
       <c r="D124" t="n">
-        <v>0.286813</v>
+        <v>0.286694</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.331298</v>
+        <v>0.328562</v>
       </c>
       <c r="C125" t="n">
-        <v>0.278924</v>
+        <v>0.271774</v>
       </c>
       <c r="D125" t="n">
-        <v>0.2844</v>
+        <v>0.279978</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.326883</v>
+        <v>0.327318</v>
       </c>
       <c r="C126" t="n">
-        <v>0.275151</v>
+        <v>0.272323</v>
       </c>
       <c r="D126" t="n">
-        <v>0.27999</v>
+        <v>0.278789</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.320107</v>
+        <v>0.315585</v>
       </c>
       <c r="C127" t="n">
-        <v>0.270013</v>
+        <v>0.271472</v>
       </c>
       <c r="D127" t="n">
-        <v>0.278299</v>
+        <v>0.28604</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.314484</v>
+        <v>0.306645</v>
       </c>
       <c r="C128" t="n">
-        <v>0.269363</v>
+        <v>0.265235</v>
       </c>
       <c r="D128" t="n">
-        <v>0.274632</v>
+        <v>0.285237</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.304914</v>
+        <v>0.299263</v>
       </c>
       <c r="C129" t="n">
-        <v>0.262423</v>
+        <v>0.263349</v>
       </c>
       <c r="D129" t="n">
-        <v>0.274365</v>
+        <v>0.281409</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.290786</v>
+        <v>0.295843</v>
       </c>
       <c r="C130" t="n">
-        <v>0.26144</v>
+        <v>0.263761</v>
       </c>
       <c r="D130" t="n">
-        <v>0.271936</v>
+        <v>0.270537</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.289283</v>
+        <v>0.281376</v>
       </c>
       <c r="C131" t="n">
-        <v>0.260195</v>
+        <v>0.26793</v>
       </c>
       <c r="D131" t="n">
-        <v>0.271003</v>
+        <v>0.264551</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.282356</v>
+        <v>0.279016</v>
       </c>
       <c r="C132" t="n">
-        <v>0.258949</v>
+        <v>0.253787</v>
       </c>
       <c r="D132" t="n">
-        <v>0.269842</v>
+        <v>0.271218</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.274543</v>
+        <v>0.279082</v>
       </c>
       <c r="C133" t="n">
-        <v>0.259902</v>
+        <v>0.254848</v>
       </c>
       <c r="D133" t="n">
-        <v>0.2696</v>
+        <v>0.265386</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.261144</v>
+        <v>0.258662</v>
       </c>
       <c r="C134" t="n">
-        <v>0.253292</v>
+        <v>0.25328</v>
       </c>
       <c r="D134" t="n">
-        <v>0.263808</v>
+        <v>0.263971</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.262137</v>
+        <v>0.252578</v>
       </c>
       <c r="C135" t="n">
-        <v>0.252773</v>
+        <v>0.249315</v>
       </c>
       <c r="D135" t="n">
-        <v>0.260307</v>
+        <v>0.259297</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.245768</v>
+        <v>0.244715</v>
       </c>
       <c r="C136" t="n">
-        <v>0.249954</v>
+        <v>0.245185</v>
       </c>
       <c r="D136" t="n">
-        <v>0.260943</v>
+        <v>0.261094</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.239049</v>
+        <v>0.231861</v>
       </c>
       <c r="C137" t="n">
-        <v>0.24734</v>
+        <v>0.245807</v>
       </c>
       <c r="D137" t="n">
-        <v>0.291883</v>
+        <v>0.289949</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.329543</v>
+        <v>0.339418</v>
       </c>
       <c r="C138" t="n">
-        <v>0.276562</v>
+        <v>0.278613</v>
       </c>
       <c r="D138" t="n">
-        <v>0.282796</v>
+        <v>0.28637</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.330872</v>
+        <v>0.324853</v>
       </c>
       <c r="C139" t="n">
-        <v>0.271694</v>
+        <v>0.275311</v>
       </c>
       <c r="D139" t="n">
-        <v>0.283595</v>
+        <v>0.28467</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.322279</v>
+        <v>0.328434</v>
       </c>
       <c r="C140" t="n">
-        <v>0.268695</v>
+        <v>0.272581</v>
       </c>
       <c r="D140" t="n">
-        <v>0.27877</v>
+        <v>0.277182</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.317466</v>
+        <v>0.315236</v>
       </c>
       <c r="C141" t="n">
-        <v>0.275052</v>
+        <v>0.268948</v>
       </c>
       <c r="D141" t="n">
-        <v>0.27637</v>
+        <v>0.274582</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.30851</v>
+        <v>0.309655</v>
       </c>
       <c r="C142" t="n">
-        <v>0.269621</v>
+        <v>0.26466</v>
       </c>
       <c r="D142" t="n">
-        <v>0.27424</v>
+        <v>0.270215</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.299111</v>
+        <v>0.303665</v>
       </c>
       <c r="C143" t="n">
-        <v>0.266518</v>
+        <v>0.262134</v>
       </c>
       <c r="D143" t="n">
-        <v>0.27741</v>
+        <v>0.277505</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3272,13 +3272,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.263379</v>
+        <v>0.268768</v>
       </c>
       <c r="C2" t="n">
-        <v>0.537235</v>
+        <v>0.53609</v>
       </c>
       <c r="D2" t="n">
-        <v>0.242872</v>
+        <v>0.243881</v>
       </c>
     </row>
     <row r="3">
@@ -3286,13 +3286,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.254599</v>
+        <v>0.266889</v>
       </c>
       <c r="C3" t="n">
-        <v>0.546318</v>
+        <v>0.551044</v>
       </c>
       <c r="D3" t="n">
-        <v>0.244564</v>
+        <v>0.250363</v>
       </c>
     </row>
     <row r="4">
@@ -3300,13 +3300,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.248366</v>
+        <v>0.255125</v>
       </c>
       <c r="C4" t="n">
-        <v>0.548901</v>
+        <v>0.565863</v>
       </c>
       <c r="D4" t="n">
-        <v>0.236575</v>
+        <v>0.244428</v>
       </c>
     </row>
     <row r="5">
@@ -3314,13 +3314,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.23627</v>
+        <v>0.255925</v>
       </c>
       <c r="C5" t="n">
-        <v>0.55716</v>
+        <v>0.589432</v>
       </c>
       <c r="D5" t="n">
-        <v>0.237292</v>
+        <v>0.248418</v>
       </c>
     </row>
     <row r="6">
@@ -3328,13 +3328,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.237104</v>
+        <v>0.250003</v>
       </c>
       <c r="C6" t="n">
-        <v>0.616428</v>
+        <v>0.620166</v>
       </c>
       <c r="D6" t="n">
-        <v>0.241966</v>
+        <v>0.247034</v>
       </c>
     </row>
     <row r="7">
@@ -3342,13 +3342,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.228393</v>
+        <v>0.243335</v>
       </c>
       <c r="C7" t="n">
-        <v>0.647915</v>
+        <v>0.631296</v>
       </c>
       <c r="D7" t="n">
-        <v>0.243425</v>
+        <v>0.242472</v>
       </c>
     </row>
     <row r="8">
@@ -3356,13 +3356,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.22251</v>
+        <v>0.228652</v>
       </c>
       <c r="C8" t="n">
-        <v>0.474696</v>
+        <v>0.485031</v>
       </c>
       <c r="D8" t="n">
-        <v>0.241595</v>
+        <v>0.246528</v>
       </c>
     </row>
     <row r="9">
@@ -3370,13 +3370,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.215845</v>
+        <v>0.221748</v>
       </c>
       <c r="C9" t="n">
-        <v>0.495092</v>
+        <v>0.501187</v>
       </c>
       <c r="D9" t="n">
-        <v>0.258002</v>
+        <v>0.258709</v>
       </c>
     </row>
     <row r="10">
@@ -3384,13 +3384,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.308111</v>
+        <v>0.314163</v>
       </c>
       <c r="C10" t="n">
-        <v>0.479237</v>
+        <v>0.481853</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25198</v>
+        <v>0.252445</v>
       </c>
     </row>
     <row r="11">
@@ -3398,13 +3398,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.293267</v>
+        <v>0.309616</v>
       </c>
       <c r="C11" t="n">
-        <v>0.486409</v>
+        <v>0.489038</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25161</v>
+        <v>0.255555</v>
       </c>
     </row>
     <row r="12">
@@ -3412,13 +3412,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.286199</v>
+        <v>0.301609</v>
       </c>
       <c r="C12" t="n">
-        <v>0.495697</v>
+        <v>0.487122</v>
       </c>
       <c r="D12" t="n">
-        <v>0.243731</v>
+        <v>0.251747</v>
       </c>
     </row>
     <row r="13">
@@ -3426,13 +3426,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.276361</v>
+        <v>0.293804</v>
       </c>
       <c r="C13" t="n">
-        <v>0.53047</v>
+        <v>0.522698</v>
       </c>
       <c r="D13" t="n">
-        <v>0.248301</v>
+        <v>0.251265</v>
       </c>
     </row>
     <row r="14">
@@ -3440,13 +3440,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.274646</v>
+        <v>0.288359</v>
       </c>
       <c r="C14" t="n">
-        <v>0.530959</v>
+        <v>0.515753</v>
       </c>
       <c r="D14" t="n">
-        <v>0.249197</v>
+        <v>0.25502</v>
       </c>
     </row>
     <row r="15">
@@ -3454,13 +3454,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.266871</v>
+        <v>0.281299</v>
       </c>
       <c r="C15" t="n">
-        <v>0.523536</v>
+        <v>0.534227</v>
       </c>
       <c r="D15" t="n">
-        <v>0.245278</v>
+        <v>0.257666</v>
       </c>
     </row>
     <row r="16">
@@ -3468,13 +3468,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.261571</v>
+        <v>0.275191</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5277849999999999</v>
+        <v>0.541017</v>
       </c>
       <c r="D16" t="n">
-        <v>0.246224</v>
+        <v>0.249377</v>
       </c>
     </row>
     <row r="17">
@@ -3482,13 +3482,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.25622</v>
+        <v>0.27054</v>
       </c>
       <c r="C17" t="n">
-        <v>0.55182</v>
+        <v>0.543602</v>
       </c>
       <c r="D17" t="n">
-        <v>0.247903</v>
+        <v>0.248385</v>
       </c>
     </row>
     <row r="18">
@@ -3496,13 +3496,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.251051</v>
+        <v>0.261327</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5656</v>
+        <v>0.564882</v>
       </c>
       <c r="D18" t="n">
-        <v>0.241129</v>
+        <v>0.250958</v>
       </c>
     </row>
     <row r="19">
@@ -3510,13 +3510,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.24316</v>
+        <v>0.254647</v>
       </c>
       <c r="C19" t="n">
-        <v>0.590647</v>
+        <v>0.585167</v>
       </c>
       <c r="D19" t="n">
-        <v>0.241806</v>
+        <v>0.248502</v>
       </c>
     </row>
     <row r="20">
@@ -3524,13 +3524,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.235072</v>
+        <v>0.247502</v>
       </c>
       <c r="C20" t="n">
-        <v>0.613216</v>
+        <v>0.60659</v>
       </c>
       <c r="D20" t="n">
-        <v>0.240504</v>
+        <v>0.251975</v>
       </c>
     </row>
     <row r="21">
@@ -3538,13 +3538,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.227465</v>
+        <v>0.240721</v>
       </c>
       <c r="C21" t="n">
-        <v>0.623516</v>
+        <v>0.63588</v>
       </c>
       <c r="D21" t="n">
-        <v>0.242181</v>
+        <v>0.248661</v>
       </c>
     </row>
     <row r="22">
@@ -3552,13 +3552,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.22015</v>
+        <v>0.234916</v>
       </c>
       <c r="C22" t="n">
-        <v>0.47955</v>
+        <v>0.486139</v>
       </c>
       <c r="D22" t="n">
-        <v>0.237853</v>
+        <v>0.247013</v>
       </c>
     </row>
     <row r="23">
@@ -3566,13 +3566,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.213556</v>
+        <v>0.223365</v>
       </c>
       <c r="C23" t="n">
-        <v>0.508308</v>
+        <v>0.522243</v>
       </c>
       <c r="D23" t="n">
-        <v>0.259215</v>
+        <v>0.265514</v>
       </c>
     </row>
     <row r="24">
@@ -3580,13 +3580,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.298313</v>
+        <v>0.310872</v>
       </c>
       <c r="C24" t="n">
-        <v>0.502822</v>
+        <v>0.51363</v>
       </c>
       <c r="D24" t="n">
-        <v>0.256415</v>
+        <v>0.259661</v>
       </c>
     </row>
     <row r="25">
@@ -3594,13 +3594,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.290507</v>
+        <v>0.307003</v>
       </c>
       <c r="C25" t="n">
-        <v>0.528985</v>
+        <v>0.536504</v>
       </c>
       <c r="D25" t="n">
-        <v>0.254995</v>
+        <v>0.261515</v>
       </c>
     </row>
     <row r="26">
@@ -3608,13 +3608,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.289087</v>
+        <v>0.305144</v>
       </c>
       <c r="C26" t="n">
-        <v>0.546028</v>
+        <v>0.548051</v>
       </c>
       <c r="D26" t="n">
-        <v>0.249852</v>
+        <v>0.262137</v>
       </c>
     </row>
     <row r="27">
@@ -3622,13 +3622,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.283303</v>
+        <v>0.295358</v>
       </c>
       <c r="C27" t="n">
-        <v>0.525276</v>
+        <v>0.540871</v>
       </c>
       <c r="D27" t="n">
-        <v>0.250934</v>
+        <v>0.254411</v>
       </c>
     </row>
     <row r="28">
@@ -3636,13 +3636,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.277531</v>
+        <v>0.288948</v>
       </c>
       <c r="C28" t="n">
-        <v>0.534348</v>
+        <v>0.541237</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2532</v>
+        <v>0.257129</v>
       </c>
     </row>
     <row r="29">
@@ -3650,13 +3650,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.268771</v>
+        <v>0.285165</v>
       </c>
       <c r="C29" t="n">
-        <v>0.547208</v>
+        <v>0.5626989999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.248956</v>
+        <v>0.252709</v>
       </c>
     </row>
     <row r="30">
@@ -3664,13 +3664,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.264042</v>
+        <v>0.283985</v>
       </c>
       <c r="C30" t="n">
-        <v>0.557635</v>
+        <v>0.589438</v>
       </c>
       <c r="D30" t="n">
-        <v>0.251998</v>
+        <v>0.25305</v>
       </c>
     </row>
     <row r="31">
@@ -3678,13 +3678,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.260122</v>
+        <v>0.271744</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5714050000000001</v>
+        <v>0.5924199999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.246578</v>
+        <v>0.253114</v>
       </c>
     </row>
     <row r="32">
@@ -3692,13 +3692,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.253044</v>
+        <v>0.265891</v>
       </c>
       <c r="C32" t="n">
-        <v>0.593396</v>
+        <v>0.619039</v>
       </c>
       <c r="D32" t="n">
-        <v>0.246223</v>
+        <v>0.249974</v>
       </c>
     </row>
     <row r="33">
@@ -3706,13 +3706,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.24509</v>
+        <v>0.26007</v>
       </c>
       <c r="C33" t="n">
-        <v>0.606177</v>
+        <v>0.622209</v>
       </c>
       <c r="D33" t="n">
-        <v>0.242733</v>
+        <v>0.252088</v>
       </c>
     </row>
     <row r="34">
@@ -3720,13 +3720,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.237512</v>
+        <v>0.254125</v>
       </c>
       <c r="C34" t="n">
-        <v>0.628764</v>
+        <v>0.650424</v>
       </c>
       <c r="D34" t="n">
-        <v>0.244287</v>
+        <v>0.249213</v>
       </c>
     </row>
     <row r="35">
@@ -3734,13 +3734,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.231266</v>
+        <v>0.24333</v>
       </c>
       <c r="C35" t="n">
-        <v>0.663208</v>
+        <v>0.656815</v>
       </c>
       <c r="D35" t="n">
-        <v>0.245029</v>
+        <v>0.250886</v>
       </c>
     </row>
     <row r="36">
@@ -3748,13 +3748,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.225501</v>
+        <v>0.233677</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6796990000000001</v>
+        <v>0.685439</v>
       </c>
       <c r="D36" t="n">
-        <v>0.243777</v>
+        <v>0.245318</v>
       </c>
     </row>
     <row r="37">
@@ -3762,13 +3762,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.216706</v>
+        <v>0.22652</v>
       </c>
       <c r="C37" t="n">
-        <v>0.500706</v>
+        <v>0.57421</v>
       </c>
       <c r="D37" t="n">
-        <v>0.256479</v>
+        <v>0.269567</v>
       </c>
     </row>
     <row r="38">
@@ -3776,13 +3776,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.301136</v>
+        <v>0.31429</v>
       </c>
       <c r="C38" t="n">
-        <v>0.512144</v>
+        <v>0.570171</v>
       </c>
       <c r="D38" t="n">
-        <v>0.25677</v>
+        <v>0.268407</v>
       </c>
     </row>
     <row r="39">
@@ -3790,13 +3790,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.296816</v>
+        <v>0.309497</v>
       </c>
       <c r="C39" t="n">
-        <v>0.518062</v>
+        <v>0.522756</v>
       </c>
       <c r="D39" t="n">
-        <v>0.255408</v>
+        <v>0.266733</v>
       </c>
     </row>
     <row r="40">
@@ -3804,13 +3804,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.287889</v>
+        <v>0.303725</v>
       </c>
       <c r="C40" t="n">
-        <v>0.525154</v>
+        <v>0.561983</v>
       </c>
       <c r="D40" t="n">
-        <v>0.254564</v>
+        <v>0.261946</v>
       </c>
     </row>
     <row r="41">
@@ -3818,13 +3818,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.284837</v>
+        <v>0.299999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.559461</v>
+        <v>0.537682</v>
       </c>
       <c r="D41" t="n">
-        <v>0.249697</v>
+        <v>0.259956</v>
       </c>
     </row>
     <row r="42">
@@ -3832,13 +3832,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.280529</v>
+        <v>0.292779</v>
       </c>
       <c r="C42" t="n">
-        <v>0.543646</v>
+        <v>0.561496</v>
       </c>
       <c r="D42" t="n">
-        <v>0.250517</v>
+        <v>0.261956</v>
       </c>
     </row>
     <row r="43">
@@ -3846,13 +3846,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.272509</v>
+        <v>0.289342</v>
       </c>
       <c r="C43" t="n">
-        <v>0.557193</v>
+        <v>0.596926</v>
       </c>
       <c r="D43" t="n">
-        <v>0.252996</v>
+        <v>0.256181</v>
       </c>
     </row>
     <row r="44">
@@ -3860,13 +3860,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.264667</v>
+        <v>0.281892</v>
       </c>
       <c r="C44" t="n">
-        <v>0.57639</v>
+        <v>0.616049</v>
       </c>
       <c r="D44" t="n">
-        <v>0.247906</v>
+        <v>0.255637</v>
       </c>
     </row>
     <row r="45">
@@ -3874,13 +3874,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.260544</v>
+        <v>0.278427</v>
       </c>
       <c r="C45" t="n">
-        <v>0.578869</v>
+        <v>0.641196</v>
       </c>
       <c r="D45" t="n">
-        <v>0.244575</v>
+        <v>0.254778</v>
       </c>
     </row>
     <row r="46">
@@ -3888,13 +3888,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.251806</v>
+        <v>0.269934</v>
       </c>
       <c r="C46" t="n">
-        <v>0.612519</v>
+        <v>0.665826</v>
       </c>
       <c r="D46" t="n">
-        <v>0.244506</v>
+        <v>0.255326</v>
       </c>
     </row>
     <row r="47">
@@ -3902,13 +3902,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.248734</v>
+        <v>0.264021</v>
       </c>
       <c r="C47" t="n">
-        <v>0.674888</v>
+        <v>0.648262</v>
       </c>
       <c r="D47" t="n">
-        <v>0.248081</v>
+        <v>0.254911</v>
       </c>
     </row>
     <row r="48">
@@ -3916,13 +3916,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.244325</v>
+        <v>0.255685</v>
       </c>
       <c r="C48" t="n">
-        <v>0.649008</v>
+        <v>0.686715</v>
       </c>
       <c r="D48" t="n">
-        <v>0.247478</v>
+        <v>0.249315</v>
       </c>
     </row>
     <row r="49">
@@ -3930,13 +3930,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.239936</v>
+        <v>0.250615</v>
       </c>
       <c r="C49" t="n">
-        <v>0.666478</v>
+        <v>0.6747109999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.244344</v>
+        <v>0.249687</v>
       </c>
     </row>
     <row r="50">
@@ -3944,13 +3944,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.22936</v>
+        <v>0.242959</v>
       </c>
       <c r="C50" t="n">
-        <v>0.681604</v>
+        <v>0.722463</v>
       </c>
       <c r="D50" t="n">
-        <v>0.243795</v>
+        <v>0.250121</v>
       </c>
     </row>
     <row r="51">
@@ -3958,13 +3958,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.222008</v>
+        <v>0.233803</v>
       </c>
       <c r="C51" t="n">
-        <v>0.547845</v>
+        <v>0.551895</v>
       </c>
       <c r="D51" t="n">
-        <v>0.268544</v>
+        <v>0.275056</v>
       </c>
     </row>
     <row r="52">
@@ -3972,13 +3972,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.214712</v>
+        <v>0.223323</v>
       </c>
       <c r="C52" t="n">
-        <v>0.558093</v>
+        <v>0.558702</v>
       </c>
       <c r="D52" t="n">
-        <v>0.264997</v>
+        <v>0.275064</v>
       </c>
     </row>
     <row r="53">
@@ -3986,13 +3986,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.306529</v>
+        <v>0.317371</v>
       </c>
       <c r="C53" t="n">
-        <v>0.561762</v>
+        <v>0.568595</v>
       </c>
       <c r="D53" t="n">
-        <v>0.263803</v>
+        <v>0.269023</v>
       </c>
     </row>
     <row r="54">
@@ -4000,13 +4000,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.301047</v>
+        <v>0.310179</v>
       </c>
       <c r="C54" t="n">
-        <v>0.574599</v>
+        <v>0.57341</v>
       </c>
       <c r="D54" t="n">
-        <v>0.257065</v>
+        <v>0.27204</v>
       </c>
     </row>
     <row r="55">
@@ -4014,13 +4014,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.291324</v>
+        <v>0.308441</v>
       </c>
       <c r="C55" t="n">
-        <v>0.571182</v>
+        <v>0.57748</v>
       </c>
       <c r="D55" t="n">
-        <v>0.258125</v>
+        <v>0.265817</v>
       </c>
     </row>
     <row r="56">
@@ -4028,13 +4028,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.286261</v>
+        <v>0.302206</v>
       </c>
       <c r="C56" t="n">
-        <v>0.582793</v>
+        <v>0.581917</v>
       </c>
       <c r="D56" t="n">
-        <v>0.256838</v>
+        <v>0.263304</v>
       </c>
     </row>
     <row r="57">
@@ -4042,13 +4042,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.280899</v>
+        <v>0.293054</v>
       </c>
       <c r="C57" t="n">
-        <v>0.589106</v>
+        <v>0.85805</v>
       </c>
       <c r="D57" t="n">
-        <v>0.256841</v>
+        <v>0.263771</v>
       </c>
     </row>
     <row r="58">
@@ -4056,13 +4056,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.27597</v>
+        <v>0.287983</v>
       </c>
       <c r="C58" t="n">
-        <v>0.611044</v>
+        <v>0.6141180000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.253891</v>
+        <v>0.259884</v>
       </c>
     </row>
     <row r="59">
@@ -4070,13 +4070,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.269887</v>
+        <v>0.284089</v>
       </c>
       <c r="C59" t="n">
-        <v>0.672826</v>
+        <v>0.631568</v>
       </c>
       <c r="D59" t="n">
-        <v>0.257132</v>
+        <v>0.258138</v>
       </c>
     </row>
     <row r="60">
@@ -4084,13 +4084,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.262794</v>
+        <v>0.274217</v>
       </c>
       <c r="C60" t="n">
-        <v>0.639651</v>
+        <v>0.6344689999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.250286</v>
+        <v>0.261819</v>
       </c>
     </row>
     <row r="61">
@@ -4098,13 +4098,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.253702</v>
+        <v>0.268777</v>
       </c>
       <c r="C61" t="n">
-        <v>0.649184</v>
+        <v>0.648029</v>
       </c>
       <c r="D61" t="n">
-        <v>0.253551</v>
+        <v>0.260242</v>
       </c>
     </row>
     <row r="62">
@@ -4112,13 +4112,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.251391</v>
+        <v>0.258783</v>
       </c>
       <c r="C62" t="n">
-        <v>0.674798</v>
+        <v>0.679497</v>
       </c>
       <c r="D62" t="n">
-        <v>0.24839</v>
+        <v>0.254864</v>
       </c>
     </row>
     <row r="63">
@@ -4126,13 +4126,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.239964</v>
+        <v>0.255271</v>
       </c>
       <c r="C63" t="n">
-        <v>0.718112</v>
+        <v>0.704916</v>
       </c>
       <c r="D63" t="n">
-        <v>0.248504</v>
+        <v>0.256254</v>
       </c>
     </row>
     <row r="64">
@@ -4140,13 +4140,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.237103</v>
+        <v>0.250136</v>
       </c>
       <c r="C64" t="n">
-        <v>0.720529</v>
+        <v>0.72495</v>
       </c>
       <c r="D64" t="n">
-        <v>0.24451</v>
+        <v>0.253146</v>
       </c>
     </row>
     <row r="65">
@@ -4154,13 +4154,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.224406</v>
+        <v>0.237111</v>
       </c>
       <c r="C65" t="n">
-        <v>0.765895</v>
+        <v>0.88835</v>
       </c>
       <c r="D65" t="n">
-        <v>0.24869</v>
+        <v>0.252187</v>
       </c>
     </row>
     <row r="66">
@@ -4168,13 +4168,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.21968</v>
+        <v>0.227124</v>
       </c>
       <c r="C66" t="n">
-        <v>0.847895</v>
+        <v>0.781488</v>
       </c>
       <c r="D66" t="n">
-        <v>0.272671</v>
+        <v>0.282544</v>
       </c>
     </row>
     <row r="67">
@@ -4182,13 +4182,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.318078</v>
+        <v>0.337778</v>
       </c>
       <c r="C67" t="n">
-        <v>0.787048</v>
+        <v>0.781347</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2736</v>
+        <v>0.280722</v>
       </c>
     </row>
     <row r="68">
@@ -4196,13 +4196,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.313961</v>
+        <v>0.3266</v>
       </c>
       <c r="C68" t="n">
-        <v>0.802903</v>
+        <v>0.791552</v>
       </c>
       <c r="D68" t="n">
-        <v>0.268386</v>
+        <v>0.277879</v>
       </c>
     </row>
     <row r="69">
@@ -4210,13 +4210,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.304462</v>
+        <v>0.318147</v>
       </c>
       <c r="C69" t="n">
-        <v>0.807657</v>
+        <v>0.795746</v>
       </c>
       <c r="D69" t="n">
-        <v>0.265907</v>
+        <v>0.272747</v>
       </c>
     </row>
     <row r="70">
@@ -4224,13 +4224,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.300562</v>
+        <v>0.316014</v>
       </c>
       <c r="C70" t="n">
-        <v>0.78793</v>
+        <v>0.812752</v>
       </c>
       <c r="D70" t="n">
-        <v>0.266552</v>
+        <v>0.273975</v>
       </c>
     </row>
     <row r="71">
@@ -4238,13 +4238,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.291493</v>
+        <v>0.307109</v>
       </c>
       <c r="C71" t="n">
-        <v>0.824331</v>
+        <v>0.822807</v>
       </c>
       <c r="D71" t="n">
-        <v>0.265533</v>
+        <v>0.273489</v>
       </c>
     </row>
     <row r="72">
@@ -4252,13 +4252,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.280827</v>
+        <v>0.303706</v>
       </c>
       <c r="C72" t="n">
-        <v>0.821361</v>
+        <v>0.821607</v>
       </c>
       <c r="D72" t="n">
-        <v>0.261423</v>
+        <v>0.26895</v>
       </c>
     </row>
     <row r="73">
@@ -4266,13 +4266,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.281566</v>
+        <v>0.295328</v>
       </c>
       <c r="C73" t="n">
-        <v>0.828217</v>
+        <v>0.844271</v>
       </c>
       <c r="D73" t="n">
-        <v>0.264654</v>
+        <v>0.269226</v>
       </c>
     </row>
     <row r="74">
@@ -4280,13 +4280,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.267713</v>
+        <v>0.285842</v>
       </c>
       <c r="C74" t="n">
-        <v>0.851234</v>
+        <v>0.849539</v>
       </c>
       <c r="D74" t="n">
-        <v>0.256816</v>
+        <v>0.269169</v>
       </c>
     </row>
     <row r="75">
@@ -4294,13 +4294,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.264044</v>
+        <v>0.275926</v>
       </c>
       <c r="C75" t="n">
-        <v>0.907438</v>
+        <v>0.874515</v>
       </c>
       <c r="D75" t="n">
-        <v>0.258323</v>
+        <v>0.267455</v>
       </c>
     </row>
     <row r="76">
@@ -4308,13 +4308,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.258271</v>
+        <v>0.268304</v>
       </c>
       <c r="C76" t="n">
-        <v>0.889441</v>
+        <v>0.883599</v>
       </c>
       <c r="D76" t="n">
-        <v>0.25665</v>
+        <v>0.26352</v>
       </c>
     </row>
     <row r="77">
@@ -4322,13 +4322,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.249779</v>
+        <v>0.257904</v>
       </c>
       <c r="C77" t="n">
-        <v>0.920062</v>
+        <v>0.895483</v>
       </c>
       <c r="D77" t="n">
-        <v>0.253282</v>
+        <v>0.260207</v>
       </c>
     </row>
     <row r="78">
@@ -4336,13 +4336,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.241838</v>
+        <v>0.253286</v>
       </c>
       <c r="C78" t="n">
-        <v>0.949998</v>
+        <v>0.920942</v>
       </c>
       <c r="D78" t="n">
-        <v>0.25355</v>
+        <v>0.25983</v>
       </c>
     </row>
     <row r="79">
@@ -4350,13 +4350,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.23546</v>
+        <v>0.251676</v>
       </c>
       <c r="C79" t="n">
-        <v>1.08153</v>
+        <v>1.11266</v>
       </c>
       <c r="D79" t="n">
-        <v>0.255958</v>
+        <v>0.258817</v>
       </c>
     </row>
     <row r="80">
@@ -4364,13 +4364,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.224</v>
+        <v>0.233885</v>
       </c>
       <c r="C80" t="n">
-        <v>1.10232</v>
+        <v>1.10374</v>
       </c>
       <c r="D80" t="n">
-        <v>0.280532</v>
+        <v>0.285657</v>
       </c>
     </row>
     <row r="81">
@@ -4378,13 +4378,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.320625</v>
+        <v>0.331632</v>
       </c>
       <c r="C81" t="n">
-        <v>1.08786</v>
+        <v>1.08556</v>
       </c>
       <c r="D81" t="n">
-        <v>0.275407</v>
+        <v>0.284645</v>
       </c>
     </row>
     <row r="82">
@@ -4392,13 +4392,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.318529</v>
+        <v>0.328823</v>
       </c>
       <c r="C82" t="n">
-        <v>1.0823</v>
+        <v>1.09537</v>
       </c>
       <c r="D82" t="n">
-        <v>0.277073</v>
+        <v>0.281107</v>
       </c>
     </row>
     <row r="83">
@@ -4406,13 +4406,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.306666</v>
+        <v>0.323202</v>
       </c>
       <c r="C83" t="n">
-        <v>1.09598</v>
+        <v>1.11321</v>
       </c>
       <c r="D83" t="n">
-        <v>0.273968</v>
+        <v>0.282021</v>
       </c>
     </row>
     <row r="84">
@@ -4420,13 +4420,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.306058</v>
+        <v>0.314503</v>
       </c>
       <c r="C84" t="n">
-        <v>1.08896</v>
+        <v>1.10213</v>
       </c>
       <c r="D84" t="n">
-        <v>0.270291</v>
+        <v>0.27788</v>
       </c>
     </row>
     <row r="85">
@@ -4434,13 +4434,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.297825</v>
+        <v>0.306144</v>
       </c>
       <c r="C85" t="n">
-        <v>1.16077</v>
+        <v>1.12019</v>
       </c>
       <c r="D85" t="n">
-        <v>0.267832</v>
+        <v>0.274308</v>
       </c>
     </row>
     <row r="86">
@@ -4448,13 +4448,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.29077</v>
+        <v>0.302693</v>
       </c>
       <c r="C86" t="n">
-        <v>1.13402</v>
+        <v>1.12608</v>
       </c>
       <c r="D86" t="n">
-        <v>0.266344</v>
+        <v>0.272959</v>
       </c>
     </row>
     <row r="87">
@@ -4462,13 +4462,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.282889</v>
+        <v>0.29217</v>
       </c>
       <c r="C87" t="n">
-        <v>1.17802</v>
+        <v>1.15486</v>
       </c>
       <c r="D87" t="n">
-        <v>0.264751</v>
+        <v>0.270147</v>
       </c>
     </row>
     <row r="88">
@@ -4476,13 +4476,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.273857</v>
+        <v>0.290335</v>
       </c>
       <c r="C88" t="n">
-        <v>1.17718</v>
+        <v>1.18161</v>
       </c>
       <c r="D88" t="n">
-        <v>0.263167</v>
+        <v>0.269666</v>
       </c>
     </row>
     <row r="89">
@@ -4490,13 +4490,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.270089</v>
+        <v>0.279086</v>
       </c>
       <c r="C89" t="n">
-        <v>1.18366</v>
+        <v>1.18651</v>
       </c>
       <c r="D89" t="n">
-        <v>0.259678</v>
+        <v>0.267212</v>
       </c>
     </row>
     <row r="90">
@@ -4504,13 +4504,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.263837</v>
+        <v>0.271495</v>
       </c>
       <c r="C90" t="n">
-        <v>1.20074</v>
+        <v>1.22402</v>
       </c>
       <c r="D90" t="n">
-        <v>0.261408</v>
+        <v>0.26569</v>
       </c>
     </row>
     <row r="91">
@@ -4518,13 +4518,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.253285</v>
+        <v>0.270067</v>
       </c>
       <c r="C91" t="n">
-        <v>1.25558</v>
+        <v>1.24087</v>
       </c>
       <c r="D91" t="n">
-        <v>0.25529</v>
+        <v>0.263068</v>
       </c>
     </row>
     <row r="92">
@@ -4532,13 +4532,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.245882</v>
+        <v>0.26162</v>
       </c>
       <c r="C92" t="n">
-        <v>1.27957</v>
+        <v>1.27484</v>
       </c>
       <c r="D92" t="n">
-        <v>0.258371</v>
+        <v>0.259623</v>
       </c>
     </row>
     <row r="93">
@@ -4546,13 +4546,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.238103</v>
+        <v>0.247549</v>
       </c>
       <c r="C93" t="n">
-        <v>1.28926</v>
+        <v>1.27878</v>
       </c>
       <c r="D93" t="n">
-        <v>0.254005</v>
+        <v>0.262761</v>
       </c>
     </row>
     <row r="94">
@@ -4560,13 +4560,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.231638</v>
+        <v>0.239998</v>
       </c>
       <c r="C94" t="n">
-        <v>1.31889</v>
+        <v>1.31205</v>
       </c>
       <c r="D94" t="n">
-        <v>0.283129</v>
+        <v>0.28943</v>
       </c>
     </row>
     <row r="95">
@@ -4574,13 +4574,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.327799</v>
+        <v>0.335473</v>
       </c>
       <c r="C95" t="n">
-        <v>1.30137</v>
+        <v>1.33904</v>
       </c>
       <c r="D95" t="n">
-        <v>0.279515</v>
+        <v>0.288156</v>
       </c>
     </row>
     <row r="96">
@@ -4588,13 +4588,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.322011</v>
+        <v>0.327577</v>
       </c>
       <c r="C96" t="n">
-        <v>1.32067</v>
+        <v>1.34167</v>
       </c>
       <c r="D96" t="n">
-        <v>0.276148</v>
+        <v>0.28185</v>
       </c>
     </row>
     <row r="97">
@@ -4602,13 +4602,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.309523</v>
+        <v>0.322642</v>
       </c>
       <c r="C97" t="n">
-        <v>1.31113</v>
+        <v>1.3688</v>
       </c>
       <c r="D97" t="n">
-        <v>0.276218</v>
+        <v>0.283093</v>
       </c>
     </row>
     <row r="98">
@@ -4616,13 +4616,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.306353</v>
+        <v>0.323323</v>
       </c>
       <c r="C98" t="n">
-        <v>1.33608</v>
+        <v>1.35725</v>
       </c>
       <c r="D98" t="n">
-        <v>0.272287</v>
+        <v>0.280227</v>
       </c>
     </row>
     <row r="99">
@@ -4630,13 +4630,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.300555</v>
+        <v>0.319601</v>
       </c>
       <c r="C99" t="n">
-        <v>1.34695</v>
+        <v>1.37463</v>
       </c>
       <c r="D99" t="n">
-        <v>0.268239</v>
+        <v>0.274564</v>
       </c>
     </row>
     <row r="100">
@@ -4644,13 +4644,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.288648</v>
+        <v>0.303533</v>
       </c>
       <c r="C100" t="n">
-        <v>1.40572</v>
+        <v>1.40033</v>
       </c>
       <c r="D100" t="n">
-        <v>0.271027</v>
+        <v>0.274836</v>
       </c>
     </row>
     <row r="101">
@@ -4658,13 +4658,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.281996</v>
+        <v>0.297637</v>
       </c>
       <c r="C101" t="n">
-        <v>1.37915</v>
+        <v>1.41677</v>
       </c>
       <c r="D101" t="n">
-        <v>0.26718</v>
+        <v>0.275032</v>
       </c>
     </row>
     <row r="102">
@@ -4672,13 +4672,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.280754</v>
+        <v>0.288279</v>
       </c>
       <c r="C102" t="n">
-        <v>1.43303</v>
+        <v>1.44712</v>
       </c>
       <c r="D102" t="n">
-        <v>0.264393</v>
+        <v>0.271249</v>
       </c>
     </row>
     <row r="103">
@@ -4686,13 +4686,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.270677</v>
+        <v>0.281556</v>
       </c>
       <c r="C103" t="n">
-        <v>1.44549</v>
+        <v>1.45659</v>
       </c>
       <c r="D103" t="n">
-        <v>0.261404</v>
+        <v>0.266294</v>
       </c>
     </row>
     <row r="104">
@@ -4700,13 +4700,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.263018</v>
+        <v>0.270654</v>
       </c>
       <c r="C104" t="n">
-        <v>1.44342</v>
+        <v>1.49874</v>
       </c>
       <c r="D104" t="n">
-        <v>0.261967</v>
+        <v>0.265142</v>
       </c>
     </row>
     <row r="105">
@@ -4714,13 +4714,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.25599</v>
+        <v>0.273155</v>
       </c>
       <c r="C105" t="n">
-        <v>1.50971</v>
+        <v>1.50185</v>
       </c>
       <c r="D105" t="n">
-        <v>0.257389</v>
+        <v>0.263402</v>
       </c>
     </row>
     <row r="106">
@@ -4728,13 +4728,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.250268</v>
+        <v>0.257594</v>
       </c>
       <c r="C106" t="n">
-        <v>1.56183</v>
+        <v>1.55156</v>
       </c>
       <c r="D106" t="n">
-        <v>0.254431</v>
+        <v>0.260384</v>
       </c>
     </row>
     <row r="107">
@@ -4742,13 +4742,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.237569</v>
+        <v>0.254884</v>
       </c>
       <c r="C107" t="n">
-        <v>1.55929</v>
+        <v>1.57979</v>
       </c>
       <c r="D107" t="n">
-        <v>0.254621</v>
+        <v>0.25943</v>
       </c>
     </row>
     <row r="108">
@@ -4756,13 +4756,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.232592</v>
+        <v>0.243379</v>
       </c>
       <c r="C108" t="n">
-        <v>1.43682</v>
+        <v>1.46597</v>
       </c>
       <c r="D108" t="n">
-        <v>0.28865</v>
+        <v>0.292274</v>
       </c>
     </row>
     <row r="109">
@@ -4770,13 +4770,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.221855</v>
+        <v>0.232805</v>
       </c>
       <c r="C109" t="n">
-        <v>1.49213</v>
+        <v>1.46871</v>
       </c>
       <c r="D109" t="n">
-        <v>0.28388</v>
+        <v>0.28536</v>
       </c>
     </row>
     <row r="110">
@@ -4784,13 +4784,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.318212</v>
+        <v>0.336271</v>
       </c>
       <c r="C110" t="n">
-        <v>1.45094</v>
+        <v>1.47288</v>
       </c>
       <c r="D110" t="n">
-        <v>0.275314</v>
+        <v>0.281561</v>
       </c>
     </row>
     <row r="111">
@@ -4798,13 +4798,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.312149</v>
+        <v>0.33448</v>
       </c>
       <c r="C111" t="n">
-        <v>1.46794</v>
+        <v>1.4823</v>
       </c>
       <c r="D111" t="n">
-        <v>0.270848</v>
+        <v>0.279825</v>
       </c>
     </row>
     <row r="112">
@@ -4812,13 +4812,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.302589</v>
+        <v>0.317214</v>
       </c>
       <c r="C112" t="n">
-        <v>1.4992</v>
+        <v>1.49401</v>
       </c>
       <c r="D112" t="n">
-        <v>0.274279</v>
+        <v>0.284253</v>
       </c>
     </row>
     <row r="113">
@@ -4826,13 +4826,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.299986</v>
+        <v>0.313643</v>
       </c>
       <c r="C113" t="n">
-        <v>1.50698</v>
+        <v>1.50862</v>
       </c>
       <c r="D113" t="n">
-        <v>0.26988</v>
+        <v>0.275806</v>
       </c>
     </row>
     <row r="114">
@@ -4840,13 +4840,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.292864</v>
+        <v>0.30451</v>
       </c>
       <c r="C114" t="n">
-        <v>1.51896</v>
+        <v>1.50787</v>
       </c>
       <c r="D114" t="n">
-        <v>0.274458</v>
+        <v>0.275473</v>
       </c>
     </row>
     <row r="115">
@@ -4854,13 +4854,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.285612</v>
+        <v>0.301211</v>
       </c>
       <c r="C115" t="n">
-        <v>1.55871</v>
+        <v>1.5382</v>
       </c>
       <c r="D115" t="n">
-        <v>0.265595</v>
+        <v>0.274679</v>
       </c>
     </row>
     <row r="116">
@@ -4868,13 +4868,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.278412</v>
+        <v>0.29197</v>
       </c>
       <c r="C116" t="n">
-        <v>1.58594</v>
+        <v>1.58983</v>
       </c>
       <c r="D116" t="n">
-        <v>0.26352</v>
+        <v>0.267051</v>
       </c>
     </row>
     <row r="117">
@@ -4882,13 +4882,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.273514</v>
+        <v>0.284695</v>
       </c>
       <c r="C117" t="n">
-        <v>1.55332</v>
+        <v>1.64683</v>
       </c>
       <c r="D117" t="n">
-        <v>0.26621</v>
+        <v>0.270009</v>
       </c>
     </row>
     <row r="118">
@@ -4896,13 +4896,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.26291</v>
+        <v>0.279403</v>
       </c>
       <c r="C118" t="n">
-        <v>1.60217</v>
+        <v>1.62551</v>
       </c>
       <c r="D118" t="n">
-        <v>0.264681</v>
+        <v>0.266421</v>
       </c>
     </row>
     <row r="119">
@@ -4910,13 +4910,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.258186</v>
+        <v>0.268237</v>
       </c>
       <c r="C119" t="n">
-        <v>1.6512</v>
+        <v>1.68427</v>
       </c>
       <c r="D119" t="n">
-        <v>0.255174</v>
+        <v>0.263219</v>
       </c>
     </row>
     <row r="120">
@@ -4924,13 +4924,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.251243</v>
+        <v>0.262579</v>
       </c>
       <c r="C120" t="n">
-        <v>1.67627</v>
+        <v>1.71398</v>
       </c>
       <c r="D120" t="n">
-        <v>0.257113</v>
+        <v>0.265037</v>
       </c>
     </row>
     <row r="121">
@@ -4938,13 +4938,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.244707</v>
+        <v>0.251917</v>
       </c>
       <c r="C121" t="n">
-        <v>1.74417</v>
+        <v>1.75463</v>
       </c>
       <c r="D121" t="n">
-        <v>0.258825</v>
+        <v>0.259769</v>
       </c>
     </row>
     <row r="122">
@@ -4952,13 +4952,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.234817</v>
+        <v>0.242984</v>
       </c>
       <c r="C122" t="n">
-        <v>1.5758</v>
+        <v>1.58825</v>
       </c>
       <c r="D122" t="n">
-        <v>0.251742</v>
+        <v>0.257225</v>
       </c>
     </row>
     <row r="123">
@@ -4966,13 +4966,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.227666</v>
+        <v>0.234911</v>
       </c>
       <c r="C123" t="n">
-        <v>1.5668</v>
+        <v>1.59887</v>
       </c>
       <c r="D123" t="n">
-        <v>0.286358</v>
+        <v>0.289151</v>
       </c>
     </row>
     <row r="124">
@@ -4980,13 +4980,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.319838</v>
+        <v>0.327778</v>
       </c>
       <c r="C124" t="n">
-        <v>1.53933</v>
+        <v>1.57186</v>
       </c>
       <c r="D124" t="n">
-        <v>0.27467</v>
+        <v>0.283388</v>
       </c>
     </row>
     <row r="125">
@@ -4994,13 +4994,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.317798</v>
+        <v>0.327927</v>
       </c>
       <c r="C125" t="n">
-        <v>1.58978</v>
+        <v>1.59472</v>
       </c>
       <c r="D125" t="n">
-        <v>0.273801</v>
+        <v>0.280466</v>
       </c>
     </row>
     <row r="126">
@@ -5008,13 +5008,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.307161</v>
+        <v>0.318148</v>
       </c>
       <c r="C126" t="n">
-        <v>1.54813</v>
+        <v>1.6405</v>
       </c>
       <c r="D126" t="n">
-        <v>0.273191</v>
+        <v>0.275988</v>
       </c>
     </row>
     <row r="127">
@@ -5022,13 +5022,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.314087</v>
+        <v>0.312911</v>
       </c>
       <c r="C127" t="n">
-        <v>1.60349</v>
+        <v>1.65073</v>
       </c>
       <c r="D127" t="n">
-        <v>0.269772</v>
+        <v>0.274081</v>
       </c>
     </row>
     <row r="128">
@@ -5036,13 +5036,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.294237</v>
+        <v>0.314137</v>
       </c>
       <c r="C128" t="n">
-        <v>1.61685</v>
+        <v>1.68387</v>
       </c>
       <c r="D128" t="n">
-        <v>0.266834</v>
+        <v>0.283696</v>
       </c>
     </row>
     <row r="129">
@@ -5050,13 +5050,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.288764</v>
+        <v>0.303791</v>
       </c>
       <c r="C129" t="n">
-        <v>1.63872</v>
+        <v>1.67897</v>
       </c>
       <c r="D129" t="n">
-        <v>0.262442</v>
+        <v>0.272775</v>
       </c>
     </row>
     <row r="130">
@@ -5064,13 +5064,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.280193</v>
+        <v>0.292037</v>
       </c>
       <c r="C130" t="n">
-        <v>1.6494</v>
+        <v>1.69644</v>
       </c>
       <c r="D130" t="n">
-        <v>0.26418</v>
+        <v>0.270311</v>
       </c>
     </row>
     <row r="131">
@@ -5078,13 +5078,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.274968</v>
+        <v>0.288716</v>
       </c>
       <c r="C131" t="n">
-        <v>1.7007</v>
+        <v>1.76031</v>
       </c>
       <c r="D131" t="n">
-        <v>0.261479</v>
+        <v>0.269442</v>
       </c>
     </row>
     <row r="132">
@@ -5092,13 +5092,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.266687</v>
+        <v>0.27816</v>
       </c>
       <c r="C132" t="n">
-        <v>1.70576</v>
+        <v>1.79813</v>
       </c>
       <c r="D132" t="n">
-        <v>0.262427</v>
+        <v>0.269086</v>
       </c>
     </row>
     <row r="133">
@@ -5106,13 +5106,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.257485</v>
+        <v>0.274479</v>
       </c>
       <c r="C133" t="n">
-        <v>1.81548</v>
+        <v>1.76954</v>
       </c>
       <c r="D133" t="n">
-        <v>0.256602</v>
+        <v>0.266624</v>
       </c>
     </row>
     <row r="134">
@@ -5120,13 +5120,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.248151</v>
+        <v>0.265046</v>
       </c>
       <c r="C134" t="n">
-        <v>1.8099</v>
+        <v>1.86939</v>
       </c>
       <c r="D134" t="n">
-        <v>0.260533</v>
+        <v>0.268484</v>
       </c>
     </row>
     <row r="135">
@@ -5134,13 +5134,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.243493</v>
+        <v>0.253976</v>
       </c>
       <c r="C135" t="n">
-        <v>1.8946</v>
+        <v>1.94574</v>
       </c>
       <c r="D135" t="n">
-        <v>0.257497</v>
+        <v>0.26019</v>
       </c>
     </row>
     <row r="136">
@@ -5148,13 +5148,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.236507</v>
+        <v>0.245183</v>
       </c>
       <c r="C136" t="n">
-        <v>1.73634</v>
+        <v>1.76723</v>
       </c>
       <c r="D136" t="n">
-        <v>0.256586</v>
+        <v>0.259488</v>
       </c>
     </row>
     <row r="137">
@@ -5162,13 +5162,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.228311</v>
+        <v>0.240276</v>
       </c>
       <c r="C137" t="n">
-        <v>1.79175</v>
+        <v>1.77069</v>
       </c>
       <c r="D137" t="n">
-        <v>0.285446</v>
+        <v>0.287691</v>
       </c>
     </row>
     <row r="138">
@@ -5176,13 +5176,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.325847</v>
+        <v>0.33429</v>
       </c>
       <c r="C138" t="n">
-        <v>1.73768</v>
+        <v>1.75523</v>
       </c>
       <c r="D138" t="n">
-        <v>0.274281</v>
+        <v>0.290193</v>
       </c>
     </row>
     <row r="139">
@@ -5190,13 +5190,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.324165</v>
+        <v>0.323614</v>
       </c>
       <c r="C139" t="n">
-        <v>1.72773</v>
+        <v>1.765</v>
       </c>
       <c r="D139" t="n">
-        <v>0.274786</v>
+        <v>0.285743</v>
       </c>
     </row>
     <row r="140">
@@ -5204,13 +5204,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.305977</v>
+        <v>0.320005</v>
       </c>
       <c r="C140" t="n">
-        <v>1.74488</v>
+        <v>1.82402</v>
       </c>
       <c r="D140" t="n">
-        <v>0.270742</v>
+        <v>0.277465</v>
       </c>
     </row>
     <row r="141">
@@ -5218,13 +5218,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.302915</v>
+        <v>0.31354</v>
       </c>
       <c r="C141" t="n">
-        <v>1.81815</v>
+        <v>1.83033</v>
       </c>
       <c r="D141" t="n">
-        <v>0.275804</v>
+        <v>0.277068</v>
       </c>
     </row>
     <row r="142">
@@ -5232,13 +5232,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.296218</v>
+        <v>0.313758</v>
       </c>
       <c r="C142" t="n">
-        <v>1.77449</v>
+        <v>1.82615</v>
       </c>
       <c r="D142" t="n">
-        <v>0.267636</v>
+        <v>0.275022</v>
       </c>
     </row>
     <row r="143">
@@ -5246,13 +5246,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.292831</v>
+        <v>0.300752</v>
       </c>
       <c r="C143" t="n">
-        <v>1.79435</v>
+        <v>1.82468</v>
       </c>
       <c r="D143" t="n">
-        <v>0.271081</v>
+        <v>0.27606</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Running erasure.xlsx
+++ b/vs-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.279347</v>
+        <v>0.26843</v>
       </c>
       <c r="C2" t="n">
-        <v>0.239935</v>
+        <v>0.235049</v>
       </c>
       <c r="D2" t="n">
-        <v>0.251865</v>
+        <v>0.24767</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.26709</v>
+        <v>0.273502</v>
       </c>
       <c r="C3" t="n">
-        <v>0.239799</v>
+        <v>0.24572</v>
       </c>
       <c r="D3" t="n">
-        <v>0.244762</v>
+        <v>0.253032</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.259617</v>
+        <v>0.266066</v>
       </c>
       <c r="C4" t="n">
-        <v>0.240754</v>
+        <v>0.239692</v>
       </c>
       <c r="D4" t="n">
-        <v>0.248811</v>
+        <v>0.247349</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.253179</v>
+        <v>0.259777</v>
       </c>
       <c r="C5" t="n">
-        <v>0.234652</v>
+        <v>0.235762</v>
       </c>
       <c r="D5" t="n">
-        <v>0.241383</v>
+        <v>0.245939</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.244698</v>
+        <v>0.248667</v>
       </c>
       <c r="C6" t="n">
-        <v>0.230977</v>
+        <v>0.238472</v>
       </c>
       <c r="D6" t="n">
-        <v>0.245573</v>
+        <v>0.241135</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.234603</v>
+        <v>0.24198</v>
       </c>
       <c r="C7" t="n">
-        <v>0.231496</v>
+        <v>0.23087</v>
       </c>
       <c r="D7" t="n">
-        <v>0.241603</v>
+        <v>0.247401</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.228998</v>
+        <v>0.233612</v>
       </c>
       <c r="C8" t="n">
-        <v>0.227283</v>
+        <v>0.23569</v>
       </c>
       <c r="D8" t="n">
-        <v>0.239083</v>
+        <v>0.246601</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.21475</v>
+        <v>0.223294</v>
       </c>
       <c r="C9" t="n">
-        <v>0.229137</v>
+        <v>0.229294</v>
       </c>
       <c r="D9" t="n">
-        <v>0.247048</v>
+        <v>0.252733</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.312416</v>
+        <v>0.312313</v>
       </c>
       <c r="C10" t="n">
-        <v>0.249559</v>
+        <v>0.248812</v>
       </c>
       <c r="D10" t="n">
-        <v>0.254621</v>
+        <v>0.254856</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.306706</v>
+        <v>0.304356</v>
       </c>
       <c r="C11" t="n">
-        <v>0.245968</v>
+        <v>0.246155</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25324</v>
+        <v>0.250708</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.299576</v>
+        <v>0.297302</v>
       </c>
       <c r="C12" t="n">
-        <v>0.244657</v>
+        <v>0.246382</v>
       </c>
       <c r="D12" t="n">
-        <v>0.252925</v>
+        <v>0.252565</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.289726</v>
+        <v>0.297729</v>
       </c>
       <c r="C13" t="n">
-        <v>0.240214</v>
+        <v>0.243714</v>
       </c>
       <c r="D13" t="n">
-        <v>0.246637</v>
+        <v>0.250901</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.286759</v>
+        <v>0.28859</v>
       </c>
       <c r="C14" t="n">
-        <v>0.243347</v>
+        <v>0.244858</v>
       </c>
       <c r="D14" t="n">
-        <v>0.250963</v>
+        <v>0.251688</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.280216</v>
+        <v>0.281053</v>
       </c>
       <c r="C15" t="n">
-        <v>0.239879</v>
+        <v>0.239173</v>
       </c>
       <c r="D15" t="n">
-        <v>0.252119</v>
+        <v>0.250364</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.275279</v>
+        <v>0.274356</v>
       </c>
       <c r="C16" t="n">
-        <v>0.236337</v>
+        <v>0.24099</v>
       </c>
       <c r="D16" t="n">
-        <v>0.248517</v>
+        <v>0.25166</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.270458</v>
+        <v>0.269817</v>
       </c>
       <c r="C17" t="n">
-        <v>0.238185</v>
+        <v>0.238822</v>
       </c>
       <c r="D17" t="n">
-        <v>0.25079</v>
+        <v>0.246221</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.262782</v>
+        <v>0.260579</v>
       </c>
       <c r="C18" t="n">
-        <v>0.239762</v>
+        <v>0.235506</v>
       </c>
       <c r="D18" t="n">
-        <v>0.245976</v>
+        <v>0.243318</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.254242</v>
+        <v>0.252105</v>
       </c>
       <c r="C19" t="n">
-        <v>0.238292</v>
+        <v>0.236945</v>
       </c>
       <c r="D19" t="n">
-        <v>0.251032</v>
+        <v>0.247822</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.24731</v>
+        <v>0.249253</v>
       </c>
       <c r="C20" t="n">
-        <v>0.234366</v>
+        <v>0.235395</v>
       </c>
       <c r="D20" t="n">
-        <v>0.244629</v>
+        <v>0.24913</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.239017</v>
+        <v>0.240189</v>
       </c>
       <c r="C21" t="n">
-        <v>0.231632</v>
+        <v>0.232145</v>
       </c>
       <c r="D21" t="n">
-        <v>0.242331</v>
+        <v>0.243057</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.231156</v>
+        <v>0.23242</v>
       </c>
       <c r="C22" t="n">
-        <v>0.235032</v>
+        <v>0.232671</v>
       </c>
       <c r="D22" t="n">
-        <v>0.242708</v>
+        <v>0.242717</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.222179</v>
+        <v>0.221453</v>
       </c>
       <c r="C23" t="n">
-        <v>0.227922</v>
+        <v>0.232897</v>
       </c>
       <c r="D23" t="n">
-        <v>0.259044</v>
+        <v>0.26301</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.309994</v>
+        <v>0.307052</v>
       </c>
       <c r="C24" t="n">
-        <v>0.249966</v>
+        <v>0.249347</v>
       </c>
       <c r="D24" t="n">
-        <v>0.256347</v>
+        <v>0.256395</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.303709</v>
+        <v>0.301617</v>
       </c>
       <c r="C25" t="n">
-        <v>0.248368</v>
+        <v>0.252057</v>
       </c>
       <c r="D25" t="n">
-        <v>0.258591</v>
+        <v>0.256594</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.299259</v>
+        <v>0.30148</v>
       </c>
       <c r="C26" t="n">
-        <v>0.248639</v>
+        <v>0.245704</v>
       </c>
       <c r="D26" t="n">
-        <v>0.252445</v>
+        <v>0.259264</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.29335</v>
+        <v>0.295512</v>
       </c>
       <c r="C27" t="n">
-        <v>0.245934</v>
+        <v>0.248979</v>
       </c>
       <c r="D27" t="n">
-        <v>0.252251</v>
+        <v>0.255906</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.287294</v>
+        <v>0.292133</v>
       </c>
       <c r="C28" t="n">
-        <v>0.245182</v>
+        <v>0.242455</v>
       </c>
       <c r="D28" t="n">
-        <v>0.256322</v>
+        <v>0.256074</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.284866</v>
+        <v>0.281029</v>
       </c>
       <c r="C29" t="n">
-        <v>0.244651</v>
+        <v>0.245495</v>
       </c>
       <c r="D29" t="n">
-        <v>0.256055</v>
+        <v>0.25019</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.275959</v>
+        <v>0.277579</v>
       </c>
       <c r="C30" t="n">
-        <v>0.239013</v>
+        <v>0.24386</v>
       </c>
       <c r="D30" t="n">
-        <v>0.252062</v>
+        <v>0.253912</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.269024</v>
+        <v>0.271015</v>
       </c>
       <c r="C31" t="n">
-        <v>0.23737</v>
+        <v>0.241923</v>
       </c>
       <c r="D31" t="n">
-        <v>0.251271</v>
+        <v>0.253024</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.261937</v>
+        <v>0.264067</v>
       </c>
       <c r="C32" t="n">
-        <v>0.241792</v>
+        <v>0.237229</v>
       </c>
       <c r="D32" t="n">
-        <v>0.250901</v>
+        <v>0.247553</v>
       </c>
     </row>
     <row r="33">
@@ -3686,10 +3686,10 @@
         <v>0.256654</v>
       </c>
       <c r="C33" t="n">
-        <v>0.237281</v>
+        <v>0.233851</v>
       </c>
       <c r="D33" t="n">
-        <v>0.247267</v>
+        <v>0.24498</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.25488</v>
+        <v>0.249809</v>
       </c>
       <c r="C34" t="n">
-        <v>0.236342</v>
+        <v>0.234128</v>
       </c>
       <c r="D34" t="n">
-        <v>0.247439</v>
+        <v>0.24944</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.244884</v>
+        <v>0.241528</v>
       </c>
       <c r="C35" t="n">
-        <v>0.233574</v>
+        <v>0.23485</v>
       </c>
       <c r="D35" t="n">
-        <v>0.248633</v>
+        <v>0.248632</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.234701</v>
+        <v>0.233725</v>
       </c>
       <c r="C36" t="n">
-        <v>0.23484</v>
+        <v>0.235199</v>
       </c>
       <c r="D36" t="n">
-        <v>0.246009</v>
+        <v>0.245904</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.22698</v>
+        <v>0.22424</v>
       </c>
       <c r="C37" t="n">
-        <v>0.231556</v>
+        <v>0.233085</v>
       </c>
       <c r="D37" t="n">
-        <v>0.26662</v>
+        <v>0.264071</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.314112</v>
+        <v>0.310654</v>
       </c>
       <c r="C38" t="n">
-        <v>0.253744</v>
+        <v>0.254053</v>
       </c>
       <c r="D38" t="n">
-        <v>0.261608</v>
+        <v>0.263449</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.308959</v>
+        <v>0.310541</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257094</v>
+        <v>0.252997</v>
       </c>
       <c r="D39" t="n">
-        <v>0.267853</v>
+        <v>0.260644</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.307286</v>
+        <v>0.302538</v>
       </c>
       <c r="C40" t="n">
-        <v>0.251764</v>
+        <v>0.249047</v>
       </c>
       <c r="D40" t="n">
-        <v>0.261613</v>
+        <v>0.261035</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.300018</v>
+        <v>0.299496</v>
       </c>
       <c r="C41" t="n">
-        <v>0.249014</v>
+        <v>0.24926</v>
       </c>
       <c r="D41" t="n">
-        <v>0.267252</v>
+        <v>0.258603</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.292941</v>
+        <v>0.289874</v>
       </c>
       <c r="C42" t="n">
-        <v>0.248116</v>
+        <v>0.248133</v>
       </c>
       <c r="D42" t="n">
-        <v>0.257995</v>
+        <v>0.257105</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.286371</v>
+        <v>0.286965</v>
       </c>
       <c r="C43" t="n">
-        <v>0.247078</v>
+        <v>0.245604</v>
       </c>
       <c r="D43" t="n">
-        <v>0.258962</v>
+        <v>0.257339</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.280945</v>
+        <v>0.280854</v>
       </c>
       <c r="C44" t="n">
-        <v>0.243987</v>
+        <v>0.246606</v>
       </c>
       <c r="D44" t="n">
-        <v>0.254923</v>
+        <v>0.256571</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.272647</v>
+        <v>0.276022</v>
       </c>
       <c r="C45" t="n">
-        <v>0.244546</v>
+        <v>0.246339</v>
       </c>
       <c r="D45" t="n">
-        <v>0.254384</v>
+        <v>0.257183</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.264577</v>
+        <v>0.267961</v>
       </c>
       <c r="C46" t="n">
-        <v>0.242735</v>
+        <v>0.242071</v>
       </c>
       <c r="D46" t="n">
-        <v>0.253327</v>
+        <v>0.256847</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.26174</v>
+        <v>0.261639</v>
       </c>
       <c r="C47" t="n">
-        <v>0.239469</v>
+        <v>0.241755</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2524</v>
+        <v>0.25211</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.252523</v>
+        <v>0.254315</v>
       </c>
       <c r="C48" t="n">
-        <v>0.239865</v>
+        <v>0.24119</v>
       </c>
       <c r="D48" t="n">
-        <v>0.250127</v>
+        <v>0.255455</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.244094</v>
+        <v>0.248517</v>
       </c>
       <c r="C49" t="n">
-        <v>0.237444</v>
+        <v>0.241625</v>
       </c>
       <c r="D49" t="n">
-        <v>0.250982</v>
+        <v>0.255783</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.241137</v>
+        <v>0.240745</v>
       </c>
       <c r="C50" t="n">
-        <v>0.238042</v>
+        <v>0.237654</v>
       </c>
       <c r="D50" t="n">
-        <v>0.247782</v>
+        <v>0.249981</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.230235</v>
+        <v>0.230689</v>
       </c>
       <c r="C51" t="n">
-        <v>0.238494</v>
+        <v>0.237343</v>
       </c>
       <c r="D51" t="n">
-        <v>0.273108</v>
+        <v>0.273622</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.224968</v>
+        <v>0.221732</v>
       </c>
       <c r="C52" t="n">
-        <v>0.235691</v>
+        <v>0.236888</v>
       </c>
       <c r="D52" t="n">
-        <v>0.27052</v>
+        <v>0.273104</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.311341</v>
+        <v>0.316221</v>
       </c>
       <c r="C53" t="n">
-        <v>0.260404</v>
+        <v>0.264802</v>
       </c>
       <c r="D53" t="n">
-        <v>0.269836</v>
+        <v>0.267801</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.316713</v>
+        <v>0.310072</v>
       </c>
       <c r="C54" t="n">
-        <v>0.260394</v>
+        <v>0.25976</v>
       </c>
       <c r="D54" t="n">
-        <v>0.268504</v>
+        <v>0.268234</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.306413</v>
+        <v>0.307796</v>
       </c>
       <c r="C55" t="n">
-        <v>0.256686</v>
+        <v>0.256508</v>
       </c>
       <c r="D55" t="n">
-        <v>0.266181</v>
+        <v>0.266662</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.30108</v>
+        <v>0.300377</v>
       </c>
       <c r="C56" t="n">
-        <v>0.25702</v>
+        <v>0.256987</v>
       </c>
       <c r="D56" t="n">
-        <v>0.264011</v>
+        <v>0.26237</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.294624</v>
+        <v>0.293346</v>
       </c>
       <c r="C57" t="n">
-        <v>0.256945</v>
+        <v>0.252508</v>
       </c>
       <c r="D57" t="n">
-        <v>0.266549</v>
+        <v>0.264061</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.286939</v>
+        <v>0.290133</v>
       </c>
       <c r="C58" t="n">
-        <v>0.253007</v>
+        <v>0.251283</v>
       </c>
       <c r="D58" t="n">
-        <v>0.262565</v>
+        <v>0.261161</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.280849</v>
+        <v>0.27906</v>
       </c>
       <c r="C59" t="n">
-        <v>0.249198</v>
+        <v>0.250288</v>
       </c>
       <c r="D59" t="n">
-        <v>0.261726</v>
+        <v>0.261624</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.275991</v>
+        <v>0.274025</v>
       </c>
       <c r="C60" t="n">
-        <v>0.249365</v>
+        <v>0.249064</v>
       </c>
       <c r="D60" t="n">
-        <v>0.259518</v>
+        <v>0.259355</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.268504</v>
+        <v>0.265056</v>
       </c>
       <c r="C61" t="n">
-        <v>0.249964</v>
+        <v>0.247143</v>
       </c>
       <c r="D61" t="n">
-        <v>0.256087</v>
+        <v>0.255437</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.260176</v>
+        <v>0.26046</v>
       </c>
       <c r="C62" t="n">
-        <v>0.245239</v>
+        <v>0.246251</v>
       </c>
       <c r="D62" t="n">
-        <v>0.256407</v>
+        <v>0.258256</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.252835</v>
+        <v>0.254626</v>
       </c>
       <c r="C63" t="n">
-        <v>0.245299</v>
+        <v>0.245441</v>
       </c>
       <c r="D63" t="n">
-        <v>0.259337</v>
+        <v>0.258508</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.243969</v>
+        <v>0.243154</v>
       </c>
       <c r="C64" t="n">
-        <v>0.241565</v>
+        <v>0.246516</v>
       </c>
       <c r="D64" t="n">
-        <v>0.253268</v>
+        <v>0.259215</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.238114</v>
+        <v>0.234885</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242782</v>
+        <v>0.239346</v>
       </c>
       <c r="D65" t="n">
-        <v>0.250105</v>
+        <v>0.251638</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.227667</v>
+        <v>0.225438</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241054</v>
+        <v>0.239016</v>
       </c>
       <c r="D66" t="n">
-        <v>0.283196</v>
+        <v>0.284539</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.330318</v>
+        <v>0.326695</v>
       </c>
       <c r="C67" t="n">
-        <v>0.274496</v>
+        <v>0.275548</v>
       </c>
       <c r="D67" t="n">
-        <v>0.282097</v>
+        <v>0.274434</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.326094</v>
+        <v>0.3285</v>
       </c>
       <c r="C68" t="n">
-        <v>0.270315</v>
+        <v>0.275346</v>
       </c>
       <c r="D68" t="n">
-        <v>0.277454</v>
+        <v>0.278418</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.320015</v>
+        <v>0.31587</v>
       </c>
       <c r="C69" t="n">
-        <v>0.263448</v>
+        <v>0.269505</v>
       </c>
       <c r="D69" t="n">
-        <v>0.271251</v>
+        <v>0.270612</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.314035</v>
+        <v>0.313146</v>
       </c>
       <c r="C70" t="n">
-        <v>0.265838</v>
+        <v>0.269005</v>
       </c>
       <c r="D70" t="n">
-        <v>0.281836</v>
+        <v>0.274732</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.311524</v>
+        <v>0.304371</v>
       </c>
       <c r="C71" t="n">
-        <v>0.262906</v>
+        <v>0.263682</v>
       </c>
       <c r="D71" t="n">
-        <v>0.271482</v>
+        <v>0.269739</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.300234</v>
+        <v>0.298373</v>
       </c>
       <c r="C72" t="n">
-        <v>0.260132</v>
+        <v>0.257471</v>
       </c>
       <c r="D72" t="n">
-        <v>0.271361</v>
+        <v>0.267184</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.289608</v>
+        <v>0.294728</v>
       </c>
       <c r="C73" t="n">
-        <v>0.259752</v>
+        <v>0.254907</v>
       </c>
       <c r="D73" t="n">
-        <v>0.266293</v>
+        <v>0.272299</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.286722</v>
+        <v>0.284717</v>
       </c>
       <c r="C74" t="n">
-        <v>0.256507</v>
+        <v>0.252311</v>
       </c>
       <c r="D74" t="n">
-        <v>0.268088</v>
+        <v>0.263202</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279613</v>
+        <v>0.273298</v>
       </c>
       <c r="C75" t="n">
-        <v>0.256301</v>
+        <v>0.253009</v>
       </c>
       <c r="D75" t="n">
-        <v>0.269023</v>
+        <v>0.261936</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.274571</v>
+        <v>0.267591</v>
       </c>
       <c r="C76" t="n">
-        <v>0.253895</v>
+        <v>0.25362</v>
       </c>
       <c r="D76" t="n">
-        <v>0.264276</v>
+        <v>0.259994</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.261098</v>
+        <v>0.264985</v>
       </c>
       <c r="C77" t="n">
-        <v>0.253255</v>
+        <v>0.249255</v>
       </c>
       <c r="D77" t="n">
-        <v>0.259202</v>
+        <v>0.261176</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.252481</v>
+        <v>0.255584</v>
       </c>
       <c r="C78" t="n">
-        <v>0.247231</v>
+        <v>0.247865</v>
       </c>
       <c r="D78" t="n">
-        <v>0.260238</v>
+        <v>0.259436</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.245232</v>
+        <v>0.244295</v>
       </c>
       <c r="C79" t="n">
-        <v>0.246795</v>
+        <v>0.243085</v>
       </c>
       <c r="D79" t="n">
-        <v>0.253984</v>
+        <v>0.258113</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.235842</v>
+        <v>0.237675</v>
       </c>
       <c r="C80" t="n">
-        <v>0.242718</v>
+        <v>0.245239</v>
       </c>
       <c r="D80" t="n">
-        <v>0.290163</v>
+        <v>0.287017</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.333482</v>
+        <v>0.332107</v>
       </c>
       <c r="C81" t="n">
-        <v>0.275716</v>
+        <v>0.273081</v>
       </c>
       <c r="D81" t="n">
-        <v>0.28483</v>
+        <v>0.28252</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.331399</v>
+        <v>0.32523</v>
       </c>
       <c r="C82" t="n">
-        <v>0.280044</v>
+        <v>0.273726</v>
       </c>
       <c r="D82" t="n">
-        <v>0.279298</v>
+        <v>0.281002</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.321542</v>
+        <v>0.324626</v>
       </c>
       <c r="C83" t="n">
-        <v>0.269602</v>
+        <v>0.270407</v>
       </c>
       <c r="D83" t="n">
-        <v>0.279054</v>
+        <v>0.280073</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.316058</v>
+        <v>0.318617</v>
       </c>
       <c r="C84" t="n">
-        <v>0.267716</v>
+        <v>0.266469</v>
       </c>
       <c r="D84" t="n">
-        <v>0.277717</v>
+        <v>0.276652</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.310846</v>
+        <v>0.310367</v>
       </c>
       <c r="C85" t="n">
-        <v>0.269747</v>
+        <v>0.263658</v>
       </c>
       <c r="D85" t="n">
-        <v>0.274812</v>
+        <v>0.272463</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.302848</v>
+        <v>0.306139</v>
       </c>
       <c r="C86" t="n">
-        <v>0.26096</v>
+        <v>0.263</v>
       </c>
       <c r="D86" t="n">
-        <v>0.271443</v>
+        <v>0.275307</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.294565</v>
+        <v>0.297656</v>
       </c>
       <c r="C87" t="n">
-        <v>0.263893</v>
+        <v>0.260526</v>
       </c>
       <c r="D87" t="n">
-        <v>0.272049</v>
+        <v>0.272431</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.285943</v>
+        <v>0.288324</v>
       </c>
       <c r="C88" t="n">
-        <v>0.26559</v>
+        <v>0.261298</v>
       </c>
       <c r="D88" t="n">
-        <v>0.276549</v>
+        <v>0.266696</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.283892</v>
+        <v>0.280219</v>
       </c>
       <c r="C89" t="n">
-        <v>0.256724</v>
+        <v>0.258581</v>
       </c>
       <c r="D89" t="n">
-        <v>0.266991</v>
+        <v>0.266507</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.2728</v>
+        <v>0.272265</v>
       </c>
       <c r="C90" t="n">
-        <v>0.256251</v>
+        <v>0.254363</v>
       </c>
       <c r="D90" t="n">
-        <v>0.266948</v>
+        <v>0.263913</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.26579</v>
+        <v>0.266837</v>
       </c>
       <c r="C91" t="n">
-        <v>0.253013</v>
+        <v>0.249969</v>
       </c>
       <c r="D91" t="n">
-        <v>0.265141</v>
+        <v>0.262643</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.255193</v>
+        <v>0.257468</v>
       </c>
       <c r="C92" t="n">
-        <v>0.252555</v>
+        <v>0.251296</v>
       </c>
       <c r="D92" t="n">
-        <v>0.260646</v>
+        <v>0.260357</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.245422</v>
+        <v>0.245762</v>
       </c>
       <c r="C93" t="n">
-        <v>0.252411</v>
+        <v>0.247235</v>
       </c>
       <c r="D93" t="n">
-        <v>0.262676</v>
+        <v>0.262347</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.23899</v>
+        <v>0.241539</v>
       </c>
       <c r="C94" t="n">
-        <v>0.247655</v>
+        <v>0.249238</v>
       </c>
       <c r="D94" t="n">
-        <v>0.288588</v>
+        <v>0.286223</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.338132</v>
+        <v>0.33267</v>
       </c>
       <c r="C95" t="n">
-        <v>0.279331</v>
+        <v>0.277329</v>
       </c>
       <c r="D95" t="n">
-        <v>0.287696</v>
+        <v>0.283525</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.335252</v>
+        <v>0.331044</v>
       </c>
       <c r="C96" t="n">
-        <v>0.273776</v>
+        <v>0.2765</v>
       </c>
       <c r="D96" t="n">
-        <v>0.281097</v>
+        <v>0.285615</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.3219</v>
+        <v>0.326618</v>
       </c>
       <c r="C97" t="n">
-        <v>0.274257</v>
+        <v>0.272047</v>
       </c>
       <c r="D97" t="n">
-        <v>0.279114</v>
+        <v>0.279039</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.321668</v>
+        <v>0.314499</v>
       </c>
       <c r="C98" t="n">
-        <v>0.272114</v>
+        <v>0.273375</v>
       </c>
       <c r="D98" t="n">
-        <v>0.279229</v>
+        <v>0.279955</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.307026</v>
+        <v>0.316404</v>
       </c>
       <c r="C99" t="n">
-        <v>0.267577</v>
+        <v>0.265119</v>
       </c>
       <c r="D99" t="n">
-        <v>0.27571</v>
+        <v>0.280526</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.306249</v>
+        <v>0.301834</v>
       </c>
       <c r="C100" t="n">
-        <v>0.264899</v>
+        <v>0.266518</v>
       </c>
       <c r="D100" t="n">
-        <v>0.277114</v>
+        <v>0.274212</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.300233</v>
+        <v>0.300162</v>
       </c>
       <c r="C101" t="n">
-        <v>0.265254</v>
+        <v>0.261968</v>
       </c>
       <c r="D101" t="n">
-        <v>0.267991</v>
+        <v>0.273858</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.291391</v>
+        <v>0.289414</v>
       </c>
       <c r="C102" t="n">
-        <v>0.258453</v>
+        <v>0.258563</v>
       </c>
       <c r="D102" t="n">
-        <v>0.265245</v>
+        <v>0.267041</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.284846</v>
+        <v>0.284331</v>
       </c>
       <c r="C103" t="n">
-        <v>0.26097</v>
+        <v>0.256521</v>
       </c>
       <c r="D103" t="n">
-        <v>0.267159</v>
+        <v>0.269046</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.275267</v>
+        <v>0.27369</v>
       </c>
       <c r="C104" t="n">
-        <v>0.259436</v>
+        <v>0.25481</v>
       </c>
       <c r="D104" t="n">
-        <v>0.262854</v>
+        <v>0.266997</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.27093</v>
+        <v>0.266303</v>
       </c>
       <c r="C105" t="n">
-        <v>0.253003</v>
+        <v>0.253021</v>
       </c>
       <c r="D105" t="n">
-        <v>0.265284</v>
+        <v>0.265133</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.257676</v>
+        <v>0.257691</v>
       </c>
       <c r="C106" t="n">
-        <v>0.254433</v>
+        <v>0.250756</v>
       </c>
       <c r="D106" t="n">
-        <v>0.259021</v>
+        <v>0.265159</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.252047</v>
+        <v>0.253737</v>
       </c>
       <c r="C107" t="n">
-        <v>0.251874</v>
+        <v>0.250864</v>
       </c>
       <c r="D107" t="n">
-        <v>0.260739</v>
+        <v>0.25967</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.243933</v>
+        <v>0.245141</v>
       </c>
       <c r="C108" t="n">
-        <v>0.246862</v>
+        <v>0.248763</v>
       </c>
       <c r="D108" t="n">
-        <v>0.292297</v>
+        <v>0.288419</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.233403</v>
+        <v>0.228853</v>
       </c>
       <c r="C109" t="n">
-        <v>0.245263</v>
+        <v>0.247217</v>
       </c>
       <c r="D109" t="n">
-        <v>0.287674</v>
+        <v>0.284804</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.333526</v>
+        <v>0.343113</v>
       </c>
       <c r="C110" t="n">
-        <v>0.278536</v>
+        <v>0.277091</v>
       </c>
       <c r="D110" t="n">
-        <v>0.282155</v>
+        <v>0.285786</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.32467</v>
+        <v>0.326428</v>
       </c>
       <c r="C111" t="n">
-        <v>0.272255</v>
+        <v>0.271784</v>
       </c>
       <c r="D111" t="n">
-        <v>0.279847</v>
+        <v>0.279199</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.323474</v>
+        <v>0.317989</v>
       </c>
       <c r="C112" t="n">
-        <v>0.270802</v>
+        <v>0.272135</v>
       </c>
       <c r="D112" t="n">
-        <v>0.278093</v>
+        <v>0.277191</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.311855</v>
+        <v>0.310948</v>
       </c>
       <c r="C113" t="n">
-        <v>0.269793</v>
+        <v>0.267441</v>
       </c>
       <c r="D113" t="n">
-        <v>0.277388</v>
+        <v>0.276742</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.30482</v>
+        <v>0.305439</v>
       </c>
       <c r="C114" t="n">
-        <v>0.267352</v>
+        <v>0.26627</v>
       </c>
       <c r="D114" t="n">
-        <v>0.274097</v>
+        <v>0.272246</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.303171</v>
+        <v>0.307175</v>
       </c>
       <c r="C115" t="n">
-        <v>0.261733</v>
+        <v>0.264439</v>
       </c>
       <c r="D115" t="n">
-        <v>0.272704</v>
+        <v>0.271728</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.29064</v>
+        <v>0.290855</v>
       </c>
       <c r="C116" t="n">
-        <v>0.263484</v>
+        <v>0.260145</v>
       </c>
       <c r="D116" t="n">
-        <v>0.270464</v>
+        <v>0.267451</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293058</v>
+        <v>0.289019</v>
       </c>
       <c r="C117" t="n">
-        <v>0.263582</v>
+        <v>0.25916</v>
       </c>
       <c r="D117" t="n">
-        <v>0.264784</v>
+        <v>0.267245</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.278157</v>
+        <v>0.28588</v>
       </c>
       <c r="C118" t="n">
-        <v>0.260278</v>
+        <v>0.258424</v>
       </c>
       <c r="D118" t="n">
-        <v>0.266337</v>
+        <v>0.26989</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.27242</v>
+        <v>0.270302</v>
       </c>
       <c r="C119" t="n">
-        <v>0.253264</v>